--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFB9619-71C1-432B-9606-C8836CA162DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E64940-ECDD-4DAB-A2C6-93647076C963}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1032">
   <si>
     <t>病毒四项</t>
   </si>
@@ -4544,10 +4544,6 @@
     <t>蜜月结束 飞北京</t>
   </si>
   <si>
-    <t>上班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蜜月开始 飞三亚 住酒店 休整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5374,9 +5370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.45-7.34</t>
-  </si>
-  <si>
     <t>6.45-7.35</t>
   </si>
   <si>
@@ -5469,6 +5462,48 @@
   </si>
   <si>
     <t>小腹微微隐痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.75 温度计掉落 后看体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡着温度计掉落，醒来后看体温</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shui zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常 B超检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去医院 检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：烧排骨+烧鸭子+炝炒圆白菜+</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+  </si>
+  <si>
+    <t>上班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5756,19 +5791,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5782,9 +5820,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6873,7 +6908,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6887,7 +6922,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="57"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -7076,22 +7111,22 @@
         <v>43453</v>
       </c>
       <c r="B1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C1" t="s">
         <v>918</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E1" t="s">
         <v>919</v>
       </c>
-      <c r="D1" t="s">
-        <v>916</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>920</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -7533,10 +7568,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
-      <selection activeCell="B763" sqref="B763"/>
+    <sheetView tabSelected="1" topLeftCell="A750" workbookViewId="0">
+      <selection activeCell="D772" sqref="D772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7576,7 +7611,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="57">
+      <c r="A2" s="58">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -7585,7 +7620,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -7595,7 +7630,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -7605,56 +7640,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="57">
+      <c r="A13" s="58">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -7665,7 +7700,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -7678,8 +7713,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -7687,8 +7722,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -7697,8 +7732,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="60"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -7707,7 +7742,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -7717,7 +7752,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -7727,7 +7762,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -7737,7 +7772,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -7747,7 +7782,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -7757,7 +7792,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -7767,7 +7802,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -7777,7 +7812,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57">
+      <c r="A26" s="58">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -7788,8 +7823,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="61" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -7800,8 +7835,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="61"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -7810,8 +7845,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="61"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -7820,8 +7855,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -7830,8 +7865,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -7840,8 +7875,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -7853,8 +7888,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="61"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -7863,8 +7898,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="61"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -7873,7 +7908,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -7883,7 +7918,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -7893,7 +7928,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -7903,7 +7938,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -7913,7 +7948,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="57">
+      <c r="A40" s="58">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -7930,7 +7965,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -7940,7 +7975,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -7950,7 +7985,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -7960,7 +7995,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -7970,7 +8005,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -7982,7 +8017,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -7992,7 +8027,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -8002,7 +8037,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -8012,7 +8047,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -8022,7 +8057,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -8032,7 +8067,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -8042,7 +8077,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -8052,7 +8087,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -8062,7 +8097,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -8072,7 +8107,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -8082,10 +8117,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="57">
+      <c r="A57" s="58">
         <v>43406</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="56" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -8097,8 +8132,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="57"/>
-      <c r="B58" s="61"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -8107,7 +8142,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="57"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -8117,7 +8152,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="57"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -8127,7 +8162,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="57"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -8137,7 +8172,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -8147,7 +8182,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -8157,7 +8192,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -8167,7 +8202,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -8177,7 +8212,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -8187,7 +8222,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -8197,7 +8232,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -8207,7 +8242,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -8217,7 +8252,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="57"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -8522,7 +8557,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="57">
+      <c r="A104" s="58">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -8530,7 +8565,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -8542,7 +8577,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="57"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -8551,7 +8586,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="57"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -8561,7 +8596,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="57"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -8571,7 +8606,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="57"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -8581,7 +8616,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="57"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -8589,7 +8624,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="57"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -8599,7 +8634,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="57"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -8609,7 +8644,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="57"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -8619,7 +8654,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="57"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -8629,7 +8664,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="57"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -8639,7 +8674,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="57"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -8649,7 +8684,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="57"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -8659,7 +8694,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="57"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -8669,7 +8704,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="57">
+      <c r="A120" s="58">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -8681,7 +8716,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="57"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -8691,7 +8726,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="57"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -8701,7 +8736,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="57"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -8709,7 +8744,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="57"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -8719,7 +8754,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="57"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -8729,7 +8764,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="57"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -8739,7 +8774,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="57"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -8749,7 +8784,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="57"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -8759,7 +8794,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="57"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -8769,7 +8804,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="57"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -8779,7 +8814,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="57"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -8789,7 +8824,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="57"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -8799,7 +8834,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="57"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -8809,7 +8844,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="57"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -8819,7 +8854,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="57"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -8829,7 +8864,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="57"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -8839,7 +8874,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="57">
+      <c r="A138" s="58">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -8851,7 +8886,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="57"/>
+      <c r="A139" s="58"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -8861,7 +8896,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="57"/>
+      <c r="A140" s="58"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -8871,7 +8906,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="57"/>
+      <c r="A141" s="58"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -8881,7 +8916,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="57"/>
+      <c r="A142" s="58"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -8891,7 +8926,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="57"/>
+      <c r="A143" s="58"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -8901,7 +8936,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="57"/>
+      <c r="A144" s="58"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -8909,7 +8944,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="57"/>
+      <c r="A145" s="58"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -8919,7 +8954,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="57"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -8929,7 +8964,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="57"/>
+      <c r="A147" s="58"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -8939,7 +8974,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="57"/>
+      <c r="A148" s="58"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -8949,7 +8984,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="57"/>
+      <c r="A149" s="58"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -8959,7 +8994,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="57"/>
+      <c r="A150" s="58"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -8969,7 +9004,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="57"/>
+      <c r="A151" s="58"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -8979,7 +9014,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="57"/>
+      <c r="A152" s="58"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -8989,7 +9024,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="57"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -8999,7 +9034,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="57"/>
+      <c r="A154" s="58"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -9009,7 +9044,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="57">
+      <c r="A156" s="58">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -9021,7 +9056,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="57"/>
+      <c r="A157" s="58"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -9031,7 +9066,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="57"/>
+      <c r="A158" s="58"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -9041,7 +9076,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="57"/>
+      <c r="A159" s="58"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -9051,7 +9086,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="57"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -9061,7 +9096,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="57"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -9069,7 +9104,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="57"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -9079,7 +9114,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="57"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -9087,7 +9122,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="57"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -9097,7 +9132,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="57"/>
+      <c r="A165" s="58"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -9107,7 +9142,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="57"/>
+      <c r="A166" s="58"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -9117,7 +9152,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="57"/>
+      <c r="A167" s="58"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -9127,7 +9162,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="57"/>
+      <c r="A168" s="58"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -9137,7 +9172,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="57"/>
+      <c r="A169" s="58"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -9147,7 +9182,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="57"/>
+      <c r="A170" s="58"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -9157,7 +9192,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="57"/>
+      <c r="A171" s="58"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -9167,7 +9202,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="57">
+      <c r="A173" s="58">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -9179,7 +9214,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="57"/>
+      <c r="A174" s="58"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -9189,7 +9224,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="57"/>
+      <c r="A175" s="58"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -9199,7 +9234,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="57"/>
+      <c r="A176" s="58"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -9209,7 +9244,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="57"/>
+      <c r="A177" s="58"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -9217,7 +9252,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="57"/>
+      <c r="A178" s="58"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -9227,7 +9262,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="57"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -9237,7 +9272,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="57"/>
+      <c r="A180" s="58"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -9247,7 +9282,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="57"/>
+      <c r="A181" s="58"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -9257,7 +9292,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="57"/>
+      <c r="A182" s="58"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -9267,7 +9302,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="57"/>
+      <c r="A183" s="58"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -9277,7 +9312,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="57"/>
+      <c r="A184" s="58"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -9287,7 +9322,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="57"/>
+      <c r="A185" s="58"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -9485,7 +9520,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="53">
+      <c r="A209" s="52">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -9497,7 +9532,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="53"/>
+      <c r="A210" s="52"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -9507,7 +9542,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="53"/>
+      <c r="A211" s="52"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -9515,7 +9550,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="53"/>
+      <c r="A212" s="52"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -9525,7 +9560,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="53"/>
+      <c r="A213" s="52"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -9533,7 +9568,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="53"/>
+      <c r="A214" s="52"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -9541,7 +9576,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="53"/>
+      <c r="A215" s="52"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -9549,7 +9584,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="53"/>
+      <c r="A216" s="52"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -9559,7 +9594,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="53"/>
+      <c r="A217" s="52"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -9569,14 +9604,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="53"/>
+      <c r="A218" s="52"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="53">
+      <c r="A220" s="52">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -9588,7 +9623,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="53"/>
+      <c r="A221" s="52"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -9598,14 +9633,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="53"/>
+      <c r="A222" s="52"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="53"/>
+      <c r="A223" s="52"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -9615,7 +9650,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="53"/>
+      <c r="A224" s="52"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -9625,7 +9660,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="53"/>
+      <c r="A225" s="52"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -9635,7 +9670,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="53"/>
+      <c r="A226" s="52"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -9645,7 +9680,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="53"/>
+      <c r="A227" s="52"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -9655,7 +9690,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="53"/>
+      <c r="A228" s="52"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -9665,7 +9700,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="53"/>
+      <c r="A229" s="52"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -9675,7 +9710,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="53">
+      <c r="A231" s="52">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -9687,14 +9722,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="53"/>
+      <c r="A232" s="52"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="53"/>
+      <c r="A233" s="52"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -9704,7 +9739,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="53"/>
+      <c r="A234" s="52"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -9712,7 +9747,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="53"/>
+      <c r="A235" s="52"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -9720,7 +9755,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="53"/>
+      <c r="A236" s="52"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -9730,7 +9765,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="53"/>
+      <c r="A237" s="52"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -9738,7 +9773,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="53"/>
+      <c r="A238" s="52"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -9746,7 +9781,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="53"/>
+      <c r="A239" s="52"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -9754,7 +9789,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="53"/>
+      <c r="A240" s="52"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -9762,7 +9797,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="53"/>
+      <c r="A241" s="52"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -9772,14 +9807,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="53"/>
+      <c r="A242" s="52"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="53">
+      <c r="A244" s="52">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -9791,14 +9826,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="53"/>
+      <c r="A245" s="52"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="53"/>
+      <c r="A246" s="52"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -9808,7 +9843,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="53"/>
+      <c r="A247" s="52"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -9816,7 +9851,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="53"/>
+      <c r="A248" s="52"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -9826,7 +9861,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="53"/>
+      <c r="A249" s="52"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -9834,7 +9869,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="53"/>
+      <c r="A250" s="52"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -9842,7 +9877,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="53"/>
+      <c r="A251" s="52"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -9850,7 +9885,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="53"/>
+      <c r="A252" s="52"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -9860,7 +9895,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="53">
+      <c r="A254" s="52">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -9872,7 +9907,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="53"/>
+      <c r="A255" s="52"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -9880,14 +9915,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="53"/>
+      <c r="A256" s="52"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="53"/>
+      <c r="A257" s="52"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -9897,7 +9932,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="53"/>
+      <c r="A258" s="52"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -9905,7 +9940,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="53"/>
+      <c r="A259" s="52"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -9915,14 +9950,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="53"/>
+      <c r="A260" s="52"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="53"/>
+      <c r="A261" s="52"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -9930,7 +9965,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="53"/>
+      <c r="A262" s="52"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -9938,7 +9973,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="53"/>
+      <c r="A263" s="52"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -9946,7 +9981,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="53"/>
+      <c r="A264" s="52"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -9954,7 +9989,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="53"/>
+      <c r="A265" s="52"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -10141,7 +10176,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="53">
+      <c r="A290" s="52">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -10153,7 +10188,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="53"/>
+      <c r="A291" s="52"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -10163,14 +10198,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="53"/>
+      <c r="A292" s="52"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="53"/>
+      <c r="A293" s="52"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -10180,7 +10215,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="53"/>
+      <c r="A294" s="52"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -10188,7 +10223,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="53"/>
+      <c r="A295" s="52"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -10198,14 +10233,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="53"/>
+      <c r="A296" s="52"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="53"/>
+      <c r="A297" s="52"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -10213,7 +10248,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="53"/>
+      <c r="A298" s="52"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -10221,14 +10256,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="53"/>
+      <c r="A299" s="52"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="53"/>
+      <c r="A300" s="52"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -10236,7 +10271,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="53"/>
+      <c r="A301" s="52"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -10246,7 +10281,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="53">
+      <c r="A303" s="52">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -10258,7 +10293,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="53"/>
+      <c r="A304" s="52"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -10268,7 +10303,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="53"/>
+      <c r="A305" s="52"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -10276,14 +10311,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="53"/>
+      <c r="A306" s="52"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="53"/>
+      <c r="A307" s="52"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -10293,7 +10328,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="53"/>
+      <c r="A308" s="52"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -10301,7 +10336,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="53"/>
+      <c r="A309" s="52"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -10311,21 +10346,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="53"/>
+      <c r="A310" s="52"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="53"/>
+      <c r="A311" s="52"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="53"/>
+      <c r="A312" s="52"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -10333,14 +10368,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="53"/>
+      <c r="A313" s="52"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="53"/>
+      <c r="A314" s="52"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -10348,7 +10383,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="53"/>
+      <c r="A315" s="52"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -10358,10 +10393,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="53">
+      <c r="A317" s="52">
         <v>43425</v>
       </c>
-      <c r="B317" s="56" t="s">
+      <c r="B317" s="55" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -10372,24 +10407,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="53"/>
-      <c r="B318" s="56"/>
+      <c r="A318" s="52"/>
+      <c r="B318" s="55"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="53"/>
-      <c r="B319" s="56"/>
+      <c r="A319" s="52"/>
+      <c r="B319" s="55"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="53"/>
-      <c r="B320" s="56"/>
+      <c r="A320" s="52"/>
+      <c r="B320" s="55"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -10398,23 +10433,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="53"/>
-      <c r="B321" s="56"/>
+      <c r="A321" s="52"/>
+      <c r="B321" s="55"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="53"/>
-      <c r="B322" s="56"/>
+      <c r="A322" s="52"/>
+      <c r="B322" s="55"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="53"/>
-      <c r="B323" s="56"/>
+      <c r="A323" s="52"/>
+      <c r="B323" s="55"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -10423,38 +10458,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="53"/>
-      <c r="B324" s="56"/>
+      <c r="A324" s="52"/>
+      <c r="B324" s="55"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="53"/>
-      <c r="B325" s="56"/>
+      <c r="A325" s="52"/>
+      <c r="B325" s="55"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="53"/>
-      <c r="B326" s="56"/>
+      <c r="A326" s="52"/>
+      <c r="B326" s="55"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="53"/>
-      <c r="B327" s="56"/>
+      <c r="A327" s="52"/>
+      <c r="B327" s="55"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="53"/>
-      <c r="B328" s="56"/>
+      <c r="A328" s="52"/>
+      <c r="B328" s="55"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -10463,7 +10498,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="53">
+      <c r="A330" s="52">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -10475,7 +10510,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="53"/>
+      <c r="A331" s="52"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -10483,7 +10518,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="53"/>
+      <c r="A332" s="52"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -10491,7 +10526,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="53"/>
+      <c r="A333" s="52"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -10501,7 +10536,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="53"/>
+      <c r="A334" s="52"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -10509,21 +10544,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="53"/>
+      <c r="A335" s="52"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="53"/>
+      <c r="A336" s="52"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="53"/>
+      <c r="A337" s="52"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -10533,14 +10568,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="53"/>
+      <c r="A338" s="52"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="53"/>
+      <c r="A339" s="52"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -10548,7 +10583,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="53"/>
+      <c r="A340" s="52"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -10556,7 +10591,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="53"/>
+      <c r="A341" s="52"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -10564,7 +10599,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="53"/>
+      <c r="A342" s="52"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -10574,7 +10609,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="53">
+      <c r="A344" s="52">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -10586,7 +10621,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="53"/>
+      <c r="A345" s="52"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -10596,7 +10631,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="53"/>
+      <c r="A346" s="52"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -10604,7 +10639,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="53"/>
+      <c r="A347" s="52"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -10612,7 +10647,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="53"/>
+      <c r="A348" s="52"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -10620,7 +10655,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="53"/>
+      <c r="A349" s="52"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -10630,7 +10665,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="53"/>
+      <c r="A350" s="52"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -10640,14 +10675,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="53"/>
+      <c r="A351" s="52"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="53"/>
+      <c r="A352" s="52"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -10655,14 +10690,14 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="53"/>
+      <c r="A353" s="52"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="53"/>
+      <c r="A354" s="52"/>
       <c r="B354" s="20"/>
       <c r="C354" s="3"/>
       <c r="D354" s="15" t="s">
@@ -10670,7 +10705,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="53"/>
+      <c r="A355" s="52"/>
       <c r="B355" s="20"/>
       <c r="C355" t="s">
         <v>336</v>
@@ -10906,7 +10941,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="53">
+      <c r="A386" s="52">
         <v>43430</v>
       </c>
       <c r="B386" s="26"/>
@@ -10918,7 +10953,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="53"/>
+      <c r="A387" s="52"/>
       <c r="B387" s="26"/>
       <c r="C387" s="3" t="s">
         <v>639</v>
@@ -10928,7 +10963,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="53"/>
+      <c r="A388" s="52"/>
       <c r="B388" s="26"/>
       <c r="C388" s="3"/>
       <c r="D388" s="15" t="s">
@@ -10936,7 +10971,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="53"/>
+      <c r="A389" s="52"/>
       <c r="B389" s="26"/>
       <c r="C389" s="15" t="s">
         <v>266</v>
@@ -10946,7 +10981,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="53"/>
+      <c r="A390" s="52"/>
       <c r="B390" s="26"/>
       <c r="C390" s="15" t="s">
         <v>616</v>
@@ -10956,8 +10991,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="53"/>
-      <c r="B391" s="56" t="s">
+      <c r="A391" s="52"/>
+      <c r="B391" s="55" t="s">
         <v>649</v>
       </c>
       <c r="D391" s="15" t="s">
@@ -10965,48 +11000,48 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="53"/>
-      <c r="B392" s="56"/>
+      <c r="A392" s="52"/>
+      <c r="B392" s="55"/>
       <c r="C392" s="3"/>
       <c r="D392" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="53"/>
-      <c r="B393" s="56"/>
+      <c r="A393" s="52"/>
+      <c r="B393" s="55"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="53"/>
-      <c r="B394" s="56"/>
+      <c r="A394" s="52"/>
+      <c r="B394" s="55"/>
       <c r="D394" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="53"/>
-      <c r="B395" s="56"/>
+      <c r="A395" s="52"/>
+      <c r="B395" s="55"/>
       <c r="C395" s="3"/>
       <c r="D395" s="15" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="53"/>
-      <c r="B396" s="56"/>
+      <c r="A396" s="52"/>
+      <c r="B396" s="55"/>
       <c r="D396" s="15" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="53">
+      <c r="A398" s="52">
         <v>43431</v>
       </c>
-      <c r="B398" s="56" t="s">
+      <c r="B398" s="55" t="s">
         <v>648</v>
       </c>
       <c r="C398" t="s">
@@ -11017,8 +11052,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="53"/>
-      <c r="B399" s="56"/>
+      <c r="A399" s="52"/>
+      <c r="B399" s="55"/>
       <c r="C399" s="3" t="s">
         <v>639</v>
       </c>
@@ -11027,16 +11062,16 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="53"/>
-      <c r="B400" s="56"/>
+      <c r="A400" s="52"/>
+      <c r="B400" s="55"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="53"/>
-      <c r="B401" s="56"/>
+      <c r="A401" s="52"/>
+      <c r="B401" s="55"/>
       <c r="C401" s="15" t="s">
         <v>266</v>
       </c>
@@ -11045,55 +11080,55 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="53"/>
-      <c r="B402" s="56"/>
+      <c r="A402" s="52"/>
+      <c r="B402" s="55"/>
       <c r="C402" s="3"/>
       <c r="D402" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="53"/>
-      <c r="B403" s="56"/>
+      <c r="A403" s="52"/>
+      <c r="B403" s="55"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="53"/>
-      <c r="B404" s="56"/>
+      <c r="A404" s="52"/>
+      <c r="B404" s="55"/>
       <c r="D404" s="15" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="53"/>
-      <c r="B405" s="56"/>
+      <c r="A405" s="52"/>
+      <c r="B405" s="55"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="53"/>
-      <c r="B406" s="56"/>
+      <c r="A406" s="52"/>
+      <c r="B406" s="55"/>
       <c r="C406" s="3"/>
       <c r="D406" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="53"/>
-      <c r="B407" s="56"/>
+      <c r="A407" s="52"/>
+      <c r="B407" s="55"/>
       <c r="C407" s="3"/>
       <c r="D407" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="53"/>
-      <c r="B408" s="56"/>
+      <c r="A408" s="52"/>
+      <c r="B408" s="55"/>
       <c r="C408" t="s">
         <v>336</v>
       </c>
@@ -11102,10 +11137,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="53">
+      <c r="A410" s="52">
         <v>43432</v>
       </c>
-      <c r="B410" s="56"/>
+      <c r="B410" s="55"/>
       <c r="C410" t="s">
         <v>642</v>
       </c>
@@ -11114,8 +11149,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="53"/>
-      <c r="B411" s="56"/>
+      <c r="A411" s="52"/>
+      <c r="B411" s="55"/>
       <c r="C411" s="3" t="s">
         <v>657</v>
       </c>
@@ -11124,8 +11159,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="53"/>
-      <c r="B412" s="56"/>
+      <c r="A412" s="52"/>
+      <c r="B412" s="55"/>
       <c r="C412" s="15" t="s">
         <v>266</v>
       </c>
@@ -11134,63 +11169,63 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="53"/>
-      <c r="B413" s="56"/>
+      <c r="A413" s="52"/>
+      <c r="B413" s="55"/>
       <c r="C413" s="3"/>
       <c r="D413" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="53"/>
-      <c r="B414" s="56"/>
+      <c r="A414" s="52"/>
+      <c r="B414" s="55"/>
       <c r="C414" s="3"/>
       <c r="D414" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="53"/>
-      <c r="B415" s="56"/>
+      <c r="A415" s="52"/>
+      <c r="B415" s="55"/>
       <c r="D415" s="15" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="53"/>
-      <c r="B416" s="56"/>
+      <c r="A416" s="52"/>
+      <c r="B416" s="55"/>
       <c r="D416" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="53"/>
-      <c r="B417" s="56"/>
+      <c r="A417" s="52"/>
+      <c r="B417" s="55"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="53"/>
-      <c r="B418" s="56"/>
+      <c r="A418" s="52"/>
+      <c r="B418" s="55"/>
       <c r="D418" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="53"/>
-      <c r="B419" s="56"/>
+      <c r="A419" s="52"/>
+      <c r="B419" s="55"/>
       <c r="C419" s="3"/>
       <c r="D419" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="53">
+      <c r="A421" s="52">
         <v>43433</v>
       </c>
-      <c r="B421" s="56" t="s">
+      <c r="B421" s="55" t="s">
         <v>665</v>
       </c>
       <c r="C421" t="s">
@@ -11201,8 +11236,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="53"/>
-      <c r="B422" s="56"/>
+      <c r="A422" s="52"/>
+      <c r="B422" s="55"/>
       <c r="C422" s="3" t="s">
         <v>671</v>
       </c>
@@ -11211,8 +11246,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="53"/>
-      <c r="B423" s="56"/>
+      <c r="A423" s="52"/>
+      <c r="B423" s="55"/>
       <c r="C423" s="15" t="s">
         <v>266</v>
       </c>
@@ -11221,70 +11256,70 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="53"/>
-      <c r="B424" s="56"/>
+      <c r="A424" s="52"/>
+      <c r="B424" s="55"/>
       <c r="C424" s="3"/>
       <c r="D424" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="53"/>
-      <c r="B425" s="56"/>
+      <c r="A425" s="52"/>
+      <c r="B425" s="55"/>
       <c r="C425" s="3"/>
       <c r="D425" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="53"/>
-      <c r="B426" s="56"/>
+      <c r="A426" s="52"/>
+      <c r="B426" s="55"/>
       <c r="D426" s="15" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="53"/>
-      <c r="B427" s="56"/>
+      <c r="A427" s="52"/>
+      <c r="B427" s="55"/>
       <c r="D427" s="15" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="53"/>
-      <c r="B428" s="56"/>
+      <c r="A428" s="52"/>
+      <c r="B428" s="55"/>
       <c r="D428" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="53"/>
-      <c r="B429" s="56"/>
+      <c r="A429" s="52"/>
+      <c r="B429" s="55"/>
       <c r="C429" s="3"/>
       <c r="D429" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="53"/>
-      <c r="B430" s="56"/>
+      <c r="A430" s="52"/>
+      <c r="B430" s="55"/>
       <c r="D430" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="53"/>
-      <c r="B431" s="56"/>
+      <c r="A431" s="52"/>
+      <c r="B431" s="55"/>
       <c r="C431" s="3"/>
       <c r="D431" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="53">
+      <c r="A433" s="52">
         <v>43434</v>
       </c>
-      <c r="B433" s="56"/>
+      <c r="B433" s="55"/>
       <c r="C433" t="s">
         <v>674</v>
       </c>
@@ -11293,8 +11328,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="53"/>
-      <c r="B434" s="56"/>
+      <c r="A434" s="52"/>
+      <c r="B434" s="55"/>
       <c r="C434" t="s">
         <v>676</v>
       </c>
@@ -11303,8 +11338,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="53"/>
-      <c r="B435" s="56"/>
+      <c r="A435" s="52"/>
+      <c r="B435" s="55"/>
       <c r="C435" s="15" t="s">
         <v>266</v>
       </c>
@@ -11313,30 +11348,30 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="53"/>
-      <c r="B436" s="56"/>
+      <c r="A436" s="52"/>
+      <c r="B436" s="55"/>
       <c r="D436" s="15" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="53"/>
-      <c r="B437" s="56"/>
+      <c r="A437" s="52"/>
+      <c r="B437" s="55"/>
       <c r="D437" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="53"/>
-      <c r="B438" s="56"/>
+      <c r="A438" s="52"/>
+      <c r="B438" s="55"/>
       <c r="C438" s="3"/>
       <c r="D438" s="15" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="53"/>
-      <c r="B439" s="56"/>
+      <c r="A439" s="52"/>
+      <c r="B439" s="55"/>
       <c r="C439" s="3"/>
       <c r="D439" s="15" t="s">
         <v>646</v>
@@ -11346,7 +11381,7 @@
       <c r="A441" s="54">
         <v>43435</v>
       </c>
-      <c r="B441" s="56"/>
+      <c r="B441" s="55"/>
       <c r="C441" t="s">
         <v>674</v>
       </c>
@@ -11356,21 +11391,21 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="54"/>
-      <c r="B442" s="56"/>
+      <c r="B442" s="55"/>
       <c r="D442" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="54"/>
-      <c r="B443" s="56"/>
+      <c r="B443" s="55"/>
       <c r="D443" s="15" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="54"/>
-      <c r="B444" s="56"/>
+      <c r="B444" s="55"/>
       <c r="C444" s="3"/>
       <c r="D444" s="15" t="s">
         <v>682</v>
@@ -11378,7 +11413,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="54"/>
-      <c r="B445" s="56"/>
+      <c r="B445" s="55"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
         <v>685</v>
@@ -11386,7 +11421,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="54"/>
-      <c r="B446" s="56"/>
+      <c r="B446" s="55"/>
       <c r="C446" s="3"/>
       <c r="D446" s="15" t="s">
         <v>651</v>
@@ -11394,21 +11429,21 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="54"/>
-      <c r="B447" s="56"/>
+      <c r="B447" s="55"/>
       <c r="D447" s="15" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="54"/>
-      <c r="B448" s="56"/>
+      <c r="B448" s="55"/>
       <c r="D448" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="54"/>
-      <c r="B449" s="56"/>
+      <c r="B449" s="55"/>
       <c r="C449" s="3"/>
       <c r="D449" s="15" t="s">
         <v>684</v>
@@ -11416,7 +11451,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="54"/>
-      <c r="B450" s="56"/>
+      <c r="B450" s="55"/>
       <c r="C450" s="3"/>
       <c r="D450" s="15" t="s">
         <v>646</v>
@@ -11498,10 +11533,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="53">
+      <c r="A462" s="52">
         <v>43437</v>
       </c>
-      <c r="B462" s="55" t="s">
+      <c r="B462" s="53" t="s">
         <v>710</v>
       </c>
       <c r="C462" t="s">
@@ -11512,8 +11547,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="53"/>
-      <c r="B463" s="55"/>
+      <c r="A463" s="52"/>
+      <c r="B463" s="53"/>
       <c r="C463" t="s">
         <v>698</v>
       </c>
@@ -11522,22 +11557,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="53"/>
-      <c r="B464" s="55"/>
+      <c r="A464" s="52"/>
+      <c r="B464" s="53"/>
       <c r="D464" s="15" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="53"/>
-      <c r="B465" s="55"/>
+      <c r="A465" s="52"/>
+      <c r="B465" s="53"/>
       <c r="D465" s="15" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="53"/>
-      <c r="B466" s="55"/>
+      <c r="A466" s="52"/>
+      <c r="B466" s="53"/>
       <c r="C466" s="15" t="s">
         <v>266</v>
       </c>
@@ -11546,16 +11581,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="53"/>
-      <c r="B467" s="55"/>
+      <c r="A467" s="52"/>
+      <c r="B467" s="53"/>
       <c r="C467" s="15"/>
       <c r="D467" s="15" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="53"/>
-      <c r="B468" s="55" t="s">
+      <c r="A468" s="52"/>
+      <c r="B468" s="53" t="s">
         <v>711</v>
       </c>
       <c r="D468" s="15" t="s">
@@ -11563,30 +11598,30 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="53"/>
-      <c r="B469" s="56"/>
+      <c r="A469" s="52"/>
+      <c r="B469" s="55"/>
       <c r="C469" s="3"/>
       <c r="D469" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E469" s="52" t="s">
+      <c r="E469" s="57" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="53"/>
-      <c r="B470" s="56"/>
+      <c r="A470" s="52"/>
+      <c r="B470" s="55"/>
       <c r="C470" s="3"/>
       <c r="D470" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="E470" s="52"/>
+      <c r="E470" s="57"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="53">
+      <c r="A472" s="52">
         <v>43438</v>
       </c>
-      <c r="B472" s="55" t="s">
+      <c r="B472" s="53" t="s">
         <v>742</v>
       </c>
       <c r="C472" t="s">
@@ -11595,58 +11630,58 @@
       <c r="D472" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E472" s="52" t="s">
+      <c r="E472" s="57" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="53"/>
-      <c r="B473" s="56"/>
+      <c r="A473" s="52"/>
+      <c r="B473" s="55"/>
       <c r="D473" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="E473" s="52"/>
+      <c r="E473" s="57"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="53"/>
-      <c r="B474" s="56"/>
+      <c r="A474" s="52"/>
+      <c r="B474" s="55"/>
       <c r="C474" t="s">
         <v>719</v>
       </c>
       <c r="D474" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E474" s="52"/>
+      <c r="E474" s="57"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="53"/>
-      <c r="B475" s="56"/>
+      <c r="A475" s="52"/>
+      <c r="B475" s="55"/>
       <c r="C475" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D475" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="E475" s="52"/>
+      <c r="E475" s="57"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="53"/>
-      <c r="B476" s="56"/>
+      <c r="A476" s="52"/>
+      <c r="B476" s="55"/>
       <c r="D476" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E476" s="52"/>
+      <c r="E476" s="57"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="53"/>
-      <c r="B477" s="56"/>
+      <c r="A477" s="52"/>
+      <c r="B477" s="55"/>
       <c r="D477" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="53"/>
-      <c r="B478" s="56"/>
+      <c r="A478" s="52"/>
+      <c r="B478" s="55"/>
       <c r="C478" s="3"/>
       <c r="D478" s="15" t="s">
         <v>412</v>
@@ -11656,8 +11691,8 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="53"/>
-      <c r="B479" s="56"/>
+      <c r="A479" s="52"/>
+      <c r="B479" s="55"/>
       <c r="C479" s="3"/>
       <c r="D479" s="15" t="s">
         <v>737</v>
@@ -11665,10 +11700,10 @@
       <c r="E479" s="51"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="53">
+      <c r="A481" s="52">
         <v>43439</v>
       </c>
-      <c r="B481" s="55" t="s">
+      <c r="B481" s="53" t="s">
         <v>741</v>
       </c>
       <c r="C481" t="s">
@@ -11677,20 +11712,20 @@
       <c r="D481" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E481" s="52" t="s">
+      <c r="E481" s="57" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="53"/>
-      <c r="B482" s="56"/>
+      <c r="A482" s="52"/>
+      <c r="B482" s="55"/>
       <c r="D482" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E482" s="52"/>
+      <c r="E482" s="57"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="53"/>
+      <c r="A483" s="52"/>
       <c r="B483" s="33" t="s">
         <v>740</v>
       </c>
@@ -11700,46 +11735,46 @@
       <c r="D483" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="E483" s="52"/>
+      <c r="E483" s="57"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="53"/>
+      <c r="A484" s="52"/>
       <c r="B484" s="26"/>
       <c r="D484" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E484" s="52"/>
+      <c r="E484" s="57"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="53"/>
+      <c r="A485" s="52"/>
       <c r="B485" s="26"/>
       <c r="D485" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="E485" s="52"/>
+      <c r="E485" s="57"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="53"/>
+      <c r="A486" s="52"/>
       <c r="B486" s="26"/>
       <c r="D486" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="E486" s="52" t="s">
+      <c r="E486" s="57" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="53"/>
+      <c r="A487" s="52"/>
       <c r="B487" s="34" t="s">
         <v>378</v>
       </c>
       <c r="D487" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E487" s="52"/>
+      <c r="E487" s="57"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="53">
+      <c r="A489" s="52">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -11751,7 +11786,7 @@
       <c r="E489" s="5"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="53"/>
+      <c r="A490" s="52"/>
       <c r="B490" s="26"/>
       <c r="D490" s="15" t="s">
         <v>751</v>
@@ -11759,7 +11794,7 @@
       <c r="E490" s="5"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="53"/>
+      <c r="A491" s="52"/>
       <c r="B491" s="33" t="s">
         <v>740</v>
       </c>
@@ -11772,7 +11807,7 @@
       <c r="E491" s="5"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="53"/>
+      <c r="A492" s="52"/>
       <c r="B492" s="26"/>
       <c r="D492" s="15" t="s">
         <v>736</v>
@@ -11780,28 +11815,28 @@
       <c r="E492" s="5"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="53"/>
+      <c r="A493" s="52"/>
       <c r="B493" s="26"/>
       <c r="D493" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="53"/>
+      <c r="A494" s="52"/>
       <c r="B494" s="26"/>
       <c r="D494" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="53"/>
+      <c r="A495" s="52"/>
       <c r="B495" s="26"/>
       <c r="D495" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="53"/>
+      <c r="A496" s="52"/>
       <c r="B496" s="26"/>
       <c r="C496" s="3"/>
       <c r="D496" s="15" t="s">
@@ -11809,10 +11844,10 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="53">
+      <c r="A498" s="52">
         <v>43441</v>
       </c>
-      <c r="B498" s="55"/>
+      <c r="B498" s="53"/>
       <c r="C498" t="s">
         <v>663</v>
       </c>
@@ -11822,15 +11857,15 @@
       <c r="E498" s="5"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="53"/>
-      <c r="B499" s="56"/>
+      <c r="A499" s="52"/>
+      <c r="B499" s="55"/>
       <c r="D499" s="15" t="s">
         <v>739</v>
       </c>
       <c r="E499" s="5"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="53"/>
+      <c r="A500" s="52"/>
       <c r="B500" s="33" t="s">
         <v>740</v>
       </c>
@@ -11840,7 +11875,7 @@
       <c r="E500" s="5"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="53"/>
+      <c r="A501" s="52"/>
       <c r="B501" s="26"/>
       <c r="C501" s="15" t="s">
         <v>718</v>
@@ -11851,7 +11886,7 @@
       <c r="E501" s="5"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="53"/>
+      <c r="A502" s="52"/>
       <c r="B502" s="26"/>
       <c r="D502" s="15" t="s">
         <v>769</v>
@@ -11859,14 +11894,14 @@
       <c r="E502" s="5"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="53"/>
+      <c r="A503" s="52"/>
       <c r="B503" s="26"/>
       <c r="D503" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="53"/>
+      <c r="A504" s="52"/>
       <c r="B504" s="26"/>
       <c r="D504" s="15" t="s">
         <v>768</v>
@@ -12005,7 +12040,7 @@
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="53">
+      <c r="A525" s="52">
         <v>43444</v>
       </c>
       <c r="B525" s="35" t="s">
@@ -12019,8 +12054,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="53"/>
-      <c r="B526" s="55" t="s">
+      <c r="A526" s="52"/>
+      <c r="B526" s="53" t="s">
         <v>785</v>
       </c>
       <c r="D526" s="15" t="s">
@@ -12028,29 +12063,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="53"/>
-      <c r="B527" s="55"/>
+      <c r="A527" s="52"/>
+      <c r="B527" s="53"/>
       <c r="D527" s="15" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="53"/>
-      <c r="B528" s="55"/>
+      <c r="A528" s="52"/>
+      <c r="B528" s="53"/>
       <c r="D528" s="15" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="53"/>
-      <c r="B529" s="55"/>
+      <c r="A529" s="52"/>
+      <c r="B529" s="53"/>
       <c r="D529" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="53"/>
-      <c r="B530" s="55"/>
+      <c r="A530" s="52"/>
+      <c r="B530" s="53"/>
       <c r="C530" s="15" t="s">
         <v>718</v>
       </c>
@@ -12059,43 +12094,43 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="53"/>
-      <c r="B531" s="55"/>
+      <c r="A531" s="52"/>
+      <c r="B531" s="53"/>
       <c r="C531" s="3"/>
       <c r="D531" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="53"/>
+      <c r="A532" s="52"/>
       <c r="B532" s="26"/>
       <c r="D532" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="53"/>
+      <c r="A533" s="52"/>
       <c r="B533" s="26"/>
       <c r="D533" s="15" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="53"/>
+      <c r="A534" s="52"/>
       <c r="B534" s="26"/>
       <c r="D534" s="15" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="53"/>
+      <c r="A535" s="52"/>
       <c r="B535" s="26"/>
       <c r="D535" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="53">
+      <c r="A537" s="52">
         <v>43445</v>
       </c>
       <c r="B537" s="35"/>
@@ -12107,8 +12142,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="53"/>
-      <c r="B538" s="55" t="s">
+      <c r="A538" s="52"/>
+      <c r="B538" s="53" t="s">
         <v>788</v>
       </c>
       <c r="D538" s="15" t="s">
@@ -12116,15 +12151,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="53"/>
-      <c r="B539" s="55"/>
+      <c r="A539" s="52"/>
+      <c r="B539" s="53"/>
       <c r="D539" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="53"/>
-      <c r="B540" s="55"/>
+      <c r="A540" s="52"/>
+      <c r="B540" s="53"/>
       <c r="C540" s="15" t="s">
         <v>718</v>
       </c>
@@ -12133,57 +12168,57 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="53"/>
-      <c r="B541" s="55"/>
+      <c r="A541" s="52"/>
+      <c r="B541" s="53"/>
       <c r="D541" s="15" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="53"/>
-      <c r="B542" s="55"/>
+      <c r="A542" s="52"/>
+      <c r="B542" s="53"/>
       <c r="D542" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="53"/>
-      <c r="B543" s="55"/>
+      <c r="A543" s="52"/>
+      <c r="B543" s="53"/>
       <c r="C543" s="3"/>
       <c r="D543" s="15" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="53"/>
+      <c r="A544" s="52"/>
       <c r="B544" s="26"/>
       <c r="D544" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="53"/>
+      <c r="A545" s="52"/>
       <c r="B545" s="26"/>
       <c r="D545" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="53"/>
+      <c r="A546" s="52"/>
       <c r="B546" s="26"/>
       <c r="D546" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="53"/>
+      <c r="A547" s="52"/>
       <c r="B547" s="26"/>
       <c r="D547" s="15" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="53">
+      <c r="A549" s="52">
         <v>43446</v>
       </c>
       <c r="B549" s="35"/>
@@ -12195,8 +12230,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="53"/>
-      <c r="B550" s="55" t="s">
+      <c r="A550" s="52"/>
+      <c r="B550" s="53" t="s">
         <v>838</v>
       </c>
       <c r="D550" s="15" t="s">
@@ -12204,15 +12239,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="53"/>
-      <c r="B551" s="55"/>
+      <c r="A551" s="52"/>
+      <c r="B551" s="53"/>
       <c r="D551" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="53"/>
-      <c r="B552" s="55"/>
+      <c r="A552" s="52"/>
+      <c r="B552" s="53"/>
       <c r="C552" s="15" t="s">
         <v>718</v>
       </c>
@@ -12221,50 +12256,50 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="53"/>
-      <c r="B553" s="55"/>
+      <c r="A553" s="52"/>
+      <c r="B553" s="53"/>
       <c r="D553" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="53"/>
-      <c r="B554" s="55"/>
+      <c r="A554" s="52"/>
+      <c r="B554" s="53"/>
       <c r="C554" s="3"/>
       <c r="D554" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="53"/>
+      <c r="A555" s="52"/>
       <c r="B555" s="26"/>
       <c r="D555" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="53"/>
+      <c r="A556" s="52"/>
       <c r="B556" s="26"/>
       <c r="D556" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="53"/>
+      <c r="A557" s="52"/>
       <c r="B557" s="26"/>
       <c r="D557" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="53"/>
+      <c r="A558" s="52"/>
       <c r="B558" s="26"/>
       <c r="D558" s="15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="53">
+      <c r="A560" s="52">
         <v>43447</v>
       </c>
       <c r="B560" s="35"/>
@@ -12272,165 +12307,165 @@
         <v>637</v>
       </c>
       <c r="D560" s="15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="52"/>
+      <c r="B561" s="53" t="s">
+        <v>871</v>
+      </c>
+      <c r="D561" s="15" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="53"/>
-      <c r="B561" s="55" t="s">
-        <v>872</v>
-      </c>
-      <c r="D561" s="15" t="s">
-        <v>865</v>
-      </c>
-    </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="53"/>
-      <c r="B562" s="55"/>
+      <c r="A562" s="52"/>
+      <c r="B562" s="53"/>
       <c r="D562" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="53"/>
-      <c r="B563" s="55"/>
+      <c r="A563" s="52"/>
+      <c r="B563" s="53"/>
       <c r="C563" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D563" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="53"/>
-      <c r="B564" s="55"/>
+      <c r="A564" s="52"/>
+      <c r="B564" s="53"/>
       <c r="C564" s="3"/>
       <c r="D564" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="53"/>
-      <c r="B565" s="55"/>
+      <c r="A565" s="52"/>
+      <c r="B565" s="53"/>
       <c r="D565" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="53"/>
+      <c r="A566" s="52"/>
       <c r="B566" s="44" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="53"/>
+      <c r="A567" s="52"/>
       <c r="B567" s="26"/>
       <c r="D567" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="53"/>
+      <c r="A568" s="52"/>
       <c r="B568" s="26"/>
       <c r="D568" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="53"/>
+      <c r="A569" s="52"/>
       <c r="B569" s="26"/>
       <c r="D569" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="53"/>
+      <c r="A570" s="52"/>
       <c r="B570" s="26"/>
       <c r="D570" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="53">
+      <c r="A572" s="52">
         <v>43448</v>
       </c>
       <c r="B572" s="35"/>
       <c r="D572" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="53"/>
+      <c r="A573" s="52"/>
       <c r="B573" s="35"/>
       <c r="C573" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D573" s="15" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="53"/>
-      <c r="B574" s="55" t="s">
+      <c r="A574" s="52"/>
+      <c r="B574" s="53" t="s">
+        <v>880</v>
+      </c>
+      <c r="D574" s="15" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="52"/>
+      <c r="B575" s="53"/>
+      <c r="D575" s="15" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="52"/>
+      <c r="B576" s="53"/>
+      <c r="D576" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="D574" s="15" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="53"/>
-      <c r="B575" s="55"/>
-      <c r="D575" s="15" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="53"/>
-      <c r="B576" s="55"/>
-      <c r="D576" s="15" t="s">
-        <v>882</v>
-      </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="53"/>
-      <c r="B577" s="55"/>
+      <c r="A577" s="52"/>
+      <c r="B577" s="53"/>
       <c r="C577" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D577" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="53"/>
-      <c r="B578" s="55"/>
+      <c r="A578" s="52"/>
+      <c r="B578" s="53"/>
       <c r="C578" s="3"/>
       <c r="D578" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="53"/>
-      <c r="B579" s="55"/>
+      <c r="A579" s="52"/>
+      <c r="B579" s="53"/>
       <c r="C579" s="3"/>
       <c r="D579" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="53"/>
-      <c r="B580" s="55"/>
+      <c r="A580" s="52"/>
+      <c r="B580" s="53"/>
       <c r="D580" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="53"/>
+      <c r="A581" s="52"/>
       <c r="B581" s="44"/>
       <c r="C581" s="3"/>
       <c r="D581" s="15" t="s">
@@ -12438,24 +12473,24 @@
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="53"/>
+      <c r="A582" s="52"/>
       <c r="B582" s="26"/>
       <c r="D582" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="53"/>
+      <c r="A583" s="52"/>
       <c r="B583" s="26"/>
       <c r="D583" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="53"/>
+      <c r="A584" s="52"/>
       <c r="B584" s="26"/>
       <c r="D584" s="15" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
@@ -12468,61 +12503,61 @@
       </c>
       <c r="B586" s="35"/>
       <c r="D586" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="54"/>
       <c r="B587" s="35"/>
       <c r="C587" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D587" s="15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="54"/>
-      <c r="B588" s="55" t="s">
-        <v>900</v>
+      <c r="B588" s="53" t="s">
+        <v>899</v>
       </c>
       <c r="D588" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="54"/>
-      <c r="B589" s="55"/>
+      <c r="B589" s="53"/>
       <c r="D589" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="54"/>
-      <c r="B590" s="55"/>
+      <c r="B590" s="53"/>
       <c r="C590" s="3"/>
       <c r="D590" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="54"/>
-      <c r="B591" s="55"/>
+      <c r="B591" s="53"/>
       <c r="C591" s="3"/>
       <c r="D591" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="54"/>
-      <c r="B592" s="55"/>
+      <c r="B592" s="53"/>
       <c r="D592" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="54"/>
-      <c r="B593" s="55"/>
+      <c r="B593" s="53"/>
       <c r="C593" s="3"/>
       <c r="D593" s="15" t="s">
         <v>267</v>
@@ -12530,23 +12565,23 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="54"/>
-      <c r="B594" s="55"/>
+      <c r="B594" s="53"/>
       <c r="D594" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="54"/>
-      <c r="B595" s="55"/>
+      <c r="B595" s="53"/>
       <c r="D595" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="54"/>
-      <c r="B596" s="55"/>
+      <c r="B596" s="53"/>
       <c r="D596" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
@@ -12555,24 +12590,24 @@
       </c>
       <c r="B598" s="35"/>
       <c r="D598" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="54"/>
       <c r="B599" s="35"/>
       <c r="C599" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D599" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="54"/>
       <c r="B600" s="35"/>
       <c r="D600" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
@@ -12586,14 +12621,14 @@
       <c r="A602" s="54"/>
       <c r="B602" s="35"/>
       <c r="D602" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="54"/>
       <c r="B603" s="35"/>
       <c r="D603" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
@@ -12601,7 +12636,7 @@
       <c r="B604" s="35"/>
       <c r="C604" s="3"/>
       <c r="D604" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
@@ -12609,7 +12644,7 @@
       <c r="B605" s="35"/>
       <c r="C605" s="3"/>
       <c r="D605" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
@@ -12617,14 +12652,14 @@
       <c r="B606" s="35"/>
       <c r="C606" s="3"/>
       <c r="D606" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="54"/>
       <c r="B607" s="35"/>
       <c r="D607" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
@@ -12639,7 +12674,7 @@
       <c r="A609" s="54"/>
       <c r="B609" s="26"/>
       <c r="D609" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
@@ -12653,11 +12688,11 @@
       <c r="A611" s="54"/>
       <c r="B611" s="26"/>
       <c r="D611" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="53">
+      <c r="A613" s="52">
         <v>43451</v>
       </c>
       <c r="B613" s="35"/>
@@ -12669,69 +12704,69 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="53"/>
+      <c r="A614" s="52"/>
       <c r="B614" s="35"/>
       <c r="D614" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="53"/>
+      <c r="A615" s="52"/>
       <c r="B615" s="35"/>
       <c r="C615" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="53"/>
+      <c r="A616" s="52"/>
       <c r="B616" s="35"/>
       <c r="C616" s="15"/>
       <c r="D616" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="53"/>
+      <c r="A617" s="52"/>
       <c r="B617" s="35"/>
       <c r="C617" s="3"/>
       <c r="D617" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="53"/>
+      <c r="A618" s="52"/>
       <c r="B618" s="35"/>
       <c r="D618" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="53"/>
+      <c r="A619" s="52"/>
       <c r="B619" s="47"/>
       <c r="C619" s="3"/>
       <c r="D619" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="53"/>
+      <c r="A620" s="52"/>
       <c r="B620" s="26"/>
       <c r="D620" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="53"/>
+      <c r="A621" s="52"/>
       <c r="B621" s="26"/>
       <c r="D621" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="53">
+      <c r="A623" s="52">
         <v>43452</v>
       </c>
       <c r="B623" s="35"/>
@@ -12743,150 +12778,150 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="53"/>
+      <c r="A624" s="52"/>
       <c r="B624" s="35"/>
       <c r="D624" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="53"/>
+      <c r="A625" s="52"/>
       <c r="B625" s="35"/>
       <c r="D625" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="53"/>
+      <c r="A626" s="52"/>
       <c r="B626" s="35"/>
       <c r="D626" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="53"/>
+      <c r="A627" s="52"/>
       <c r="B627" s="35"/>
       <c r="C627" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="53"/>
-      <c r="B628" s="55" t="s">
-        <v>917</v>
+      <c r="A628" s="52"/>
+      <c r="B628" s="53" t="s">
+        <v>916</v>
       </c>
       <c r="C628" s="3"/>
       <c r="D628" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="53"/>
-      <c r="B629" s="55"/>
+      <c r="A629" s="52"/>
+      <c r="B629" s="53"/>
       <c r="C629" s="3"/>
       <c r="D629" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="53"/>
-      <c r="B630" s="55"/>
+      <c r="A630" s="52"/>
+      <c r="B630" s="53"/>
       <c r="D630" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="53"/>
-      <c r="B631" s="55"/>
+      <c r="A631" s="52"/>
+      <c r="B631" s="53"/>
       <c r="C631" s="3"/>
       <c r="D631" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="53"/>
-      <c r="B632" s="55"/>
+      <c r="A632" s="52"/>
+      <c r="B632" s="53"/>
       <c r="D632" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="53">
+      <c r="A634" s="52">
         <v>43453</v>
       </c>
-      <c r="B634" s="55"/>
+      <c r="B634" s="53"/>
       <c r="C634" t="s">
+        <v>914</v>
+      </c>
+      <c r="D634" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="E634" t="s">
         <v>915</v>
       </c>
-      <c r="D634" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="E634" t="s">
-        <v>916</v>
-      </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="53"/>
-      <c r="B635" s="55"/>
+      <c r="A635" s="52"/>
+      <c r="B635" s="53"/>
       <c r="C635" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D635" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="53"/>
-      <c r="B636" s="55"/>
+      <c r="A636" s="52"/>
+      <c r="B636" s="53"/>
       <c r="D636" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="53"/>
+      <c r="A637" s="52"/>
       <c r="B637" s="35"/>
       <c r="C637" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D637" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="53"/>
+      <c r="A638" s="52"/>
       <c r="B638" s="35"/>
       <c r="C638" s="3"/>
       <c r="D638" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="53"/>
+      <c r="A639" s="52"/>
       <c r="B639" s="35"/>
       <c r="C639" s="3"/>
       <c r="D639" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="53"/>
+      <c r="A640" s="52"/>
       <c r="B640" s="35"/>
       <c r="D640" s="15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="53"/>
+      <c r="A641" s="52"/>
       <c r="B641" s="35"/>
       <c r="D641" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="53"/>
+      <c r="A642" s="52"/>
       <c r="B642" s="48"/>
       <c r="C642" s="3"/>
       <c r="D642" s="15" t="s">
@@ -12894,102 +12929,102 @@
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="53"/>
+      <c r="A643" s="52"/>
       <c r="B643" s="26"/>
       <c r="D643" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="53"/>
+      <c r="A644" s="52"/>
       <c r="B644" s="26"/>
       <c r="D644" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="53">
+      <c r="A646" s="52">
         <v>43454</v>
       </c>
       <c r="B646" s="35"/>
       <c r="C646" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D646" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="53"/>
+      <c r="A647" s="52"/>
       <c r="B647" s="35"/>
       <c r="D647" s="15" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="53"/>
+      <c r="A648" s="52"/>
       <c r="B648" s="35"/>
       <c r="D648" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="53"/>
+      <c r="A649" s="52"/>
       <c r="B649" s="35"/>
       <c r="C649" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D649" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="53"/>
+      <c r="A650" s="52"/>
       <c r="B650" s="35"/>
       <c r="C650" s="3"/>
       <c r="D650" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="53"/>
+      <c r="A651" s="52"/>
       <c r="B651" s="35"/>
       <c r="C651" s="3"/>
       <c r="D651" s="15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="53"/>
+      <c r="A652" s="52"/>
       <c r="B652" s="35"/>
       <c r="D652" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="53"/>
+      <c r="A653" s="52"/>
       <c r="B653" s="48"/>
       <c r="C653" s="3"/>
       <c r="D653" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="53"/>
+      <c r="A654" s="52"/>
       <c r="B654" s="26"/>
       <c r="D654" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="53"/>
+      <c r="A655" s="52"/>
       <c r="B655" s="26"/>
       <c r="D655" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="53">
+      <c r="A657" s="52">
         <v>43455</v>
       </c>
       <c r="B657" s="35"/>
@@ -13001,53 +13036,53 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="53"/>
+      <c r="A658" s="52"/>
       <c r="B658" s="35"/>
       <c r="D658" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="53"/>
+      <c r="A659" s="52"/>
       <c r="B659" s="35"/>
       <c r="D659" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="53"/>
+      <c r="A660" s="52"/>
       <c r="B660" s="35"/>
       <c r="C660" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D660" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="53"/>
+      <c r="A661" s="52"/>
       <c r="B661" s="35"/>
       <c r="C661" s="3"/>
       <c r="D661" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="53"/>
+      <c r="A662" s="52"/>
       <c r="B662" s="35"/>
       <c r="D662" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="53"/>
+      <c r="A663" s="52"/>
       <c r="B663" s="26"/>
       <c r="D663" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="53"/>
+      <c r="A664" s="52"/>
       <c r="B664" s="26"/>
       <c r="D664" s="15" t="s">
         <v>768</v>
@@ -13076,14 +13111,14 @@
       <c r="A668" s="54"/>
       <c r="B668" s="35"/>
       <c r="D668" s="15" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="54"/>
       <c r="B669" s="35"/>
       <c r="D669" s="15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
@@ -13091,7 +13126,7 @@
       <c r="B670" s="35"/>
       <c r="C670" s="3"/>
       <c r="D670" s="15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
@@ -13099,7 +13134,7 @@
       <c r="B671" s="35"/>
       <c r="C671" s="3"/>
       <c r="D671" s="15" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
@@ -13107,14 +13142,14 @@
       <c r="B672" s="35"/>
       <c r="C672" s="3"/>
       <c r="D672" s="15" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="54"/>
       <c r="B673" s="35"/>
       <c r="D673" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
@@ -13154,14 +13189,14 @@
       <c r="A679" s="54"/>
       <c r="B679" s="35"/>
       <c r="D679" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="54"/>
       <c r="B680" s="35"/>
       <c r="D680" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
@@ -13169,7 +13204,7 @@
       <c r="B681" s="35"/>
       <c r="C681" s="3"/>
       <c r="D681" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
@@ -13177,14 +13212,14 @@
       <c r="B682" s="35"/>
       <c r="C682" s="3"/>
       <c r="D682" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="54"/>
       <c r="B683" s="35"/>
       <c r="D683" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
@@ -13192,7 +13227,7 @@
       <c r="B684" s="50"/>
       <c r="C684" s="3"/>
       <c r="D684" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
@@ -13210,176 +13245,176 @@
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="53">
+      <c r="A688" s="52">
         <v>43458</v>
       </c>
       <c r="B688" s="35"/>
       <c r="C688" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D688" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="53"/>
+      <c r="A689" s="52"/>
       <c r="B689" s="35"/>
       <c r="D689" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="53"/>
+      <c r="A690" s="52"/>
       <c r="B690" s="35"/>
       <c r="C690" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D690" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="53"/>
+      <c r="A691" s="52"/>
       <c r="B691" s="35"/>
       <c r="C691" s="3"/>
       <c r="D691" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="53"/>
+      <c r="A692" s="52"/>
       <c r="B692" s="35"/>
       <c r="D692" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="53"/>
+      <c r="A693" s="52"/>
       <c r="B693" s="35"/>
       <c r="D693" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="53"/>
+      <c r="A694" s="52"/>
       <c r="B694" s="26"/>
       <c r="D694" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="53">
+      <c r="A696" s="52">
         <v>43459</v>
       </c>
       <c r="B696" s="35"/>
       <c r="C696" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D696" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="53"/>
+      <c r="A697" s="52"/>
       <c r="B697" s="35"/>
       <c r="D697" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="53"/>
+      <c r="A698" s="52"/>
       <c r="B698" s="35"/>
       <c r="C698" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D698" s="15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="53"/>
+      <c r="A699" s="52"/>
       <c r="B699" s="35"/>
       <c r="C699" s="3"/>
       <c r="D699" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="53"/>
+      <c r="A700" s="52"/>
       <c r="B700" s="35"/>
       <c r="D700" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="53"/>
+      <c r="A701" s="52"/>
       <c r="B701" s="26"/>
       <c r="D701" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="53"/>
+      <c r="A702" s="52"/>
       <c r="B702" s="26"/>
       <c r="D702" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A704" s="53">
+      <c r="A704" s="52">
         <v>43460</v>
       </c>
       <c r="B704" s="35" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C704" t="s">
         <v>674</v>
       </c>
       <c r="D704" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="53"/>
+      <c r="A705" s="52"/>
       <c r="B705" s="35"/>
       <c r="D705" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="53"/>
+      <c r="A706" s="52"/>
       <c r="B706" s="35"/>
       <c r="C706" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D706" s="15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="53"/>
+      <c r="A707" s="52"/>
       <c r="B707" s="35"/>
       <c r="C707" s="3"/>
       <c r="D707" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="53"/>
+      <c r="A708" s="52"/>
       <c r="B708" s="35"/>
       <c r="D708" s="15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="53"/>
+      <c r="A709" s="52"/>
       <c r="B709" s="26"/>
       <c r="D709" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="53">
+      <c r="A711" s="52">
         <v>43461</v>
       </c>
       <c r="B711" s="35"/>
@@ -13391,60 +13426,60 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="53"/>
+      <c r="A712" s="52"/>
       <c r="B712" s="35"/>
       <c r="D712" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="53"/>
+      <c r="A713" s="52"/>
       <c r="B713" s="35"/>
       <c r="C713" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D713" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="53"/>
+      <c r="A714" s="52"/>
       <c r="B714" s="35"/>
       <c r="C714" s="3"/>
       <c r="D714" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="53"/>
+      <c r="A715" s="52"/>
       <c r="B715" s="35"/>
       <c r="D715" s="15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="53"/>
+      <c r="A716" s="52"/>
       <c r="B716" s="35"/>
       <c r="D716" s="15" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="53"/>
+      <c r="A717" s="52"/>
       <c r="B717" s="26"/>
       <c r="D717" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="53"/>
+      <c r="A718" s="52"/>
       <c r="B718" s="26"/>
       <c r="D718" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="53">
+      <c r="A720" s="52">
         <v>43462</v>
       </c>
       <c r="B720" s="35"/>
@@ -13452,42 +13487,42 @@
         <v>276</v>
       </c>
       <c r="D720" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="53"/>
+      <c r="A721" s="52"/>
       <c r="B721" s="35"/>
       <c r="D721" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="53"/>
+      <c r="A722" s="52"/>
       <c r="B722" s="35"/>
       <c r="C722" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D722" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="53"/>
+      <c r="A723" s="52"/>
       <c r="B723" s="35"/>
       <c r="D723" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="53"/>
+      <c r="A724" s="52"/>
       <c r="B724" s="26"/>
       <c r="D724" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="53"/>
+      <c r="A725" s="52"/>
       <c r="B725" s="26"/>
       <c r="D725" s="15" t="s">
         <v>768</v>
@@ -13502,7 +13537,7 @@
         <v>663</v>
       </c>
       <c r="D727" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
@@ -13512,7 +13547,7 @@
         <v>718</v>
       </c>
       <c r="D728" s="15" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
@@ -13520,7 +13555,7 @@
       <c r="B729" s="35"/>
       <c r="C729" s="3"/>
       <c r="D729" s="15" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
@@ -13550,14 +13585,14 @@
       </c>
       <c r="B734" s="35"/>
       <c r="D734" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="54"/>
       <c r="B735" s="35"/>
       <c r="D735" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
@@ -13565,7 +13600,7 @@
       <c r="B736" s="35"/>
       <c r="C736" s="3"/>
       <c r="D736" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
@@ -13573,14 +13608,14 @@
       <c r="B737" s="35"/>
       <c r="C737" s="3"/>
       <c r="D737" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" s="54"/>
       <c r="B738" s="35"/>
       <c r="D738" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
@@ -13588,7 +13623,7 @@
       <c r="B739" s="50"/>
       <c r="C739" s="3"/>
       <c r="D739" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
@@ -13606,7 +13641,7 @@
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="53">
+      <c r="A743" s="52">
         <v>43465</v>
       </c>
       <c r="B743" s="35"/>
@@ -13614,18 +13649,18 @@
         <v>276</v>
       </c>
       <c r="D743" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="53"/>
+      <c r="A744" s="52"/>
       <c r="B744" s="35"/>
       <c r="D744" s="15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="53"/>
+      <c r="A745" s="52"/>
       <c r="B745" s="35"/>
       <c r="C745" s="3"/>
       <c r="D745" s="15" t="s">
@@ -13633,39 +13668,39 @@
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="53"/>
+      <c r="A746" s="52"/>
       <c r="B746" s="35"/>
       <c r="D746" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="53"/>
+      <c r="A747" s="52"/>
       <c r="B747" s="26"/>
       <c r="D747" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="53"/>
+      <c r="A748" s="52"/>
       <c r="B748" s="26" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D748" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="53">
+      <c r="A750" s="52">
         <v>43466</v>
       </c>
       <c r="B750" s="35"/>
       <c r="D750" s="15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="53"/>
+      <c r="A751" s="52"/>
       <c r="B751" s="35"/>
       <c r="C751" s="3"/>
       <c r="D751" s="15" t="s">
@@ -13673,41 +13708,41 @@
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="53"/>
+      <c r="A752" s="52"/>
       <c r="B752" s="35"/>
       <c r="D752" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="53"/>
+      <c r="A753" s="52"/>
       <c r="B753" s="35"/>
       <c r="D753" s="15" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="53"/>
+      <c r="A754" s="52"/>
       <c r="B754" s="26"/>
       <c r="D754" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="53"/>
+      <c r="A755" s="52"/>
       <c r="B755" s="26" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D755" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="53">
+      <c r="A757" s="52">
         <v>43467</v>
       </c>
       <c r="B757" s="35" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C757" t="s">
         <v>276</v>
@@ -13717,89 +13752,118 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="53"/>
+      <c r="A758" s="52"/>
       <c r="B758" s="35" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D758" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="53"/>
+      <c r="A759" s="52"/>
       <c r="B759" s="35"/>
       <c r="C759" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D759" s="15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="53"/>
+      <c r="A760" s="52"/>
       <c r="B760" s="35"/>
       <c r="D760" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="53"/>
+      <c r="A761" s="52"/>
       <c r="B761" s="26"/>
       <c r="D761" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="53"/>
+      <c r="A762" s="52"/>
       <c r="B762" s="26"/>
       <c r="D762" s="15" t="s">
         <v>768</v>
       </c>
     </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A764" s="52">
+        <v>43467</v>
+      </c>
+      <c r="B764" s="35" t="s">
+        <v>996</v>
+      </c>
+      <c r="C764" t="s">
+        <v>955</v>
+      </c>
+      <c r="D764" s="15" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A765" s="52"/>
+      <c r="B765" s="35"/>
+      <c r="D765" s="15" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A766" s="52"/>
+      <c r="B766" s="35"/>
+      <c r="C766" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D766" s="15" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A767" s="52"/>
+      <c r="B767" s="35"/>
+      <c r="D767" s="15" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A768" s="52"/>
+      <c r="B768" s="26"/>
+      <c r="D768" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A769" s="52"/>
+      <c r="B769" s="26"/>
+      <c r="D769" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="A743:A748"/>
-    <mergeCell ref="A750:A755"/>
-    <mergeCell ref="A757:A762"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
-    <mergeCell ref="A646:A655"/>
-    <mergeCell ref="A657:A664"/>
-    <mergeCell ref="A734:A741"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
-    <mergeCell ref="B561:B565"/>
-    <mergeCell ref="A560:A570"/>
-    <mergeCell ref="B588:B596"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="B574:B580"/>
-    <mergeCell ref="A572:A584"/>
-    <mergeCell ref="B317:B328"/>
-    <mergeCell ref="A472:A479"/>
-    <mergeCell ref="B472:B479"/>
-    <mergeCell ref="B462:B467"/>
-    <mergeCell ref="B398:B408"/>
-    <mergeCell ref="A441:A450"/>
-    <mergeCell ref="B441:B450"/>
-    <mergeCell ref="B433:B439"/>
-    <mergeCell ref="A421:A431"/>
-    <mergeCell ref="B421:B431"/>
-    <mergeCell ref="A410:A419"/>
-    <mergeCell ref="B410:B419"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A355"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A209:A218"/>
+  <mergeCells count="95">
+    <mergeCell ref="A764:A769"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A506:A512"/>
+    <mergeCell ref="A514:A523"/>
+    <mergeCell ref="A525:A535"/>
+    <mergeCell ref="E481:E485"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="A537:A547"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="B526:B531"/>
     <mergeCell ref="E472:E476"/>
     <mergeCell ref="E469:E470"/>
     <mergeCell ref="A2:A11"/>
@@ -13816,8 +13880,19 @@
     <mergeCell ref="A26:A38"/>
     <mergeCell ref="A40:A55"/>
     <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A481:A487"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A355"/>
+    <mergeCell ref="A290:A301"/>
     <mergeCell ref="A462:A470"/>
-    <mergeCell ref="B468:B470"/>
     <mergeCell ref="A267:A277"/>
     <mergeCell ref="A452:A460"/>
     <mergeCell ref="A398:A408"/>
@@ -13827,17 +13902,37 @@
     <mergeCell ref="A433:A439"/>
     <mergeCell ref="A303:A315"/>
     <mergeCell ref="A317:A328"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="A537:A547"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="E481:E485"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="E478:E479"/>
-    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="A472:A479"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="B462:B467"/>
+    <mergeCell ref="B398:B408"/>
+    <mergeCell ref="A441:A450"/>
+    <mergeCell ref="B441:B450"/>
+    <mergeCell ref="B433:B439"/>
+    <mergeCell ref="A421:A431"/>
+    <mergeCell ref="B421:B431"/>
+    <mergeCell ref="A410:A419"/>
+    <mergeCell ref="B410:B419"/>
+    <mergeCell ref="B468:B470"/>
+    <mergeCell ref="A586:A596"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
+    <mergeCell ref="B561:B565"/>
+    <mergeCell ref="A560:A570"/>
+    <mergeCell ref="B588:B596"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="B574:B580"/>
+    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="A743:A748"/>
+    <mergeCell ref="A750:A755"/>
+    <mergeCell ref="A757:A762"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
+    <mergeCell ref="A646:A655"/>
+    <mergeCell ref="A657:A664"/>
+    <mergeCell ref="A734:A741"/>
     <mergeCell ref="A711:A718"/>
     <mergeCell ref="A720:A725"/>
     <mergeCell ref="A727:A732"/>
@@ -13845,13 +13940,6 @@
     <mergeCell ref="A677:A686"/>
     <mergeCell ref="A688:A694"/>
     <mergeCell ref="A696:A702"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A506:A512"/>
-    <mergeCell ref="A514:A523"/>
-    <mergeCell ref="A525:A535"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13864,8 +13952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14566,16 +14654,16 @@
         <v>43447</v>
       </c>
       <c r="B46" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C46" s="24">
         <v>37.01</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -14583,16 +14671,16 @@
         <v>43448</v>
       </c>
       <c r="B47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C47" s="24">
         <v>37</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E47" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -14606,10 +14694,10 @@
         <v>37.03</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E48" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -14623,10 +14711,10 @@
         <v>36.950000000000003</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E49" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -14640,10 +14728,10 @@
         <v>37</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E50" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -14657,10 +14745,10 @@
         <v>36.92</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E51" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -14668,16 +14756,16 @@
         <v>43453</v>
       </c>
       <c r="B52" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C52" s="24">
         <v>36.96</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E52" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -14685,16 +14773,16 @@
         <v>43454</v>
       </c>
       <c r="B53" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C53" s="24">
         <v>37.01</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E53" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -14702,13 +14790,13 @@
         <v>43455</v>
       </c>
       <c r="B54" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C54" s="24">
         <v>36.9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E54" t="s">
         <v>764</v>
@@ -14719,13 +14807,13 @@
         <v>43456</v>
       </c>
       <c r="B55" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C55" s="24">
         <v>36.9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E55" t="s">
         <v>764</v>
@@ -14736,13 +14824,13 @@
         <v>43457</v>
       </c>
       <c r="B56" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C56" s="24">
         <v>37</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E56" t="s">
         <v>764</v>
@@ -14753,13 +14841,13 @@
         <v>43458</v>
       </c>
       <c r="B57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C57" s="24">
         <v>37.01</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E57" t="s">
         <v>764</v>
@@ -14770,7 +14858,7 @@
         <v>43459</v>
       </c>
       <c r="B58" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C58" s="24">
         <v>36.96</v>
@@ -14787,13 +14875,13 @@
         <v>43460</v>
       </c>
       <c r="B59" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C59" s="24">
         <v>36.99</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E59" t="s">
         <v>764</v>
@@ -14804,7 +14892,7 @@
         <v>43461</v>
       </c>
       <c r="B60" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C60" s="24">
         <v>36.799999999999997</v>
@@ -14821,7 +14909,7 @@
         <v>43462</v>
       </c>
       <c r="B61" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C61" s="24">
         <v>36.99</v>
@@ -14838,7 +14926,7 @@
         <v>43463</v>
       </c>
       <c r="B62" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C62" s="24">
         <v>36.909999999999997</v>
@@ -14855,7 +14943,7 @@
         <v>43464</v>
       </c>
       <c r="B63" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C63" s="24">
         <v>36.9</v>
@@ -14864,7 +14952,7 @@
         <v>518</v>
       </c>
       <c r="E63" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -14872,7 +14960,7 @@
         <v>43465</v>
       </c>
       <c r="B64" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C64" s="24">
         <v>36.9</v>
@@ -14881,7 +14969,7 @@
         <v>518</v>
       </c>
       <c r="E64" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -14891,7 +14979,7 @@
       <c r="C65" s="24"/>
       <c r="D65" s="3"/>
       <c r="E65" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -14899,7 +14987,7 @@
         <v>43467</v>
       </c>
       <c r="B66" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C66" s="24">
         <v>36.9</v>
@@ -14908,7 +14996,7 @@
         <v>518</v>
       </c>
       <c r="E66" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -14916,11 +15004,16 @@
         <v>43468</v>
       </c>
       <c r="B67" t="s">
-        <v>998</v>
-      </c>
-      <c r="C67" s="24"/>
+        <v>955</v>
+      </c>
+      <c r="C67" s="24">
+        <v>36.75</v>
+      </c>
       <c r="D67" s="3" t="s">
-        <v>518</v>
+        <v>1026</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -14928,7 +15021,7 @@
         <v>43469</v>
       </c>
       <c r="B68" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="3" t="s">
@@ -14940,7 +15033,7 @@
         <v>43470</v>
       </c>
       <c r="B69" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="3" t="s">
@@ -14952,7 +15045,7 @@
         <v>43471</v>
       </c>
       <c r="B70" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="3" t="s">
@@ -14964,7 +15057,7 @@
         <v>43472</v>
       </c>
       <c r="B71" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="3" t="s">
@@ -14976,7 +15069,7 @@
         <v>43473</v>
       </c>
       <c r="B72" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="3" t="s">
@@ -14988,7 +15081,7 @@
         <v>43474</v>
       </c>
       <c r="B73" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="3" t="s">
@@ -15000,7 +15093,7 @@
         <v>43475</v>
       </c>
       <c r="B74" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="3" t="s">
@@ -15012,7 +15105,7 @@
         <v>43476</v>
       </c>
       <c r="B75" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="3" t="s">
@@ -15024,7 +15117,7 @@
         <v>43477</v>
       </c>
       <c r="B76" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="3" t="s">
@@ -15036,7 +15129,7 @@
         <v>43478</v>
       </c>
       <c r="B77" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="3" t="s">
@@ -15048,7 +15141,7 @@
         <v>43479</v>
       </c>
       <c r="B78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="3" t="s">
@@ -15060,7 +15153,7 @@
         <v>43480</v>
       </c>
       <c r="B79" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="3" t="s">
@@ -15072,7 +15165,7 @@
         <v>43481</v>
       </c>
       <c r="B80" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="3" t="s">
@@ -15084,7 +15177,7 @@
         <v>43482</v>
       </c>
       <c r="B81" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="3" t="s">
@@ -15096,7 +15189,7 @@
         <v>43483</v>
       </c>
       <c r="B82" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="3" t="s">
@@ -15108,7 +15201,7 @@
         <v>43484</v>
       </c>
       <c r="B83" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="3" t="s">
@@ -15120,7 +15213,7 @@
         <v>43485</v>
       </c>
       <c r="B84" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="3" t="s">
@@ -15132,7 +15225,7 @@
         <v>43486</v>
       </c>
       <c r="B85" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="3" t="s">
@@ -15144,7 +15237,7 @@
         <v>43487</v>
       </c>
       <c r="B86" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="3" t="s">
@@ -15156,7 +15249,7 @@
         <v>43488</v>
       </c>
       <c r="B87" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="3" t="s">
@@ -15182,7 +15275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26 C28 C32">
+  <conditionalFormatting sqref="C28 C26 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15216,7 +15309,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15224,7 +15317,7 @@
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="94.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
@@ -15247,13 +15340,13 @@
         <v>840</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>841</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -15263,8 +15356,8 @@
       <c r="B2" t="s">
         <v>803</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>833</v>
+      <c r="C2" s="3" t="s">
+        <v>1031</v>
       </c>
       <c r="D2" t="s">
         <v>802</v>
@@ -15280,14 +15373,14 @@
       <c r="B3" t="s">
         <v>806</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>833</v>
+      <c r="C3" s="37" t="s">
+        <v>832</v>
       </c>
       <c r="D3" t="s">
         <v>810</v>
       </c>
       <c r="F3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -15305,7 +15398,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -15323,7 +15416,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -15388,11 +15481,11 @@
         <v>832</v>
       </c>
       <c r="D9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -15406,13 +15499,13 @@
         <v>832</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E10" s="5">
         <v>1540</v>
       </c>
       <c r="F10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -15426,7 +15519,7 @@
         <v>832</v>
       </c>
       <c r="D11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>817</v>
@@ -15443,10 +15536,10 @@
         <v>832</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -15456,14 +15549,14 @@
       <c r="B13" t="s">
         <v>821</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>832</v>
+      <c r="C13" s="38" t="s">
+        <v>833</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -15477,10 +15570,10 @@
         <v>818</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H14" t="s">
         <v>834</v>
@@ -15503,10 +15596,10 @@
         <v>818</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F15" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -15520,7 +15613,7 @@
         <v>818</v>
       </c>
       <c r="F16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -15534,10 +15627,10 @@
         <v>818</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -15551,7 +15644,7 @@
         <v>818</v>
       </c>
       <c r="F18" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -15565,10 +15658,10 @@
         <v>818</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -15588,7 +15681,7 @@
         <v>2780</v>
       </c>
       <c r="F20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -15598,12 +15691,11 @@
       <c r="B21" t="s">
         <v>829</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" t="s">
-        <v>845</v>
+      <c r="C21" s="3" t="s">
+        <v>1030</v>
       </c>
       <c r="F21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E64940-ECDD-4DAB-A2C6-93647076C963}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF8D97-9CC3-47C4-A169-AE5EE67ACF0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1045">
   <si>
     <t>病毒四项</t>
   </si>
@@ -4564,10 +4564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达到北京 上班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5305,14 +5301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自驾游结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自驾游开始 16小时到 泸沽湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.45-7.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5370,9 +5358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.45-7.35</t>
-  </si>
-  <si>
     <t>6.45-7.36</t>
   </si>
   <si>
@@ -5485,10 +5470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>量正常 B超检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去医院 检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5504,6 +5485,81 @@
   </si>
   <si>
     <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测着体温差点睡着，体温计放在口腔左边</t>
+    <rPh sb="0" eb="8">
+      <t>cezheti wencha dianshui zhaoshui zhaorong yizhang kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有白带样粘稠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常 有减少 有暗红色沉淀 白带样粘稠 B超检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16小时返回重庆 安顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾游结束 乘车下午2、3点火车回北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午10点左右达到北京 上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾游开始 走高速16小时到 不走高速19小时 泸沽湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸沽湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个半小时 飞昆明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘上午8点火车回北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午5点半左右达到北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>520*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5800,13 +5856,10 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5820,6 +5873,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6908,7 +6964,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6922,7 +6978,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
+      <c r="A3" s="55"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -7111,22 +7167,22 @@
         <v>43453</v>
       </c>
       <c r="B1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C1" t="s">
         <v>917</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1" t="s">
         <v>918</v>
       </c>
-      <c r="D1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>919</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -7570,8 +7626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A750" workbookViewId="0">
-      <selection activeCell="D772" sqref="D772"/>
+    <sheetView topLeftCell="A750" workbookViewId="0">
+      <selection activeCell="D773" sqref="D773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7611,7 +7667,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="58">
+      <c r="A2" s="57">
         <v>43402</v>
       </c>
       <c r="B2" s="20"/>
@@ -7620,7 +7676,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="20"/>
       <c r="C3" s="15" t="s">
         <v>266</v>
@@ -7630,7 +7686,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="20"/>
       <c r="C4" s="14" t="s">
         <v>272</v>
@@ -7640,56 +7696,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="20"/>
       <c r="D5" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="20"/>
       <c r="D6" s="19" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="20"/>
       <c r="D7" s="15" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="20"/>
       <c r="D8" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="20"/>
       <c r="D10" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="20"/>
       <c r="D11" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="58">
+      <c r="A13" s="57">
         <v>43403</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -7700,7 +7756,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="20"/>
       <c r="C14" s="15" t="s">
         <v>253</v>
@@ -7713,8 +7769,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -7722,8 +7778,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -7732,8 +7788,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="59"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -7742,7 +7798,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>327</v>
@@ -7752,7 +7808,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>329</v>
@@ -7762,7 +7818,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>332</v>
@@ -7772,7 +7828,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>333</v>
@@ -7782,7 +7838,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>310</v>
@@ -7792,7 +7848,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>335</v>
@@ -7802,7 +7858,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>336</v>
@@ -7812,7 +7868,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58">
+      <c r="A26" s="57">
         <v>43404</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -7823,8 +7879,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="60" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -7835,8 +7891,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="60"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -7845,8 +7901,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="61"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="60"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -7855,8 +7911,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -7865,8 +7921,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -7875,8 +7931,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -7888,8 +7944,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="60"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -7898,8 +7954,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="60"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -7908,7 +7964,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="29"/>
       <c r="C35" s="15" t="s">
         <v>280</v>
@@ -7918,7 +7974,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="29"/>
       <c r="C36" s="15" t="s">
         <v>374</v>
@@ -7928,7 +7984,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>368</v>
@@ -7938,7 +7994,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>336</v>
@@ -7948,7 +8004,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="58">
+      <c r="A40" s="57">
         <v>43405</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -7965,7 +8021,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15" t="s">
         <v>342</v>
@@ -7975,7 +8031,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="21"/>
       <c r="C42" t="s">
         <v>300</v>
@@ -7985,7 +8041,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="20"/>
       <c r="C43" s="15" t="s">
         <v>266</v>
@@ -7995,7 +8051,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">
         <v>397</v>
@@ -8005,7 +8061,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="23" t="s">
         <v>404</v>
       </c>
@@ -8017,7 +8073,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="20"/>
       <c r="C46" s="15" t="s">
         <v>400</v>
@@ -8027,7 +8083,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="20"/>
       <c r="C47" s="15" t="s">
         <v>290</v>
@@ -8037,7 +8093,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="20"/>
       <c r="C48" s="15" t="s">
         <v>401</v>
@@ -8047,7 +8103,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="20"/>
       <c r="C49" s="15" t="s">
         <v>403</v>
@@ -8057,7 +8113,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="20"/>
       <c r="C50" s="15" t="s">
         <v>292</v>
@@ -8067,7 +8123,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="20"/>
       <c r="C51" s="15" t="s">
         <v>294</v>
@@ -8077,7 +8133,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="20"/>
       <c r="C52" s="15" t="s">
         <v>407</v>
@@ -8087,7 +8143,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="20"/>
       <c r="C53" s="15" t="s">
         <v>321</v>
@@ -8097,7 +8153,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="20"/>
       <c r="C54" s="3" t="s">
         <v>298</v>
@@ -8107,7 +8163,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>368</v>
@@ -8117,10 +8173,10 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="58">
+      <c r="A57" s="57">
         <v>43406</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="61" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -8132,8 +8188,8 @@
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
-      <c r="B58" s="56"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -8142,7 +8198,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="58"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="21"/>
       <c r="C59" t="s">
         <v>300</v>
@@ -8152,7 +8208,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="58"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="20"/>
       <c r="C60" s="15" t="s">
         <v>266</v>
@@ -8162,7 +8218,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="58"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="20"/>
       <c r="C61" s="15" t="s">
         <v>397</v>
@@ -8172,7 +8228,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="58"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="20"/>
       <c r="C62" s="15" t="s">
         <v>400</v>
@@ -8182,7 +8238,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="58"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="20"/>
       <c r="C63" s="3" t="s">
         <v>427</v>
@@ -8192,7 +8248,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="58"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15" t="s">
         <v>428</v>
@@ -8202,7 +8258,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="58"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="20"/>
       <c r="C65" s="15" t="s">
         <v>310</v>
@@ -8212,7 +8268,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="58"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="20"/>
       <c r="C66" s="15" t="s">
         <v>430</v>
@@ -8222,7 +8278,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="58"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="20"/>
       <c r="C67" s="15" t="s">
         <v>431</v>
@@ -8232,7 +8288,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="58"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="20"/>
       <c r="C68" s="15" t="s">
         <v>433</v>
@@ -8242,7 +8298,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="58"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="20"/>
       <c r="C69" s="3" t="s">
         <v>432</v>
@@ -8252,7 +8308,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="58"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>336</v>
@@ -8557,7 +8613,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="58">
+      <c r="A104" s="57">
         <v>43409</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -8565,7 +8621,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="58"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="25" t="s">
         <v>409</v>
       </c>
@@ -8577,7 +8633,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="58"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="26"/>
       <c r="C106" s="15"/>
       <c r="D106" s="18" t="s">
@@ -8586,7 +8642,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="58"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="26"/>
       <c r="C107" s="15" t="s">
         <v>342</v>
@@ -8596,7 +8652,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="58"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="21"/>
       <c r="C108" s="15" t="s">
         <v>434</v>
@@ -8606,7 +8662,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="58"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="20"/>
       <c r="C109" s="15" t="s">
         <v>266</v>
@@ -8616,7 +8672,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="58"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="20"/>
       <c r="C110" s="3"/>
       <c r="D110" s="15" t="s">
@@ -8624,7 +8680,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="58"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="20"/>
       <c r="C111" s="15" t="s">
         <v>423</v>
@@ -8634,7 +8690,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="58"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="20"/>
       <c r="C112" s="15" t="s">
         <v>421</v>
@@ -8644,7 +8700,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="58"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="20"/>
       <c r="C113" s="15" t="s">
         <v>440</v>
@@ -8654,7 +8710,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="58"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="20"/>
       <c r="C114" s="15" t="s">
         <v>445</v>
@@ -8664,7 +8720,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="58"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="20"/>
       <c r="C115" s="18" t="s">
         <v>444</v>
@@ -8674,7 +8730,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="58"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="20"/>
       <c r="C116" s="18" t="s">
         <v>441</v>
@@ -8684,7 +8740,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="58"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="20"/>
       <c r="C117" s="18" t="s">
         <v>442</v>
@@ -8694,7 +8750,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="58"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="20"/>
       <c r="C118" s="18" t="s">
         <v>443</v>
@@ -8704,7 +8760,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="58">
+      <c r="A120" s="57">
         <v>43410</v>
       </c>
       <c r="B120" s="26"/>
@@ -8716,7 +8772,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="58"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="26"/>
       <c r="C121" s="15" t="s">
         <v>437</v>
@@ -8726,7 +8782,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="58"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="21"/>
       <c r="C122" s="15" t="s">
         <v>296</v>
@@ -8736,7 +8792,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="58"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="21"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
@@ -8744,7 +8800,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="58"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="20"/>
       <c r="C124" s="15" t="s">
         <v>266</v>
@@ -8754,7 +8810,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="58"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="20"/>
       <c r="C125" s="15" t="s">
         <v>447</v>
@@ -8764,7 +8820,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="58"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="20"/>
       <c r="C126" s="15" t="s">
         <v>400</v>
@@ -8774,7 +8830,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="58"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="20"/>
       <c r="C127" s="15" t="s">
         <v>449</v>
@@ -8784,7 +8840,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="58"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="20"/>
       <c r="C128" s="15" t="s">
         <v>478</v>
@@ -8794,7 +8850,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="58"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="20"/>
       <c r="C129" s="15" t="s">
         <v>479</v>
@@ -8804,7 +8860,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="58"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="20"/>
       <c r="C130" s="15" t="s">
         <v>480</v>
@@ -8814,7 +8870,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="58"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="20"/>
       <c r="C131" s="15" t="s">
         <v>491</v>
@@ -8824,7 +8880,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="58"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="20"/>
       <c r="C132" s="15" t="s">
         <v>493</v>
@@ -8834,7 +8890,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="58"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="20"/>
       <c r="C133" s="15" t="s">
         <v>310</v>
@@ -8844,7 +8900,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="58"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="20"/>
       <c r="C134" s="15" t="s">
         <v>284</v>
@@ -8854,7 +8910,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="58"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="20"/>
       <c r="C135" s="3" t="s">
         <v>424</v>
@@ -8864,7 +8920,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="58"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="20"/>
       <c r="C136" t="s">
         <v>300</v>
@@ -8874,7 +8930,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="58">
+      <c r="A138" s="57">
         <v>43411</v>
       </c>
       <c r="B138" s="26"/>
@@ -8886,7 +8942,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="58"/>
+      <c r="A139" s="57"/>
       <c r="B139" s="26"/>
       <c r="C139" s="18" t="s">
         <v>337</v>
@@ -8896,7 +8952,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="58"/>
+      <c r="A140" s="57"/>
       <c r="B140" s="26"/>
       <c r="C140" s="15" t="s">
         <v>342</v>
@@ -8906,7 +8962,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="58"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="21"/>
       <c r="C141" s="3" t="s">
         <v>500</v>
@@ -8916,7 +8972,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="58"/>
+      <c r="A142" s="57"/>
       <c r="B142" s="21"/>
       <c r="C142" s="15" t="s">
         <v>266</v>
@@ -8926,7 +8982,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="58"/>
+      <c r="A143" s="57"/>
       <c r="B143" s="20"/>
       <c r="C143" s="3" t="s">
         <v>502</v>
@@ -8936,7 +8992,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="58"/>
+      <c r="A144" s="57"/>
       <c r="B144" s="20"/>
       <c r="C144" s="3"/>
       <c r="D144" s="15" t="s">
@@ -8944,7 +9000,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="58"/>
+      <c r="A145" s="57"/>
       <c r="B145" s="20"/>
       <c r="C145" s="15" t="s">
         <v>449</v>
@@ -8954,7 +9010,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="58"/>
+      <c r="A146" s="57"/>
       <c r="B146" s="20"/>
       <c r="C146" s="15" t="s">
         <v>478</v>
@@ -8964,7 +9020,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="58"/>
+      <c r="A147" s="57"/>
       <c r="B147" s="20"/>
       <c r="C147" s="15" t="s">
         <v>421</v>
@@ -8974,7 +9030,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="58"/>
+      <c r="A148" s="57"/>
       <c r="B148" s="20"/>
       <c r="C148" s="15" t="s">
         <v>440</v>
@@ -8984,7 +9040,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="58"/>
+      <c r="A149" s="57"/>
       <c r="B149" s="20"/>
       <c r="C149" s="15" t="s">
         <v>480</v>
@@ -8994,7 +9050,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="58"/>
+      <c r="A150" s="57"/>
       <c r="B150" s="20"/>
       <c r="C150" s="15" t="s">
         <v>292</v>
@@ -9004,7 +9060,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="58"/>
+      <c r="A151" s="57"/>
       <c r="B151" s="20"/>
       <c r="C151" s="15" t="s">
         <v>294</v>
@@ -9014,7 +9070,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="58"/>
+      <c r="A152" s="57"/>
       <c r="B152" s="20"/>
       <c r="C152" s="15" t="s">
         <v>441</v>
@@ -9024,7 +9080,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="58"/>
+      <c r="A153" s="57"/>
       <c r="B153" s="20"/>
       <c r="C153" s="3" t="s">
         <v>368</v>
@@ -9034,7 +9090,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="58"/>
+      <c r="A154" s="57"/>
       <c r="B154" s="20"/>
       <c r="C154" t="s">
         <v>336</v>
@@ -9044,7 +9100,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="58">
+      <c r="A156" s="57">
         <v>43412</v>
       </c>
       <c r="B156" s="26"/>
@@ -9056,7 +9112,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="58"/>
+      <c r="A157" s="57"/>
       <c r="B157" s="26"/>
       <c r="C157" s="18" t="s">
         <v>280</v>
@@ -9066,7 +9122,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="58"/>
+      <c r="A158" s="57"/>
       <c r="B158" s="21"/>
       <c r="C158" s="3" t="s">
         <v>508</v>
@@ -9076,7 +9132,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="58"/>
+      <c r="A159" s="57"/>
       <c r="B159" s="21"/>
       <c r="C159" s="15" t="s">
         <v>266</v>
@@ -9086,7 +9142,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="58"/>
+      <c r="A160" s="57"/>
       <c r="B160" s="20"/>
       <c r="C160" s="3" t="s">
         <v>502</v>
@@ -9096,7 +9152,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="58"/>
+      <c r="A161" s="57"/>
       <c r="B161" s="20"/>
       <c r="C161" s="3"/>
       <c r="D161" s="15" t="s">
@@ -9104,7 +9160,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="58"/>
+      <c r="A162" s="57"/>
       <c r="B162" s="20"/>
       <c r="C162" s="15" t="s">
         <v>449</v>
@@ -9114,7 +9170,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="58"/>
+      <c r="A163" s="57"/>
       <c r="B163" s="20"/>
       <c r="C163" s="3"/>
       <c r="D163" s="15" t="s">
@@ -9122,7 +9178,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="58"/>
+      <c r="A164" s="57"/>
       <c r="B164" s="20"/>
       <c r="C164" s="15" t="s">
         <v>478</v>
@@ -9132,7 +9188,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="58"/>
+      <c r="A165" s="57"/>
       <c r="B165" s="20"/>
       <c r="C165" s="15" t="s">
         <v>421</v>
@@ -9142,7 +9198,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="58"/>
+      <c r="A166" s="57"/>
       <c r="B166" s="20"/>
       <c r="C166" s="15" t="s">
         <v>480</v>
@@ -9152,7 +9208,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="58"/>
+      <c r="A167" s="57"/>
       <c r="B167" s="20"/>
       <c r="C167" s="15" t="s">
         <v>491</v>
@@ -9162,7 +9218,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="58"/>
+      <c r="A168" s="57"/>
       <c r="B168" s="20"/>
       <c r="C168" s="15" t="s">
         <v>493</v>
@@ -9172,7 +9228,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="58"/>
+      <c r="A169" s="57"/>
       <c r="B169" s="20"/>
       <c r="C169" s="15" t="s">
         <v>353</v>
@@ -9182,7 +9238,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="58"/>
+      <c r="A170" s="57"/>
       <c r="B170" s="20"/>
       <c r="C170" s="3" t="s">
         <v>432</v>
@@ -9192,7 +9248,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="58"/>
+      <c r="A171" s="57"/>
       <c r="B171" s="20"/>
       <c r="C171" t="s">
         <v>336</v>
@@ -9202,7 +9258,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="58">
+      <c r="A173" s="57">
         <v>43413</v>
       </c>
       <c r="B173" s="26"/>
@@ -9214,7 +9270,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="58"/>
+      <c r="A174" s="57"/>
       <c r="B174" s="21"/>
       <c r="C174" s="15" t="s">
         <v>266</v>
@@ -9224,7 +9280,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="58"/>
+      <c r="A175" s="57"/>
       <c r="B175" s="20"/>
       <c r="C175" s="3" t="s">
         <v>502</v>
@@ -9234,7 +9290,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="58"/>
+      <c r="A176" s="57"/>
       <c r="B176" s="20"/>
       <c r="C176" s="15" t="s">
         <v>449</v>
@@ -9244,7 +9300,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="58"/>
+      <c r="A177" s="57"/>
       <c r="B177" s="20"/>
       <c r="C177" s="3"/>
       <c r="D177" s="15" t="s">
@@ -9252,7 +9308,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="58"/>
+      <c r="A178" s="57"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15" t="s">
         <v>478</v>
@@ -9262,7 +9318,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="58"/>
+      <c r="A179" s="57"/>
       <c r="B179" s="20"/>
       <c r="C179" s="15" t="s">
         <v>421</v>
@@ -9272,7 +9328,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="58"/>
+      <c r="A180" s="57"/>
       <c r="B180" s="20"/>
       <c r="C180" s="15" t="s">
         <v>480</v>
@@ -9282,7 +9338,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="58"/>
+      <c r="A181" s="57"/>
       <c r="B181" s="20"/>
       <c r="C181" s="15" t="s">
         <v>491</v>
@@ -9292,7 +9348,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="58"/>
+      <c r="A182" s="57"/>
       <c r="B182" s="20"/>
       <c r="C182" s="15" t="s">
         <v>493</v>
@@ -9302,7 +9358,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="58"/>
+      <c r="A183" s="57"/>
       <c r="B183" s="20"/>
       <c r="C183" s="15" t="s">
         <v>353</v>
@@ -9312,7 +9368,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="58"/>
+      <c r="A184" s="57"/>
       <c r="B184" s="20"/>
       <c r="C184" s="3" t="s">
         <v>432</v>
@@ -9322,7 +9378,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="58"/>
+      <c r="A185" s="57"/>
       <c r="B185" s="20"/>
       <c r="C185" t="s">
         <v>336</v>
@@ -10396,7 +10452,7 @@
       <c r="A317" s="52">
         <v>43425</v>
       </c>
-      <c r="B317" s="55" t="s">
+      <c r="B317" s="56" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -10408,7 +10464,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="52"/>
-      <c r="B318" s="55"/>
+      <c r="B318" s="56"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
@@ -10416,7 +10472,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="52"/>
-      <c r="B319" s="55"/>
+      <c r="B319" s="56"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
@@ -10424,7 +10480,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="52"/>
-      <c r="B320" s="55"/>
+      <c r="B320" s="56"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -10434,7 +10490,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="52"/>
-      <c r="B321" s="55"/>
+      <c r="B321" s="56"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
@@ -10442,14 +10498,14 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="52"/>
-      <c r="B322" s="55"/>
+      <c r="B322" s="56"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="52"/>
-      <c r="B323" s="55"/>
+      <c r="B323" s="56"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -10459,14 +10515,14 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="52"/>
-      <c r="B324" s="55"/>
+      <c r="B324" s="56"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="52"/>
-      <c r="B325" s="55"/>
+      <c r="B325" s="56"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
@@ -10474,14 +10530,14 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="52"/>
-      <c r="B326" s="55"/>
+      <c r="B326" s="56"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="52"/>
-      <c r="B327" s="55"/>
+      <c r="B327" s="56"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
@@ -10489,7 +10545,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="52"/>
-      <c r="B328" s="55"/>
+      <c r="B328" s="56"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -10992,7 +11048,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="52"/>
-      <c r="B391" s="55" t="s">
+      <c r="B391" s="56" t="s">
         <v>649</v>
       </c>
       <c r="D391" s="15" t="s">
@@ -11001,7 +11057,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="52"/>
-      <c r="B392" s="55"/>
+      <c r="B392" s="56"/>
       <c r="C392" s="3"/>
       <c r="D392" s="15" t="s">
         <v>618</v>
@@ -11009,7 +11065,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="52"/>
-      <c r="B393" s="55"/>
+      <c r="B393" s="56"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>645</v>
@@ -11017,14 +11073,14 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="52"/>
-      <c r="B394" s="55"/>
+      <c r="B394" s="56"/>
       <c r="D394" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="52"/>
-      <c r="B395" s="55"/>
+      <c r="B395" s="56"/>
       <c r="C395" s="3"/>
       <c r="D395" s="15" t="s">
         <v>644</v>
@@ -11032,7 +11088,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="52"/>
-      <c r="B396" s="55"/>
+      <c r="B396" s="56"/>
       <c r="D396" s="15" t="s">
         <v>650</v>
       </c>
@@ -11041,7 +11097,7 @@
       <c r="A398" s="52">
         <v>43431</v>
       </c>
-      <c r="B398" s="55" t="s">
+      <c r="B398" s="56" t="s">
         <v>648</v>
       </c>
       <c r="C398" t="s">
@@ -11053,7 +11109,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="52"/>
-      <c r="B399" s="55"/>
+      <c r="B399" s="56"/>
       <c r="C399" s="3" t="s">
         <v>639</v>
       </c>
@@ -11063,7 +11119,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="52"/>
-      <c r="B400" s="55"/>
+      <c r="B400" s="56"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
         <v>622</v>
@@ -11071,7 +11127,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="52"/>
-      <c r="B401" s="55"/>
+      <c r="B401" s="56"/>
       <c r="C401" s="15" t="s">
         <v>266</v>
       </c>
@@ -11081,7 +11137,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="52"/>
-      <c r="B402" s="55"/>
+      <c r="B402" s="56"/>
       <c r="C402" s="3"/>
       <c r="D402" s="15" t="s">
         <v>652</v>
@@ -11089,7 +11145,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="52"/>
-      <c r="B403" s="55"/>
+      <c r="B403" s="56"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
         <v>291</v>
@@ -11097,14 +11153,14 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="52"/>
-      <c r="B404" s="55"/>
+      <c r="B404" s="56"/>
       <c r="D404" s="15" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="52"/>
-      <c r="B405" s="55"/>
+      <c r="B405" s="56"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>656</v>
@@ -11112,7 +11168,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="52"/>
-      <c r="B406" s="55"/>
+      <c r="B406" s="56"/>
       <c r="C406" s="3"/>
       <c r="D406" s="15" t="s">
         <v>658</v>
@@ -11120,7 +11176,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="52"/>
-      <c r="B407" s="55"/>
+      <c r="B407" s="56"/>
       <c r="C407" s="3"/>
       <c r="D407" s="15" t="s">
         <v>622</v>
@@ -11128,7 +11184,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="52"/>
-      <c r="B408" s="55"/>
+      <c r="B408" s="56"/>
       <c r="C408" t="s">
         <v>336</v>
       </c>
@@ -11140,7 +11196,7 @@
       <c r="A410" s="52">
         <v>43432</v>
       </c>
-      <c r="B410" s="55"/>
+      <c r="B410" s="56"/>
       <c r="C410" t="s">
         <v>642</v>
       </c>
@@ -11150,7 +11206,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="52"/>
-      <c r="B411" s="55"/>
+      <c r="B411" s="56"/>
       <c r="C411" s="3" t="s">
         <v>657</v>
       </c>
@@ -11160,7 +11216,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="52"/>
-      <c r="B412" s="55"/>
+      <c r="B412" s="56"/>
       <c r="C412" s="15" t="s">
         <v>266</v>
       </c>
@@ -11170,7 +11226,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="52"/>
-      <c r="B413" s="55"/>
+      <c r="B413" s="56"/>
       <c r="C413" s="3"/>
       <c r="D413" s="15" t="s">
         <v>622</v>
@@ -11178,7 +11234,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="52"/>
-      <c r="B414" s="55"/>
+      <c r="B414" s="56"/>
       <c r="C414" s="3"/>
       <c r="D414" s="15" t="s">
         <v>291</v>
@@ -11186,21 +11242,21 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="52"/>
-      <c r="B415" s="55"/>
+      <c r="B415" s="56"/>
       <c r="D415" s="15" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="52"/>
-      <c r="B416" s="55"/>
+      <c r="B416" s="56"/>
       <c r="D416" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="52"/>
-      <c r="B417" s="55"/>
+      <c r="B417" s="56"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
         <v>658</v>
@@ -11208,14 +11264,14 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="52"/>
-      <c r="B418" s="55"/>
+      <c r="B418" s="56"/>
       <c r="D418" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="52"/>
-      <c r="B419" s="55"/>
+      <c r="B419" s="56"/>
       <c r="C419" s="3"/>
       <c r="D419" s="15" t="s">
         <v>646</v>
@@ -11225,7 +11281,7 @@
       <c r="A421" s="52">
         <v>43433</v>
       </c>
-      <c r="B421" s="55" t="s">
+      <c r="B421" s="56" t="s">
         <v>665</v>
       </c>
       <c r="C421" t="s">
@@ -11237,7 +11293,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="52"/>
-      <c r="B422" s="55"/>
+      <c r="B422" s="56"/>
       <c r="C422" s="3" t="s">
         <v>671</v>
       </c>
@@ -11247,7 +11303,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="52"/>
-      <c r="B423" s="55"/>
+      <c r="B423" s="56"/>
       <c r="C423" s="15" t="s">
         <v>266</v>
       </c>
@@ -11257,7 +11313,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="52"/>
-      <c r="B424" s="55"/>
+      <c r="B424" s="56"/>
       <c r="C424" s="3"/>
       <c r="D424" s="15" t="s">
         <v>622</v>
@@ -11265,7 +11321,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="52"/>
-      <c r="B425" s="55"/>
+      <c r="B425" s="56"/>
       <c r="C425" s="3"/>
       <c r="D425" s="15" t="s">
         <v>291</v>
@@ -11273,28 +11329,28 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="52"/>
-      <c r="B426" s="55"/>
+      <c r="B426" s="56"/>
       <c r="D426" s="15" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="52"/>
-      <c r="B427" s="55"/>
+      <c r="B427" s="56"/>
       <c r="D427" s="15" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="52"/>
-      <c r="B428" s="55"/>
+      <c r="B428" s="56"/>
       <c r="D428" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="52"/>
-      <c r="B429" s="55"/>
+      <c r="B429" s="56"/>
       <c r="C429" s="3"/>
       <c r="D429" t="s">
         <v>669</v>
@@ -11302,14 +11358,14 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="52"/>
-      <c r="B430" s="55"/>
+      <c r="B430" s="56"/>
       <c r="D430" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="52"/>
-      <c r="B431" s="55"/>
+      <c r="B431" s="56"/>
       <c r="C431" s="3"/>
       <c r="D431" s="15" t="s">
         <v>646</v>
@@ -11319,7 +11375,7 @@
       <c r="A433" s="52">
         <v>43434</v>
       </c>
-      <c r="B433" s="55"/>
+      <c r="B433" s="56"/>
       <c r="C433" t="s">
         <v>674</v>
       </c>
@@ -11329,7 +11385,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="52"/>
-      <c r="B434" s="55"/>
+      <c r="B434" s="56"/>
       <c r="C434" t="s">
         <v>676</v>
       </c>
@@ -11339,7 +11395,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="52"/>
-      <c r="B435" s="55"/>
+      <c r="B435" s="56"/>
       <c r="C435" s="15" t="s">
         <v>266</v>
       </c>
@@ -11349,21 +11405,21 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="52"/>
-      <c r="B436" s="55"/>
+      <c r="B436" s="56"/>
       <c r="D436" s="15" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="52"/>
-      <c r="B437" s="55"/>
+      <c r="B437" s="56"/>
       <c r="D437" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="52"/>
-      <c r="B438" s="55"/>
+      <c r="B438" s="56"/>
       <c r="C438" s="3"/>
       <c r="D438" s="15" t="s">
         <v>692</v>
@@ -11371,7 +11427,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="52"/>
-      <c r="B439" s="55"/>
+      <c r="B439" s="56"/>
       <c r="C439" s="3"/>
       <c r="D439" s="15" t="s">
         <v>646</v>
@@ -11381,7 +11437,7 @@
       <c r="A441" s="54">
         <v>43435</v>
       </c>
-      <c r="B441" s="55"/>
+      <c r="B441" s="56"/>
       <c r="C441" t="s">
         <v>674</v>
       </c>
@@ -11391,21 +11447,21 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="54"/>
-      <c r="B442" s="55"/>
+      <c r="B442" s="56"/>
       <c r="D442" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="54"/>
-      <c r="B443" s="55"/>
+      <c r="B443" s="56"/>
       <c r="D443" s="15" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="54"/>
-      <c r="B444" s="55"/>
+      <c r="B444" s="56"/>
       <c r="C444" s="3"/>
       <c r="D444" s="15" t="s">
         <v>682</v>
@@ -11413,7 +11469,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="54"/>
-      <c r="B445" s="55"/>
+      <c r="B445" s="56"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
         <v>685</v>
@@ -11421,7 +11477,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="54"/>
-      <c r="B446" s="55"/>
+      <c r="B446" s="56"/>
       <c r="C446" s="3"/>
       <c r="D446" s="15" t="s">
         <v>651</v>
@@ -11429,21 +11485,21 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="54"/>
-      <c r="B447" s="55"/>
+      <c r="B447" s="56"/>
       <c r="D447" s="15" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="54"/>
-      <c r="B448" s="55"/>
+      <c r="B448" s="56"/>
       <c r="D448" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="54"/>
-      <c r="B449" s="55"/>
+      <c r="B449" s="56"/>
       <c r="C449" s="3"/>
       <c r="D449" s="15" t="s">
         <v>684</v>
@@ -11451,7 +11507,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="54"/>
-      <c r="B450" s="55"/>
+      <c r="B450" s="56"/>
       <c r="C450" s="3"/>
       <c r="D450" s="15" t="s">
         <v>646</v>
@@ -11599,23 +11655,23 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="52"/>
-      <c r="B469" s="55"/>
+      <c r="B469" s="56"/>
       <c r="C469" s="3"/>
       <c r="D469" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E469" s="57" t="s">
+      <c r="E469" s="55" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="52"/>
-      <c r="B470" s="55"/>
+      <c r="B470" s="56"/>
       <c r="C470" s="3"/>
       <c r="D470" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="E470" s="57"/>
+      <c r="E470" s="55"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="52">
@@ -11630,58 +11686,58 @@
       <c r="D472" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E472" s="57" t="s">
+      <c r="E472" s="55" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="52"/>
-      <c r="B473" s="55"/>
+      <c r="B473" s="56"/>
       <c r="D473" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="E473" s="57"/>
+      <c r="E473" s="55"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="52"/>
-      <c r="B474" s="55"/>
+      <c r="B474" s="56"/>
       <c r="C474" t="s">
         <v>719</v>
       </c>
       <c r="D474" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E474" s="57"/>
+      <c r="E474" s="55"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="52"/>
-      <c r="B475" s="55"/>
+      <c r="B475" s="56"/>
       <c r="C475" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D475" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="E475" s="57"/>
+      <c r="E475" s="55"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="52"/>
-      <c r="B476" s="55"/>
+      <c r="B476" s="56"/>
       <c r="D476" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E476" s="57"/>
+      <c r="E476" s="55"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="52"/>
-      <c r="B477" s="55"/>
+      <c r="B477" s="56"/>
       <c r="D477" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="52"/>
-      <c r="B478" s="55"/>
+      <c r="B478" s="56"/>
       <c r="C478" s="3"/>
       <c r="D478" s="15" t="s">
         <v>412</v>
@@ -11692,7 +11748,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="52"/>
-      <c r="B479" s="55"/>
+      <c r="B479" s="56"/>
       <c r="C479" s="3"/>
       <c r="D479" s="15" t="s">
         <v>737</v>
@@ -11712,17 +11768,17 @@
       <c r="D481" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E481" s="57" t="s">
+      <c r="E481" s="55" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="52"/>
-      <c r="B482" s="55"/>
+      <c r="B482" s="56"/>
       <c r="D482" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E482" s="57"/>
+      <c r="E482" s="55"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="52"/>
@@ -11735,7 +11791,7 @@
       <c r="D483" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="E483" s="57"/>
+      <c r="E483" s="55"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="52"/>
@@ -11743,7 +11799,7 @@
       <c r="D484" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E484" s="57"/>
+      <c r="E484" s="55"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="52"/>
@@ -11751,7 +11807,7 @@
       <c r="D485" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="E485" s="57"/>
+      <c r="E485" s="55"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="52"/>
@@ -11759,7 +11815,7 @@
       <c r="D486" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="E486" s="57" t="s">
+      <c r="E486" s="55" t="s">
         <v>749</v>
       </c>
     </row>
@@ -11771,7 +11827,7 @@
       <c r="D487" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E487" s="57"/>
+      <c r="E487" s="55"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="52">
@@ -11858,7 +11914,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="52"/>
-      <c r="B499" s="55"/>
+      <c r="B499" s="56"/>
       <c r="D499" s="15" t="s">
         <v>739</v>
       </c>
@@ -12267,7 +12323,7 @@
       <c r="B554" s="53"/>
       <c r="C554" s="3"/>
       <c r="D554" s="15" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
@@ -12281,7 +12337,7 @@
       <c r="A556" s="52"/>
       <c r="B556" s="26"/>
       <c r="D556" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
@@ -12295,7 +12351,7 @@
       <c r="A558" s="52"/>
       <c r="B558" s="26"/>
       <c r="D558" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
@@ -12307,16 +12363,16 @@
         <v>637</v>
       </c>
       <c r="D560" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="52"/>
       <c r="B561" s="53" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D561" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
@@ -12333,7 +12389,7 @@
         <v>718</v>
       </c>
       <c r="D563" s="15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
@@ -12341,38 +12397,38 @@
       <c r="B564" s="53"/>
       <c r="C564" s="3"/>
       <c r="D564" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="52"/>
       <c r="B565" s="53"/>
       <c r="D565" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="52"/>
       <c r="B566" s="44" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C566" s="3"/>
       <c r="D566" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="52"/>
       <c r="B567" s="26"/>
       <c r="D567" s="15" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="52"/>
       <c r="B568" s="26"/>
       <c r="D568" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
@@ -12386,7 +12442,7 @@
       <c r="A570" s="52"/>
       <c r="B570" s="26"/>
       <c r="D570" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
@@ -12395,14 +12451,14 @@
       </c>
       <c r="B572" s="35"/>
       <c r="D572" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="52"/>
       <c r="B573" s="35"/>
       <c r="C573" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D573" s="15" t="s">
         <v>760</v>
@@ -12411,24 +12467,24 @@
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="52"/>
       <c r="B574" s="53" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D574" s="15" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="52"/>
       <c r="B575" s="53"/>
       <c r="D575" s="15" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="52"/>
       <c r="B576" s="53"/>
       <c r="D576" s="15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
@@ -12438,7 +12494,7 @@
         <v>718</v>
       </c>
       <c r="D577" s="15" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
@@ -12446,7 +12502,7 @@
       <c r="B578" s="53"/>
       <c r="C578" s="3"/>
       <c r="D578" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
@@ -12454,7 +12510,7 @@
       <c r="B579" s="53"/>
       <c r="C579" s="3"/>
       <c r="D579" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
@@ -12476,7 +12532,7 @@
       <c r="A582" s="52"/>
       <c r="B582" s="26"/>
       <c r="D582" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
@@ -12490,7 +12546,7 @@
       <c r="A584" s="52"/>
       <c r="B584" s="26"/>
       <c r="D584" s="15" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
@@ -12503,33 +12559,33 @@
       </c>
       <c r="B586" s="35"/>
       <c r="D586" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="54"/>
       <c r="B587" s="35"/>
       <c r="C587" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D587" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="54"/>
       <c r="B588" s="53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D588" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="54"/>
       <c r="B589" s="53"/>
       <c r="D589" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
@@ -12537,7 +12593,7 @@
       <c r="B590" s="53"/>
       <c r="C590" s="3"/>
       <c r="D590" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
@@ -12545,14 +12601,14 @@
       <c r="B591" s="53"/>
       <c r="C591" s="3"/>
       <c r="D591" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="54"/>
       <c r="B592" s="53"/>
       <c r="D592" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
@@ -12567,7 +12623,7 @@
       <c r="A594" s="54"/>
       <c r="B594" s="53"/>
       <c r="D594" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
@@ -12581,7 +12637,7 @@
       <c r="A596" s="54"/>
       <c r="B596" s="53"/>
       <c r="D596" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
@@ -12590,24 +12646,24 @@
       </c>
       <c r="B598" s="35"/>
       <c r="D598" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="54"/>
       <c r="B599" s="35"/>
       <c r="C599" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D599" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="54"/>
       <c r="B600" s="35"/>
       <c r="D600" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
@@ -12621,14 +12677,14 @@
       <c r="A602" s="54"/>
       <c r="B602" s="35"/>
       <c r="D602" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="54"/>
       <c r="B603" s="35"/>
       <c r="D603" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
@@ -12636,7 +12692,7 @@
       <c r="B604" s="35"/>
       <c r="C604" s="3"/>
       <c r="D604" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
@@ -12644,7 +12700,7 @@
       <c r="B605" s="35"/>
       <c r="C605" s="3"/>
       <c r="D605" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
@@ -12652,14 +12708,14 @@
       <c r="B606" s="35"/>
       <c r="C606" s="3"/>
       <c r="D606" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="54"/>
       <c r="B607" s="35"/>
       <c r="D607" s="15" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
@@ -12674,7 +12730,7 @@
       <c r="A609" s="54"/>
       <c r="B609" s="26"/>
       <c r="D609" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
@@ -12688,7 +12744,7 @@
       <c r="A611" s="54"/>
       <c r="B611" s="26"/>
       <c r="D611" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
@@ -12707,7 +12763,7 @@
       <c r="A614" s="52"/>
       <c r="B614" s="35"/>
       <c r="D614" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
@@ -12717,7 +12773,7 @@
         <v>718</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
@@ -12725,7 +12781,7 @@
       <c r="B616" s="35"/>
       <c r="C616" s="15"/>
       <c r="D616" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
@@ -12733,14 +12789,14 @@
       <c r="B617" s="35"/>
       <c r="C617" s="3"/>
       <c r="D617" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="52"/>
       <c r="B618" s="35"/>
       <c r="D618" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
@@ -12748,7 +12804,7 @@
       <c r="B619" s="47"/>
       <c r="C619" s="3"/>
       <c r="D619" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
@@ -12762,7 +12818,7 @@
       <c r="A621" s="52"/>
       <c r="B621" s="26"/>
       <c r="D621" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
@@ -12781,21 +12837,21 @@
       <c r="A624" s="52"/>
       <c r="B624" s="35"/>
       <c r="D624" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" s="52"/>
       <c r="B625" s="35"/>
       <c r="D625" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" s="52"/>
       <c r="B626" s="35"/>
       <c r="D626" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
@@ -12805,17 +12861,17 @@
         <v>718</v>
       </c>
       <c r="D627" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" s="52"/>
       <c r="B628" s="53" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C628" s="3"/>
       <c r="D628" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
@@ -12823,14 +12879,14 @@
       <c r="B629" s="53"/>
       <c r="C629" s="3"/>
       <c r="D629" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" s="52"/>
       <c r="B630" s="53"/>
       <c r="D630" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
@@ -12854,30 +12910,30 @@
       </c>
       <c r="B634" s="53"/>
       <c r="C634" t="s">
+        <v>913</v>
+      </c>
+      <c r="D634" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="E634" t="s">
         <v>914</v>
-      </c>
-      <c r="D634" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="E634" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635" s="52"/>
       <c r="B635" s="53"/>
       <c r="C635" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D635" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" s="52"/>
       <c r="B636" s="53"/>
       <c r="D636" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
@@ -12887,7 +12943,7 @@
         <v>718</v>
       </c>
       <c r="D637" s="15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
@@ -12895,7 +12951,7 @@
       <c r="B638" s="35"/>
       <c r="C638" s="3"/>
       <c r="D638" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
@@ -12903,21 +12959,21 @@
       <c r="B639" s="35"/>
       <c r="C639" s="3"/>
       <c r="D639" s="15" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640" s="52"/>
       <c r="B640" s="35"/>
       <c r="D640" s="15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="52"/>
       <c r="B641" s="35"/>
       <c r="D641" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
@@ -12948,24 +13004,24 @@
       </c>
       <c r="B646" s="35"/>
       <c r="C646" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D646" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="52"/>
       <c r="B647" s="35"/>
       <c r="D647" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="52"/>
       <c r="B648" s="35"/>
       <c r="D648" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
@@ -12975,7 +13031,7 @@
         <v>718</v>
       </c>
       <c r="D649" s="15" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
@@ -12983,7 +13039,7 @@
       <c r="B650" s="35"/>
       <c r="C650" s="3"/>
       <c r="D650" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
@@ -12991,14 +13047,14 @@
       <c r="B651" s="35"/>
       <c r="C651" s="3"/>
       <c r="D651" s="15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="52"/>
       <c r="B652" s="35"/>
       <c r="D652" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
@@ -13006,7 +13062,7 @@
       <c r="B653" s="48"/>
       <c r="C653" s="3"/>
       <c r="D653" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
@@ -13039,14 +13095,14 @@
       <c r="A658" s="52"/>
       <c r="B658" s="35"/>
       <c r="D658" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="52"/>
       <c r="B659" s="35"/>
       <c r="D659" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
@@ -13056,7 +13112,7 @@
         <v>718</v>
       </c>
       <c r="D660" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
@@ -13064,14 +13120,14 @@
       <c r="B661" s="35"/>
       <c r="C661" s="3"/>
       <c r="D661" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="52"/>
       <c r="B662" s="35"/>
       <c r="D662" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
@@ -13111,14 +13167,14 @@
       <c r="A668" s="54"/>
       <c r="B668" s="35"/>
       <c r="D668" s="15" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="54"/>
       <c r="B669" s="35"/>
       <c r="D669" s="15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
@@ -13126,7 +13182,7 @@
       <c r="B670" s="35"/>
       <c r="C670" s="3"/>
       <c r="D670" s="15" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
@@ -13134,7 +13190,7 @@
       <c r="B671" s="35"/>
       <c r="C671" s="3"/>
       <c r="D671" s="15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
@@ -13142,14 +13198,14 @@
       <c r="B672" s="35"/>
       <c r="C672" s="3"/>
       <c r="D672" s="15" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="54"/>
       <c r="B673" s="35"/>
       <c r="D673" s="15" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
@@ -13189,14 +13245,14 @@
       <c r="A679" s="54"/>
       <c r="B679" s="35"/>
       <c r="D679" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="54"/>
       <c r="B680" s="35"/>
       <c r="D680" s="15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
@@ -13204,7 +13260,7 @@
       <c r="B681" s="35"/>
       <c r="C681" s="3"/>
       <c r="D681" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
@@ -13212,14 +13268,14 @@
       <c r="B682" s="35"/>
       <c r="C682" s="3"/>
       <c r="D682" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="54"/>
       <c r="B683" s="35"/>
       <c r="D683" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
@@ -13227,7 +13283,7 @@
       <c r="B684" s="50"/>
       <c r="C684" s="3"/>
       <c r="D684" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
@@ -13250,17 +13306,17 @@
       </c>
       <c r="B688" s="35"/>
       <c r="C688" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D688" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="52"/>
       <c r="B689" s="35"/>
       <c r="D689" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
@@ -13270,7 +13326,7 @@
         <v>718</v>
       </c>
       <c r="D690" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
@@ -13278,21 +13334,21 @@
       <c r="B691" s="35"/>
       <c r="C691" s="3"/>
       <c r="D691" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="52"/>
       <c r="B692" s="35"/>
       <c r="D692" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="52"/>
       <c r="B693" s="35"/>
       <c r="D693" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
@@ -13308,27 +13364,27 @@
       </c>
       <c r="B696" s="35"/>
       <c r="C696" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D696" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" s="52"/>
       <c r="B697" s="35"/>
       <c r="D697" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" s="52"/>
       <c r="B698" s="35"/>
       <c r="C698" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D698" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
@@ -13336,14 +13392,14 @@
       <c r="B699" s="35"/>
       <c r="C699" s="3"/>
       <c r="D699" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="52"/>
       <c r="B700" s="35"/>
       <c r="D700" s="15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
@@ -13365,30 +13421,30 @@
         <v>43460</v>
       </c>
       <c r="B704" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C704" t="s">
         <v>674</v>
       </c>
       <c r="D704" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="52"/>
       <c r="B705" s="35"/>
       <c r="D705" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="52"/>
       <c r="B706" s="35"/>
       <c r="C706" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D706" s="15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
@@ -13396,14 +13452,14 @@
       <c r="B707" s="35"/>
       <c r="C707" s="3"/>
       <c r="D707" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="52"/>
       <c r="B708" s="35"/>
       <c r="D708" s="15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
@@ -13429,7 +13485,7 @@
       <c r="A712" s="52"/>
       <c r="B712" s="35"/>
       <c r="D712" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
@@ -13439,7 +13495,7 @@
         <v>718</v>
       </c>
       <c r="D713" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
@@ -13447,28 +13503,28 @@
       <c r="B714" s="35"/>
       <c r="C714" s="3"/>
       <c r="D714" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="52"/>
       <c r="B715" s="35"/>
       <c r="D715" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="52"/>
       <c r="B716" s="35"/>
       <c r="D716" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" s="52"/>
       <c r="B717" s="26"/>
       <c r="D717" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
@@ -13487,14 +13543,14 @@
         <v>276</v>
       </c>
       <c r="D720" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="52"/>
       <c r="B721" s="35"/>
       <c r="D721" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
@@ -13504,7 +13560,7 @@
         <v>718</v>
       </c>
       <c r="D722" s="15" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
@@ -13537,7 +13593,7 @@
         <v>663</v>
       </c>
       <c r="D727" s="15" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
@@ -13547,7 +13603,7 @@
         <v>718</v>
       </c>
       <c r="D728" s="15" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
@@ -13555,7 +13611,7 @@
       <c r="B729" s="35"/>
       <c r="C729" s="3"/>
       <c r="D729" s="15" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
@@ -13585,14 +13641,14 @@
       </c>
       <c r="B734" s="35"/>
       <c r="D734" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="54"/>
       <c r="B735" s="35"/>
       <c r="D735" s="15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
@@ -13600,7 +13656,7 @@
       <c r="B736" s="35"/>
       <c r="C736" s="3"/>
       <c r="D736" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
@@ -13608,14 +13664,14 @@
       <c r="B737" s="35"/>
       <c r="C737" s="3"/>
       <c r="D737" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" s="54"/>
       <c r="B738" s="35"/>
       <c r="D738" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
@@ -13623,7 +13679,7 @@
       <c r="B739" s="50"/>
       <c r="C739" s="3"/>
       <c r="D739" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
@@ -13649,14 +13705,14 @@
         <v>276</v>
       </c>
       <c r="D743" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="52"/>
       <c r="B744" s="35"/>
       <c r="D744" s="15" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
@@ -13684,7 +13740,7 @@
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" s="52"/>
       <c r="B748" s="26" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D748" s="15" t="s">
         <v>768</v>
@@ -13696,7 +13752,7 @@
       </c>
       <c r="B750" s="35"/>
       <c r="D750" s="15" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
@@ -13718,7 +13774,7 @@
       <c r="A753" s="52"/>
       <c r="B753" s="35"/>
       <c r="D753" s="15" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
@@ -13731,7 +13787,7 @@
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A755" s="52"/>
       <c r="B755" s="26" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D755" s="15" t="s">
         <v>768</v>
@@ -13742,7 +13798,7 @@
         <v>43467</v>
       </c>
       <c r="B757" s="35" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C757" t="s">
         <v>276</v>
@@ -13754,10 +13810,10 @@
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" s="52"/>
       <c r="B758" s="35" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D758" s="15" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
@@ -13767,7 +13823,7 @@
         <v>718</v>
       </c>
       <c r="D759" s="15" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
@@ -13796,20 +13852,20 @@
         <v>43467</v>
       </c>
       <c r="B764" s="35" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C764" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D764" s="15" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A765" s="52"/>
       <c r="B765" s="35"/>
       <c r="D765" s="15" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
@@ -13819,7 +13875,7 @@
         <v>718</v>
       </c>
       <c r="D766" s="15" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
@@ -13845,27 +13901,42 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A764:A769"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A506:A512"/>
-    <mergeCell ref="A514:A523"/>
-    <mergeCell ref="A525:A535"/>
-    <mergeCell ref="E481:E485"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="E478:E479"/>
-    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="A727:A732"/>
+    <mergeCell ref="A666:A675"/>
+    <mergeCell ref="A677:A686"/>
+    <mergeCell ref="A688:A694"/>
+    <mergeCell ref="A696:A702"/>
+    <mergeCell ref="A586:A596"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
+    <mergeCell ref="B561:B565"/>
+    <mergeCell ref="A560:A570"/>
+    <mergeCell ref="B588:B596"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="B574:B580"/>
+    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A355"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
     <mergeCell ref="A279:A288"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="A537:A547"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="E472:E476"/>
-    <mergeCell ref="E469:E470"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="A156:A171"/>
@@ -13876,35 +13947,12 @@
     <mergeCell ref="A86:A102"/>
     <mergeCell ref="A104:A118"/>
     <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A355"/>
-    <mergeCell ref="A290:A301"/>
     <mergeCell ref="A462:A470"/>
-    <mergeCell ref="A267:A277"/>
     <mergeCell ref="A452:A460"/>
     <mergeCell ref="A398:A408"/>
-    <mergeCell ref="A357:A370"/>
-    <mergeCell ref="A372:A384"/>
-    <mergeCell ref="A386:A396"/>
-    <mergeCell ref="A433:A439"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
-    <mergeCell ref="B317:B328"/>
     <mergeCell ref="A472:A479"/>
-    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="E472:E476"/>
+    <mergeCell ref="E469:E470"/>
     <mergeCell ref="B462:B467"/>
     <mergeCell ref="B398:B408"/>
     <mergeCell ref="A441:A450"/>
@@ -13915,31 +13963,39 @@
     <mergeCell ref="A410:A419"/>
     <mergeCell ref="B410:B419"/>
     <mergeCell ref="B468:B470"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
-    <mergeCell ref="B561:B565"/>
-    <mergeCell ref="A560:A570"/>
-    <mergeCell ref="B588:B596"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="B574:B580"/>
-    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="A537:A547"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="B526:B531"/>
+    <mergeCell ref="A481:A487"/>
+    <mergeCell ref="A357:A370"/>
+    <mergeCell ref="A372:A384"/>
+    <mergeCell ref="A386:A396"/>
+    <mergeCell ref="A433:A439"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="E481:E485"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="A764:A769"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A506:A512"/>
+    <mergeCell ref="A514:A523"/>
+    <mergeCell ref="A525:A535"/>
     <mergeCell ref="A743:A748"/>
     <mergeCell ref="A750:A755"/>
     <mergeCell ref="A757:A762"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
     <mergeCell ref="A646:A655"/>
     <mergeCell ref="A657:A664"/>
     <mergeCell ref="A734:A741"/>
     <mergeCell ref="A711:A718"/>
     <mergeCell ref="A720:A725"/>
-    <mergeCell ref="A727:A732"/>
-    <mergeCell ref="A666:A675"/>
-    <mergeCell ref="A677:A686"/>
-    <mergeCell ref="A688:A694"/>
-    <mergeCell ref="A696:A702"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13952,8 +14008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13962,7 +14018,7 @@
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -14654,16 +14710,16 @@
         <v>43447</v>
       </c>
       <c r="B46" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C46" s="24">
         <v>37.01</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -14671,16 +14727,16 @@
         <v>43448</v>
       </c>
       <c r="B47" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C47" s="24">
         <v>37</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -14694,10 +14750,10 @@
         <v>37.03</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E48" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -14711,10 +14767,10 @@
         <v>36.950000000000003</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E49" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -14728,10 +14784,10 @@
         <v>37</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E50" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -14745,10 +14801,10 @@
         <v>36.92</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E51" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -14756,16 +14812,16 @@
         <v>43453</v>
       </c>
       <c r="B52" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C52" s="24">
         <v>36.96</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E52" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -14773,16 +14829,16 @@
         <v>43454</v>
       </c>
       <c r="B53" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C53" s="24">
         <v>37.01</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E53" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -14790,13 +14846,13 @@
         <v>43455</v>
       </c>
       <c r="B54" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C54" s="24">
         <v>36.9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E54" t="s">
         <v>764</v>
@@ -14807,13 +14863,13 @@
         <v>43456</v>
       </c>
       <c r="B55" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C55" s="24">
         <v>36.9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E55" t="s">
         <v>764</v>
@@ -14824,13 +14880,13 @@
         <v>43457</v>
       </c>
       <c r="B56" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C56" s="24">
         <v>37</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E56" t="s">
         <v>764</v>
@@ -14841,13 +14897,13 @@
         <v>43458</v>
       </c>
       <c r="B57" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C57" s="24">
         <v>37.01</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E57" t="s">
         <v>764</v>
@@ -14858,7 +14914,7 @@
         <v>43459</v>
       </c>
       <c r="B58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C58" s="24">
         <v>36.96</v>
@@ -14875,13 +14931,13 @@
         <v>43460</v>
       </c>
       <c r="B59" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C59" s="24">
         <v>36.99</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E59" t="s">
         <v>764</v>
@@ -14892,7 +14948,7 @@
         <v>43461</v>
       </c>
       <c r="B60" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C60" s="24">
         <v>36.799999999999997</v>
@@ -14909,7 +14965,7 @@
         <v>43462</v>
       </c>
       <c r="B61" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C61" s="24">
         <v>36.99</v>
@@ -14926,7 +14982,7 @@
         <v>43463</v>
       </c>
       <c r="B62" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C62" s="24">
         <v>36.909999999999997</v>
@@ -14943,7 +14999,7 @@
         <v>43464</v>
       </c>
       <c r="B63" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C63" s="24">
         <v>36.9</v>
@@ -14952,7 +15008,7 @@
         <v>518</v>
       </c>
       <c r="E63" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -14960,7 +15016,7 @@
         <v>43465</v>
       </c>
       <c r="B64" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C64" s="24">
         <v>36.9</v>
@@ -14969,7 +15025,7 @@
         <v>518</v>
       </c>
       <c r="E64" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -14979,7 +15035,7 @@
       <c r="C65" s="24"/>
       <c r="D65" s="3"/>
       <c r="E65" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -14987,7 +15043,7 @@
         <v>43467</v>
       </c>
       <c r="B66" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C66" s="24">
         <v>36.9</v>
@@ -14996,7 +15052,7 @@
         <v>518</v>
       </c>
       <c r="E66" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -15004,16 +15060,16 @@
         <v>43468</v>
       </c>
       <c r="B67" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C67" s="24">
         <v>36.75</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E67" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -15021,11 +15077,16 @@
         <v>43469</v>
       </c>
       <c r="B68" t="s">
-        <v>997</v>
-      </c>
-      <c r="C68" s="24"/>
+        <v>1030</v>
+      </c>
+      <c r="C68" s="24">
+        <v>36.549999999999997</v>
+      </c>
       <c r="D68" s="3" t="s">
-        <v>518</v>
+        <v>1027</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -15033,7 +15094,7 @@
         <v>43470</v>
       </c>
       <c r="B69" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="3" t="s">
@@ -15045,7 +15106,7 @@
         <v>43471</v>
       </c>
       <c r="B70" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="3" t="s">
@@ -15057,7 +15118,7 @@
         <v>43472</v>
       </c>
       <c r="B71" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="3" t="s">
@@ -15069,7 +15130,7 @@
         <v>43473</v>
       </c>
       <c r="B72" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="3" t="s">
@@ -15081,7 +15142,7 @@
         <v>43474</v>
       </c>
       <c r="B73" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="3" t="s">
@@ -15093,7 +15154,7 @@
         <v>43475</v>
       </c>
       <c r="B74" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="3" t="s">
@@ -15105,7 +15166,7 @@
         <v>43476</v>
       </c>
       <c r="B75" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="3" t="s">
@@ -15117,7 +15178,7 @@
         <v>43477</v>
       </c>
       <c r="B76" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="3" t="s">
@@ -15129,7 +15190,7 @@
         <v>43478</v>
       </c>
       <c r="B77" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="3" t="s">
@@ -15141,7 +15202,7 @@
         <v>43479</v>
       </c>
       <c r="B78" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="3" t="s">
@@ -15153,7 +15214,7 @@
         <v>43480</v>
       </c>
       <c r="B79" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="3" t="s">
@@ -15165,7 +15226,7 @@
         <v>43481</v>
       </c>
       <c r="B80" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="3" t="s">
@@ -15177,7 +15238,7 @@
         <v>43482</v>
       </c>
       <c r="B81" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="3" t="s">
@@ -15189,7 +15250,7 @@
         <v>43483</v>
       </c>
       <c r="B82" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="3" t="s">
@@ -15201,7 +15262,7 @@
         <v>43484</v>
       </c>
       <c r="B83" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="3" t="s">
@@ -15213,7 +15274,7 @@
         <v>43485</v>
       </c>
       <c r="B84" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="3" t="s">
@@ -15225,7 +15286,7 @@
         <v>43486</v>
       </c>
       <c r="B85" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="3" t="s">
@@ -15237,7 +15298,7 @@
         <v>43487</v>
       </c>
       <c r="B86" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="3" t="s">
@@ -15249,7 +15310,7 @@
         <v>43488</v>
       </c>
       <c r="B87" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="3" t="s">
@@ -15275,7 +15336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C26 C32">
+  <conditionalFormatting sqref="C26 C28 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15306,10 +15367,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15318,15 +15379,20 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="94.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>804</v>
       </c>
@@ -15336,20 +15402,35 @@
       <c r="C1" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40">
         <v>43123</v>
       </c>
@@ -15357,16 +15438,28 @@
         <v>803</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E2" t="s">
         <v>802</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>802</v>
+      </c>
+      <c r="M2" t="s">
+        <v>834</v>
+      </c>
+      <c r="N2" t="s">
+        <v>835</v>
+      </c>
+      <c r="O2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="40">
         <v>43124</v>
       </c>
@@ -15376,14 +15469,17 @@
       <c r="C3" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>846</v>
+      </c>
+      <c r="H3" t="s">
+        <v>846</v>
+      </c>
+      <c r="K3" t="s">
         <v>810</v>
       </c>
-      <c r="F3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="40">
         <v>43125</v>
       </c>
@@ -15393,15 +15489,18 @@
       <c r="C4" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" t="s">
+        <v>847</v>
+      </c>
+      <c r="H4" t="s">
+        <v>847</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="42">
         <v>43126</v>
       </c>
@@ -15411,15 +15510,18 @@
       <c r="C5" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" t="s">
+        <v>848</v>
+      </c>
+      <c r="H5" t="s">
+        <v>848</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
         <v>43127</v>
       </c>
@@ -15429,14 +15531,17 @@
       <c r="C6" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>831</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
         <v>43128</v>
       </c>
@@ -15446,14 +15551,17 @@
       <c r="C7" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>811</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="41">
         <v>43129</v>
       </c>
@@ -15463,14 +15571,17 @@
       <c r="C8" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>814</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="40">
         <v>43130</v>
       </c>
@@ -15480,15 +15591,18 @@
       <c r="C9" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D9" t="s">
-        <v>857</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>849</v>
+      </c>
+      <c r="K9" t="s">
+        <v>856</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="40">
         <v>43131</v>
       </c>
@@ -15498,17 +15612,20 @@
       <c r="C10" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="L10" s="5">
         <v>1540</v>
       </c>
-      <c r="F10" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -15518,14 +15635,17 @@
       <c r="C11" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D11" t="s">
-        <v>857</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>849</v>
+      </c>
+      <c r="H11" t="s">
+        <v>849</v>
+      </c>
+      <c r="K11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
         <v>43133</v>
       </c>
@@ -15535,14 +15655,23 @@
       <c r="C12" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="F12" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
         <v>43134</v>
       </c>
@@ -15552,14 +15681,20 @@
       <c r="C13" s="38" t="s">
         <v>833</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>852</v>
+      <c r="E13" t="s">
+        <v>1038</v>
       </c>
       <c r="F13" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1044</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="42">
         <v>43135</v>
       </c>
@@ -15569,23 +15704,17 @@
       <c r="C14" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="F14" t="s">
-        <v>984</v>
+      <c r="E14" t="s">
+        <v>977</v>
       </c>
       <c r="H14" t="s">
-        <v>834</v>
-      </c>
-      <c r="I14" t="s">
-        <v>835</v>
-      </c>
-      <c r="J14" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="42">
         <v>43136</v>
       </c>
@@ -15595,14 +15724,17 @@
       <c r="C15" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>978</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="42">
         <v>43137</v>
       </c>
@@ -15612,11 +15744,14 @@
       <c r="C16" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="42">
         <v>43138</v>
       </c>
@@ -15626,14 +15761,17 @@
       <c r="C17" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>980</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="42">
         <v>43139</v>
       </c>
@@ -15643,11 +15781,14 @@
       <c r="C18" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="42">
         <v>43140</v>
       </c>
@@ -15657,14 +15798,20 @@
       <c r="C19" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="F19" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="42">
         <v>43141</v>
       </c>
@@ -15674,17 +15821,26 @@
       <c r="C20" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I20">
+        <v>800</v>
+      </c>
+      <c r="K20" t="s">
         <v>844</v>
       </c>
-      <c r="E20">
+      <c r="L20">
         <v>2780</v>
       </c>
-      <c r="F20" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="40">
         <v>43142</v>
       </c>
@@ -15692,16 +15848,19 @@
         <v>829</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F21" t="s">
-        <v>850</v>
+        <v>1025</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" display="http://www.mafengwo.cn/poi/1237.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K14" r:id="rId1" display="http://www.mafengwo.cn/poi/1237.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF8D97-9CC3-47C4-A169-AE5EE67ACF0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="435" windowWidth="25845" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -25,23 +29,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,12 +128,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1066">
   <si>
     <t>病毒四项</t>
   </si>
@@ -5358,12 +5362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.45-7.36</t>
-  </si>
-  <si>
-    <t>6.45-7.37</t>
-  </si>
-  <si>
     <t>6.45-7.38</t>
   </si>
   <si>
@@ -5560,13 +5558,273 @@
   </si>
   <si>
     <t>300-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经第四天查</t>
+    <rPh sb="0" eb="1">
+      <t>yue jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.55 温计放在口腔左边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：煎饼</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常 有减少</t>
+    <rPh sb="0" eb="1">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zheng chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无感 减少</t>
+    <rPh sb="0" eb="1">
+      <t>wu gan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常 血块多</t>
+    <rPh sb="0" eb="1">
+      <t>liang zheng chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xue kuai duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有暗红沉淀</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>an hong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：蒸鸡蛋+萝卜炖羊肉+炒鸡丁+黄瓜汤</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng ji dan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo bo dun yang rou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chao ji ding</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>huang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.50-7.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">量体温：36.58 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.50-7.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：沙琪玛+豆浆</t>
+    <rPh sb="0" eb="1">
+      <t>zao can</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sha qi ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dou jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：腊肉炒土豆+白菜鸡蛋汤</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>la rou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu dou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bai cai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：西兰花炒肉+蒸鸡蛋+白菜汤</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi lan hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chao rou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bai cai tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：卤猪蹄+面条</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lu shui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mian tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝四物汤</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>si wu tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝四物汤</t>
+    <rPh sb="0" eb="1">
+      <t>he si wu tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：豆腐炒肉+莴笋叶鸡蛋汤</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dou fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chao rou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wo sun ye</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 汤腻</t>
+    <rPh sb="0" eb="1">
+      <t>pai bian</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>tang ni</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打乒乓球</t>
+    <rPh sb="0" eb="1">
+      <t>da</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ping pang qiu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -5847,23 +6105,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5871,11 +6120,20 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6156,24 +6414,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6429,7 +6687,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -6444,7 +6702,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6459,7 +6717,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6470,7 +6728,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6933,20 +7191,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.625" customWidth="1"/>
+    <col min="4" max="4" width="113.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6963,8 +7221,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6978,7 +7236,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
+      <c r="A3" s="60"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -7144,25 +7402,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83819E7-6090-4AA0-A958-4049C6AF3FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="49">
         <v>43453</v>
       </c>
@@ -7193,21 +7451,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7623,27 +7881,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I769"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I792"/>
   <sheetViews>
-    <sheetView topLeftCell="A750" workbookViewId="0">
-      <selection activeCell="D773" sqref="D773"/>
+    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
+      <selection activeCell="D795" sqref="D795"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -7770,7 +8028,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="55" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -7779,7 +8037,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
-      <c r="B16" s="59"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -7789,7 +8047,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
-      <c r="B17" s="59"/>
+      <c r="B17" s="56"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -7880,7 +8138,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="58" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -7892,7 +8150,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
-      <c r="B28" s="60"/>
+      <c r="B28" s="58"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -7902,7 +8160,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
-      <c r="B29" s="60"/>
+      <c r="B29" s="58"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -7912,7 +8170,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
-      <c r="B30" s="60"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -7922,7 +8180,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -7932,7 +8190,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -7945,7 +8203,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="58"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -7955,7 +8213,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
-      <c r="B34" s="60"/>
+      <c r="B34" s="58"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -8176,7 +8434,7 @@
       <c r="A57" s="57">
         <v>43406</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="59" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -8189,7 +8447,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
-      <c r="B58" s="61"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -8318,7 +8576,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="54">
+      <c r="A72" s="52">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -8331,7 +8589,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -8342,7 +8600,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -8352,7 +8610,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -8360,7 +8618,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -8370,7 +8628,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -8380,7 +8638,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -8390,7 +8648,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -8400,7 +8658,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -8410,7 +8668,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -8420,7 +8678,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -8430,7 +8688,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -8441,7 +8699,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -8452,7 +8710,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="54">
+      <c r="A86" s="52">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -8466,7 +8724,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -8474,7 +8732,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -8484,14 +8742,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -8499,7 +8757,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="54"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -8509,7 +8767,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -8519,7 +8777,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -8529,7 +8787,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -8539,7 +8797,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="54"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -8549,11 +8807,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="54"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -8563,7 +8821,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -8573,7 +8831,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="54"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -8583,7 +8841,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -8593,7 +8851,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="54"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -8603,7 +8861,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="54"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -9388,7 +9646,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="54">
+      <c r="A187" s="52">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -9400,7 +9658,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="54"/>
+      <c r="A188" s="52"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -9408,7 +9666,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="54"/>
+      <c r="A189" s="52"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -9416,7 +9674,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="54"/>
+      <c r="A190" s="52"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -9424,7 +9682,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="54"/>
+      <c r="A191" s="52"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -9432,7 +9690,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="54"/>
+      <c r="A192" s="52"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -9440,7 +9698,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="54"/>
+      <c r="A193" s="52"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -9448,7 +9706,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="54"/>
+      <c r="A194" s="52"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -9456,7 +9714,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="54"/>
+      <c r="A195" s="52"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -9466,7 +9724,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="54"/>
+      <c r="A196" s="52"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -9476,7 +9734,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="54">
+      <c r="A198" s="52">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -9488,7 +9746,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="54"/>
+      <c r="A199" s="52"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -9496,7 +9754,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="54"/>
+      <c r="A200" s="52"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -9506,7 +9764,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="54"/>
+      <c r="A201" s="52"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -9516,7 +9774,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="54"/>
+      <c r="A202" s="52"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -9526,7 +9784,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="54"/>
+      <c r="A203" s="52"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -9536,7 +9794,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="54"/>
+      <c r="A204" s="52"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -9546,7 +9804,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="54"/>
+      <c r="A205" s="52"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -9556,7 +9814,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="54"/>
+      <c r="A206" s="52"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -9566,7 +9824,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="54"/>
+      <c r="A207" s="52"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -9576,7 +9834,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="52">
+      <c r="A209" s="53">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -9588,7 +9846,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -9598,7 +9856,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="52"/>
+      <c r="A211" s="53"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -9606,7 +9864,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
+      <c r="A212" s="53"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -9616,7 +9874,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="52"/>
+      <c r="A213" s="53"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -9624,7 +9882,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="52"/>
+      <c r="A214" s="53"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -9632,7 +9890,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="52"/>
+      <c r="A215" s="53"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -9640,7 +9898,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="52"/>
+      <c r="A216" s="53"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -9650,7 +9908,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="52"/>
+      <c r="A217" s="53"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -9660,14 +9918,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="52"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="52">
+      <c r="A220" s="53">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -9679,7 +9937,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="52"/>
+      <c r="A221" s="53"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -9689,14 +9947,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="52"/>
+      <c r="A222" s="53"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="52"/>
+      <c r="A223" s="53"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -9706,7 +9964,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="52"/>
+      <c r="A224" s="53"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -9716,7 +9974,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="52"/>
+      <c r="A225" s="53"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -9726,7 +9984,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="52"/>
+      <c r="A226" s="53"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -9736,7 +9994,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="52"/>
+      <c r="A227" s="53"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -9746,7 +10004,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="52"/>
+      <c r="A228" s="53"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -9756,7 +10014,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="52"/>
+      <c r="A229" s="53"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -9766,7 +10024,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="52">
+      <c r="A231" s="53">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -9778,14 +10036,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="52"/>
+      <c r="A232" s="53"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="52"/>
+      <c r="A233" s="53"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -9795,7 +10053,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="52"/>
+      <c r="A234" s="53"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -9803,7 +10061,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="52"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -9811,7 +10069,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="52"/>
+      <c r="A236" s="53"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -9821,7 +10079,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="52"/>
+      <c r="A237" s="53"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -9829,7 +10087,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="52"/>
+      <c r="A238" s="53"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -9837,7 +10095,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="52"/>
+      <c r="A239" s="53"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -9845,7 +10103,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="52"/>
+      <c r="A240" s="53"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -9853,7 +10111,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="52"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -9863,14 +10121,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="52"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="52">
+      <c r="A244" s="53">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -9882,14 +10140,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="52"/>
+      <c r="A245" s="53"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="52"/>
+      <c r="A246" s="53"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -9899,7 +10157,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="52"/>
+      <c r="A247" s="53"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -9907,7 +10165,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="52"/>
+      <c r="A248" s="53"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -9917,7 +10175,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="52"/>
+      <c r="A249" s="53"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -9925,7 +10183,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="52"/>
+      <c r="A250" s="53"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -9933,7 +10191,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="52"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -9941,7 +10199,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="52"/>
+      <c r="A252" s="53"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -9951,7 +10209,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="52">
+      <c r="A254" s="53">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -9963,7 +10221,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="52"/>
+      <c r="A255" s="53"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -9971,14 +10229,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="52"/>
+      <c r="A256" s="53"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="52"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -9988,7 +10246,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="52"/>
+      <c r="A258" s="53"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -9996,7 +10254,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="52"/>
+      <c r="A259" s="53"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -10006,14 +10264,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="52"/>
+      <c r="A260" s="53"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="52"/>
+      <c r="A261" s="53"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -10021,7 +10279,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="52"/>
+      <c r="A262" s="53"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -10029,7 +10287,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="52"/>
+      <c r="A263" s="53"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -10037,7 +10295,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="52"/>
+      <c r="A264" s="53"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -10045,7 +10303,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="52"/>
+      <c r="A265" s="53"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -10055,7 +10313,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="54">
+      <c r="A267" s="52">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -10067,7 +10325,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="54"/>
+      <c r="A268" s="52"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -10075,7 +10333,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="54"/>
+      <c r="A269" s="52"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -10083,7 +10341,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="54"/>
+      <c r="A270" s="52"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -10091,14 +10349,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="54"/>
+      <c r="A271" s="52"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="54"/>
+      <c r="A272" s="52"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -10106,7 +10364,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="54"/>
+      <c r="A273" s="52"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -10114,7 +10372,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="54"/>
+      <c r="A274" s="52"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -10122,7 +10380,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="54"/>
+      <c r="A275" s="52"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -10130,7 +10388,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="54"/>
+      <c r="A276" s="52"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -10140,14 +10398,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="54"/>
+      <c r="A277" s="52"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="54">
+      <c r="A279" s="52">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -10159,28 +10417,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="54"/>
+      <c r="A280" s="52"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="54"/>
+      <c r="A281" s="52"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="54"/>
+      <c r="A282" s="52"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="54"/>
+      <c r="A283" s="52"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -10190,7 +10448,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="54"/>
+      <c r="A284" s="52"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -10198,7 +10456,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="54"/>
+      <c r="A285" s="52"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -10206,7 +10464,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="54"/>
+      <c r="A286" s="52"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -10214,7 +10472,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="54"/>
+      <c r="A287" s="52"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -10222,7 +10480,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="54"/>
+      <c r="A288" s="52"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -10232,7 +10490,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="52">
+      <c r="A290" s="53">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -10244,7 +10502,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="52"/>
+      <c r="A291" s="53"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -10254,14 +10512,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="52"/>
+      <c r="A292" s="53"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="52"/>
+      <c r="A293" s="53"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -10271,7 +10529,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="52"/>
+      <c r="A294" s="53"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -10279,7 +10537,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="52"/>
+      <c r="A295" s="53"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -10289,14 +10547,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="52"/>
+      <c r="A296" s="53"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="52"/>
+      <c r="A297" s="53"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -10304,7 +10562,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="52"/>
+      <c r="A298" s="53"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -10312,14 +10570,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="52"/>
+      <c r="A299" s="53"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="52"/>
+      <c r="A300" s="53"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -10327,7 +10585,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="52"/>
+      <c r="A301" s="53"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -10337,7 +10595,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="52">
+      <c r="A303" s="53">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -10349,7 +10607,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="52"/>
+      <c r="A304" s="53"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -10359,7 +10617,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="52"/>
+      <c r="A305" s="53"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -10367,14 +10625,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="52"/>
+      <c r="A306" s="53"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="52"/>
+      <c r="A307" s="53"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -10384,7 +10642,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="52"/>
+      <c r="A308" s="53"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -10392,7 +10650,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="52"/>
+      <c r="A309" s="53"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -10402,21 +10660,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="52"/>
+      <c r="A310" s="53"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="52"/>
+      <c r="A311" s="53"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="52"/>
+      <c r="A312" s="53"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -10424,14 +10682,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="52"/>
+      <c r="A313" s="53"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="52"/>
+      <c r="A314" s="53"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -10439,7 +10697,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="52"/>
+      <c r="A315" s="53"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -10449,10 +10707,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="52">
+      <c r="A317" s="53">
         <v>43425</v>
       </c>
-      <c r="B317" s="56" t="s">
+      <c r="B317" s="61" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -10463,24 +10721,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="52"/>
-      <c r="B318" s="56"/>
+      <c r="A318" s="53"/>
+      <c r="B318" s="61"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="52"/>
-      <c r="B319" s="56"/>
+      <c r="A319" s="53"/>
+      <c r="B319" s="61"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="52"/>
-      <c r="B320" s="56"/>
+      <c r="A320" s="53"/>
+      <c r="B320" s="61"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -10489,23 +10747,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="52"/>
-      <c r="B321" s="56"/>
+      <c r="A321" s="53"/>
+      <c r="B321" s="61"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="52"/>
-      <c r="B322" s="56"/>
+      <c r="A322" s="53"/>
+      <c r="B322" s="61"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="52"/>
-      <c r="B323" s="56"/>
+      <c r="A323" s="53"/>
+      <c r="B323" s="61"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -10514,38 +10772,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="52"/>
-      <c r="B324" s="56"/>
+      <c r="A324" s="53"/>
+      <c r="B324" s="61"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="52"/>
-      <c r="B325" s="56"/>
+      <c r="A325" s="53"/>
+      <c r="B325" s="61"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="52"/>
-      <c r="B326" s="56"/>
+      <c r="A326" s="53"/>
+      <c r="B326" s="61"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="52"/>
-      <c r="B327" s="56"/>
+      <c r="A327" s="53"/>
+      <c r="B327" s="61"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="52"/>
-      <c r="B328" s="56"/>
+      <c r="A328" s="53"/>
+      <c r="B328" s="61"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -10554,7 +10812,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="52">
+      <c r="A330" s="53">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -10566,7 +10824,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="52"/>
+      <c r="A331" s="53"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -10574,7 +10832,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="52"/>
+      <c r="A332" s="53"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -10582,7 +10840,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="52"/>
+      <c r="A333" s="53"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -10592,7 +10850,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="52"/>
+      <c r="A334" s="53"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -10600,21 +10858,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="52"/>
+      <c r="A335" s="53"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="52"/>
+      <c r="A336" s="53"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="52"/>
+      <c r="A337" s="53"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -10624,14 +10882,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="52"/>
+      <c r="A338" s="53"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="52"/>
+      <c r="A339" s="53"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -10639,7 +10897,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="52"/>
+      <c r="A340" s="53"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -10647,7 +10905,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="52"/>
+      <c r="A341" s="53"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -10655,7 +10913,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="52"/>
+      <c r="A342" s="53"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -10665,7 +10923,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="52">
+      <c r="A344" s="53">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -10677,7 +10935,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="52"/>
+      <c r="A345" s="53"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -10687,7 +10945,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="52"/>
+      <c r="A346" s="53"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -10695,7 +10953,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="52"/>
+      <c r="A347" s="53"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -10703,7 +10961,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="52"/>
+      <c r="A348" s="53"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -10711,7 +10969,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="52"/>
+      <c r="A349" s="53"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -10721,7 +10979,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="52"/>
+      <c r="A350" s="53"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -10731,14 +10989,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="52"/>
+      <c r="A351" s="53"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="52"/>
+      <c r="A352" s="53"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -10746,14 +11004,14 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="52"/>
+      <c r="A353" s="53"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="52"/>
+      <c r="A354" s="53"/>
       <c r="B354" s="20"/>
       <c r="C354" s="3"/>
       <c r="D354" s="15" t="s">
@@ -10761,7 +11019,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="52"/>
+      <c r="A355" s="53"/>
       <c r="B355" s="20"/>
       <c r="C355" t="s">
         <v>336</v>
@@ -10771,7 +11029,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="54">
+      <c r="A357" s="52">
         <v>43428</v>
       </c>
       <c r="B357" s="26"/>
@@ -10783,14 +11041,14 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="54"/>
+      <c r="A358" s="52"/>
       <c r="B358" s="26"/>
       <c r="D358" s="15" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="54"/>
+      <c r="A359" s="52"/>
       <c r="B359" s="26"/>
       <c r="C359" s="3"/>
       <c r="D359" s="15" t="s">
@@ -10798,7 +11056,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="54"/>
+      <c r="A360" s="52"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -10806,7 +11064,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="54"/>
+      <c r="A361" s="52"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -10814,7 +11072,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="54"/>
+      <c r="A362" s="52"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -10822,7 +11080,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="54"/>
+      <c r="A363" s="52"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -10830,7 +11088,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="54"/>
+      <c r="A364" s="52"/>
       <c r="B364" s="26"/>
       <c r="C364" s="3"/>
       <c r="D364" s="15" t="s">
@@ -10838,21 +11096,21 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="54"/>
+      <c r="A365" s="52"/>
       <c r="B365" s="26"/>
       <c r="D365" s="15" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="54"/>
+      <c r="A366" s="52"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="54"/>
+      <c r="A367" s="52"/>
       <c r="B367" s="26"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -10860,14 +11118,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="54"/>
+      <c r="A368" s="52"/>
       <c r="B368" s="26"/>
       <c r="D368" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="54"/>
+      <c r="A369" s="52"/>
       <c r="B369" s="20"/>
       <c r="C369" s="3"/>
       <c r="D369" s="15" t="s">
@@ -10875,7 +11133,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="54"/>
+      <c r="A370" s="52"/>
       <c r="B370" s="20"/>
       <c r="C370" s="3"/>
       <c r="D370" s="15" t="s">
@@ -10883,7 +11141,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="54">
+      <c r="A372" s="52">
         <v>43429</v>
       </c>
       <c r="B372" s="26"/>
@@ -10895,7 +11153,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="54"/>
+      <c r="A373" s="52"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3" t="s">
         <v>619</v>
@@ -10905,7 +11163,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="54"/>
+      <c r="A374" s="52"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -10913,7 +11171,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="54"/>
+      <c r="A375" s="52"/>
       <c r="B375" s="26"/>
       <c r="C375" s="3"/>
       <c r="D375" s="15" t="s">
@@ -10921,7 +11179,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="54"/>
+      <c r="A376" s="52"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -10929,7 +11187,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="54"/>
+      <c r="A377" s="52"/>
       <c r="B377" s="26"/>
       <c r="C377" s="15" t="s">
         <v>266</v>
@@ -10939,7 +11197,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="54"/>
+      <c r="A378" s="52"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -10947,14 +11205,14 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="54"/>
+      <c r="A379" s="52"/>
       <c r="B379" s="26"/>
       <c r="D379" s="15" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="54"/>
+      <c r="A380" s="52"/>
       <c r="B380" s="26"/>
       <c r="C380" s="3"/>
       <c r="D380" s="15" t="s">
@@ -10962,7 +11220,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="54"/>
+      <c r="A381" s="52"/>
       <c r="B381" s="26"/>
       <c r="C381" s="3"/>
       <c r="D381" s="15" t="s">
@@ -10970,14 +11228,14 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="54"/>
+      <c r="A382" s="52"/>
       <c r="B382" s="26"/>
       <c r="D382" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="54"/>
+      <c r="A383" s="52"/>
       <c r="B383" s="20"/>
       <c r="C383" t="s">
         <v>368</v>
@@ -10987,7 +11245,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="54"/>
+      <c r="A384" s="52"/>
       <c r="B384" s="20"/>
       <c r="C384" t="s">
         <v>336</v>
@@ -10997,7 +11255,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="52">
+      <c r="A386" s="53">
         <v>43430</v>
       </c>
       <c r="B386" s="26"/>
@@ -11009,7 +11267,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="52"/>
+      <c r="A387" s="53"/>
       <c r="B387" s="26"/>
       <c r="C387" s="3" t="s">
         <v>639</v>
@@ -11019,7 +11277,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="52"/>
+      <c r="A388" s="53"/>
       <c r="B388" s="26"/>
       <c r="C388" s="3"/>
       <c r="D388" s="15" t="s">
@@ -11027,7 +11285,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="52"/>
+      <c r="A389" s="53"/>
       <c r="B389" s="26"/>
       <c r="C389" s="15" t="s">
         <v>266</v>
@@ -11037,7 +11295,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="52"/>
+      <c r="A390" s="53"/>
       <c r="B390" s="26"/>
       <c r="C390" s="15" t="s">
         <v>616</v>
@@ -11047,8 +11305,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="52"/>
-      <c r="B391" s="56" t="s">
+      <c r="A391" s="53"/>
+      <c r="B391" s="61" t="s">
         <v>649</v>
       </c>
       <c r="D391" s="15" t="s">
@@ -11056,48 +11314,48 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="52"/>
-      <c r="B392" s="56"/>
+      <c r="A392" s="53"/>
+      <c r="B392" s="61"/>
       <c r="C392" s="3"/>
       <c r="D392" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="52"/>
-      <c r="B393" s="56"/>
+      <c r="A393" s="53"/>
+      <c r="B393" s="61"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="52"/>
-      <c r="B394" s="56"/>
+      <c r="A394" s="53"/>
+      <c r="B394" s="61"/>
       <c r="D394" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="52"/>
-      <c r="B395" s="56"/>
+      <c r="A395" s="53"/>
+      <c r="B395" s="61"/>
       <c r="C395" s="3"/>
       <c r="D395" s="15" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="52"/>
-      <c r="B396" s="56"/>
+      <c r="A396" s="53"/>
+      <c r="B396" s="61"/>
       <c r="D396" s="15" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="52">
+      <c r="A398" s="53">
         <v>43431</v>
       </c>
-      <c r="B398" s="56" t="s">
+      <c r="B398" s="61" t="s">
         <v>648</v>
       </c>
       <c r="C398" t="s">
@@ -11108,8 +11366,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="52"/>
-      <c r="B399" s="56"/>
+      <c r="A399" s="53"/>
+      <c r="B399" s="61"/>
       <c r="C399" s="3" t="s">
         <v>639</v>
       </c>
@@ -11118,16 +11376,16 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="52"/>
-      <c r="B400" s="56"/>
+      <c r="A400" s="53"/>
+      <c r="B400" s="61"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="52"/>
-      <c r="B401" s="56"/>
+      <c r="A401" s="53"/>
+      <c r="B401" s="61"/>
       <c r="C401" s="15" t="s">
         <v>266</v>
       </c>
@@ -11136,55 +11394,55 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="52"/>
-      <c r="B402" s="56"/>
+      <c r="A402" s="53"/>
+      <c r="B402" s="61"/>
       <c r="C402" s="3"/>
       <c r="D402" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="52"/>
-      <c r="B403" s="56"/>
+      <c r="A403" s="53"/>
+      <c r="B403" s="61"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="52"/>
-      <c r="B404" s="56"/>
+      <c r="A404" s="53"/>
+      <c r="B404" s="61"/>
       <c r="D404" s="15" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="52"/>
-      <c r="B405" s="56"/>
+      <c r="A405" s="53"/>
+      <c r="B405" s="61"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="52"/>
-      <c r="B406" s="56"/>
+      <c r="A406" s="53"/>
+      <c r="B406" s="61"/>
       <c r="C406" s="3"/>
       <c r="D406" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="52"/>
-      <c r="B407" s="56"/>
+      <c r="A407" s="53"/>
+      <c r="B407" s="61"/>
       <c r="C407" s="3"/>
       <c r="D407" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="52"/>
-      <c r="B408" s="56"/>
+      <c r="A408" s="53"/>
+      <c r="B408" s="61"/>
       <c r="C408" t="s">
         <v>336</v>
       </c>
@@ -11193,10 +11451,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="52">
+      <c r="A410" s="53">
         <v>43432</v>
       </c>
-      <c r="B410" s="56"/>
+      <c r="B410" s="61"/>
       <c r="C410" t="s">
         <v>642</v>
       </c>
@@ -11205,8 +11463,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="52"/>
-      <c r="B411" s="56"/>
+      <c r="A411" s="53"/>
+      <c r="B411" s="61"/>
       <c r="C411" s="3" t="s">
         <v>657</v>
       </c>
@@ -11215,8 +11473,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="52"/>
-      <c r="B412" s="56"/>
+      <c r="A412" s="53"/>
+      <c r="B412" s="61"/>
       <c r="C412" s="15" t="s">
         <v>266</v>
       </c>
@@ -11225,63 +11483,63 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="52"/>
-      <c r="B413" s="56"/>
+      <c r="A413" s="53"/>
+      <c r="B413" s="61"/>
       <c r="C413" s="3"/>
       <c r="D413" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="52"/>
-      <c r="B414" s="56"/>
+      <c r="A414" s="53"/>
+      <c r="B414" s="61"/>
       <c r="C414" s="3"/>
       <c r="D414" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="52"/>
-      <c r="B415" s="56"/>
+      <c r="A415" s="53"/>
+      <c r="B415" s="61"/>
       <c r="D415" s="15" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="52"/>
-      <c r="B416" s="56"/>
+      <c r="A416" s="53"/>
+      <c r="B416" s="61"/>
       <c r="D416" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="52"/>
-      <c r="B417" s="56"/>
+      <c r="A417" s="53"/>
+      <c r="B417" s="61"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="52"/>
-      <c r="B418" s="56"/>
+      <c r="A418" s="53"/>
+      <c r="B418" s="61"/>
       <c r="D418" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="52"/>
-      <c r="B419" s="56"/>
+      <c r="A419" s="53"/>
+      <c r="B419" s="61"/>
       <c r="C419" s="3"/>
       <c r="D419" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="52">
+      <c r="A421" s="53">
         <v>43433</v>
       </c>
-      <c r="B421" s="56" t="s">
+      <c r="B421" s="61" t="s">
         <v>665</v>
       </c>
       <c r="C421" t="s">
@@ -11292,8 +11550,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="52"/>
-      <c r="B422" s="56"/>
+      <c r="A422" s="53"/>
+      <c r="B422" s="61"/>
       <c r="C422" s="3" t="s">
         <v>671</v>
       </c>
@@ -11302,8 +11560,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="52"/>
-      <c r="B423" s="56"/>
+      <c r="A423" s="53"/>
+      <c r="B423" s="61"/>
       <c r="C423" s="15" t="s">
         <v>266</v>
       </c>
@@ -11312,70 +11570,70 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="52"/>
-      <c r="B424" s="56"/>
+      <c r="A424" s="53"/>
+      <c r="B424" s="61"/>
       <c r="C424" s="3"/>
       <c r="D424" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="52"/>
-      <c r="B425" s="56"/>
+      <c r="A425" s="53"/>
+      <c r="B425" s="61"/>
       <c r="C425" s="3"/>
       <c r="D425" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="52"/>
-      <c r="B426" s="56"/>
+      <c r="A426" s="53"/>
+      <c r="B426" s="61"/>
       <c r="D426" s="15" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="52"/>
-      <c r="B427" s="56"/>
+      <c r="A427" s="53"/>
+      <c r="B427" s="61"/>
       <c r="D427" s="15" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="52"/>
-      <c r="B428" s="56"/>
+      <c r="A428" s="53"/>
+      <c r="B428" s="61"/>
       <c r="D428" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="52"/>
-      <c r="B429" s="56"/>
+      <c r="A429" s="53"/>
+      <c r="B429" s="61"/>
       <c r="C429" s="3"/>
       <c r="D429" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="52"/>
-      <c r="B430" s="56"/>
+      <c r="A430" s="53"/>
+      <c r="B430" s="61"/>
       <c r="D430" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="52"/>
-      <c r="B431" s="56"/>
+      <c r="A431" s="53"/>
+      <c r="B431" s="61"/>
       <c r="C431" s="3"/>
       <c r="D431" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="52">
+      <c r="A433" s="53">
         <v>43434</v>
       </c>
-      <c r="B433" s="56"/>
+      <c r="B433" s="61"/>
       <c r="C433" t="s">
         <v>674</v>
       </c>
@@ -11384,8 +11642,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="52"/>
-      <c r="B434" s="56"/>
+      <c r="A434" s="53"/>
+      <c r="B434" s="61"/>
       <c r="C434" t="s">
         <v>676</v>
       </c>
@@ -11394,8 +11652,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="52"/>
-      <c r="B435" s="56"/>
+      <c r="A435" s="53"/>
+      <c r="B435" s="61"/>
       <c r="C435" s="15" t="s">
         <v>266</v>
       </c>
@@ -11404,40 +11662,40 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="52"/>
-      <c r="B436" s="56"/>
+      <c r="A436" s="53"/>
+      <c r="B436" s="61"/>
       <c r="D436" s="15" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="52"/>
-      <c r="B437" s="56"/>
+      <c r="A437" s="53"/>
+      <c r="B437" s="61"/>
       <c r="D437" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="52"/>
-      <c r="B438" s="56"/>
+      <c r="A438" s="53"/>
+      <c r="B438" s="61"/>
       <c r="C438" s="3"/>
       <c r="D438" s="15" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="52"/>
-      <c r="B439" s="56"/>
+      <c r="A439" s="53"/>
+      <c r="B439" s="61"/>
       <c r="C439" s="3"/>
       <c r="D439" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="54">
+      <c r="A441" s="52">
         <v>43435</v>
       </c>
-      <c r="B441" s="56"/>
+      <c r="B441" s="61"/>
       <c r="C441" t="s">
         <v>674</v>
       </c>
@@ -11446,75 +11704,75 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="54"/>
-      <c r="B442" s="56"/>
+      <c r="A442" s="52"/>
+      <c r="B442" s="61"/>
       <c r="D442" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="54"/>
-      <c r="B443" s="56"/>
+      <c r="A443" s="52"/>
+      <c r="B443" s="61"/>
       <c r="D443" s="15" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="54"/>
-      <c r="B444" s="56"/>
+      <c r="A444" s="52"/>
+      <c r="B444" s="61"/>
       <c r="C444" s="3"/>
       <c r="D444" s="15" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="54"/>
-      <c r="B445" s="56"/>
+      <c r="A445" s="52"/>
+      <c r="B445" s="61"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="54"/>
-      <c r="B446" s="56"/>
+      <c r="A446" s="52"/>
+      <c r="B446" s="61"/>
       <c r="C446" s="3"/>
       <c r="D446" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="54"/>
-      <c r="B447" s="56"/>
+      <c r="A447" s="52"/>
+      <c r="B447" s="61"/>
       <c r="D447" s="15" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="54"/>
-      <c r="B448" s="56"/>
+      <c r="A448" s="52"/>
+      <c r="B448" s="61"/>
       <c r="D448" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="54"/>
-      <c r="B449" s="56"/>
+      <c r="A449" s="52"/>
+      <c r="B449" s="61"/>
       <c r="C449" s="3"/>
       <c r="D449" s="15" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="54"/>
-      <c r="B450" s="56"/>
+      <c r="A450" s="52"/>
+      <c r="B450" s="61"/>
       <c r="C450" s="3"/>
       <c r="D450" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="54">
+      <c r="A452" s="52">
         <v>43436</v>
       </c>
       <c r="B452" s="26"/>
@@ -11526,21 +11784,21 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="54"/>
+      <c r="A453" s="52"/>
       <c r="B453" s="26"/>
       <c r="D453" s="15" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="54"/>
+      <c r="A454" s="52"/>
       <c r="B454" s="26"/>
       <c r="D454" s="15" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="54"/>
+      <c r="A455" s="52"/>
       <c r="B455" s="26"/>
       <c r="C455" s="3"/>
       <c r="D455" s="15" t="s">
@@ -11548,7 +11806,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="54"/>
+      <c r="A456" s="52"/>
       <c r="B456" s="26" t="s">
         <v>701</v>
       </c>
@@ -11558,28 +11816,28 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="54"/>
+      <c r="A457" s="52"/>
       <c r="B457" s="26"/>
       <c r="D457" s="15" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="54"/>
+      <c r="A458" s="52"/>
       <c r="B458" s="26"/>
       <c r="D458" s="15" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="54"/>
+      <c r="A459" s="52"/>
       <c r="C459" s="3"/>
       <c r="D459" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="54"/>
+      <c r="A460" s="52"/>
       <c r="B460" s="26" t="s">
         <v>696</v>
       </c>
@@ -11589,10 +11847,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="52">
+      <c r="A462" s="53">
         <v>43437</v>
       </c>
-      <c r="B462" s="53" t="s">
+      <c r="B462" s="54" t="s">
         <v>710</v>
       </c>
       <c r="C462" t="s">
@@ -11603,8 +11861,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="52"/>
-      <c r="B463" s="53"/>
+      <c r="A463" s="53"/>
+      <c r="B463" s="54"/>
       <c r="C463" t="s">
         <v>698</v>
       </c>
@@ -11613,22 +11871,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="52"/>
-      <c r="B464" s="53"/>
+      <c r="A464" s="53"/>
+      <c r="B464" s="54"/>
       <c r="D464" s="15" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="52"/>
-      <c r="B465" s="53"/>
+      <c r="A465" s="53"/>
+      <c r="B465" s="54"/>
       <c r="D465" s="15" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="52"/>
-      <c r="B466" s="53"/>
+      <c r="A466" s="53"/>
+      <c r="B466" s="54"/>
       <c r="C466" s="15" t="s">
         <v>266</v>
       </c>
@@ -11637,16 +11895,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="52"/>
-      <c r="B467" s="53"/>
+      <c r="A467" s="53"/>
+      <c r="B467" s="54"/>
       <c r="C467" s="15"/>
       <c r="D467" s="15" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="52"/>
-      <c r="B468" s="53" t="s">
+      <c r="A468" s="53"/>
+      <c r="B468" s="54" t="s">
         <v>711</v>
       </c>
       <c r="D468" s="15" t="s">
@@ -11654,30 +11912,30 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="52"/>
-      <c r="B469" s="56"/>
+      <c r="A469" s="53"/>
+      <c r="B469" s="61"/>
       <c r="C469" s="3"/>
       <c r="D469" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E469" s="55" t="s">
+      <c r="E469" s="60" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="52"/>
-      <c r="B470" s="56"/>
+      <c r="A470" s="53"/>
+      <c r="B470" s="61"/>
       <c r="C470" s="3"/>
       <c r="D470" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="E470" s="55"/>
+      <c r="E470" s="60"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="52">
+      <c r="A472" s="53">
         <v>43438</v>
       </c>
-      <c r="B472" s="53" t="s">
+      <c r="B472" s="54" t="s">
         <v>742</v>
       </c>
       <c r="C472" t="s">
@@ -11686,58 +11944,58 @@
       <c r="D472" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E472" s="55" t="s">
+      <c r="E472" s="60" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="52"/>
-      <c r="B473" s="56"/>
+      <c r="A473" s="53"/>
+      <c r="B473" s="61"/>
       <c r="D473" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="E473" s="55"/>
+      <c r="E473" s="60"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="52"/>
-      <c r="B474" s="56"/>
+      <c r="A474" s="53"/>
+      <c r="B474" s="61"/>
       <c r="C474" t="s">
         <v>719</v>
       </c>
       <c r="D474" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E474" s="55"/>
+      <c r="E474" s="60"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="52"/>
-      <c r="B475" s="56"/>
+      <c r="A475" s="53"/>
+      <c r="B475" s="61"/>
       <c r="C475" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D475" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="E475" s="55"/>
+      <c r="E475" s="60"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="52"/>
-      <c r="B476" s="56"/>
+      <c r="A476" s="53"/>
+      <c r="B476" s="61"/>
       <c r="D476" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E476" s="55"/>
+      <c r="E476" s="60"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="52"/>
-      <c r="B477" s="56"/>
+      <c r="A477" s="53"/>
+      <c r="B477" s="61"/>
       <c r="D477" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="52"/>
-      <c r="B478" s="56"/>
+      <c r="A478" s="53"/>
+      <c r="B478" s="61"/>
       <c r="C478" s="3"/>
       <c r="D478" s="15" t="s">
         <v>412</v>
@@ -11747,8 +12005,8 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="52"/>
-      <c r="B479" s="56"/>
+      <c r="A479" s="53"/>
+      <c r="B479" s="61"/>
       <c r="C479" s="3"/>
       <c r="D479" s="15" t="s">
         <v>737</v>
@@ -11756,10 +12014,10 @@
       <c r="E479" s="51"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="52">
+      <c r="A481" s="53">
         <v>43439</v>
       </c>
-      <c r="B481" s="53" t="s">
+      <c r="B481" s="54" t="s">
         <v>741</v>
       </c>
       <c r="C481" t="s">
@@ -11768,20 +12026,20 @@
       <c r="D481" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E481" s="55" t="s">
+      <c r="E481" s="60" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="52"/>
-      <c r="B482" s="56"/>
+      <c r="A482" s="53"/>
+      <c r="B482" s="61"/>
       <c r="D482" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E482" s="55"/>
+      <c r="E482" s="60"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="52"/>
+      <c r="A483" s="53"/>
       <c r="B483" s="33" t="s">
         <v>740</v>
       </c>
@@ -11791,46 +12049,46 @@
       <c r="D483" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="E483" s="55"/>
+      <c r="E483" s="60"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="52"/>
+      <c r="A484" s="53"/>
       <c r="B484" s="26"/>
       <c r="D484" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E484" s="55"/>
+      <c r="E484" s="60"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="52"/>
+      <c r="A485" s="53"/>
       <c r="B485" s="26"/>
       <c r="D485" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="E485" s="55"/>
+      <c r="E485" s="60"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="52"/>
+      <c r="A486" s="53"/>
       <c r="B486" s="26"/>
       <c r="D486" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="E486" s="55" t="s">
+      <c r="E486" s="60" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="52"/>
+      <c r="A487" s="53"/>
       <c r="B487" s="34" t="s">
         <v>378</v>
       </c>
       <c r="D487" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E487" s="55"/>
+      <c r="E487" s="60"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="52">
+      <c r="A489" s="53">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -11842,7 +12100,7 @@
       <c r="E489" s="5"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="52"/>
+      <c r="A490" s="53"/>
       <c r="B490" s="26"/>
       <c r="D490" s="15" t="s">
         <v>751</v>
@@ -11850,7 +12108,7 @@
       <c r="E490" s="5"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="52"/>
+      <c r="A491" s="53"/>
       <c r="B491" s="33" t="s">
         <v>740</v>
       </c>
@@ -11863,7 +12121,7 @@
       <c r="E491" s="5"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="52"/>
+      <c r="A492" s="53"/>
       <c r="B492" s="26"/>
       <c r="D492" s="15" t="s">
         <v>736</v>
@@ -11871,28 +12129,28 @@
       <c r="E492" s="5"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="52"/>
+      <c r="A493" s="53"/>
       <c r="B493" s="26"/>
       <c r="D493" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="52"/>
+      <c r="A494" s="53"/>
       <c r="B494" s="26"/>
       <c r="D494" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="52"/>
+      <c r="A495" s="53"/>
       <c r="B495" s="26"/>
       <c r="D495" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="52"/>
+      <c r="A496" s="53"/>
       <c r="B496" s="26"/>
       <c r="C496" s="3"/>
       <c r="D496" s="15" t="s">
@@ -11900,10 +12158,10 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="52">
+      <c r="A498" s="53">
         <v>43441</v>
       </c>
-      <c r="B498" s="53"/>
+      <c r="B498" s="54"/>
       <c r="C498" t="s">
         <v>663</v>
       </c>
@@ -11913,15 +12171,15 @@
       <c r="E498" s="5"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="52"/>
-      <c r="B499" s="56"/>
+      <c r="A499" s="53"/>
+      <c r="B499" s="61"/>
       <c r="D499" s="15" t="s">
         <v>739</v>
       </c>
       <c r="E499" s="5"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="52"/>
+      <c r="A500" s="53"/>
       <c r="B500" s="33" t="s">
         <v>740</v>
       </c>
@@ -11931,7 +12189,7 @@
       <c r="E500" s="5"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="52"/>
+      <c r="A501" s="53"/>
       <c r="B501" s="26"/>
       <c r="C501" s="15" t="s">
         <v>718</v>
@@ -11942,7 +12200,7 @@
       <c r="E501" s="5"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="52"/>
+      <c r="A502" s="53"/>
       <c r="B502" s="26"/>
       <c r="D502" s="15" t="s">
         <v>769</v>
@@ -11950,21 +12208,21 @@
       <c r="E502" s="5"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="52"/>
+      <c r="A503" s="53"/>
       <c r="B503" s="26"/>
       <c r="D503" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="52"/>
+      <c r="A504" s="53"/>
       <c r="B504" s="26"/>
       <c r="D504" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="54">
+      <c r="A506" s="52">
         <v>43442</v>
       </c>
       <c r="B506" s="35"/>
@@ -11976,14 +12234,14 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="54"/>
+      <c r="A507" s="52"/>
       <c r="B507" s="26"/>
       <c r="D507" s="15" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="54"/>
+      <c r="A508" s="52"/>
       <c r="B508" s="26"/>
       <c r="C508" s="3"/>
       <c r="D508" s="15" t="s">
@@ -11991,35 +12249,35 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="54"/>
+      <c r="A509" s="52"/>
       <c r="B509" s="26"/>
       <c r="D509" s="15" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="54"/>
+      <c r="A510" s="52"/>
       <c r="B510" s="26"/>
       <c r="D510" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="54"/>
+      <c r="A511" s="52"/>
       <c r="B511" s="26"/>
       <c r="D511" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="54"/>
+      <c r="A512" s="52"/>
       <c r="B512" s="26"/>
       <c r="D512" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="54">
+      <c r="A514" s="52">
         <v>43443</v>
       </c>
       <c r="B514" s="35"/>
@@ -12028,7 +12286,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="54"/>
+      <c r="A515" s="52"/>
       <c r="B515" s="35"/>
       <c r="C515" t="s">
         <v>474</v>
@@ -12038,14 +12296,14 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="54"/>
+      <c r="A516" s="52"/>
       <c r="B516" s="26"/>
       <c r="D516" s="15" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="54"/>
+      <c r="A517" s="52"/>
       <c r="B517" s="26"/>
       <c r="C517" s="3"/>
       <c r="D517" s="15" t="s">
@@ -12053,7 +12311,7 @@
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="54"/>
+      <c r="A518" s="52"/>
       <c r="B518" s="26"/>
       <c r="C518" s="3"/>
       <c r="D518" s="15" t="s">
@@ -12061,42 +12319,42 @@
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="54"/>
+      <c r="A519" s="52"/>
       <c r="B519" s="26"/>
       <c r="D519" s="15" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="54"/>
+      <c r="A520" s="52"/>
       <c r="B520" s="26"/>
       <c r="D520" s="15" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="54"/>
+      <c r="A521" s="52"/>
       <c r="B521" s="26"/>
       <c r="D521" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="54"/>
+      <c r="A522" s="52"/>
       <c r="B522" s="26"/>
       <c r="D522" s="15" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="54"/>
+      <c r="A523" s="52"/>
       <c r="B523" s="26"/>
       <c r="D523" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="52">
+      <c r="A525" s="53">
         <v>43444</v>
       </c>
       <c r="B525" s="35" t="s">
@@ -12110,8 +12368,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="52"/>
-      <c r="B526" s="53" t="s">
+      <c r="A526" s="53"/>
+      <c r="B526" s="54" t="s">
         <v>785</v>
       </c>
       <c r="D526" s="15" t="s">
@@ -12119,29 +12377,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="52"/>
-      <c r="B527" s="53"/>
+      <c r="A527" s="53"/>
+      <c r="B527" s="54"/>
       <c r="D527" s="15" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="52"/>
-      <c r="B528" s="53"/>
+      <c r="A528" s="53"/>
+      <c r="B528" s="54"/>
       <c r="D528" s="15" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="52"/>
-      <c r="B529" s="53"/>
+      <c r="A529" s="53"/>
+      <c r="B529" s="54"/>
       <c r="D529" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="52"/>
-      <c r="B530" s="53"/>
+      <c r="A530" s="53"/>
+      <c r="B530" s="54"/>
       <c r="C530" s="15" t="s">
         <v>718</v>
       </c>
@@ -12150,43 +12408,43 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="52"/>
-      <c r="B531" s="53"/>
+      <c r="A531" s="53"/>
+      <c r="B531" s="54"/>
       <c r="C531" s="3"/>
       <c r="D531" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="52"/>
+      <c r="A532" s="53"/>
       <c r="B532" s="26"/>
       <c r="D532" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="52"/>
+      <c r="A533" s="53"/>
       <c r="B533" s="26"/>
       <c r="D533" s="15" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="52"/>
+      <c r="A534" s="53"/>
       <c r="B534" s="26"/>
       <c r="D534" s="15" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="52"/>
+      <c r="A535" s="53"/>
       <c r="B535" s="26"/>
       <c r="D535" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="52">
+      <c r="A537" s="53">
         <v>43445</v>
       </c>
       <c r="B537" s="35"/>
@@ -12198,8 +12456,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="52"/>
-      <c r="B538" s="53" t="s">
+      <c r="A538" s="53"/>
+      <c r="B538" s="54" t="s">
         <v>788</v>
       </c>
       <c r="D538" s="15" t="s">
@@ -12207,15 +12465,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="52"/>
-      <c r="B539" s="53"/>
+      <c r="A539" s="53"/>
+      <c r="B539" s="54"/>
       <c r="D539" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="52"/>
-      <c r="B540" s="53"/>
+      <c r="A540" s="53"/>
+      <c r="B540" s="54"/>
       <c r="C540" s="15" t="s">
         <v>718</v>
       </c>
@@ -12224,57 +12482,57 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="52"/>
-      <c r="B541" s="53"/>
+      <c r="A541" s="53"/>
+      <c r="B541" s="54"/>
       <c r="D541" s="15" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="52"/>
-      <c r="B542" s="53"/>
+      <c r="A542" s="53"/>
+      <c r="B542" s="54"/>
       <c r="D542" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="52"/>
-      <c r="B543" s="53"/>
+      <c r="A543" s="53"/>
+      <c r="B543" s="54"/>
       <c r="C543" s="3"/>
       <c r="D543" s="15" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="52"/>
+      <c r="A544" s="53"/>
       <c r="B544" s="26"/>
       <c r="D544" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="52"/>
+      <c r="A545" s="53"/>
       <c r="B545" s="26"/>
       <c r="D545" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="52"/>
+      <c r="A546" s="53"/>
       <c r="B546" s="26"/>
       <c r="D546" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="52"/>
+      <c r="A547" s="53"/>
       <c r="B547" s="26"/>
       <c r="D547" s="15" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="52">
+      <c r="A549" s="53">
         <v>43446</v>
       </c>
       <c r="B549" s="35"/>
@@ -12286,8 +12544,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="52"/>
-      <c r="B550" s="53" t="s">
+      <c r="A550" s="53"/>
+      <c r="B550" s="54" t="s">
         <v>838</v>
       </c>
       <c r="D550" s="15" t="s">
@@ -12295,15 +12553,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="52"/>
-      <c r="B551" s="53"/>
+      <c r="A551" s="53"/>
+      <c r="B551" s="54"/>
       <c r="D551" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="52"/>
-      <c r="B552" s="53"/>
+      <c r="A552" s="53"/>
+      <c r="B552" s="54"/>
       <c r="C552" s="15" t="s">
         <v>718</v>
       </c>
@@ -12312,50 +12570,50 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="52"/>
-      <c r="B553" s="53"/>
+      <c r="A553" s="53"/>
+      <c r="B553" s="54"/>
       <c r="D553" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="52"/>
-      <c r="B554" s="53"/>
+      <c r="A554" s="53"/>
+      <c r="B554" s="54"/>
       <c r="C554" s="3"/>
       <c r="D554" s="15" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="52"/>
+      <c r="A555" s="53"/>
       <c r="B555" s="26"/>
       <c r="D555" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="52"/>
+      <c r="A556" s="53"/>
       <c r="B556" s="26"/>
       <c r="D556" s="15" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="52"/>
+      <c r="A557" s="53"/>
       <c r="B557" s="26"/>
       <c r="D557" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="52"/>
+      <c r="A558" s="53"/>
       <c r="B558" s="26"/>
       <c r="D558" s="15" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="52">
+      <c r="A560" s="53">
         <v>43447</v>
       </c>
       <c r="B560" s="35"/>
@@ -12367,8 +12625,8 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="52"/>
-      <c r="B561" s="53" t="s">
+      <c r="A561" s="53"/>
+      <c r="B561" s="54" t="s">
         <v>870</v>
       </c>
       <c r="D561" s="15" t="s">
@@ -12376,15 +12634,15 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="52"/>
-      <c r="B562" s="53"/>
+      <c r="A562" s="53"/>
+      <c r="B562" s="54"/>
       <c r="D562" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="52"/>
-      <c r="B563" s="53"/>
+      <c r="A563" s="53"/>
+      <c r="B563" s="54"/>
       <c r="C563" s="15" t="s">
         <v>718</v>
       </c>
@@ -12393,22 +12651,22 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="52"/>
-      <c r="B564" s="53"/>
+      <c r="A564" s="53"/>
+      <c r="B564" s="54"/>
       <c r="C564" s="3"/>
       <c r="D564" s="15" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="52"/>
-      <c r="B565" s="53"/>
+      <c r="A565" s="53"/>
+      <c r="B565" s="54"/>
       <c r="D565" s="15" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="52"/>
+      <c r="A566" s="53"/>
       <c r="B566" s="44" t="s">
         <v>872</v>
       </c>
@@ -12418,35 +12676,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="52"/>
+      <c r="A567" s="53"/>
       <c r="B567" s="26"/>
       <c r="D567" s="15" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="52"/>
+      <c r="A568" s="53"/>
       <c r="B568" s="26"/>
       <c r="D568" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="52"/>
+      <c r="A569" s="53"/>
       <c r="B569" s="26"/>
       <c r="D569" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="52"/>
+      <c r="A570" s="53"/>
       <c r="B570" s="26"/>
       <c r="D570" s="15" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="52">
+      <c r="A572" s="53">
         <v>43448</v>
       </c>
       <c r="B572" s="35"/>
@@ -12455,7 +12713,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="52"/>
+      <c r="A573" s="53"/>
       <c r="B573" s="35"/>
       <c r="C573" t="s">
         <v>873</v>
@@ -12465,8 +12723,8 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="52"/>
-      <c r="B574" s="53" t="s">
+      <c r="A574" s="53"/>
+      <c r="B574" s="54" t="s">
         <v>879</v>
       </c>
       <c r="D574" s="15" t="s">
@@ -12474,22 +12732,22 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="52"/>
-      <c r="B575" s="53"/>
+      <c r="A575" s="53"/>
+      <c r="B575" s="54"/>
       <c r="D575" s="15" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="52"/>
-      <c r="B576" s="53"/>
+      <c r="A576" s="53"/>
+      <c r="B576" s="54"/>
       <c r="D576" s="15" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="52"/>
-      <c r="B577" s="53"/>
+      <c r="A577" s="53"/>
+      <c r="B577" s="54"/>
       <c r="C577" s="15" t="s">
         <v>718</v>
       </c>
@@ -12498,30 +12756,30 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="52"/>
-      <c r="B578" s="53"/>
+      <c r="A578" s="53"/>
+      <c r="B578" s="54"/>
       <c r="C578" s="3"/>
       <c r="D578" s="15" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="52"/>
-      <c r="B579" s="53"/>
+      <c r="A579" s="53"/>
+      <c r="B579" s="54"/>
       <c r="C579" s="3"/>
       <c r="D579" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="52"/>
-      <c r="B580" s="53"/>
+      <c r="A580" s="53"/>
+      <c r="B580" s="54"/>
       <c r="D580" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="52"/>
+      <c r="A581" s="53"/>
       <c r="B581" s="44"/>
       <c r="C581" s="3"/>
       <c r="D581" s="15" t="s">
@@ -12529,21 +12787,21 @@
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="52"/>
+      <c r="A582" s="53"/>
       <c r="B582" s="26"/>
       <c r="D582" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="52"/>
+      <c r="A583" s="53"/>
       <c r="B583" s="26"/>
       <c r="D583" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="52"/>
+      <c r="A584" s="53"/>
       <c r="B584" s="26"/>
       <c r="D584" s="15" t="s">
         <v>871</v>
@@ -12554,7 +12812,7 @@
       <c r="B585" s="26"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="54">
+      <c r="A586" s="52">
         <v>43449</v>
       </c>
       <c r="B586" s="35"/>
@@ -12563,7 +12821,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="54"/>
+      <c r="A587" s="52"/>
       <c r="B587" s="35"/>
       <c r="C587" t="s">
         <v>885</v>
@@ -12573,8 +12831,8 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="54"/>
-      <c r="B588" s="53" t="s">
+      <c r="A588" s="52"/>
+      <c r="B588" s="54" t="s">
         <v>898</v>
       </c>
       <c r="D588" s="15" t="s">
@@ -12582,66 +12840,66 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="54"/>
-      <c r="B589" s="53"/>
+      <c r="A589" s="52"/>
+      <c r="B589" s="54"/>
       <c r="D589" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="54"/>
-      <c r="B590" s="53"/>
+      <c r="A590" s="52"/>
+      <c r="B590" s="54"/>
       <c r="C590" s="3"/>
       <c r="D590" s="15" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="54"/>
-      <c r="B591" s="53"/>
+      <c r="A591" s="52"/>
+      <c r="B591" s="54"/>
       <c r="C591" s="3"/>
       <c r="D591" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="54"/>
-      <c r="B592" s="53"/>
+      <c r="A592" s="52"/>
+      <c r="B592" s="54"/>
       <c r="D592" s="15" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="54"/>
-      <c r="B593" s="53"/>
+      <c r="A593" s="52"/>
+      <c r="B593" s="54"/>
       <c r="C593" s="3"/>
       <c r="D593" s="15" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="54"/>
-      <c r="B594" s="53"/>
+      <c r="A594" s="52"/>
+      <c r="B594" s="54"/>
       <c r="D594" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="54"/>
-      <c r="B595" s="53"/>
+      <c r="A595" s="52"/>
+      <c r="B595" s="54"/>
       <c r="D595" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="54"/>
-      <c r="B596" s="53"/>
+      <c r="A596" s="52"/>
+      <c r="B596" s="54"/>
       <c r="D596" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="54">
+      <c r="A598" s="52">
         <v>43450</v>
       </c>
       <c r="B598" s="35"/>
@@ -12650,7 +12908,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="54"/>
+      <c r="A599" s="52"/>
       <c r="B599" s="35"/>
       <c r="C599" t="s">
         <v>893</v>
@@ -12660,35 +12918,35 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="54"/>
+      <c r="A600" s="52"/>
       <c r="B600" s="35"/>
       <c r="D600" s="18" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="54"/>
+      <c r="A601" s="52"/>
       <c r="B601" s="35"/>
       <c r="D601" s="15" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="54"/>
+      <c r="A602" s="52"/>
       <c r="B602" s="35"/>
       <c r="D602" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="54"/>
+      <c r="A603" s="52"/>
       <c r="B603" s="35"/>
       <c r="D603" s="15" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="54"/>
+      <c r="A604" s="52"/>
       <c r="B604" s="35"/>
       <c r="C604" s="3"/>
       <c r="D604" s="15" t="s">
@@ -12696,7 +12954,7 @@
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="54"/>
+      <c r="A605" s="52"/>
       <c r="B605" s="35"/>
       <c r="C605" s="3"/>
       <c r="D605" s="15" t="s">
@@ -12704,7 +12962,7 @@
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="54"/>
+      <c r="A606" s="52"/>
       <c r="B606" s="35"/>
       <c r="C606" s="3"/>
       <c r="D606" s="15" t="s">
@@ -12712,14 +12970,14 @@
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="54"/>
+      <c r="A607" s="52"/>
       <c r="B607" s="35"/>
       <c r="D607" s="15" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="54"/>
+      <c r="A608" s="52"/>
       <c r="B608" s="45"/>
       <c r="C608" s="3"/>
       <c r="D608" s="15" t="s">
@@ -12727,28 +12985,28 @@
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="54"/>
+      <c r="A609" s="52"/>
       <c r="B609" s="26"/>
       <c r="D609" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="54"/>
+      <c r="A610" s="52"/>
       <c r="B610" s="26"/>
       <c r="D610" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="54"/>
+      <c r="A611" s="52"/>
       <c r="B611" s="26"/>
       <c r="D611" s="15" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="52">
+      <c r="A613" s="53">
         <v>43451</v>
       </c>
       <c r="B613" s="35"/>
@@ -12760,14 +13018,14 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="52"/>
+      <c r="A614" s="53"/>
       <c r="B614" s="35"/>
       <c r="D614" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="52"/>
+      <c r="A615" s="53"/>
       <c r="B615" s="35"/>
       <c r="C615" s="15" t="s">
         <v>718</v>
@@ -12777,7 +13035,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="52"/>
+      <c r="A616" s="53"/>
       <c r="B616" s="35"/>
       <c r="C616" s="15"/>
       <c r="D616" s="15" t="s">
@@ -12785,7 +13043,7 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="52"/>
+      <c r="A617" s="53"/>
       <c r="B617" s="35"/>
       <c r="C617" s="3"/>
       <c r="D617" s="15" t="s">
@@ -12793,14 +13051,14 @@
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="52"/>
+      <c r="A618" s="53"/>
       <c r="B618" s="35"/>
       <c r="D618" s="15" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="52"/>
+      <c r="A619" s="53"/>
       <c r="B619" s="47"/>
       <c r="C619" s="3"/>
       <c r="D619" s="15" t="s">
@@ -12808,21 +13066,21 @@
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="52"/>
+      <c r="A620" s="53"/>
       <c r="B620" s="26"/>
       <c r="D620" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="52"/>
+      <c r="A621" s="53"/>
       <c r="B621" s="26"/>
       <c r="D621" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="52">
+      <c r="A623" s="53">
         <v>43452</v>
       </c>
       <c r="B623" s="35"/>
@@ -12834,28 +13092,28 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="52"/>
+      <c r="A624" s="53"/>
       <c r="B624" s="35"/>
       <c r="D624" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="52"/>
+      <c r="A625" s="53"/>
       <c r="B625" s="35"/>
       <c r="D625" s="15" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="52"/>
+      <c r="A626" s="53"/>
       <c r="B626" s="35"/>
       <c r="D626" s="15" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="52"/>
+      <c r="A627" s="53"/>
       <c r="B627" s="35"/>
       <c r="C627" s="15" t="s">
         <v>718</v>
@@ -12865,8 +13123,8 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="52"/>
-      <c r="B628" s="53" t="s">
+      <c r="A628" s="53"/>
+      <c r="B628" s="54" t="s">
         <v>915</v>
       </c>
       <c r="C628" s="3"/>
@@ -12875,40 +13133,40 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="52"/>
-      <c r="B629" s="53"/>
+      <c r="A629" s="53"/>
+      <c r="B629" s="54"/>
       <c r="C629" s="3"/>
       <c r="D629" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="52"/>
-      <c r="B630" s="53"/>
+      <c r="A630" s="53"/>
+      <c r="B630" s="54"/>
       <c r="D630" s="15" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="52"/>
-      <c r="B631" s="53"/>
+      <c r="A631" s="53"/>
+      <c r="B631" s="54"/>
       <c r="C631" s="3"/>
       <c r="D631" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="52"/>
-      <c r="B632" s="53"/>
+      <c r="A632" s="53"/>
+      <c r="B632" s="54"/>
       <c r="D632" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="52">
+      <c r="A634" s="53">
         <v>43453</v>
       </c>
-      <c r="B634" s="53"/>
+      <c r="B634" s="54"/>
       <c r="C634" t="s">
         <v>913</v>
       </c>
@@ -12920,8 +13178,8 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="52"/>
-      <c r="B635" s="53"/>
+      <c r="A635" s="53"/>
+      <c r="B635" s="54"/>
       <c r="C635" t="s">
         <v>911</v>
       </c>
@@ -12930,14 +13188,14 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="52"/>
-      <c r="B636" s="53"/>
+      <c r="A636" s="53"/>
+      <c r="B636" s="54"/>
       <c r="D636" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="52"/>
+      <c r="A637" s="53"/>
       <c r="B637" s="35"/>
       <c r="C637" s="15" t="s">
         <v>718</v>
@@ -12947,7 +13205,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="52"/>
+      <c r="A638" s="53"/>
       <c r="B638" s="35"/>
       <c r="C638" s="3"/>
       <c r="D638" s="15" t="s">
@@ -12955,7 +13213,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="52"/>
+      <c r="A639" s="53"/>
       <c r="B639" s="35"/>
       <c r="C639" s="3"/>
       <c r="D639" s="15" t="s">
@@ -12963,21 +13221,21 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="52"/>
+      <c r="A640" s="53"/>
       <c r="B640" s="35"/>
       <c r="D640" s="15" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="52"/>
+      <c r="A641" s="53"/>
       <c r="B641" s="35"/>
       <c r="D641" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="52"/>
+      <c r="A642" s="53"/>
       <c r="B642" s="48"/>
       <c r="C642" s="3"/>
       <c r="D642" s="15" t="s">
@@ -12985,21 +13243,21 @@
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="52"/>
+      <c r="A643" s="53"/>
       <c r="B643" s="26"/>
       <c r="D643" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="52"/>
+      <c r="A644" s="53"/>
       <c r="B644" s="26"/>
       <c r="D644" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="52">
+      <c r="A646" s="53">
         <v>43454</v>
       </c>
       <c r="B646" s="35"/>
@@ -13011,21 +13269,21 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="52"/>
+      <c r="A647" s="53"/>
       <c r="B647" s="35"/>
       <c r="D647" s="15" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="52"/>
+      <c r="A648" s="53"/>
       <c r="B648" s="35"/>
       <c r="D648" s="15" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="52"/>
+      <c r="A649" s="53"/>
       <c r="B649" s="35"/>
       <c r="C649" s="15" t="s">
         <v>718</v>
@@ -13035,7 +13293,7 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="52"/>
+      <c r="A650" s="53"/>
       <c r="B650" s="35"/>
       <c r="C650" s="3"/>
       <c r="D650" s="15" t="s">
@@ -13043,7 +13301,7 @@
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="52"/>
+      <c r="A651" s="53"/>
       <c r="B651" s="35"/>
       <c r="C651" s="3"/>
       <c r="D651" s="15" t="s">
@@ -13051,14 +13309,14 @@
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="52"/>
+      <c r="A652" s="53"/>
       <c r="B652" s="35"/>
       <c r="D652" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="52"/>
+      <c r="A653" s="53"/>
       <c r="B653" s="48"/>
       <c r="C653" s="3"/>
       <c r="D653" s="15" t="s">
@@ -13066,21 +13324,21 @@
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="52"/>
+      <c r="A654" s="53"/>
       <c r="B654" s="26"/>
       <c r="D654" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="52"/>
+      <c r="A655" s="53"/>
       <c r="B655" s="26"/>
       <c r="D655" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="52">
+      <c r="A657" s="53">
         <v>43455</v>
       </c>
       <c r="B657" s="35"/>
@@ -13092,21 +13350,21 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="52"/>
+      <c r="A658" s="53"/>
       <c r="B658" s="35"/>
       <c r="D658" s="15" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="52"/>
+      <c r="A659" s="53"/>
       <c r="B659" s="35"/>
       <c r="D659" s="15" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="52"/>
+      <c r="A660" s="53"/>
       <c r="B660" s="35"/>
       <c r="C660" s="15" t="s">
         <v>718</v>
@@ -13116,7 +13374,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="52"/>
+      <c r="A661" s="53"/>
       <c r="B661" s="35"/>
       <c r="C661" s="3"/>
       <c r="D661" s="15" t="s">
@@ -13124,28 +13382,28 @@
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="52"/>
+      <c r="A662" s="53"/>
       <c r="B662" s="35"/>
       <c r="D662" s="15" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="52"/>
+      <c r="A663" s="53"/>
       <c r="B663" s="26"/>
       <c r="D663" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="52"/>
+      <c r="A664" s="53"/>
       <c r="B664" s="26"/>
       <c r="D664" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="54">
+      <c r="A666" s="52">
         <v>43456</v>
       </c>
       <c r="B666" s="35"/>
@@ -13157,28 +13415,28 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A667" s="54"/>
+      <c r="A667" s="52"/>
       <c r="B667" s="35"/>
       <c r="D667" s="18" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="54"/>
+      <c r="A668" s="52"/>
       <c r="B668" s="35"/>
       <c r="D668" s="15" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A669" s="54"/>
+      <c r="A669" s="52"/>
       <c r="B669" s="35"/>
       <c r="D669" s="15" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A670" s="54"/>
+      <c r="A670" s="52"/>
       <c r="B670" s="35"/>
       <c r="C670" s="3"/>
       <c r="D670" s="15" t="s">
@@ -13186,7 +13444,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A671" s="54"/>
+      <c r="A671" s="52"/>
       <c r="B671" s="35"/>
       <c r="C671" s="3"/>
       <c r="D671" s="15" t="s">
@@ -13194,7 +13452,7 @@
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A672" s="54"/>
+      <c r="A672" s="52"/>
       <c r="B672" s="35"/>
       <c r="C672" s="3"/>
       <c r="D672" s="15" t="s">
@@ -13202,28 +13460,28 @@
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A673" s="54"/>
+      <c r="A673" s="52"/>
       <c r="B673" s="35"/>
       <c r="D673" s="15" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A674" s="54"/>
+      <c r="A674" s="52"/>
       <c r="B674" s="26"/>
       <c r="D674" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A675" s="54"/>
+      <c r="A675" s="52"/>
       <c r="B675" s="26"/>
       <c r="D675" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A677" s="54">
+      <c r="A677" s="52">
         <v>43457</v>
       </c>
       <c r="B677" s="35"/>
@@ -13235,28 +13493,28 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A678" s="54"/>
+      <c r="A678" s="52"/>
       <c r="B678" s="35"/>
       <c r="D678" s="18" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A679" s="54"/>
+      <c r="A679" s="52"/>
       <c r="B679" s="35"/>
       <c r="D679" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="54"/>
+      <c r="A680" s="52"/>
       <c r="B680" s="35"/>
       <c r="D680" s="15" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A681" s="54"/>
+      <c r="A681" s="52"/>
       <c r="B681" s="35"/>
       <c r="C681" s="3"/>
       <c r="D681" s="15" t="s">
@@ -13264,7 +13522,7 @@
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A682" s="54"/>
+      <c r="A682" s="52"/>
       <c r="B682" s="35"/>
       <c r="C682" s="3"/>
       <c r="D682" s="15" t="s">
@@ -13272,14 +13530,14 @@
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A683" s="54"/>
+      <c r="A683" s="52"/>
       <c r="B683" s="35"/>
       <c r="D683" s="15" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A684" s="54"/>
+      <c r="A684" s="52"/>
       <c r="B684" s="50"/>
       <c r="C684" s="3"/>
       <c r="D684" s="15" t="s">
@@ -13287,21 +13545,21 @@
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="54"/>
+      <c r="A685" s="52"/>
       <c r="B685" s="26"/>
       <c r="D685" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A686" s="54"/>
+      <c r="A686" s="52"/>
       <c r="B686" s="26"/>
       <c r="D686" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="52">
+      <c r="A688" s="53">
         <v>43458</v>
       </c>
       <c r="B688" s="35"/>
@@ -13313,14 +13571,14 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="52"/>
+      <c r="A689" s="53"/>
       <c r="B689" s="35"/>
       <c r="D689" s="15" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="52"/>
+      <c r="A690" s="53"/>
       <c r="B690" s="35"/>
       <c r="C690" s="15" t="s">
         <v>718</v>
@@ -13330,7 +13588,7 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="52"/>
+      <c r="A691" s="53"/>
       <c r="B691" s="35"/>
       <c r="C691" s="3"/>
       <c r="D691" s="15" t="s">
@@ -13338,28 +13596,28 @@
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="52"/>
+      <c r="A692" s="53"/>
       <c r="B692" s="35"/>
       <c r="D692" s="15" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="52"/>
+      <c r="A693" s="53"/>
       <c r="B693" s="35"/>
       <c r="D693" s="15" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="52"/>
+      <c r="A694" s="53"/>
       <c r="B694" s="26"/>
       <c r="D694" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="52">
+      <c r="A696" s="53">
         <v>43459</v>
       </c>
       <c r="B696" s="35"/>
@@ -13371,14 +13629,14 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="52"/>
+      <c r="A697" s="53"/>
       <c r="B697" s="35"/>
       <c r="D697" s="15" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="52"/>
+      <c r="A698" s="53"/>
       <c r="B698" s="35"/>
       <c r="C698" s="15" t="s">
         <v>967</v>
@@ -13388,7 +13646,7 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="52"/>
+      <c r="A699" s="53"/>
       <c r="B699" s="35"/>
       <c r="C699" s="3"/>
       <c r="D699" s="15" t="s">
@@ -13396,28 +13654,28 @@
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="52"/>
+      <c r="A700" s="53"/>
       <c r="B700" s="35"/>
       <c r="D700" s="15" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="52"/>
+      <c r="A701" s="53"/>
       <c r="B701" s="26"/>
       <c r="D701" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="52"/>
+      <c r="A702" s="53"/>
       <c r="B702" s="26"/>
       <c r="D702" s="15" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A704" s="52">
+    <row r="704" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A704" s="53">
         <v>43460</v>
       </c>
       <c r="B704" s="35" t="s">
@@ -13431,14 +13689,14 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="52"/>
+      <c r="A705" s="53"/>
       <c r="B705" s="35"/>
       <c r="D705" s="15" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="52"/>
+      <c r="A706" s="53"/>
       <c r="B706" s="35"/>
       <c r="C706" s="15" t="s">
         <v>967</v>
@@ -13448,7 +13706,7 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="52"/>
+      <c r="A707" s="53"/>
       <c r="B707" s="35"/>
       <c r="C707" s="3"/>
       <c r="D707" s="15" t="s">
@@ -13456,21 +13714,21 @@
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="52"/>
+      <c r="A708" s="53"/>
       <c r="B708" s="35"/>
       <c r="D708" s="15" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="52"/>
+      <c r="A709" s="53"/>
       <c r="B709" s="26"/>
       <c r="D709" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="52">
+      <c r="A711" s="53">
         <v>43461</v>
       </c>
       <c r="B711" s="35"/>
@@ -13482,14 +13740,14 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="52"/>
+      <c r="A712" s="53"/>
       <c r="B712" s="35"/>
       <c r="D712" s="15" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="52"/>
+      <c r="A713" s="53"/>
       <c r="B713" s="35"/>
       <c r="C713" s="15" t="s">
         <v>718</v>
@@ -13499,7 +13757,7 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="52"/>
+      <c r="A714" s="53"/>
       <c r="B714" s="35"/>
       <c r="C714" s="3"/>
       <c r="D714" s="15" t="s">
@@ -13507,35 +13765,35 @@
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="52"/>
+      <c r="A715" s="53"/>
       <c r="B715" s="35"/>
       <c r="D715" s="15" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="52"/>
+      <c r="A716" s="53"/>
       <c r="B716" s="35"/>
       <c r="D716" s="15" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="52"/>
+      <c r="A717" s="53"/>
       <c r="B717" s="26"/>
       <c r="D717" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="52"/>
+      <c r="A718" s="53"/>
       <c r="B718" s="26"/>
       <c r="D718" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="52">
+      <c r="A720" s="53">
         <v>43462</v>
       </c>
       <c r="B720" s="35"/>
@@ -13547,14 +13805,14 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="52"/>
+      <c r="A721" s="53"/>
       <c r="B721" s="35"/>
       <c r="D721" s="15" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="52"/>
+      <c r="A722" s="53"/>
       <c r="B722" s="35"/>
       <c r="C722" s="15" t="s">
         <v>718</v>
@@ -13564,28 +13822,28 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="52"/>
+      <c r="A723" s="53"/>
       <c r="B723" s="35"/>
       <c r="D723" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="52"/>
+      <c r="A724" s="53"/>
       <c r="B724" s="26"/>
       <c r="D724" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="52"/>
+      <c r="A725" s="53"/>
       <c r="B725" s="26"/>
       <c r="D725" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A727" s="54">
+      <c r="A727" s="52">
         <v>43463</v>
       </c>
       <c r="B727" s="35"/>
@@ -13597,7 +13855,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="54"/>
+      <c r="A728" s="52"/>
       <c r="B728" s="35"/>
       <c r="C728" s="15" t="s">
         <v>718</v>
@@ -13607,7 +13865,7 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A729" s="54"/>
+      <c r="A729" s="52"/>
       <c r="B729" s="35"/>
       <c r="C729" s="3"/>
       <c r="D729" s="15" t="s">
@@ -13615,28 +13873,28 @@
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A730" s="54"/>
+      <c r="A730" s="52"/>
       <c r="B730" s="35"/>
       <c r="D730" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A731" s="54"/>
+      <c r="A731" s="52"/>
       <c r="B731" s="26"/>
       <c r="D731" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A732" s="54"/>
+      <c r="A732" s="52"/>
       <c r="B732" s="26"/>
       <c r="D732" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A734" s="54">
+      <c r="A734" s="52">
         <v>43464</v>
       </c>
       <c r="B734" s="35"/>
@@ -13645,14 +13903,14 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A735" s="54"/>
+      <c r="A735" s="52"/>
       <c r="B735" s="35"/>
       <c r="D735" s="15" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A736" s="54"/>
+      <c r="A736" s="52"/>
       <c r="B736" s="35"/>
       <c r="C736" s="3"/>
       <c r="D736" s="15" t="s">
@@ -13660,7 +13918,7 @@
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A737" s="54"/>
+      <c r="A737" s="52"/>
       <c r="B737" s="35"/>
       <c r="C737" s="3"/>
       <c r="D737" s="15" t="s">
@@ -13668,14 +13926,14 @@
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A738" s="54"/>
+      <c r="A738" s="52"/>
       <c r="B738" s="35"/>
       <c r="D738" s="15" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A739" s="54"/>
+      <c r="A739" s="52"/>
       <c r="B739" s="50"/>
       <c r="C739" s="3"/>
       <c r="D739" s="15" t="s">
@@ -13683,21 +13941,21 @@
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A740" s="54"/>
+      <c r="A740" s="52"/>
       <c r="B740" s="26"/>
       <c r="D740" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A741" s="54"/>
+      <c r="A741" s="52"/>
       <c r="B741" s="26"/>
       <c r="D741" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="52">
+      <c r="A743" s="53">
         <v>43465</v>
       </c>
       <c r="B743" s="35"/>
@@ -13709,14 +13967,14 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="52"/>
+      <c r="A744" s="53"/>
       <c r="B744" s="35"/>
       <c r="D744" s="15" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="52"/>
+      <c r="A745" s="53"/>
       <c r="B745" s="35"/>
       <c r="C745" s="3"/>
       <c r="D745" s="15" t="s">
@@ -13724,21 +13982,21 @@
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="52"/>
+      <c r="A746" s="53"/>
       <c r="B746" s="35"/>
       <c r="D746" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="52"/>
+      <c r="A747" s="53"/>
       <c r="B747" s="26"/>
       <c r="D747" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="52"/>
+      <c r="A748" s="53"/>
       <c r="B748" s="26" t="s">
         <v>991</v>
       </c>
@@ -13747,7 +14005,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="52">
+      <c r="A750" s="53">
         <v>43466</v>
       </c>
       <c r="B750" s="35"/>
@@ -13756,7 +14014,7 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="52"/>
+      <c r="A751" s="53"/>
       <c r="B751" s="35"/>
       <c r="C751" s="3"/>
       <c r="D751" s="15" t="s">
@@ -13764,28 +14022,28 @@
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="52"/>
+      <c r="A752" s="53"/>
       <c r="B752" s="35"/>
       <c r="D752" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="52"/>
+      <c r="A753" s="53"/>
       <c r="B753" s="35"/>
       <c r="D753" s="15" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="52"/>
+      <c r="A754" s="53"/>
       <c r="B754" s="26"/>
       <c r="D754" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="52"/>
+      <c r="A755" s="53"/>
       <c r="B755" s="26" t="s">
         <v>992</v>
       </c>
@@ -13794,7 +14052,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="52">
+      <c r="A757" s="53">
         <v>43467</v>
       </c>
       <c r="B757" s="35" t="s">
@@ -13808,145 +14066,299 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="52"/>
+      <c r="A758" s="53"/>
       <c r="B758" s="35" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D758" s="15" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="52"/>
-      <c r="B759" s="35"/>
+      <c r="A759" s="53"/>
+      <c r="B759" s="35" t="s">
+        <v>1050</v>
+      </c>
       <c r="C759" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D759" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="52"/>
-      <c r="B760" s="35"/>
+      <c r="A760" s="53"/>
+      <c r="B760" s="35" t="s">
+        <v>1051</v>
+      </c>
       <c r="D760" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="52"/>
+      <c r="A761" s="53"/>
       <c r="B761" s="26"/>
       <c r="D761" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="52"/>
+      <c r="A762" s="53"/>
       <c r="B762" s="26"/>
-      <c r="D762" s="15" t="s">
-        <v>768</v>
-      </c>
+      <c r="D762" s="15"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A764" s="52">
-        <v>43467</v>
+      <c r="A764" s="53">
+        <v>43468</v>
       </c>
       <c r="B764" s="35" t="s">
-        <v>993</v>
+        <v>1048</v>
       </c>
       <c r="C764" t="s">
         <v>954</v>
       </c>
       <c r="D764" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A765" s="52"/>
+      <c r="A765" s="53"/>
       <c r="B765" s="35"/>
       <c r="D765" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A766" s="52"/>
+      <c r="A766" s="53"/>
       <c r="B766" s="35"/>
       <c r="C766" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D766" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A767" s="52"/>
+      <c r="A767" s="53"/>
       <c r="B767" s="35"/>
       <c r="D767" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="52"/>
+      <c r="A768" s="53"/>
       <c r="B768" s="26"/>
       <c r="D768" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="52"/>
+      <c r="A769" s="53"/>
       <c r="B769" s="26"/>
-      <c r="D769" s="15" t="s">
-        <v>768</v>
+      <c r="D769" s="15"/>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A771" s="53">
+        <v>43469</v>
+      </c>
+      <c r="B771" s="35" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C771" t="s">
+        <v>954</v>
+      </c>
+      <c r="D771" s="15" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A772" s="53"/>
+      <c r="B772" s="35"/>
+      <c r="C772" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D772" s="15" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A773" s="53"/>
+      <c r="B773" s="35"/>
+      <c r="D773" s="15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A774" s="53"/>
+      <c r="B774" s="26"/>
+      <c r="D774" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A776" s="52">
+        <v>43470</v>
+      </c>
+      <c r="B776" s="35"/>
+      <c r="C776" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D776" s="15" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A777" s="52"/>
+      <c r="B777" s="35"/>
+      <c r="D777" s="15" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A778" s="52"/>
+      <c r="B778" s="35"/>
+      <c r="C778" s="3"/>
+      <c r="D778" s="15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A779" s="52"/>
+      <c r="B779" s="35"/>
+      <c r="D779" s="15" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A780" s="52"/>
+      <c r="B780" s="26"/>
+      <c r="D780" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781" s="52"/>
+      <c r="B781" s="26"/>
+      <c r="D781" s="15" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A783" s="52">
+        <v>43471</v>
+      </c>
+      <c r="B783" s="35"/>
+      <c r="C783" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D783" s="15" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A784" s="52"/>
+      <c r="B784" s="35"/>
+      <c r="D784" s="15" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A785" s="52"/>
+      <c r="B785" s="35"/>
+      <c r="D785" s="15" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A786" s="52"/>
+      <c r="B786" s="35"/>
+      <c r="C786" s="3"/>
+      <c r="D786" s="15" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A787" s="52"/>
+      <c r="B787" s="35"/>
+      <c r="C787" s="3"/>
+      <c r="D787" s="15" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A788" s="52"/>
+      <c r="B788" s="35"/>
+      <c r="C788" s="3"/>
+      <c r="D788" s="15" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A789" s="52"/>
+      <c r="B789" s="35"/>
+      <c r="D789" s="15" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A790" s="52"/>
+      <c r="B790" s="35"/>
+      <c r="D790" s="15" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A791" s="52"/>
+      <c r="B791" s="35"/>
+      <c r="D791" s="15" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A792" s="52"/>
+      <c r="B792" s="26"/>
+      <c r="D792" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="A727:A732"/>
-    <mergeCell ref="A666:A675"/>
-    <mergeCell ref="A677:A686"/>
-    <mergeCell ref="A688:A694"/>
-    <mergeCell ref="A696:A702"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
-    <mergeCell ref="B561:B565"/>
-    <mergeCell ref="A560:A570"/>
-    <mergeCell ref="B588:B596"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="B574:B580"/>
-    <mergeCell ref="A572:A584"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A355"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
+  <mergeCells count="98">
+    <mergeCell ref="A771:A774"/>
+    <mergeCell ref="A776:A781"/>
+    <mergeCell ref="A783:A792"/>
+    <mergeCell ref="A764:A769"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A506:A512"/>
+    <mergeCell ref="A514:A523"/>
+    <mergeCell ref="A525:A535"/>
+    <mergeCell ref="A743:A748"/>
+    <mergeCell ref="A750:A755"/>
+    <mergeCell ref="A757:A762"/>
+    <mergeCell ref="A646:A655"/>
+    <mergeCell ref="A657:A664"/>
+    <mergeCell ref="A734:A741"/>
+    <mergeCell ref="A711:A718"/>
+    <mergeCell ref="A720:A725"/>
+    <mergeCell ref="E481:E485"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="A357:A370"/>
+    <mergeCell ref="A372:A384"/>
+    <mergeCell ref="A386:A396"/>
+    <mergeCell ref="A433:A439"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="A537:A547"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="B526:B531"/>
+    <mergeCell ref="A481:A487"/>
     <mergeCell ref="A462:A470"/>
     <mergeCell ref="A452:A460"/>
     <mergeCell ref="A398:A408"/>
@@ -13963,39 +14375,52 @@
     <mergeCell ref="A410:A419"/>
     <mergeCell ref="B410:B419"/>
     <mergeCell ref="B468:B470"/>
-    <mergeCell ref="A537:A547"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A357:A370"/>
-    <mergeCell ref="A372:A384"/>
-    <mergeCell ref="A386:A396"/>
-    <mergeCell ref="A433:A439"/>
-    <mergeCell ref="B317:B328"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="E481:E485"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="E478:E479"/>
-    <mergeCell ref="E486:E487"/>
-    <mergeCell ref="B472:B479"/>
-    <mergeCell ref="A764:A769"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A506:A512"/>
-    <mergeCell ref="A514:A523"/>
-    <mergeCell ref="A525:A535"/>
-    <mergeCell ref="A743:A748"/>
-    <mergeCell ref="A750:A755"/>
-    <mergeCell ref="A757:A762"/>
-    <mergeCell ref="A646:A655"/>
-    <mergeCell ref="A657:A664"/>
-    <mergeCell ref="A734:A741"/>
-    <mergeCell ref="A711:A718"/>
-    <mergeCell ref="A720:A725"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A355"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A586:A596"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
+    <mergeCell ref="B561:B565"/>
+    <mergeCell ref="A560:A570"/>
+    <mergeCell ref="B588:B596"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="B574:B580"/>
+    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
+    <mergeCell ref="A727:A732"/>
+    <mergeCell ref="A666:A675"/>
+    <mergeCell ref="A677:A686"/>
+    <mergeCell ref="A688:A694"/>
+    <mergeCell ref="A696:A702"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14005,19 +14430,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14999,7 +15424,7 @@
         <v>43464</v>
       </c>
       <c r="B63" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C63" s="24">
         <v>36.9</v>
@@ -15008,7 +15433,7 @@
         <v>518</v>
       </c>
       <c r="E63" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -15016,7 +15441,7 @@
         <v>43465</v>
       </c>
       <c r="B64" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C64" s="24">
         <v>36.9</v>
@@ -15025,7 +15450,7 @@
         <v>518</v>
       </c>
       <c r="E64" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -15035,7 +15460,7 @@
       <c r="C65" s="24"/>
       <c r="D65" s="3"/>
       <c r="E65" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -15043,7 +15468,7 @@
         <v>43467</v>
       </c>
       <c r="B66" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C66" s="24">
         <v>36.9</v>
@@ -15052,7 +15477,7 @@
         <v>518</v>
       </c>
       <c r="E66" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -15066,10 +15491,10 @@
         <v>36.75</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E67" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -15077,16 +15502,16 @@
         <v>43469</v>
       </c>
       <c r="B68" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C68" s="24">
         <v>36.549999999999997</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E68" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -15094,9 +15519,11 @@
         <v>43470</v>
       </c>
       <c r="B69" t="s">
-        <v>994</v>
-      </c>
-      <c r="C69" s="24"/>
+        <v>1045</v>
+      </c>
+      <c r="C69" s="24">
+        <v>36.619999999999997</v>
+      </c>
       <c r="D69" s="3" t="s">
         <v>518</v>
       </c>
@@ -15106,9 +15533,11 @@
         <v>43471</v>
       </c>
       <c r="B70" t="s">
-        <v>995</v>
-      </c>
-      <c r="C70" s="24"/>
+        <v>1053</v>
+      </c>
+      <c r="C70" s="24">
+        <v>36.58</v>
+      </c>
       <c r="D70" s="3" t="s">
         <v>518</v>
       </c>
@@ -15118,7 +15547,7 @@
         <v>43472</v>
       </c>
       <c r="B71" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="3" t="s">
@@ -15130,7 +15559,7 @@
         <v>43473</v>
       </c>
       <c r="B72" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="3" t="s">
@@ -15142,7 +15571,7 @@
         <v>43474</v>
       </c>
       <c r="B73" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="3" t="s">
@@ -15154,7 +15583,7 @@
         <v>43475</v>
       </c>
       <c r="B74" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="3" t="s">
@@ -15166,7 +15595,7 @@
         <v>43476</v>
       </c>
       <c r="B75" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="3" t="s">
@@ -15178,7 +15607,7 @@
         <v>43477</v>
       </c>
       <c r="B76" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="3" t="s">
@@ -15190,7 +15619,7 @@
         <v>43478</v>
       </c>
       <c r="B77" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="3" t="s">
@@ -15202,7 +15631,7 @@
         <v>43479</v>
       </c>
       <c r="B78" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="3" t="s">
@@ -15214,7 +15643,7 @@
         <v>43480</v>
       </c>
       <c r="B79" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="3" t="s">
@@ -15226,7 +15655,7 @@
         <v>43481</v>
       </c>
       <c r="B80" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="3" t="s">
@@ -15238,7 +15667,7 @@
         <v>43482</v>
       </c>
       <c r="B81" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="3" t="s">
@@ -15250,7 +15679,7 @@
         <v>43483</v>
       </c>
       <c r="B82" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="3" t="s">
@@ -15262,7 +15691,7 @@
         <v>43484</v>
       </c>
       <c r="B83" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="3" t="s">
@@ -15274,7 +15703,7 @@
         <v>43485</v>
       </c>
       <c r="B84" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="3" t="s">
@@ -15286,7 +15715,7 @@
         <v>43486</v>
       </c>
       <c r="B85" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="3" t="s">
@@ -15298,7 +15727,7 @@
         <v>43487</v>
       </c>
       <c r="B86" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="3" t="s">
@@ -15310,7 +15739,7 @@
         <v>43488</v>
       </c>
       <c r="B87" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="3" t="s">
@@ -15336,7 +15765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26 C28 C32">
+  <conditionalFormatting sqref="C28 C26 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15366,30 +15795,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="94.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="94.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -15403,7 +15832,7 @@
         <v>830</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>850</v>
@@ -15421,13 +15850,13 @@
         <v>850</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -15438,7 +15867,7 @@
         <v>803</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E2" t="s">
         <v>802</v>
@@ -15656,13 +16085,13 @@
         <v>832</v>
       </c>
       <c r="E12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I12">
         <v>1000</v>
@@ -15682,13 +16111,13 @@
         <v>833</v>
       </c>
       <c r="E13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>851</v>
@@ -15799,10 +16228,10 @@
         <v>818</v>
       </c>
       <c r="E19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I19">
         <v>1000</v>
@@ -15822,13 +16251,13 @@
         <v>818</v>
       </c>
       <c r="E20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F20">
         <v>1000</v>
       </c>
       <c r="H20" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I20">
         <v>800</v>
@@ -15848,19 +16277,19 @@
         <v>829</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E21" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H21" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" display="http://www.mafengwo.cn/poi/1237.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K14" r:id="rId1" display="http://www.mafengwo.cn/poi/1237.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -15868,14 +16297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -15906,7 +16335,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>588</v>
       </c>
@@ -16010,9 +16439,110 @@
         <v>727</v>
       </c>
     </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>20190103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D8">
+        <v>43.65</v>
+      </c>
+      <c r="E8">
+        <v>37.49</v>
+      </c>
+      <c r="F8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8">
+        <v>17.96</v>
+      </c>
+      <c r="H8">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I8">
+        <v>12.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1044</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D7 D9:D1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E7 E9:E1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F7 F9:F1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G7 G9:G1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H7 H9:H1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I7 I9:I1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -16024,7 +16554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -16036,7 +16566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -16048,7 +16578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -16060,7 +16590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -16072,7 +16602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -16089,19 +16619,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -16151,7 +16681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -16162,7 +16692,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -16170,7 +16700,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -16181,18 +16711,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -16265,20 +16795,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -16286,7 +16816,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -16294,7 +16824,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -16302,7 +16832,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -16310,11 +16840,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -16322,18 +16852,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -16341,7 +16871,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/git/blog/blog/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1506471-9D7E-45F8-98F1-98F702DEAEB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="440" windowWidth="25840" windowHeight="17480" activeTab="2"/>
+    <workbookView xWindow="12135" yWindow="2775" windowWidth="15360" windowHeight="12195" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -29,23 +25,23 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -128,12 +124,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1158">
   <si>
     <t>病毒四项</t>
   </si>
@@ -5362,57 +5358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.45-7.38</t>
-  </si>
-  <si>
-    <t>6.45-7.39</t>
-  </si>
-  <si>
-    <t>6.45-7.40</t>
-  </si>
-  <si>
-    <t>6.45-7.41</t>
-  </si>
-  <si>
-    <t>6.45-7.42</t>
-  </si>
-  <si>
-    <t>6.45-7.43</t>
-  </si>
-  <si>
-    <t>6.45-7.44</t>
-  </si>
-  <si>
-    <t>6.45-7.45</t>
-  </si>
-  <si>
-    <t>6.45-7.46</t>
-  </si>
-  <si>
-    <t>6.45-7.47</t>
-  </si>
-  <si>
-    <t>6.45-7.48</t>
-  </si>
-  <si>
-    <t>6.45-7.49</t>
-  </si>
-  <si>
-    <t>6.45-7.50</t>
-  </si>
-  <si>
-    <t>6.45-7.51</t>
-  </si>
-  <si>
-    <t>6.45-7.52</t>
-  </si>
-  <si>
-    <t>6.45-7.53</t>
-  </si>
-  <si>
-    <t>6.45-7.54</t>
-  </si>
-  <si>
     <t>6.45-7.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5493,10 +5438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有白带样粘稠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>量正常 有减少 有暗红色沉淀 白带样粘稠 B超检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5817,6 +5758,532 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>ping pang qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+洗头洗澡+AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有白带样粘稠 月经收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四物汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.00</t>
+  </si>
+  <si>
+    <t>5小时到丽江（玉龙雪山）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5小时到虎跳峡（白水台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小时到迪庆（纳帕海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5小时到大理（洱海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理（双廊 南诏 苍山）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出发去垫江 布置婚房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接亲 拍外景 婚礼 送客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：鱼+香芹炒豆干+丸子+番茄蛋花汤+</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚间出血，来，一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优思悦粉色药片吃完，吃了一片白色药片后来，无征兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无经血，无感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常，血块多，有暗沉淀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常减少，有白带样粘稠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA未遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量少，收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：儿菜炒肉</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敷面膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾灸+看书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.40-7.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃优思悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：胡萝卜包子+土豆卷饼+小米粥+小咸菜+豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：毛血旺+红烧肉+油麦菜+糟汤南瓜+番茄蛋花汤+小葱拌豆腐</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：老北京（饼+炸酱面+干锅花菜+水晶粉+剁椒炒鸡蛋+白菜豆腐）</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：咖喱土豆炖牛肉+烤红薯+海带蛋花汤+粥+</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：莴笋烧鸡跟+番茄白菜汤</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多梦 起夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多梦 憋尿 想起夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：肉夹馍+豆浆+玉米面糊糊+小咸菜+蒸饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：烤鸡+酸菜白肉+千叶豆腐+炒油麦菜+银耳汤+饺子+馒头</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 粘连 少 半干半稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借钱给张练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为征求意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑家庭经济情况
+未和我商量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、和“妹妹”的言语暧昧
+2、两个人的私密问题告诉“妹妹”
+3、“妹妹”结婚单发1314的红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记不清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：洋葱白菜炒肉+鸡蛋汤</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡脚+学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：盆盆虾+</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：藤椒泡面</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：椒麻酸菜鱼</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：京川婆婆</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆浆+馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝多水 晚睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆浆+沙琪玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：羊蝎子</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼浮肿 偏头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：黑芝麻糊+蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45-7.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：炒白菜+小咸菜+茄盒+炒豆角+冬瓜蛋花汤</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：豆腐炒肉+番茄鸡蛋汤</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：江中猴菇米糊+糕点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱+敷面膜+洗头洗澡+AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：龙眼丸子+炒鸭胸肉+番茄炒鸡蛋+番茄蛋花汤+</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习跳舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：涮羊肉+豆腐+蒸鸡蛋+玉米+紫米粥汤+炒菠菜+葱爆肉</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃维C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：炒冬瓜+面条+烤鸡腿</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：杏鲍菇芹菜炒肉+苦菊鸡蛋汤+馒头</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：馒头+豆子炖猪蹄</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排便 稀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久蹲排便 点点 困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多梦 盗汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：维维豆奶+枣糕+鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY未遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：芹菜炒肉+白菜鸡蛋汤</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：烤鱼</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量体温：36.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：小米粥+包子+小咸菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逛万达 吃冰淇淋+烤馕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：水煮肉片+炒土豆</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：年会餐</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐：鱼</t>
+    <rPh sb="0" eb="3">
+      <t>yuchaokuai caimu er rou sizi mi zhouzheng ji danluo bo dun yang rouchao ji dinghuang gua tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：维维豆奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐：油泼面</t>
+    <rPh sb="0" eb="1">
+      <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5824,7 +6291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -6010,7 +6477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6105,22 +6572,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -6129,11 +6602,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6414,24 +6884,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6687,7 +7157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -6702,7 +7172,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6717,7 +7187,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6728,7 +7198,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -7191,20 +7661,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="113.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7221,8 +7691,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="360" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -7236,7 +7706,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
+      <c r="A3" s="54"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -7402,25 +7872,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="49">
         <v>43453</v>
       </c>
@@ -7441,6 +7910,26 @@
       </c>
       <c r="G1" s="4" t="s">
         <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="49">
+        <v>43475</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -7451,21 +7940,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -7881,27 +8370,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I792"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
-      <selection activeCell="D795" sqref="D795"/>
+    <sheetView tabSelected="1" topLeftCell="A935" workbookViewId="0">
+      <selection activeCell="D952" sqref="D952"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -8028,7 +8517,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="58" t="s">
         <v>379</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -8037,7 +8526,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="15" t="s">
         <v>266</v>
       </c>
@@ -8047,7 +8536,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
-      <c r="B17" s="56"/>
+      <c r="B17" s="59"/>
       <c r="C17" t="s">
         <v>270</v>
       </c>
@@ -8138,7 +8627,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="60" t="s">
         <v>370</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -8150,7 +8639,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
+      <c r="B28" s="60"/>
       <c r="C28" t="s">
         <v>300</v>
       </c>
@@ -8160,7 +8649,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="60"/>
       <c r="C29" t="s">
         <v>358</v>
       </c>
@@ -8170,7 +8659,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="15" t="s">
         <v>266</v>
       </c>
@@ -8180,7 +8669,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="15" t="s">
         <v>371</v>
       </c>
@@ -8190,7 +8679,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="15" t="s">
         <v>327</v>
       </c>
@@ -8203,7 +8692,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="60"/>
       <c r="C33" t="s">
         <v>365</v>
       </c>
@@ -8213,7 +8702,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="60"/>
       <c r="C34" t="s">
         <v>367</v>
       </c>
@@ -8434,7 +8923,7 @@
       <c r="A57" s="57">
         <v>43406</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="61" t="s">
         <v>409</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -8447,7 +8936,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
-      <c r="B58" s="59"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="15" t="s">
         <v>342</v>
       </c>
@@ -8576,7 +9065,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="52">
+      <c r="A72" s="53">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -8589,7 +9078,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -8600,7 +9089,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -8610,7 +9099,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -8618,7 +9107,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -8628,7 +9117,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -8638,7 +9127,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
+      <c r="A78" s="53"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -8648,7 +9137,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -8658,7 +9147,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -8668,7 +9157,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -8678,7 +9167,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -8688,7 +9177,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -8699,7 +9188,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -8710,7 +9199,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="52">
+      <c r="A86" s="53">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -8724,7 +9213,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -8732,7 +9221,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -8742,14 +9231,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -8757,7 +9246,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -8767,7 +9256,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -8777,7 +9266,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -8787,7 +9276,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -8797,7 +9286,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -8807,11 +9296,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
+      <c r="A97" s="53"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -8821,7 +9310,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -8831,7 +9320,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -8841,7 +9330,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -8851,7 +9340,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -8861,7 +9350,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -9646,7 +10135,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="52">
+      <c r="A187" s="53">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -9658,7 +10147,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="52"/>
+      <c r="A188" s="53"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -9666,7 +10155,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="52"/>
+      <c r="A189" s="53"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -9674,7 +10163,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="52"/>
+      <c r="A190" s="53"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -9682,7 +10171,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="52"/>
+      <c r="A191" s="53"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -9690,7 +10179,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="52"/>
+      <c r="A192" s="53"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -9698,7 +10187,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="52"/>
+      <c r="A193" s="53"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -9706,7 +10195,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="52"/>
+      <c r="A194" s="53"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -9714,7 +10203,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="52"/>
+      <c r="A195" s="53"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -9724,7 +10213,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
+      <c r="A196" s="53"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -9734,7 +10223,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="52">
+      <c r="A198" s="53">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -9746,7 +10235,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="52"/>
+      <c r="A199" s="53"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -9754,7 +10243,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="52"/>
+      <c r="A200" s="53"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -9764,7 +10253,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="52"/>
+      <c r="A201" s="53"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -9774,7 +10263,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="52"/>
+      <c r="A202" s="53"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -9784,7 +10273,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="52"/>
+      <c r="A203" s="53"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -9794,7 +10283,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="52"/>
+      <c r="A204" s="53"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -9804,7 +10293,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="52"/>
+      <c r="A205" s="53"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -9814,7 +10303,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="52"/>
+      <c r="A206" s="53"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -9824,7 +10313,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="52"/>
+      <c r="A207" s="53"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -9834,7 +10323,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="53">
+      <c r="A209" s="52">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -9846,7 +10335,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="53"/>
+      <c r="A210" s="52"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -9856,7 +10345,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="53"/>
+      <c r="A211" s="52"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -9864,7 +10353,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="53"/>
+      <c r="A212" s="52"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -9874,7 +10363,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="53"/>
+      <c r="A213" s="52"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -9882,7 +10371,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="53"/>
+      <c r="A214" s="52"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -9890,7 +10379,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="53"/>
+      <c r="A215" s="52"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -9898,7 +10387,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="53"/>
+      <c r="A216" s="52"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -9908,7 +10397,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="53"/>
+      <c r="A217" s="52"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -9918,14 +10407,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="53"/>
+      <c r="A218" s="52"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="53">
+      <c r="A220" s="52">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -9937,7 +10426,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="53"/>
+      <c r="A221" s="52"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -9947,14 +10436,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="53"/>
+      <c r="A222" s="52"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="53"/>
+      <c r="A223" s="52"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -9964,7 +10453,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="53"/>
+      <c r="A224" s="52"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -9974,7 +10463,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="53"/>
+      <c r="A225" s="52"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -9984,7 +10473,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="53"/>
+      <c r="A226" s="52"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -9994,7 +10483,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="53"/>
+      <c r="A227" s="52"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -10004,7 +10493,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="53"/>
+      <c r="A228" s="52"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -10014,7 +10503,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="53"/>
+      <c r="A229" s="52"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -10024,7 +10513,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="53">
+      <c r="A231" s="52">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -10036,14 +10525,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="53"/>
+      <c r="A232" s="52"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="53"/>
+      <c r="A233" s="52"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -10053,7 +10542,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="53"/>
+      <c r="A234" s="52"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -10061,7 +10550,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="53"/>
+      <c r="A235" s="52"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -10069,7 +10558,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="53"/>
+      <c r="A236" s="52"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -10079,7 +10568,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="53"/>
+      <c r="A237" s="52"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -10087,7 +10576,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="53"/>
+      <c r="A238" s="52"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -10095,7 +10584,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="53"/>
+      <c r="A239" s="52"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -10103,7 +10592,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="53"/>
+      <c r="A240" s="52"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -10111,7 +10600,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="53"/>
+      <c r="A241" s="52"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -10121,14 +10610,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="53"/>
+      <c r="A242" s="52"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="53">
+      <c r="A244" s="52">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -10140,14 +10629,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="53"/>
+      <c r="A245" s="52"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="53"/>
+      <c r="A246" s="52"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -10157,7 +10646,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="53"/>
+      <c r="A247" s="52"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -10165,7 +10654,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="53"/>
+      <c r="A248" s="52"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -10175,7 +10664,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="53"/>
+      <c r="A249" s="52"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -10183,7 +10672,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="53"/>
+      <c r="A250" s="52"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -10191,7 +10680,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="53"/>
+      <c r="A251" s="52"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -10199,7 +10688,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="53"/>
+      <c r="A252" s="52"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -10209,7 +10698,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="53">
+      <c r="A254" s="52">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -10221,7 +10710,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="53"/>
+      <c r="A255" s="52"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -10229,14 +10718,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="53"/>
+      <c r="A256" s="52"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="53"/>
+      <c r="A257" s="52"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -10246,7 +10735,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="53"/>
+      <c r="A258" s="52"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -10254,7 +10743,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="53"/>
+      <c r="A259" s="52"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -10264,14 +10753,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="53"/>
+      <c r="A260" s="52"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="53"/>
+      <c r="A261" s="52"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -10279,7 +10768,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="53"/>
+      <c r="A262" s="52"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -10287,7 +10776,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="53"/>
+      <c r="A263" s="52"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -10295,7 +10784,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="53"/>
+      <c r="A264" s="52"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -10303,7 +10792,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="53"/>
+      <c r="A265" s="52"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -10313,7 +10802,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="52">
+      <c r="A267" s="53">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -10325,7 +10814,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="52"/>
+      <c r="A268" s="53"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -10333,7 +10822,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="52"/>
+      <c r="A269" s="53"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -10341,7 +10830,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="52"/>
+      <c r="A270" s="53"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -10349,14 +10838,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="52"/>
+      <c r="A271" s="53"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="52"/>
+      <c r="A272" s="53"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -10364,7 +10853,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="52"/>
+      <c r="A273" s="53"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -10372,7 +10861,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="52"/>
+      <c r="A274" s="53"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -10380,7 +10869,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="52"/>
+      <c r="A275" s="53"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -10388,7 +10877,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="52"/>
+      <c r="A276" s="53"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -10398,14 +10887,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="52"/>
+      <c r="A277" s="53"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="52">
+      <c r="A279" s="53">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -10417,28 +10906,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="52"/>
+      <c r="A280" s="53"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="52"/>
+      <c r="A281" s="53"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="52"/>
+      <c r="A282" s="53"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="52"/>
+      <c r="A283" s="53"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -10448,7 +10937,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="52"/>
+      <c r="A284" s="53"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -10456,7 +10945,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="52"/>
+      <c r="A285" s="53"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -10464,7 +10953,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="52"/>
+      <c r="A286" s="53"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -10472,7 +10961,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="52"/>
+      <c r="A287" s="53"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -10480,7 +10969,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="52"/>
+      <c r="A288" s="53"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -10490,7 +10979,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="53">
+      <c r="A290" s="52">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -10502,7 +10991,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="53"/>
+      <c r="A291" s="52"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -10512,14 +11001,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="53"/>
+      <c r="A292" s="52"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="53"/>
+      <c r="A293" s="52"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -10529,7 +11018,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="53"/>
+      <c r="A294" s="52"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -10537,7 +11026,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="53"/>
+      <c r="A295" s="52"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -10547,14 +11036,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="53"/>
+      <c r="A296" s="52"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="53"/>
+      <c r="A297" s="52"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -10562,7 +11051,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="53"/>
+      <c r="A298" s="52"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -10570,14 +11059,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="53"/>
+      <c r="A299" s="52"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="53"/>
+      <c r="A300" s="52"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -10585,7 +11074,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="53"/>
+      <c r="A301" s="52"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -10595,7 +11084,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="53">
+      <c r="A303" s="52">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -10607,7 +11096,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="53"/>
+      <c r="A304" s="52"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -10617,7 +11106,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="53"/>
+      <c r="A305" s="52"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -10625,14 +11114,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="53"/>
+      <c r="A306" s="52"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="53"/>
+      <c r="A307" s="52"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -10642,7 +11131,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="53"/>
+      <c r="A308" s="52"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -10650,7 +11139,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="53"/>
+      <c r="A309" s="52"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -10660,21 +11149,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="53"/>
+      <c r="A310" s="52"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="53"/>
+      <c r="A311" s="52"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="53"/>
+      <c r="A312" s="52"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -10682,14 +11171,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="53"/>
+      <c r="A313" s="52"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="53"/>
+      <c r="A314" s="52"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -10697,7 +11186,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="53"/>
+      <c r="A315" s="52"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -10707,10 +11196,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="53">
+      <c r="A317" s="52">
         <v>43425</v>
       </c>
-      <c r="B317" s="61" t="s">
+      <c r="B317" s="56" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -10721,24 +11210,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="53"/>
-      <c r="B318" s="61"/>
+      <c r="A318" s="52"/>
+      <c r="B318" s="56"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="53"/>
-      <c r="B319" s="61"/>
+      <c r="A319" s="52"/>
+      <c r="B319" s="56"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="53"/>
-      <c r="B320" s="61"/>
+      <c r="A320" s="52"/>
+      <c r="B320" s="56"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -10747,23 +11236,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="53"/>
-      <c r="B321" s="61"/>
+      <c r="A321" s="52"/>
+      <c r="B321" s="56"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="53"/>
-      <c r="B322" s="61"/>
+      <c r="A322" s="52"/>
+      <c r="B322" s="56"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="53"/>
-      <c r="B323" s="61"/>
+      <c r="A323" s="52"/>
+      <c r="B323" s="56"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -10772,38 +11261,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="53"/>
-      <c r="B324" s="61"/>
+      <c r="A324" s="52"/>
+      <c r="B324" s="56"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="53"/>
-      <c r="B325" s="61"/>
+      <c r="A325" s="52"/>
+      <c r="B325" s="56"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="53"/>
-      <c r="B326" s="61"/>
+      <c r="A326" s="52"/>
+      <c r="B326" s="56"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="53"/>
-      <c r="B327" s="61"/>
+      <c r="A327" s="52"/>
+      <c r="B327" s="56"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="53"/>
-      <c r="B328" s="61"/>
+      <c r="A328" s="52"/>
+      <c r="B328" s="56"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -10812,7 +11301,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="53">
+      <c r="A330" s="52">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -10824,7 +11313,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="53"/>
+      <c r="A331" s="52"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -10832,7 +11321,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="53"/>
+      <c r="A332" s="52"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -10840,7 +11329,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="53"/>
+      <c r="A333" s="52"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -10850,7 +11339,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="53"/>
+      <c r="A334" s="52"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -10858,21 +11347,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="53"/>
+      <c r="A335" s="52"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="53"/>
+      <c r="A336" s="52"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="53"/>
+      <c r="A337" s="52"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -10882,14 +11371,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="53"/>
+      <c r="A338" s="52"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="53"/>
+      <c r="A339" s="52"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -10897,7 +11386,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="53"/>
+      <c r="A340" s="52"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -10905,7 +11394,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="53"/>
+      <c r="A341" s="52"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -10913,7 +11402,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="53"/>
+      <c r="A342" s="52"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -10923,7 +11412,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="53">
+      <c r="A344" s="52">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -10935,7 +11424,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="53"/>
+      <c r="A345" s="52"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -10945,7 +11434,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="53"/>
+      <c r="A346" s="52"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -10953,7 +11442,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="53"/>
+      <c r="A347" s="52"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -10961,7 +11450,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="53"/>
+      <c r="A348" s="52"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -10969,7 +11458,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="53"/>
+      <c r="A349" s="52"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -10979,7 +11468,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="53"/>
+      <c r="A350" s="52"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -10989,14 +11478,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="53"/>
+      <c r="A351" s="52"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="53"/>
+      <c r="A352" s="52"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -11004,14 +11493,14 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="53"/>
+      <c r="A353" s="52"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="53"/>
+      <c r="A354" s="52"/>
       <c r="B354" s="20"/>
       <c r="C354" s="3"/>
       <c r="D354" s="15" t="s">
@@ -11019,7 +11508,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="53"/>
+      <c r="A355" s="52"/>
       <c r="B355" s="20"/>
       <c r="C355" t="s">
         <v>336</v>
@@ -11029,7 +11518,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="52">
+      <c r="A357" s="53">
         <v>43428</v>
       </c>
       <c r="B357" s="26"/>
@@ -11041,14 +11530,14 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="52"/>
+      <c r="A358" s="53"/>
       <c r="B358" s="26"/>
       <c r="D358" s="15" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="52"/>
+      <c r="A359" s="53"/>
       <c r="B359" s="26"/>
       <c r="C359" s="3"/>
       <c r="D359" s="15" t="s">
@@ -11056,7 +11545,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="52"/>
+      <c r="A360" s="53"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -11064,7 +11553,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="52"/>
+      <c r="A361" s="53"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -11072,7 +11561,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="52"/>
+      <c r="A362" s="53"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -11080,7 +11569,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="52"/>
+      <c r="A363" s="53"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -11088,7 +11577,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="52"/>
+      <c r="A364" s="53"/>
       <c r="B364" s="26"/>
       <c r="C364" s="3"/>
       <c r="D364" s="15" t="s">
@@ -11096,21 +11585,21 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="52"/>
+      <c r="A365" s="53"/>
       <c r="B365" s="26"/>
       <c r="D365" s="15" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="52"/>
+      <c r="A366" s="53"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="52"/>
+      <c r="A367" s="53"/>
       <c r="B367" s="26"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -11118,14 +11607,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="52"/>
+      <c r="A368" s="53"/>
       <c r="B368" s="26"/>
       <c r="D368" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="52"/>
+      <c r="A369" s="53"/>
       <c r="B369" s="20"/>
       <c r="C369" s="3"/>
       <c r="D369" s="15" t="s">
@@ -11133,7 +11622,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="52"/>
+      <c r="A370" s="53"/>
       <c r="B370" s="20"/>
       <c r="C370" s="3"/>
       <c r="D370" s="15" t="s">
@@ -11141,7 +11630,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="52">
+      <c r="A372" s="53">
         <v>43429</v>
       </c>
       <c r="B372" s="26"/>
@@ -11153,7 +11642,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="52"/>
+      <c r="A373" s="53"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3" t="s">
         <v>619</v>
@@ -11163,7 +11652,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="52"/>
+      <c r="A374" s="53"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -11171,7 +11660,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="52"/>
+      <c r="A375" s="53"/>
       <c r="B375" s="26"/>
       <c r="C375" s="3"/>
       <c r="D375" s="15" t="s">
@@ -11179,7 +11668,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="52"/>
+      <c r="A376" s="53"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -11187,7 +11676,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="52"/>
+      <c r="A377" s="53"/>
       <c r="B377" s="26"/>
       <c r="C377" s="15" t="s">
         <v>266</v>
@@ -11197,7 +11686,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="52"/>
+      <c r="A378" s="53"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -11205,14 +11694,14 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="52"/>
+      <c r="A379" s="53"/>
       <c r="B379" s="26"/>
       <c r="D379" s="15" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="52"/>
+      <c r="A380" s="53"/>
       <c r="B380" s="26"/>
       <c r="C380" s="3"/>
       <c r="D380" s="15" t="s">
@@ -11220,7 +11709,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="52"/>
+      <c r="A381" s="53"/>
       <c r="B381" s="26"/>
       <c r="C381" s="3"/>
       <c r="D381" s="15" t="s">
@@ -11228,14 +11717,14 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="52"/>
+      <c r="A382" s="53"/>
       <c r="B382" s="26"/>
       <c r="D382" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="52"/>
+      <c r="A383" s="53"/>
       <c r="B383" s="20"/>
       <c r="C383" t="s">
         <v>368</v>
@@ -11245,7 +11734,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="52"/>
+      <c r="A384" s="53"/>
       <c r="B384" s="20"/>
       <c r="C384" t="s">
         <v>336</v>
@@ -11255,7 +11744,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="53">
+      <c r="A386" s="52">
         <v>43430</v>
       </c>
       <c r="B386" s="26"/>
@@ -11267,7 +11756,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="53"/>
+      <c r="A387" s="52"/>
       <c r="B387" s="26"/>
       <c r="C387" s="3" t="s">
         <v>639</v>
@@ -11277,7 +11766,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="53"/>
+      <c r="A388" s="52"/>
       <c r="B388" s="26"/>
       <c r="C388" s="3"/>
       <c r="D388" s="15" t="s">
@@ -11285,7 +11774,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="53"/>
+      <c r="A389" s="52"/>
       <c r="B389" s="26"/>
       <c r="C389" s="15" t="s">
         <v>266</v>
@@ -11295,7 +11784,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="53"/>
+      <c r="A390" s="52"/>
       <c r="B390" s="26"/>
       <c r="C390" s="15" t="s">
         <v>616</v>
@@ -11305,8 +11794,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="53"/>
-      <c r="B391" s="61" t="s">
+      <c r="A391" s="52"/>
+      <c r="B391" s="56" t="s">
         <v>649</v>
       </c>
       <c r="D391" s="15" t="s">
@@ -11314,48 +11803,48 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="53"/>
-      <c r="B392" s="61"/>
+      <c r="A392" s="52"/>
+      <c r="B392" s="56"/>
       <c r="C392" s="3"/>
       <c r="D392" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="53"/>
-      <c r="B393" s="61"/>
+      <c r="A393" s="52"/>
+      <c r="B393" s="56"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="53"/>
-      <c r="B394" s="61"/>
+      <c r="A394" s="52"/>
+      <c r="B394" s="56"/>
       <c r="D394" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="53"/>
-      <c r="B395" s="61"/>
+      <c r="A395" s="52"/>
+      <c r="B395" s="56"/>
       <c r="C395" s="3"/>
       <c r="D395" s="15" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="53"/>
-      <c r="B396" s="61"/>
+      <c r="A396" s="52"/>
+      <c r="B396" s="56"/>
       <c r="D396" s="15" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="53">
+      <c r="A398" s="52">
         <v>43431</v>
       </c>
-      <c r="B398" s="61" t="s">
+      <c r="B398" s="56" t="s">
         <v>648</v>
       </c>
       <c r="C398" t="s">
@@ -11366,8 +11855,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="53"/>
-      <c r="B399" s="61"/>
+      <c r="A399" s="52"/>
+      <c r="B399" s="56"/>
       <c r="C399" s="3" t="s">
         <v>639</v>
       </c>
@@ -11376,16 +11865,16 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="53"/>
-      <c r="B400" s="61"/>
+      <c r="A400" s="52"/>
+      <c r="B400" s="56"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="53"/>
-      <c r="B401" s="61"/>
+      <c r="A401" s="52"/>
+      <c r="B401" s="56"/>
       <c r="C401" s="15" t="s">
         <v>266</v>
       </c>
@@ -11394,55 +11883,55 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="53"/>
-      <c r="B402" s="61"/>
+      <c r="A402" s="52"/>
+      <c r="B402" s="56"/>
       <c r="C402" s="3"/>
       <c r="D402" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="53"/>
-      <c r="B403" s="61"/>
+      <c r="A403" s="52"/>
+      <c r="B403" s="56"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="53"/>
-      <c r="B404" s="61"/>
+      <c r="A404" s="52"/>
+      <c r="B404" s="56"/>
       <c r="D404" s="15" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="53"/>
-      <c r="B405" s="61"/>
+      <c r="A405" s="52"/>
+      <c r="B405" s="56"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="53"/>
-      <c r="B406" s="61"/>
+      <c r="A406" s="52"/>
+      <c r="B406" s="56"/>
       <c r="C406" s="3"/>
       <c r="D406" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="53"/>
-      <c r="B407" s="61"/>
+      <c r="A407" s="52"/>
+      <c r="B407" s="56"/>
       <c r="C407" s="3"/>
       <c r="D407" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="53"/>
-      <c r="B408" s="61"/>
+      <c r="A408" s="52"/>
+      <c r="B408" s="56"/>
       <c r="C408" t="s">
         <v>336</v>
       </c>
@@ -11451,10 +11940,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="53">
+      <c r="A410" s="52">
         <v>43432</v>
       </c>
-      <c r="B410" s="61"/>
+      <c r="B410" s="56"/>
       <c r="C410" t="s">
         <v>642</v>
       </c>
@@ -11463,8 +11952,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="53"/>
-      <c r="B411" s="61"/>
+      <c r="A411" s="52"/>
+      <c r="B411" s="56"/>
       <c r="C411" s="3" t="s">
         <v>657</v>
       </c>
@@ -11473,8 +11962,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="53"/>
-      <c r="B412" s="61"/>
+      <c r="A412" s="52"/>
+      <c r="B412" s="56"/>
       <c r="C412" s="15" t="s">
         <v>266</v>
       </c>
@@ -11483,63 +11972,63 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="53"/>
-      <c r="B413" s="61"/>
+      <c r="A413" s="52"/>
+      <c r="B413" s="56"/>
       <c r="C413" s="3"/>
       <c r="D413" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="53"/>
-      <c r="B414" s="61"/>
+      <c r="A414" s="52"/>
+      <c r="B414" s="56"/>
       <c r="C414" s="3"/>
       <c r="D414" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="53"/>
-      <c r="B415" s="61"/>
+      <c r="A415" s="52"/>
+      <c r="B415" s="56"/>
       <c r="D415" s="15" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="53"/>
-      <c r="B416" s="61"/>
+      <c r="A416" s="52"/>
+      <c r="B416" s="56"/>
       <c r="D416" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="53"/>
-      <c r="B417" s="61"/>
+      <c r="A417" s="52"/>
+      <c r="B417" s="56"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="53"/>
-      <c r="B418" s="61"/>
+      <c r="A418" s="52"/>
+      <c r="B418" s="56"/>
       <c r="D418" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="53"/>
-      <c r="B419" s="61"/>
+      <c r="A419" s="52"/>
+      <c r="B419" s="56"/>
       <c r="C419" s="3"/>
       <c r="D419" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="53">
+      <c r="A421" s="52">
         <v>43433</v>
       </c>
-      <c r="B421" s="61" t="s">
+      <c r="B421" s="56" t="s">
         <v>665</v>
       </c>
       <c r="C421" t="s">
@@ -11550,8 +12039,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="53"/>
-      <c r="B422" s="61"/>
+      <c r="A422" s="52"/>
+      <c r="B422" s="56"/>
       <c r="C422" s="3" t="s">
         <v>671</v>
       </c>
@@ -11560,8 +12049,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="53"/>
-      <c r="B423" s="61"/>
+      <c r="A423" s="52"/>
+      <c r="B423" s="56"/>
       <c r="C423" s="15" t="s">
         <v>266</v>
       </c>
@@ -11570,70 +12059,70 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="53"/>
-      <c r="B424" s="61"/>
+      <c r="A424" s="52"/>
+      <c r="B424" s="56"/>
       <c r="C424" s="3"/>
       <c r="D424" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="53"/>
-      <c r="B425" s="61"/>
+      <c r="A425" s="52"/>
+      <c r="B425" s="56"/>
       <c r="C425" s="3"/>
       <c r="D425" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="53"/>
-      <c r="B426" s="61"/>
+      <c r="A426" s="52"/>
+      <c r="B426" s="56"/>
       <c r="D426" s="15" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="53"/>
-      <c r="B427" s="61"/>
+      <c r="A427" s="52"/>
+      <c r="B427" s="56"/>
       <c r="D427" s="15" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="53"/>
-      <c r="B428" s="61"/>
+      <c r="A428" s="52"/>
+      <c r="B428" s="56"/>
       <c r="D428" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="53"/>
-      <c r="B429" s="61"/>
+      <c r="A429" s="52"/>
+      <c r="B429" s="56"/>
       <c r="C429" s="3"/>
       <c r="D429" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="53"/>
-      <c r="B430" s="61"/>
+      <c r="A430" s="52"/>
+      <c r="B430" s="56"/>
       <c r="D430" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="53"/>
-      <c r="B431" s="61"/>
+      <c r="A431" s="52"/>
+      <c r="B431" s="56"/>
       <c r="C431" s="3"/>
       <c r="D431" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="53">
+      <c r="A433" s="52">
         <v>43434</v>
       </c>
-      <c r="B433" s="61"/>
+      <c r="B433" s="56"/>
       <c r="C433" t="s">
         <v>674</v>
       </c>
@@ -11642,8 +12131,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="53"/>
-      <c r="B434" s="61"/>
+      <c r="A434" s="52"/>
+      <c r="B434" s="56"/>
       <c r="C434" t="s">
         <v>676</v>
       </c>
@@ -11652,8 +12141,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="53"/>
-      <c r="B435" s="61"/>
+      <c r="A435" s="52"/>
+      <c r="B435" s="56"/>
       <c r="C435" s="15" t="s">
         <v>266</v>
       </c>
@@ -11662,40 +12151,40 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="53"/>
-      <c r="B436" s="61"/>
+      <c r="A436" s="52"/>
+      <c r="B436" s="56"/>
       <c r="D436" s="15" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="53"/>
-      <c r="B437" s="61"/>
+      <c r="A437" s="52"/>
+      <c r="B437" s="56"/>
       <c r="D437" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="53"/>
-      <c r="B438" s="61"/>
+      <c r="A438" s="52"/>
+      <c r="B438" s="56"/>
       <c r="C438" s="3"/>
       <c r="D438" s="15" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="53"/>
-      <c r="B439" s="61"/>
+      <c r="A439" s="52"/>
+      <c r="B439" s="56"/>
       <c r="C439" s="3"/>
       <c r="D439" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="52">
+      <c r="A441" s="53">
         <v>43435</v>
       </c>
-      <c r="B441" s="61"/>
+      <c r="B441" s="56"/>
       <c r="C441" t="s">
         <v>674</v>
       </c>
@@ -11704,75 +12193,75 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="52"/>
-      <c r="B442" s="61"/>
+      <c r="A442" s="53"/>
+      <c r="B442" s="56"/>
       <c r="D442" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="52"/>
-      <c r="B443" s="61"/>
+      <c r="A443" s="53"/>
+      <c r="B443" s="56"/>
       <c r="D443" s="15" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="52"/>
-      <c r="B444" s="61"/>
+      <c r="A444" s="53"/>
+      <c r="B444" s="56"/>
       <c r="C444" s="3"/>
       <c r="D444" s="15" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="52"/>
-      <c r="B445" s="61"/>
+      <c r="A445" s="53"/>
+      <c r="B445" s="56"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="52"/>
-      <c r="B446" s="61"/>
+      <c r="A446" s="53"/>
+      <c r="B446" s="56"/>
       <c r="C446" s="3"/>
       <c r="D446" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="52"/>
-      <c r="B447" s="61"/>
+      <c r="A447" s="53"/>
+      <c r="B447" s="56"/>
       <c r="D447" s="15" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="52"/>
-      <c r="B448" s="61"/>
+      <c r="A448" s="53"/>
+      <c r="B448" s="56"/>
       <c r="D448" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="52"/>
-      <c r="B449" s="61"/>
+      <c r="A449" s="53"/>
+      <c r="B449" s="56"/>
       <c r="C449" s="3"/>
       <c r="D449" s="15" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="52"/>
-      <c r="B450" s="61"/>
+      <c r="A450" s="53"/>
+      <c r="B450" s="56"/>
       <c r="C450" s="3"/>
       <c r="D450" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="52">
+      <c r="A452" s="53">
         <v>43436</v>
       </c>
       <c r="B452" s="26"/>
@@ -11784,21 +12273,21 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="52"/>
+      <c r="A453" s="53"/>
       <c r="B453" s="26"/>
       <c r="D453" s="15" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="52"/>
+      <c r="A454" s="53"/>
       <c r="B454" s="26"/>
       <c r="D454" s="15" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="52"/>
+      <c r="A455" s="53"/>
       <c r="B455" s="26"/>
       <c r="C455" s="3"/>
       <c r="D455" s="15" t="s">
@@ -11806,7 +12295,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="52"/>
+      <c r="A456" s="53"/>
       <c r="B456" s="26" t="s">
         <v>701</v>
       </c>
@@ -11816,28 +12305,28 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="52"/>
+      <c r="A457" s="53"/>
       <c r="B457" s="26"/>
       <c r="D457" s="15" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="52"/>
+      <c r="A458" s="53"/>
       <c r="B458" s="26"/>
       <c r="D458" s="15" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="52"/>
+      <c r="A459" s="53"/>
       <c r="C459" s="3"/>
       <c r="D459" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="52"/>
+      <c r="A460" s="53"/>
       <c r="B460" s="26" t="s">
         <v>696</v>
       </c>
@@ -11847,10 +12336,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="53">
+      <c r="A462" s="52">
         <v>43437</v>
       </c>
-      <c r="B462" s="54" t="s">
+      <c r="B462" s="55" t="s">
         <v>710</v>
       </c>
       <c r="C462" t="s">
@@ -11861,8 +12350,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="53"/>
-      <c r="B463" s="54"/>
+      <c r="A463" s="52"/>
+      <c r="B463" s="55"/>
       <c r="C463" t="s">
         <v>698</v>
       </c>
@@ -11871,22 +12360,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="53"/>
-      <c r="B464" s="54"/>
+      <c r="A464" s="52"/>
+      <c r="B464" s="55"/>
       <c r="D464" s="15" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="53"/>
-      <c r="B465" s="54"/>
+      <c r="A465" s="52"/>
+      <c r="B465" s="55"/>
       <c r="D465" s="15" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="53"/>
-      <c r="B466" s="54"/>
+      <c r="A466" s="52"/>
+      <c r="B466" s="55"/>
       <c r="C466" s="15" t="s">
         <v>266</v>
       </c>
@@ -11895,16 +12384,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="53"/>
-      <c r="B467" s="54"/>
+      <c r="A467" s="52"/>
+      <c r="B467" s="55"/>
       <c r="C467" s="15"/>
       <c r="D467" s="15" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="53"/>
-      <c r="B468" s="54" t="s">
+      <c r="A468" s="52"/>
+      <c r="B468" s="55" t="s">
         <v>711</v>
       </c>
       <c r="D468" s="15" t="s">
@@ -11912,30 +12401,30 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="53"/>
-      <c r="B469" s="61"/>
+      <c r="A469" s="52"/>
+      <c r="B469" s="56"/>
       <c r="C469" s="3"/>
       <c r="D469" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E469" s="60" t="s">
+      <c r="E469" s="54" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="53"/>
-      <c r="B470" s="61"/>
+      <c r="A470" s="52"/>
+      <c r="B470" s="56"/>
       <c r="C470" s="3"/>
       <c r="D470" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="E470" s="60"/>
+      <c r="E470" s="54"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="53">
+      <c r="A472" s="52">
         <v>43438</v>
       </c>
-      <c r="B472" s="54" t="s">
+      <c r="B472" s="55" t="s">
         <v>742</v>
       </c>
       <c r="C472" t="s">
@@ -11944,58 +12433,58 @@
       <c r="D472" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E472" s="60" t="s">
+      <c r="E472" s="54" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="53"/>
-      <c r="B473" s="61"/>
+      <c r="A473" s="52"/>
+      <c r="B473" s="56"/>
       <c r="D473" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="E473" s="60"/>
+      <c r="E473" s="54"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="53"/>
-      <c r="B474" s="61"/>
+      <c r="A474" s="52"/>
+      <c r="B474" s="56"/>
       <c r="C474" t="s">
         <v>719</v>
       </c>
       <c r="D474" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E474" s="60"/>
+      <c r="E474" s="54"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="53"/>
-      <c r="B475" s="61"/>
+      <c r="A475" s="52"/>
+      <c r="B475" s="56"/>
       <c r="C475" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D475" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="E475" s="60"/>
+      <c r="E475" s="54"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="53"/>
-      <c r="B476" s="61"/>
+      <c r="A476" s="52"/>
+      <c r="B476" s="56"/>
       <c r="D476" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E476" s="60"/>
+      <c r="E476" s="54"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="53"/>
-      <c r="B477" s="61"/>
+      <c r="A477" s="52"/>
+      <c r="B477" s="56"/>
       <c r="D477" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="53"/>
-      <c r="B478" s="61"/>
+      <c r="A478" s="52"/>
+      <c r="B478" s="56"/>
       <c r="C478" s="3"/>
       <c r="D478" s="15" t="s">
         <v>412</v>
@@ -12005,8 +12494,8 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="53"/>
-      <c r="B479" s="61"/>
+      <c r="A479" s="52"/>
+      <c r="B479" s="56"/>
       <c r="C479" s="3"/>
       <c r="D479" s="15" t="s">
         <v>737</v>
@@ -12014,10 +12503,10 @@
       <c r="E479" s="51"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="53">
+      <c r="A481" s="52">
         <v>43439</v>
       </c>
-      <c r="B481" s="54" t="s">
+      <c r="B481" s="55" t="s">
         <v>741</v>
       </c>
       <c r="C481" t="s">
@@ -12026,20 +12515,20 @@
       <c r="D481" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E481" s="60" t="s">
+      <c r="E481" s="54" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="53"/>
-      <c r="B482" s="61"/>
+      <c r="A482" s="52"/>
+      <c r="B482" s="56"/>
       <c r="D482" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E482" s="60"/>
+      <c r="E482" s="54"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="53"/>
+      <c r="A483" s="52"/>
       <c r="B483" s="33" t="s">
         <v>740</v>
       </c>
@@ -12049,46 +12538,46 @@
       <c r="D483" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="E483" s="60"/>
+      <c r="E483" s="54"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="53"/>
+      <c r="A484" s="52"/>
       <c r="B484" s="26"/>
       <c r="D484" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E484" s="60"/>
+      <c r="E484" s="54"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="53"/>
+      <c r="A485" s="52"/>
       <c r="B485" s="26"/>
       <c r="D485" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="E485" s="60"/>
+      <c r="E485" s="54"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="53"/>
+      <c r="A486" s="52"/>
       <c r="B486" s="26"/>
       <c r="D486" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="E486" s="60" t="s">
+      <c r="E486" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="53"/>
+      <c r="A487" s="52"/>
       <c r="B487" s="34" t="s">
         <v>378</v>
       </c>
       <c r="D487" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E487" s="60"/>
+      <c r="E487" s="54"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="53">
+      <c r="A489" s="52">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -12100,7 +12589,7 @@
       <c r="E489" s="5"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="53"/>
+      <c r="A490" s="52"/>
       <c r="B490" s="26"/>
       <c r="D490" s="15" t="s">
         <v>751</v>
@@ -12108,7 +12597,7 @@
       <c r="E490" s="5"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="53"/>
+      <c r="A491" s="52"/>
       <c r="B491" s="33" t="s">
         <v>740</v>
       </c>
@@ -12121,7 +12610,7 @@
       <c r="E491" s="5"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="53"/>
+      <c r="A492" s="52"/>
       <c r="B492" s="26"/>
       <c r="D492" s="15" t="s">
         <v>736</v>
@@ -12129,28 +12618,28 @@
       <c r="E492" s="5"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="53"/>
+      <c r="A493" s="52"/>
       <c r="B493" s="26"/>
       <c r="D493" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="53"/>
+      <c r="A494" s="52"/>
       <c r="B494" s="26"/>
       <c r="D494" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="53"/>
+      <c r="A495" s="52"/>
       <c r="B495" s="26"/>
       <c r="D495" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="53"/>
+      <c r="A496" s="52"/>
       <c r="B496" s="26"/>
       <c r="C496" s="3"/>
       <c r="D496" s="15" t="s">
@@ -12158,10 +12647,10 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="53">
+      <c r="A498" s="52">
         <v>43441</v>
       </c>
-      <c r="B498" s="54"/>
+      <c r="B498" s="55"/>
       <c r="C498" t="s">
         <v>663</v>
       </c>
@@ -12171,15 +12660,15 @@
       <c r="E498" s="5"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="53"/>
-      <c r="B499" s="61"/>
+      <c r="A499" s="52"/>
+      <c r="B499" s="56"/>
       <c r="D499" s="15" t="s">
         <v>739</v>
       </c>
       <c r="E499" s="5"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="53"/>
+      <c r="A500" s="52"/>
       <c r="B500" s="33" t="s">
         <v>740</v>
       </c>
@@ -12189,7 +12678,7 @@
       <c r="E500" s="5"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="53"/>
+      <c r="A501" s="52"/>
       <c r="B501" s="26"/>
       <c r="C501" s="15" t="s">
         <v>718</v>
@@ -12200,7 +12689,7 @@
       <c r="E501" s="5"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="53"/>
+      <c r="A502" s="52"/>
       <c r="B502" s="26"/>
       <c r="D502" s="15" t="s">
         <v>769</v>
@@ -12208,21 +12697,21 @@
       <c r="E502" s="5"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="53"/>
+      <c r="A503" s="52"/>
       <c r="B503" s="26"/>
       <c r="D503" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="53"/>
+      <c r="A504" s="52"/>
       <c r="B504" s="26"/>
       <c r="D504" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="52">
+      <c r="A506" s="53">
         <v>43442</v>
       </c>
       <c r="B506" s="35"/>
@@ -12234,14 +12723,14 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="52"/>
+      <c r="A507" s="53"/>
       <c r="B507" s="26"/>
       <c r="D507" s="15" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="52"/>
+      <c r="A508" s="53"/>
       <c r="B508" s="26"/>
       <c r="C508" s="3"/>
       <c r="D508" s="15" t="s">
@@ -12249,35 +12738,35 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="52"/>
+      <c r="A509" s="53"/>
       <c r="B509" s="26"/>
       <c r="D509" s="15" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="52"/>
+      <c r="A510" s="53"/>
       <c r="B510" s="26"/>
       <c r="D510" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="52"/>
+      <c r="A511" s="53"/>
       <c r="B511" s="26"/>
       <c r="D511" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="52"/>
+      <c r="A512" s="53"/>
       <c r="B512" s="26"/>
       <c r="D512" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="52">
+      <c r="A514" s="53">
         <v>43443</v>
       </c>
       <c r="B514" s="35"/>
@@ -12286,7 +12775,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="52"/>
+      <c r="A515" s="53"/>
       <c r="B515" s="35"/>
       <c r="C515" t="s">
         <v>474</v>
@@ -12296,14 +12785,14 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="52"/>
+      <c r="A516" s="53"/>
       <c r="B516" s="26"/>
       <c r="D516" s="15" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="52"/>
+      <c r="A517" s="53"/>
       <c r="B517" s="26"/>
       <c r="C517" s="3"/>
       <c r="D517" s="15" t="s">
@@ -12311,7 +12800,7 @@
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="52"/>
+      <c r="A518" s="53"/>
       <c r="B518" s="26"/>
       <c r="C518" s="3"/>
       <c r="D518" s="15" t="s">
@@ -12319,42 +12808,42 @@
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="52"/>
+      <c r="A519" s="53"/>
       <c r="B519" s="26"/>
       <c r="D519" s="15" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="52"/>
+      <c r="A520" s="53"/>
       <c r="B520" s="26"/>
       <c r="D520" s="15" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="52"/>
+      <c r="A521" s="53"/>
       <c r="B521" s="26"/>
       <c r="D521" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="52"/>
+      <c r="A522" s="53"/>
       <c r="B522" s="26"/>
       <c r="D522" s="15" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="52"/>
+      <c r="A523" s="53"/>
       <c r="B523" s="26"/>
       <c r="D523" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="53">
+      <c r="A525" s="52">
         <v>43444</v>
       </c>
       <c r="B525" s="35" t="s">
@@ -12368,8 +12857,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="53"/>
-      <c r="B526" s="54" t="s">
+      <c r="A526" s="52"/>
+      <c r="B526" s="55" t="s">
         <v>785</v>
       </c>
       <c r="D526" s="15" t="s">
@@ -12377,29 +12866,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="53"/>
-      <c r="B527" s="54"/>
+      <c r="A527" s="52"/>
+      <c r="B527" s="55"/>
       <c r="D527" s="15" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="53"/>
-      <c r="B528" s="54"/>
+      <c r="A528" s="52"/>
+      <c r="B528" s="55"/>
       <c r="D528" s="15" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="53"/>
-      <c r="B529" s="54"/>
+      <c r="A529" s="52"/>
+      <c r="B529" s="55"/>
       <c r="D529" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="53"/>
-      <c r="B530" s="54"/>
+      <c r="A530" s="52"/>
+      <c r="B530" s="55"/>
       <c r="C530" s="15" t="s">
         <v>718</v>
       </c>
@@ -12408,43 +12897,43 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="53"/>
-      <c r="B531" s="54"/>
+      <c r="A531" s="52"/>
+      <c r="B531" s="55"/>
       <c r="C531" s="3"/>
       <c r="D531" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="53"/>
+      <c r="A532" s="52"/>
       <c r="B532" s="26"/>
       <c r="D532" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="53"/>
+      <c r="A533" s="52"/>
       <c r="B533" s="26"/>
       <c r="D533" s="15" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="53"/>
+      <c r="A534" s="52"/>
       <c r="B534" s="26"/>
       <c r="D534" s="15" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="53"/>
+      <c r="A535" s="52"/>
       <c r="B535" s="26"/>
       <c r="D535" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="53">
+      <c r="A537" s="52">
         <v>43445</v>
       </c>
       <c r="B537" s="35"/>
@@ -12456,8 +12945,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="53"/>
-      <c r="B538" s="54" t="s">
+      <c r="A538" s="52"/>
+      <c r="B538" s="55" t="s">
         <v>788</v>
       </c>
       <c r="D538" s="15" t="s">
@@ -12465,15 +12954,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="53"/>
-      <c r="B539" s="54"/>
+      <c r="A539" s="52"/>
+      <c r="B539" s="55"/>
       <c r="D539" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="53"/>
-      <c r="B540" s="54"/>
+      <c r="A540" s="52"/>
+      <c r="B540" s="55"/>
       <c r="C540" s="15" t="s">
         <v>718</v>
       </c>
@@ -12482,57 +12971,57 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="53"/>
-      <c r="B541" s="54"/>
+      <c r="A541" s="52"/>
+      <c r="B541" s="55"/>
       <c r="D541" s="15" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="53"/>
-      <c r="B542" s="54"/>
+      <c r="A542" s="52"/>
+      <c r="B542" s="55"/>
       <c r="D542" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="53"/>
-      <c r="B543" s="54"/>
+      <c r="A543" s="52"/>
+      <c r="B543" s="55"/>
       <c r="C543" s="3"/>
       <c r="D543" s="15" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="53"/>
+      <c r="A544" s="52"/>
       <c r="B544" s="26"/>
       <c r="D544" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="53"/>
+      <c r="A545" s="52"/>
       <c r="B545" s="26"/>
       <c r="D545" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="53"/>
+      <c r="A546" s="52"/>
       <c r="B546" s="26"/>
       <c r="D546" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="53"/>
+      <c r="A547" s="52"/>
       <c r="B547" s="26"/>
       <c r="D547" s="15" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="53">
+      <c r="A549" s="52">
         <v>43446</v>
       </c>
       <c r="B549" s="35"/>
@@ -12544,8 +13033,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="53"/>
-      <c r="B550" s="54" t="s">
+      <c r="A550" s="52"/>
+      <c r="B550" s="55" t="s">
         <v>838</v>
       </c>
       <c r="D550" s="15" t="s">
@@ -12553,15 +13042,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="53"/>
-      <c r="B551" s="54"/>
+      <c r="A551" s="52"/>
+      <c r="B551" s="55"/>
       <c r="D551" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="53"/>
-      <c r="B552" s="54"/>
+      <c r="A552" s="52"/>
+      <c r="B552" s="55"/>
       <c r="C552" s="15" t="s">
         <v>718</v>
       </c>
@@ -12570,50 +13059,50 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="53"/>
-      <c r="B553" s="54"/>
+      <c r="A553" s="52"/>
+      <c r="B553" s="55"/>
       <c r="D553" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="53"/>
-      <c r="B554" s="54"/>
+      <c r="A554" s="52"/>
+      <c r="B554" s="55"/>
       <c r="C554" s="3"/>
       <c r="D554" s="15" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="53"/>
+      <c r="A555" s="52"/>
       <c r="B555" s="26"/>
       <c r="D555" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="53"/>
+      <c r="A556" s="52"/>
       <c r="B556" s="26"/>
       <c r="D556" s="15" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="53"/>
+      <c r="A557" s="52"/>
       <c r="B557" s="26"/>
       <c r="D557" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="53"/>
+      <c r="A558" s="52"/>
       <c r="B558" s="26"/>
       <c r="D558" s="15" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="53">
+      <c r="A560" s="52">
         <v>43447</v>
       </c>
       <c r="B560" s="35"/>
@@ -12625,8 +13114,8 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="53"/>
-      <c r="B561" s="54" t="s">
+      <c r="A561" s="52"/>
+      <c r="B561" s="55" t="s">
         <v>870</v>
       </c>
       <c r="D561" s="15" t="s">
@@ -12634,15 +13123,15 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="53"/>
-      <c r="B562" s="54"/>
+      <c r="A562" s="52"/>
+      <c r="B562" s="55"/>
       <c r="D562" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="53"/>
-      <c r="B563" s="54"/>
+      <c r="A563" s="52"/>
+      <c r="B563" s="55"/>
       <c r="C563" s="15" t="s">
         <v>718</v>
       </c>
@@ -12651,22 +13140,22 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="53"/>
-      <c r="B564" s="54"/>
+      <c r="A564" s="52"/>
+      <c r="B564" s="55"/>
       <c r="C564" s="3"/>
       <c r="D564" s="15" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="53"/>
-      <c r="B565" s="54"/>
+      <c r="A565" s="52"/>
+      <c r="B565" s="55"/>
       <c r="D565" s="15" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="53"/>
+      <c r="A566" s="52"/>
       <c r="B566" s="44" t="s">
         <v>872</v>
       </c>
@@ -12676,35 +13165,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="53"/>
+      <c r="A567" s="52"/>
       <c r="B567" s="26"/>
       <c r="D567" s="15" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="53"/>
+      <c r="A568" s="52"/>
       <c r="B568" s="26"/>
       <c r="D568" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="53"/>
+      <c r="A569" s="52"/>
       <c r="B569" s="26"/>
       <c r="D569" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="53"/>
+      <c r="A570" s="52"/>
       <c r="B570" s="26"/>
       <c r="D570" s="15" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="53">
+      <c r="A572" s="52">
         <v>43448</v>
       </c>
       <c r="B572" s="35"/>
@@ -12713,7 +13202,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="53"/>
+      <c r="A573" s="52"/>
       <c r="B573" s="35"/>
       <c r="C573" t="s">
         <v>873</v>
@@ -12723,8 +13212,8 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="53"/>
-      <c r="B574" s="54" t="s">
+      <c r="A574" s="52"/>
+      <c r="B574" s="55" t="s">
         <v>879</v>
       </c>
       <c r="D574" s="15" t="s">
@@ -12732,22 +13221,22 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="53"/>
-      <c r="B575" s="54"/>
+      <c r="A575" s="52"/>
+      <c r="B575" s="55"/>
       <c r="D575" s="15" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="53"/>
-      <c r="B576" s="54"/>
+      <c r="A576" s="52"/>
+      <c r="B576" s="55"/>
       <c r="D576" s="15" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="53"/>
-      <c r="B577" s="54"/>
+      <c r="A577" s="52"/>
+      <c r="B577" s="55"/>
       <c r="C577" s="15" t="s">
         <v>718</v>
       </c>
@@ -12756,30 +13245,30 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="53"/>
-      <c r="B578" s="54"/>
+      <c r="A578" s="52"/>
+      <c r="B578" s="55"/>
       <c r="C578" s="3"/>
       <c r="D578" s="15" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="53"/>
-      <c r="B579" s="54"/>
+      <c r="A579" s="52"/>
+      <c r="B579" s="55"/>
       <c r="C579" s="3"/>
       <c r="D579" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="53"/>
-      <c r="B580" s="54"/>
+      <c r="A580" s="52"/>
+      <c r="B580" s="55"/>
       <c r="D580" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="53"/>
+      <c r="A581" s="52"/>
       <c r="B581" s="44"/>
       <c r="C581" s="3"/>
       <c r="D581" s="15" t="s">
@@ -12787,21 +13276,21 @@
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="53"/>
+      <c r="A582" s="52"/>
       <c r="B582" s="26"/>
       <c r="D582" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="53"/>
+      <c r="A583" s="52"/>
       <c r="B583" s="26"/>
       <c r="D583" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="53"/>
+      <c r="A584" s="52"/>
       <c r="B584" s="26"/>
       <c r="D584" s="15" t="s">
         <v>871</v>
@@ -12812,7 +13301,7 @@
       <c r="B585" s="26"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="52">
+      <c r="A586" s="53">
         <v>43449</v>
       </c>
       <c r="B586" s="35"/>
@@ -12821,7 +13310,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="52"/>
+      <c r="A587" s="53"/>
       <c r="B587" s="35"/>
       <c r="C587" t="s">
         <v>885</v>
@@ -12831,8 +13320,8 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="52"/>
-      <c r="B588" s="54" t="s">
+      <c r="A588" s="53"/>
+      <c r="B588" s="55" t="s">
         <v>898</v>
       </c>
       <c r="D588" s="15" t="s">
@@ -12840,66 +13329,66 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="52"/>
-      <c r="B589" s="54"/>
+      <c r="A589" s="53"/>
+      <c r="B589" s="55"/>
       <c r="D589" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="52"/>
-      <c r="B590" s="54"/>
+      <c r="A590" s="53"/>
+      <c r="B590" s="55"/>
       <c r="C590" s="3"/>
       <c r="D590" s="15" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="52"/>
-      <c r="B591" s="54"/>
+      <c r="A591" s="53"/>
+      <c r="B591" s="55"/>
       <c r="C591" s="3"/>
       <c r="D591" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="52"/>
-      <c r="B592" s="54"/>
+      <c r="A592" s="53"/>
+      <c r="B592" s="55"/>
       <c r="D592" s="15" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="52"/>
-      <c r="B593" s="54"/>
+      <c r="A593" s="53"/>
+      <c r="B593" s="55"/>
       <c r="C593" s="3"/>
       <c r="D593" s="15" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="52"/>
-      <c r="B594" s="54"/>
+      <c r="A594" s="53"/>
+      <c r="B594" s="55"/>
       <c r="D594" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="52"/>
-      <c r="B595" s="54"/>
+      <c r="A595" s="53"/>
+      <c r="B595" s="55"/>
       <c r="D595" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="52"/>
-      <c r="B596" s="54"/>
+      <c r="A596" s="53"/>
+      <c r="B596" s="55"/>
       <c r="D596" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="52">
+      <c r="A598" s="53">
         <v>43450</v>
       </c>
       <c r="B598" s="35"/>
@@ -12908,7 +13397,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="52"/>
+      <c r="A599" s="53"/>
       <c r="B599" s="35"/>
       <c r="C599" t="s">
         <v>893</v>
@@ -12918,35 +13407,35 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="52"/>
+      <c r="A600" s="53"/>
       <c r="B600" s="35"/>
       <c r="D600" s="18" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="52"/>
+      <c r="A601" s="53"/>
       <c r="B601" s="35"/>
       <c r="D601" s="15" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="52"/>
+      <c r="A602" s="53"/>
       <c r="B602" s="35"/>
       <c r="D602" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="52"/>
+      <c r="A603" s="53"/>
       <c r="B603" s="35"/>
       <c r="D603" s="15" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="52"/>
+      <c r="A604" s="53"/>
       <c r="B604" s="35"/>
       <c r="C604" s="3"/>
       <c r="D604" s="15" t="s">
@@ -12954,7 +13443,7 @@
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="52"/>
+      <c r="A605" s="53"/>
       <c r="B605" s="35"/>
       <c r="C605" s="3"/>
       <c r="D605" s="15" t="s">
@@ -12962,7 +13451,7 @@
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="52"/>
+      <c r="A606" s="53"/>
       <c r="B606" s="35"/>
       <c r="C606" s="3"/>
       <c r="D606" s="15" t="s">
@@ -12970,14 +13459,14 @@
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="52"/>
+      <c r="A607" s="53"/>
       <c r="B607" s="35"/>
       <c r="D607" s="15" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="52"/>
+      <c r="A608" s="53"/>
       <c r="B608" s="45"/>
       <c r="C608" s="3"/>
       <c r="D608" s="15" t="s">
@@ -12985,28 +13474,28 @@
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="52"/>
+      <c r="A609" s="53"/>
       <c r="B609" s="26"/>
       <c r="D609" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="52"/>
+      <c r="A610" s="53"/>
       <c r="B610" s="26"/>
       <c r="D610" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="52"/>
+      <c r="A611" s="53"/>
       <c r="B611" s="26"/>
       <c r="D611" s="15" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="53">
+      <c r="A613" s="52">
         <v>43451</v>
       </c>
       <c r="B613" s="35"/>
@@ -13018,14 +13507,14 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="53"/>
+      <c r="A614" s="52"/>
       <c r="B614" s="35"/>
       <c r="D614" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="53"/>
+      <c r="A615" s="52"/>
       <c r="B615" s="35"/>
       <c r="C615" s="15" t="s">
         <v>718</v>
@@ -13035,7 +13524,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="53"/>
+      <c r="A616" s="52"/>
       <c r="B616" s="35"/>
       <c r="C616" s="15"/>
       <c r="D616" s="15" t="s">
@@ -13043,7 +13532,7 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="53"/>
+      <c r="A617" s="52"/>
       <c r="B617" s="35"/>
       <c r="C617" s="3"/>
       <c r="D617" s="15" t="s">
@@ -13051,14 +13540,14 @@
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="53"/>
+      <c r="A618" s="52"/>
       <c r="B618" s="35"/>
       <c r="D618" s="15" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="53"/>
+      <c r="A619" s="52"/>
       <c r="B619" s="47"/>
       <c r="C619" s="3"/>
       <c r="D619" s="15" t="s">
@@ -13066,21 +13555,21 @@
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="53"/>
+      <c r="A620" s="52"/>
       <c r="B620" s="26"/>
       <c r="D620" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="53"/>
+      <c r="A621" s="52"/>
       <c r="B621" s="26"/>
       <c r="D621" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="53">
+      <c r="A623" s="52">
         <v>43452</v>
       </c>
       <c r="B623" s="35"/>
@@ -13092,28 +13581,28 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="53"/>
+      <c r="A624" s="52"/>
       <c r="B624" s="35"/>
       <c r="D624" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="53"/>
+      <c r="A625" s="52"/>
       <c r="B625" s="35"/>
       <c r="D625" s="15" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="53"/>
+      <c r="A626" s="52"/>
       <c r="B626" s="35"/>
       <c r="D626" s="15" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="53"/>
+      <c r="A627" s="52"/>
       <c r="B627" s="35"/>
       <c r="C627" s="15" t="s">
         <v>718</v>
@@ -13123,8 +13612,8 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="53"/>
-      <c r="B628" s="54" t="s">
+      <c r="A628" s="52"/>
+      <c r="B628" s="55" t="s">
         <v>915</v>
       </c>
       <c r="C628" s="3"/>
@@ -13133,40 +13622,40 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="53"/>
-      <c r="B629" s="54"/>
+      <c r="A629" s="52"/>
+      <c r="B629" s="55"/>
       <c r="C629" s="3"/>
       <c r="D629" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="53"/>
-      <c r="B630" s="54"/>
+      <c r="A630" s="52"/>
+      <c r="B630" s="55"/>
       <c r="D630" s="15" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="53"/>
-      <c r="B631" s="54"/>
+      <c r="A631" s="52"/>
+      <c r="B631" s="55"/>
       <c r="C631" s="3"/>
       <c r="D631" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="53"/>
-      <c r="B632" s="54"/>
+      <c r="A632" s="52"/>
+      <c r="B632" s="55"/>
       <c r="D632" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="53">
+      <c r="A634" s="52">
         <v>43453</v>
       </c>
-      <c r="B634" s="54"/>
+      <c r="B634" s="55"/>
       <c r="C634" t="s">
         <v>913</v>
       </c>
@@ -13178,8 +13667,8 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="53"/>
-      <c r="B635" s="54"/>
+      <c r="A635" s="52"/>
+      <c r="B635" s="55"/>
       <c r="C635" t="s">
         <v>911</v>
       </c>
@@ -13188,14 +13677,14 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="53"/>
-      <c r="B636" s="54"/>
+      <c r="A636" s="52"/>
+      <c r="B636" s="55"/>
       <c r="D636" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="53"/>
+      <c r="A637" s="52"/>
       <c r="B637" s="35"/>
       <c r="C637" s="15" t="s">
         <v>718</v>
@@ -13205,7 +13694,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="53"/>
+      <c r="A638" s="52"/>
       <c r="B638" s="35"/>
       <c r="C638" s="3"/>
       <c r="D638" s="15" t="s">
@@ -13213,7 +13702,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="53"/>
+      <c r="A639" s="52"/>
       <c r="B639" s="35"/>
       <c r="C639" s="3"/>
       <c r="D639" s="15" t="s">
@@ -13221,21 +13710,21 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="53"/>
+      <c r="A640" s="52"/>
       <c r="B640" s="35"/>
       <c r="D640" s="15" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="53"/>
+      <c r="A641" s="52"/>
       <c r="B641" s="35"/>
       <c r="D641" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="53"/>
+      <c r="A642" s="52"/>
       <c r="B642" s="48"/>
       <c r="C642" s="3"/>
       <c r="D642" s="15" t="s">
@@ -13243,21 +13732,21 @@
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="53"/>
+      <c r="A643" s="52"/>
       <c r="B643" s="26"/>
       <c r="D643" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="53"/>
+      <c r="A644" s="52"/>
       <c r="B644" s="26"/>
       <c r="D644" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="53">
+      <c r="A646" s="52">
         <v>43454</v>
       </c>
       <c r="B646" s="35"/>
@@ -13269,21 +13758,21 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="53"/>
+      <c r="A647" s="52"/>
       <c r="B647" s="35"/>
       <c r="D647" s="15" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="53"/>
+      <c r="A648" s="52"/>
       <c r="B648" s="35"/>
       <c r="D648" s="15" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="53"/>
+      <c r="A649" s="52"/>
       <c r="B649" s="35"/>
       <c r="C649" s="15" t="s">
         <v>718</v>
@@ -13293,7 +13782,7 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="53"/>
+      <c r="A650" s="52"/>
       <c r="B650" s="35"/>
       <c r="C650" s="3"/>
       <c r="D650" s="15" t="s">
@@ -13301,7 +13790,7 @@
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="53"/>
+      <c r="A651" s="52"/>
       <c r="B651" s="35"/>
       <c r="C651" s="3"/>
       <c r="D651" s="15" t="s">
@@ -13309,14 +13798,14 @@
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="53"/>
+      <c r="A652" s="52"/>
       <c r="B652" s="35"/>
       <c r="D652" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="53"/>
+      <c r="A653" s="52"/>
       <c r="B653" s="48"/>
       <c r="C653" s="3"/>
       <c r="D653" s="15" t="s">
@@ -13324,21 +13813,21 @@
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="53"/>
+      <c r="A654" s="52"/>
       <c r="B654" s="26"/>
       <c r="D654" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="53"/>
+      <c r="A655" s="52"/>
       <c r="B655" s="26"/>
       <c r="D655" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="53">
+      <c r="A657" s="52">
         <v>43455</v>
       </c>
       <c r="B657" s="35"/>
@@ -13350,21 +13839,21 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="53"/>
+      <c r="A658" s="52"/>
       <c r="B658" s="35"/>
       <c r="D658" s="15" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="53"/>
+      <c r="A659" s="52"/>
       <c r="B659" s="35"/>
       <c r="D659" s="15" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="53"/>
+      <c r="A660" s="52"/>
       <c r="B660" s="35"/>
       <c r="C660" s="15" t="s">
         <v>718</v>
@@ -13374,7 +13863,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="53"/>
+      <c r="A661" s="52"/>
       <c r="B661" s="35"/>
       <c r="C661" s="3"/>
       <c r="D661" s="15" t="s">
@@ -13382,28 +13871,28 @@
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="53"/>
+      <c r="A662" s="52"/>
       <c r="B662" s="35"/>
       <c r="D662" s="15" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="53"/>
+      <c r="A663" s="52"/>
       <c r="B663" s="26"/>
       <c r="D663" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="53"/>
+      <c r="A664" s="52"/>
       <c r="B664" s="26"/>
       <c r="D664" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="52">
+      <c r="A666" s="53">
         <v>43456</v>
       </c>
       <c r="B666" s="35"/>
@@ -13415,28 +13904,28 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A667" s="52"/>
+      <c r="A667" s="53"/>
       <c r="B667" s="35"/>
       <c r="D667" s="18" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="52"/>
+      <c r="A668" s="53"/>
       <c r="B668" s="35"/>
       <c r="D668" s="15" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A669" s="52"/>
+      <c r="A669" s="53"/>
       <c r="B669" s="35"/>
       <c r="D669" s="15" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A670" s="52"/>
+      <c r="A670" s="53"/>
       <c r="B670" s="35"/>
       <c r="C670" s="3"/>
       <c r="D670" s="15" t="s">
@@ -13444,7 +13933,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A671" s="52"/>
+      <c r="A671" s="53"/>
       <c r="B671" s="35"/>
       <c r="C671" s="3"/>
       <c r="D671" s="15" t="s">
@@ -13452,7 +13941,7 @@
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A672" s="52"/>
+      <c r="A672" s="53"/>
       <c r="B672" s="35"/>
       <c r="C672" s="3"/>
       <c r="D672" s="15" t="s">
@@ -13460,28 +13949,28 @@
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A673" s="52"/>
+      <c r="A673" s="53"/>
       <c r="B673" s="35"/>
       <c r="D673" s="15" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A674" s="52"/>
+      <c r="A674" s="53"/>
       <c r="B674" s="26"/>
       <c r="D674" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A675" s="52"/>
+      <c r="A675" s="53"/>
       <c r="B675" s="26"/>
       <c r="D675" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A677" s="52">
+      <c r="A677" s="53">
         <v>43457</v>
       </c>
       <c r="B677" s="35"/>
@@ -13493,28 +13982,28 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A678" s="52"/>
+      <c r="A678" s="53"/>
       <c r="B678" s="35"/>
       <c r="D678" s="18" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A679" s="52"/>
+      <c r="A679" s="53"/>
       <c r="B679" s="35"/>
       <c r="D679" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="52"/>
+      <c r="A680" s="53"/>
       <c r="B680" s="35"/>
       <c r="D680" s="15" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A681" s="52"/>
+      <c r="A681" s="53"/>
       <c r="B681" s="35"/>
       <c r="C681" s="3"/>
       <c r="D681" s="15" t="s">
@@ -13522,7 +14011,7 @@
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A682" s="52"/>
+      <c r="A682" s="53"/>
       <c r="B682" s="35"/>
       <c r="C682" s="3"/>
       <c r="D682" s="15" t="s">
@@ -13530,14 +14019,14 @@
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A683" s="52"/>
+      <c r="A683" s="53"/>
       <c r="B683" s="35"/>
       <c r="D683" s="15" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A684" s="52"/>
+      <c r="A684" s="53"/>
       <c r="B684" s="50"/>
       <c r="C684" s="3"/>
       <c r="D684" s="15" t="s">
@@ -13545,21 +14034,21 @@
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="52"/>
+      <c r="A685" s="53"/>
       <c r="B685" s="26"/>
       <c r="D685" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A686" s="52"/>
+      <c r="A686" s="53"/>
       <c r="B686" s="26"/>
       <c r="D686" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="53">
+      <c r="A688" s="52">
         <v>43458</v>
       </c>
       <c r="B688" s="35"/>
@@ -13571,14 +14060,14 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="53"/>
+      <c r="A689" s="52"/>
       <c r="B689" s="35"/>
       <c r="D689" s="15" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="53"/>
+      <c r="A690" s="52"/>
       <c r="B690" s="35"/>
       <c r="C690" s="15" t="s">
         <v>718</v>
@@ -13588,7 +14077,7 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="53"/>
+      <c r="A691" s="52"/>
       <c r="B691" s="35"/>
       <c r="C691" s="3"/>
       <c r="D691" s="15" t="s">
@@ -13596,28 +14085,28 @@
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="53"/>
+      <c r="A692" s="52"/>
       <c r="B692" s="35"/>
       <c r="D692" s="15" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="53"/>
+      <c r="A693" s="52"/>
       <c r="B693" s="35"/>
       <c r="D693" s="15" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="53"/>
+      <c r="A694" s="52"/>
       <c r="B694" s="26"/>
       <c r="D694" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="53">
+      <c r="A696" s="52">
         <v>43459</v>
       </c>
       <c r="B696" s="35"/>
@@ -13629,14 +14118,14 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="53"/>
+      <c r="A697" s="52"/>
       <c r="B697" s="35"/>
       <c r="D697" s="15" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="53"/>
+      <c r="A698" s="52"/>
       <c r="B698" s="35"/>
       <c r="C698" s="15" t="s">
         <v>967</v>
@@ -13646,7 +14135,7 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="53"/>
+      <c r="A699" s="52"/>
       <c r="B699" s="35"/>
       <c r="C699" s="3"/>
       <c r="D699" s="15" t="s">
@@ -13654,28 +14143,28 @@
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="53"/>
+      <c r="A700" s="52"/>
       <c r="B700" s="35"/>
       <c r="D700" s="15" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="53"/>
+      <c r="A701" s="52"/>
       <c r="B701" s="26"/>
       <c r="D701" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="53"/>
+      <c r="A702" s="52"/>
       <c r="B702" s="26"/>
       <c r="D702" s="15" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A704" s="53">
+    <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A704" s="52">
         <v>43460</v>
       </c>
       <c r="B704" s="35" t="s">
@@ -13689,14 +14178,14 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="53"/>
+      <c r="A705" s="52"/>
       <c r="B705" s="35"/>
       <c r="D705" s="15" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="53"/>
+      <c r="A706" s="52"/>
       <c r="B706" s="35"/>
       <c r="C706" s="15" t="s">
         <v>967</v>
@@ -13706,7 +14195,7 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="53"/>
+      <c r="A707" s="52"/>
       <c r="B707" s="35"/>
       <c r="C707" s="3"/>
       <c r="D707" s="15" t="s">
@@ -13714,21 +14203,21 @@
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="53"/>
+      <c r="A708" s="52"/>
       <c r="B708" s="35"/>
       <c r="D708" s="15" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="53"/>
+      <c r="A709" s="52"/>
       <c r="B709" s="26"/>
       <c r="D709" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="53">
+      <c r="A711" s="52">
         <v>43461</v>
       </c>
       <c r="B711" s="35"/>
@@ -13740,14 +14229,14 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="53"/>
+      <c r="A712" s="52"/>
       <c r="B712" s="35"/>
       <c r="D712" s="15" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="53"/>
+      <c r="A713" s="52"/>
       <c r="B713" s="35"/>
       <c r="C713" s="15" t="s">
         <v>718</v>
@@ -13757,7 +14246,7 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="53"/>
+      <c r="A714" s="52"/>
       <c r="B714" s="35"/>
       <c r="C714" s="3"/>
       <c r="D714" s="15" t="s">
@@ -13765,35 +14254,35 @@
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="53"/>
+      <c r="A715" s="52"/>
       <c r="B715" s="35"/>
       <c r="D715" s="15" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="53"/>
+      <c r="A716" s="52"/>
       <c r="B716" s="35"/>
       <c r="D716" s="15" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="53"/>
+      <c r="A717" s="52"/>
       <c r="B717" s="26"/>
       <c r="D717" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="53"/>
+      <c r="A718" s="52"/>
       <c r="B718" s="26"/>
       <c r="D718" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="53">
+      <c r="A720" s="52">
         <v>43462</v>
       </c>
       <c r="B720" s="35"/>
@@ -13805,14 +14294,14 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="53"/>
+      <c r="A721" s="52"/>
       <c r="B721" s="35"/>
       <c r="D721" s="15" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="53"/>
+      <c r="A722" s="52"/>
       <c r="B722" s="35"/>
       <c r="C722" s="15" t="s">
         <v>718</v>
@@ -13822,28 +14311,28 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="53"/>
+      <c r="A723" s="52"/>
       <c r="B723" s="35"/>
       <c r="D723" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="53"/>
+      <c r="A724" s="52"/>
       <c r="B724" s="26"/>
       <c r="D724" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="53"/>
+      <c r="A725" s="52"/>
       <c r="B725" s="26"/>
       <c r="D725" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A727" s="52">
+      <c r="A727" s="53">
         <v>43463</v>
       </c>
       <c r="B727" s="35"/>
@@ -13855,7 +14344,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="52"/>
+      <c r="A728" s="53"/>
       <c r="B728" s="35"/>
       <c r="C728" s="15" t="s">
         <v>718</v>
@@ -13865,7 +14354,7 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A729" s="52"/>
+      <c r="A729" s="53"/>
       <c r="B729" s="35"/>
       <c r="C729" s="3"/>
       <c r="D729" s="15" t="s">
@@ -13873,28 +14362,28 @@
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A730" s="52"/>
+      <c r="A730" s="53"/>
       <c r="B730" s="35"/>
       <c r="D730" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A731" s="52"/>
+      <c r="A731" s="53"/>
       <c r="B731" s="26"/>
       <c r="D731" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A732" s="52"/>
+      <c r="A732" s="53"/>
       <c r="B732" s="26"/>
       <c r="D732" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A734" s="52">
+      <c r="A734" s="53">
         <v>43464</v>
       </c>
       <c r="B734" s="35"/>
@@ -13903,14 +14392,14 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A735" s="52"/>
+      <c r="A735" s="53"/>
       <c r="B735" s="35"/>
       <c r="D735" s="15" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A736" s="52"/>
+      <c r="A736" s="53"/>
       <c r="B736" s="35"/>
       <c r="C736" s="3"/>
       <c r="D736" s="15" t="s">
@@ -13918,7 +14407,7 @@
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A737" s="52"/>
+      <c r="A737" s="53"/>
       <c r="B737" s="35"/>
       <c r="C737" s="3"/>
       <c r="D737" s="15" t="s">
@@ -13926,14 +14415,14 @@
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A738" s="52"/>
+      <c r="A738" s="53"/>
       <c r="B738" s="35"/>
       <c r="D738" s="15" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A739" s="52"/>
+      <c r="A739" s="53"/>
       <c r="B739" s="50"/>
       <c r="C739" s="3"/>
       <c r="D739" s="15" t="s">
@@ -13941,21 +14430,21 @@
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A740" s="52"/>
+      <c r="A740" s="53"/>
       <c r="B740" s="26"/>
       <c r="D740" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A741" s="52"/>
+      <c r="A741" s="53"/>
       <c r="B741" s="26"/>
       <c r="D741" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="53">
+      <c r="A743" s="52">
         <v>43465</v>
       </c>
       <c r="B743" s="35"/>
@@ -13967,14 +14456,14 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="53"/>
+      <c r="A744" s="52"/>
       <c r="B744" s="35"/>
       <c r="D744" s="15" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="53"/>
+      <c r="A745" s="52"/>
       <c r="B745" s="35"/>
       <c r="C745" s="3"/>
       <c r="D745" s="15" t="s">
@@ -13982,21 +14471,21 @@
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="53"/>
+      <c r="A746" s="52"/>
       <c r="B746" s="35"/>
       <c r="D746" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="53"/>
+      <c r="A747" s="52"/>
       <c r="B747" s="26"/>
       <c r="D747" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="53"/>
+      <c r="A748" s="52"/>
       <c r="B748" s="26" t="s">
         <v>991</v>
       </c>
@@ -14005,7 +14494,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="53">
+      <c r="A750" s="52">
         <v>43466</v>
       </c>
       <c r="B750" s="35"/>
@@ -14014,7 +14503,7 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="53"/>
+      <c r="A751" s="52"/>
       <c r="B751" s="35"/>
       <c r="C751" s="3"/>
       <c r="D751" s="15" t="s">
@@ -14022,28 +14511,28 @@
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="53"/>
+      <c r="A752" s="52"/>
       <c r="B752" s="35"/>
       <c r="D752" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="53"/>
+      <c r="A753" s="52"/>
       <c r="B753" s="35"/>
       <c r="D753" s="15" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="53"/>
+      <c r="A754" s="52"/>
       <c r="B754" s="26"/>
       <c r="D754" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="53"/>
+      <c r="A755" s="52"/>
       <c r="B755" s="26" t="s">
         <v>992</v>
       </c>
@@ -14052,7 +14541,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="53">
+      <c r="A757" s="52">
         <v>43467</v>
       </c>
       <c r="B757" s="35" t="s">
@@ -14066,315 +14555,1446 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="53"/>
+      <c r="A758" s="52"/>
       <c r="B758" s="35" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="D758" s="15" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="53"/>
+      <c r="A759" s="52"/>
       <c r="B759" s="35" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="C759" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D759" s="15" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="53"/>
+      <c r="A760" s="52"/>
       <c r="B760" s="35" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="D760" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="53"/>
+      <c r="A761" s="52"/>
       <c r="B761" s="26"/>
       <c r="D761" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="53"/>
+      <c r="A762" s="52"/>
       <c r="B762" s="26"/>
       <c r="D762" s="15"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A764" s="53">
+      <c r="A764" s="52">
         <v>43468</v>
       </c>
       <c r="B764" s="35" t="s">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="C764" t="s">
         <v>954</v>
       </c>
       <c r="D764" s="15" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A765" s="53"/>
+      <c r="A765" s="52"/>
       <c r="B765" s="35"/>
       <c r="D765" s="15" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A766" s="53"/>
+      <c r="A766" s="52"/>
       <c r="B766" s="35"/>
       <c r="C766" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D766" s="15" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A767" s="53"/>
+      <c r="A767" s="52"/>
       <c r="B767" s="35"/>
       <c r="D767" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="53"/>
+      <c r="A768" s="52"/>
       <c r="B768" s="26"/>
       <c r="D768" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="53"/>
+      <c r="A769" s="52"/>
       <c r="B769" s="26"/>
       <c r="D769" s="15"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A771" s="53">
+      <c r="A771" s="52">
         <v>43469</v>
       </c>
       <c r="B771" s="35" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="C771" t="s">
         <v>954</v>
       </c>
       <c r="D771" s="15" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A772" s="53"/>
+      <c r="A772" s="52"/>
       <c r="B772" s="35"/>
       <c r="C772" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D772" s="15" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A773" s="53"/>
+      <c r="A773" s="52"/>
       <c r="B773" s="35"/>
       <c r="D773" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A774" s="53"/>
+      <c r="A774" s="52"/>
       <c r="B774" s="26"/>
       <c r="D774" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A776" s="52">
+      <c r="A776" s="53">
         <v>43470</v>
       </c>
       <c r="B776" s="35"/>
       <c r="C776" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="D776" s="15" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A777" s="52"/>
+      <c r="A777" s="53"/>
       <c r="B777" s="35"/>
       <c r="D777" s="15" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A778" s="52"/>
+      <c r="A778" s="53"/>
       <c r="B778" s="35"/>
       <c r="C778" s="3"/>
       <c r="D778" s="15" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A779" s="52"/>
+      <c r="A779" s="53"/>
       <c r="B779" s="35"/>
       <c r="D779" s="15" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A780" s="52"/>
+      <c r="A780" s="53"/>
       <c r="B780" s="26"/>
       <c r="D780" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A781" s="52"/>
+      <c r="A781" s="53"/>
       <c r="B781" s="26"/>
       <c r="D781" s="15" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A783" s="52">
+      <c r="A783" s="53">
         <v>43471</v>
       </c>
       <c r="B783" s="35"/>
       <c r="C783" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="D783" s="15" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A784" s="52"/>
+      <c r="A784" s="53"/>
       <c r="B784" s="35"/>
       <c r="D784" s="15" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A785" s="52"/>
+      <c r="A785" s="53"/>
       <c r="B785" s="35"/>
-      <c r="D785" s="15" t="s">
-        <v>1056</v>
+      <c r="D785" s="3" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A786" s="52"/>
+      <c r="A786" s="53"/>
       <c r="B786" s="35"/>
       <c r="C786" s="3"/>
       <c r="D786" s="15" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A787" s="52"/>
+      <c r="A787" s="53"/>
       <c r="B787" s="35"/>
       <c r="C787" s="3"/>
       <c r="D787" s="15" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A788" s="52"/>
+      <c r="A788" s="53"/>
       <c r="B788" s="35"/>
       <c r="C788" s="3"/>
       <c r="D788" s="15" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A789" s="52"/>
+      <c r="A789" s="53"/>
       <c r="B789" s="35"/>
       <c r="D789" s="15" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A790" s="52"/>
+      <c r="A790" s="53"/>
       <c r="B790" s="35"/>
       <c r="D790" s="15" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A791" s="53"/>
+      <c r="B791" s="35"/>
+      <c r="D791" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A792" s="53"/>
+      <c r="B792" s="35"/>
+      <c r="D792" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A793" s="53"/>
+      <c r="B793" s="35"/>
+      <c r="D793" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A794" s="53"/>
+      <c r="B794" s="26"/>
+      <c r="D794" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A796" s="52">
+        <v>43472</v>
+      </c>
+      <c r="B796" s="35"/>
+      <c r="C796" t="s">
+        <v>954</v>
+      </c>
+      <c r="D796" s="15" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A797" s="52"/>
+      <c r="B797" s="35"/>
+      <c r="D797" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A798" s="52"/>
+      <c r="B798" s="35"/>
+      <c r="C798" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D798" s="15" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A799" s="52"/>
+      <c r="B799" s="35"/>
+      <c r="C799" s="3"/>
+      <c r="D799" s="15" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A800" s="52"/>
+      <c r="B800" s="35"/>
+      <c r="C800" s="3"/>
+      <c r="D800" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A801" s="52"/>
+      <c r="B801" s="35"/>
+      <c r="D801" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A802" s="52"/>
+      <c r="B802" s="35"/>
+      <c r="D802" s="15" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A803" s="52"/>
+      <c r="B803" s="35"/>
+      <c r="D803" s="15" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A804" s="52"/>
+      <c r="B804" s="35"/>
+      <c r="D804" s="15" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A791" s="52"/>
-      <c r="B791" s="35"/>
-      <c r="D791" s="15" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A792" s="52"/>
-      <c r="B792" s="26"/>
-      <c r="D792" t="s">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A805" s="52"/>
+      <c r="B805" s="35"/>
+      <c r="D805" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A806" s="52"/>
+      <c r="B806" s="35"/>
+      <c r="D806" s="15" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A807" s="52"/>
+      <c r="B807" s="35"/>
+      <c r="D807" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A808" s="52"/>
+      <c r="B808" s="35"/>
+      <c r="D808" s="15" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A809" s="52"/>
+      <c r="B809" s="35"/>
+      <c r="D809" s="15" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A810" s="52"/>
+      <c r="B810" s="35"/>
+      <c r="D810" s="15" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A811" s="52"/>
+      <c r="B811" s="26"/>
+      <c r="D811" s="15" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A813" s="52">
+        <v>43473</v>
+      </c>
+      <c r="B813" s="35"/>
+      <c r="C813" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D813" s="15" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A814" s="52"/>
+      <c r="B814" s="35"/>
+      <c r="D814" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A815" s="52"/>
+      <c r="B815" s="35"/>
+      <c r="D815" s="15" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A816" s="52"/>
+      <c r="B816" s="35"/>
+      <c r="C816" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D816" s="15" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A817" s="52"/>
+      <c r="B817" s="35"/>
+      <c r="C817" s="3"/>
+      <c r="D817" s="15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A818" s="52"/>
+      <c r="B818" s="35"/>
+      <c r="C818" s="3"/>
+      <c r="D818" s="15" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A819" s="52"/>
+      <c r="B819" s="35"/>
+      <c r="C819" s="3"/>
+      <c r="D819" s="15" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A820" s="52"/>
+      <c r="B820" s="35"/>
+      <c r="D820" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A821" s="52"/>
+      <c r="B821" s="35"/>
+      <c r="D821" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A822" s="52"/>
+      <c r="B822" s="35"/>
+      <c r="D822" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A823" s="52"/>
+      <c r="B823" s="35"/>
+      <c r="D823" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A824" s="52"/>
+      <c r="B824" s="35"/>
+      <c r="D824" s="15" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B825" s="35" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A826" s="52">
+        <v>43474</v>
+      </c>
+      <c r="B826" s="35"/>
+      <c r="C826" t="s">
+        <v>674</v>
+      </c>
+      <c r="D826" s="15" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A827" s="52"/>
+      <c r="B827" s="35"/>
+      <c r="D827" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A828" s="52"/>
+      <c r="B828" s="35"/>
+      <c r="D828" s="15" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A829" s="52"/>
+      <c r="B829" s="35"/>
+      <c r="C829" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D829" s="15" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A830" s="52"/>
+      <c r="B830" s="35"/>
+      <c r="C830" s="3"/>
+      <c r="D830" s="15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A831" s="52"/>
+      <c r="B831" s="35"/>
+      <c r="C831" s="3"/>
+      <c r="D831" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A832" s="52"/>
+      <c r="B832" s="35"/>
+      <c r="D832" s="15" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833" s="52"/>
+      <c r="B833" s="35"/>
+      <c r="D833" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834" s="52"/>
+      <c r="B834" s="35"/>
+      <c r="D834" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835" s="52"/>
+      <c r="B835" s="35"/>
+      <c r="D835" s="15" t="s">
         <v>308</v>
       </c>
     </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836" s="52"/>
+      <c r="B836" s="35"/>
+      <c r="D836" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837" s="52"/>
+      <c r="B837" s="35"/>
+      <c r="D837" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838" s="52"/>
+      <c r="D838" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E838" s="18" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B839" s="35" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840" s="52">
+        <v>43475</v>
+      </c>
+      <c r="B840" s="35"/>
+      <c r="C840" t="s">
+        <v>674</v>
+      </c>
+      <c r="D840" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841" s="52"/>
+      <c r="B841" s="35"/>
+      <c r="D841" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842" s="52"/>
+      <c r="B842" s="35"/>
+      <c r="D842" s="15" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843" s="52"/>
+      <c r="B843" s="35"/>
+      <c r="D843" s="15" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844" s="52"/>
+      <c r="B844" s="35"/>
+      <c r="C844" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D844" s="15" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845" s="52"/>
+      <c r="B845" s="35"/>
+      <c r="C845" s="3"/>
+      <c r="D845" s="15" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846" s="52"/>
+      <c r="B846" s="35"/>
+      <c r="C846" s="3"/>
+      <c r="D846" s="3"/>
+      <c r="E846" s="18" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847" s="52"/>
+      <c r="B847" s="35"/>
+      <c r="C847" s="3"/>
+      <c r="D847" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848" s="52"/>
+      <c r="B848" s="35"/>
+      <c r="D848" s="15" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A849" s="52"/>
+      <c r="B849" s="35"/>
+      <c r="D849" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A850" s="52"/>
+      <c r="B850" s="35"/>
+      <c r="D850" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A851" s="52"/>
+      <c r="B851" s="35"/>
+      <c r="D851" s="15" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A852" s="52"/>
+      <c r="B852" s="35"/>
+      <c r="D852" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A853" s="52"/>
+      <c r="B853" s="35"/>
+      <c r="D853" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A855" s="52">
+        <v>43476</v>
+      </c>
+      <c r="B855" s="35"/>
+      <c r="C855" t="s">
+        <v>674</v>
+      </c>
+      <c r="D855" s="15" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A856" s="52"/>
+      <c r="B856" s="35"/>
+      <c r="D856" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A857" s="52"/>
+      <c r="B857" s="35"/>
+      <c r="D857" s="15" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A858" s="52"/>
+      <c r="B858" s="35"/>
+      <c r="C858" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D858" s="15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A859" s="52"/>
+      <c r="B859" s="35"/>
+      <c r="C859" s="3"/>
+      <c r="D859" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A860" s="52"/>
+      <c r="B860" s="35"/>
+      <c r="D860" s="18" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A861" s="52"/>
+      <c r="B861" s="35"/>
+      <c r="D861" s="15" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A862" s="52"/>
+      <c r="B862" s="35"/>
+      <c r="D862" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A863" s="52"/>
+      <c r="B863" s="35"/>
+      <c r="D863" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A864" s="52"/>
+      <c r="B864" s="35"/>
+      <c r="D864" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A865" s="52"/>
+      <c r="B865" s="35"/>
+      <c r="D865" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A866" s="52"/>
+      <c r="B866" s="35"/>
+      <c r="D866" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D867" s="18" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A868" s="53">
+        <v>43477</v>
+      </c>
+      <c r="B868" s="35"/>
+      <c r="D868" s="15" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A869" s="53"/>
+      <c r="B869" s="35"/>
+      <c r="D869" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A870" s="53"/>
+      <c r="B870" s="35"/>
+      <c r="D870" s="15" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A871" s="53"/>
+      <c r="B871" s="35"/>
+      <c r="D871" s="15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A872" s="53"/>
+      <c r="B872" s="35"/>
+      <c r="C872" s="3"/>
+      <c r="D872" s="15" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A873" s="53"/>
+      <c r="B873" s="35"/>
+      <c r="C873" s="3"/>
+      <c r="D873" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A874" s="53"/>
+      <c r="B874" s="35"/>
+      <c r="C874" s="3"/>
+      <c r="D874" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A875" s="53"/>
+      <c r="B875" s="35"/>
+      <c r="D875" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D876" s="18" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A877" s="53">
+        <v>43478</v>
+      </c>
+      <c r="B877" s="62" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D877" s="15" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A878" s="53"/>
+      <c r="B878" s="62"/>
+      <c r="D878" s="18" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A879" s="53"/>
+      <c r="B879" s="62"/>
+      <c r="C879" s="3"/>
+      <c r="D879" s="15" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A880" s="53"/>
+      <c r="B880" s="62"/>
+      <c r="D880" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A881" s="53"/>
+      <c r="B881" s="62"/>
+      <c r="D881" s="18" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D882" s="18" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A883" s="52">
+        <v>43479</v>
+      </c>
+      <c r="B883" s="35"/>
+      <c r="C883" t="s">
+        <v>674</v>
+      </c>
+      <c r="D883" s="15" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A884" s="52"/>
+      <c r="B884" s="35"/>
+      <c r="D884" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A885" s="52"/>
+      <c r="B885" s="35"/>
+      <c r="C885" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D885" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A886" s="52"/>
+      <c r="B886" s="35"/>
+      <c r="D886" s="15" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A887" s="52"/>
+      <c r="B887" s="35"/>
+      <c r="D887" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A888" s="52"/>
+      <c r="B888" s="35"/>
+      <c r="D888" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A889" s="52"/>
+      <c r="B889" s="35"/>
+      <c r="D889" s="15" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A891" s="52">
+        <v>43480</v>
+      </c>
+      <c r="B891" s="35"/>
+      <c r="C891" t="s">
+        <v>674</v>
+      </c>
+      <c r="D891" s="15" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A892" s="52"/>
+      <c r="B892" s="35"/>
+      <c r="D892" s="15" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A893" s="52"/>
+      <c r="B893" s="35"/>
+      <c r="C893" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D893" s="15" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A894" s="52"/>
+      <c r="B894" s="35"/>
+      <c r="C894" s="3"/>
+      <c r="D894" s="15" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A895" s="52"/>
+      <c r="B895" s="35"/>
+      <c r="D895" s="18" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A896" s="52"/>
+      <c r="B896" s="35"/>
+      <c r="D896" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A897" s="52"/>
+      <c r="B897" s="35"/>
+      <c r="D897" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A899" s="52">
+        <v>43481</v>
+      </c>
+      <c r="B899" s="35"/>
+      <c r="C899" t="s">
+        <v>674</v>
+      </c>
+      <c r="D899" s="15" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A900" s="52"/>
+      <c r="B900" s="35"/>
+      <c r="C900" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D900" s="15" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A901" s="52"/>
+      <c r="B901" s="35"/>
+      <c r="D901" s="15" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A902" s="52"/>
+      <c r="B902" s="35"/>
+      <c r="D902" s="18" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A903" s="52"/>
+      <c r="B903" s="35"/>
+      <c r="D903" s="15" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A904" s="52"/>
+      <c r="B904" s="35"/>
+      <c r="D904" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A905" s="52"/>
+      <c r="B905" s="35"/>
+      <c r="D905" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D906" s="18" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A907" s="52">
+        <v>43482</v>
+      </c>
+      <c r="B907" s="35"/>
+      <c r="C907" t="s">
+        <v>674</v>
+      </c>
+      <c r="D907" s="15" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A908" s="52"/>
+      <c r="B908" s="35"/>
+      <c r="C908" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D908" s="15" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A909" s="52"/>
+      <c r="B909" s="35"/>
+      <c r="C909" s="3"/>
+      <c r="D909" s="15" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A910" s="52"/>
+      <c r="B910" s="35"/>
+      <c r="D910" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A911" s="52"/>
+      <c r="B911" s="35"/>
+      <c r="D911" s="18" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A912" s="52"/>
+      <c r="B912" s="35"/>
+      <c r="D912" s="15" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913" s="52"/>
+      <c r="B913" s="35"/>
+      <c r="D913" s="15" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914" s="52"/>
+      <c r="B914" s="35"/>
+      <c r="D914" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915" s="52"/>
+      <c r="B915" s="35"/>
+      <c r="D915" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D916" s="18" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917" s="52">
+        <v>43483</v>
+      </c>
+      <c r="B917" s="35"/>
+      <c r="C917" t="s">
+        <v>674</v>
+      </c>
+      <c r="D917" s="15" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918" s="52"/>
+      <c r="B918" s="35"/>
+      <c r="D918" s="18" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919" s="52"/>
+      <c r="B919" s="35"/>
+      <c r="D919" s="18" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920" s="52"/>
+      <c r="B920" s="35"/>
+      <c r="D920" s="15" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921" s="52"/>
+      <c r="B921" s="35"/>
+      <c r="C921" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D921" s="15" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922" s="52"/>
+      <c r="B922" s="35"/>
+      <c r="D922" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923" s="52"/>
+      <c r="B923" s="35"/>
+      <c r="D923" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924" s="52"/>
+      <c r="B924" s="35"/>
+      <c r="D924" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925" s="52"/>
+      <c r="B925" s="35"/>
+      <c r="D925" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927" s="53">
+        <v>43484</v>
+      </c>
+      <c r="B927" s="35"/>
+      <c r="D927" s="15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928" s="53"/>
+      <c r="B928" s="35"/>
+      <c r="D928" s="15" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E928" s="51" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929" s="53"/>
+      <c r="B929" s="35"/>
+      <c r="D929" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E929" s="51"/>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930" s="53"/>
+      <c r="B930" s="35"/>
+      <c r="D930" s="15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E930" s="17"/>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931" s="53"/>
+      <c r="B931" s="35"/>
+      <c r="D931" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932" s="53"/>
+      <c r="B932" s="35"/>
+      <c r="C932" s="3"/>
+      <c r="D932" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D933" s="18" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934" s="53">
+        <v>43485</v>
+      </c>
+      <c r="B934" s="35"/>
+      <c r="D934" s="15" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935" s="53"/>
+      <c r="B935" s="35"/>
+      <c r="D935" s="18" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936" s="53"/>
+      <c r="B936" s="35"/>
+      <c r="C936" s="3"/>
+      <c r="D936" s="15" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937" s="53"/>
+      <c r="B937" s="35"/>
+      <c r="D937" s="18" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938" s="53"/>
+      <c r="B938" s="35"/>
+      <c r="D938" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D939" s="18" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940" s="52">
+        <v>43486</v>
+      </c>
+      <c r="B940" s="35"/>
+      <c r="C940" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D940" s="15" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941" s="52"/>
+      <c r="B941" s="35"/>
+      <c r="D941" s="15" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942" s="52"/>
+      <c r="B942" s="35"/>
+      <c r="D942" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944" s="52">
+        <v>43487</v>
+      </c>
+      <c r="B944" s="35"/>
+      <c r="D944" s="18" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A945" s="52"/>
+      <c r="B945" s="35"/>
+      <c r="D945" s="15" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A946" s="52"/>
+      <c r="B946" s="35"/>
+      <c r="C946" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D946" s="15" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A947" s="52"/>
+      <c r="B947" s="35"/>
+      <c r="D947" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A948" s="52"/>
+      <c r="B948" s="35"/>
+      <c r="D948" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="A771:A774"/>
-    <mergeCell ref="A776:A781"/>
-    <mergeCell ref="A783:A792"/>
-    <mergeCell ref="A764:A769"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A506:A512"/>
-    <mergeCell ref="A514:A523"/>
-    <mergeCell ref="A525:A535"/>
-    <mergeCell ref="A743:A748"/>
-    <mergeCell ref="A750:A755"/>
-    <mergeCell ref="A757:A762"/>
-    <mergeCell ref="A646:A655"/>
-    <mergeCell ref="A657:A664"/>
-    <mergeCell ref="A734:A741"/>
-    <mergeCell ref="A711:A718"/>
-    <mergeCell ref="A720:A725"/>
-    <mergeCell ref="E481:E485"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="E478:E479"/>
-    <mergeCell ref="E486:E487"/>
-    <mergeCell ref="B472:B479"/>
+  <mergeCells count="116">
+    <mergeCell ref="A927:A932"/>
+    <mergeCell ref="A934:A938"/>
+    <mergeCell ref="E928:E929"/>
+    <mergeCell ref="A940:A942"/>
+    <mergeCell ref="A944:A948"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A355"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A899:A905"/>
+    <mergeCell ref="B877:B881"/>
+    <mergeCell ref="A883:A889"/>
     <mergeCell ref="A357:A370"/>
     <mergeCell ref="A372:A384"/>
     <mergeCell ref="A386:A396"/>
     <mergeCell ref="A433:A439"/>
+    <mergeCell ref="A720:A725"/>
+    <mergeCell ref="A727:A732"/>
+    <mergeCell ref="A855:A866"/>
+    <mergeCell ref="A868:A875"/>
+    <mergeCell ref="A877:A881"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="A840:A853"/>
+    <mergeCell ref="B574:B580"/>
+    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="A586:A596"/>
     <mergeCell ref="B317:B328"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="A537:A547"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A462:A470"/>
-    <mergeCell ref="A452:A460"/>
-    <mergeCell ref="A398:A408"/>
-    <mergeCell ref="A472:A479"/>
-    <mergeCell ref="E472:E476"/>
-    <mergeCell ref="E469:E470"/>
-    <mergeCell ref="B462:B467"/>
-    <mergeCell ref="B398:B408"/>
-    <mergeCell ref="A441:A450"/>
-    <mergeCell ref="B441:B450"/>
-    <mergeCell ref="B433:B439"/>
-    <mergeCell ref="A421:A431"/>
-    <mergeCell ref="B421:B431"/>
-    <mergeCell ref="A410:A419"/>
-    <mergeCell ref="B410:B419"/>
-    <mergeCell ref="B468:B470"/>
+    <mergeCell ref="A254:A265"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="A156:A171"/>
@@ -14395,32 +16015,71 @@
     <mergeCell ref="A231:A242"/>
     <mergeCell ref="A220:A229"/>
     <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A254:A265"/>
     <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A355"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
+    <mergeCell ref="E472:E476"/>
+    <mergeCell ref="E469:E470"/>
+    <mergeCell ref="B462:B467"/>
+    <mergeCell ref="B398:B408"/>
+    <mergeCell ref="A441:A450"/>
+    <mergeCell ref="B441:B450"/>
+    <mergeCell ref="B433:B439"/>
+    <mergeCell ref="A421:A431"/>
+    <mergeCell ref="B421:B431"/>
+    <mergeCell ref="A410:A419"/>
+    <mergeCell ref="B410:B419"/>
+    <mergeCell ref="B468:B470"/>
+    <mergeCell ref="A462:A470"/>
+    <mergeCell ref="A452:A460"/>
+    <mergeCell ref="A398:A408"/>
+    <mergeCell ref="A472:A479"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="A481:A487"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="E481:E485"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="A711:A718"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A506:A512"/>
+    <mergeCell ref="A514:A523"/>
+    <mergeCell ref="A525:A535"/>
+    <mergeCell ref="A537:A547"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B526:B531"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
     <mergeCell ref="B561:B565"/>
     <mergeCell ref="A560:A570"/>
     <mergeCell ref="B588:B596"/>
     <mergeCell ref="B628:B632"/>
-    <mergeCell ref="B574:B580"/>
-    <mergeCell ref="A572:A584"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
-    <mergeCell ref="A727:A732"/>
+    <mergeCell ref="A907:A915"/>
+    <mergeCell ref="A917:A925"/>
+    <mergeCell ref="A891:A897"/>
+    <mergeCell ref="A796:A811"/>
+    <mergeCell ref="A743:A748"/>
+    <mergeCell ref="A750:A755"/>
+    <mergeCell ref="A757:A762"/>
+    <mergeCell ref="A734:A741"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
     <mergeCell ref="A666:A675"/>
     <mergeCell ref="A677:A686"/>
     <mergeCell ref="A688:A694"/>
     <mergeCell ref="A696:A702"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="A764:A769"/>
+    <mergeCell ref="A646:A655"/>
+    <mergeCell ref="A657:A664"/>
+    <mergeCell ref="A826:A838"/>
+    <mergeCell ref="A813:A824"/>
+    <mergeCell ref="A771:A774"/>
+    <mergeCell ref="A776:A781"/>
+    <mergeCell ref="A783:A794"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14430,19 +16089,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15424,7 +17083,7 @@
         <v>43464</v>
       </c>
       <c r="B63" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="C63" s="24">
         <v>36.9</v>
@@ -15433,7 +17092,7 @@
         <v>518</v>
       </c>
       <c r="E63" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -15441,7 +17100,7 @@
         <v>43465</v>
       </c>
       <c r="B64" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="C64" s="24">
         <v>36.9</v>
@@ -15450,7 +17109,7 @@
         <v>518</v>
       </c>
       <c r="E64" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -15460,7 +17119,7 @@
       <c r="C65" s="24"/>
       <c r="D65" s="3"/>
       <c r="E65" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -15468,7 +17127,7 @@
         <v>43467</v>
       </c>
       <c r="B66" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="C66" s="24">
         <v>36.9</v>
@@ -15477,7 +17136,7 @@
         <v>518</v>
       </c>
       <c r="E66" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -15491,10 +17150,10 @@
         <v>36.75</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="E67" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -15502,16 +17161,16 @@
         <v>43469</v>
       </c>
       <c r="B68" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="C68" s="24">
         <v>36.549999999999997</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="E68" t="s">
-        <v>1026</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -15519,7 +17178,7 @@
         <v>43470</v>
       </c>
       <c r="B69" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="C69" s="24">
         <v>36.619999999999997</v>
@@ -15533,13 +17192,16 @@
         <v>43471</v>
       </c>
       <c r="B70" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="C70" s="24">
         <v>36.58</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -15547,11 +17209,16 @@
         <v>43472</v>
       </c>
       <c r="B71" t="s">
-        <v>994</v>
-      </c>
-      <c r="C71" s="24"/>
+        <v>674</v>
+      </c>
+      <c r="C71" s="24">
+        <v>36.57</v>
+      </c>
       <c r="D71" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="E71" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -15559,11 +17226,16 @@
         <v>43473</v>
       </c>
       <c r="B72" t="s">
-        <v>995</v>
-      </c>
-      <c r="C72" s="24"/>
+        <v>1071</v>
+      </c>
+      <c r="C72" s="24">
+        <v>36.68</v>
+      </c>
       <c r="D72" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="E72" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -15571,11 +17243,16 @@
         <v>43474</v>
       </c>
       <c r="B73" t="s">
-        <v>996</v>
-      </c>
-      <c r="C73" s="24"/>
+        <v>674</v>
+      </c>
+      <c r="C73" s="24">
+        <v>36.72</v>
+      </c>
       <c r="D73" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="E73" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -15583,11 +17260,16 @@
         <v>43475</v>
       </c>
       <c r="B74" t="s">
-        <v>997</v>
-      </c>
-      <c r="C74" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C74" s="24">
+        <v>36.82</v>
+      </c>
       <c r="D74" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="E74" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -15595,11 +17277,16 @@
         <v>43476</v>
       </c>
       <c r="B75" t="s">
-        <v>998</v>
-      </c>
-      <c r="C75" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C75" s="24">
+        <v>36.85</v>
+      </c>
       <c r="D75" s="3" t="s">
-        <v>518</v>
+        <v>1104</v>
+      </c>
+      <c r="E75" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -15607,11 +17294,16 @@
         <v>43477</v>
       </c>
       <c r="B76" t="s">
-        <v>999</v>
-      </c>
-      <c r="C76" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C76" s="24">
+        <v>36.9</v>
+      </c>
       <c r="D76" s="3" t="s">
-        <v>518</v>
+        <v>1104</v>
+      </c>
+      <c r="E76" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -15619,11 +17311,16 @@
         <v>43478</v>
       </c>
       <c r="B77" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C77" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C77" s="24">
+        <v>36.9</v>
+      </c>
       <c r="D77" s="3" t="s">
-        <v>518</v>
+        <v>1104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -15631,11 +17328,16 @@
         <v>43479</v>
       </c>
       <c r="B78" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C78" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C78" s="24">
+        <v>36.909999999999997</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>518</v>
+        <v>1104</v>
+      </c>
+      <c r="E78" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -15643,11 +17345,16 @@
         <v>43480</v>
       </c>
       <c r="B79" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C79" s="24"/>
+        <v>1122</v>
+      </c>
+      <c r="C79" s="24">
+        <v>36.840000000000003</v>
+      </c>
       <c r="D79" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="E79" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -15655,101 +17362,325 @@
         <v>43481</v>
       </c>
       <c r="B80" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C80" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C80" s="24">
+        <v>36.92</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>43482</v>
       </c>
       <c r="B81" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C81" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C81" s="24">
+        <v>36.85</v>
+      </c>
       <c r="D81" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>43483</v>
       </c>
       <c r="B82" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C82" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C82" s="24">
+        <v>36.82</v>
+      </c>
       <c r="D82" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>43484</v>
       </c>
       <c r="B83" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C83" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C83" s="24">
+        <v>36.9</v>
+      </c>
       <c r="D83" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>43485</v>
       </c>
       <c r="B84" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C84" s="24"/>
+        <v>1054</v>
+      </c>
+      <c r="C84" s="24">
+        <v>36.81</v>
+      </c>
       <c r="D84" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>43486</v>
       </c>
-      <c r="B85" t="s">
-        <v>1008</v>
-      </c>
       <c r="C85" s="24"/>
-      <c r="D85" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="3"/>
+      <c r="E85" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>43487</v>
       </c>
-      <c r="B86" t="s">
-        <v>1009</v>
-      </c>
       <c r="C86" s="24"/>
-      <c r="D86" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="3"/>
+      <c r="E86" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>43488</v>
       </c>
       <c r="B87" t="s">
-        <v>1010</v>
+        <v>1054</v>
       </c>
       <c r="C87" s="24"/>
-      <c r="D87" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
+      <c r="D87" s="3"/>
+      <c r="E87" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="13">
+        <v>43489</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1054</v>
+      </c>
       <c r="C88" s="24"/>
       <c r="D88" s="3"/>
+      <c r="E88" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="13">
+        <v>43490</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E89" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="13">
+        <v>43491</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E90" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="13">
+        <v>43492</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E91" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="13">
+        <v>43493</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E92" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="13">
+        <v>43494</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E93" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="13">
+        <v>43495</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E94" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="13">
+        <v>43496</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="13">
+        <v>43497</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="13">
+        <v>43498</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="13">
+        <v>43499</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="13">
+        <v>43500</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="13">
+        <v>43501</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="13">
+        <v>43502</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
+        <v>43503</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
+        <v>43504</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="13">
+        <v>43505</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="13">
+        <v>43506</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="13">
+        <v>43507</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="13">
+        <v>43508</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="13">
+        <v>43509</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="13">
+        <v>43510</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="13">
+        <v>43511</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1054</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15765,7 +17696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C26 C32">
+  <conditionalFormatting sqref="C26 C28 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15795,30 +17726,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="94.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -15832,13 +17763,13 @@
         <v>830</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1037</v>
+        <v>841</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>850</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>841</v>
+        <v>1019</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>850</v>
@@ -15850,13 +17781,13 @@
         <v>850</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -15867,7 +17798,7 @@
         <v>803</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="E2" t="s">
         <v>802</v>
@@ -15981,7 +17912,7 @@
         <v>832</v>
       </c>
       <c r="E7" t="s">
-        <v>811</v>
+        <v>1060</v>
       </c>
       <c r="H7" t="s">
         <v>811</v>
@@ -16001,7 +17932,7 @@
         <v>832</v>
       </c>
       <c r="E8" t="s">
-        <v>814</v>
+        <v>1061</v>
       </c>
       <c r="H8" t="s">
         <v>814</v>
@@ -16085,16 +18016,16 @@
         <v>832</v>
       </c>
       <c r="E12" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1041</v>
+        <v>1017</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
       </c>
       <c r="H12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I12">
-        <v>1000</v>
+        <v>1020</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1023</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>845</v>
@@ -16111,13 +18042,13 @@
         <v>833</v>
       </c>
       <c r="E13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1042</v>
+        <v>1018</v>
       </c>
       <c r="H13" t="s">
-        <v>1036</v>
+        <v>1018</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1024</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>851</v>
@@ -16134,7 +18065,7 @@
         <v>818</v>
       </c>
       <c r="E14" t="s">
-        <v>977</v>
+        <v>1055</v>
       </c>
       <c r="H14" t="s">
         <v>977</v>
@@ -16154,7 +18085,7 @@
         <v>818</v>
       </c>
       <c r="E15" t="s">
-        <v>978</v>
+        <v>1056</v>
       </c>
       <c r="H15" t="s">
         <v>978</v>
@@ -16174,7 +18105,7 @@
         <v>818</v>
       </c>
       <c r="E16" t="s">
-        <v>979</v>
+        <v>1057</v>
       </c>
       <c r="H16" t="s">
         <v>979</v>
@@ -16191,7 +18122,7 @@
         <v>818</v>
       </c>
       <c r="E17" t="s">
-        <v>980</v>
+        <v>1058</v>
       </c>
       <c r="H17" t="s">
         <v>980</v>
@@ -16211,7 +18142,7 @@
         <v>818</v>
       </c>
       <c r="E18" t="s">
-        <v>981</v>
+        <v>1059</v>
       </c>
       <c r="H18" t="s">
         <v>981</v>
@@ -16228,13 +18159,13 @@
         <v>818</v>
       </c>
       <c r="E19" t="s">
-        <v>1029</v>
+        <v>1011</v>
+      </c>
+      <c r="F19">
+        <v>1500</v>
       </c>
       <c r="H19" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I19">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>855</v>
@@ -16251,16 +18182,16 @@
         <v>818</v>
       </c>
       <c r="E20" t="s">
-        <v>1039</v>
+        <v>1015</v>
       </c>
       <c r="F20">
+        <v>800</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I20">
         <v>1000</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I20">
-        <v>800</v>
       </c>
       <c r="K20" t="s">
         <v>844</v>
@@ -16277,19 +18208,19 @@
         <v>829</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="E21" t="s">
-        <v>1040</v>
+        <v>1016</v>
       </c>
       <c r="H21" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" display="http://www.mafengwo.cn/poi/1237.html"/>
+    <hyperlink ref="K14" r:id="rId1" display="http://www.mafengwo.cn/poi/1237.html" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -16297,14 +18228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -16335,7 +18266,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>588</v>
       </c>
@@ -16444,7 +18375,7 @@
         <v>20190103</v>
       </c>
       <c r="C8" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="D8">
         <v>43.65</v>
@@ -16465,7 +18396,7 @@
         <v>12.5</v>
       </c>
       <c r="J8" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -16619,19 +18550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -16681,7 +18612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>219</v>
       </c>
@@ -16692,7 +18623,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -16700,7 +18631,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
     </row>
   </sheetData>
@@ -16711,18 +18642,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -16786,6 +18717,55 @@
       </c>
       <c r="C7" t="s">
         <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>43465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>43466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>43467</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>43468</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C12" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>43469</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
@@ -16795,20 +18775,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>205</v>
       </c>
@@ -16816,7 +18796,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>206</v>
       </c>
@@ -16824,7 +18804,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>207</v>
       </c>
@@ -16832,7 +18812,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>208</v>
       </c>
@@ -16840,11 +18820,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>214</v>
       </c>
@@ -16852,18 +18832,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>209</v>
       </c>
@@ -16871,7 +18851,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>210</v>
       </c>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1506471-9D7E-45F8-98F1-98F702DEAEB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D161B97-1FF0-4E74-B443-3E65EAD638EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="2775" windowWidth="15360" windowHeight="12195" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="3210" windowWidth="15360" windowHeight="12195" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1159">
   <si>
     <t>病毒四项</t>
   </si>
@@ -6285,6 +6285,10 @@
     <rPh sb="0" eb="1">
       <t>wan canyou po dao xiaojin feng zhuang yuanxiong ya lijuji roumo gutangjian b</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐：豆浆+小米粥+包子+糊塌子+小咸菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6572,20 +6576,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6602,8 +6606,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7692,7 +7696,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -7706,7 +7710,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
+      <c r="A3" s="62"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -8371,10 +8375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I948"/>
+  <dimension ref="A1:I954"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A935" workbookViewId="0">
-      <selection activeCell="D952" sqref="D952"/>
+      <selection activeCell="A950" sqref="A950:A954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9065,7 +9069,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="53">
+      <c r="A72" s="52">
         <v>43407</v>
       </c>
       <c r="B72" s="27"/>
@@ -9078,7 +9082,7 @@
       <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="53"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="27"/>
       <c r="C73" s="15" t="s">
         <v>269</v>
@@ -9089,7 +9093,7 @@
       <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="53"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="27"/>
       <c r="C74" s="15" t="s">
         <v>310</v>
@@ -9099,7 +9103,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="53"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="20"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15" t="s">
@@ -9107,7 +9111,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="53"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="20"/>
       <c r="C76" s="18" t="s">
         <v>467</v>
@@ -9117,7 +9121,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="53"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>451</v>
@@ -9127,7 +9131,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="53"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>275</v>
@@ -9137,7 +9141,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="53"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>280</v>
@@ -9147,7 +9151,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="53"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>294</v>
@@ -9157,7 +9161,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="53"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="20"/>
       <c r="C81" s="18" t="s">
         <v>456</v>
@@ -9167,7 +9171,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="53"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="20"/>
       <c r="C82" s="15" t="s">
         <v>471</v>
@@ -9177,7 +9181,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="53"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="20"/>
       <c r="C83" s="3" t="s">
         <v>472</v>
@@ -9188,7 +9192,7 @@
       <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="53"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="20"/>
       <c r="C84" t="s">
         <v>473</v>
@@ -9199,7 +9203,7 @@
       <c r="I84" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="53">
+      <c r="A86" s="52">
         <v>43408</v>
       </c>
       <c r="B86" s="30" t="s">
@@ -9213,7 +9217,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="53"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="27"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -9221,7 +9225,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="53"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="27"/>
       <c r="C88" s="15" t="s">
         <v>475</v>
@@ -9231,14 +9235,14 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="53"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="21"/>
       <c r="D89" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="53"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="20"/>
       <c r="C90" s="3"/>
       <c r="D90" s="15" t="s">
@@ -9246,7 +9250,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="53"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="20"/>
       <c r="C91" s="3" t="s">
         <v>484</v>
@@ -9256,7 +9260,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="53"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>459</v>
@@ -9266,7 +9270,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="53"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="20"/>
       <c r="C93" t="s">
         <v>460</v>
@@ -9276,7 +9280,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="53"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="20"/>
       <c r="C94" t="s">
         <v>461</v>
@@ -9286,7 +9290,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="53"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>347</v>
@@ -9296,11 +9300,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="53"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="53"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="20"/>
       <c r="C97" s="15" t="s">
         <v>292</v>
@@ -9310,7 +9314,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="53"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="20"/>
       <c r="C98" s="15" t="s">
         <v>294</v>
@@ -9320,7 +9324,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="53"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="20"/>
       <c r="C99" s="15" t="s">
         <v>310</v>
@@ -9330,7 +9334,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="53"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="20"/>
       <c r="C100" s="15" t="s">
         <v>321</v>
@@ -9340,7 +9344,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="53"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="20"/>
       <c r="C101" s="3" t="s">
         <v>489</v>
@@ -9350,7 +9354,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="53"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="20"/>
       <c r="C102" t="s">
         <v>490</v>
@@ -10135,7 +10139,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="53">
+      <c r="A187" s="52">
         <v>43414</v>
       </c>
       <c r="B187" s="26"/>
@@ -10147,7 +10151,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="53"/>
+      <c r="A188" s="52"/>
       <c r="B188" s="21"/>
       <c r="C188" s="3"/>
       <c r="D188" s="15" t="s">
@@ -10155,7 +10159,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="53"/>
+      <c r="A189" s="52"/>
       <c r="B189" s="21"/>
       <c r="C189" s="3"/>
       <c r="D189" s="15" t="s">
@@ -10163,7 +10167,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="53"/>
+      <c r="A190" s="52"/>
       <c r="B190" s="20"/>
       <c r="C190" s="3"/>
       <c r="D190" s="15" t="s">
@@ -10171,7 +10175,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="53"/>
+      <c r="A191" s="52"/>
       <c r="B191" s="20"/>
       <c r="C191" s="3"/>
       <c r="D191" s="15" t="s">
@@ -10179,7 +10183,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="53"/>
+      <c r="A192" s="52"/>
       <c r="B192" s="20"/>
       <c r="C192" s="3"/>
       <c r="D192" s="15" t="s">
@@ -10187,7 +10191,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="53"/>
+      <c r="A193" s="52"/>
       <c r="B193" s="20"/>
       <c r="C193" s="3"/>
       <c r="D193" s="15" t="s">
@@ -10195,7 +10199,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="53"/>
+      <c r="A194" s="52"/>
       <c r="B194" s="20"/>
       <c r="C194" s="3"/>
       <c r="D194" s="15" t="s">
@@ -10203,7 +10207,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="53"/>
+      <c r="A195" s="52"/>
       <c r="B195" s="20"/>
       <c r="C195" s="3" t="s">
         <v>432</v>
@@ -10213,7 +10217,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="53"/>
+      <c r="A196" s="52"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
         <v>336</v>
@@ -10223,7 +10227,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="53">
+      <c r="A198" s="52">
         <v>43415</v>
       </c>
       <c r="B198" s="26"/>
@@ -10235,7 +10239,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="53"/>
+      <c r="A199" s="52"/>
       <c r="B199" s="26"/>
       <c r="C199" s="3"/>
       <c r="D199" s="15" t="s">
@@ -10243,7 +10247,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="53"/>
+      <c r="A200" s="52"/>
       <c r="B200" s="21"/>
       <c r="C200" s="15" t="s">
         <v>266</v>
@@ -10253,7 +10257,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="53"/>
+      <c r="A201" s="52"/>
       <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>449</v>
@@ -10263,7 +10267,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="53"/>
+      <c r="A202" s="52"/>
       <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>478</v>
@@ -10273,7 +10277,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="53"/>
+      <c r="A203" s="52"/>
       <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>307</v>
@@ -10283,7 +10287,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="53"/>
+      <c r="A204" s="52"/>
       <c r="B204" s="20"/>
       <c r="C204" s="15" t="s">
         <v>480</v>
@@ -10293,7 +10297,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="53"/>
+      <c r="A205" s="52"/>
       <c r="B205" s="20"/>
       <c r="C205" s="15" t="s">
         <v>526</v>
@@ -10303,7 +10307,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="53"/>
+      <c r="A206" s="52"/>
       <c r="B206" s="20"/>
       <c r="C206" s="15" t="s">
         <v>523</v>
@@ -10313,7 +10317,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="53"/>
+      <c r="A207" s="52"/>
       <c r="B207" s="20"/>
       <c r="C207" s="3" t="s">
         <v>524</v>
@@ -10323,7 +10327,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="52">
+      <c r="A209" s="53">
         <v>43416</v>
       </c>
       <c r="B209" s="26"/>
@@ -10335,7 +10339,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="21"/>
       <c r="C210" s="15" t="s">
         <v>266</v>
@@ -10345,7 +10349,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="52"/>
+      <c r="A211" s="53"/>
       <c r="B211" s="20"/>
       <c r="C211" s="3"/>
       <c r="D211" s="15" t="s">
@@ -10353,7 +10357,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
+      <c r="A212" s="53"/>
       <c r="B212" s="20"/>
       <c r="C212" s="15" t="s">
         <v>478</v>
@@ -10363,7 +10367,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="52"/>
+      <c r="A213" s="53"/>
       <c r="B213" s="20"/>
       <c r="C213" s="3"/>
       <c r="D213" s="15" t="s">
@@ -10371,7 +10375,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="52"/>
+      <c r="A214" s="53"/>
       <c r="B214" s="20"/>
       <c r="C214" s="3"/>
       <c r="D214" s="15" t="s">
@@ -10379,7 +10383,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="52"/>
+      <c r="A215" s="53"/>
       <c r="B215" s="20"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
@@ -10387,7 +10391,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="52"/>
+      <c r="A216" s="53"/>
       <c r="B216" s="20"/>
       <c r="C216" s="3" t="s">
         <v>353</v>
@@ -10397,7 +10401,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="52"/>
+      <c r="A217" s="53"/>
       <c r="B217" s="20"/>
       <c r="C217" s="3" t="s">
         <v>432</v>
@@ -10407,14 +10411,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="52"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="20"/>
       <c r="D218" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="52">
+      <c r="A220" s="53">
         <v>43417</v>
       </c>
       <c r="B220" s="26"/>
@@ -10426,7 +10430,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="52"/>
+      <c r="A221" s="53"/>
       <c r="B221" s="26"/>
       <c r="C221" s="15" t="s">
         <v>536</v>
@@ -10436,14 +10440,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="52"/>
+      <c r="A222" s="53"/>
       <c r="B222" s="26"/>
       <c r="D222" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="52"/>
+      <c r="A223" s="53"/>
       <c r="B223" s="21"/>
       <c r="C223" s="15" t="s">
         <v>266</v>
@@ -10453,7 +10457,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="52"/>
+      <c r="A224" s="53"/>
       <c r="B224" s="20"/>
       <c r="C224" s="15" t="s">
         <v>449</v>
@@ -10463,7 +10467,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="52"/>
+      <c r="A225" s="53"/>
       <c r="B225" s="20"/>
       <c r="C225" s="15" t="s">
         <v>478</v>
@@ -10473,7 +10477,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="52"/>
+      <c r="A226" s="53"/>
       <c r="B226" s="20"/>
       <c r="C226" s="3" t="s">
         <v>421</v>
@@ -10483,7 +10487,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="52"/>
+      <c r="A227" s="53"/>
       <c r="B227" s="20"/>
       <c r="C227" s="15" t="s">
         <v>480</v>
@@ -10493,7 +10497,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="52"/>
+      <c r="A228" s="53"/>
       <c r="B228" s="20"/>
       <c r="C228" s="3" t="s">
         <v>353</v>
@@ -10503,7 +10507,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="52"/>
+      <c r="A229" s="53"/>
       <c r="B229" s="20"/>
       <c r="C229" t="s">
         <v>336</v>
@@ -10513,7 +10517,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="52">
+      <c r="A231" s="53">
         <v>43418</v>
       </c>
       <c r="B231" s="26"/>
@@ -10525,14 +10529,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="52"/>
+      <c r="A232" s="53"/>
       <c r="B232" s="26"/>
       <c r="D232" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="52"/>
+      <c r="A233" s="53"/>
       <c r="B233" s="21"/>
       <c r="C233" s="15" t="s">
         <v>266</v>
@@ -10542,7 +10546,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="52"/>
+      <c r="A234" s="53"/>
       <c r="B234" s="20"/>
       <c r="C234" s="3"/>
       <c r="D234" s="15" t="s">
@@ -10550,7 +10554,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="52"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="20"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
@@ -10558,7 +10562,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="52"/>
+      <c r="A236" s="53"/>
       <c r="B236" s="20"/>
       <c r="C236" s="15" t="s">
         <v>478</v>
@@ -10568,7 +10572,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="52"/>
+      <c r="A237" s="53"/>
       <c r="B237" s="20"/>
       <c r="C237" s="3"/>
       <c r="D237" s="15" t="s">
@@ -10576,7 +10580,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="52"/>
+      <c r="A238" s="53"/>
       <c r="B238" s="20"/>
       <c r="C238" s="3"/>
       <c r="D238" s="15" t="s">
@@ -10584,7 +10588,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="52"/>
+      <c r="A239" s="53"/>
       <c r="B239" s="20"/>
       <c r="C239" s="3"/>
       <c r="D239" s="15" t="s">
@@ -10592,7 +10596,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="52"/>
+      <c r="A240" s="53"/>
       <c r="B240" s="20"/>
       <c r="C240" s="3"/>
       <c r="D240" s="15" t="s">
@@ -10600,7 +10604,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="52"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="20"/>
       <c r="C241" t="s">
         <v>336</v>
@@ -10610,14 +10614,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="52"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="20"/>
       <c r="D242" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="52">
+      <c r="A244" s="53">
         <v>43419</v>
       </c>
       <c r="B244" s="26"/>
@@ -10629,14 +10633,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="52"/>
+      <c r="A245" s="53"/>
       <c r="B245" s="26"/>
       <c r="D245" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="52"/>
+      <c r="A246" s="53"/>
       <c r="B246" s="21"/>
       <c r="C246" s="15" t="s">
         <v>266</v>
@@ -10646,7 +10650,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="52"/>
+      <c r="A247" s="53"/>
       <c r="B247" s="20"/>
       <c r="C247" s="3"/>
       <c r="D247" s="15" t="s">
@@ -10654,7 +10658,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="52"/>
+      <c r="A248" s="53"/>
       <c r="B248" s="20"/>
       <c r="C248" s="15" t="s">
         <v>478</v>
@@ -10664,7 +10668,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="52"/>
+      <c r="A249" s="53"/>
       <c r="B249" s="20"/>
       <c r="C249" s="3"/>
       <c r="D249" s="15" t="s">
@@ -10672,7 +10676,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="52"/>
+      <c r="A250" s="53"/>
       <c r="B250" s="20"/>
       <c r="C250" s="3"/>
       <c r="D250" s="15" t="s">
@@ -10680,7 +10684,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="52"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="20"/>
       <c r="C251" s="3"/>
       <c r="D251" s="15" t="s">
@@ -10688,7 +10692,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="52"/>
+      <c r="A252" s="53"/>
       <c r="B252" s="20"/>
       <c r="C252" t="s">
         <v>336</v>
@@ -10698,7 +10702,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="52">
+      <c r="A254" s="53">
         <v>43420</v>
       </c>
       <c r="B254" s="26"/>
@@ -10710,7 +10714,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="52"/>
+      <c r="A255" s="53"/>
       <c r="B255" s="26"/>
       <c r="C255" s="3"/>
       <c r="D255" s="18" t="s">
@@ -10718,14 +10722,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="52"/>
+      <c r="A256" s="53"/>
       <c r="B256" s="26"/>
       <c r="D256" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="52"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="21"/>
       <c r="C257" s="15" t="s">
         <v>266</v>
@@ -10735,7 +10739,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="52"/>
+      <c r="A258" s="53"/>
       <c r="B258" s="20"/>
       <c r="C258" s="3"/>
       <c r="D258" s="15" t="s">
@@ -10743,7 +10747,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="52"/>
+      <c r="A259" s="53"/>
       <c r="B259" s="20"/>
       <c r="C259" s="15" t="s">
         <v>478</v>
@@ -10753,14 +10757,14 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="52"/>
+      <c r="A260" s="53"/>
       <c r="B260" s="20"/>
       <c r="D260" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="52"/>
+      <c r="A261" s="53"/>
       <c r="B261" s="20"/>
       <c r="C261" s="3"/>
       <c r="D261" s="15" t="s">
@@ -10768,7 +10772,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="52"/>
+      <c r="A262" s="53"/>
       <c r="B262" s="20"/>
       <c r="C262" s="3"/>
       <c r="D262" s="15" t="s">
@@ -10776,7 +10780,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="52"/>
+      <c r="A263" s="53"/>
       <c r="B263" s="20"/>
       <c r="C263" s="3"/>
       <c r="D263" s="15" t="s">
@@ -10784,7 +10788,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="52"/>
+      <c r="A264" s="53"/>
       <c r="B264" s="20"/>
       <c r="C264" s="3"/>
       <c r="D264" s="15" t="s">
@@ -10792,7 +10796,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="52"/>
+      <c r="A265" s="53"/>
       <c r="B265" s="20"/>
       <c r="C265" t="s">
         <v>336</v>
@@ -10802,7 +10806,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="53">
+      <c r="A267" s="52">
         <v>43421</v>
       </c>
       <c r="B267" s="26"/>
@@ -10814,7 +10818,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="53"/>
+      <c r="A268" s="52"/>
       <c r="B268" s="26"/>
       <c r="C268" s="3"/>
       <c r="D268" s="15" t="s">
@@ -10822,7 +10826,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="53"/>
+      <c r="A269" s="52"/>
       <c r="B269" s="21"/>
       <c r="C269" s="3"/>
       <c r="D269" s="15" t="s">
@@ -10830,7 +10834,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="53"/>
+      <c r="A270" s="52"/>
       <c r="B270" s="20"/>
       <c r="C270" s="3"/>
       <c r="D270" s="15" t="s">
@@ -10838,14 +10842,14 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="53"/>
+      <c r="A271" s="52"/>
       <c r="B271" s="20"/>
       <c r="D271" s="15" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="53"/>
+      <c r="A272" s="52"/>
       <c r="B272" s="20"/>
       <c r="C272" s="3"/>
       <c r="D272" s="15" t="s">
@@ -10853,7 +10857,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="53"/>
+      <c r="A273" s="52"/>
       <c r="B273" s="20"/>
       <c r="C273" s="3"/>
       <c r="D273" s="15" t="s">
@@ -10861,7 +10865,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="53"/>
+      <c r="A274" s="52"/>
       <c r="B274" s="20"/>
       <c r="C274" s="3"/>
       <c r="D274" s="15" t="s">
@@ -10869,7 +10873,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="53"/>
+      <c r="A275" s="52"/>
       <c r="B275" s="20"/>
       <c r="C275" s="3"/>
       <c r="D275" s="15" t="s">
@@ -10877,7 +10881,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="53"/>
+      <c r="A276" s="52"/>
       <c r="B276" s="20"/>
       <c r="C276" t="s">
         <v>336</v>
@@ -10887,14 +10891,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="53"/>
+      <c r="A277" s="52"/>
       <c r="B277" s="20"/>
       <c r="D277" s="15" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="53">
+      <c r="A279" s="52">
         <v>43422</v>
       </c>
       <c r="B279" s="26"/>
@@ -10906,28 +10910,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="53"/>
+      <c r="A280" s="52"/>
       <c r="B280" s="26"/>
       <c r="D280" s="15" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="53"/>
+      <c r="A281" s="52"/>
       <c r="B281" s="26"/>
       <c r="D281" s="15" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="53"/>
+      <c r="A282" s="52"/>
       <c r="B282" s="26"/>
       <c r="D282" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="53"/>
+      <c r="A283" s="52"/>
       <c r="B283" s="21"/>
       <c r="C283" s="15" t="s">
         <v>266</v>
@@ -10937,7 +10941,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="53"/>
+      <c r="A284" s="52"/>
       <c r="B284" s="20"/>
       <c r="C284" s="3"/>
       <c r="D284" s="15" t="s">
@@ -10945,7 +10949,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="53"/>
+      <c r="A285" s="52"/>
       <c r="B285" s="20"/>
       <c r="C285" s="3"/>
       <c r="D285" s="15" t="s">
@@ -10953,7 +10957,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="53"/>
+      <c r="A286" s="52"/>
       <c r="B286" s="20"/>
       <c r="C286" s="3"/>
       <c r="D286" s="15" t="s">
@@ -10961,7 +10965,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="53"/>
+      <c r="A287" s="52"/>
       <c r="B287" s="20"/>
       <c r="C287" s="3"/>
       <c r="D287" s="15" t="s">
@@ -10969,7 +10973,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="53"/>
+      <c r="A288" s="52"/>
       <c r="B288" s="20"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -10979,7 +10983,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="52">
+      <c r="A290" s="53">
         <v>43423</v>
       </c>
       <c r="B290" s="26"/>
@@ -10991,7 +10995,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="52"/>
+      <c r="A291" s="53"/>
       <c r="B291" s="26"/>
       <c r="C291" s="15" t="s">
         <v>250</v>
@@ -11001,14 +11005,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="52"/>
+      <c r="A292" s="53"/>
       <c r="B292" s="26"/>
       <c r="D292" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="52"/>
+      <c r="A293" s="53"/>
       <c r="B293" s="21"/>
       <c r="C293" s="15" t="s">
         <v>266</v>
@@ -11018,7 +11022,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="52"/>
+      <c r="A294" s="53"/>
       <c r="B294" s="20"/>
       <c r="C294" s="3"/>
       <c r="D294" s="15" t="s">
@@ -11026,7 +11030,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="52"/>
+      <c r="A295" s="53"/>
       <c r="B295" s="20"/>
       <c r="C295" s="15" t="s">
         <v>478</v>
@@ -11036,14 +11040,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="52"/>
+      <c r="A296" s="53"/>
       <c r="B296" s="20"/>
       <c r="D296" s="15" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="52"/>
+      <c r="A297" s="53"/>
       <c r="B297" s="20"/>
       <c r="C297" s="3"/>
       <c r="D297" s="15" t="s">
@@ -11051,7 +11055,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="52"/>
+      <c r="A298" s="53"/>
       <c r="B298" s="20"/>
       <c r="C298" s="3"/>
       <c r="D298" s="15" t="s">
@@ -11059,14 +11063,14 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="52"/>
+      <c r="A299" s="53"/>
       <c r="B299" s="20"/>
       <c r="D299" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="52"/>
+      <c r="A300" s="53"/>
       <c r="B300" s="20"/>
       <c r="C300" s="3"/>
       <c r="D300" s="15" t="s">
@@ -11074,7 +11078,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="52"/>
+      <c r="A301" s="53"/>
       <c r="B301" s="20"/>
       <c r="C301" t="s">
         <v>336</v>
@@ -11084,7 +11088,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="52">
+      <c r="A303" s="53">
         <v>43424</v>
       </c>
       <c r="B303" s="26"/>
@@ -11096,7 +11100,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="52"/>
+      <c r="A304" s="53"/>
       <c r="B304" s="26"/>
       <c r="C304" s="15" t="s">
         <v>598</v>
@@ -11106,7 +11110,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="52"/>
+      <c r="A305" s="53"/>
       <c r="B305" s="26"/>
       <c r="C305" s="15"/>
       <c r="D305" s="15" t="s">
@@ -11114,14 +11118,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="52"/>
+      <c r="A306" s="53"/>
       <c r="B306" s="26"/>
       <c r="D306" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="52"/>
+      <c r="A307" s="53"/>
       <c r="B307" s="21"/>
       <c r="C307" s="15" t="s">
         <v>266</v>
@@ -11131,7 +11135,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="52"/>
+      <c r="A308" s="53"/>
       <c r="B308" s="20"/>
       <c r="C308" s="3"/>
       <c r="D308" s="15" t="s">
@@ -11139,7 +11143,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="52"/>
+      <c r="A309" s="53"/>
       <c r="B309" s="20"/>
       <c r="C309" s="15" t="s">
         <v>478</v>
@@ -11149,21 +11153,21 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="52"/>
+      <c r="A310" s="53"/>
       <c r="B310" s="20"/>
       <c r="D310" s="15" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="52"/>
+      <c r="A311" s="53"/>
       <c r="B311" s="20"/>
       <c r="D311" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="52"/>
+      <c r="A312" s="53"/>
       <c r="B312" s="20"/>
       <c r="C312" s="3"/>
       <c r="D312" s="15" t="s">
@@ -11171,14 +11175,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="52"/>
+      <c r="A313" s="53"/>
       <c r="B313" s="20"/>
       <c r="D313" s="15" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="52"/>
+      <c r="A314" s="53"/>
       <c r="B314" s="20"/>
       <c r="C314" s="3"/>
       <c r="D314" s="15" t="s">
@@ -11186,7 +11190,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="52"/>
+      <c r="A315" s="53"/>
       <c r="B315" s="20"/>
       <c r="C315" t="s">
         <v>336</v>
@@ -11196,10 +11200,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="52">
+      <c r="A317" s="53">
         <v>43425</v>
       </c>
-      <c r="B317" s="56" t="s">
+      <c r="B317" s="55" t="s">
         <v>605</v>
       </c>
       <c r="C317" t="s">
@@ -11210,24 +11214,24 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="52"/>
-      <c r="B318" s="56"/>
+      <c r="A318" s="53"/>
+      <c r="B318" s="55"/>
       <c r="C318" s="3"/>
       <c r="D318" s="15" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="52"/>
-      <c r="B319" s="56"/>
+      <c r="A319" s="53"/>
+      <c r="B319" s="55"/>
       <c r="C319" s="3"/>
       <c r="D319" s="15" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="52"/>
-      <c r="B320" s="56"/>
+      <c r="A320" s="53"/>
+      <c r="B320" s="55"/>
       <c r="C320" s="15" t="s">
         <v>266</v>
       </c>
@@ -11236,23 +11240,23 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="52"/>
-      <c r="B321" s="56"/>
+      <c r="A321" s="53"/>
+      <c r="B321" s="55"/>
       <c r="C321" s="3"/>
       <c r="D321" s="15" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="52"/>
-      <c r="B322" s="56"/>
+      <c r="A322" s="53"/>
+      <c r="B322" s="55"/>
       <c r="D322" s="15" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="52"/>
-      <c r="B323" s="56"/>
+      <c r="A323" s="53"/>
+      <c r="B323" s="55"/>
       <c r="C323" s="15" t="s">
         <v>610</v>
       </c>
@@ -11261,38 +11265,38 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="52"/>
-      <c r="B324" s="56"/>
+      <c r="A324" s="53"/>
+      <c r="B324" s="55"/>
       <c r="D324" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="52"/>
-      <c r="B325" s="56"/>
+      <c r="A325" s="53"/>
+      <c r="B325" s="55"/>
       <c r="C325" s="3"/>
       <c r="D325" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="52"/>
-      <c r="B326" s="56"/>
+      <c r="A326" s="53"/>
+      <c r="B326" s="55"/>
       <c r="D326" s="15" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="52"/>
-      <c r="B327" s="56"/>
+      <c r="A327" s="53"/>
+      <c r="B327" s="55"/>
       <c r="C327" s="3"/>
       <c r="D327" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="52"/>
-      <c r="B328" s="56"/>
+      <c r="A328" s="53"/>
+      <c r="B328" s="55"/>
       <c r="C328" t="s">
         <v>336</v>
       </c>
@@ -11301,7 +11305,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="52">
+      <c r="A330" s="53">
         <v>43426</v>
       </c>
       <c r="B330" s="26"/>
@@ -11313,7 +11317,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="52"/>
+      <c r="A331" s="53"/>
       <c r="B331" s="26"/>
       <c r="C331" s="3"/>
       <c r="D331" s="15" t="s">
@@ -11321,7 +11325,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="52"/>
+      <c r="A332" s="53"/>
       <c r="B332" s="26"/>
       <c r="C332" s="3"/>
       <c r="D332" s="15" t="s">
@@ -11329,7 +11333,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="52"/>
+      <c r="A333" s="53"/>
       <c r="B333" s="26"/>
       <c r="C333" s="15" t="s">
         <v>266</v>
@@ -11339,7 +11343,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="52"/>
+      <c r="A334" s="53"/>
       <c r="B334" s="26"/>
       <c r="C334" s="3"/>
       <c r="D334" s="15" t="s">
@@ -11347,21 +11351,21 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="52"/>
+      <c r="A335" s="53"/>
       <c r="B335" s="26"/>
       <c r="D335" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="52"/>
+      <c r="A336" s="53"/>
       <c r="B336" s="26"/>
       <c r="D336" s="15" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="52"/>
+      <c r="A337" s="53"/>
       <c r="B337" s="26"/>
       <c r="C337" s="15" t="s">
         <v>616</v>
@@ -11371,14 +11375,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="52"/>
+      <c r="A338" s="53"/>
       <c r="B338" s="20"/>
       <c r="D338" s="15" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="52"/>
+      <c r="A339" s="53"/>
       <c r="B339" s="20"/>
       <c r="C339" s="3"/>
       <c r="D339" s="15" t="s">
@@ -11386,7 +11390,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="52"/>
+      <c r="A340" s="53"/>
       <c r="B340" s="20"/>
       <c r="C340" s="3"/>
       <c r="D340" s="18" t="s">
@@ -11394,7 +11398,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="52"/>
+      <c r="A341" s="53"/>
       <c r="B341" s="20"/>
       <c r="C341" s="3"/>
       <c r="D341" s="15" t="s">
@@ -11402,7 +11406,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="52"/>
+      <c r="A342" s="53"/>
       <c r="B342" s="20"/>
       <c r="C342" t="s">
         <v>336</v>
@@ -11412,7 +11416,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="52">
+      <c r="A344" s="53">
         <v>43427</v>
       </c>
       <c r="B344" s="26"/>
@@ -11424,7 +11428,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="52"/>
+      <c r="A345" s="53"/>
       <c r="B345" s="26"/>
       <c r="C345" s="3" t="s">
         <v>619</v>
@@ -11434,7 +11438,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="52"/>
+      <c r="A346" s="53"/>
       <c r="B346" s="26"/>
       <c r="C346" s="3"/>
       <c r="D346" s="15" t="s">
@@ -11442,7 +11446,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="52"/>
+      <c r="A347" s="53"/>
       <c r="B347" s="26"/>
       <c r="C347" s="3"/>
       <c r="D347" s="15" t="s">
@@ -11450,7 +11454,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="52"/>
+      <c r="A348" s="53"/>
       <c r="B348" s="26"/>
       <c r="C348" s="3"/>
       <c r="D348" s="15" t="s">
@@ -11458,7 +11462,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="52"/>
+      <c r="A349" s="53"/>
       <c r="B349" s="26"/>
       <c r="C349" s="15" t="s">
         <v>266</v>
@@ -11468,7 +11472,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="52"/>
+      <c r="A350" s="53"/>
       <c r="B350" s="26"/>
       <c r="C350" s="15" t="s">
         <v>616</v>
@@ -11478,14 +11482,14 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="52"/>
+      <c r="A351" s="53"/>
       <c r="B351" s="26"/>
       <c r="D351" s="15" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="52"/>
+      <c r="A352" s="53"/>
       <c r="B352" s="26"/>
       <c r="C352" s="3"/>
       <c r="D352" s="15" t="s">
@@ -11493,14 +11497,14 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="52"/>
+      <c r="A353" s="53"/>
       <c r="B353" s="26"/>
       <c r="D353" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="52"/>
+      <c r="A354" s="53"/>
       <c r="B354" s="20"/>
       <c r="C354" s="3"/>
       <c r="D354" s="15" t="s">
@@ -11508,7 +11512,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="52"/>
+      <c r="A355" s="53"/>
       <c r="B355" s="20"/>
       <c r="C355" t="s">
         <v>336</v>
@@ -11518,7 +11522,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="53">
+      <c r="A357" s="52">
         <v>43428</v>
       </c>
       <c r="B357" s="26"/>
@@ -11530,14 +11534,14 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="53"/>
+      <c r="A358" s="52"/>
       <c r="B358" s="26"/>
       <c r="D358" s="15" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="53"/>
+      <c r="A359" s="52"/>
       <c r="B359" s="26"/>
       <c r="C359" s="3"/>
       <c r="D359" s="15" t="s">
@@ -11545,7 +11549,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="53"/>
+      <c r="A360" s="52"/>
       <c r="B360" s="26"/>
       <c r="C360" s="3"/>
       <c r="D360" s="15" t="s">
@@ -11553,7 +11557,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="53"/>
+      <c r="A361" s="52"/>
       <c r="B361" s="26"/>
       <c r="C361" s="3"/>
       <c r="D361" s="15" t="s">
@@ -11561,7 +11565,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="53"/>
+      <c r="A362" s="52"/>
       <c r="B362" s="26"/>
       <c r="C362" s="3"/>
       <c r="D362" s="15" t="s">
@@ -11569,7 +11573,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="53"/>
+      <c r="A363" s="52"/>
       <c r="B363" s="26"/>
       <c r="C363" s="3"/>
       <c r="D363" s="15" t="s">
@@ -11577,7 +11581,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="53"/>
+      <c r="A364" s="52"/>
       <c r="B364" s="26"/>
       <c r="C364" s="3"/>
       <c r="D364" s="15" t="s">
@@ -11585,21 +11589,21 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="53"/>
+      <c r="A365" s="52"/>
       <c r="B365" s="26"/>
       <c r="D365" s="15" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="53"/>
+      <c r="A366" s="52"/>
       <c r="B366" s="26"/>
       <c r="D366" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="53"/>
+      <c r="A367" s="52"/>
       <c r="B367" s="26"/>
       <c r="C367" s="3"/>
       <c r="D367" s="15" t="s">
@@ -11607,14 +11611,14 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="53"/>
+      <c r="A368" s="52"/>
       <c r="B368" s="26"/>
       <c r="D368" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="53"/>
+      <c r="A369" s="52"/>
       <c r="B369" s="20"/>
       <c r="C369" s="3"/>
       <c r="D369" s="15" t="s">
@@ -11622,7 +11626,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="53"/>
+      <c r="A370" s="52"/>
       <c r="B370" s="20"/>
       <c r="C370" s="3"/>
       <c r="D370" s="15" t="s">
@@ -11630,7 +11634,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="53">
+      <c r="A372" s="52">
         <v>43429</v>
       </c>
       <c r="B372" s="26"/>
@@ -11642,7 +11646,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="53"/>
+      <c r="A373" s="52"/>
       <c r="B373" s="26"/>
       <c r="C373" s="3" t="s">
         <v>619</v>
@@ -11652,7 +11656,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="53"/>
+      <c r="A374" s="52"/>
       <c r="B374" s="26"/>
       <c r="C374" s="3"/>
       <c r="D374" s="15" t="s">
@@ -11660,7 +11664,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="53"/>
+      <c r="A375" s="52"/>
       <c r="B375" s="26"/>
       <c r="C375" s="3"/>
       <c r="D375" s="15" t="s">
@@ -11668,7 +11672,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="53"/>
+      <c r="A376" s="52"/>
       <c r="B376" s="26"/>
       <c r="C376" s="3"/>
       <c r="D376" s="15" t="s">
@@ -11676,7 +11680,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="53"/>
+      <c r="A377" s="52"/>
       <c r="B377" s="26"/>
       <c r="C377" s="15" t="s">
         <v>266</v>
@@ -11686,7 +11690,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="53"/>
+      <c r="A378" s="52"/>
       <c r="B378" s="26"/>
       <c r="C378" s="3"/>
       <c r="D378" s="15" t="s">
@@ -11694,14 +11698,14 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="53"/>
+      <c r="A379" s="52"/>
       <c r="B379" s="26"/>
       <c r="D379" s="15" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="53"/>
+      <c r="A380" s="52"/>
       <c r="B380" s="26"/>
       <c r="C380" s="3"/>
       <c r="D380" s="15" t="s">
@@ -11709,7 +11713,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="53"/>
+      <c r="A381" s="52"/>
       <c r="B381" s="26"/>
       <c r="C381" s="3"/>
       <c r="D381" s="15" t="s">
@@ -11717,14 +11721,14 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="53"/>
+      <c r="A382" s="52"/>
       <c r="B382" s="26"/>
       <c r="D382" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="53"/>
+      <c r="A383" s="52"/>
       <c r="B383" s="20"/>
       <c r="C383" t="s">
         <v>368</v>
@@ -11734,7 +11738,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="53"/>
+      <c r="A384" s="52"/>
       <c r="B384" s="20"/>
       <c r="C384" t="s">
         <v>336</v>
@@ -11744,7 +11748,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="52">
+      <c r="A386" s="53">
         <v>43430</v>
       </c>
       <c r="B386" s="26"/>
@@ -11756,7 +11760,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="52"/>
+      <c r="A387" s="53"/>
       <c r="B387" s="26"/>
       <c r="C387" s="3" t="s">
         <v>639</v>
@@ -11766,7 +11770,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="52"/>
+      <c r="A388" s="53"/>
       <c r="B388" s="26"/>
       <c r="C388" s="3"/>
       <c r="D388" s="15" t="s">
@@ -11774,7 +11778,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="52"/>
+      <c r="A389" s="53"/>
       <c r="B389" s="26"/>
       <c r="C389" s="15" t="s">
         <v>266</v>
@@ -11784,7 +11788,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="52"/>
+      <c r="A390" s="53"/>
       <c r="B390" s="26"/>
       <c r="C390" s="15" t="s">
         <v>616</v>
@@ -11794,8 +11798,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="52"/>
-      <c r="B391" s="56" t="s">
+      <c r="A391" s="53"/>
+      <c r="B391" s="55" t="s">
         <v>649</v>
       </c>
       <c r="D391" s="15" t="s">
@@ -11803,48 +11807,48 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="52"/>
-      <c r="B392" s="56"/>
+      <c r="A392" s="53"/>
+      <c r="B392" s="55"/>
       <c r="C392" s="3"/>
       <c r="D392" s="15" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="52"/>
-      <c r="B393" s="56"/>
+      <c r="A393" s="53"/>
+      <c r="B393" s="55"/>
       <c r="C393" s="3"/>
       <c r="D393" s="15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="52"/>
-      <c r="B394" s="56"/>
+      <c r="A394" s="53"/>
+      <c r="B394" s="55"/>
       <c r="D394" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="52"/>
-      <c r="B395" s="56"/>
+      <c r="A395" s="53"/>
+      <c r="B395" s="55"/>
       <c r="C395" s="3"/>
       <c r="D395" s="15" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="52"/>
-      <c r="B396" s="56"/>
+      <c r="A396" s="53"/>
+      <c r="B396" s="55"/>
       <c r="D396" s="15" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="52">
+      <c r="A398" s="53">
         <v>43431</v>
       </c>
-      <c r="B398" s="56" t="s">
+      <c r="B398" s="55" t="s">
         <v>648</v>
       </c>
       <c r="C398" t="s">
@@ -11855,8 +11859,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="52"/>
-      <c r="B399" s="56"/>
+      <c r="A399" s="53"/>
+      <c r="B399" s="55"/>
       <c r="C399" s="3" t="s">
         <v>639</v>
       </c>
@@ -11865,16 +11869,16 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="52"/>
-      <c r="B400" s="56"/>
+      <c r="A400" s="53"/>
+      <c r="B400" s="55"/>
       <c r="C400" s="3"/>
       <c r="D400" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="52"/>
-      <c r="B401" s="56"/>
+      <c r="A401" s="53"/>
+      <c r="B401" s="55"/>
       <c r="C401" s="15" t="s">
         <v>266</v>
       </c>
@@ -11883,55 +11887,55 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="52"/>
-      <c r="B402" s="56"/>
+      <c r="A402" s="53"/>
+      <c r="B402" s="55"/>
       <c r="C402" s="3"/>
       <c r="D402" s="15" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="52"/>
-      <c r="B403" s="56"/>
+      <c r="A403" s="53"/>
+      <c r="B403" s="55"/>
       <c r="C403" s="3"/>
       <c r="D403" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="52"/>
-      <c r="B404" s="56"/>
+      <c r="A404" s="53"/>
+      <c r="B404" s="55"/>
       <c r="D404" s="15" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="52"/>
-      <c r="B405" s="56"/>
+      <c r="A405" s="53"/>
+      <c r="B405" s="55"/>
       <c r="C405" s="3"/>
       <c r="D405" s="15" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="52"/>
-      <c r="B406" s="56"/>
+      <c r="A406" s="53"/>
+      <c r="B406" s="55"/>
       <c r="C406" s="3"/>
       <c r="D406" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="52"/>
-      <c r="B407" s="56"/>
+      <c r="A407" s="53"/>
+      <c r="B407" s="55"/>
       <c r="C407" s="3"/>
       <c r="D407" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="52"/>
-      <c r="B408" s="56"/>
+      <c r="A408" s="53"/>
+      <c r="B408" s="55"/>
       <c r="C408" t="s">
         <v>336</v>
       </c>
@@ -11940,10 +11944,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="52">
+      <c r="A410" s="53">
         <v>43432</v>
       </c>
-      <c r="B410" s="56"/>
+      <c r="B410" s="55"/>
       <c r="C410" t="s">
         <v>642</v>
       </c>
@@ -11952,8 +11956,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="52"/>
-      <c r="B411" s="56"/>
+      <c r="A411" s="53"/>
+      <c r="B411" s="55"/>
       <c r="C411" s="3" t="s">
         <v>657</v>
       </c>
@@ -11962,8 +11966,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="52"/>
-      <c r="B412" s="56"/>
+      <c r="A412" s="53"/>
+      <c r="B412" s="55"/>
       <c r="C412" s="15" t="s">
         <v>266</v>
       </c>
@@ -11972,63 +11976,63 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="52"/>
-      <c r="B413" s="56"/>
+      <c r="A413" s="53"/>
+      <c r="B413" s="55"/>
       <c r="C413" s="3"/>
       <c r="D413" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="52"/>
-      <c r="B414" s="56"/>
+      <c r="A414" s="53"/>
+      <c r="B414" s="55"/>
       <c r="C414" s="3"/>
       <c r="D414" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="52"/>
-      <c r="B415" s="56"/>
+      <c r="A415" s="53"/>
+      <c r="B415" s="55"/>
       <c r="D415" s="15" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="52"/>
-      <c r="B416" s="56"/>
+      <c r="A416" s="53"/>
+      <c r="B416" s="55"/>
       <c r="D416" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="52"/>
-      <c r="B417" s="56"/>
+      <c r="A417" s="53"/>
+      <c r="B417" s="55"/>
       <c r="C417" s="3"/>
       <c r="D417" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="52"/>
-      <c r="B418" s="56"/>
+      <c r="A418" s="53"/>
+      <c r="B418" s="55"/>
       <c r="D418" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="52"/>
-      <c r="B419" s="56"/>
+      <c r="A419" s="53"/>
+      <c r="B419" s="55"/>
       <c r="C419" s="3"/>
       <c r="D419" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="52">
+      <c r="A421" s="53">
         <v>43433</v>
       </c>
-      <c r="B421" s="56" t="s">
+      <c r="B421" s="55" t="s">
         <v>665</v>
       </c>
       <c r="C421" t="s">
@@ -12039,8 +12043,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="52"/>
-      <c r="B422" s="56"/>
+      <c r="A422" s="53"/>
+      <c r="B422" s="55"/>
       <c r="C422" s="3" t="s">
         <v>671</v>
       </c>
@@ -12049,8 +12053,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="52"/>
-      <c r="B423" s="56"/>
+      <c r="A423" s="53"/>
+      <c r="B423" s="55"/>
       <c r="C423" s="15" t="s">
         <v>266</v>
       </c>
@@ -12059,70 +12063,70 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="52"/>
-      <c r="B424" s="56"/>
+      <c r="A424" s="53"/>
+      <c r="B424" s="55"/>
       <c r="C424" s="3"/>
       <c r="D424" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="52"/>
-      <c r="B425" s="56"/>
+      <c r="A425" s="53"/>
+      <c r="B425" s="55"/>
       <c r="C425" s="3"/>
       <c r="D425" s="15" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="52"/>
-      <c r="B426" s="56"/>
+      <c r="A426" s="53"/>
+      <c r="B426" s="55"/>
       <c r="D426" s="15" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="52"/>
-      <c r="B427" s="56"/>
+      <c r="A427" s="53"/>
+      <c r="B427" s="55"/>
       <c r="D427" s="15" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="52"/>
-      <c r="B428" s="56"/>
+      <c r="A428" s="53"/>
+      <c r="B428" s="55"/>
       <c r="D428" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="52"/>
-      <c r="B429" s="56"/>
+      <c r="A429" s="53"/>
+      <c r="B429" s="55"/>
       <c r="C429" s="3"/>
       <c r="D429" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="52"/>
-      <c r="B430" s="56"/>
+      <c r="A430" s="53"/>
+      <c r="B430" s="55"/>
       <c r="D430" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="52"/>
-      <c r="B431" s="56"/>
+      <c r="A431" s="53"/>
+      <c r="B431" s="55"/>
       <c r="C431" s="3"/>
       <c r="D431" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="52">
+      <c r="A433" s="53">
         <v>43434</v>
       </c>
-      <c r="B433" s="56"/>
+      <c r="B433" s="55"/>
       <c r="C433" t="s">
         <v>674</v>
       </c>
@@ -12131,8 +12135,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="52"/>
-      <c r="B434" s="56"/>
+      <c r="A434" s="53"/>
+      <c r="B434" s="55"/>
       <c r="C434" t="s">
         <v>676</v>
       </c>
@@ -12141,8 +12145,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="52"/>
-      <c r="B435" s="56"/>
+      <c r="A435" s="53"/>
+      <c r="B435" s="55"/>
       <c r="C435" s="15" t="s">
         <v>266</v>
       </c>
@@ -12151,40 +12155,40 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="52"/>
-      <c r="B436" s="56"/>
+      <c r="A436" s="53"/>
+      <c r="B436" s="55"/>
       <c r="D436" s="15" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="52"/>
-      <c r="B437" s="56"/>
+      <c r="A437" s="53"/>
+      <c r="B437" s="55"/>
       <c r="D437" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="52"/>
-      <c r="B438" s="56"/>
+      <c r="A438" s="53"/>
+      <c r="B438" s="55"/>
       <c r="C438" s="3"/>
       <c r="D438" s="15" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="52"/>
-      <c r="B439" s="56"/>
+      <c r="A439" s="53"/>
+      <c r="B439" s="55"/>
       <c r="C439" s="3"/>
       <c r="D439" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="53">
+      <c r="A441" s="52">
         <v>43435</v>
       </c>
-      <c r="B441" s="56"/>
+      <c r="B441" s="55"/>
       <c r="C441" t="s">
         <v>674</v>
       </c>
@@ -12193,75 +12197,75 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="53"/>
-      <c r="B442" s="56"/>
+      <c r="A442" s="52"/>
+      <c r="B442" s="55"/>
       <c r="D442" s="15" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="53"/>
-      <c r="B443" s="56"/>
+      <c r="A443" s="52"/>
+      <c r="B443" s="55"/>
       <c r="D443" s="15" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="53"/>
-      <c r="B444" s="56"/>
+      <c r="A444" s="52"/>
+      <c r="B444" s="55"/>
       <c r="C444" s="3"/>
       <c r="D444" s="15" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="53"/>
-      <c r="B445" s="56"/>
+      <c r="A445" s="52"/>
+      <c r="B445" s="55"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="53"/>
-      <c r="B446" s="56"/>
+      <c r="A446" s="52"/>
+      <c r="B446" s="55"/>
       <c r="C446" s="3"/>
       <c r="D446" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="53"/>
-      <c r="B447" s="56"/>
+      <c r="A447" s="52"/>
+      <c r="B447" s="55"/>
       <c r="D447" s="15" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="53"/>
-      <c r="B448" s="56"/>
+      <c r="A448" s="52"/>
+      <c r="B448" s="55"/>
       <c r="D448" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="53"/>
-      <c r="B449" s="56"/>
+      <c r="A449" s="52"/>
+      <c r="B449" s="55"/>
       <c r="C449" s="3"/>
       <c r="D449" s="15" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="53"/>
-      <c r="B450" s="56"/>
+      <c r="A450" s="52"/>
+      <c r="B450" s="55"/>
       <c r="C450" s="3"/>
       <c r="D450" s="15" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="53">
+      <c r="A452" s="52">
         <v>43436</v>
       </c>
       <c r="B452" s="26"/>
@@ -12273,21 +12277,21 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="53"/>
+      <c r="A453" s="52"/>
       <c r="B453" s="26"/>
       <c r="D453" s="15" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="53"/>
+      <c r="A454" s="52"/>
       <c r="B454" s="26"/>
       <c r="D454" s="15" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="53"/>
+      <c r="A455" s="52"/>
       <c r="B455" s="26"/>
       <c r="C455" s="3"/>
       <c r="D455" s="15" t="s">
@@ -12295,7 +12299,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="53"/>
+      <c r="A456" s="52"/>
       <c r="B456" s="26" t="s">
         <v>701</v>
       </c>
@@ -12305,28 +12309,28 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="53"/>
+      <c r="A457" s="52"/>
       <c r="B457" s="26"/>
       <c r="D457" s="15" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="53"/>
+      <c r="A458" s="52"/>
       <c r="B458" s="26"/>
       <c r="D458" s="15" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="53"/>
+      <c r="A459" s="52"/>
       <c r="C459" s="3"/>
       <c r="D459" s="15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="53"/>
+      <c r="A460" s="52"/>
       <c r="B460" s="26" t="s">
         <v>696</v>
       </c>
@@ -12336,10 +12340,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="52">
+      <c r="A462" s="53">
         <v>43437</v>
       </c>
-      <c r="B462" s="55" t="s">
+      <c r="B462" s="56" t="s">
         <v>710</v>
       </c>
       <c r="C462" t="s">
@@ -12350,8 +12354,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="52"/>
-      <c r="B463" s="55"/>
+      <c r="A463" s="53"/>
+      <c r="B463" s="56"/>
       <c r="C463" t="s">
         <v>698</v>
       </c>
@@ -12360,22 +12364,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="52"/>
-      <c r="B464" s="55"/>
+      <c r="A464" s="53"/>
+      <c r="B464" s="56"/>
       <c r="D464" s="15" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="52"/>
-      <c r="B465" s="55"/>
+      <c r="A465" s="53"/>
+      <c r="B465" s="56"/>
       <c r="D465" s="15" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="52"/>
-      <c r="B466" s="55"/>
+      <c r="A466" s="53"/>
+      <c r="B466" s="56"/>
       <c r="C466" s="15" t="s">
         <v>266</v>
       </c>
@@ -12384,16 +12388,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="52"/>
-      <c r="B467" s="55"/>
+      <c r="A467" s="53"/>
+      <c r="B467" s="56"/>
       <c r="C467" s="15"/>
       <c r="D467" s="15" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="52"/>
-      <c r="B468" s="55" t="s">
+      <c r="A468" s="53"/>
+      <c r="B468" s="56" t="s">
         <v>711</v>
       </c>
       <c r="D468" s="15" t="s">
@@ -12401,30 +12405,30 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="52"/>
-      <c r="B469" s="56"/>
+      <c r="A469" s="53"/>
+      <c r="B469" s="55"/>
       <c r="C469" s="3"/>
       <c r="D469" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E469" s="54" t="s">
+      <c r="E469" s="62" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="52"/>
-      <c r="B470" s="56"/>
+      <c r="A470" s="53"/>
+      <c r="B470" s="55"/>
       <c r="C470" s="3"/>
       <c r="D470" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="E470" s="54"/>
+      <c r="E470" s="62"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="52">
+      <c r="A472" s="53">
         <v>43438</v>
       </c>
-      <c r="B472" s="55" t="s">
+      <c r="B472" s="56" t="s">
         <v>742</v>
       </c>
       <c r="C472" t="s">
@@ -12433,58 +12437,58 @@
       <c r="D472" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E472" s="54" t="s">
+      <c r="E472" s="62" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="52"/>
-      <c r="B473" s="56"/>
+      <c r="A473" s="53"/>
+      <c r="B473" s="55"/>
       <c r="D473" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="E473" s="54"/>
+      <c r="E473" s="62"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="52"/>
-      <c r="B474" s="56"/>
+      <c r="A474" s="53"/>
+      <c r="B474" s="55"/>
       <c r="C474" t="s">
         <v>719</v>
       </c>
       <c r="D474" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E474" s="54"/>
+      <c r="E474" s="62"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="52"/>
-      <c r="B475" s="56"/>
+      <c r="A475" s="53"/>
+      <c r="B475" s="55"/>
       <c r="C475" s="15" t="s">
         <v>718</v>
       </c>
       <c r="D475" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="E475" s="54"/>
+      <c r="E475" s="62"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="52"/>
-      <c r="B476" s="56"/>
+      <c r="A476" s="53"/>
+      <c r="B476" s="55"/>
       <c r="D476" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E476" s="54"/>
+      <c r="E476" s="62"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="52"/>
-      <c r="B477" s="56"/>
+      <c r="A477" s="53"/>
+      <c r="B477" s="55"/>
       <c r="D477" s="15" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="52"/>
-      <c r="B478" s="56"/>
+      <c r="A478" s="53"/>
+      <c r="B478" s="55"/>
       <c r="C478" s="3"/>
       <c r="D478" s="15" t="s">
         <v>412</v>
@@ -12494,8 +12498,8 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="52"/>
-      <c r="B479" s="56"/>
+      <c r="A479" s="53"/>
+      <c r="B479" s="55"/>
       <c r="C479" s="3"/>
       <c r="D479" s="15" t="s">
         <v>737</v>
@@ -12503,10 +12507,10 @@
       <c r="E479" s="51"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="52">
+      <c r="A481" s="53">
         <v>43439</v>
       </c>
-      <c r="B481" s="55" t="s">
+      <c r="B481" s="56" t="s">
         <v>741</v>
       </c>
       <c r="C481" t="s">
@@ -12515,20 +12519,20 @@
       <c r="D481" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E481" s="54" t="s">
+      <c r="E481" s="62" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="52"/>
-      <c r="B482" s="56"/>
+      <c r="A482" s="53"/>
+      <c r="B482" s="55"/>
       <c r="D482" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E482" s="54"/>
+      <c r="E482" s="62"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="52"/>
+      <c r="A483" s="53"/>
       <c r="B483" s="33" t="s">
         <v>740</v>
       </c>
@@ -12538,46 +12542,46 @@
       <c r="D483" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="E483" s="54"/>
+      <c r="E483" s="62"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="52"/>
+      <c r="A484" s="53"/>
       <c r="B484" s="26"/>
       <c r="D484" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E484" s="54"/>
+      <c r="E484" s="62"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="52"/>
+      <c r="A485" s="53"/>
       <c r="B485" s="26"/>
       <c r="D485" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="E485" s="54"/>
+      <c r="E485" s="62"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="52"/>
+      <c r="A486" s="53"/>
       <c r="B486" s="26"/>
       <c r="D486" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="E486" s="54" t="s">
+      <c r="E486" s="62" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="52"/>
+      <c r="A487" s="53"/>
       <c r="B487" s="34" t="s">
         <v>378</v>
       </c>
       <c r="D487" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E487" s="54"/>
+      <c r="E487" s="62"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="52">
+      <c r="A489" s="53">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -12589,7 +12593,7 @@
       <c r="E489" s="5"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="52"/>
+      <c r="A490" s="53"/>
       <c r="B490" s="26"/>
       <c r="D490" s="15" t="s">
         <v>751</v>
@@ -12597,7 +12601,7 @@
       <c r="E490" s="5"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="52"/>
+      <c r="A491" s="53"/>
       <c r="B491" s="33" t="s">
         <v>740</v>
       </c>
@@ -12610,7 +12614,7 @@
       <c r="E491" s="5"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="52"/>
+      <c r="A492" s="53"/>
       <c r="B492" s="26"/>
       <c r="D492" s="15" t="s">
         <v>736</v>
@@ -12618,28 +12622,28 @@
       <c r="E492" s="5"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="52"/>
+      <c r="A493" s="53"/>
       <c r="B493" s="26"/>
       <c r="D493" s="15" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="52"/>
+      <c r="A494" s="53"/>
       <c r="B494" s="26"/>
       <c r="D494" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="52"/>
+      <c r="A495" s="53"/>
       <c r="B495" s="26"/>
       <c r="D495" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="52"/>
+      <c r="A496" s="53"/>
       <c r="B496" s="26"/>
       <c r="C496" s="3"/>
       <c r="D496" s="15" t="s">
@@ -12647,10 +12651,10 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="52">
+      <c r="A498" s="53">
         <v>43441</v>
       </c>
-      <c r="B498" s="55"/>
+      <c r="B498" s="56"/>
       <c r="C498" t="s">
         <v>663</v>
       </c>
@@ -12660,15 +12664,15 @@
       <c r="E498" s="5"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="52"/>
-      <c r="B499" s="56"/>
+      <c r="A499" s="53"/>
+      <c r="B499" s="55"/>
       <c r="D499" s="15" t="s">
         <v>739</v>
       </c>
       <c r="E499" s="5"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="52"/>
+      <c r="A500" s="53"/>
       <c r="B500" s="33" t="s">
         <v>740</v>
       </c>
@@ -12678,7 +12682,7 @@
       <c r="E500" s="5"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="52"/>
+      <c r="A501" s="53"/>
       <c r="B501" s="26"/>
       <c r="C501" s="15" t="s">
         <v>718</v>
@@ -12689,7 +12693,7 @@
       <c r="E501" s="5"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="52"/>
+      <c r="A502" s="53"/>
       <c r="B502" s="26"/>
       <c r="D502" s="15" t="s">
         <v>769</v>
@@ -12697,21 +12701,21 @@
       <c r="E502" s="5"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="52"/>
+      <c r="A503" s="53"/>
       <c r="B503" s="26"/>
       <c r="D503" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="52"/>
+      <c r="A504" s="53"/>
       <c r="B504" s="26"/>
       <c r="D504" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="53">
+      <c r="A506" s="52">
         <v>43442</v>
       </c>
       <c r="B506" s="35"/>
@@ -12723,14 +12727,14 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="53"/>
+      <c r="A507" s="52"/>
       <c r="B507" s="26"/>
       <c r="D507" s="15" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="53"/>
+      <c r="A508" s="52"/>
       <c r="B508" s="26"/>
       <c r="C508" s="3"/>
       <c r="D508" s="15" t="s">
@@ -12738,35 +12742,35 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="53"/>
+      <c r="A509" s="52"/>
       <c r="B509" s="26"/>
       <c r="D509" s="15" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="53"/>
+      <c r="A510" s="52"/>
       <c r="B510" s="26"/>
       <c r="D510" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="53"/>
+      <c r="A511" s="52"/>
       <c r="B511" s="26"/>
       <c r="D511" s="15" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="53"/>
+      <c r="A512" s="52"/>
       <c r="B512" s="26"/>
       <c r="D512" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="53">
+      <c r="A514" s="52">
         <v>43443</v>
       </c>
       <c r="B514" s="35"/>
@@ -12775,7 +12779,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="53"/>
+      <c r="A515" s="52"/>
       <c r="B515" s="35"/>
       <c r="C515" t="s">
         <v>474</v>
@@ -12785,14 +12789,14 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="53"/>
+      <c r="A516" s="52"/>
       <c r="B516" s="26"/>
       <c r="D516" s="15" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="53"/>
+      <c r="A517" s="52"/>
       <c r="B517" s="26"/>
       <c r="C517" s="3"/>
       <c r="D517" s="15" t="s">
@@ -12800,7 +12804,7 @@
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="53"/>
+      <c r="A518" s="52"/>
       <c r="B518" s="26"/>
       <c r="C518" s="3"/>
       <c r="D518" s="15" t="s">
@@ -12808,42 +12812,42 @@
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="53"/>
+      <c r="A519" s="52"/>
       <c r="B519" s="26"/>
       <c r="D519" s="15" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="53"/>
+      <c r="A520" s="52"/>
       <c r="B520" s="26"/>
       <c r="D520" s="15" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="53"/>
+      <c r="A521" s="52"/>
       <c r="B521" s="26"/>
       <c r="D521" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="53"/>
+      <c r="A522" s="52"/>
       <c r="B522" s="26"/>
       <c r="D522" s="15" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="53"/>
+      <c r="A523" s="52"/>
       <c r="B523" s="26"/>
       <c r="D523" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="52">
+      <c r="A525" s="53">
         <v>43444</v>
       </c>
       <c r="B525" s="35" t="s">
@@ -12857,8 +12861,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="52"/>
-      <c r="B526" s="55" t="s">
+      <c r="A526" s="53"/>
+      <c r="B526" s="56" t="s">
         <v>785</v>
       </c>
       <c r="D526" s="15" t="s">
@@ -12866,29 +12870,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="52"/>
-      <c r="B527" s="55"/>
+      <c r="A527" s="53"/>
+      <c r="B527" s="56"/>
       <c r="D527" s="15" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="52"/>
-      <c r="B528" s="55"/>
+      <c r="A528" s="53"/>
+      <c r="B528" s="56"/>
       <c r="D528" s="15" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="52"/>
-      <c r="B529" s="55"/>
+      <c r="A529" s="53"/>
+      <c r="B529" s="56"/>
       <c r="D529" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="52"/>
-      <c r="B530" s="55"/>
+      <c r="A530" s="53"/>
+      <c r="B530" s="56"/>
       <c r="C530" s="15" t="s">
         <v>718</v>
       </c>
@@ -12897,43 +12901,43 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="52"/>
-      <c r="B531" s="55"/>
+      <c r="A531" s="53"/>
+      <c r="B531" s="56"/>
       <c r="C531" s="3"/>
       <c r="D531" s="15" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="52"/>
+      <c r="A532" s="53"/>
       <c r="B532" s="26"/>
       <c r="D532" s="15" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="52"/>
+      <c r="A533" s="53"/>
       <c r="B533" s="26"/>
       <c r="D533" s="15" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="52"/>
+      <c r="A534" s="53"/>
       <c r="B534" s="26"/>
       <c r="D534" s="15" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="52"/>
+      <c r="A535" s="53"/>
       <c r="B535" s="26"/>
       <c r="D535" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="52">
+      <c r="A537" s="53">
         <v>43445</v>
       </c>
       <c r="B537" s="35"/>
@@ -12945,8 +12949,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="52"/>
-      <c r="B538" s="55" t="s">
+      <c r="A538" s="53"/>
+      <c r="B538" s="56" t="s">
         <v>788</v>
       </c>
       <c r="D538" s="15" t="s">
@@ -12954,15 +12958,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="52"/>
-      <c r="B539" s="55"/>
+      <c r="A539" s="53"/>
+      <c r="B539" s="56"/>
       <c r="D539" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="52"/>
-      <c r="B540" s="55"/>
+      <c r="A540" s="53"/>
+      <c r="B540" s="56"/>
       <c r="C540" s="15" t="s">
         <v>718</v>
       </c>
@@ -12971,57 +12975,57 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="52"/>
-      <c r="B541" s="55"/>
+      <c r="A541" s="53"/>
+      <c r="B541" s="56"/>
       <c r="D541" s="15" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="52"/>
-      <c r="B542" s="55"/>
+      <c r="A542" s="53"/>
+      <c r="B542" s="56"/>
       <c r="D542" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="52"/>
-      <c r="B543" s="55"/>
+      <c r="A543" s="53"/>
+      <c r="B543" s="56"/>
       <c r="C543" s="3"/>
       <c r="D543" s="15" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="52"/>
+      <c r="A544" s="53"/>
       <c r="B544" s="26"/>
       <c r="D544" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="52"/>
+      <c r="A545" s="53"/>
       <c r="B545" s="26"/>
       <c r="D545" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="52"/>
+      <c r="A546" s="53"/>
       <c r="B546" s="26"/>
       <c r="D546" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="52"/>
+      <c r="A547" s="53"/>
       <c r="B547" s="26"/>
       <c r="D547" s="15" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="52">
+      <c r="A549" s="53">
         <v>43446</v>
       </c>
       <c r="B549" s="35"/>
@@ -13033,8 +13037,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="52"/>
-      <c r="B550" s="55" t="s">
+      <c r="A550" s="53"/>
+      <c r="B550" s="56" t="s">
         <v>838</v>
       </c>
       <c r="D550" s="15" t="s">
@@ -13042,15 +13046,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="52"/>
-      <c r="B551" s="55"/>
+      <c r="A551" s="53"/>
+      <c r="B551" s="56"/>
       <c r="D551" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="52"/>
-      <c r="B552" s="55"/>
+      <c r="A552" s="53"/>
+      <c r="B552" s="56"/>
       <c r="C552" s="15" t="s">
         <v>718</v>
       </c>
@@ -13059,50 +13063,50 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="52"/>
-      <c r="B553" s="55"/>
+      <c r="A553" s="53"/>
+      <c r="B553" s="56"/>
       <c r="D553" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="52"/>
-      <c r="B554" s="55"/>
+      <c r="A554" s="53"/>
+      <c r="B554" s="56"/>
       <c r="C554" s="3"/>
       <c r="D554" s="15" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="52"/>
+      <c r="A555" s="53"/>
       <c r="B555" s="26"/>
       <c r="D555" s="15" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="52"/>
+      <c r="A556" s="53"/>
       <c r="B556" s="26"/>
       <c r="D556" s="15" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="52"/>
+      <c r="A557" s="53"/>
       <c r="B557" s="26"/>
       <c r="D557" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="52"/>
+      <c r="A558" s="53"/>
       <c r="B558" s="26"/>
       <c r="D558" s="15" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="52">
+      <c r="A560" s="53">
         <v>43447</v>
       </c>
       <c r="B560" s="35"/>
@@ -13114,8 +13118,8 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="52"/>
-      <c r="B561" s="55" t="s">
+      <c r="A561" s="53"/>
+      <c r="B561" s="56" t="s">
         <v>870</v>
       </c>
       <c r="D561" s="15" t="s">
@@ -13123,15 +13127,15 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="52"/>
-      <c r="B562" s="55"/>
+      <c r="A562" s="53"/>
+      <c r="B562" s="56"/>
       <c r="D562" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="52"/>
-      <c r="B563" s="55"/>
+      <c r="A563" s="53"/>
+      <c r="B563" s="56"/>
       <c r="C563" s="15" t="s">
         <v>718</v>
       </c>
@@ -13140,22 +13144,22 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="52"/>
-      <c r="B564" s="55"/>
+      <c r="A564" s="53"/>
+      <c r="B564" s="56"/>
       <c r="C564" s="3"/>
       <c r="D564" s="15" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="52"/>
-      <c r="B565" s="55"/>
+      <c r="A565" s="53"/>
+      <c r="B565" s="56"/>
       <c r="D565" s="15" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="52"/>
+      <c r="A566" s="53"/>
       <c r="B566" s="44" t="s">
         <v>872</v>
       </c>
@@ -13165,35 +13169,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="52"/>
+      <c r="A567" s="53"/>
       <c r="B567" s="26"/>
       <c r="D567" s="15" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="52"/>
+      <c r="A568" s="53"/>
       <c r="B568" s="26"/>
       <c r="D568" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="52"/>
+      <c r="A569" s="53"/>
       <c r="B569" s="26"/>
       <c r="D569" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="52"/>
+      <c r="A570" s="53"/>
       <c r="B570" s="26"/>
       <c r="D570" s="15" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="52">
+      <c r="A572" s="53">
         <v>43448</v>
       </c>
       <c r="B572" s="35"/>
@@ -13202,7 +13206,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="52"/>
+      <c r="A573" s="53"/>
       <c r="B573" s="35"/>
       <c r="C573" t="s">
         <v>873</v>
@@ -13212,8 +13216,8 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="52"/>
-      <c r="B574" s="55" t="s">
+      <c r="A574" s="53"/>
+      <c r="B574" s="56" t="s">
         <v>879</v>
       </c>
       <c r="D574" s="15" t="s">
@@ -13221,22 +13225,22 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="52"/>
-      <c r="B575" s="55"/>
+      <c r="A575" s="53"/>
+      <c r="B575" s="56"/>
       <c r="D575" s="15" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="52"/>
-      <c r="B576" s="55"/>
+      <c r="A576" s="53"/>
+      <c r="B576" s="56"/>
       <c r="D576" s="15" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="52"/>
-      <c r="B577" s="55"/>
+      <c r="A577" s="53"/>
+      <c r="B577" s="56"/>
       <c r="C577" s="15" t="s">
         <v>718</v>
       </c>
@@ -13245,30 +13249,30 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="52"/>
-      <c r="B578" s="55"/>
+      <c r="A578" s="53"/>
+      <c r="B578" s="56"/>
       <c r="C578" s="3"/>
       <c r="D578" s="15" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="52"/>
-      <c r="B579" s="55"/>
+      <c r="A579" s="53"/>
+      <c r="B579" s="56"/>
       <c r="C579" s="3"/>
       <c r="D579" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="52"/>
-      <c r="B580" s="55"/>
+      <c r="A580" s="53"/>
+      <c r="B580" s="56"/>
       <c r="D580" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="52"/>
+      <c r="A581" s="53"/>
       <c r="B581" s="44"/>
       <c r="C581" s="3"/>
       <c r="D581" s="15" t="s">
@@ -13276,21 +13280,21 @@
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="52"/>
+      <c r="A582" s="53"/>
       <c r="B582" s="26"/>
       <c r="D582" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="52"/>
+      <c r="A583" s="53"/>
       <c r="B583" s="26"/>
       <c r="D583" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="52"/>
+      <c r="A584" s="53"/>
       <c r="B584" s="26"/>
       <c r="D584" s="15" t="s">
         <v>871</v>
@@ -13301,7 +13305,7 @@
       <c r="B585" s="26"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="53">
+      <c r="A586" s="52">
         <v>43449</v>
       </c>
       <c r="B586" s="35"/>
@@ -13310,7 +13314,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="53"/>
+      <c r="A587" s="52"/>
       <c r="B587" s="35"/>
       <c r="C587" t="s">
         <v>885</v>
@@ -13320,8 +13324,8 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="53"/>
-      <c r="B588" s="55" t="s">
+      <c r="A588" s="52"/>
+      <c r="B588" s="56" t="s">
         <v>898</v>
       </c>
       <c r="D588" s="15" t="s">
@@ -13329,66 +13333,66 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="53"/>
-      <c r="B589" s="55"/>
+      <c r="A589" s="52"/>
+      <c r="B589" s="56"/>
       <c r="D589" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="53"/>
-      <c r="B590" s="55"/>
+      <c r="A590" s="52"/>
+      <c r="B590" s="56"/>
       <c r="C590" s="3"/>
       <c r="D590" s="15" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="53"/>
-      <c r="B591" s="55"/>
+      <c r="A591" s="52"/>
+      <c r="B591" s="56"/>
       <c r="C591" s="3"/>
       <c r="D591" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="53"/>
-      <c r="B592" s="55"/>
+      <c r="A592" s="52"/>
+      <c r="B592" s="56"/>
       <c r="D592" s="15" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="53"/>
-      <c r="B593" s="55"/>
+      <c r="A593" s="52"/>
+      <c r="B593" s="56"/>
       <c r="C593" s="3"/>
       <c r="D593" s="15" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="53"/>
-      <c r="B594" s="55"/>
+      <c r="A594" s="52"/>
+      <c r="B594" s="56"/>
       <c r="D594" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="53"/>
-      <c r="B595" s="55"/>
+      <c r="A595" s="52"/>
+      <c r="B595" s="56"/>
       <c r="D595" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="53"/>
-      <c r="B596" s="55"/>
+      <c r="A596" s="52"/>
+      <c r="B596" s="56"/>
       <c r="D596" s="15" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="53">
+      <c r="A598" s="52">
         <v>43450</v>
       </c>
       <c r="B598" s="35"/>
@@ -13397,7 +13401,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="53"/>
+      <c r="A599" s="52"/>
       <c r="B599" s="35"/>
       <c r="C599" t="s">
         <v>893</v>
@@ -13407,35 +13411,35 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="53"/>
+      <c r="A600" s="52"/>
       <c r="B600" s="35"/>
       <c r="D600" s="18" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="53"/>
+      <c r="A601" s="52"/>
       <c r="B601" s="35"/>
       <c r="D601" s="15" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="53"/>
+      <c r="A602" s="52"/>
       <c r="B602" s="35"/>
       <c r="D602" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="53"/>
+      <c r="A603" s="52"/>
       <c r="B603" s="35"/>
       <c r="D603" s="15" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="53"/>
+      <c r="A604" s="52"/>
       <c r="B604" s="35"/>
       <c r="C604" s="3"/>
       <c r="D604" s="15" t="s">
@@ -13443,7 +13447,7 @@
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="53"/>
+      <c r="A605" s="52"/>
       <c r="B605" s="35"/>
       <c r="C605" s="3"/>
       <c r="D605" s="15" t="s">
@@ -13451,7 +13455,7 @@
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="53"/>
+      <c r="A606" s="52"/>
       <c r="B606" s="35"/>
       <c r="C606" s="3"/>
       <c r="D606" s="15" t="s">
@@ -13459,14 +13463,14 @@
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="53"/>
+      <c r="A607" s="52"/>
       <c r="B607" s="35"/>
       <c r="D607" s="15" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="53"/>
+      <c r="A608" s="52"/>
       <c r="B608" s="45"/>
       <c r="C608" s="3"/>
       <c r="D608" s="15" t="s">
@@ -13474,28 +13478,28 @@
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="53"/>
+      <c r="A609" s="52"/>
       <c r="B609" s="26"/>
       <c r="D609" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="53"/>
+      <c r="A610" s="52"/>
       <c r="B610" s="26"/>
       <c r="D610" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="53"/>
+      <c r="A611" s="52"/>
       <c r="B611" s="26"/>
       <c r="D611" s="15" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="52">
+      <c r="A613" s="53">
         <v>43451</v>
       </c>
       <c r="B613" s="35"/>
@@ -13507,14 +13511,14 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="52"/>
+      <c r="A614" s="53"/>
       <c r="B614" s="35"/>
       <c r="D614" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="52"/>
+      <c r="A615" s="53"/>
       <c r="B615" s="35"/>
       <c r="C615" s="15" t="s">
         <v>718</v>
@@ -13524,7 +13528,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="52"/>
+      <c r="A616" s="53"/>
       <c r="B616" s="35"/>
       <c r="C616" s="15"/>
       <c r="D616" s="15" t="s">
@@ -13532,7 +13536,7 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="52"/>
+      <c r="A617" s="53"/>
       <c r="B617" s="35"/>
       <c r="C617" s="3"/>
       <c r="D617" s="15" t="s">
@@ -13540,14 +13544,14 @@
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="52"/>
+      <c r="A618" s="53"/>
       <c r="B618" s="35"/>
       <c r="D618" s="15" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="52"/>
+      <c r="A619" s="53"/>
       <c r="B619" s="47"/>
       <c r="C619" s="3"/>
       <c r="D619" s="15" t="s">
@@ -13555,21 +13559,21 @@
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="52"/>
+      <c r="A620" s="53"/>
       <c r="B620" s="26"/>
       <c r="D620" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="52"/>
+      <c r="A621" s="53"/>
       <c r="B621" s="26"/>
       <c r="D621" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="52">
+      <c r="A623" s="53">
         <v>43452</v>
       </c>
       <c r="B623" s="35"/>
@@ -13581,28 +13585,28 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="52"/>
+      <c r="A624" s="53"/>
       <c r="B624" s="35"/>
       <c r="D624" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="52"/>
+      <c r="A625" s="53"/>
       <c r="B625" s="35"/>
       <c r="D625" s="15" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="52"/>
+      <c r="A626" s="53"/>
       <c r="B626" s="35"/>
       <c r="D626" s="15" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="52"/>
+      <c r="A627" s="53"/>
       <c r="B627" s="35"/>
       <c r="C627" s="15" t="s">
         <v>718</v>
@@ -13612,8 +13616,8 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="52"/>
-      <c r="B628" s="55" t="s">
+      <c r="A628" s="53"/>
+      <c r="B628" s="56" t="s">
         <v>915</v>
       </c>
       <c r="C628" s="3"/>
@@ -13622,40 +13626,40 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="52"/>
-      <c r="B629" s="55"/>
+      <c r="A629" s="53"/>
+      <c r="B629" s="56"/>
       <c r="C629" s="3"/>
       <c r="D629" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="52"/>
-      <c r="B630" s="55"/>
+      <c r="A630" s="53"/>
+      <c r="B630" s="56"/>
       <c r="D630" s="15" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="52"/>
-      <c r="B631" s="55"/>
+      <c r="A631" s="53"/>
+      <c r="B631" s="56"/>
       <c r="C631" s="3"/>
       <c r="D631" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="52"/>
-      <c r="B632" s="55"/>
+      <c r="A632" s="53"/>
+      <c r="B632" s="56"/>
       <c r="D632" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="52">
+      <c r="A634" s="53">
         <v>43453</v>
       </c>
-      <c r="B634" s="55"/>
+      <c r="B634" s="56"/>
       <c r="C634" t="s">
         <v>913</v>
       </c>
@@ -13667,8 +13671,8 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="52"/>
-      <c r="B635" s="55"/>
+      <c r="A635" s="53"/>
+      <c r="B635" s="56"/>
       <c r="C635" t="s">
         <v>911</v>
       </c>
@@ -13677,14 +13681,14 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="52"/>
-      <c r="B636" s="55"/>
+      <c r="A636" s="53"/>
+      <c r="B636" s="56"/>
       <c r="D636" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="52"/>
+      <c r="A637" s="53"/>
       <c r="B637" s="35"/>
       <c r="C637" s="15" t="s">
         <v>718</v>
@@ -13694,7 +13698,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="52"/>
+      <c r="A638" s="53"/>
       <c r="B638" s="35"/>
       <c r="C638" s="3"/>
       <c r="D638" s="15" t="s">
@@ -13702,7 +13706,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="52"/>
+      <c r="A639" s="53"/>
       <c r="B639" s="35"/>
       <c r="C639" s="3"/>
       <c r="D639" s="15" t="s">
@@ -13710,21 +13714,21 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="52"/>
+      <c r="A640" s="53"/>
       <c r="B640" s="35"/>
       <c r="D640" s="15" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="52"/>
+      <c r="A641" s="53"/>
       <c r="B641" s="35"/>
       <c r="D641" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="52"/>
+      <c r="A642" s="53"/>
       <c r="B642" s="48"/>
       <c r="C642" s="3"/>
       <c r="D642" s="15" t="s">
@@ -13732,21 +13736,21 @@
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="52"/>
+      <c r="A643" s="53"/>
       <c r="B643" s="26"/>
       <c r="D643" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="52"/>
+      <c r="A644" s="53"/>
       <c r="B644" s="26"/>
       <c r="D644" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="52">
+      <c r="A646" s="53">
         <v>43454</v>
       </c>
       <c r="B646" s="35"/>
@@ -13758,21 +13762,21 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="52"/>
+      <c r="A647" s="53"/>
       <c r="B647" s="35"/>
       <c r="D647" s="15" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="52"/>
+      <c r="A648" s="53"/>
       <c r="B648" s="35"/>
       <c r="D648" s="15" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="52"/>
+      <c r="A649" s="53"/>
       <c r="B649" s="35"/>
       <c r="C649" s="15" t="s">
         <v>718</v>
@@ -13782,7 +13786,7 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="52"/>
+      <c r="A650" s="53"/>
       <c r="B650" s="35"/>
       <c r="C650" s="3"/>
       <c r="D650" s="15" t="s">
@@ -13790,7 +13794,7 @@
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="52"/>
+      <c r="A651" s="53"/>
       <c r="B651" s="35"/>
       <c r="C651" s="3"/>
       <c r="D651" s="15" t="s">
@@ -13798,14 +13802,14 @@
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="52"/>
+      <c r="A652" s="53"/>
       <c r="B652" s="35"/>
       <c r="D652" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="52"/>
+      <c r="A653" s="53"/>
       <c r="B653" s="48"/>
       <c r="C653" s="3"/>
       <c r="D653" s="15" t="s">
@@ -13813,21 +13817,21 @@
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="52"/>
+      <c r="A654" s="53"/>
       <c r="B654" s="26"/>
       <c r="D654" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="52"/>
+      <c r="A655" s="53"/>
       <c r="B655" s="26"/>
       <c r="D655" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="52">
+      <c r="A657" s="53">
         <v>43455</v>
       </c>
       <c r="B657" s="35"/>
@@ -13839,21 +13843,21 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="52"/>
+      <c r="A658" s="53"/>
       <c r="B658" s="35"/>
       <c r="D658" s="15" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="52"/>
+      <c r="A659" s="53"/>
       <c r="B659" s="35"/>
       <c r="D659" s="15" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="52"/>
+      <c r="A660" s="53"/>
       <c r="B660" s="35"/>
       <c r="C660" s="15" t="s">
         <v>718</v>
@@ -13863,7 +13867,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="52"/>
+      <c r="A661" s="53"/>
       <c r="B661" s="35"/>
       <c r="C661" s="3"/>
       <c r="D661" s="15" t="s">
@@ -13871,28 +13875,28 @@
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="52"/>
+      <c r="A662" s="53"/>
       <c r="B662" s="35"/>
       <c r="D662" s="15" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="52"/>
+      <c r="A663" s="53"/>
       <c r="B663" s="26"/>
       <c r="D663" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="52"/>
+      <c r="A664" s="53"/>
       <c r="B664" s="26"/>
       <c r="D664" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="53">
+      <c r="A666" s="52">
         <v>43456</v>
       </c>
       <c r="B666" s="35"/>
@@ -13904,28 +13908,28 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A667" s="53"/>
+      <c r="A667" s="52"/>
       <c r="B667" s="35"/>
       <c r="D667" s="18" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="53"/>
+      <c r="A668" s="52"/>
       <c r="B668" s="35"/>
       <c r="D668" s="15" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A669" s="53"/>
+      <c r="A669" s="52"/>
       <c r="B669" s="35"/>
       <c r="D669" s="15" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A670" s="53"/>
+      <c r="A670" s="52"/>
       <c r="B670" s="35"/>
       <c r="C670" s="3"/>
       <c r="D670" s="15" t="s">
@@ -13933,7 +13937,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A671" s="53"/>
+      <c r="A671" s="52"/>
       <c r="B671" s="35"/>
       <c r="C671" s="3"/>
       <c r="D671" s="15" t="s">
@@ -13941,7 +13945,7 @@
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A672" s="53"/>
+      <c r="A672" s="52"/>
       <c r="B672" s="35"/>
       <c r="C672" s="3"/>
       <c r="D672" s="15" t="s">
@@ -13949,28 +13953,28 @@
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A673" s="53"/>
+      <c r="A673" s="52"/>
       <c r="B673" s="35"/>
       <c r="D673" s="15" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A674" s="53"/>
+      <c r="A674" s="52"/>
       <c r="B674" s="26"/>
       <c r="D674" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A675" s="53"/>
+      <c r="A675" s="52"/>
       <c r="B675" s="26"/>
       <c r="D675" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A677" s="53">
+      <c r="A677" s="52">
         <v>43457</v>
       </c>
       <c r="B677" s="35"/>
@@ -13982,28 +13986,28 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A678" s="53"/>
+      <c r="A678" s="52"/>
       <c r="B678" s="35"/>
       <c r="D678" s="18" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A679" s="53"/>
+      <c r="A679" s="52"/>
       <c r="B679" s="35"/>
       <c r="D679" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="53"/>
+      <c r="A680" s="52"/>
       <c r="B680" s="35"/>
       <c r="D680" s="15" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A681" s="53"/>
+      <c r="A681" s="52"/>
       <c r="B681" s="35"/>
       <c r="C681" s="3"/>
       <c r="D681" s="15" t="s">
@@ -14011,7 +14015,7 @@
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A682" s="53"/>
+      <c r="A682" s="52"/>
       <c r="B682" s="35"/>
       <c r="C682" s="3"/>
       <c r="D682" s="15" t="s">
@@ -14019,14 +14023,14 @@
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A683" s="53"/>
+      <c r="A683" s="52"/>
       <c r="B683" s="35"/>
       <c r="D683" s="15" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A684" s="53"/>
+      <c r="A684" s="52"/>
       <c r="B684" s="50"/>
       <c r="C684" s="3"/>
       <c r="D684" s="15" t="s">
@@ -14034,21 +14038,21 @@
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="53"/>
+      <c r="A685" s="52"/>
       <c r="B685" s="26"/>
       <c r="D685" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A686" s="53"/>
+      <c r="A686" s="52"/>
       <c r="B686" s="26"/>
       <c r="D686" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="52">
+      <c r="A688" s="53">
         <v>43458</v>
       </c>
       <c r="B688" s="35"/>
@@ -14060,14 +14064,14 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="52"/>
+      <c r="A689" s="53"/>
       <c r="B689" s="35"/>
       <c r="D689" s="15" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="52"/>
+      <c r="A690" s="53"/>
       <c r="B690" s="35"/>
       <c r="C690" s="15" t="s">
         <v>718</v>
@@ -14077,7 +14081,7 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="52"/>
+      <c r="A691" s="53"/>
       <c r="B691" s="35"/>
       <c r="C691" s="3"/>
       <c r="D691" s="15" t="s">
@@ -14085,28 +14089,28 @@
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="52"/>
+      <c r="A692" s="53"/>
       <c r="B692" s="35"/>
       <c r="D692" s="15" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="52"/>
+      <c r="A693" s="53"/>
       <c r="B693" s="35"/>
       <c r="D693" s="15" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="52"/>
+      <c r="A694" s="53"/>
       <c r="B694" s="26"/>
       <c r="D694" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="52">
+      <c r="A696" s="53">
         <v>43459</v>
       </c>
       <c r="B696" s="35"/>
@@ -14118,14 +14122,14 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="52"/>
+      <c r="A697" s="53"/>
       <c r="B697" s="35"/>
       <c r="D697" s="15" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="52"/>
+      <c r="A698" s="53"/>
       <c r="B698" s="35"/>
       <c r="C698" s="15" t="s">
         <v>967</v>
@@ -14135,7 +14139,7 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="52"/>
+      <c r="A699" s="53"/>
       <c r="B699" s="35"/>
       <c r="C699" s="3"/>
       <c r="D699" s="15" t="s">
@@ -14143,28 +14147,28 @@
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="52"/>
+      <c r="A700" s="53"/>
       <c r="B700" s="35"/>
       <c r="D700" s="15" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="52"/>
+      <c r="A701" s="53"/>
       <c r="B701" s="26"/>
       <c r="D701" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="52"/>
+      <c r="A702" s="53"/>
       <c r="B702" s="26"/>
       <c r="D702" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A704" s="52">
+      <c r="A704" s="53">
         <v>43460</v>
       </c>
       <c r="B704" s="35" t="s">
@@ -14178,14 +14182,14 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="52"/>
+      <c r="A705" s="53"/>
       <c r="B705" s="35"/>
       <c r="D705" s="15" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="52"/>
+      <c r="A706" s="53"/>
       <c r="B706" s="35"/>
       <c r="C706" s="15" t="s">
         <v>967</v>
@@ -14195,7 +14199,7 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="52"/>
+      <c r="A707" s="53"/>
       <c r="B707" s="35"/>
       <c r="C707" s="3"/>
       <c r="D707" s="15" t="s">
@@ -14203,21 +14207,21 @@
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="52"/>
+      <c r="A708" s="53"/>
       <c r="B708" s="35"/>
       <c r="D708" s="15" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="52"/>
+      <c r="A709" s="53"/>
       <c r="B709" s="26"/>
       <c r="D709" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="52">
+      <c r="A711" s="53">
         <v>43461</v>
       </c>
       <c r="B711" s="35"/>
@@ -14229,14 +14233,14 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="52"/>
+      <c r="A712" s="53"/>
       <c r="B712" s="35"/>
       <c r="D712" s="15" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="52"/>
+      <c r="A713" s="53"/>
       <c r="B713" s="35"/>
       <c r="C713" s="15" t="s">
         <v>718</v>
@@ -14246,7 +14250,7 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="52"/>
+      <c r="A714" s="53"/>
       <c r="B714" s="35"/>
       <c r="C714" s="3"/>
       <c r="D714" s="15" t="s">
@@ -14254,35 +14258,35 @@
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="52"/>
+      <c r="A715" s="53"/>
       <c r="B715" s="35"/>
       <c r="D715" s="15" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="52"/>
+      <c r="A716" s="53"/>
       <c r="B716" s="35"/>
       <c r="D716" s="15" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="52"/>
+      <c r="A717" s="53"/>
       <c r="B717" s="26"/>
       <c r="D717" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="52"/>
+      <c r="A718" s="53"/>
       <c r="B718" s="26"/>
       <c r="D718" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="52">
+      <c r="A720" s="53">
         <v>43462</v>
       </c>
       <c r="B720" s="35"/>
@@ -14294,14 +14298,14 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="52"/>
+      <c r="A721" s="53"/>
       <c r="B721" s="35"/>
       <c r="D721" s="15" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="52"/>
+      <c r="A722" s="53"/>
       <c r="B722" s="35"/>
       <c r="C722" s="15" t="s">
         <v>718</v>
@@ -14311,28 +14315,28 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="52"/>
+      <c r="A723" s="53"/>
       <c r="B723" s="35"/>
       <c r="D723" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="52"/>
+      <c r="A724" s="53"/>
       <c r="B724" s="26"/>
       <c r="D724" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="52"/>
+      <c r="A725" s="53"/>
       <c r="B725" s="26"/>
       <c r="D725" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A727" s="53">
+      <c r="A727" s="52">
         <v>43463</v>
       </c>
       <c r="B727" s="35"/>
@@ -14344,7 +14348,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="53"/>
+      <c r="A728" s="52"/>
       <c r="B728" s="35"/>
       <c r="C728" s="15" t="s">
         <v>718</v>
@@ -14354,7 +14358,7 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A729" s="53"/>
+      <c r="A729" s="52"/>
       <c r="B729" s="35"/>
       <c r="C729" s="3"/>
       <c r="D729" s="15" t="s">
@@ -14362,28 +14366,28 @@
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A730" s="53"/>
+      <c r="A730" s="52"/>
       <c r="B730" s="35"/>
       <c r="D730" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A731" s="53"/>
+      <c r="A731" s="52"/>
       <c r="B731" s="26"/>
       <c r="D731" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A732" s="53"/>
+      <c r="A732" s="52"/>
       <c r="B732" s="26"/>
       <c r="D732" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A734" s="53">
+      <c r="A734" s="52">
         <v>43464</v>
       </c>
       <c r="B734" s="35"/>
@@ -14392,14 +14396,14 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A735" s="53"/>
+      <c r="A735" s="52"/>
       <c r="B735" s="35"/>
       <c r="D735" s="15" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A736" s="53"/>
+      <c r="A736" s="52"/>
       <c r="B736" s="35"/>
       <c r="C736" s="3"/>
       <c r="D736" s="15" t="s">
@@ -14407,7 +14411,7 @@
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A737" s="53"/>
+      <c r="A737" s="52"/>
       <c r="B737" s="35"/>
       <c r="C737" s="3"/>
       <c r="D737" s="15" t="s">
@@ -14415,14 +14419,14 @@
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A738" s="53"/>
+      <c r="A738" s="52"/>
       <c r="B738" s="35"/>
       <c r="D738" s="15" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A739" s="53"/>
+      <c r="A739" s="52"/>
       <c r="B739" s="50"/>
       <c r="C739" s="3"/>
       <c r="D739" s="15" t="s">
@@ -14430,21 +14434,21 @@
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A740" s="53"/>
+      <c r="A740" s="52"/>
       <c r="B740" s="26"/>
       <c r="D740" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A741" s="53"/>
+      <c r="A741" s="52"/>
       <c r="B741" s="26"/>
       <c r="D741" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="52">
+      <c r="A743" s="53">
         <v>43465</v>
       </c>
       <c r="B743" s="35"/>
@@ -14456,14 +14460,14 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="52"/>
+      <c r="A744" s="53"/>
       <c r="B744" s="35"/>
       <c r="D744" s="15" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="52"/>
+      <c r="A745" s="53"/>
       <c r="B745" s="35"/>
       <c r="C745" s="3"/>
       <c r="D745" s="15" t="s">
@@ -14471,21 +14475,21 @@
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="52"/>
+      <c r="A746" s="53"/>
       <c r="B746" s="35"/>
       <c r="D746" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="52"/>
+      <c r="A747" s="53"/>
       <c r="B747" s="26"/>
       <c r="D747" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="52"/>
+      <c r="A748" s="53"/>
       <c r="B748" s="26" t="s">
         <v>991</v>
       </c>
@@ -14494,7 +14498,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="52">
+      <c r="A750" s="53">
         <v>43466</v>
       </c>
       <c r="B750" s="35"/>
@@ -14503,7 +14507,7 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="52"/>
+      <c r="A751" s="53"/>
       <c r="B751" s="35"/>
       <c r="C751" s="3"/>
       <c r="D751" s="15" t="s">
@@ -14511,28 +14515,28 @@
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="52"/>
+      <c r="A752" s="53"/>
       <c r="B752" s="35"/>
       <c r="D752" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="52"/>
+      <c r="A753" s="53"/>
       <c r="B753" s="35"/>
       <c r="D753" s="15" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="52"/>
+      <c r="A754" s="53"/>
       <c r="B754" s="26"/>
       <c r="D754" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="52"/>
+      <c r="A755" s="53"/>
       <c r="B755" s="26" t="s">
         <v>992</v>
       </c>
@@ -14541,7 +14545,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="52">
+      <c r="A757" s="53">
         <v>43467</v>
       </c>
       <c r="B757" s="35" t="s">
@@ -14555,7 +14559,7 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="52"/>
+      <c r="A758" s="53"/>
       <c r="B758" s="35" t="s">
         <v>1001</v>
       </c>
@@ -14564,7 +14568,7 @@
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="52"/>
+      <c r="A759" s="53"/>
       <c r="B759" s="35" t="s">
         <v>1032</v>
       </c>
@@ -14576,7 +14580,7 @@
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="52"/>
+      <c r="A760" s="53"/>
       <c r="B760" s="35" t="s">
         <v>1033</v>
       </c>
@@ -14585,19 +14589,19 @@
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="52"/>
+      <c r="A761" s="53"/>
       <c r="B761" s="26"/>
       <c r="D761" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="52"/>
+      <c r="A762" s="53"/>
       <c r="B762" s="26"/>
       <c r="D762" s="15"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A764" s="52">
+      <c r="A764" s="53">
         <v>43468</v>
       </c>
       <c r="B764" s="35" t="s">
@@ -14611,14 +14615,14 @@
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A765" s="52"/>
+      <c r="A765" s="53"/>
       <c r="B765" s="35"/>
       <c r="D765" s="15" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A766" s="52"/>
+      <c r="A766" s="53"/>
       <c r="B766" s="35"/>
       <c r="C766" s="15" t="s">
         <v>718</v>
@@ -14628,26 +14632,26 @@
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A767" s="52"/>
+      <c r="A767" s="53"/>
       <c r="B767" s="35"/>
       <c r="D767" s="15" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="52"/>
+      <c r="A768" s="53"/>
       <c r="B768" s="26"/>
       <c r="D768" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="52"/>
+      <c r="A769" s="53"/>
       <c r="B769" s="26"/>
       <c r="D769" s="15"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A771" s="52">
+      <c r="A771" s="53">
         <v>43469</v>
       </c>
       <c r="B771" s="35" t="s">
@@ -14661,7 +14665,7 @@
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A772" s="52"/>
+      <c r="A772" s="53"/>
       <c r="B772" s="35"/>
       <c r="C772" s="15" t="s">
         <v>718</v>
@@ -14671,21 +14675,21 @@
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A773" s="52"/>
+      <c r="A773" s="53"/>
       <c r="B773" s="35"/>
       <c r="D773" s="15" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A774" s="52"/>
+      <c r="A774" s="53"/>
       <c r="B774" s="26"/>
       <c r="D774" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A776" s="53">
+      <c r="A776" s="52">
         <v>43470</v>
       </c>
       <c r="B776" s="35"/>
@@ -14697,14 +14701,14 @@
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A777" s="53"/>
+      <c r="A777" s="52"/>
       <c r="B777" s="35"/>
       <c r="D777" s="15" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A778" s="53"/>
+      <c r="A778" s="52"/>
       <c r="B778" s="35"/>
       <c r="C778" s="3"/>
       <c r="D778" s="15" t="s">
@@ -14712,28 +14716,28 @@
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A779" s="53"/>
+      <c r="A779" s="52"/>
       <c r="B779" s="35"/>
       <c r="D779" s="15" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A780" s="53"/>
+      <c r="A780" s="52"/>
       <c r="B780" s="26"/>
       <c r="D780" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A781" s="53"/>
+      <c r="A781" s="52"/>
       <c r="B781" s="26"/>
       <c r="D781" s="15" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A783" s="53">
+      <c r="A783" s="52">
         <v>43471</v>
       </c>
       <c r="B783" s="35"/>
@@ -14745,21 +14749,21 @@
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A784" s="53"/>
+      <c r="A784" s="52"/>
       <c r="B784" s="35"/>
       <c r="D784" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A785" s="53"/>
+      <c r="A785" s="52"/>
       <c r="B785" s="35"/>
       <c r="D785" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A786" s="53"/>
+      <c r="A786" s="52"/>
       <c r="B786" s="35"/>
       <c r="C786" s="3"/>
       <c r="D786" s="15" t="s">
@@ -14767,7 +14771,7 @@
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A787" s="53"/>
+      <c r="A787" s="52"/>
       <c r="B787" s="35"/>
       <c r="C787" s="3"/>
       <c r="D787" s="15" t="s">
@@ -14775,7 +14779,7 @@
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A788" s="53"/>
+      <c r="A788" s="52"/>
       <c r="B788" s="35"/>
       <c r="C788" s="3"/>
       <c r="D788" s="15" t="s">
@@ -14783,49 +14787,49 @@
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A789" s="53"/>
+      <c r="A789" s="52"/>
       <c r="B789" s="35"/>
       <c r="D789" s="15" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A790" s="53"/>
+      <c r="A790" s="52"/>
       <c r="B790" s="35"/>
       <c r="D790" s="15" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A791" s="53"/>
+      <c r="A791" s="52"/>
       <c r="B791" s="35"/>
       <c r="D791" s="3" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A792" s="53"/>
+      <c r="A792" s="52"/>
       <c r="B792" s="35"/>
       <c r="D792" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A793" s="53"/>
+      <c r="A793" s="52"/>
       <c r="B793" s="35"/>
       <c r="D793" s="15" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A794" s="53"/>
+      <c r="A794" s="52"/>
       <c r="B794" s="26"/>
       <c r="D794" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A796" s="52">
+      <c r="A796" s="53">
         <v>43472</v>
       </c>
       <c r="B796" s="35"/>
@@ -14837,14 +14841,14 @@
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A797" s="52"/>
+      <c r="A797" s="53"/>
       <c r="B797" s="35"/>
       <c r="D797" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A798" s="52"/>
+      <c r="A798" s="53"/>
       <c r="B798" s="35"/>
       <c r="C798" s="15" t="s">
         <v>718</v>
@@ -14854,7 +14858,7 @@
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A799" s="52"/>
+      <c r="A799" s="53"/>
       <c r="B799" s="35"/>
       <c r="C799" s="3"/>
       <c r="D799" s="15" t="s">
@@ -14862,7 +14866,7 @@
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A800" s="52"/>
+      <c r="A800" s="53"/>
       <c r="B800" s="35"/>
       <c r="C800" s="3"/>
       <c r="D800" s="15" t="s">
@@ -14870,84 +14874,84 @@
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A801" s="52"/>
+      <c r="A801" s="53"/>
       <c r="B801" s="35"/>
       <c r="D801" s="3" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A802" s="52"/>
+      <c r="A802" s="53"/>
       <c r="B802" s="35"/>
       <c r="D802" s="15" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A803" s="52"/>
+      <c r="A803" s="53"/>
       <c r="B803" s="35"/>
       <c r="D803" s="15" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A804" s="52"/>
+      <c r="A804" s="53"/>
       <c r="B804" s="35"/>
       <c r="D804" s="15" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A805" s="52"/>
+      <c r="A805" s="53"/>
       <c r="B805" s="35"/>
       <c r="D805" s="15" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A806" s="52"/>
+      <c r="A806" s="53"/>
       <c r="B806" s="35"/>
       <c r="D806" s="15" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A807" s="52"/>
+      <c r="A807" s="53"/>
       <c r="B807" s="35"/>
       <c r="D807" s="15" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A808" s="52"/>
+      <c r="A808" s="53"/>
       <c r="B808" s="35"/>
       <c r="D808" s="15" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A809" s="52"/>
+      <c r="A809" s="53"/>
       <c r="B809" s="35"/>
       <c r="D809" s="15" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A810" s="52"/>
+      <c r="A810" s="53"/>
       <c r="B810" s="35"/>
       <c r="D810" s="15" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A811" s="52"/>
+      <c r="A811" s="53"/>
       <c r="B811" s="26"/>
       <c r="D811" s="15" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A813" s="52">
+      <c r="A813" s="53">
         <v>43473</v>
       </c>
       <c r="B813" s="35"/>
@@ -14959,21 +14963,21 @@
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A814" s="52"/>
+      <c r="A814" s="53"/>
       <c r="B814" s="35"/>
       <c r="D814" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A815" s="52"/>
+      <c r="A815" s="53"/>
       <c r="B815" s="35"/>
       <c r="D815" s="15" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A816" s="52"/>
+      <c r="A816" s="53"/>
       <c r="B816" s="35"/>
       <c r="C816" s="15" t="s">
         <v>718</v>
@@ -14983,7 +14987,7 @@
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A817" s="52"/>
+      <c r="A817" s="53"/>
       <c r="B817" s="35"/>
       <c r="C817" s="3"/>
       <c r="D817" s="15" t="s">
@@ -14991,7 +14995,7 @@
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A818" s="52"/>
+      <c r="A818" s="53"/>
       <c r="B818" s="35"/>
       <c r="C818" s="3"/>
       <c r="D818" s="15" t="s">
@@ -14999,7 +15003,7 @@
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A819" s="52"/>
+      <c r="A819" s="53"/>
       <c r="B819" s="35"/>
       <c r="C819" s="3"/>
       <c r="D819" s="15" t="s">
@@ -15007,35 +15011,35 @@
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A820" s="52"/>
+      <c r="A820" s="53"/>
       <c r="B820" s="35"/>
       <c r="D820" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A821" s="52"/>
+      <c r="A821" s="53"/>
       <c r="B821" s="35"/>
       <c r="D821" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A822" s="52"/>
+      <c r="A822" s="53"/>
       <c r="B822" s="35"/>
       <c r="D822" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A823" s="52"/>
+      <c r="A823" s="53"/>
       <c r="B823" s="35"/>
       <c r="D823" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A824" s="52"/>
+      <c r="A824" s="53"/>
       <c r="B824" s="35"/>
       <c r="D824" s="15" t="s">
         <v>1077</v>
@@ -15047,7 +15051,7 @@
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A826" s="52">
+      <c r="A826" s="53">
         <v>43474</v>
       </c>
       <c r="B826" s="35"/>
@@ -15059,21 +15063,21 @@
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A827" s="52"/>
+      <c r="A827" s="53"/>
       <c r="B827" s="35"/>
       <c r="D827" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A828" s="52"/>
+      <c r="A828" s="53"/>
       <c r="B828" s="35"/>
       <c r="D828" s="15" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A829" s="52"/>
+      <c r="A829" s="53"/>
       <c r="B829" s="35"/>
       <c r="C829" s="15" t="s">
         <v>718</v>
@@ -15083,7 +15087,7 @@
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A830" s="52"/>
+      <c r="A830" s="53"/>
       <c r="B830" s="35"/>
       <c r="C830" s="3"/>
       <c r="D830" s="15" t="s">
@@ -15091,7 +15095,7 @@
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A831" s="52"/>
+      <c r="A831" s="53"/>
       <c r="B831" s="35"/>
       <c r="C831" s="3"/>
       <c r="D831" s="15" t="s">
@@ -15099,49 +15103,49 @@
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A832" s="52"/>
+      <c r="A832" s="53"/>
       <c r="B832" s="35"/>
       <c r="D832" s="15" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A833" s="52"/>
+      <c r="A833" s="53"/>
       <c r="B833" s="35"/>
       <c r="D833" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A834" s="52"/>
+      <c r="A834" s="53"/>
       <c r="B834" s="35"/>
       <c r="D834" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A835" s="52"/>
+      <c r="A835" s="53"/>
       <c r="B835" s="35"/>
       <c r="D835" s="15" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A836" s="52"/>
+      <c r="A836" s="53"/>
       <c r="B836" s="35"/>
       <c r="D836" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A837" s="52"/>
+      <c r="A837" s="53"/>
       <c r="B837" s="35"/>
       <c r="D837" s="15" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A838" s="52"/>
+      <c r="A838" s="53"/>
       <c r="D838" t="s">
         <v>1074</v>
       </c>
@@ -15155,7 +15159,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A840" s="52">
+      <c r="A840" s="53">
         <v>43475</v>
       </c>
       <c r="B840" s="35"/>
@@ -15167,28 +15171,28 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A841" s="52"/>
+      <c r="A841" s="53"/>
       <c r="B841" s="35"/>
       <c r="D841" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A842" s="52"/>
+      <c r="A842" s="53"/>
       <c r="B842" s="35"/>
       <c r="D842" s="15" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A843" s="52"/>
+      <c r="A843" s="53"/>
       <c r="B843" s="35"/>
       <c r="D843" s="15" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A844" s="52"/>
+      <c r="A844" s="53"/>
       <c r="B844" s="35"/>
       <c r="C844" s="15" t="s">
         <v>718</v>
@@ -15198,7 +15202,7 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A845" s="52"/>
+      <c r="A845" s="53"/>
       <c r="B845" s="35"/>
       <c r="C845" s="3"/>
       <c r="D845" s="15" t="s">
@@ -15206,7 +15210,7 @@
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A846" s="52"/>
+      <c r="A846" s="53"/>
       <c r="B846" s="35"/>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -15215,7 +15219,7 @@
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A847" s="52"/>
+      <c r="A847" s="53"/>
       <c r="B847" s="35"/>
       <c r="C847" s="3"/>
       <c r="D847" s="15" t="s">
@@ -15223,49 +15227,49 @@
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A848" s="52"/>
+      <c r="A848" s="53"/>
       <c r="B848" s="35"/>
       <c r="D848" s="15" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A849" s="52"/>
+      <c r="A849" s="53"/>
       <c r="B849" s="35"/>
       <c r="D849" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A850" s="52"/>
+      <c r="A850" s="53"/>
       <c r="B850" s="35"/>
       <c r="D850" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A851" s="52"/>
+      <c r="A851" s="53"/>
       <c r="B851" s="35"/>
       <c r="D851" s="15" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A852" s="52"/>
+      <c r="A852" s="53"/>
       <c r="B852" s="35"/>
       <c r="D852" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A853" s="52"/>
+      <c r="A853" s="53"/>
       <c r="B853" s="35"/>
       <c r="D853" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A855" s="52">
+      <c r="A855" s="53">
         <v>43476</v>
       </c>
       <c r="B855" s="35"/>
@@ -15277,21 +15281,21 @@
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A856" s="52"/>
+      <c r="A856" s="53"/>
       <c r="B856" s="35"/>
       <c r="D856" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A857" s="52"/>
+      <c r="A857" s="53"/>
       <c r="B857" s="35"/>
       <c r="D857" s="15" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A858" s="52"/>
+      <c r="A858" s="53"/>
       <c r="B858" s="35"/>
       <c r="C858" s="15" t="s">
         <v>718</v>
@@ -15301,7 +15305,7 @@
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A859" s="52"/>
+      <c r="A859" s="53"/>
       <c r="B859" s="35"/>
       <c r="C859" s="3"/>
       <c r="D859" s="15" t="s">
@@ -15309,49 +15313,49 @@
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A860" s="52"/>
+      <c r="A860" s="53"/>
       <c r="B860" s="35"/>
       <c r="D860" s="18" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A861" s="52"/>
+      <c r="A861" s="53"/>
       <c r="B861" s="35"/>
       <c r="D861" s="15" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A862" s="52"/>
+      <c r="A862" s="53"/>
       <c r="B862" s="35"/>
       <c r="D862" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A863" s="52"/>
+      <c r="A863" s="53"/>
       <c r="B863" s="35"/>
       <c r="D863" s="15" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A864" s="52"/>
+      <c r="A864" s="53"/>
       <c r="B864" s="35"/>
       <c r="D864" s="15" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A865" s="52"/>
+      <c r="A865" s="53"/>
       <c r="B865" s="35"/>
       <c r="D865" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A866" s="52"/>
+      <c r="A866" s="53"/>
       <c r="B866" s="35"/>
       <c r="D866" s="15" t="s">
         <v>768</v>
@@ -15363,7 +15367,7 @@
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A868" s="53">
+      <c r="A868" s="52">
         <v>43477</v>
       </c>
       <c r="B868" s="35"/>
@@ -15372,28 +15376,28 @@
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A869" s="53"/>
+      <c r="A869" s="52"/>
       <c r="B869" s="35"/>
       <c r="D869" s="15" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A870" s="53"/>
+      <c r="A870" s="52"/>
       <c r="B870" s="35"/>
       <c r="D870" s="15" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A871" s="53"/>
+      <c r="A871" s="52"/>
       <c r="B871" s="35"/>
       <c r="D871" s="15" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A872" s="53"/>
+      <c r="A872" s="52"/>
       <c r="B872" s="35"/>
       <c r="C872" s="3"/>
       <c r="D872" s="15" t="s">
@@ -15401,7 +15405,7 @@
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A873" s="53"/>
+      <c r="A873" s="52"/>
       <c r="B873" s="35"/>
       <c r="C873" s="3"/>
       <c r="D873" s="3" t="s">
@@ -15409,7 +15413,7 @@
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A874" s="53"/>
+      <c r="A874" s="52"/>
       <c r="B874" s="35"/>
       <c r="C874" s="3"/>
       <c r="D874" s="15" t="s">
@@ -15417,7 +15421,7 @@
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A875" s="53"/>
+      <c r="A875" s="52"/>
       <c r="B875" s="35"/>
       <c r="D875" s="15" t="s">
         <v>1043</v>
@@ -15429,10 +15433,10 @@
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A877" s="53">
+      <c r="A877" s="52">
         <v>43478</v>
       </c>
-      <c r="B877" s="62" t="s">
+      <c r="B877" s="54" t="s">
         <v>1119</v>
       </c>
       <c r="D877" s="15" t="s">
@@ -15440,30 +15444,30 @@
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A878" s="53"/>
-      <c r="B878" s="62"/>
+      <c r="A878" s="52"/>
+      <c r="B878" s="54"/>
       <c r="D878" s="18" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A879" s="53"/>
-      <c r="B879" s="62"/>
+      <c r="A879" s="52"/>
+      <c r="B879" s="54"/>
       <c r="C879" s="3"/>
       <c r="D879" s="15" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A880" s="53"/>
-      <c r="B880" s="62"/>
+      <c r="A880" s="52"/>
+      <c r="B880" s="54"/>
       <c r="D880" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A881" s="53"/>
-      <c r="B881" s="62"/>
+      <c r="A881" s="52"/>
+      <c r="B881" s="54"/>
       <c r="D881" s="18" t="s">
         <v>1109</v>
       </c>
@@ -15474,7 +15478,7 @@
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A883" s="52">
+      <c r="A883" s="53">
         <v>43479</v>
       </c>
       <c r="B883" s="35"/>
@@ -15486,14 +15490,14 @@
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A884" s="52"/>
+      <c r="A884" s="53"/>
       <c r="B884" s="35"/>
       <c r="D884" s="15" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A885" s="52"/>
+      <c r="A885" s="53"/>
       <c r="B885" s="35"/>
       <c r="C885" s="15" t="s">
         <v>718</v>
@@ -15503,35 +15507,35 @@
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A886" s="52"/>
+      <c r="A886" s="53"/>
       <c r="B886" s="35"/>
       <c r="D886" s="15" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A887" s="52"/>
+      <c r="A887" s="53"/>
       <c r="B887" s="35"/>
       <c r="D887" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A888" s="52"/>
+      <c r="A888" s="53"/>
       <c r="B888" s="35"/>
       <c r="D888" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A889" s="52"/>
+      <c r="A889" s="53"/>
       <c r="B889" s="35"/>
       <c r="D889" s="15" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A891" s="52">
+      <c r="A891" s="53">
         <v>43480</v>
       </c>
       <c r="B891" s="35"/>
@@ -15543,14 +15547,14 @@
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A892" s="52"/>
+      <c r="A892" s="53"/>
       <c r="B892" s="35"/>
       <c r="D892" s="15" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A893" s="52"/>
+      <c r="A893" s="53"/>
       <c r="B893" s="35"/>
       <c r="C893" s="15" t="s">
         <v>718</v>
@@ -15560,7 +15564,7 @@
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A894" s="52"/>
+      <c r="A894" s="53"/>
       <c r="B894" s="35"/>
       <c r="C894" s="3"/>
       <c r="D894" s="15" t="s">
@@ -15568,28 +15572,28 @@
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A895" s="52"/>
+      <c r="A895" s="53"/>
       <c r="B895" s="35"/>
       <c r="D895" s="18" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A896" s="52"/>
+      <c r="A896" s="53"/>
       <c r="B896" s="35"/>
       <c r="D896" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A897" s="52"/>
+      <c r="A897" s="53"/>
       <c r="B897" s="35"/>
       <c r="D897" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A899" s="52">
+      <c r="A899" s="53">
         <v>43481</v>
       </c>
       <c r="B899" s="35"/>
@@ -15601,7 +15605,7 @@
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A900" s="52"/>
+      <c r="A900" s="53"/>
       <c r="B900" s="35"/>
       <c r="C900" s="15" t="s">
         <v>718</v>
@@ -15611,35 +15615,35 @@
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A901" s="52"/>
+      <c r="A901" s="53"/>
       <c r="B901" s="35"/>
       <c r="D901" s="15" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A902" s="52"/>
+      <c r="A902" s="53"/>
       <c r="B902" s="35"/>
       <c r="D902" s="18" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A903" s="52"/>
+      <c r="A903" s="53"/>
       <c r="B903" s="35"/>
       <c r="D903" s="15" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A904" s="52"/>
+      <c r="A904" s="53"/>
       <c r="B904" s="35"/>
       <c r="D904" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A905" s="52"/>
+      <c r="A905" s="53"/>
       <c r="B905" s="35"/>
       <c r="D905" s="15" t="s">
         <v>768</v>
@@ -15651,7 +15655,7 @@
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A907" s="52">
+      <c r="A907" s="53">
         <v>43482</v>
       </c>
       <c r="B907" s="35"/>
@@ -15663,7 +15667,7 @@
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A908" s="52"/>
+      <c r="A908" s="53"/>
       <c r="B908" s="35"/>
       <c r="C908" s="15" t="s">
         <v>718</v>
@@ -15673,7 +15677,7 @@
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A909" s="52"/>
+      <c r="A909" s="53"/>
       <c r="B909" s="35"/>
       <c r="C909" s="3"/>
       <c r="D909" s="15" t="s">
@@ -15681,42 +15685,42 @@
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A910" s="52"/>
+      <c r="A910" s="53"/>
       <c r="B910" s="35"/>
       <c r="D910" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A911" s="52"/>
+      <c r="A911" s="53"/>
       <c r="B911" s="35"/>
       <c r="D911" s="18" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A912" s="52"/>
+      <c r="A912" s="53"/>
       <c r="B912" s="35"/>
       <c r="D912" s="15" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A913" s="52"/>
+      <c r="A913" s="53"/>
       <c r="B913" s="35"/>
       <c r="D913" s="15" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A914" s="52"/>
+      <c r="A914" s="53"/>
       <c r="B914" s="35"/>
       <c r="D914" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A915" s="52"/>
+      <c r="A915" s="53"/>
       <c r="B915" s="35"/>
       <c r="D915" s="15" t="s">
         <v>768</v>
@@ -15728,7 +15732,7 @@
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A917" s="52">
+      <c r="A917" s="53">
         <v>43483</v>
       </c>
       <c r="B917" s="35"/>
@@ -15740,28 +15744,28 @@
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A918" s="52"/>
+      <c r="A918" s="53"/>
       <c r="B918" s="35"/>
       <c r="D918" s="18" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A919" s="52"/>
+      <c r="A919" s="53"/>
       <c r="B919" s="35"/>
       <c r="D919" s="18" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A920" s="52"/>
+      <c r="A920" s="53"/>
       <c r="B920" s="35"/>
       <c r="D920" s="15" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A921" s="52"/>
+      <c r="A921" s="53"/>
       <c r="B921" s="35"/>
       <c r="C921" s="15" t="s">
         <v>718</v>
@@ -15771,35 +15775,35 @@
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A922" s="52"/>
+      <c r="A922" s="53"/>
       <c r="B922" s="35"/>
       <c r="D922" s="15" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A923" s="52"/>
+      <c r="A923" s="53"/>
       <c r="B923" s="35"/>
       <c r="D923" s="15" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A924" s="52"/>
+      <c r="A924" s="53"/>
       <c r="B924" s="35"/>
       <c r="D924" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A925" s="52"/>
+      <c r="A925" s="53"/>
       <c r="B925" s="35"/>
       <c r="D925" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A927" s="53">
+      <c r="A927" s="52">
         <v>43484</v>
       </c>
       <c r="B927" s="35"/>
@@ -15808,7 +15812,7 @@
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A928" s="53"/>
+      <c r="A928" s="52"/>
       <c r="B928" s="35"/>
       <c r="D928" s="15" t="s">
         <v>1146</v>
@@ -15818,7 +15822,7 @@
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A929" s="53"/>
+      <c r="A929" s="52"/>
       <c r="B929" s="35"/>
       <c r="D929" s="15" t="s">
         <v>1148</v>
@@ -15826,7 +15830,7 @@
       <c r="E929" s="51"/>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A930" s="53"/>
+      <c r="A930" s="52"/>
       <c r="B930" s="35"/>
       <c r="D930" s="15" t="s">
         <v>1152</v>
@@ -15834,14 +15838,14 @@
       <c r="E930" s="17"/>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A931" s="53"/>
+      <c r="A931" s="52"/>
       <c r="B931" s="35"/>
       <c r="D931" s="3" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A932" s="53"/>
+      <c r="A932" s="52"/>
       <c r="B932" s="35"/>
       <c r="C932" s="3"/>
       <c r="D932" s="15" t="s">
@@ -15854,7 +15858,7 @@
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A934" s="53">
+      <c r="A934" s="52">
         <v>43485</v>
       </c>
       <c r="B934" s="35"/>
@@ -15863,14 +15867,14 @@
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A935" s="53"/>
+      <c r="A935" s="52"/>
       <c r="B935" s="35"/>
       <c r="D935" s="18" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A936" s="53"/>
+      <c r="A936" s="52"/>
       <c r="B936" s="35"/>
       <c r="C936" s="3"/>
       <c r="D936" s="15" t="s">
@@ -15878,14 +15882,14 @@
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A937" s="53"/>
+      <c r="A937" s="52"/>
       <c r="B937" s="35"/>
       <c r="D937" s="18" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A938" s="53"/>
+      <c r="A938" s="52"/>
       <c r="B938" s="35"/>
       <c r="D938" s="15" t="s">
         <v>768</v>
@@ -15897,7 +15901,7 @@
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A940" s="52">
+      <c r="A940" s="53">
         <v>43486</v>
       </c>
       <c r="B940" s="35"/>
@@ -15909,21 +15913,21 @@
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A941" s="52"/>
+      <c r="A941" s="53"/>
       <c r="B941" s="35"/>
       <c r="D941" s="15" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A942" s="52"/>
+      <c r="A942" s="53"/>
       <c r="B942" s="35"/>
       <c r="D942" s="15" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A944" s="52">
+      <c r="A944" s="53">
         <v>43487</v>
       </c>
       <c r="B944" s="35"/>
@@ -15932,14 +15936,14 @@
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A945" s="52"/>
+      <c r="A945" s="53"/>
       <c r="B945" s="35"/>
       <c r="D945" s="15" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A946" s="52"/>
+      <c r="A946" s="53"/>
       <c r="B946" s="35"/>
       <c r="C946" s="15" t="s">
         <v>718</v>
@@ -15949,21 +15953,157 @@
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A947" s="52"/>
+      <c r="A947" s="53"/>
       <c r="B947" s="35"/>
       <c r="D947" s="15" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A948" s="52"/>
+      <c r="A948" s="53"/>
       <c r="B948" s="35"/>
       <c r="D948" s="15" t="s">
         <v>768</v>
       </c>
     </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A950" s="53">
+        <v>43488</v>
+      </c>
+      <c r="B950" s="35"/>
+      <c r="C950" t="s">
+        <v>674</v>
+      </c>
+      <c r="D950" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A951" s="53"/>
+      <c r="B951" s="35"/>
+      <c r="D951" s="15" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A952" s="53"/>
+      <c r="B952" s="35"/>
+      <c r="C952" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="D952" s="15" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A953" s="53"/>
+      <c r="B953" s="35"/>
+      <c r="D953" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A954" s="53"/>
+      <c r="B954" s="35"/>
+      <c r="D954" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="117">
+    <mergeCell ref="A950:A954"/>
+    <mergeCell ref="A907:A915"/>
+    <mergeCell ref="A917:A925"/>
+    <mergeCell ref="A891:A897"/>
+    <mergeCell ref="A796:A811"/>
+    <mergeCell ref="A743:A748"/>
+    <mergeCell ref="A750:A755"/>
+    <mergeCell ref="A757:A762"/>
+    <mergeCell ref="A734:A741"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
+    <mergeCell ref="A666:A675"/>
+    <mergeCell ref="A677:A686"/>
+    <mergeCell ref="A688:A694"/>
+    <mergeCell ref="A696:A702"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="A764:A769"/>
+    <mergeCell ref="A646:A655"/>
+    <mergeCell ref="A657:A664"/>
+    <mergeCell ref="A826:A838"/>
+    <mergeCell ref="A813:A824"/>
+    <mergeCell ref="A771:A774"/>
+    <mergeCell ref="A776:A781"/>
+    <mergeCell ref="A783:A794"/>
+    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="A481:A487"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="E481:E485"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="A711:A718"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A506:A512"/>
+    <mergeCell ref="A514:A523"/>
+    <mergeCell ref="A525:A535"/>
+    <mergeCell ref="A537:A547"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B526:B531"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
+    <mergeCell ref="B561:B565"/>
+    <mergeCell ref="A560:A570"/>
+    <mergeCell ref="B588:B596"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="E472:E476"/>
+    <mergeCell ref="E469:E470"/>
+    <mergeCell ref="B462:B467"/>
+    <mergeCell ref="B398:B408"/>
+    <mergeCell ref="A441:A450"/>
+    <mergeCell ref="B441:B450"/>
+    <mergeCell ref="B433:B439"/>
+    <mergeCell ref="A421:A431"/>
+    <mergeCell ref="B421:B431"/>
+    <mergeCell ref="A410:A419"/>
+    <mergeCell ref="B410:B419"/>
+    <mergeCell ref="B468:B470"/>
+    <mergeCell ref="A462:A470"/>
+    <mergeCell ref="A452:A460"/>
+    <mergeCell ref="A398:A408"/>
+    <mergeCell ref="A472:A479"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="A840:A853"/>
+    <mergeCell ref="B574:B580"/>
+    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="A586:A596"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
     <mergeCell ref="A927:A932"/>
     <mergeCell ref="A934:A938"/>
     <mergeCell ref="E928:E929"/>
@@ -15988,98 +16128,6 @@
     <mergeCell ref="A855:A866"/>
     <mergeCell ref="A868:A875"/>
     <mergeCell ref="A877:A881"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="A840:A853"/>
-    <mergeCell ref="B574:B580"/>
-    <mergeCell ref="A572:A584"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="B317:B328"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="E472:E476"/>
-    <mergeCell ref="E469:E470"/>
-    <mergeCell ref="B462:B467"/>
-    <mergeCell ref="B398:B408"/>
-    <mergeCell ref="A441:A450"/>
-    <mergeCell ref="B441:B450"/>
-    <mergeCell ref="B433:B439"/>
-    <mergeCell ref="A421:A431"/>
-    <mergeCell ref="B421:B431"/>
-    <mergeCell ref="A410:A419"/>
-    <mergeCell ref="B410:B419"/>
-    <mergeCell ref="B468:B470"/>
-    <mergeCell ref="A462:A470"/>
-    <mergeCell ref="A452:A460"/>
-    <mergeCell ref="A398:A408"/>
-    <mergeCell ref="A472:A479"/>
-    <mergeCell ref="E478:E479"/>
-    <mergeCell ref="E486:E487"/>
-    <mergeCell ref="B472:B479"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="E481:E485"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="A711:A718"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A506:A512"/>
-    <mergeCell ref="A514:A523"/>
-    <mergeCell ref="A525:A535"/>
-    <mergeCell ref="A537:A547"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
-    <mergeCell ref="B561:B565"/>
-    <mergeCell ref="A560:A570"/>
-    <mergeCell ref="B588:B596"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="A907:A915"/>
-    <mergeCell ref="A917:A925"/>
-    <mergeCell ref="A891:A897"/>
-    <mergeCell ref="A796:A811"/>
-    <mergeCell ref="A743:A748"/>
-    <mergeCell ref="A750:A755"/>
-    <mergeCell ref="A757:A762"/>
-    <mergeCell ref="A734:A741"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
-    <mergeCell ref="A666:A675"/>
-    <mergeCell ref="A677:A686"/>
-    <mergeCell ref="A688:A694"/>
-    <mergeCell ref="A696:A702"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="A764:A769"/>
-    <mergeCell ref="A646:A655"/>
-    <mergeCell ref="A657:A664"/>
-    <mergeCell ref="A826:A838"/>
-    <mergeCell ref="A813:A824"/>
-    <mergeCell ref="A771:A774"/>
-    <mergeCell ref="A776:A781"/>
-    <mergeCell ref="A783:A794"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16092,8 +16140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17469,7 +17517,9 @@
       <c r="B87" t="s">
         <v>1054</v>
       </c>
-      <c r="C87" s="24"/>
+      <c r="C87" s="24">
+        <v>36.950000000000003</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" t="s">
         <v>764</v>
@@ -17696,7 +17746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26 C28 C32">
+  <conditionalFormatting sqref="C28 C26 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B282F730-AE6D-49EB-814A-557E633461C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78598CCC-9D66-4F20-95A7-8A00771706B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="3630" windowWidth="24675" windowHeight="11655" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="1225">
   <si>
     <t>病毒四项</t>
   </si>
@@ -6484,6 +6484,30 @@
   </si>
   <si>
     <t>北京自驾出发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃痛 瑞巴派特片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃痛 瑞巴派特片 尿促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9845,10 +9869,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9903,6 +9927,9 @@
       <c r="F2" s="3" t="s">
         <v>1067</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10342,7 +10369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I954"/>
   <sheetViews>
-    <sheetView topLeftCell="A920" workbookViewId="0">
+    <sheetView topLeftCell="A929" workbookViewId="0">
       <selection activeCell="D957" sqref="D957"/>
     </sheetView>
   </sheetViews>
@@ -17913,8 +17940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19861,7 +19888,7 @@
         <v>1149</v>
       </c>
       <c r="E139" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -19872,7 +19899,7 @@
         <v>1150</v>
       </c>
       <c r="E140" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -19882,6 +19909,9 @@
       <c r="B141" t="s">
         <v>1151</v>
       </c>
+      <c r="E141" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
@@ -19890,6 +19920,9 @@
       <c r="B142" t="s">
         <v>1152</v>
       </c>
+      <c r="E142" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
@@ -19897,6 +19930,9 @@
       </c>
       <c r="B143" t="s">
         <v>1153</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -20066,8 +20102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20418,10 +20454,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:J8"/>
+  <dimension ref="B3:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20586,6 +20622,77 @@
       </c>
       <c r="J8" t="s">
         <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>20190308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>583</v>
+      </c>
+      <c r="J9" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>20190318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>583</v>
+      </c>
+      <c r="E10">
+        <v>96.8</v>
+      </c>
+      <c r="F10">
+        <v>0.21</v>
+      </c>
+      <c r="I10">
+        <v>19.46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>20190320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>583</v>
+      </c>
+      <c r="E11">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I11">
+        <v>16.98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>20190321</v>
+      </c>
+      <c r="C12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E12">
+        <v>216.1</v>
+      </c>
+      <c r="F12">
+        <v>0.23</v>
+      </c>
+      <c r="I12">
+        <v>15.38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -20743,7 +20850,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78598CCC-9D66-4F20-95A7-8A00771706B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CB501-4045-465F-8FFC-9C093CADBA98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="3630" windowWidth="24675" windowHeight="11655" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="1830" windowWidth="24675" windowHeight="13650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1242">
   <si>
     <t>病毒四项</t>
   </si>
@@ -6508,6 +6508,74 @@
   </si>
   <si>
     <t>d16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.63*1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.31*1.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5*1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2-0.6 40-50个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2-0.5 40-50个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6-0.7 3-4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6-0.7 5-6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9-1.0 2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.65*1.13 0.8-0.9 1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.26*0.8 0.8-0.9 1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0-1.1 1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0-1.1 2个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6784,14 +6852,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6804,12 +6878,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7913,7 +7981,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7927,7 +7995,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="49"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10410,7 +10478,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+      <c r="A2" s="47">
         <v>43402</v>
       </c>
       <c r="B2" s="18"/>
@@ -10419,7 +10487,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="18"/>
       <c r="C3" s="14" t="s">
         <v>265</v>
@@ -10429,7 +10497,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>271</v>
@@ -10439,56 +10507,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="18"/>
       <c r="D5" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="18"/>
       <c r="D6" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="18"/>
       <c r="D7" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="18"/>
       <c r="D8" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="18"/>
       <c r="D9" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18"/>
       <c r="D10" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18"/>
       <c r="D11" s="14" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="47">
         <v>43403</v>
       </c>
       <c r="C13" t="s">
@@ -10499,7 +10567,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
         <v>252</v>
@@ -10512,8 +10580,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="50" t="s">
         <v>378</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -10521,8 +10589,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="14" t="s">
         <v>265</v>
       </c>
@@ -10531,8 +10599,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="51"/>
       <c r="C17" t="s">
         <v>269</v>
       </c>
@@ -10541,7 +10609,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>326</v>
@@ -10551,7 +10619,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>328</v>
@@ -10561,7 +10629,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>331</v>
@@ -10571,7 +10639,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>332</v>
@@ -10581,7 +10649,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>309</v>
@@ -10591,7 +10659,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>334</v>
@@ -10601,7 +10669,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="18"/>
       <c r="C24" t="s">
         <v>335</v>
@@ -10611,7 +10679,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45">
+      <c r="A26" s="47">
         <v>43404</v>
       </c>
       <c r="C26" t="s">
@@ -10622,8 +10690,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="52" t="s">
         <v>369</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -10634,8 +10702,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="52"/>
       <c r="C28" t="s">
         <v>299</v>
       </c>
@@ -10644,8 +10712,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="52"/>
       <c r="C29" t="s">
         <v>357</v>
       </c>
@@ -10654,8 +10722,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>265</v>
       </c>
@@ -10664,8 +10732,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="14" t="s">
         <v>370</v>
       </c>
@@ -10674,8 +10742,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="14" t="s">
         <v>326</v>
       </c>
@@ -10687,8 +10755,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="52"/>
       <c r="C33" t="s">
         <v>364</v>
       </c>
@@ -10697,8 +10765,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="52"/>
       <c r="C34" t="s">
         <v>366</v>
       </c>
@@ -10707,7 +10775,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="26"/>
       <c r="C35" s="14" t="s">
         <v>279</v>
@@ -10717,7 +10785,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="26"/>
       <c r="C36" s="14" t="s">
         <v>373</v>
@@ -10727,7 +10795,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>367</v>
@@ -10737,7 +10805,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>335</v>
@@ -10747,7 +10815,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="45">
+      <c r="A40" s="47">
         <v>43405</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -10764,7 +10832,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="19"/>
       <c r="C41" s="14" t="s">
         <v>341</v>
@@ -10774,7 +10842,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="19"/>
       <c r="C42" t="s">
         <v>299</v>
@@ -10784,7 +10852,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="18"/>
       <c r="C43" s="14" t="s">
         <v>265</v>
@@ -10794,7 +10862,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="18"/>
       <c r="C44" s="14" t="s">
         <v>396</v>
@@ -10804,7 +10872,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="21" t="s">
         <v>403</v>
       </c>
@@ -10816,7 +10884,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="18"/>
       <c r="C46" s="14" t="s">
         <v>399</v>
@@ -10826,7 +10894,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="18"/>
       <c r="C47" s="14" t="s">
         <v>289</v>
@@ -10836,7 +10904,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
         <v>400</v>
@@ -10846,7 +10914,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="18"/>
       <c r="C49" s="14" t="s">
         <v>402</v>
@@ -10856,7 +10924,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="18"/>
       <c r="C50" s="14" t="s">
         <v>291</v>
@@ -10866,7 +10934,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="18"/>
       <c r="C51" s="14" t="s">
         <v>293</v>
@@ -10876,7 +10944,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="18"/>
       <c r="C52" s="14" t="s">
         <v>406</v>
@@ -10886,7 +10954,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="18"/>
       <c r="C53" s="14" t="s">
         <v>320</v>
@@ -10896,7 +10964,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="18"/>
       <c r="C54" t="s">
         <v>297</v>
@@ -10906,7 +10974,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="18"/>
       <c r="C55" t="s">
         <v>367</v>
@@ -10916,10 +10984,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="45">
+      <c r="A57" s="47">
         <v>43406</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="53" t="s">
         <v>408</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -10930,8 +10998,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="51"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="14" t="s">
         <v>341</v>
       </c>
@@ -10940,7 +11008,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="19"/>
       <c r="C59" t="s">
         <v>299</v>
@@ -10950,7 +11018,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="18"/>
       <c r="C60" s="14" t="s">
         <v>265</v>
@@ -10960,7 +11028,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
         <v>396</v>
@@ -10970,7 +11038,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="18"/>
       <c r="C62" s="14" t="s">
         <v>399</v>
@@ -10980,7 +11048,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="45"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="18"/>
       <c r="C63" t="s">
         <v>426</v>
@@ -10990,7 +11058,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="18"/>
       <c r="C64" s="14" t="s">
         <v>427</v>
@@ -11000,7 +11068,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="18"/>
       <c r="C65" s="14" t="s">
         <v>309</v>
@@ -11010,7 +11078,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="18"/>
       <c r="C66" s="14" t="s">
         <v>429</v>
@@ -11020,7 +11088,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="45"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
         <v>430</v>
@@ -11030,7 +11098,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="18"/>
       <c r="C68" s="14" t="s">
         <v>432</v>
@@ -11040,7 +11108,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="45"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="18"/>
       <c r="C69" t="s">
         <v>431</v>
@@ -11050,7 +11118,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="45"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="18"/>
       <c r="C70" t="s">
         <v>335</v>
@@ -11060,7 +11128,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="46">
+      <c r="A72" s="45">
         <v>43407</v>
       </c>
       <c r="B72" s="24"/>
@@ -11073,7 +11141,7 @@
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="46"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="24"/>
       <c r="C73" s="14" t="s">
         <v>268</v>
@@ -11084,7 +11152,7 @@
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="46"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="24"/>
       <c r="C74" s="14" t="s">
         <v>309</v>
@@ -11094,14 +11162,14 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="46"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="18"/>
       <c r="D75" s="14" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="18"/>
       <c r="C76" s="16" t="s">
         <v>466</v>
@@ -11111,7 +11179,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="18"/>
       <c r="C77" t="s">
         <v>450</v>
@@ -11121,7 +11189,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="46"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="18"/>
       <c r="C78" t="s">
         <v>274</v>
@@ -11131,7 +11199,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="18"/>
       <c r="C79" t="s">
         <v>279</v>
@@ -11141,7 +11209,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="46"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="18"/>
       <c r="C80" t="s">
         <v>293</v>
@@ -11151,7 +11219,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="18"/>
       <c r="C81" s="16" t="s">
         <v>455</v>
@@ -11161,7 +11229,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="18"/>
       <c r="C82" s="14" t="s">
         <v>470</v>
@@ -11171,7 +11239,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="18"/>
       <c r="C83" t="s">
         <v>471</v>
@@ -11182,7 +11250,7 @@
       <c r="I83" s="25"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="46"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="18"/>
       <c r="C84" t="s">
         <v>472</v>
@@ -11193,7 +11261,7 @@
       <c r="I84" s="25"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="46">
+      <c r="A86" s="45">
         <v>43408</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -11207,14 +11275,14 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="46"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="24"/>
       <c r="D87" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="46"/>
+      <c r="A88" s="45"/>
       <c r="B88" s="24"/>
       <c r="C88" s="14" t="s">
         <v>474</v>
@@ -11224,21 +11292,21 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="46"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="19"/>
       <c r="D89" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="46"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="18"/>
       <c r="D90" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="46"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="18"/>
       <c r="C91" t="s">
         <v>483</v>
@@ -11248,7 +11316,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="46"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="18"/>
       <c r="C92" t="s">
         <v>458</v>
@@ -11258,7 +11326,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="46"/>
+      <c r="A93" s="45"/>
       <c r="B93" s="18"/>
       <c r="C93" t="s">
         <v>459</v>
@@ -11268,7 +11336,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="46"/>
+      <c r="A94" s="45"/>
       <c r="B94" s="18"/>
       <c r="C94" t="s">
         <v>460</v>
@@ -11278,7 +11346,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="46"/>
+      <c r="A95" s="45"/>
       <c r="B95" s="18"/>
       <c r="C95" t="s">
         <v>346</v>
@@ -11288,11 +11356,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="46"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="18"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="46"/>
+      <c r="A97" s="45"/>
       <c r="B97" s="18"/>
       <c r="C97" s="14" t="s">
         <v>291</v>
@@ -11302,7 +11370,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="46"/>
+      <c r="A98" s="45"/>
       <c r="B98" s="18"/>
       <c r="C98" s="14" t="s">
         <v>293</v>
@@ -11312,7 +11380,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="46"/>
+      <c r="A99" s="45"/>
       <c r="B99" s="18"/>
       <c r="C99" s="14" t="s">
         <v>309</v>
@@ -11322,7 +11390,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="46"/>
+      <c r="A100" s="45"/>
       <c r="B100" s="18"/>
       <c r="C100" s="14" t="s">
         <v>320</v>
@@ -11332,7 +11400,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="46"/>
+      <c r="A101" s="45"/>
       <c r="B101" s="18"/>
       <c r="C101" t="s">
         <v>488</v>
@@ -11342,7 +11410,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="46"/>
+      <c r="A102" s="45"/>
       <c r="B102" s="18"/>
       <c r="C102" t="s">
         <v>489</v>
@@ -11352,7 +11420,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="45">
+      <c r="A104" s="47">
         <v>43409</v>
       </c>
       <c r="D104" t="s">
@@ -11360,7 +11428,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="45"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="23" t="s">
         <v>408</v>
       </c>
@@ -11372,7 +11440,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="45"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="4"/>
       <c r="C106" s="14"/>
       <c r="D106" s="16" t="s">
@@ -11380,7 +11448,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="4"/>
       <c r="C107" s="14" t="s">
         <v>341</v>
@@ -11390,7 +11458,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="19"/>
       <c r="C108" s="14" t="s">
         <v>433</v>
@@ -11400,7 +11468,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="18"/>
       <c r="C109" s="14" t="s">
         <v>265</v>
@@ -11410,14 +11478,14 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="45"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="18"/>
       <c r="D110" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="45"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="18"/>
       <c r="C111" s="14" t="s">
         <v>422</v>
@@ -11427,7 +11495,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="45"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="18"/>
       <c r="C112" s="14" t="s">
         <v>420</v>
@@ -11437,7 +11505,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="45"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="18"/>
       <c r="C113" s="14" t="s">
         <v>439</v>
@@ -11447,7 +11515,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="45"/>
+      <c r="A114" s="47"/>
       <c r="B114" s="18"/>
       <c r="C114" s="14" t="s">
         <v>444</v>
@@ -11457,7 +11525,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="45"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="18"/>
       <c r="C115" s="16" t="s">
         <v>443</v>
@@ -11467,7 +11535,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="45"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="18"/>
       <c r="C116" s="16" t="s">
         <v>440</v>
@@ -11477,7 +11545,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="45"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="18"/>
       <c r="C117" s="16" t="s">
         <v>441</v>
@@ -11487,7 +11555,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="45"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="18"/>
       <c r="C118" s="16" t="s">
         <v>442</v>
@@ -11497,7 +11565,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="45">
+      <c r="A120" s="47">
         <v>43410</v>
       </c>
       <c r="B120" s="4"/>
@@ -11509,7 +11577,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="45"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="4"/>
       <c r="C121" s="14" t="s">
         <v>436</v>
@@ -11519,7 +11587,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="45"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="19"/>
       <c r="C122" s="14" t="s">
         <v>295</v>
@@ -11529,7 +11597,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="45"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="19"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14" t="s">
@@ -11537,7 +11605,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="45"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="18"/>
       <c r="C124" s="14" t="s">
         <v>265</v>
@@ -11547,7 +11615,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="45"/>
+      <c r="A125" s="47"/>
       <c r="B125" s="18"/>
       <c r="C125" s="14" t="s">
         <v>446</v>
@@ -11557,7 +11625,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="45"/>
+      <c r="A126" s="47"/>
       <c r="B126" s="18"/>
       <c r="C126" s="14" t="s">
         <v>399</v>
@@ -11567,7 +11635,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="45"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="18"/>
       <c r="C127" s="14" t="s">
         <v>448</v>
@@ -11577,7 +11645,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="45"/>
+      <c r="A128" s="47"/>
       <c r="B128" s="18"/>
       <c r="C128" s="14" t="s">
         <v>477</v>
@@ -11587,7 +11655,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="45"/>
+      <c r="A129" s="47"/>
       <c r="B129" s="18"/>
       <c r="C129" s="14" t="s">
         <v>478</v>
@@ -11597,7 +11665,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="45"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="18"/>
       <c r="C130" s="14" t="s">
         <v>479</v>
@@ -11607,7 +11675,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="45"/>
+      <c r="A131" s="47"/>
       <c r="B131" s="18"/>
       <c r="C131" s="14" t="s">
         <v>490</v>
@@ -11617,7 +11685,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="45"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="18"/>
       <c r="C132" s="14" t="s">
         <v>492</v>
@@ -11627,7 +11695,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="45"/>
+      <c r="A133" s="47"/>
       <c r="B133" s="18"/>
       <c r="C133" s="14" t="s">
         <v>309</v>
@@ -11637,7 +11705,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="45"/>
+      <c r="A134" s="47"/>
       <c r="B134" s="18"/>
       <c r="C134" s="14" t="s">
         <v>283</v>
@@ -11647,7 +11715,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="45"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="18"/>
       <c r="C135" t="s">
         <v>423</v>
@@ -11657,7 +11725,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="45"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="18"/>
       <c r="C136" t="s">
         <v>299</v>
@@ -11667,7 +11735,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="45">
+      <c r="A138" s="47">
         <v>43411</v>
       </c>
       <c r="B138" s="4"/>
@@ -11679,7 +11747,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="45"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="4"/>
       <c r="C139" s="16" t="s">
         <v>336</v>
@@ -11689,7 +11757,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="45"/>
+      <c r="A140" s="47"/>
       <c r="B140" s="4"/>
       <c r="C140" s="14" t="s">
         <v>341</v>
@@ -11699,7 +11767,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="45"/>
+      <c r="A141" s="47"/>
       <c r="B141" s="19"/>
       <c r="C141" t="s">
         <v>499</v>
@@ -11709,7 +11777,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="45"/>
+      <c r="A142" s="47"/>
       <c r="B142" s="19"/>
       <c r="C142" s="14" t="s">
         <v>265</v>
@@ -11719,7 +11787,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="45"/>
+      <c r="A143" s="47"/>
       <c r="B143" s="18"/>
       <c r="C143" t="s">
         <v>501</v>
@@ -11729,14 +11797,14 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="45"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="18"/>
       <c r="D144" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="45"/>
+      <c r="A145" s="47"/>
       <c r="B145" s="18"/>
       <c r="C145" s="14" t="s">
         <v>448</v>
@@ -11746,7 +11814,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="45"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="18"/>
       <c r="C146" s="14" t="s">
         <v>477</v>
@@ -11756,7 +11824,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="45"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="18"/>
       <c r="C147" s="14" t="s">
         <v>420</v>
@@ -11766,7 +11834,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="45"/>
+      <c r="A148" s="47"/>
       <c r="B148" s="18"/>
       <c r="C148" s="14" t="s">
         <v>439</v>
@@ -11776,7 +11844,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="45"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="18"/>
       <c r="C149" s="14" t="s">
         <v>479</v>
@@ -11786,7 +11854,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="45"/>
+      <c r="A150" s="47"/>
       <c r="B150" s="18"/>
       <c r="C150" s="14" t="s">
         <v>291</v>
@@ -11796,7 +11864,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="45"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="18"/>
       <c r="C151" s="14" t="s">
         <v>293</v>
@@ -11806,7 +11874,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="45"/>
+      <c r="A152" s="47"/>
       <c r="B152" s="18"/>
       <c r="C152" s="14" t="s">
         <v>440</v>
@@ -11816,7 +11884,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="45"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="18"/>
       <c r="C153" t="s">
         <v>367</v>
@@ -11826,7 +11894,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="45"/>
+      <c r="A154" s="47"/>
       <c r="B154" s="18"/>
       <c r="C154" t="s">
         <v>335</v>
@@ -11836,7 +11904,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="45">
+      <c r="A156" s="47">
         <v>43412</v>
       </c>
       <c r="B156" s="4"/>
@@ -11848,7 +11916,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="45"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="4"/>
       <c r="C157" s="16" t="s">
         <v>279</v>
@@ -11858,7 +11926,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="45"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="19"/>
       <c r="C158" t="s">
         <v>507</v>
@@ -11868,7 +11936,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="45"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="19"/>
       <c r="C159" s="14" t="s">
         <v>265</v>
@@ -11878,7 +11946,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="45"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="18"/>
       <c r="C160" t="s">
         <v>501</v>
@@ -11888,14 +11956,14 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="45"/>
+      <c r="A161" s="47"/>
       <c r="B161" s="18"/>
       <c r="D161" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="45"/>
+      <c r="A162" s="47"/>
       <c r="B162" s="18"/>
       <c r="C162" s="14" t="s">
         <v>448</v>
@@ -11905,14 +11973,14 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="45"/>
+      <c r="A163" s="47"/>
       <c r="B163" s="18"/>
       <c r="D163" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="45"/>
+      <c r="A164" s="47"/>
       <c r="B164" s="18"/>
       <c r="C164" s="14" t="s">
         <v>477</v>
@@ -11922,7 +11990,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="45"/>
+      <c r="A165" s="47"/>
       <c r="B165" s="18"/>
       <c r="C165" s="14" t="s">
         <v>420</v>
@@ -11932,7 +12000,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="45"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="18"/>
       <c r="C166" s="14" t="s">
         <v>479</v>
@@ -11942,7 +12010,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="45"/>
+      <c r="A167" s="47"/>
       <c r="B167" s="18"/>
       <c r="C167" s="14" t="s">
         <v>490</v>
@@ -11952,7 +12020,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="45"/>
+      <c r="A168" s="47"/>
       <c r="B168" s="18"/>
       <c r="C168" s="14" t="s">
         <v>492</v>
@@ -11962,7 +12030,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="45"/>
+      <c r="A169" s="47"/>
       <c r="B169" s="18"/>
       <c r="C169" s="14" t="s">
         <v>352</v>
@@ -11972,7 +12040,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="45"/>
+      <c r="A170" s="47"/>
       <c r="B170" s="18"/>
       <c r="C170" t="s">
         <v>431</v>
@@ -11982,7 +12050,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="45"/>
+      <c r="A171" s="47"/>
       <c r="B171" s="18"/>
       <c r="C171" t="s">
         <v>335</v>
@@ -11992,7 +12060,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="45">
+      <c r="A173" s="47">
         <v>43413</v>
       </c>
       <c r="B173" s="4"/>
@@ -12004,7 +12072,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="45"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="19"/>
       <c r="C174" s="14" t="s">
         <v>265</v>
@@ -12014,7 +12082,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="45"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="18"/>
       <c r="C175" t="s">
         <v>501</v>
@@ -12024,7 +12092,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="45"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="18"/>
       <c r="C176" s="14" t="s">
         <v>448</v>
@@ -12034,14 +12102,14 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="45"/>
+      <c r="A177" s="47"/>
       <c r="B177" s="18"/>
       <c r="D177" s="14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="45"/>
+      <c r="A178" s="47"/>
       <c r="B178" s="18"/>
       <c r="C178" s="14" t="s">
         <v>477</v>
@@ -12051,7 +12119,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="45"/>
+      <c r="A179" s="47"/>
       <c r="B179" s="18"/>
       <c r="C179" s="14" t="s">
         <v>420</v>
@@ -12061,7 +12129,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="45"/>
+      <c r="A180" s="47"/>
       <c r="B180" s="18"/>
       <c r="C180" s="14" t="s">
         <v>479</v>
@@ -12071,7 +12139,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="45"/>
+      <c r="A181" s="47"/>
       <c r="B181" s="18"/>
       <c r="C181" s="14" t="s">
         <v>490</v>
@@ -12081,7 +12149,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="45"/>
+      <c r="A182" s="47"/>
       <c r="B182" s="18"/>
       <c r="C182" s="14" t="s">
         <v>492</v>
@@ -12091,7 +12159,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="45"/>
+      <c r="A183" s="47"/>
       <c r="B183" s="18"/>
       <c r="C183" s="14" t="s">
         <v>352</v>
@@ -12101,7 +12169,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="45"/>
+      <c r="A184" s="47"/>
       <c r="B184" s="18"/>
       <c r="C184" t="s">
         <v>431</v>
@@ -12111,7 +12179,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="45"/>
+      <c r="A185" s="47"/>
       <c r="B185" s="18"/>
       <c r="C185" t="s">
         <v>335</v>
@@ -12121,7 +12189,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="46">
+      <c r="A187" s="45">
         <v>43414</v>
       </c>
       <c r="B187" s="4"/>
@@ -12133,56 +12201,56 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="46"/>
+      <c r="A188" s="45"/>
       <c r="B188" s="19"/>
       <c r="D188" s="14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="46"/>
+      <c r="A189" s="45"/>
       <c r="B189" s="19"/>
       <c r="D189" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="46"/>
+      <c r="A190" s="45"/>
       <c r="B190" s="18"/>
       <c r="D190" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="46"/>
+      <c r="A191" s="45"/>
       <c r="B191" s="18"/>
       <c r="D191" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="46"/>
+      <c r="A192" s="45"/>
       <c r="B192" s="18"/>
       <c r="D192" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="46"/>
+      <c r="A193" s="45"/>
       <c r="B193" s="18"/>
       <c r="D193" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="46"/>
+      <c r="A194" s="45"/>
       <c r="B194" s="18"/>
       <c r="D194" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="46"/>
+      <c r="A195" s="45"/>
       <c r="B195" s="18"/>
       <c r="C195" t="s">
         <v>431</v>
@@ -12192,7 +12260,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="46"/>
+      <c r="A196" s="45"/>
       <c r="B196" s="18"/>
       <c r="C196" t="s">
         <v>335</v>
@@ -12202,7 +12270,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="46">
+      <c r="A198" s="45">
         <v>43415</v>
       </c>
       <c r="B198" s="4"/>
@@ -12214,14 +12282,14 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="46"/>
+      <c r="A199" s="45"/>
       <c r="B199" s="4"/>
       <c r="D199" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="46"/>
+      <c r="A200" s="45"/>
       <c r="B200" s="19"/>
       <c r="C200" s="14" t="s">
         <v>265</v>
@@ -12231,7 +12299,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="46"/>
+      <c r="A201" s="45"/>
       <c r="B201" s="18"/>
       <c r="C201" s="14" t="s">
         <v>448</v>
@@ -12241,7 +12309,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="46"/>
+      <c r="A202" s="45"/>
       <c r="B202" s="18"/>
       <c r="C202" s="14" t="s">
         <v>477</v>
@@ -12251,7 +12319,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="46"/>
+      <c r="A203" s="45"/>
       <c r="B203" s="18"/>
       <c r="C203" s="14" t="s">
         <v>306</v>
@@ -12261,7 +12329,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="46"/>
+      <c r="A204" s="45"/>
       <c r="B204" s="18"/>
       <c r="C204" s="14" t="s">
         <v>479</v>
@@ -12271,7 +12339,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="46"/>
+      <c r="A205" s="45"/>
       <c r="B205" s="18"/>
       <c r="C205" s="14" t="s">
         <v>525</v>
@@ -12281,7 +12349,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="46"/>
+      <c r="A206" s="45"/>
       <c r="B206" s="18"/>
       <c r="C206" s="14" t="s">
         <v>522</v>
@@ -12291,7 +12359,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="46"/>
+      <c r="A207" s="45"/>
       <c r="B207" s="18"/>
       <c r="C207" t="s">
         <v>523</v>
@@ -12301,7 +12369,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="45">
+      <c r="A209" s="47">
         <v>43416</v>
       </c>
       <c r="B209" s="4"/>
@@ -12313,7 +12381,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="45"/>
+      <c r="A210" s="47"/>
       <c r="B210" s="19"/>
       <c r="C210" s="14" t="s">
         <v>265</v>
@@ -12323,14 +12391,14 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="45"/>
+      <c r="A211" s="47"/>
       <c r="B211" s="18"/>
       <c r="D211" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="45"/>
+      <c r="A212" s="47"/>
       <c r="B212" s="18"/>
       <c r="C212" s="14" t="s">
         <v>477</v>
@@ -12340,28 +12408,28 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="45"/>
+      <c r="A213" s="47"/>
       <c r="B213" s="18"/>
       <c r="D213" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="45"/>
+      <c r="A214" s="47"/>
       <c r="B214" s="18"/>
       <c r="D214" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="45"/>
+      <c r="A215" s="47"/>
       <c r="B215" s="18"/>
       <c r="D215" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="45"/>
+      <c r="A216" s="47"/>
       <c r="B216" s="18"/>
       <c r="C216" t="s">
         <v>352</v>
@@ -12371,7 +12439,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="45"/>
+      <c r="A217" s="47"/>
       <c r="B217" s="18"/>
       <c r="C217" t="s">
         <v>431</v>
@@ -12381,14 +12449,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="45"/>
+      <c r="A218" s="47"/>
       <c r="B218" s="18"/>
       <c r="D218" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="45">
+      <c r="A220" s="47">
         <v>43417</v>
       </c>
       <c r="B220" s="4"/>
@@ -12400,7 +12468,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="45"/>
+      <c r="A221" s="47"/>
       <c r="B221" s="4"/>
       <c r="C221" s="14" t="s">
         <v>535</v>
@@ -12410,14 +12478,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="45"/>
+      <c r="A222" s="47"/>
       <c r="B222" s="4"/>
       <c r="D222" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="45"/>
+      <c r="A223" s="47"/>
       <c r="B223" s="19"/>
       <c r="C223" s="14" t="s">
         <v>265</v>
@@ -12427,7 +12495,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="45"/>
+      <c r="A224" s="47"/>
       <c r="B224" s="18"/>
       <c r="C224" s="14" t="s">
         <v>448</v>
@@ -12437,7 +12505,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="45"/>
+      <c r="A225" s="47"/>
       <c r="B225" s="18"/>
       <c r="C225" s="14" t="s">
         <v>477</v>
@@ -12447,7 +12515,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="45"/>
+      <c r="A226" s="47"/>
       <c r="B226" s="18"/>
       <c r="C226" t="s">
         <v>420</v>
@@ -12457,7 +12525,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="45"/>
+      <c r="A227" s="47"/>
       <c r="B227" s="18"/>
       <c r="C227" s="14" t="s">
         <v>479</v>
@@ -12467,7 +12535,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="45"/>
+      <c r="A228" s="47"/>
       <c r="B228" s="18"/>
       <c r="C228" t="s">
         <v>352</v>
@@ -12477,7 +12545,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="45"/>
+      <c r="A229" s="47"/>
       <c r="B229" s="18"/>
       <c r="C229" t="s">
         <v>335</v>
@@ -12487,7 +12555,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="45">
+      <c r="A231" s="47">
         <v>43418</v>
       </c>
       <c r="B231" s="4"/>
@@ -12499,14 +12567,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="45"/>
+      <c r="A232" s="47"/>
       <c r="B232" s="4"/>
       <c r="D232" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="45"/>
+      <c r="A233" s="47"/>
       <c r="B233" s="19"/>
       <c r="C233" s="14" t="s">
         <v>265</v>
@@ -12516,21 +12584,21 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="45"/>
+      <c r="A234" s="47"/>
       <c r="B234" s="18"/>
       <c r="D234" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="45"/>
+      <c r="A235" s="47"/>
       <c r="B235" s="18"/>
       <c r="D235" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="45"/>
+      <c r="A236" s="47"/>
       <c r="B236" s="18"/>
       <c r="C236" s="14" t="s">
         <v>477</v>
@@ -12540,35 +12608,35 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="45"/>
+      <c r="A237" s="47"/>
       <c r="B237" s="18"/>
       <c r="D237" s="14" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="45"/>
+      <c r="A238" s="47"/>
       <c r="B238" s="18"/>
       <c r="D238" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="45"/>
+      <c r="A239" s="47"/>
       <c r="B239" s="18"/>
       <c r="D239" s="14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="45"/>
+      <c r="A240" s="47"/>
       <c r="B240" s="18"/>
       <c r="D240" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="45"/>
+      <c r="A241" s="47"/>
       <c r="B241" s="18"/>
       <c r="C241" t="s">
         <v>335</v>
@@ -12578,14 +12646,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="45"/>
+      <c r="A242" s="47"/>
       <c r="B242" s="18"/>
       <c r="D242" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="45">
+      <c r="A244" s="47">
         <v>43419</v>
       </c>
       <c r="B244" s="4"/>
@@ -12597,14 +12665,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="45"/>
+      <c r="A245" s="47"/>
       <c r="B245" s="4"/>
       <c r="D245" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="45"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="19"/>
       <c r="C246" s="14" t="s">
         <v>265</v>
@@ -12614,14 +12682,14 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="45"/>
+      <c r="A247" s="47"/>
       <c r="B247" s="18"/>
       <c r="D247" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="45"/>
+      <c r="A248" s="47"/>
       <c r="B248" s="18"/>
       <c r="C248" s="14" t="s">
         <v>477</v>
@@ -12631,28 +12699,28 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="45"/>
+      <c r="A249" s="47"/>
       <c r="B249" s="18"/>
       <c r="D249" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="45"/>
+      <c r="A250" s="47"/>
       <c r="B250" s="18"/>
       <c r="D250" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="45"/>
+      <c r="A251" s="47"/>
       <c r="B251" s="18"/>
       <c r="D251" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="45"/>
+      <c r="A252" s="47"/>
       <c r="B252" s="18"/>
       <c r="C252" t="s">
         <v>335</v>
@@ -12662,7 +12730,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="45">
+      <c r="A254" s="47">
         <v>43420</v>
       </c>
       <c r="B254" s="4"/>
@@ -12674,21 +12742,21 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="45"/>
+      <c r="A255" s="47"/>
       <c r="B255" s="4"/>
       <c r="D255" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="45"/>
+      <c r="A256" s="47"/>
       <c r="B256" s="4"/>
       <c r="D256" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="45"/>
+      <c r="A257" s="47"/>
       <c r="B257" s="19"/>
       <c r="C257" s="14" t="s">
         <v>265</v>
@@ -12698,14 +12766,14 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="45"/>
+      <c r="A258" s="47"/>
       <c r="B258" s="18"/>
       <c r="D258" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="45"/>
+      <c r="A259" s="47"/>
       <c r="B259" s="18"/>
       <c r="C259" s="14" t="s">
         <v>477</v>
@@ -12715,42 +12783,42 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="45"/>
+      <c r="A260" s="47"/>
       <c r="B260" s="18"/>
       <c r="D260" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="45"/>
+      <c r="A261" s="47"/>
       <c r="B261" s="18"/>
       <c r="D261" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="45"/>
+      <c r="A262" s="47"/>
       <c r="B262" s="18"/>
       <c r="D262" s="14" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="45"/>
+      <c r="A263" s="47"/>
       <c r="B263" s="18"/>
       <c r="D263" s="14" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="45"/>
+      <c r="A264" s="47"/>
       <c r="B264" s="18"/>
       <c r="D264" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="45"/>
+      <c r="A265" s="47"/>
       <c r="B265" s="18"/>
       <c r="C265" t="s">
         <v>335</v>
@@ -12760,7 +12828,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="46">
+      <c r="A267" s="45">
         <v>43421</v>
       </c>
       <c r="B267" s="4"/>
@@ -12772,63 +12840,63 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="46"/>
+      <c r="A268" s="45"/>
       <c r="B268" s="4"/>
       <c r="D268" s="14" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="46"/>
+      <c r="A269" s="45"/>
       <c r="B269" s="19"/>
       <c r="D269" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="46"/>
+      <c r="A270" s="45"/>
       <c r="B270" s="18"/>
       <c r="D270" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="46"/>
+      <c r="A271" s="45"/>
       <c r="B271" s="18"/>
       <c r="D271" s="14" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="46"/>
+      <c r="A272" s="45"/>
       <c r="B272" s="18"/>
       <c r="D272" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="46"/>
+      <c r="A273" s="45"/>
       <c r="B273" s="18"/>
       <c r="D273" s="14" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="46"/>
+      <c r="A274" s="45"/>
       <c r="B274" s="18"/>
       <c r="D274" s="14" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="46"/>
+      <c r="A275" s="45"/>
       <c r="B275" s="18"/>
       <c r="D275" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="46"/>
+      <c r="A276" s="45"/>
       <c r="B276" s="18"/>
       <c r="C276" t="s">
         <v>335</v>
@@ -12838,14 +12906,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="46"/>
+      <c r="A277" s="45"/>
       <c r="B277" s="18"/>
       <c r="D277" s="14" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="46">
+      <c r="A279" s="45">
         <v>43422</v>
       </c>
       <c r="B279" s="4"/>
@@ -12857,28 +12925,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="46"/>
+      <c r="A280" s="45"/>
       <c r="B280" s="4"/>
       <c r="D280" s="14" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="46"/>
+      <c r="A281" s="45"/>
       <c r="B281" s="4"/>
       <c r="D281" s="14" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="46"/>
+      <c r="A282" s="45"/>
       <c r="B282" s="4"/>
       <c r="D282" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="46"/>
+      <c r="A283" s="45"/>
       <c r="B283" s="19"/>
       <c r="C283" s="14" t="s">
         <v>265</v>
@@ -12888,35 +12956,35 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="46"/>
+      <c r="A284" s="45"/>
       <c r="B284" s="18"/>
       <c r="D284" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="46"/>
+      <c r="A285" s="45"/>
       <c r="B285" s="18"/>
       <c r="D285" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="46"/>
+      <c r="A286" s="45"/>
       <c r="B286" s="18"/>
       <c r="D286" s="14" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="46"/>
+      <c r="A287" s="45"/>
       <c r="B287" s="18"/>
       <c r="D287" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="46"/>
+      <c r="A288" s="45"/>
       <c r="B288" s="18"/>
       <c r="C288" t="s">
         <v>335</v>
@@ -12926,7 +12994,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="45">
+      <c r="A290" s="47">
         <v>43423</v>
       </c>
       <c r="B290" s="4"/>
@@ -12938,7 +13006,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="45"/>
+      <c r="A291" s="47"/>
       <c r="B291" s="4"/>
       <c r="C291" s="14" t="s">
         <v>249</v>
@@ -12948,14 +13016,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="45"/>
+      <c r="A292" s="47"/>
       <c r="B292" s="4"/>
       <c r="D292" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="45"/>
+      <c r="A293" s="47"/>
       <c r="B293" s="19"/>
       <c r="C293" s="14" t="s">
         <v>265</v>
@@ -12965,14 +13033,14 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="45"/>
+      <c r="A294" s="47"/>
       <c r="B294" s="18"/>
       <c r="D294" s="14" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="45"/>
+      <c r="A295" s="47"/>
       <c r="B295" s="18"/>
       <c r="C295" s="14" t="s">
         <v>477</v>
@@ -12982,42 +13050,42 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="45"/>
+      <c r="A296" s="47"/>
       <c r="B296" s="18"/>
       <c r="D296" s="14" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="45"/>
+      <c r="A297" s="47"/>
       <c r="B297" s="18"/>
       <c r="D297" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="45"/>
+      <c r="A298" s="47"/>
       <c r="B298" s="18"/>
       <c r="D298" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="45"/>
+      <c r="A299" s="47"/>
       <c r="B299" s="18"/>
       <c r="D299" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="45"/>
+      <c r="A300" s="47"/>
       <c r="B300" s="18"/>
       <c r="D300" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="45"/>
+      <c r="A301" s="47"/>
       <c r="B301" s="18"/>
       <c r="C301" t="s">
         <v>335</v>
@@ -13027,7 +13095,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="45">
+      <c r="A303" s="47">
         <v>43424</v>
       </c>
       <c r="B303" s="4"/>
@@ -13039,7 +13107,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="45"/>
+      <c r="A304" s="47"/>
       <c r="B304" s="4"/>
       <c r="C304" s="14" t="s">
         <v>597</v>
@@ -13049,7 +13117,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="45"/>
+      <c r="A305" s="47"/>
       <c r="B305" s="4"/>
       <c r="C305" s="14"/>
       <c r="D305" s="14" t="s">
@@ -13057,14 +13125,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="45"/>
+      <c r="A306" s="47"/>
       <c r="B306" s="4"/>
       <c r="D306" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="45"/>
+      <c r="A307" s="47"/>
       <c r="B307" s="19"/>
       <c r="C307" s="14" t="s">
         <v>265</v>
@@ -13074,14 +13142,14 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="45"/>
+      <c r="A308" s="47"/>
       <c r="B308" s="18"/>
       <c r="D308" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="45"/>
+      <c r="A309" s="47"/>
       <c r="B309" s="18"/>
       <c r="C309" s="14" t="s">
         <v>477</v>
@@ -13091,42 +13159,42 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="45"/>
+      <c r="A310" s="47"/>
       <c r="B310" s="18"/>
       <c r="D310" s="14" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="45"/>
+      <c r="A311" s="47"/>
       <c r="B311" s="18"/>
       <c r="D311" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="45"/>
+      <c r="A312" s="47"/>
       <c r="B312" s="18"/>
       <c r="D312" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="45"/>
+      <c r="A313" s="47"/>
       <c r="B313" s="18"/>
       <c r="D313" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="45"/>
+      <c r="A314" s="47"/>
       <c r="B314" s="18"/>
       <c r="D314" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="45"/>
+      <c r="A315" s="47"/>
       <c r="B315" s="18"/>
       <c r="C315" t="s">
         <v>335</v>
@@ -13136,10 +13204,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="45">
+      <c r="A317" s="47">
         <v>43425</v>
       </c>
-      <c r="B317" s="52" t="s">
+      <c r="B317" s="49" t="s">
         <v>604</v>
       </c>
       <c r="C317" t="s">
@@ -13150,22 +13218,22 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="45"/>
-      <c r="B318" s="52"/>
+      <c r="A318" s="47"/>
+      <c r="B318" s="49"/>
       <c r="D318" s="14" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="45"/>
-      <c r="B319" s="52"/>
+      <c r="A319" s="47"/>
+      <c r="B319" s="49"/>
       <c r="D319" s="14" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="45"/>
-      <c r="B320" s="52"/>
+      <c r="A320" s="47"/>
+      <c r="B320" s="49"/>
       <c r="C320" s="14" t="s">
         <v>265</v>
       </c>
@@ -13174,22 +13242,22 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="45"/>
-      <c r="B321" s="52"/>
+      <c r="A321" s="47"/>
+      <c r="B321" s="49"/>
       <c r="D321" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="45"/>
-      <c r="B322" s="52"/>
+      <c r="A322" s="47"/>
+      <c r="B322" s="49"/>
       <c r="D322" s="14" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="45"/>
-      <c r="B323" s="52"/>
+      <c r="A323" s="47"/>
+      <c r="B323" s="49"/>
       <c r="C323" s="14" t="s">
         <v>609</v>
       </c>
@@ -13198,36 +13266,36 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="45"/>
-      <c r="B324" s="52"/>
+      <c r="A324" s="47"/>
+      <c r="B324" s="49"/>
       <c r="D324" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="45"/>
-      <c r="B325" s="52"/>
+      <c r="A325" s="47"/>
+      <c r="B325" s="49"/>
       <c r="D325" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="45"/>
-      <c r="B326" s="52"/>
+      <c r="A326" s="47"/>
+      <c r="B326" s="49"/>
       <c r="D326" s="14" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="45"/>
-      <c r="B327" s="52"/>
+      <c r="A327" s="47"/>
+      <c r="B327" s="49"/>
       <c r="D327" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="45"/>
-      <c r="B328" s="52"/>
+      <c r="A328" s="47"/>
+      <c r="B328" s="49"/>
       <c r="C328" t="s">
         <v>335</v>
       </c>
@@ -13236,7 +13304,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="45">
+      <c r="A330" s="47">
         <v>43426</v>
       </c>
       <c r="B330" s="4"/>
@@ -13248,21 +13316,21 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="45"/>
+      <c r="A331" s="47"/>
       <c r="B331" s="4"/>
       <c r="D331" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="45"/>
+      <c r="A332" s="47"/>
       <c r="B332" s="4"/>
       <c r="D332" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="45"/>
+      <c r="A333" s="47"/>
       <c r="B333" s="4"/>
       <c r="C333" s="14" t="s">
         <v>265</v>
@@ -13272,28 +13340,28 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="45"/>
+      <c r="A334" s="47"/>
       <c r="B334" s="4"/>
       <c r="D334" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="45"/>
+      <c r="A335" s="47"/>
       <c r="B335" s="4"/>
       <c r="D335" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="45"/>
+      <c r="A336" s="47"/>
       <c r="B336" s="4"/>
       <c r="D336" s="14" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="45"/>
+      <c r="A337" s="47"/>
       <c r="B337" s="4"/>
       <c r="C337" s="14" t="s">
         <v>615</v>
@@ -13303,35 +13371,35 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="45"/>
+      <c r="A338" s="47"/>
       <c r="B338" s="18"/>
       <c r="D338" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="45"/>
+      <c r="A339" s="47"/>
       <c r="B339" s="18"/>
       <c r="D339" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="45"/>
+      <c r="A340" s="47"/>
       <c r="B340" s="18"/>
       <c r="D340" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="45"/>
+      <c r="A341" s="47"/>
       <c r="B341" s="18"/>
       <c r="D341" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="45"/>
+      <c r="A342" s="47"/>
       <c r="B342" s="18"/>
       <c r="C342" t="s">
         <v>335</v>
@@ -13341,7 +13409,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="45">
+      <c r="A344" s="47">
         <v>43427</v>
       </c>
       <c r="B344" s="4"/>
@@ -13353,7 +13421,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="45"/>
+      <c r="A345" s="47"/>
       <c r="B345" s="4"/>
       <c r="C345" t="s">
         <v>618</v>
@@ -13363,28 +13431,28 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="45"/>
+      <c r="A346" s="47"/>
       <c r="B346" s="4"/>
       <c r="D346" s="14" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="45"/>
+      <c r="A347" s="47"/>
       <c r="B347" s="4"/>
       <c r="D347" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="45"/>
+      <c r="A348" s="47"/>
       <c r="B348" s="4"/>
       <c r="D348" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="45"/>
+      <c r="A349" s="47"/>
       <c r="B349" s="4"/>
       <c r="C349" s="14" t="s">
         <v>265</v>
@@ -13394,7 +13462,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="45"/>
+      <c r="A350" s="47"/>
       <c r="B350" s="4"/>
       <c r="C350" s="14" t="s">
         <v>615</v>
@@ -13404,35 +13472,35 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="45"/>
+      <c r="A351" s="47"/>
       <c r="B351" s="4"/>
       <c r="D351" s="14" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="45"/>
+      <c r="A352" s="47"/>
       <c r="B352" s="4"/>
       <c r="D352" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="45"/>
+      <c r="A353" s="47"/>
       <c r="B353" s="4"/>
       <c r="D353" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="45"/>
+      <c r="A354" s="47"/>
       <c r="B354" s="18"/>
       <c r="D354" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="45"/>
+      <c r="A355" s="47"/>
       <c r="B355" s="18"/>
       <c r="C355" t="s">
         <v>335</v>
@@ -13442,7 +13510,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="46">
+      <c r="A357" s="45">
         <v>43428</v>
       </c>
       <c r="B357" s="4"/>
@@ -13454,98 +13522,98 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="46"/>
+      <c r="A358" s="45"/>
       <c r="B358" s="4"/>
       <c r="D358" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="46"/>
+      <c r="A359" s="45"/>
       <c r="B359" s="4"/>
       <c r="D359" s="14" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="46"/>
+      <c r="A360" s="45"/>
       <c r="B360" s="4"/>
       <c r="D360" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="46"/>
+      <c r="A361" s="45"/>
       <c r="B361" s="4"/>
       <c r="D361" s="14" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="46"/>
+      <c r="A362" s="45"/>
       <c r="B362" s="4"/>
       <c r="D362" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="46"/>
+      <c r="A363" s="45"/>
       <c r="B363" s="4"/>
       <c r="D363" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="46"/>
+      <c r="A364" s="45"/>
       <c r="B364" s="4"/>
       <c r="D364" s="14" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="46"/>
+      <c r="A365" s="45"/>
       <c r="B365" s="4"/>
       <c r="D365" s="14" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="46"/>
+      <c r="A366" s="45"/>
       <c r="B366" s="4"/>
       <c r="D366" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="46"/>
+      <c r="A367" s="45"/>
       <c r="B367" s="4"/>
       <c r="D367" s="14" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="46"/>
+      <c r="A368" s="45"/>
       <c r="B368" s="4"/>
       <c r="D368" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="46"/>
+      <c r="A369" s="45"/>
       <c r="B369" s="18"/>
       <c r="D369" s="14" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="46"/>
+      <c r="A370" s="45"/>
       <c r="B370" s="18"/>
       <c r="D370" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="46">
+      <c r="A372" s="45">
         <v>43429</v>
       </c>
       <c r="B372" s="4"/>
@@ -13557,7 +13625,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="46"/>
+      <c r="A373" s="45"/>
       <c r="B373" s="4"/>
       <c r="C373" t="s">
         <v>618</v>
@@ -13567,28 +13635,28 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="46"/>
+      <c r="A374" s="45"/>
       <c r="B374" s="4"/>
       <c r="D374" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="46"/>
+      <c r="A375" s="45"/>
       <c r="B375" s="4"/>
       <c r="D375" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="46"/>
+      <c r="A376" s="45"/>
       <c r="B376" s="4"/>
       <c r="D376" s="14" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="46"/>
+      <c r="A377" s="45"/>
       <c r="B377" s="4"/>
       <c r="C377" s="14" t="s">
         <v>265</v>
@@ -13598,42 +13666,42 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="46"/>
+      <c r="A378" s="45"/>
       <c r="B378" s="4"/>
       <c r="D378" s="14" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="46"/>
+      <c r="A379" s="45"/>
       <c r="B379" s="4"/>
       <c r="D379" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="46"/>
+      <c r="A380" s="45"/>
       <c r="B380" s="4"/>
       <c r="D380" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="46"/>
+      <c r="A381" s="45"/>
       <c r="B381" s="4"/>
       <c r="D381" s="14" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="46"/>
+      <c r="A382" s="45"/>
       <c r="B382" s="4"/>
       <c r="D382" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="46"/>
+      <c r="A383" s="45"/>
       <c r="B383" s="18"/>
       <c r="C383" t="s">
         <v>367</v>
@@ -13643,7 +13711,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="46"/>
+      <c r="A384" s="45"/>
       <c r="B384" s="18"/>
       <c r="C384" t="s">
         <v>335</v>
@@ -13653,7 +13721,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="45">
+      <c r="A386" s="47">
         <v>43430</v>
       </c>
       <c r="B386" s="4"/>
@@ -13665,7 +13733,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="45"/>
+      <c r="A387" s="47"/>
       <c r="B387" s="4"/>
       <c r="C387" t="s">
         <v>638</v>
@@ -13675,14 +13743,14 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="45"/>
+      <c r="A388" s="47"/>
       <c r="B388" s="4"/>
       <c r="D388" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="45"/>
+      <c r="A389" s="47"/>
       <c r="B389" s="4"/>
       <c r="C389" s="14" t="s">
         <v>265</v>
@@ -13692,7 +13760,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="45"/>
+      <c r="A390" s="47"/>
       <c r="B390" s="4"/>
       <c r="C390" s="14" t="s">
         <v>615</v>
@@ -13702,8 +13770,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="45"/>
-      <c r="B391" s="52" t="s">
+      <c r="A391" s="47"/>
+      <c r="B391" s="49" t="s">
         <v>648</v>
       </c>
       <c r="D391" s="14" t="s">
@@ -13711,45 +13779,45 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="45"/>
-      <c r="B392" s="52"/>
+      <c r="A392" s="47"/>
+      <c r="B392" s="49"/>
       <c r="D392" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="45"/>
-      <c r="B393" s="52"/>
+      <c r="A393" s="47"/>
+      <c r="B393" s="49"/>
       <c r="D393" s="14" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="45"/>
-      <c r="B394" s="52"/>
+      <c r="A394" s="47"/>
+      <c r="B394" s="49"/>
       <c r="D394" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="45"/>
-      <c r="B395" s="52"/>
+      <c r="A395" s="47"/>
+      <c r="B395" s="49"/>
       <c r="D395" s="14" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="45"/>
-      <c r="B396" s="52"/>
+      <c r="A396" s="47"/>
+      <c r="B396" s="49"/>
       <c r="D396" s="14" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="45">
+      <c r="A398" s="47">
         <v>43431</v>
       </c>
-      <c r="B398" s="52" t="s">
+      <c r="B398" s="49" t="s">
         <v>647</v>
       </c>
       <c r="C398" t="s">
@@ -13760,8 +13828,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="45"/>
-      <c r="B399" s="52"/>
+      <c r="A399" s="47"/>
+      <c r="B399" s="49"/>
       <c r="C399" t="s">
         <v>638</v>
       </c>
@@ -13770,15 +13838,15 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="45"/>
-      <c r="B400" s="52"/>
+      <c r="A400" s="47"/>
+      <c r="B400" s="49"/>
       <c r="D400" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="45"/>
-      <c r="B401" s="52"/>
+      <c r="A401" s="47"/>
+      <c r="B401" s="49"/>
       <c r="C401" s="14" t="s">
         <v>265</v>
       </c>
@@ -13787,50 +13855,50 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="45"/>
-      <c r="B402" s="52"/>
+      <c r="A402" s="47"/>
+      <c r="B402" s="49"/>
       <c r="D402" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="45"/>
-      <c r="B403" s="52"/>
+      <c r="A403" s="47"/>
+      <c r="B403" s="49"/>
       <c r="D403" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="45"/>
-      <c r="B404" s="52"/>
+      <c r="A404" s="47"/>
+      <c r="B404" s="49"/>
       <c r="D404" s="14" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="45"/>
-      <c r="B405" s="52"/>
+      <c r="A405" s="47"/>
+      <c r="B405" s="49"/>
       <c r="D405" s="14" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="45"/>
-      <c r="B406" s="52"/>
+      <c r="A406" s="47"/>
+      <c r="B406" s="49"/>
       <c r="D406" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="45"/>
-      <c r="B407" s="52"/>
+      <c r="A407" s="47"/>
+      <c r="B407" s="49"/>
       <c r="D407" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="45"/>
-      <c r="B408" s="52"/>
+      <c r="A408" s="47"/>
+      <c r="B408" s="49"/>
       <c r="C408" t="s">
         <v>335</v>
       </c>
@@ -13839,10 +13907,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="45">
+      <c r="A410" s="47">
         <v>43432</v>
       </c>
-      <c r="B410" s="52"/>
+      <c r="B410" s="49"/>
       <c r="C410" t="s">
         <v>641</v>
       </c>
@@ -13851,8 +13919,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="45"/>
-      <c r="B411" s="52"/>
+      <c r="A411" s="47"/>
+      <c r="B411" s="49"/>
       <c r="C411" t="s">
         <v>656</v>
       </c>
@@ -13861,8 +13929,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="45"/>
-      <c r="B412" s="52"/>
+      <c r="A412" s="47"/>
+      <c r="B412" s="49"/>
       <c r="C412" s="14" t="s">
         <v>265</v>
       </c>
@@ -13871,59 +13939,59 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="45"/>
-      <c r="B413" s="52"/>
+      <c r="A413" s="47"/>
+      <c r="B413" s="49"/>
       <c r="D413" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="45"/>
-      <c r="B414" s="52"/>
+      <c r="A414" s="47"/>
+      <c r="B414" s="49"/>
       <c r="D414" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="45"/>
-      <c r="B415" s="52"/>
+      <c r="A415" s="47"/>
+      <c r="B415" s="49"/>
       <c r="D415" s="14" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="45"/>
-      <c r="B416" s="52"/>
+      <c r="A416" s="47"/>
+      <c r="B416" s="49"/>
       <c r="D416" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="45"/>
-      <c r="B417" s="52"/>
+      <c r="A417" s="47"/>
+      <c r="B417" s="49"/>
       <c r="D417" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="45"/>
-      <c r="B418" s="52"/>
+      <c r="A418" s="47"/>
+      <c r="B418" s="49"/>
       <c r="D418" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="45"/>
-      <c r="B419" s="52"/>
+      <c r="A419" s="47"/>
+      <c r="B419" s="49"/>
       <c r="D419" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="45">
+      <c r="A421" s="47">
         <v>43433</v>
       </c>
-      <c r="B421" s="52" t="s">
+      <c r="B421" s="49" t="s">
         <v>664</v>
       </c>
       <c r="C421" t="s">
@@ -13934,8 +14002,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="45"/>
-      <c r="B422" s="52"/>
+      <c r="A422" s="47"/>
+      <c r="B422" s="49"/>
       <c r="C422" t="s">
         <v>670</v>
       </c>
@@ -13944,8 +14012,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="45"/>
-      <c r="B423" s="52"/>
+      <c r="A423" s="47"/>
+      <c r="B423" s="49"/>
       <c r="C423" s="14" t="s">
         <v>265</v>
       </c>
@@ -13954,66 +14022,66 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="45"/>
-      <c r="B424" s="52"/>
+      <c r="A424" s="47"/>
+      <c r="B424" s="49"/>
       <c r="D424" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="45"/>
-      <c r="B425" s="52"/>
+      <c r="A425" s="47"/>
+      <c r="B425" s="49"/>
       <c r="D425" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="45"/>
-      <c r="B426" s="52"/>
+      <c r="A426" s="47"/>
+      <c r="B426" s="49"/>
       <c r="D426" s="14" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="45"/>
-      <c r="B427" s="52"/>
+      <c r="A427" s="47"/>
+      <c r="B427" s="49"/>
       <c r="D427" s="14" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="45"/>
-      <c r="B428" s="52"/>
+      <c r="A428" s="47"/>
+      <c r="B428" s="49"/>
       <c r="D428" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="45"/>
-      <c r="B429" s="52"/>
+      <c r="A429" s="47"/>
+      <c r="B429" s="49"/>
       <c r="D429" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="45"/>
-      <c r="B430" s="52"/>
+      <c r="A430" s="47"/>
+      <c r="B430" s="49"/>
       <c r="D430" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="45"/>
-      <c r="B431" s="52"/>
+      <c r="A431" s="47"/>
+      <c r="B431" s="49"/>
       <c r="D431" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="45">
+      <c r="A433" s="47">
         <v>43434</v>
       </c>
-      <c r="B433" s="52"/>
+      <c r="B433" s="49"/>
       <c r="C433" t="s">
         <v>673</v>
       </c>
@@ -14022,8 +14090,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="45"/>
-      <c r="B434" s="52"/>
+      <c r="A434" s="47"/>
+      <c r="B434" s="49"/>
       <c r="C434" t="s">
         <v>675</v>
       </c>
@@ -14032,8 +14100,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="45"/>
-      <c r="B435" s="52"/>
+      <c r="A435" s="47"/>
+      <c r="B435" s="49"/>
       <c r="C435" s="14" t="s">
         <v>265</v>
       </c>
@@ -14042,38 +14110,38 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="45"/>
-      <c r="B436" s="52"/>
+      <c r="A436" s="47"/>
+      <c r="B436" s="49"/>
       <c r="D436" s="14" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="45"/>
-      <c r="B437" s="52"/>
+      <c r="A437" s="47"/>
+      <c r="B437" s="49"/>
       <c r="D437" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="45"/>
-      <c r="B438" s="52"/>
+      <c r="A438" s="47"/>
+      <c r="B438" s="49"/>
       <c r="D438" s="14" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="45"/>
-      <c r="B439" s="52"/>
+      <c r="A439" s="47"/>
+      <c r="B439" s="49"/>
       <c r="D439" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="46">
+      <c r="A441" s="45">
         <v>43435</v>
       </c>
-      <c r="B441" s="52"/>
+      <c r="B441" s="49"/>
       <c r="C441" t="s">
         <v>673</v>
       </c>
@@ -14082,70 +14150,70 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="46"/>
-      <c r="B442" s="52"/>
+      <c r="A442" s="45"/>
+      <c r="B442" s="49"/>
       <c r="D442" s="14" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="46"/>
-      <c r="B443" s="52"/>
+      <c r="A443" s="45"/>
+      <c r="B443" s="49"/>
       <c r="D443" s="14" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="46"/>
-      <c r="B444" s="52"/>
+      <c r="A444" s="45"/>
+      <c r="B444" s="49"/>
       <c r="D444" s="14" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="46"/>
-      <c r="B445" s="52"/>
+      <c r="A445" s="45"/>
+      <c r="B445" s="49"/>
       <c r="D445" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="46"/>
-      <c r="B446" s="52"/>
+      <c r="A446" s="45"/>
+      <c r="B446" s="49"/>
       <c r="D446" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="46"/>
-      <c r="B447" s="52"/>
+      <c r="A447" s="45"/>
+      <c r="B447" s="49"/>
       <c r="D447" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="46"/>
-      <c r="B448" s="52"/>
+      <c r="A448" s="45"/>
+      <c r="B448" s="49"/>
       <c r="D448" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="46"/>
-      <c r="B449" s="52"/>
+      <c r="A449" s="45"/>
+      <c r="B449" s="49"/>
       <c r="D449" s="14" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="46"/>
-      <c r="B450" s="52"/>
+      <c r="A450" s="45"/>
+      <c r="B450" s="49"/>
       <c r="D450" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="46">
+      <c r="A452" s="45">
         <v>43436</v>
       </c>
       <c r="B452" s="4"/>
@@ -14157,28 +14225,28 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="46"/>
+      <c r="A453" s="45"/>
       <c r="B453" s="4"/>
       <c r="D453" s="14" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="46"/>
+      <c r="A454" s="45"/>
       <c r="B454" s="4"/>
       <c r="D454" s="14" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="46"/>
+      <c r="A455" s="45"/>
       <c r="B455" s="4"/>
       <c r="D455" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="46"/>
+      <c r="A456" s="45"/>
       <c r="B456" s="4" t="s">
         <v>700</v>
       </c>
@@ -14187,27 +14255,27 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="46"/>
+      <c r="A457" s="45"/>
       <c r="B457" s="4"/>
       <c r="D457" s="14" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="46"/>
+      <c r="A458" s="45"/>
       <c r="B458" s="4"/>
       <c r="D458" s="14" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="46"/>
+      <c r="A459" s="45"/>
       <c r="D459" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="46"/>
+      <c r="A460" s="45"/>
       <c r="B460" s="4" t="s">
         <v>695</v>
       </c>
@@ -14216,10 +14284,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="45">
+      <c r="A462" s="47">
         <v>43437</v>
       </c>
-      <c r="B462" s="47" t="s">
+      <c r="B462" s="46" t="s">
         <v>709</v>
       </c>
       <c r="C462" t="s">
@@ -14230,8 +14298,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="45"/>
-      <c r="B463" s="47"/>
+      <c r="A463" s="47"/>
+      <c r="B463" s="46"/>
       <c r="C463" t="s">
         <v>697</v>
       </c>
@@ -14240,22 +14308,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="45"/>
-      <c r="B464" s="47"/>
+      <c r="A464" s="47"/>
+      <c r="B464" s="46"/>
       <c r="D464" s="14" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="45"/>
-      <c r="B465" s="47"/>
+      <c r="A465" s="47"/>
+      <c r="B465" s="46"/>
       <c r="D465" s="14" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="45"/>
-      <c r="B466" s="47"/>
+      <c r="A466" s="47"/>
+      <c r="B466" s="46"/>
       <c r="C466" s="14" t="s">
         <v>265</v>
       </c>
@@ -14264,16 +14332,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="45"/>
-      <c r="B467" s="47"/>
+      <c r="A467" s="47"/>
+      <c r="B467" s="46"/>
       <c r="C467" s="14"/>
       <c r="D467" s="14" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="45"/>
-      <c r="B468" s="47" t="s">
+      <c r="A468" s="47"/>
+      <c r="B468" s="46" t="s">
         <v>710</v>
       </c>
       <c r="D468" s="14" t="s">
@@ -14281,28 +14349,28 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="45"/>
-      <c r="B469" s="52"/>
+      <c r="A469" s="47"/>
+      <c r="B469" s="49"/>
       <c r="D469" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E469" s="52" t="s">
+      <c r="E469" s="49" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="45"/>
-      <c r="B470" s="52"/>
+      <c r="A470" s="47"/>
+      <c r="B470" s="49"/>
       <c r="D470" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="E470" s="52"/>
+      <c r="E470" s="49"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="45">
+      <c r="A472" s="47">
         <v>43438</v>
       </c>
-      <c r="B472" s="47" t="s">
+      <c r="B472" s="46" t="s">
         <v>741</v>
       </c>
       <c r="C472" t="s">
@@ -14311,58 +14379,58 @@
       <c r="D472" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="E472" s="52" t="s">
+      <c r="E472" s="49" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="45"/>
-      <c r="B473" s="52"/>
+      <c r="A473" s="47"/>
+      <c r="B473" s="49"/>
       <c r="D473" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="E473" s="52"/>
+      <c r="E473" s="49"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="45"/>
-      <c r="B474" s="52"/>
+      <c r="A474" s="47"/>
+      <c r="B474" s="49"/>
       <c r="C474" t="s">
         <v>718</v>
       </c>
       <c r="D474" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="E474" s="52"/>
+      <c r="E474" s="49"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="45"/>
-      <c r="B475" s="52"/>
+      <c r="A475" s="47"/>
+      <c r="B475" s="49"/>
       <c r="C475" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D475" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="E475" s="52"/>
+      <c r="E475" s="49"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="45"/>
-      <c r="B476" s="52"/>
+      <c r="A476" s="47"/>
+      <c r="B476" s="49"/>
       <c r="D476" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E476" s="52"/>
+      <c r="E476" s="49"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="45"/>
-      <c r="B477" s="52"/>
+      <c r="A477" s="47"/>
+      <c r="B477" s="49"/>
       <c r="D477" s="14" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="45"/>
-      <c r="B478" s="52"/>
+      <c r="A478" s="47"/>
+      <c r="B478" s="49"/>
       <c r="D478" s="14" t="s">
         <v>411</v>
       </c>
@@ -14371,18 +14439,18 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="45"/>
-      <c r="B479" s="52"/>
+      <c r="A479" s="47"/>
+      <c r="B479" s="49"/>
       <c r="D479" s="14" t="s">
         <v>736</v>
       </c>
       <c r="E479" s="44"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="45">
+      <c r="A481" s="47">
         <v>43439</v>
       </c>
-      <c r="B481" s="47" t="s">
+      <c r="B481" s="46" t="s">
         <v>740</v>
       </c>
       <c r="C481" t="s">
@@ -14391,20 +14459,20 @@
       <c r="D481" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="E481" s="52" t="s">
+      <c r="E481" s="49" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="45"/>
-      <c r="B482" s="52"/>
+      <c r="A482" s="47"/>
+      <c r="B482" s="49"/>
       <c r="D482" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="E482" s="52"/>
+      <c r="E482" s="49"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="45"/>
+      <c r="A483" s="47"/>
       <c r="B483" s="30" t="s">
         <v>739</v>
       </c>
@@ -14414,46 +14482,46 @@
       <c r="D483" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="E483" s="52"/>
+      <c r="E483" s="49"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="45"/>
+      <c r="A484" s="47"/>
       <c r="B484" s="4"/>
       <c r="D484" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E484" s="52"/>
+      <c r="E484" s="49"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="45"/>
+      <c r="A485" s="47"/>
       <c r="B485" s="4"/>
       <c r="D485" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="E485" s="52"/>
+      <c r="E485" s="49"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="45"/>
+      <c r="A486" s="47"/>
       <c r="B486" s="4"/>
       <c r="D486" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="E486" s="52" t="s">
+      <c r="E486" s="49" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="45"/>
+      <c r="A487" s="47"/>
       <c r="B487" s="30" t="s">
         <v>377</v>
       </c>
       <c r="D487" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E487" s="52"/>
+      <c r="E487" s="49"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="45">
+      <c r="A489" s="47">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -14465,7 +14533,7 @@
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="45"/>
+      <c r="A490" s="47"/>
       <c r="B490" s="4"/>
       <c r="D490" s="14" t="s">
         <v>750</v>
@@ -14473,7 +14541,7 @@
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="45"/>
+      <c r="A491" s="47"/>
       <c r="B491" s="30" t="s">
         <v>739</v>
       </c>
@@ -14486,7 +14554,7 @@
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="45"/>
+      <c r="A492" s="47"/>
       <c r="B492" s="4"/>
       <c r="D492" s="14" t="s">
         <v>735</v>
@@ -14494,38 +14562,38 @@
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="45"/>
+      <c r="A493" s="47"/>
       <c r="B493" s="4"/>
       <c r="D493" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="45"/>
+      <c r="A494" s="47"/>
       <c r="B494" s="4"/>
       <c r="D494" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="45"/>
+      <c r="A495" s="47"/>
       <c r="B495" s="4"/>
       <c r="D495" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="45"/>
+      <c r="A496" s="47"/>
       <c r="B496" s="4"/>
       <c r="D496" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="45">
+      <c r="A498" s="47">
         <v>43441</v>
       </c>
-      <c r="B498" s="47"/>
+      <c r="B498" s="46"/>
       <c r="C498" t="s">
         <v>662</v>
       </c>
@@ -14535,15 +14603,15 @@
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="45"/>
-      <c r="B499" s="52"/>
+      <c r="A499" s="47"/>
+      <c r="B499" s="49"/>
       <c r="D499" s="14" t="s">
         <v>738</v>
       </c>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="45"/>
+      <c r="A500" s="47"/>
       <c r="B500" s="30" t="s">
         <v>739</v>
       </c>
@@ -14553,7 +14621,7 @@
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="45"/>
+      <c r="A501" s="47"/>
       <c r="B501" s="4"/>
       <c r="C501" s="14" t="s">
         <v>717</v>
@@ -14564,7 +14632,7 @@
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="45"/>
+      <c r="A502" s="47"/>
       <c r="B502" s="4"/>
       <c r="D502" s="14" t="s">
         <v>768</v>
@@ -14572,21 +14640,21 @@
       <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="45"/>
+      <c r="A503" s="47"/>
       <c r="B503" s="4"/>
       <c r="D503" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="45"/>
+      <c r="A504" s="47"/>
       <c r="B504" s="4"/>
       <c r="D504" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="46">
+      <c r="A506" s="45">
         <v>43442</v>
       </c>
       <c r="B506" s="31"/>
@@ -14598,49 +14666,49 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="46"/>
+      <c r="A507" s="45"/>
       <c r="B507" s="4"/>
       <c r="D507" s="14" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="46"/>
+      <c r="A508" s="45"/>
       <c r="B508" s="4"/>
       <c r="D508" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="46"/>
+      <c r="A509" s="45"/>
       <c r="B509" s="4"/>
       <c r="D509" s="14" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="46"/>
+      <c r="A510" s="45"/>
       <c r="B510" s="4"/>
       <c r="D510" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="46"/>
+      <c r="A511" s="45"/>
       <c r="B511" s="4"/>
       <c r="D511" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="46"/>
+      <c r="A512" s="45"/>
       <c r="B512" s="4"/>
       <c r="D512" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="46">
+      <c r="A514" s="45">
         <v>43443</v>
       </c>
       <c r="B514" s="31"/>
@@ -14649,7 +14717,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="46"/>
+      <c r="A515" s="45"/>
       <c r="B515" s="31"/>
       <c r="C515" t="s">
         <v>473</v>
@@ -14659,63 +14727,63 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="46"/>
+      <c r="A516" s="45"/>
       <c r="B516" s="4"/>
       <c r="D516" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="46"/>
+      <c r="A517" s="45"/>
       <c r="B517" s="4"/>
       <c r="D517" s="14" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="46"/>
+      <c r="A518" s="45"/>
       <c r="B518" s="4"/>
       <c r="D518" s="14" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="46"/>
+      <c r="A519" s="45"/>
       <c r="B519" s="4"/>
       <c r="D519" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="46"/>
+      <c r="A520" s="45"/>
       <c r="B520" s="4"/>
       <c r="D520" s="14" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="46"/>
+      <c r="A521" s="45"/>
       <c r="B521" s="4"/>
       <c r="D521" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="46"/>
+      <c r="A522" s="45"/>
       <c r="B522" s="4"/>
       <c r="D522" s="14" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="46"/>
+      <c r="A523" s="45"/>
       <c r="B523" s="4"/>
       <c r="D523" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="45">
+      <c r="A525" s="47">
         <v>43444</v>
       </c>
       <c r="B525" s="31" t="s">
@@ -14729,8 +14797,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="45"/>
-      <c r="B526" s="47" t="s">
+      <c r="A526" s="47"/>
+      <c r="B526" s="46" t="s">
         <v>784</v>
       </c>
       <c r="D526" s="14" t="s">
@@ -14738,29 +14806,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="45"/>
-      <c r="B527" s="47"/>
+      <c r="A527" s="47"/>
+      <c r="B527" s="46"/>
       <c r="D527" s="14" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="45"/>
-      <c r="B528" s="47"/>
+      <c r="A528" s="47"/>
+      <c r="B528" s="46"/>
       <c r="D528" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="45"/>
-      <c r="B529" s="47"/>
+      <c r="A529" s="47"/>
+      <c r="B529" s="46"/>
       <c r="D529" s="14" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="45"/>
-      <c r="B530" s="47"/>
+      <c r="A530" s="47"/>
+      <c r="B530" s="46"/>
       <c r="C530" s="14" t="s">
         <v>717</v>
       </c>
@@ -14769,42 +14837,42 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="45"/>
-      <c r="B531" s="47"/>
+      <c r="A531" s="47"/>
+      <c r="B531" s="46"/>
       <c r="D531" s="14" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="45"/>
+      <c r="A532" s="47"/>
       <c r="B532" s="4"/>
       <c r="D532" s="14" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="45"/>
+      <c r="A533" s="47"/>
       <c r="B533" s="4"/>
       <c r="D533" s="14" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="45"/>
+      <c r="A534" s="47"/>
       <c r="B534" s="4"/>
       <c r="D534" s="14" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="45"/>
+      <c r="A535" s="47"/>
       <c r="B535" s="4"/>
       <c r="D535" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="45">
+      <c r="A537" s="47">
         <v>43445</v>
       </c>
       <c r="B537" s="31"/>
@@ -14816,8 +14884,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="45"/>
-      <c r="B538" s="47" t="s">
+      <c r="A538" s="47"/>
+      <c r="B538" s="46" t="s">
         <v>787</v>
       </c>
       <c r="D538" s="14" t="s">
@@ -14825,15 +14893,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="45"/>
-      <c r="B539" s="47"/>
+      <c r="A539" s="47"/>
+      <c r="B539" s="46"/>
       <c r="D539" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="45"/>
-      <c r="B540" s="47"/>
+      <c r="A540" s="47"/>
+      <c r="B540" s="46"/>
       <c r="C540" s="14" t="s">
         <v>717</v>
       </c>
@@ -14842,56 +14910,56 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="45"/>
-      <c r="B541" s="47"/>
+      <c r="A541" s="47"/>
+      <c r="B541" s="46"/>
       <c r="D541" s="14" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="45"/>
-      <c r="B542" s="47"/>
+      <c r="A542" s="47"/>
+      <c r="B542" s="46"/>
       <c r="D542" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="45"/>
-      <c r="B543" s="47"/>
+      <c r="A543" s="47"/>
+      <c r="B543" s="46"/>
       <c r="D543" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="45"/>
+      <c r="A544" s="47"/>
       <c r="B544" s="4"/>
       <c r="D544" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="45"/>
+      <c r="A545" s="47"/>
       <c r="B545" s="4"/>
       <c r="D545" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="45"/>
+      <c r="A546" s="47"/>
       <c r="B546" s="4"/>
       <c r="D546" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="45"/>
+      <c r="A547" s="47"/>
       <c r="B547" s="4"/>
       <c r="D547" s="14" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="45">
+      <c r="A549" s="47">
         <v>43446</v>
       </c>
       <c r="B549" s="31"/>
@@ -14903,8 +14971,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="45"/>
-      <c r="B550" s="47" t="s">
+      <c r="A550" s="47"/>
+      <c r="B550" s="46" t="s">
         <v>830</v>
       </c>
       <c r="D550" s="14" t="s">
@@ -14912,15 +14980,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="45"/>
-      <c r="B551" s="47"/>
+      <c r="A551" s="47"/>
+      <c r="B551" s="46"/>
       <c r="D551" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="45"/>
-      <c r="B552" s="47"/>
+      <c r="A552" s="47"/>
+      <c r="B552" s="46"/>
       <c r="C552" s="14" t="s">
         <v>717</v>
       </c>
@@ -14929,49 +14997,49 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="45"/>
-      <c r="B553" s="47"/>
+      <c r="A553" s="47"/>
+      <c r="B553" s="46"/>
       <c r="D553" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="45"/>
-      <c r="B554" s="47"/>
+      <c r="A554" s="47"/>
+      <c r="B554" s="46"/>
       <c r="D554" s="14" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="45"/>
+      <c r="A555" s="47"/>
       <c r="B555" s="4"/>
       <c r="D555" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="45"/>
+      <c r="A556" s="47"/>
       <c r="B556" s="4"/>
       <c r="D556" s="14" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="45"/>
+      <c r="A557" s="47"/>
       <c r="B557" s="4"/>
       <c r="D557" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="45"/>
+      <c r="A558" s="47"/>
       <c r="B558" s="4"/>
       <c r="D558" s="14" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="45">
+      <c r="A560" s="47">
         <v>43447</v>
       </c>
       <c r="B560" s="31"/>
@@ -14983,8 +15051,8 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="45"/>
-      <c r="B561" s="47" t="s">
+      <c r="A561" s="47"/>
+      <c r="B561" s="46" t="s">
         <v>850</v>
       </c>
       <c r="D561" s="14" t="s">
@@ -14992,15 +15060,15 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="45"/>
-      <c r="B562" s="47"/>
+      <c r="A562" s="47"/>
+      <c r="B562" s="46"/>
       <c r="D562" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="45"/>
-      <c r="B563" s="47"/>
+      <c r="A563" s="47"/>
+      <c r="B563" s="46"/>
       <c r="C563" s="14" t="s">
         <v>717</v>
       </c>
@@ -15009,21 +15077,21 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="45"/>
-      <c r="B564" s="47"/>
+      <c r="A564" s="47"/>
+      <c r="B564" s="46"/>
       <c r="D564" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="45"/>
-      <c r="B565" s="47"/>
+      <c r="A565" s="47"/>
+      <c r="B565" s="46"/>
       <c r="D565" s="14" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="45"/>
+      <c r="A566" s="47"/>
       <c r="B566" s="30" t="s">
         <v>852</v>
       </c>
@@ -15032,35 +15100,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="45"/>
+      <c r="A567" s="47"/>
       <c r="B567" s="4"/>
       <c r="D567" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="45"/>
+      <c r="A568" s="47"/>
       <c r="B568" s="4"/>
       <c r="D568" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="45"/>
+      <c r="A569" s="47"/>
       <c r="B569" s="4"/>
       <c r="D569" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="45"/>
+      <c r="A570" s="47"/>
       <c r="B570" s="4"/>
       <c r="D570" s="14" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="45">
+      <c r="A572" s="47">
         <v>43448</v>
       </c>
       <c r="B572" s="31"/>
@@ -15069,7 +15137,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="45"/>
+      <c r="A573" s="47"/>
       <c r="B573" s="31"/>
       <c r="C573" t="s">
         <v>853</v>
@@ -15079,8 +15147,8 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="45"/>
-      <c r="B574" s="47" t="s">
+      <c r="A574" s="47"/>
+      <c r="B574" s="46" t="s">
         <v>859</v>
       </c>
       <c r="D574" s="14" t="s">
@@ -15088,22 +15156,22 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="45"/>
-      <c r="B575" s="47"/>
+      <c r="A575" s="47"/>
+      <c r="B575" s="46"/>
       <c r="D575" s="14" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="45"/>
-      <c r="B576" s="47"/>
+      <c r="A576" s="47"/>
+      <c r="B576" s="46"/>
       <c r="D576" s="14" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="45"/>
-      <c r="B577" s="47"/>
+      <c r="A577" s="47"/>
+      <c r="B577" s="46"/>
       <c r="C577" s="14" t="s">
         <v>717</v>
       </c>
@@ -15112,49 +15180,49 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="45"/>
-      <c r="B578" s="47"/>
+      <c r="A578" s="47"/>
+      <c r="B578" s="46"/>
       <c r="D578" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="45"/>
-      <c r="B579" s="47"/>
+      <c r="A579" s="47"/>
+      <c r="B579" s="46"/>
       <c r="D579" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="45"/>
-      <c r="B580" s="47"/>
+      <c r="A580" s="47"/>
+      <c r="B580" s="46"/>
       <c r="D580" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="45"/>
+      <c r="A581" s="47"/>
       <c r="B581" s="30"/>
       <c r="D581" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="45"/>
+      <c r="A582" s="47"/>
       <c r="B582" s="4"/>
       <c r="D582" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="45"/>
+      <c r="A583" s="47"/>
       <c r="B583" s="4"/>
       <c r="D583" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="45"/>
+      <c r="A584" s="47"/>
       <c r="B584" s="4"/>
       <c r="D584" s="14" t="s">
         <v>851</v>
@@ -15165,7 +15233,7 @@
       <c r="B585" s="4"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="46">
+      <c r="A586" s="45">
         <v>43449</v>
       </c>
       <c r="B586" s="31"/>
@@ -15174,7 +15242,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="46"/>
+      <c r="A587" s="45"/>
       <c r="B587" s="31"/>
       <c r="C587" t="s">
         <v>865</v>
@@ -15184,8 +15252,8 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="46"/>
-      <c r="B588" s="47" t="s">
+      <c r="A588" s="45"/>
+      <c r="B588" s="46" t="s">
         <v>878</v>
       </c>
       <c r="D588" s="14" t="s">
@@ -15193,63 +15261,63 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="46"/>
-      <c r="B589" s="47"/>
+      <c r="A589" s="45"/>
+      <c r="B589" s="46"/>
       <c r="D589" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="46"/>
-      <c r="B590" s="47"/>
+      <c r="A590" s="45"/>
+      <c r="B590" s="46"/>
       <c r="D590" s="14" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="46"/>
-      <c r="B591" s="47"/>
+      <c r="A591" s="45"/>
+      <c r="B591" s="46"/>
       <c r="D591" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="46"/>
-      <c r="B592" s="47"/>
+      <c r="A592" s="45"/>
+      <c r="B592" s="46"/>
       <c r="D592" s="14" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="46"/>
-      <c r="B593" s="47"/>
+      <c r="A593" s="45"/>
+      <c r="B593" s="46"/>
       <c r="D593" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="46"/>
-      <c r="B594" s="47"/>
+      <c r="A594" s="45"/>
+      <c r="B594" s="46"/>
       <c r="D594" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="46"/>
-      <c r="B595" s="47"/>
+      <c r="A595" s="45"/>
+      <c r="B595" s="46"/>
       <c r="D595" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="46"/>
-      <c r="B596" s="47"/>
+      <c r="A596" s="45"/>
+      <c r="B596" s="46"/>
       <c r="D596" s="14" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="46">
+      <c r="A598" s="45">
         <v>43450</v>
       </c>
       <c r="B598" s="31"/>
@@ -15258,7 +15326,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="46"/>
+      <c r="A599" s="45"/>
       <c r="B599" s="31"/>
       <c r="C599" t="s">
         <v>873</v>
@@ -15268,91 +15336,91 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="46"/>
+      <c r="A600" s="45"/>
       <c r="B600" s="31"/>
       <c r="D600" s="16" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="46"/>
+      <c r="A601" s="45"/>
       <c r="B601" s="31"/>
       <c r="D601" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="46"/>
+      <c r="A602" s="45"/>
       <c r="B602" s="31"/>
       <c r="D602" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="46"/>
+      <c r="A603" s="45"/>
       <c r="B603" s="31"/>
       <c r="D603" s="14" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="46"/>
+      <c r="A604" s="45"/>
       <c r="B604" s="31"/>
       <c r="D604" s="14" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="46"/>
+      <c r="A605" s="45"/>
       <c r="B605" s="31"/>
       <c r="D605" s="14" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="46"/>
+      <c r="A606" s="45"/>
       <c r="B606" s="31"/>
       <c r="D606" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="46"/>
+      <c r="A607" s="45"/>
       <c r="B607" s="31"/>
       <c r="D607" s="14" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="46"/>
+      <c r="A608" s="45"/>
       <c r="B608" s="30"/>
       <c r="D608" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="46"/>
+      <c r="A609" s="45"/>
       <c r="B609" s="4"/>
       <c r="D609" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="46"/>
+      <c r="A610" s="45"/>
       <c r="B610" s="4"/>
       <c r="D610" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="46"/>
+      <c r="A611" s="45"/>
       <c r="B611" s="4"/>
       <c r="D611" s="14" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="45">
+      <c r="A613" s="47">
         <v>43451</v>
       </c>
       <c r="B613" s="31"/>
@@ -15364,14 +15432,14 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="45"/>
+      <c r="A614" s="47"/>
       <c r="B614" s="31"/>
       <c r="D614" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="45"/>
+      <c r="A615" s="47"/>
       <c r="B615" s="31"/>
       <c r="C615" s="14" t="s">
         <v>717</v>
@@ -15381,7 +15449,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="45"/>
+      <c r="A616" s="47"/>
       <c r="B616" s="31"/>
       <c r="C616" s="14"/>
       <c r="D616" s="14" t="s">
@@ -15389,42 +15457,42 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="45"/>
+      <c r="A617" s="47"/>
       <c r="B617" s="31"/>
       <c r="D617" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="45"/>
+      <c r="A618" s="47"/>
       <c r="B618" s="31"/>
       <c r="D618" s="14" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="45"/>
+      <c r="A619" s="47"/>
       <c r="B619" s="30"/>
       <c r="D619" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="45"/>
+      <c r="A620" s="47"/>
       <c r="B620" s="4"/>
       <c r="D620" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="45"/>
+      <c r="A621" s="47"/>
       <c r="B621" s="4"/>
       <c r="D621" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="45">
+      <c r="A623" s="47">
         <v>43452</v>
       </c>
       <c r="B623" s="31"/>
@@ -15436,28 +15504,28 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="45"/>
+      <c r="A624" s="47"/>
       <c r="B624" s="31"/>
       <c r="D624" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="45"/>
+      <c r="A625" s="47"/>
       <c r="B625" s="31"/>
       <c r="D625" s="14" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="45"/>
+      <c r="A626" s="47"/>
       <c r="B626" s="31"/>
       <c r="D626" s="14" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="45"/>
+      <c r="A627" s="47"/>
       <c r="B627" s="31"/>
       <c r="C627" s="14" t="s">
         <v>717</v>
@@ -15467,8 +15535,8 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="45"/>
-      <c r="B628" s="47" t="s">
+      <c r="A628" s="47"/>
+      <c r="B628" s="46" t="s">
         <v>895</v>
       </c>
       <c r="D628" s="14" t="s">
@@ -15476,38 +15544,38 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="45"/>
-      <c r="B629" s="47"/>
+      <c r="A629" s="47"/>
+      <c r="B629" s="46"/>
       <c r="D629" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="45"/>
-      <c r="B630" s="47"/>
+      <c r="A630" s="47"/>
+      <c r="B630" s="46"/>
       <c r="D630" s="14" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="45"/>
-      <c r="B631" s="47"/>
+      <c r="A631" s="47"/>
+      <c r="B631" s="46"/>
       <c r="D631" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="45"/>
-      <c r="B632" s="47"/>
+      <c r="A632" s="47"/>
+      <c r="B632" s="46"/>
       <c r="D632" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="45">
+      <c r="A634" s="47">
         <v>43453</v>
       </c>
-      <c r="B634" s="47"/>
+      <c r="B634" s="46"/>
       <c r="C634" t="s">
         <v>893</v>
       </c>
@@ -15519,8 +15587,8 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="45"/>
-      <c r="B635" s="47"/>
+      <c r="A635" s="47"/>
+      <c r="B635" s="46"/>
       <c r="C635" t="s">
         <v>891</v>
       </c>
@@ -15529,14 +15597,14 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="45"/>
-      <c r="B636" s="47"/>
+      <c r="A636" s="47"/>
+      <c r="B636" s="46"/>
       <c r="D636" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="45"/>
+      <c r="A637" s="47"/>
       <c r="B637" s="31"/>
       <c r="C637" s="14" t="s">
         <v>717</v>
@@ -15546,56 +15614,56 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="45"/>
+      <c r="A638" s="47"/>
       <c r="B638" s="31"/>
       <c r="D638" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="45"/>
+      <c r="A639" s="47"/>
       <c r="B639" s="31"/>
       <c r="D639" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="45"/>
+      <c r="A640" s="47"/>
       <c r="B640" s="31"/>
       <c r="D640" s="14" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="45"/>
+      <c r="A641" s="47"/>
       <c r="B641" s="31"/>
       <c r="D641" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="45"/>
+      <c r="A642" s="47"/>
       <c r="B642" s="30"/>
       <c r="D642" s="14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="45"/>
+      <c r="A643" s="47"/>
       <c r="B643" s="4"/>
       <c r="D643" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="45"/>
+      <c r="A644" s="47"/>
       <c r="B644" s="4"/>
       <c r="D644" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="45">
+      <c r="A646" s="47">
         <v>43454</v>
       </c>
       <c r="B646" s="31"/>
@@ -15607,21 +15675,21 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="45"/>
+      <c r="A647" s="47"/>
       <c r="B647" s="31"/>
       <c r="D647" s="14" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="45"/>
+      <c r="A648" s="47"/>
       <c r="B648" s="31"/>
       <c r="D648" s="14" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="45"/>
+      <c r="A649" s="47"/>
       <c r="B649" s="31"/>
       <c r="C649" s="14" t="s">
         <v>717</v>
@@ -15631,49 +15699,49 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="45"/>
+      <c r="A650" s="47"/>
       <c r="B650" s="31"/>
       <c r="D650" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="45"/>
+      <c r="A651" s="47"/>
       <c r="B651" s="31"/>
       <c r="D651" s="14" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="45"/>
+      <c r="A652" s="47"/>
       <c r="B652" s="31"/>
       <c r="D652" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="45"/>
+      <c r="A653" s="47"/>
       <c r="B653" s="30"/>
       <c r="D653" s="14" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="45"/>
+      <c r="A654" s="47"/>
       <c r="B654" s="4"/>
       <c r="D654" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="45"/>
+      <c r="A655" s="47"/>
       <c r="B655" s="4"/>
       <c r="D655" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="45">
+      <c r="A657" s="47">
         <v>43455</v>
       </c>
       <c r="B657" s="31"/>
@@ -15685,21 +15753,21 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="45"/>
+      <c r="A658" s="47"/>
       <c r="B658" s="31"/>
       <c r="D658" s="14" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="45"/>
+      <c r="A659" s="47"/>
       <c r="B659" s="31"/>
       <c r="D659" s="14" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="45"/>
+      <c r="A660" s="47"/>
       <c r="B660" s="31"/>
       <c r="C660" s="14" t="s">
         <v>717</v>
@@ -15709,35 +15777,35 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="45"/>
+      <c r="A661" s="47"/>
       <c r="B661" s="31"/>
       <c r="D661" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="45"/>
+      <c r="A662" s="47"/>
       <c r="B662" s="31"/>
       <c r="D662" s="14" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="45"/>
+      <c r="A663" s="47"/>
       <c r="B663" s="4"/>
       <c r="D663" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="45"/>
+      <c r="A664" s="47"/>
       <c r="B664" s="4"/>
       <c r="D664" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="46">
+      <c r="A666" s="45">
         <v>43456</v>
       </c>
       <c r="B666" s="31"/>
@@ -15749,70 +15817,70 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A667" s="46"/>
+      <c r="A667" s="45"/>
       <c r="B667" s="31"/>
       <c r="D667" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="46"/>
+      <c r="A668" s="45"/>
       <c r="B668" s="31"/>
       <c r="D668" s="14" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A669" s="46"/>
+      <c r="A669" s="45"/>
       <c r="B669" s="31"/>
       <c r="D669" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A670" s="46"/>
+      <c r="A670" s="45"/>
       <c r="B670" s="31"/>
       <c r="D670" s="14" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A671" s="46"/>
+      <c r="A671" s="45"/>
       <c r="B671" s="31"/>
       <c r="D671" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A672" s="46"/>
+      <c r="A672" s="45"/>
       <c r="B672" s="31"/>
       <c r="D672" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A673" s="46"/>
+      <c r="A673" s="45"/>
       <c r="B673" s="31"/>
       <c r="D673" s="14" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A674" s="46"/>
+      <c r="A674" s="45"/>
       <c r="B674" s="4"/>
       <c r="D674" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A675" s="46"/>
+      <c r="A675" s="45"/>
       <c r="B675" s="4"/>
       <c r="D675" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A677" s="46">
+      <c r="A677" s="45">
         <v>43457</v>
       </c>
       <c r="B677" s="31"/>
@@ -15824,70 +15892,70 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A678" s="46"/>
+      <c r="A678" s="45"/>
       <c r="B678" s="31"/>
       <c r="D678" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A679" s="46"/>
+      <c r="A679" s="45"/>
       <c r="B679" s="31"/>
       <c r="D679" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="46"/>
+      <c r="A680" s="45"/>
       <c r="B680" s="31"/>
       <c r="D680" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A681" s="46"/>
+      <c r="A681" s="45"/>
       <c r="B681" s="31"/>
       <c r="D681" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A682" s="46"/>
+      <c r="A682" s="45"/>
       <c r="B682" s="31"/>
       <c r="D682" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A683" s="46"/>
+      <c r="A683" s="45"/>
       <c r="B683" s="31"/>
       <c r="D683" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A684" s="46"/>
+      <c r="A684" s="45"/>
       <c r="B684" s="30"/>
       <c r="D684" s="14" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="46"/>
+      <c r="A685" s="45"/>
       <c r="B685" s="4"/>
       <c r="D685" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A686" s="46"/>
+      <c r="A686" s="45"/>
       <c r="B686" s="4"/>
       <c r="D686" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="45">
+      <c r="A688" s="47">
         <v>43458</v>
       </c>
       <c r="B688" s="31"/>
@@ -15899,14 +15967,14 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="45"/>
+      <c r="A689" s="47"/>
       <c r="B689" s="31"/>
       <c r="D689" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="45"/>
+      <c r="A690" s="47"/>
       <c r="B690" s="31"/>
       <c r="C690" s="14" t="s">
         <v>717</v>
@@ -15916,35 +15984,35 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="45"/>
+      <c r="A691" s="47"/>
       <c r="B691" s="31"/>
       <c r="D691" s="14" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="45"/>
+      <c r="A692" s="47"/>
       <c r="B692" s="31"/>
       <c r="D692" s="14" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="45"/>
+      <c r="A693" s="47"/>
       <c r="B693" s="31"/>
       <c r="D693" s="14" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="45"/>
+      <c r="A694" s="47"/>
       <c r="B694" s="4"/>
       <c r="D694" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="45">
+      <c r="A696" s="47">
         <v>43459</v>
       </c>
       <c r="B696" s="31"/>
@@ -15956,14 +16024,14 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="45"/>
+      <c r="A697" s="47"/>
       <c r="B697" s="31"/>
       <c r="D697" s="14" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="45"/>
+      <c r="A698" s="47"/>
       <c r="B698" s="31"/>
       <c r="C698" s="14" t="s">
         <v>947</v>
@@ -15973,35 +16041,35 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="45"/>
+      <c r="A699" s="47"/>
       <c r="B699" s="31"/>
       <c r="D699" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="45"/>
+      <c r="A700" s="47"/>
       <c r="B700" s="31"/>
       <c r="D700" s="14" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="45"/>
+      <c r="A701" s="47"/>
       <c r="B701" s="4"/>
       <c r="D701" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="45"/>
+      <c r="A702" s="47"/>
       <c r="B702" s="4"/>
       <c r="D702" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A704" s="45">
+      <c r="A704" s="47">
         <v>43460</v>
       </c>
       <c r="B704" s="31" t="s">
@@ -16015,14 +16083,14 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="45"/>
+      <c r="A705" s="47"/>
       <c r="B705" s="31"/>
       <c r="D705" s="14" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="45"/>
+      <c r="A706" s="47"/>
       <c r="B706" s="31"/>
       <c r="C706" s="14" t="s">
         <v>947</v>
@@ -16032,28 +16100,28 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="45"/>
+      <c r="A707" s="47"/>
       <c r="B707" s="31"/>
       <c r="D707" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="45"/>
+      <c r="A708" s="47"/>
       <c r="B708" s="31"/>
       <c r="D708" s="14" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="45"/>
+      <c r="A709" s="47"/>
       <c r="B709" s="4"/>
       <c r="D709" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="45">
+      <c r="A711" s="47">
         <v>43461</v>
       </c>
       <c r="B711" s="31"/>
@@ -16065,14 +16133,14 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="45"/>
+      <c r="A712" s="47"/>
       <c r="B712" s="31"/>
       <c r="D712" s="14" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="45"/>
+      <c r="A713" s="47"/>
       <c r="B713" s="31"/>
       <c r="C713" s="14" t="s">
         <v>717</v>
@@ -16082,42 +16150,42 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="45"/>
+      <c r="A714" s="47"/>
       <c r="B714" s="31"/>
       <c r="D714" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="45"/>
+      <c r="A715" s="47"/>
       <c r="B715" s="31"/>
       <c r="D715" s="14" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="45"/>
+      <c r="A716" s="47"/>
       <c r="B716" s="31"/>
       <c r="D716" s="14" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="45"/>
+      <c r="A717" s="47"/>
       <c r="B717" s="4"/>
       <c r="D717" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="45"/>
+      <c r="A718" s="47"/>
       <c r="B718" s="4"/>
       <c r="D718" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="45">
+      <c r="A720" s="47">
         <v>43462</v>
       </c>
       <c r="B720" s="31"/>
@@ -16129,14 +16197,14 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="45"/>
+      <c r="A721" s="47"/>
       <c r="B721" s="31"/>
       <c r="D721" s="14" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="45"/>
+      <c r="A722" s="47"/>
       <c r="B722" s="31"/>
       <c r="C722" s="14" t="s">
         <v>717</v>
@@ -16146,28 +16214,28 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="45"/>
+      <c r="A723" s="47"/>
       <c r="B723" s="31"/>
       <c r="D723" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="45"/>
+      <c r="A724" s="47"/>
       <c r="B724" s="4"/>
       <c r="D724" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="45"/>
+      <c r="A725" s="47"/>
       <c r="B725" s="4"/>
       <c r="D725" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A727" s="46">
+      <c r="A727" s="45">
         <v>43463</v>
       </c>
       <c r="B727" s="31"/>
@@ -16179,7 +16247,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="46"/>
+      <c r="A728" s="45"/>
       <c r="B728" s="31"/>
       <c r="C728" s="14" t="s">
         <v>717</v>
@@ -16189,35 +16257,35 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A729" s="46"/>
+      <c r="A729" s="45"/>
       <c r="B729" s="31"/>
       <c r="D729" s="14" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A730" s="46"/>
+      <c r="A730" s="45"/>
       <c r="B730" s="31"/>
       <c r="D730" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A731" s="46"/>
+      <c r="A731" s="45"/>
       <c r="B731" s="4"/>
       <c r="D731" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A732" s="46"/>
+      <c r="A732" s="45"/>
       <c r="B732" s="4"/>
       <c r="D732" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A734" s="46">
+      <c r="A734" s="45">
         <v>43464</v>
       </c>
       <c r="B734" s="31"/>
@@ -16226,56 +16294,56 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A735" s="46"/>
+      <c r="A735" s="45"/>
       <c r="B735" s="31"/>
       <c r="D735" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A736" s="46"/>
+      <c r="A736" s="45"/>
       <c r="B736" s="31"/>
       <c r="D736" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A737" s="46"/>
+      <c r="A737" s="45"/>
       <c r="B737" s="31"/>
       <c r="D737" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A738" s="46"/>
+      <c r="A738" s="45"/>
       <c r="B738" s="31"/>
       <c r="D738" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A739" s="46"/>
+      <c r="A739" s="45"/>
       <c r="B739" s="30"/>
       <c r="D739" s="14" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A740" s="46"/>
+      <c r="A740" s="45"/>
       <c r="B740" s="4"/>
       <c r="D740" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A741" s="46"/>
+      <c r="A741" s="45"/>
       <c r="B741" s="4"/>
       <c r="D741" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="45">
+      <c r="A743" s="47">
         <v>43465</v>
       </c>
       <c r="B743" s="31"/>
@@ -16287,35 +16355,35 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="45"/>
+      <c r="A744" s="47"/>
       <c r="B744" s="31"/>
       <c r="D744" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="45"/>
+      <c r="A745" s="47"/>
       <c r="B745" s="31"/>
       <c r="D745" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="45"/>
+      <c r="A746" s="47"/>
       <c r="B746" s="31"/>
       <c r="D746" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="45"/>
+      <c r="A747" s="47"/>
       <c r="B747" s="4"/>
       <c r="D747" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="45"/>
+      <c r="A748" s="47"/>
       <c r="B748" s="4" t="s">
         <v>966</v>
       </c>
@@ -16324,7 +16392,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="45">
+      <c r="A750" s="47">
         <v>43466</v>
       </c>
       <c r="B750" s="31"/>
@@ -16333,35 +16401,35 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="45"/>
+      <c r="A751" s="47"/>
       <c r="B751" s="31"/>
       <c r="D751" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="45"/>
+      <c r="A752" s="47"/>
       <c r="B752" s="31"/>
       <c r="D752" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="45"/>
+      <c r="A753" s="47"/>
       <c r="B753" s="31"/>
       <c r="D753" s="14" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="45"/>
+      <c r="A754" s="47"/>
       <c r="B754" s="4"/>
       <c r="D754" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="45"/>
+      <c r="A755" s="47"/>
       <c r="B755" s="4" t="s">
         <v>967</v>
       </c>
@@ -16370,7 +16438,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="45">
+      <c r="A757" s="47">
         <v>43467</v>
       </c>
       <c r="B757" s="31" t="s">
@@ -16384,7 +16452,7 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="45"/>
+      <c r="A758" s="47"/>
       <c r="B758" s="31" t="s">
         <v>976</v>
       </c>
@@ -16393,7 +16461,7 @@
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="45"/>
+      <c r="A759" s="47"/>
       <c r="B759" s="31" t="s">
         <v>996</v>
       </c>
@@ -16405,7 +16473,7 @@
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="45"/>
+      <c r="A760" s="47"/>
       <c r="B760" s="31" t="s">
         <v>997</v>
       </c>
@@ -16414,19 +16482,19 @@
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="45"/>
+      <c r="A761" s="47"/>
       <c r="B761" s="4"/>
       <c r="D761" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="45"/>
+      <c r="A762" s="47"/>
       <c r="B762" s="4"/>
       <c r="D762" s="14"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A764" s="45">
+      <c r="A764" s="47">
         <v>43468</v>
       </c>
       <c r="B764" s="31" t="s">
@@ -16440,14 +16508,14 @@
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A765" s="45"/>
+      <c r="A765" s="47"/>
       <c r="B765" s="31"/>
       <c r="D765" s="14" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A766" s="45"/>
+      <c r="A766" s="47"/>
       <c r="B766" s="31"/>
       <c r="C766" s="14" t="s">
         <v>717</v>
@@ -16457,26 +16525,26 @@
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A767" s="45"/>
+      <c r="A767" s="47"/>
       <c r="B767" s="31"/>
       <c r="D767" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="45"/>
+      <c r="A768" s="47"/>
       <c r="B768" s="4"/>
       <c r="D768" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="45"/>
+      <c r="A769" s="47"/>
       <c r="B769" s="4"/>
       <c r="D769" s="14"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A771" s="45">
+      <c r="A771" s="47">
         <v>43469</v>
       </c>
       <c r="B771" s="31" t="s">
@@ -16490,7 +16558,7 @@
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A772" s="45"/>
+      <c r="A772" s="47"/>
       <c r="B772" s="31"/>
       <c r="C772" s="14" t="s">
         <v>717</v>
@@ -16500,21 +16568,21 @@
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A773" s="45"/>
+      <c r="A773" s="47"/>
       <c r="B773" s="31"/>
       <c r="D773" s="14" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A774" s="45"/>
+      <c r="A774" s="47"/>
       <c r="B774" s="4"/>
       <c r="D774" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A776" s="46">
+      <c r="A776" s="45">
         <v>43470</v>
       </c>
       <c r="B776" s="31"/>
@@ -16526,42 +16594,42 @@
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A777" s="46"/>
+      <c r="A777" s="45"/>
       <c r="B777" s="31"/>
       <c r="D777" s="14" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A778" s="46"/>
+      <c r="A778" s="45"/>
       <c r="B778" s="31"/>
       <c r="D778" s="14" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A779" s="46"/>
+      <c r="A779" s="45"/>
       <c r="B779" s="31"/>
       <c r="D779" s="14" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A780" s="46"/>
+      <c r="A780" s="45"/>
       <c r="B780" s="4"/>
       <c r="D780" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A781" s="46"/>
+      <c r="A781" s="45"/>
       <c r="B781" s="4"/>
       <c r="D781" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A783" s="46">
+      <c r="A783" s="45">
         <v>43471</v>
       </c>
       <c r="B783" s="31"/>
@@ -16573,84 +16641,84 @@
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A784" s="46"/>
+      <c r="A784" s="45"/>
       <c r="B784" s="31"/>
       <c r="D784" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A785" s="46"/>
+      <c r="A785" s="45"/>
       <c r="B785" s="31"/>
       <c r="D785" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A786" s="46"/>
+      <c r="A786" s="45"/>
       <c r="B786" s="31"/>
       <c r="D786" s="14" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A787" s="46"/>
+      <c r="A787" s="45"/>
       <c r="B787" s="31"/>
       <c r="D787" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A788" s="46"/>
+      <c r="A788" s="45"/>
       <c r="B788" s="31"/>
       <c r="D788" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A789" s="46"/>
+      <c r="A789" s="45"/>
       <c r="B789" s="31"/>
       <c r="D789" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A790" s="46"/>
+      <c r="A790" s="45"/>
       <c r="B790" s="31"/>
       <c r="D790" s="14" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A791" s="46"/>
+      <c r="A791" s="45"/>
       <c r="B791" s="31"/>
       <c r="D791" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A792" s="46"/>
+      <c r="A792" s="45"/>
       <c r="B792" s="31"/>
       <c r="D792" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A793" s="46"/>
+      <c r="A793" s="45"/>
       <c r="B793" s="31"/>
       <c r="D793" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A794" s="46"/>
+      <c r="A794" s="45"/>
       <c r="B794" s="4"/>
       <c r="D794" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A796" s="45">
+      <c r="A796" s="47">
         <v>43472</v>
       </c>
       <c r="B796" s="31"/>
@@ -16662,14 +16730,14 @@
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A797" s="45"/>
+      <c r="A797" s="47"/>
       <c r="B797" s="31"/>
       <c r="D797" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A798" s="45"/>
+      <c r="A798" s="47"/>
       <c r="B798" s="31"/>
       <c r="C798" s="14" t="s">
         <v>717</v>
@@ -16679,98 +16747,98 @@
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A799" s="45"/>
+      <c r="A799" s="47"/>
       <c r="B799" s="31"/>
       <c r="D799" s="14" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A800" s="45"/>
+      <c r="A800" s="47"/>
       <c r="B800" s="31"/>
       <c r="D800" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A801" s="45"/>
+      <c r="A801" s="47"/>
       <c r="B801" s="31"/>
       <c r="D801" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A802" s="45"/>
+      <c r="A802" s="47"/>
       <c r="B802" s="31"/>
       <c r="D802" s="14" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A803" s="45"/>
+      <c r="A803" s="47"/>
       <c r="B803" s="31"/>
       <c r="D803" s="14" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A804" s="45"/>
+      <c r="A804" s="47"/>
       <c r="B804" s="31"/>
       <c r="D804" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A805" s="45"/>
+      <c r="A805" s="47"/>
       <c r="B805" s="31"/>
       <c r="D805" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A806" s="45"/>
+      <c r="A806" s="47"/>
       <c r="B806" s="31"/>
       <c r="D806" s="14" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A807" s="45"/>
+      <c r="A807" s="47"/>
       <c r="B807" s="31"/>
       <c r="D807" s="14" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A808" s="45"/>
+      <c r="A808" s="47"/>
       <c r="B808" s="31"/>
       <c r="D808" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A809" s="45"/>
+      <c r="A809" s="47"/>
       <c r="B809" s="31"/>
       <c r="D809" s="14" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A810" s="45"/>
+      <c r="A810" s="47"/>
       <c r="B810" s="31"/>
       <c r="D810" s="14" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A811" s="45"/>
+      <c r="A811" s="47"/>
       <c r="B811" s="4"/>
       <c r="D811" s="14" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A813" s="45">
+      <c r="A813" s="47">
         <v>43473</v>
       </c>
       <c r="B813" s="31"/>
@@ -16782,21 +16850,21 @@
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A814" s="45"/>
+      <c r="A814" s="47"/>
       <c r="B814" s="31"/>
       <c r="D814" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A815" s="45"/>
+      <c r="A815" s="47"/>
       <c r="B815" s="31"/>
       <c r="D815" s="14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A816" s="45"/>
+      <c r="A816" s="47"/>
       <c r="B816" s="31"/>
       <c r="C816" s="14" t="s">
         <v>717</v>
@@ -16806,56 +16874,56 @@
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A817" s="45"/>
+      <c r="A817" s="47"/>
       <c r="B817" s="31"/>
       <c r="D817" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A818" s="45"/>
+      <c r="A818" s="47"/>
       <c r="B818" s="31"/>
       <c r="D818" s="14" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A819" s="45"/>
+      <c r="A819" s="47"/>
       <c r="B819" s="31"/>
       <c r="D819" s="14" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A820" s="45"/>
+      <c r="A820" s="47"/>
       <c r="B820" s="31"/>
       <c r="D820" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A821" s="45"/>
+      <c r="A821" s="47"/>
       <c r="B821" s="31"/>
       <c r="D821" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A822" s="45"/>
+      <c r="A822" s="47"/>
       <c r="B822" s="31"/>
       <c r="D822" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A823" s="45"/>
+      <c r="A823" s="47"/>
       <c r="B823" s="31"/>
       <c r="D823" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A824" s="45"/>
+      <c r="A824" s="47"/>
       <c r="B824" s="31"/>
       <c r="D824" s="14" t="s">
         <v>1041</v>
@@ -16867,7 +16935,7 @@
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A826" s="45">
+      <c r="A826" s="47">
         <v>43474</v>
       </c>
       <c r="B826" s="31"/>
@@ -16879,21 +16947,21 @@
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A827" s="45"/>
+      <c r="A827" s="47"/>
       <c r="B827" s="31"/>
       <c r="D827" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A828" s="45"/>
+      <c r="A828" s="47"/>
       <c r="B828" s="31"/>
       <c r="D828" s="14" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A829" s="45"/>
+      <c r="A829" s="47"/>
       <c r="B829" s="31"/>
       <c r="C829" s="14" t="s">
         <v>717</v>
@@ -16903,63 +16971,63 @@
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A830" s="45"/>
+      <c r="A830" s="47"/>
       <c r="B830" s="31"/>
       <c r="D830" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A831" s="45"/>
+      <c r="A831" s="47"/>
       <c r="B831" s="31"/>
       <c r="D831" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A832" s="45"/>
+      <c r="A832" s="47"/>
       <c r="B832" s="31"/>
       <c r="D832" s="14" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A833" s="45"/>
+      <c r="A833" s="47"/>
       <c r="B833" s="31"/>
       <c r="D833" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A834" s="45"/>
+      <c r="A834" s="47"/>
       <c r="B834" s="31"/>
       <c r="D834" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A835" s="45"/>
+      <c r="A835" s="47"/>
       <c r="B835" s="31"/>
       <c r="D835" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A836" s="45"/>
+      <c r="A836" s="47"/>
       <c r="B836" s="31"/>
       <c r="D836" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A837" s="45"/>
+      <c r="A837" s="47"/>
       <c r="B837" s="31"/>
       <c r="D837" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A838" s="45"/>
+      <c r="A838" s="47"/>
       <c r="D838" t="s">
         <v>1038</v>
       </c>
@@ -16973,7 +17041,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A840" s="45">
+      <c r="A840" s="47">
         <v>43475</v>
       </c>
       <c r="B840" s="31"/>
@@ -16985,28 +17053,28 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A841" s="45"/>
+      <c r="A841" s="47"/>
       <c r="B841" s="31"/>
       <c r="D841" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A842" s="45"/>
+      <c r="A842" s="47"/>
       <c r="B842" s="31"/>
       <c r="D842" s="14" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A843" s="45"/>
+      <c r="A843" s="47"/>
       <c r="B843" s="31"/>
       <c r="D843" s="14" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A844" s="45"/>
+      <c r="A844" s="47"/>
       <c r="B844" s="31"/>
       <c r="C844" s="14" t="s">
         <v>717</v>
@@ -17016,70 +17084,70 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A845" s="45"/>
+      <c r="A845" s="47"/>
       <c r="B845" s="31"/>
       <c r="D845" s="14" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A846" s="45"/>
+      <c r="A846" s="47"/>
       <c r="B846" s="31"/>
       <c r="E846" s="16" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A847" s="45"/>
+      <c r="A847" s="47"/>
       <c r="B847" s="31"/>
       <c r="D847" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A848" s="45"/>
+      <c r="A848" s="47"/>
       <c r="B848" s="31"/>
       <c r="D848" s="14" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A849" s="45"/>
+      <c r="A849" s="47"/>
       <c r="B849" s="31"/>
       <c r="D849" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A850" s="45"/>
+      <c r="A850" s="47"/>
       <c r="B850" s="31"/>
       <c r="D850" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A851" s="45"/>
+      <c r="A851" s="47"/>
       <c r="B851" s="31"/>
       <c r="D851" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A852" s="45"/>
+      <c r="A852" s="47"/>
       <c r="B852" s="31"/>
       <c r="D852" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A853" s="45"/>
+      <c r="A853" s="47"/>
       <c r="B853" s="31"/>
       <c r="D853" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A855" s="45">
+      <c r="A855" s="47">
         <v>43476</v>
       </c>
       <c r="B855" s="31"/>
@@ -17091,21 +17159,21 @@
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A856" s="45"/>
+      <c r="A856" s="47"/>
       <c r="B856" s="31"/>
       <c r="D856" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A857" s="45"/>
+      <c r="A857" s="47"/>
       <c r="B857" s="31"/>
       <c r="D857" s="14" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A858" s="45"/>
+      <c r="A858" s="47"/>
       <c r="B858" s="31"/>
       <c r="C858" s="14" t="s">
         <v>717</v>
@@ -17115,56 +17183,56 @@
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A859" s="45"/>
+      <c r="A859" s="47"/>
       <c r="B859" s="31"/>
       <c r="D859" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A860" s="45"/>
+      <c r="A860" s="47"/>
       <c r="B860" s="31"/>
       <c r="D860" s="16" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A861" s="45"/>
+      <c r="A861" s="47"/>
       <c r="B861" s="31"/>
       <c r="D861" s="14" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A862" s="45"/>
+      <c r="A862" s="47"/>
       <c r="B862" s="31"/>
       <c r="D862" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A863" s="45"/>
+      <c r="A863" s="47"/>
       <c r="B863" s="31"/>
       <c r="D863" s="14" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A864" s="45"/>
+      <c r="A864" s="47"/>
       <c r="B864" s="31"/>
       <c r="D864" s="14" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A865" s="45"/>
+      <c r="A865" s="47"/>
       <c r="B865" s="31"/>
       <c r="D865" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A866" s="45"/>
+      <c r="A866" s="47"/>
       <c r="B866" s="31"/>
       <c r="D866" s="14" t="s">
         <v>767</v>
@@ -17176,7 +17244,7 @@
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A868" s="46">
+      <c r="A868" s="45">
         <v>43477</v>
       </c>
       <c r="B868" s="31"/>
@@ -17185,49 +17253,49 @@
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A869" s="46"/>
+      <c r="A869" s="45"/>
       <c r="B869" s="31"/>
       <c r="D869" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A870" s="46"/>
+      <c r="A870" s="45"/>
       <c r="B870" s="31"/>
       <c r="D870" s="14" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A871" s="46"/>
+      <c r="A871" s="45"/>
       <c r="B871" s="31"/>
       <c r="D871" s="14" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A872" s="46"/>
+      <c r="A872" s="45"/>
       <c r="B872" s="31"/>
       <c r="D872" s="14" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A873" s="46"/>
+      <c r="A873" s="45"/>
       <c r="B873" s="31"/>
       <c r="D873" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A874" s="46"/>
+      <c r="A874" s="45"/>
       <c r="B874" s="31"/>
       <c r="D874" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A875" s="46"/>
+      <c r="A875" s="45"/>
       <c r="B875" s="31"/>
       <c r="D875" s="14" t="s">
         <v>1007</v>
@@ -17239,10 +17307,10 @@
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A877" s="46">
+      <c r="A877" s="45">
         <v>43478</v>
       </c>
-      <c r="B877" s="53" t="s">
+      <c r="B877" s="48" t="s">
         <v>1083</v>
       </c>
       <c r="D877" s="14" t="s">
@@ -17250,29 +17318,29 @@
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A878" s="46"/>
-      <c r="B878" s="53"/>
+      <c r="A878" s="45"/>
+      <c r="B878" s="48"/>
       <c r="D878" s="16" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A879" s="46"/>
-      <c r="B879" s="53"/>
+      <c r="A879" s="45"/>
+      <c r="B879" s="48"/>
       <c r="D879" s="14" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A880" s="46"/>
-      <c r="B880" s="53"/>
+      <c r="A880" s="45"/>
+      <c r="B880" s="48"/>
       <c r="D880" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A881" s="46"/>
-      <c r="B881" s="53"/>
+      <c r="A881" s="45"/>
+      <c r="B881" s="48"/>
       <c r="D881" s="16" t="s">
         <v>1073</v>
       </c>
@@ -17283,7 +17351,7 @@
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A883" s="45">
+      <c r="A883" s="47">
         <v>43479</v>
       </c>
       <c r="B883" s="31"/>
@@ -17295,14 +17363,14 @@
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A884" s="45"/>
+      <c r="A884" s="47"/>
       <c r="B884" s="31"/>
       <c r="D884" s="14" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A885" s="45"/>
+      <c r="A885" s="47"/>
       <c r="B885" s="31"/>
       <c r="C885" s="14" t="s">
         <v>717</v>
@@ -17312,35 +17380,35 @@
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A886" s="45"/>
+      <c r="A886" s="47"/>
       <c r="B886" s="31"/>
       <c r="D886" s="14" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A887" s="45"/>
+      <c r="A887" s="47"/>
       <c r="B887" s="31"/>
       <c r="D887" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A888" s="45"/>
+      <c r="A888" s="47"/>
       <c r="B888" s="31"/>
       <c r="D888" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A889" s="45"/>
+      <c r="A889" s="47"/>
       <c r="B889" s="31"/>
       <c r="D889" s="14" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A891" s="45">
+      <c r="A891" s="47">
         <v>43480</v>
       </c>
       <c r="B891" s="31"/>
@@ -17352,14 +17420,14 @@
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A892" s="45"/>
+      <c r="A892" s="47"/>
       <c r="B892" s="31"/>
       <c r="D892" s="14" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A893" s="45"/>
+      <c r="A893" s="47"/>
       <c r="B893" s="31"/>
       <c r="C893" s="14" t="s">
         <v>717</v>
@@ -17369,35 +17437,35 @@
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A894" s="45"/>
+      <c r="A894" s="47"/>
       <c r="B894" s="31"/>
       <c r="D894" s="14" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A895" s="45"/>
+      <c r="A895" s="47"/>
       <c r="B895" s="31"/>
       <c r="D895" s="16" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A896" s="45"/>
+      <c r="A896" s="47"/>
       <c r="B896" s="31"/>
       <c r="D896" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A897" s="45"/>
+      <c r="A897" s="47"/>
       <c r="B897" s="31"/>
       <c r="D897" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A899" s="45">
+      <c r="A899" s="47">
         <v>43481</v>
       </c>
       <c r="B899" s="31"/>
@@ -17409,7 +17477,7 @@
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A900" s="45"/>
+      <c r="A900" s="47"/>
       <c r="B900" s="31"/>
       <c r="C900" s="14" t="s">
         <v>717</v>
@@ -17419,35 +17487,35 @@
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A901" s="45"/>
+      <c r="A901" s="47"/>
       <c r="B901" s="31"/>
       <c r="D901" s="14" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A902" s="45"/>
+      <c r="A902" s="47"/>
       <c r="B902" s="31"/>
       <c r="D902" s="16" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A903" s="45"/>
+      <c r="A903" s="47"/>
       <c r="B903" s="31"/>
       <c r="D903" s="14" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A904" s="45"/>
+      <c r="A904" s="47"/>
       <c r="B904" s="31"/>
       <c r="D904" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A905" s="45"/>
+      <c r="A905" s="47"/>
       <c r="B905" s="31"/>
       <c r="D905" s="14" t="s">
         <v>767</v>
@@ -17459,7 +17527,7 @@
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A907" s="45">
+      <c r="A907" s="47">
         <v>43482</v>
       </c>
       <c r="B907" s="31"/>
@@ -17471,7 +17539,7 @@
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A908" s="45"/>
+      <c r="A908" s="47"/>
       <c r="B908" s="31"/>
       <c r="C908" s="14" t="s">
         <v>717</v>
@@ -17481,49 +17549,49 @@
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A909" s="45"/>
+      <c r="A909" s="47"/>
       <c r="B909" s="31"/>
       <c r="D909" s="14" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A910" s="45"/>
+      <c r="A910" s="47"/>
       <c r="B910" s="31"/>
       <c r="D910" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A911" s="45"/>
+      <c r="A911" s="47"/>
       <c r="B911" s="31"/>
       <c r="D911" s="16" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A912" s="45"/>
+      <c r="A912" s="47"/>
       <c r="B912" s="31"/>
       <c r="D912" s="14" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A913" s="45"/>
+      <c r="A913" s="47"/>
       <c r="B913" s="31"/>
       <c r="D913" s="14" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A914" s="45"/>
+      <c r="A914" s="47"/>
       <c r="B914" s="31"/>
       <c r="D914" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A915" s="45"/>
+      <c r="A915" s="47"/>
       <c r="B915" s="31"/>
       <c r="D915" s="14" t="s">
         <v>767</v>
@@ -17535,7 +17603,7 @@
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A917" s="45">
+      <c r="A917" s="47">
         <v>43483</v>
       </c>
       <c r="B917" s="31"/>
@@ -17547,28 +17615,28 @@
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A918" s="45"/>
+      <c r="A918" s="47"/>
       <c r="B918" s="31"/>
       <c r="D918" s="16" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A919" s="45"/>
+      <c r="A919" s="47"/>
       <c r="B919" s="31"/>
       <c r="D919" s="16" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A920" s="45"/>
+      <c r="A920" s="47"/>
       <c r="B920" s="31"/>
       <c r="D920" s="14" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A921" s="45"/>
+      <c r="A921" s="47"/>
       <c r="B921" s="31"/>
       <c r="C921" s="14" t="s">
         <v>717</v>
@@ -17578,35 +17646,35 @@
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A922" s="45"/>
+      <c r="A922" s="47"/>
       <c r="B922" s="31"/>
       <c r="D922" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A923" s="45"/>
+      <c r="A923" s="47"/>
       <c r="B923" s="31"/>
       <c r="D923" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A924" s="45"/>
+      <c r="A924" s="47"/>
       <c r="B924" s="31"/>
       <c r="D924" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A925" s="45"/>
+      <c r="A925" s="47"/>
       <c r="B925" s="31"/>
       <c r="D925" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A927" s="46">
+      <c r="A927" s="45">
         <v>43484</v>
       </c>
       <c r="B927" s="31"/>
@@ -17615,7 +17683,7 @@
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A928" s="46"/>
+      <c r="A928" s="45"/>
       <c r="B928" s="31"/>
       <c r="D928" s="14" t="s">
         <v>1110</v>
@@ -17625,7 +17693,7 @@
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A929" s="46"/>
+      <c r="A929" s="45"/>
       <c r="B929" s="31"/>
       <c r="D929" s="14" t="s">
         <v>1112</v>
@@ -17633,21 +17701,21 @@
       <c r="E929" s="44"/>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A930" s="46"/>
+      <c r="A930" s="45"/>
       <c r="B930" s="31"/>
       <c r="D930" s="14" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A931" s="46"/>
+      <c r="A931" s="45"/>
       <c r="B931" s="31"/>
       <c r="D931" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A932" s="46"/>
+      <c r="A932" s="45"/>
       <c r="B932" s="31"/>
       <c r="D932" s="14" t="s">
         <v>767</v>
@@ -17659,7 +17727,7 @@
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A934" s="46">
+      <c r="A934" s="45">
         <v>43485</v>
       </c>
       <c r="B934" s="31"/>
@@ -17668,28 +17736,28 @@
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A935" s="46"/>
+      <c r="A935" s="45"/>
       <c r="B935" s="31"/>
       <c r="D935" s="16" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A936" s="46"/>
+      <c r="A936" s="45"/>
       <c r="B936" s="31"/>
       <c r="D936" s="14" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A937" s="46"/>
+      <c r="A937" s="45"/>
       <c r="B937" s="31"/>
       <c r="D937" s="16" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A938" s="46"/>
+      <c r="A938" s="45"/>
       <c r="B938" s="31"/>
       <c r="D938" s="14" t="s">
         <v>767</v>
@@ -17701,7 +17769,7 @@
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A940" s="45">
+      <c r="A940" s="47">
         <v>43486</v>
       </c>
       <c r="B940" s="31"/>
@@ -17713,21 +17781,21 @@
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A941" s="45"/>
+      <c r="A941" s="47"/>
       <c r="B941" s="31"/>
       <c r="D941" s="14" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A942" s="45"/>
+      <c r="A942" s="47"/>
       <c r="B942" s="31"/>
       <c r="D942" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A944" s="45">
+      <c r="A944" s="47">
         <v>43487</v>
       </c>
       <c r="B944" s="31"/>
@@ -17736,14 +17804,14 @@
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A945" s="45"/>
+      <c r="A945" s="47"/>
       <c r="B945" s="31"/>
       <c r="D945" s="14" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A946" s="45"/>
+      <c r="A946" s="47"/>
       <c r="B946" s="31"/>
       <c r="C946" s="14" t="s">
         <v>717</v>
@@ -17753,21 +17821,21 @@
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A947" s="45"/>
+      <c r="A947" s="47"/>
       <c r="B947" s="31"/>
       <c r="D947" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A948" s="45"/>
+      <c r="A948" s="47"/>
       <c r="B948" s="31"/>
       <c r="D948" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A950" s="45">
+      <c r="A950" s="47">
         <v>43488</v>
       </c>
       <c r="B950" s="31"/>
@@ -17779,14 +17847,14 @@
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A951" s="45"/>
+      <c r="A951" s="47"/>
       <c r="B951" s="31"/>
       <c r="D951" s="14" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A952" s="45"/>
+      <c r="A952" s="47"/>
       <c r="B952" s="31"/>
       <c r="C952" s="14" t="s">
         <v>717</v>
@@ -17796,14 +17864,14 @@
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A953" s="45"/>
+      <c r="A953" s="47"/>
       <c r="B953" s="31"/>
       <c r="D953" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A954" s="45"/>
+      <c r="A954" s="47"/>
       <c r="B954" s="31"/>
       <c r="D954" s="14" t="s">
         <v>767</v>
@@ -17811,6 +17879,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="A764:A769"/>
+    <mergeCell ref="A646:A655"/>
+    <mergeCell ref="A657:A664"/>
+    <mergeCell ref="A950:A954"/>
+    <mergeCell ref="A907:A915"/>
+    <mergeCell ref="A917:A925"/>
+    <mergeCell ref="A891:A897"/>
+    <mergeCell ref="A796:A811"/>
+    <mergeCell ref="A743:A748"/>
+    <mergeCell ref="A750:A755"/>
+    <mergeCell ref="A757:A762"/>
+    <mergeCell ref="A734:A741"/>
+    <mergeCell ref="A826:A838"/>
+    <mergeCell ref="A813:A824"/>
+    <mergeCell ref="A771:A774"/>
+    <mergeCell ref="A776:A781"/>
+    <mergeCell ref="A783:A794"/>
+    <mergeCell ref="A840:A853"/>
+    <mergeCell ref="A927:A932"/>
+    <mergeCell ref="A934:A938"/>
+    <mergeCell ref="A711:A718"/>
+    <mergeCell ref="A666:A675"/>
+    <mergeCell ref="A677:A686"/>
+    <mergeCell ref="A688:A694"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B526:B531"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
+    <mergeCell ref="B561:B565"/>
+    <mergeCell ref="A560:A570"/>
+    <mergeCell ref="B588:B596"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A696:A702"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="A481:A487"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="B462:B467"/>
+    <mergeCell ref="B398:B408"/>
+    <mergeCell ref="A441:A450"/>
+    <mergeCell ref="B441:B450"/>
+    <mergeCell ref="B433:B439"/>
+    <mergeCell ref="A421:A431"/>
+    <mergeCell ref="B421:B431"/>
+    <mergeCell ref="A410:A419"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="A940:A942"/>
+    <mergeCell ref="A944:A948"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A355"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A899:A905"/>
+    <mergeCell ref="A883:A889"/>
+    <mergeCell ref="A357:A370"/>
+    <mergeCell ref="A372:A384"/>
+    <mergeCell ref="A386:A396"/>
+    <mergeCell ref="A433:A439"/>
+    <mergeCell ref="A720:A725"/>
+    <mergeCell ref="A727:A732"/>
+    <mergeCell ref="A855:A866"/>
+    <mergeCell ref="A452:A460"/>
+    <mergeCell ref="A398:A408"/>
+    <mergeCell ref="A472:A479"/>
+    <mergeCell ref="A586:A596"/>
+    <mergeCell ref="A462:A470"/>
+    <mergeCell ref="A549:A558"/>
     <mergeCell ref="A868:A875"/>
     <mergeCell ref="A877:A881"/>
     <mergeCell ref="B574:B580"/>
@@ -17835,99 +17996,6 @@
     <mergeCell ref="A514:A523"/>
     <mergeCell ref="A525:A535"/>
     <mergeCell ref="A537:A547"/>
-    <mergeCell ref="A940:A942"/>
-    <mergeCell ref="A944:A948"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A355"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A899:A905"/>
-    <mergeCell ref="A883:A889"/>
-    <mergeCell ref="A357:A370"/>
-    <mergeCell ref="A372:A384"/>
-    <mergeCell ref="A386:A396"/>
-    <mergeCell ref="A433:A439"/>
-    <mergeCell ref="A720:A725"/>
-    <mergeCell ref="A727:A732"/>
-    <mergeCell ref="A855:A866"/>
-    <mergeCell ref="A452:A460"/>
-    <mergeCell ref="A398:A408"/>
-    <mergeCell ref="A472:A479"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="A462:A470"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A696:A702"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="B472:B479"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="B462:B467"/>
-    <mergeCell ref="B398:B408"/>
-    <mergeCell ref="A441:A450"/>
-    <mergeCell ref="B441:B450"/>
-    <mergeCell ref="B433:B439"/>
-    <mergeCell ref="A421:A431"/>
-    <mergeCell ref="B421:B431"/>
-    <mergeCell ref="A410:A419"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
-    <mergeCell ref="B561:B565"/>
-    <mergeCell ref="A560:A570"/>
-    <mergeCell ref="B588:B596"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
-    <mergeCell ref="A764:A769"/>
-    <mergeCell ref="A646:A655"/>
-    <mergeCell ref="A657:A664"/>
-    <mergeCell ref="A950:A954"/>
-    <mergeCell ref="A907:A915"/>
-    <mergeCell ref="A917:A925"/>
-    <mergeCell ref="A891:A897"/>
-    <mergeCell ref="A796:A811"/>
-    <mergeCell ref="A743:A748"/>
-    <mergeCell ref="A750:A755"/>
-    <mergeCell ref="A757:A762"/>
-    <mergeCell ref="A734:A741"/>
-    <mergeCell ref="A826:A838"/>
-    <mergeCell ref="A813:A824"/>
-    <mergeCell ref="A771:A774"/>
-    <mergeCell ref="A776:A781"/>
-    <mergeCell ref="A783:A794"/>
-    <mergeCell ref="A840:A853"/>
-    <mergeCell ref="A927:A932"/>
-    <mergeCell ref="A934:A938"/>
-    <mergeCell ref="A711:A718"/>
-    <mergeCell ref="A666:A675"/>
-    <mergeCell ref="A677:A686"/>
-    <mergeCell ref="A688:A694"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20069,7 +20137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26 C28 C32">
+  <conditionalFormatting sqref="C28 C26 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -20454,18 +20522,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:J12"/>
+  <dimension ref="B3:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>586</v>
       </c>
@@ -20490,8 +20566,17 @@
       <c r="I3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>587</v>
       </c>
@@ -20514,7 +20599,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>20181013</v>
       </c>
@@ -20540,7 +20625,7 @@
         <v>27.46</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>20181121</v>
       </c>
@@ -20566,7 +20651,7 @@
         <v>28.16</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>20181204</v>
       </c>
@@ -20595,7 +20680,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>20190103</v>
       </c>
@@ -20624,7 +20709,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>20190308</v>
       </c>
@@ -20634,65 +20719,150 @@
       <c r="J9" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>0.21</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>20190318</v>
+        <v>20190314</v>
       </c>
       <c r="C10" t="s">
         <v>583</v>
       </c>
-      <c r="E10">
-        <v>96.8</v>
-      </c>
-      <c r="F10">
-        <v>0.21</v>
-      </c>
-      <c r="I10">
-        <v>19.46</v>
-      </c>
       <c r="J10" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1227</v>
+      </c>
+      <c r="K10">
+        <v>0.15</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>20190320</v>
+        <v>20190318</v>
       </c>
       <c r="C11" t="s">
         <v>583</v>
       </c>
       <c r="E11">
-        <v>258.39999999999998</v>
+        <v>96.8</v>
       </c>
       <c r="F11">
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="I11">
-        <v>16.98</v>
+        <v>19.46</v>
       </c>
       <c r="J11" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1220</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>20190321</v>
+        <v>20190320</v>
       </c>
       <c r="C12" t="s">
         <v>583</v>
       </c>
       <c r="E12">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I12">
+        <v>16.98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>20190321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>583</v>
+      </c>
+      <c r="E13">
         <v>216.1</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.23</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>15.38</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" t="s">
         <v>1224</v>
+      </c>
+      <c r="K13">
+        <v>0.59</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>20190325</v>
+      </c>
+      <c r="C14" t="s">
+        <v>583</v>
+      </c>
+      <c r="E14">
+        <v>35.29</v>
+      </c>
+      <c r="F14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I14">
+        <v>30.64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K14">
+        <v>0.68</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -20842,6 +21012,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CB501-4045-465F-8FFC-9C093CADBA98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837E684B-782B-428A-A724-19CD0C1735B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1830" windowWidth="24675" windowHeight="13650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="1830" windowWidth="24675" windowHeight="13650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1249">
   <si>
     <t>病毒四项</t>
   </si>
@@ -6576,6 +6576,33 @@
   </si>
   <si>
     <t>1.0-1.1 2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃痛好转 促排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨3点AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早6点AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶酸片</t>
+  </si>
+  <si>
+    <t>叶酸片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左小腹隐痛 叶酸片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨3点半AA 叶酸片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6852,20 +6879,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6878,6 +6899,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7981,7 +8008,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7995,7 +8022,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10478,7 +10505,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
+      <c r="A2" s="45">
         <v>43402</v>
       </c>
       <c r="B2" s="18"/>
@@ -10487,7 +10514,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="18"/>
       <c r="C3" s="14" t="s">
         <v>265</v>
@@ -10497,7 +10524,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>271</v>
@@ -10507,56 +10534,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="18"/>
       <c r="D5" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="18"/>
       <c r="D6" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="18"/>
       <c r="D7" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="18"/>
       <c r="D8" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="18"/>
       <c r="D9" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="18"/>
       <c r="D10" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="18"/>
       <c r="D11" s="14" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
+      <c r="A13" s="45">
         <v>43403</v>
       </c>
       <c r="C13" t="s">
@@ -10567,7 +10594,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
         <v>252</v>
@@ -10580,8 +10607,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="48" t="s">
         <v>378</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -10589,8 +10616,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="14" t="s">
         <v>265</v>
       </c>
@@ -10599,8 +10626,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="49"/>
       <c r="C17" t="s">
         <v>269</v>
       </c>
@@ -10609,7 +10636,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>326</v>
@@ -10619,7 +10646,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>328</v>
@@ -10629,7 +10656,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>331</v>
@@ -10639,7 +10666,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>332</v>
@@ -10649,7 +10676,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>309</v>
@@ -10659,7 +10686,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>334</v>
@@ -10669,7 +10696,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="18"/>
       <c r="C24" t="s">
         <v>335</v>
@@ -10679,7 +10706,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
+      <c r="A26" s="45">
         <v>43404</v>
       </c>
       <c r="C26" t="s">
@@ -10690,8 +10717,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="50" t="s">
         <v>369</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -10702,8 +10729,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="50"/>
       <c r="C28" t="s">
         <v>299</v>
       </c>
@@ -10712,8 +10739,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="50"/>
       <c r="C29" t="s">
         <v>357</v>
       </c>
@@ -10722,8 +10749,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="14" t="s">
         <v>265</v>
       </c>
@@ -10732,8 +10759,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="14" t="s">
         <v>370</v>
       </c>
@@ -10742,8 +10769,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="14" t="s">
         <v>326</v>
       </c>
@@ -10755,8 +10782,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="50"/>
       <c r="C33" t="s">
         <v>364</v>
       </c>
@@ -10765,8 +10792,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="50"/>
       <c r="C34" t="s">
         <v>366</v>
       </c>
@@ -10775,7 +10802,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="26"/>
       <c r="C35" s="14" t="s">
         <v>279</v>
@@ -10785,7 +10812,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="26"/>
       <c r="C36" s="14" t="s">
         <v>373</v>
@@ -10795,7 +10822,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>367</v>
@@ -10805,7 +10832,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>335</v>
@@ -10815,7 +10842,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
+      <c r="A40" s="45">
         <v>43405</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -10832,7 +10859,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="19"/>
       <c r="C41" s="14" t="s">
         <v>341</v>
@@ -10842,7 +10869,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="19"/>
       <c r="C42" t="s">
         <v>299</v>
@@ -10852,7 +10879,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="18"/>
       <c r="C43" s="14" t="s">
         <v>265</v>
@@ -10862,7 +10889,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="18"/>
       <c r="C44" s="14" t="s">
         <v>396</v>
@@ -10872,7 +10899,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="21" t="s">
         <v>403</v>
       </c>
@@ -10884,7 +10911,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="18"/>
       <c r="C46" s="14" t="s">
         <v>399</v>
@@ -10894,7 +10921,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="18"/>
       <c r="C47" s="14" t="s">
         <v>289</v>
@@ -10904,7 +10931,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
         <v>400</v>
@@ -10914,7 +10941,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="18"/>
       <c r="C49" s="14" t="s">
         <v>402</v>
@@ -10924,7 +10951,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="18"/>
       <c r="C50" s="14" t="s">
         <v>291</v>
@@ -10934,7 +10961,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="18"/>
       <c r="C51" s="14" t="s">
         <v>293</v>
@@ -10944,7 +10971,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="18"/>
       <c r="C52" s="14" t="s">
         <v>406</v>
@@ -10954,7 +10981,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="18"/>
       <c r="C53" s="14" t="s">
         <v>320</v>
@@ -10964,7 +10991,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="18"/>
       <c r="C54" t="s">
         <v>297</v>
@@ -10974,7 +11001,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="18"/>
       <c r="C55" t="s">
         <v>367</v>
@@ -10984,10 +11011,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="47">
+      <c r="A57" s="45">
         <v>43406</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="51" t="s">
         <v>408</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -10998,8 +11025,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="14" t="s">
         <v>341</v>
       </c>
@@ -11008,7 +11035,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="19"/>
       <c r="C59" t="s">
         <v>299</v>
@@ -11018,7 +11045,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="18"/>
       <c r="C60" s="14" t="s">
         <v>265</v>
@@ -11028,7 +11055,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
         <v>396</v>
@@ -11038,7 +11065,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="18"/>
       <c r="C62" s="14" t="s">
         <v>399</v>
@@ -11048,7 +11075,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="18"/>
       <c r="C63" t="s">
         <v>426</v>
@@ -11058,7 +11085,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="18"/>
       <c r="C64" s="14" t="s">
         <v>427</v>
@@ -11068,7 +11095,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="18"/>
       <c r="C65" s="14" t="s">
         <v>309</v>
@@ -11078,7 +11105,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="18"/>
       <c r="C66" s="14" t="s">
         <v>429</v>
@@ -11088,7 +11115,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
         <v>430</v>
@@ -11098,7 +11125,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="18"/>
       <c r="C68" s="14" t="s">
         <v>432</v>
@@ -11108,7 +11135,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="18"/>
       <c r="C69" t="s">
         <v>431</v>
@@ -11118,7 +11145,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="18"/>
       <c r="C70" t="s">
         <v>335</v>
@@ -11128,7 +11155,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="45">
+      <c r="A72" s="46">
         <v>43407</v>
       </c>
       <c r="B72" s="24"/>
@@ -11141,7 +11168,7 @@
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="45"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="24"/>
       <c r="C73" s="14" t="s">
         <v>268</v>
@@ -11152,7 +11179,7 @@
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="24"/>
       <c r="C74" s="14" t="s">
         <v>309</v>
@@ -11162,14 +11189,14 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="45"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="18"/>
       <c r="D75" s="14" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="18"/>
       <c r="C76" s="16" t="s">
         <v>466</v>
@@ -11179,7 +11206,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="18"/>
       <c r="C77" t="s">
         <v>450</v>
@@ -11189,7 +11216,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="45"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="18"/>
       <c r="C78" t="s">
         <v>274</v>
@@ -11199,7 +11226,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="18"/>
       <c r="C79" t="s">
         <v>279</v>
@@ -11209,7 +11236,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="18"/>
       <c r="C80" t="s">
         <v>293</v>
@@ -11219,7 +11246,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="18"/>
       <c r="C81" s="16" t="s">
         <v>455</v>
@@ -11229,7 +11256,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="18"/>
       <c r="C82" s="14" t="s">
         <v>470</v>
@@ -11239,7 +11266,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="18"/>
       <c r="C83" t="s">
         <v>471</v>
@@ -11250,7 +11277,7 @@
       <c r="I83" s="25"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="18"/>
       <c r="C84" t="s">
         <v>472</v>
@@ -11261,7 +11288,7 @@
       <c r="I84" s="25"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="45">
+      <c r="A86" s="46">
         <v>43408</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -11275,14 +11302,14 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="45"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="24"/>
       <c r="D87" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="45"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="24"/>
       <c r="C88" s="14" t="s">
         <v>474</v>
@@ -11292,21 +11319,21 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="45"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="19"/>
       <c r="D89" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="18"/>
       <c r="D90" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="18"/>
       <c r="C91" t="s">
         <v>483</v>
@@ -11316,7 +11343,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="18"/>
       <c r="C92" t="s">
         <v>458</v>
@@ -11326,7 +11353,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="45"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="18"/>
       <c r="C93" t="s">
         <v>459</v>
@@ -11336,7 +11363,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="45"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="18"/>
       <c r="C94" t="s">
         <v>460</v>
@@ -11346,7 +11373,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="18"/>
       <c r="C95" t="s">
         <v>346</v>
@@ -11356,11 +11383,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="45"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="18"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="45"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="18"/>
       <c r="C97" s="14" t="s">
         <v>291</v>
@@ -11370,7 +11397,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="45"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="18"/>
       <c r="C98" s="14" t="s">
         <v>293</v>
@@ -11380,7 +11407,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="18"/>
       <c r="C99" s="14" t="s">
         <v>309</v>
@@ -11390,7 +11417,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="45"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="18"/>
       <c r="C100" s="14" t="s">
         <v>320</v>
@@ -11400,7 +11427,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="45"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="18"/>
       <c r="C101" t="s">
         <v>488</v>
@@ -11410,7 +11437,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="18"/>
       <c r="C102" t="s">
         <v>489</v>
@@ -11420,7 +11447,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="47">
+      <c r="A104" s="45">
         <v>43409</v>
       </c>
       <c r="D104" t="s">
@@ -11428,7 +11455,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="23" t="s">
         <v>408</v>
       </c>
@@ -11440,7 +11467,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
+      <c r="A106" s="45"/>
       <c r="B106" s="4"/>
       <c r="C106" s="14"/>
       <c r="D106" s="16" t="s">
@@ -11448,7 +11475,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
+      <c r="A107" s="45"/>
       <c r="B107" s="4"/>
       <c r="C107" s="14" t="s">
         <v>341</v>
@@ -11458,7 +11485,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
+      <c r="A108" s="45"/>
       <c r="B108" s="19"/>
       <c r="C108" s="14" t="s">
         <v>433</v>
@@ -11468,7 +11495,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="18"/>
       <c r="C109" s="14" t="s">
         <v>265</v>
@@ -11478,14 +11505,14 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
+      <c r="A110" s="45"/>
       <c r="B110" s="18"/>
       <c r="D110" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
+      <c r="A111" s="45"/>
       <c r="B111" s="18"/>
       <c r="C111" s="14" t="s">
         <v>422</v>
@@ -11495,7 +11522,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
+      <c r="A112" s="45"/>
       <c r="B112" s="18"/>
       <c r="C112" s="14" t="s">
         <v>420</v>
@@ -11505,7 +11532,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
+      <c r="A113" s="45"/>
       <c r="B113" s="18"/>
       <c r="C113" s="14" t="s">
         <v>439</v>
@@ -11515,7 +11542,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
+      <c r="A114" s="45"/>
       <c r="B114" s="18"/>
       <c r="C114" s="14" t="s">
         <v>444</v>
@@ -11525,7 +11552,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
+      <c r="A115" s="45"/>
       <c r="B115" s="18"/>
       <c r="C115" s="16" t="s">
         <v>443</v>
@@ -11535,7 +11562,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
+      <c r="A116" s="45"/>
       <c r="B116" s="18"/>
       <c r="C116" s="16" t="s">
         <v>440</v>
@@ -11545,7 +11572,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
+      <c r="A117" s="45"/>
       <c r="B117" s="18"/>
       <c r="C117" s="16" t="s">
         <v>441</v>
@@ -11555,7 +11582,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
+      <c r="A118" s="45"/>
       <c r="B118" s="18"/>
       <c r="C118" s="16" t="s">
         <v>442</v>
@@ -11565,7 +11592,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="47">
+      <c r="A120" s="45">
         <v>43410</v>
       </c>
       <c r="B120" s="4"/>
@@ -11577,7 +11604,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
+      <c r="A121" s="45"/>
       <c r="B121" s="4"/>
       <c r="C121" s="14" t="s">
         <v>436</v>
@@ -11587,7 +11614,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
+      <c r="A122" s="45"/>
       <c r="B122" s="19"/>
       <c r="C122" s="14" t="s">
         <v>295</v>
@@ -11597,7 +11624,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
+      <c r="A123" s="45"/>
       <c r="B123" s="19"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14" t="s">
@@ -11605,7 +11632,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="47"/>
+      <c r="A124" s="45"/>
       <c r="B124" s="18"/>
       <c r="C124" s="14" t="s">
         <v>265</v>
@@ -11615,7 +11642,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="47"/>
+      <c r="A125" s="45"/>
       <c r="B125" s="18"/>
       <c r="C125" s="14" t="s">
         <v>446</v>
@@ -11625,7 +11652,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="18"/>
       <c r="C126" s="14" t="s">
         <v>399</v>
@@ -11635,7 +11662,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
+      <c r="A127" s="45"/>
       <c r="B127" s="18"/>
       <c r="C127" s="14" t="s">
         <v>448</v>
@@ -11645,7 +11672,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
+      <c r="A128" s="45"/>
       <c r="B128" s="18"/>
       <c r="C128" s="14" t="s">
         <v>477</v>
@@ -11655,7 +11682,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="18"/>
       <c r="C129" s="14" t="s">
         <v>478</v>
@@ -11665,7 +11692,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="18"/>
       <c r="C130" s="14" t="s">
         <v>479</v>
@@ -11675,7 +11702,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="18"/>
       <c r="C131" s="14" t="s">
         <v>490</v>
@@ -11685,7 +11712,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="18"/>
       <c r="C132" s="14" t="s">
         <v>492</v>
@@ -11695,7 +11722,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
+      <c r="A133" s="45"/>
       <c r="B133" s="18"/>
       <c r="C133" s="14" t="s">
         <v>309</v>
@@ -11705,7 +11732,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="18"/>
       <c r="C134" s="14" t="s">
         <v>283</v>
@@ -11715,7 +11742,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
+      <c r="A135" s="45"/>
       <c r="B135" s="18"/>
       <c r="C135" t="s">
         <v>423</v>
@@ -11725,7 +11752,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="18"/>
       <c r="C136" t="s">
         <v>299</v>
@@ -11735,7 +11762,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="47">
+      <c r="A138" s="45">
         <v>43411</v>
       </c>
       <c r="B138" s="4"/>
@@ -11747,7 +11774,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
+      <c r="A139" s="45"/>
       <c r="B139" s="4"/>
       <c r="C139" s="16" t="s">
         <v>336</v>
@@ -11757,7 +11784,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
+      <c r="A140" s="45"/>
       <c r="B140" s="4"/>
       <c r="C140" s="14" t="s">
         <v>341</v>
@@ -11767,7 +11794,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
+      <c r="A141" s="45"/>
       <c r="B141" s="19"/>
       <c r="C141" t="s">
         <v>499</v>
@@ -11777,7 +11804,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
+      <c r="A142" s="45"/>
       <c r="B142" s="19"/>
       <c r="C142" s="14" t="s">
         <v>265</v>
@@ -11787,7 +11814,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
+      <c r="A143" s="45"/>
       <c r="B143" s="18"/>
       <c r="C143" t="s">
         <v>501</v>
@@ -11797,14 +11824,14 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
+      <c r="A144" s="45"/>
       <c r="B144" s="18"/>
       <c r="D144" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="18"/>
       <c r="C145" s="14" t="s">
         <v>448</v>
@@ -11814,7 +11841,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
+      <c r="A146" s="45"/>
       <c r="B146" s="18"/>
       <c r="C146" s="14" t="s">
         <v>477</v>
@@ -11824,7 +11851,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
+      <c r="A147" s="45"/>
       <c r="B147" s="18"/>
       <c r="C147" s="14" t="s">
         <v>420</v>
@@ -11834,7 +11861,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
+      <c r="A148" s="45"/>
       <c r="B148" s="18"/>
       <c r="C148" s="14" t="s">
         <v>439</v>
@@ -11844,7 +11871,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
+      <c r="A149" s="45"/>
       <c r="B149" s="18"/>
       <c r="C149" s="14" t="s">
         <v>479</v>
@@ -11854,7 +11881,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
+      <c r="A150" s="45"/>
       <c r="B150" s="18"/>
       <c r="C150" s="14" t="s">
         <v>291</v>
@@ -11864,7 +11891,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
+      <c r="A151" s="45"/>
       <c r="B151" s="18"/>
       <c r="C151" s="14" t="s">
         <v>293</v>
@@ -11874,7 +11901,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
+      <c r="A152" s="45"/>
       <c r="B152" s="18"/>
       <c r="C152" s="14" t="s">
         <v>440</v>
@@ -11884,7 +11911,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
+      <c r="A153" s="45"/>
       <c r="B153" s="18"/>
       <c r="C153" t="s">
         <v>367</v>
@@ -11894,7 +11921,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
+      <c r="A154" s="45"/>
       <c r="B154" s="18"/>
       <c r="C154" t="s">
         <v>335</v>
@@ -11904,7 +11931,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="47">
+      <c r="A156" s="45">
         <v>43412</v>
       </c>
       <c r="B156" s="4"/>
@@ -11916,7 +11943,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
+      <c r="A157" s="45"/>
       <c r="B157" s="4"/>
       <c r="C157" s="16" t="s">
         <v>279</v>
@@ -11926,7 +11953,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="47"/>
+      <c r="A158" s="45"/>
       <c r="B158" s="19"/>
       <c r="C158" t="s">
         <v>507</v>
@@ -11936,7 +11963,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
+      <c r="A159" s="45"/>
       <c r="B159" s="19"/>
       <c r="C159" s="14" t="s">
         <v>265</v>
@@ -11946,7 +11973,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
+      <c r="A160" s="45"/>
       <c r="B160" s="18"/>
       <c r="C160" t="s">
         <v>501</v>
@@ -11956,14 +11983,14 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
+      <c r="A161" s="45"/>
       <c r="B161" s="18"/>
       <c r="D161" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
+      <c r="A162" s="45"/>
       <c r="B162" s="18"/>
       <c r="C162" s="14" t="s">
         <v>448</v>
@@ -11973,14 +12000,14 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
+      <c r="A163" s="45"/>
       <c r="B163" s="18"/>
       <c r="D163" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
+      <c r="A164" s="45"/>
       <c r="B164" s="18"/>
       <c r="C164" s="14" t="s">
         <v>477</v>
@@ -11990,7 +12017,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
+      <c r="A165" s="45"/>
       <c r="B165" s="18"/>
       <c r="C165" s="14" t="s">
         <v>420</v>
@@ -12000,7 +12027,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
+      <c r="A166" s="45"/>
       <c r="B166" s="18"/>
       <c r="C166" s="14" t="s">
         <v>479</v>
@@ -12010,7 +12037,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
+      <c r="A167" s="45"/>
       <c r="B167" s="18"/>
       <c r="C167" s="14" t="s">
         <v>490</v>
@@ -12020,7 +12047,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="47"/>
+      <c r="A168" s="45"/>
       <c r="B168" s="18"/>
       <c r="C168" s="14" t="s">
         <v>492</v>
@@ -12030,7 +12057,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
+      <c r="A169" s="45"/>
       <c r="B169" s="18"/>
       <c r="C169" s="14" t="s">
         <v>352</v>
@@ -12040,7 +12067,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="47"/>
+      <c r="A170" s="45"/>
       <c r="B170" s="18"/>
       <c r="C170" t="s">
         <v>431</v>
@@ -12050,7 +12077,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="47"/>
+      <c r="A171" s="45"/>
       <c r="B171" s="18"/>
       <c r="C171" t="s">
         <v>335</v>
@@ -12060,7 +12087,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="47">
+      <c r="A173" s="45">
         <v>43413</v>
       </c>
       <c r="B173" s="4"/>
@@ -12072,7 +12099,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="47"/>
+      <c r="A174" s="45"/>
       <c r="B174" s="19"/>
       <c r="C174" s="14" t="s">
         <v>265</v>
@@ -12082,7 +12109,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="47"/>
+      <c r="A175" s="45"/>
       <c r="B175" s="18"/>
       <c r="C175" t="s">
         <v>501</v>
@@ -12092,7 +12119,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="47"/>
+      <c r="A176" s="45"/>
       <c r="B176" s="18"/>
       <c r="C176" s="14" t="s">
         <v>448</v>
@@ -12102,14 +12129,14 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="47"/>
+      <c r="A177" s="45"/>
       <c r="B177" s="18"/>
       <c r="D177" s="14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="47"/>
+      <c r="A178" s="45"/>
       <c r="B178" s="18"/>
       <c r="C178" s="14" t="s">
         <v>477</v>
@@ -12119,7 +12146,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="47"/>
+      <c r="A179" s="45"/>
       <c r="B179" s="18"/>
       <c r="C179" s="14" t="s">
         <v>420</v>
@@ -12129,7 +12156,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="47"/>
+      <c r="A180" s="45"/>
       <c r="B180" s="18"/>
       <c r="C180" s="14" t="s">
         <v>479</v>
@@ -12139,7 +12166,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
+      <c r="A181" s="45"/>
       <c r="B181" s="18"/>
       <c r="C181" s="14" t="s">
         <v>490</v>
@@ -12149,7 +12176,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="47"/>
+      <c r="A182" s="45"/>
       <c r="B182" s="18"/>
       <c r="C182" s="14" t="s">
         <v>492</v>
@@ -12159,7 +12186,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
+      <c r="A183" s="45"/>
       <c r="B183" s="18"/>
       <c r="C183" s="14" t="s">
         <v>352</v>
@@ -12169,7 +12196,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
+      <c r="A184" s="45"/>
       <c r="B184" s="18"/>
       <c r="C184" t="s">
         <v>431</v>
@@ -12179,7 +12206,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="47"/>
+      <c r="A185" s="45"/>
       <c r="B185" s="18"/>
       <c r="C185" t="s">
         <v>335</v>
@@ -12189,7 +12216,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="45">
+      <c r="A187" s="46">
         <v>43414</v>
       </c>
       <c r="B187" s="4"/>
@@ -12201,56 +12228,56 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="45"/>
+      <c r="A188" s="46"/>
       <c r="B188" s="19"/>
       <c r="D188" s="14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="45"/>
+      <c r="A189" s="46"/>
       <c r="B189" s="19"/>
       <c r="D189" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="45"/>
+      <c r="A190" s="46"/>
       <c r="B190" s="18"/>
       <c r="D190" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="45"/>
+      <c r="A191" s="46"/>
       <c r="B191" s="18"/>
       <c r="D191" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="45"/>
+      <c r="A192" s="46"/>
       <c r="B192" s="18"/>
       <c r="D192" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="45"/>
+      <c r="A193" s="46"/>
       <c r="B193" s="18"/>
       <c r="D193" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="45"/>
+      <c r="A194" s="46"/>
       <c r="B194" s="18"/>
       <c r="D194" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="45"/>
+      <c r="A195" s="46"/>
       <c r="B195" s="18"/>
       <c r="C195" t="s">
         <v>431</v>
@@ -12260,7 +12287,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="45"/>
+      <c r="A196" s="46"/>
       <c r="B196" s="18"/>
       <c r="C196" t="s">
         <v>335</v>
@@ -12270,7 +12297,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="45">
+      <c r="A198" s="46">
         <v>43415</v>
       </c>
       <c r="B198" s="4"/>
@@ -12282,14 +12309,14 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="45"/>
+      <c r="A199" s="46"/>
       <c r="B199" s="4"/>
       <c r="D199" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="45"/>
+      <c r="A200" s="46"/>
       <c r="B200" s="19"/>
       <c r="C200" s="14" t="s">
         <v>265</v>
@@ -12299,7 +12326,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="45"/>
+      <c r="A201" s="46"/>
       <c r="B201" s="18"/>
       <c r="C201" s="14" t="s">
         <v>448</v>
@@ -12309,7 +12336,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="45"/>
+      <c r="A202" s="46"/>
       <c r="B202" s="18"/>
       <c r="C202" s="14" t="s">
         <v>477</v>
@@ -12319,7 +12346,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="45"/>
+      <c r="A203" s="46"/>
       <c r="B203" s="18"/>
       <c r="C203" s="14" t="s">
         <v>306</v>
@@ -12329,7 +12356,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="45"/>
+      <c r="A204" s="46"/>
       <c r="B204" s="18"/>
       <c r="C204" s="14" t="s">
         <v>479</v>
@@ -12339,7 +12366,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="45"/>
+      <c r="A205" s="46"/>
       <c r="B205" s="18"/>
       <c r="C205" s="14" t="s">
         <v>525</v>
@@ -12349,7 +12376,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="45"/>
+      <c r="A206" s="46"/>
       <c r="B206" s="18"/>
       <c r="C206" s="14" t="s">
         <v>522</v>
@@ -12359,7 +12386,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="45"/>
+      <c r="A207" s="46"/>
       <c r="B207" s="18"/>
       <c r="C207" t="s">
         <v>523</v>
@@ -12369,7 +12396,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="47">
+      <c r="A209" s="45">
         <v>43416</v>
       </c>
       <c r="B209" s="4"/>
@@ -12381,7 +12408,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
+      <c r="A210" s="45"/>
       <c r="B210" s="19"/>
       <c r="C210" s="14" t="s">
         <v>265</v>
@@ -12391,14 +12418,14 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
+      <c r="A211" s="45"/>
       <c r="B211" s="18"/>
       <c r="D211" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="47"/>
+      <c r="A212" s="45"/>
       <c r="B212" s="18"/>
       <c r="C212" s="14" t="s">
         <v>477</v>
@@ -12408,28 +12435,28 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
+      <c r="A213" s="45"/>
       <c r="B213" s="18"/>
       <c r="D213" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
+      <c r="A214" s="45"/>
       <c r="B214" s="18"/>
       <c r="D214" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
+      <c r="A215" s="45"/>
       <c r="B215" s="18"/>
       <c r="D215" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
+      <c r="A216" s="45"/>
       <c r="B216" s="18"/>
       <c r="C216" t="s">
         <v>352</v>
@@ -12439,7 +12466,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
+      <c r="A217" s="45"/>
       <c r="B217" s="18"/>
       <c r="C217" t="s">
         <v>431</v>
@@ -12449,14 +12476,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
+      <c r="A218" s="45"/>
       <c r="B218" s="18"/>
       <c r="D218" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="47">
+      <c r="A220" s="45">
         <v>43417</v>
       </c>
       <c r="B220" s="4"/>
@@ -12468,7 +12495,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
+      <c r="A221" s="45"/>
       <c r="B221" s="4"/>
       <c r="C221" s="14" t="s">
         <v>535</v>
@@ -12478,14 +12505,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
+      <c r="A222" s="45"/>
       <c r="B222" s="4"/>
       <c r="D222" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="47"/>
+      <c r="A223" s="45"/>
       <c r="B223" s="19"/>
       <c r="C223" s="14" t="s">
         <v>265</v>
@@ -12495,7 +12522,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="47"/>
+      <c r="A224" s="45"/>
       <c r="B224" s="18"/>
       <c r="C224" s="14" t="s">
         <v>448</v>
@@ -12505,7 +12532,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="47"/>
+      <c r="A225" s="45"/>
       <c r="B225" s="18"/>
       <c r="C225" s="14" t="s">
         <v>477</v>
@@ -12515,7 +12542,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="47"/>
+      <c r="A226" s="45"/>
       <c r="B226" s="18"/>
       <c r="C226" t="s">
         <v>420</v>
@@ -12525,7 +12552,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="47"/>
+      <c r="A227" s="45"/>
       <c r="B227" s="18"/>
       <c r="C227" s="14" t="s">
         <v>479</v>
@@ -12535,7 +12562,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="47"/>
+      <c r="A228" s="45"/>
       <c r="B228" s="18"/>
       <c r="C228" t="s">
         <v>352</v>
@@ -12545,7 +12572,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="47"/>
+      <c r="A229" s="45"/>
       <c r="B229" s="18"/>
       <c r="C229" t="s">
         <v>335</v>
@@ -12555,7 +12582,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="47">
+      <c r="A231" s="45">
         <v>43418</v>
       </c>
       <c r="B231" s="4"/>
@@ -12567,14 +12594,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="47"/>
+      <c r="A232" s="45"/>
       <c r="B232" s="4"/>
       <c r="D232" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="47"/>
+      <c r="A233" s="45"/>
       <c r="B233" s="19"/>
       <c r="C233" s="14" t="s">
         <v>265</v>
@@ -12584,21 +12611,21 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="47"/>
+      <c r="A234" s="45"/>
       <c r="B234" s="18"/>
       <c r="D234" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="47"/>
+      <c r="A235" s="45"/>
       <c r="B235" s="18"/>
       <c r="D235" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="47"/>
+      <c r="A236" s="45"/>
       <c r="B236" s="18"/>
       <c r="C236" s="14" t="s">
         <v>477</v>
@@ -12608,35 +12635,35 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="47"/>
+      <c r="A237" s="45"/>
       <c r="B237" s="18"/>
       <c r="D237" s="14" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="47"/>
+      <c r="A238" s="45"/>
       <c r="B238" s="18"/>
       <c r="D238" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="47"/>
+      <c r="A239" s="45"/>
       <c r="B239" s="18"/>
       <c r="D239" s="14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="47"/>
+      <c r="A240" s="45"/>
       <c r="B240" s="18"/>
       <c r="D240" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="47"/>
+      <c r="A241" s="45"/>
       <c r="B241" s="18"/>
       <c r="C241" t="s">
         <v>335</v>
@@ -12646,14 +12673,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="47"/>
+      <c r="A242" s="45"/>
       <c r="B242" s="18"/>
       <c r="D242" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="47">
+      <c r="A244" s="45">
         <v>43419</v>
       </c>
       <c r="B244" s="4"/>
@@ -12665,14 +12692,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="47"/>
+      <c r="A245" s="45"/>
       <c r="B245" s="4"/>
       <c r="D245" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="47"/>
+      <c r="A246" s="45"/>
       <c r="B246" s="19"/>
       <c r="C246" s="14" t="s">
         <v>265</v>
@@ -12682,14 +12709,14 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="47"/>
+      <c r="A247" s="45"/>
       <c r="B247" s="18"/>
       <c r="D247" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="47"/>
+      <c r="A248" s="45"/>
       <c r="B248" s="18"/>
       <c r="C248" s="14" t="s">
         <v>477</v>
@@ -12699,28 +12726,28 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="47"/>
+      <c r="A249" s="45"/>
       <c r="B249" s="18"/>
       <c r="D249" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="47"/>
+      <c r="A250" s="45"/>
       <c r="B250" s="18"/>
       <c r="D250" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="47"/>
+      <c r="A251" s="45"/>
       <c r="B251" s="18"/>
       <c r="D251" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="47"/>
+      <c r="A252" s="45"/>
       <c r="B252" s="18"/>
       <c r="C252" t="s">
         <v>335</v>
@@ -12730,7 +12757,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="47">
+      <c r="A254" s="45">
         <v>43420</v>
       </c>
       <c r="B254" s="4"/>
@@ -12742,21 +12769,21 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="47"/>
+      <c r="A255" s="45"/>
       <c r="B255" s="4"/>
       <c r="D255" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="47"/>
+      <c r="A256" s="45"/>
       <c r="B256" s="4"/>
       <c r="D256" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="47"/>
+      <c r="A257" s="45"/>
       <c r="B257" s="19"/>
       <c r="C257" s="14" t="s">
         <v>265</v>
@@ -12766,14 +12793,14 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="47"/>
+      <c r="A258" s="45"/>
       <c r="B258" s="18"/>
       <c r="D258" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="47"/>
+      <c r="A259" s="45"/>
       <c r="B259" s="18"/>
       <c r="C259" s="14" t="s">
         <v>477</v>
@@ -12783,42 +12810,42 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="47"/>
+      <c r="A260" s="45"/>
       <c r="B260" s="18"/>
       <c r="D260" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="47"/>
+      <c r="A261" s="45"/>
       <c r="B261" s="18"/>
       <c r="D261" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="47"/>
+      <c r="A262" s="45"/>
       <c r="B262" s="18"/>
       <c r="D262" s="14" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="47"/>
+      <c r="A263" s="45"/>
       <c r="B263" s="18"/>
       <c r="D263" s="14" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="47"/>
+      <c r="A264" s="45"/>
       <c r="B264" s="18"/>
       <c r="D264" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="47"/>
+      <c r="A265" s="45"/>
       <c r="B265" s="18"/>
       <c r="C265" t="s">
         <v>335</v>
@@ -12828,7 +12855,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="45">
+      <c r="A267" s="46">
         <v>43421</v>
       </c>
       <c r="B267" s="4"/>
@@ -12840,63 +12867,63 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="45"/>
+      <c r="A268" s="46"/>
       <c r="B268" s="4"/>
       <c r="D268" s="14" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="45"/>
+      <c r="A269" s="46"/>
       <c r="B269" s="19"/>
       <c r="D269" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="45"/>
+      <c r="A270" s="46"/>
       <c r="B270" s="18"/>
       <c r="D270" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="45"/>
+      <c r="A271" s="46"/>
       <c r="B271" s="18"/>
       <c r="D271" s="14" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="45"/>
+      <c r="A272" s="46"/>
       <c r="B272" s="18"/>
       <c r="D272" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="45"/>
+      <c r="A273" s="46"/>
       <c r="B273" s="18"/>
       <c r="D273" s="14" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="45"/>
+      <c r="A274" s="46"/>
       <c r="B274" s="18"/>
       <c r="D274" s="14" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="45"/>
+      <c r="A275" s="46"/>
       <c r="B275" s="18"/>
       <c r="D275" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="45"/>
+      <c r="A276" s="46"/>
       <c r="B276" s="18"/>
       <c r="C276" t="s">
         <v>335</v>
@@ -12906,14 +12933,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="45"/>
+      <c r="A277" s="46"/>
       <c r="B277" s="18"/>
       <c r="D277" s="14" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="45">
+      <c r="A279" s="46">
         <v>43422</v>
       </c>
       <c r="B279" s="4"/>
@@ -12925,28 +12952,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="45"/>
+      <c r="A280" s="46"/>
       <c r="B280" s="4"/>
       <c r="D280" s="14" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="45"/>
+      <c r="A281" s="46"/>
       <c r="B281" s="4"/>
       <c r="D281" s="14" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="45"/>
+      <c r="A282" s="46"/>
       <c r="B282" s="4"/>
       <c r="D282" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="45"/>
+      <c r="A283" s="46"/>
       <c r="B283" s="19"/>
       <c r="C283" s="14" t="s">
         <v>265</v>
@@ -12956,35 +12983,35 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="45"/>
+      <c r="A284" s="46"/>
       <c r="B284" s="18"/>
       <c r="D284" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="45"/>
+      <c r="A285" s="46"/>
       <c r="B285" s="18"/>
       <c r="D285" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="45"/>
+      <c r="A286" s="46"/>
       <c r="B286" s="18"/>
       <c r="D286" s="14" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="45"/>
+      <c r="A287" s="46"/>
       <c r="B287" s="18"/>
       <c r="D287" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="45"/>
+      <c r="A288" s="46"/>
       <c r="B288" s="18"/>
       <c r="C288" t="s">
         <v>335</v>
@@ -12994,7 +13021,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="47">
+      <c r="A290" s="45">
         <v>43423</v>
       </c>
       <c r="B290" s="4"/>
@@ -13006,7 +13033,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="47"/>
+      <c r="A291" s="45"/>
       <c r="B291" s="4"/>
       <c r="C291" s="14" t="s">
         <v>249</v>
@@ -13016,14 +13043,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="47"/>
+      <c r="A292" s="45"/>
       <c r="B292" s="4"/>
       <c r="D292" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="47"/>
+      <c r="A293" s="45"/>
       <c r="B293" s="19"/>
       <c r="C293" s="14" t="s">
         <v>265</v>
@@ -13033,14 +13060,14 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="47"/>
+      <c r="A294" s="45"/>
       <c r="B294" s="18"/>
       <c r="D294" s="14" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="47"/>
+      <c r="A295" s="45"/>
       <c r="B295" s="18"/>
       <c r="C295" s="14" t="s">
         <v>477</v>
@@ -13050,42 +13077,42 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="47"/>
+      <c r="A296" s="45"/>
       <c r="B296" s="18"/>
       <c r="D296" s="14" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="47"/>
+      <c r="A297" s="45"/>
       <c r="B297" s="18"/>
       <c r="D297" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="47"/>
+      <c r="A298" s="45"/>
       <c r="B298" s="18"/>
       <c r="D298" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="47"/>
+      <c r="A299" s="45"/>
       <c r="B299" s="18"/>
       <c r="D299" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="47"/>
+      <c r="A300" s="45"/>
       <c r="B300" s="18"/>
       <c r="D300" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="47"/>
+      <c r="A301" s="45"/>
       <c r="B301" s="18"/>
       <c r="C301" t="s">
         <v>335</v>
@@ -13095,7 +13122,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="47">
+      <c r="A303" s="45">
         <v>43424</v>
       </c>
       <c r="B303" s="4"/>
@@ -13107,7 +13134,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="47"/>
+      <c r="A304" s="45"/>
       <c r="B304" s="4"/>
       <c r="C304" s="14" t="s">
         <v>597</v>
@@ -13117,7 +13144,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="47"/>
+      <c r="A305" s="45"/>
       <c r="B305" s="4"/>
       <c r="C305" s="14"/>
       <c r="D305" s="14" t="s">
@@ -13125,14 +13152,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="47"/>
+      <c r="A306" s="45"/>
       <c r="B306" s="4"/>
       <c r="D306" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="47"/>
+      <c r="A307" s="45"/>
       <c r="B307" s="19"/>
       <c r="C307" s="14" t="s">
         <v>265</v>
@@ -13142,14 +13169,14 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="47"/>
+      <c r="A308" s="45"/>
       <c r="B308" s="18"/>
       <c r="D308" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="47"/>
+      <c r="A309" s="45"/>
       <c r="B309" s="18"/>
       <c r="C309" s="14" t="s">
         <v>477</v>
@@ -13159,42 +13186,42 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="47"/>
+      <c r="A310" s="45"/>
       <c r="B310" s="18"/>
       <c r="D310" s="14" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="47"/>
+      <c r="A311" s="45"/>
       <c r="B311" s="18"/>
       <c r="D311" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="47"/>
+      <c r="A312" s="45"/>
       <c r="B312" s="18"/>
       <c r="D312" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="47"/>
+      <c r="A313" s="45"/>
       <c r="B313" s="18"/>
       <c r="D313" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="47"/>
+      <c r="A314" s="45"/>
       <c r="B314" s="18"/>
       <c r="D314" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="47"/>
+      <c r="A315" s="45"/>
       <c r="B315" s="18"/>
       <c r="C315" t="s">
         <v>335</v>
@@ -13204,10 +13231,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="47">
+      <c r="A317" s="45">
         <v>43425</v>
       </c>
-      <c r="B317" s="49" t="s">
+      <c r="B317" s="52" t="s">
         <v>604</v>
       </c>
       <c r="C317" t="s">
@@ -13218,22 +13245,22 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="47"/>
-      <c r="B318" s="49"/>
+      <c r="A318" s="45"/>
+      <c r="B318" s="52"/>
       <c r="D318" s="14" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="47"/>
-      <c r="B319" s="49"/>
+      <c r="A319" s="45"/>
+      <c r="B319" s="52"/>
       <c r="D319" s="14" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="47"/>
-      <c r="B320" s="49"/>
+      <c r="A320" s="45"/>
+      <c r="B320" s="52"/>
       <c r="C320" s="14" t="s">
         <v>265</v>
       </c>
@@ -13242,22 +13269,22 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="47"/>
-      <c r="B321" s="49"/>
+      <c r="A321" s="45"/>
+      <c r="B321" s="52"/>
       <c r="D321" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="47"/>
-      <c r="B322" s="49"/>
+      <c r="A322" s="45"/>
+      <c r="B322" s="52"/>
       <c r="D322" s="14" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="47"/>
-      <c r="B323" s="49"/>
+      <c r="A323" s="45"/>
+      <c r="B323" s="52"/>
       <c r="C323" s="14" t="s">
         <v>609</v>
       </c>
@@ -13266,36 +13293,36 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="47"/>
-      <c r="B324" s="49"/>
+      <c r="A324" s="45"/>
+      <c r="B324" s="52"/>
       <c r="D324" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="47"/>
-      <c r="B325" s="49"/>
+      <c r="A325" s="45"/>
+      <c r="B325" s="52"/>
       <c r="D325" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="47"/>
-      <c r="B326" s="49"/>
+      <c r="A326" s="45"/>
+      <c r="B326" s="52"/>
       <c r="D326" s="14" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="47"/>
-      <c r="B327" s="49"/>
+      <c r="A327" s="45"/>
+      <c r="B327" s="52"/>
       <c r="D327" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="47"/>
-      <c r="B328" s="49"/>
+      <c r="A328" s="45"/>
+      <c r="B328" s="52"/>
       <c r="C328" t="s">
         <v>335</v>
       </c>
@@ -13304,7 +13331,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="47">
+      <c r="A330" s="45">
         <v>43426</v>
       </c>
       <c r="B330" s="4"/>
@@ -13316,21 +13343,21 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="47"/>
+      <c r="A331" s="45"/>
       <c r="B331" s="4"/>
       <c r="D331" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="47"/>
+      <c r="A332" s="45"/>
       <c r="B332" s="4"/>
       <c r="D332" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="47"/>
+      <c r="A333" s="45"/>
       <c r="B333" s="4"/>
       <c r="C333" s="14" t="s">
         <v>265</v>
@@ -13340,28 +13367,28 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="47"/>
+      <c r="A334" s="45"/>
       <c r="B334" s="4"/>
       <c r="D334" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="47"/>
+      <c r="A335" s="45"/>
       <c r="B335" s="4"/>
       <c r="D335" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="47"/>
+      <c r="A336" s="45"/>
       <c r="B336" s="4"/>
       <c r="D336" s="14" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="47"/>
+      <c r="A337" s="45"/>
       <c r="B337" s="4"/>
       <c r="C337" s="14" t="s">
         <v>615</v>
@@ -13371,35 +13398,35 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="47"/>
+      <c r="A338" s="45"/>
       <c r="B338" s="18"/>
       <c r="D338" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="47"/>
+      <c r="A339" s="45"/>
       <c r="B339" s="18"/>
       <c r="D339" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="47"/>
+      <c r="A340" s="45"/>
       <c r="B340" s="18"/>
       <c r="D340" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="47"/>
+      <c r="A341" s="45"/>
       <c r="B341" s="18"/>
       <c r="D341" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="47"/>
+      <c r="A342" s="45"/>
       <c r="B342" s="18"/>
       <c r="C342" t="s">
         <v>335</v>
@@ -13409,7 +13436,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="47">
+      <c r="A344" s="45">
         <v>43427</v>
       </c>
       <c r="B344" s="4"/>
@@ -13421,7 +13448,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="47"/>
+      <c r="A345" s="45"/>
       <c r="B345" s="4"/>
       <c r="C345" t="s">
         <v>618</v>
@@ -13431,28 +13458,28 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="47"/>
+      <c r="A346" s="45"/>
       <c r="B346" s="4"/>
       <c r="D346" s="14" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="47"/>
+      <c r="A347" s="45"/>
       <c r="B347" s="4"/>
       <c r="D347" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="47"/>
+      <c r="A348" s="45"/>
       <c r="B348" s="4"/>
       <c r="D348" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="47"/>
+      <c r="A349" s="45"/>
       <c r="B349" s="4"/>
       <c r="C349" s="14" t="s">
         <v>265</v>
@@ -13462,7 +13489,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="47"/>
+      <c r="A350" s="45"/>
       <c r="B350" s="4"/>
       <c r="C350" s="14" t="s">
         <v>615</v>
@@ -13472,35 +13499,35 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="47"/>
+      <c r="A351" s="45"/>
       <c r="B351" s="4"/>
       <c r="D351" s="14" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="47"/>
+      <c r="A352" s="45"/>
       <c r="B352" s="4"/>
       <c r="D352" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="47"/>
+      <c r="A353" s="45"/>
       <c r="B353" s="4"/>
       <c r="D353" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="47"/>
+      <c r="A354" s="45"/>
       <c r="B354" s="18"/>
       <c r="D354" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="47"/>
+      <c r="A355" s="45"/>
       <c r="B355" s="18"/>
       <c r="C355" t="s">
         <v>335</v>
@@ -13510,7 +13537,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="45">
+      <c r="A357" s="46">
         <v>43428</v>
       </c>
       <c r="B357" s="4"/>
@@ -13522,98 +13549,98 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="45"/>
+      <c r="A358" s="46"/>
       <c r="B358" s="4"/>
       <c r="D358" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="45"/>
+      <c r="A359" s="46"/>
       <c r="B359" s="4"/>
       <c r="D359" s="14" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="45"/>
+      <c r="A360" s="46"/>
       <c r="B360" s="4"/>
       <c r="D360" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="45"/>
+      <c r="A361" s="46"/>
       <c r="B361" s="4"/>
       <c r="D361" s="14" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="45"/>
+      <c r="A362" s="46"/>
       <c r="B362" s="4"/>
       <c r="D362" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="45"/>
+      <c r="A363" s="46"/>
       <c r="B363" s="4"/>
       <c r="D363" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="45"/>
+      <c r="A364" s="46"/>
       <c r="B364" s="4"/>
       <c r="D364" s="14" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="45"/>
+      <c r="A365" s="46"/>
       <c r="B365" s="4"/>
       <c r="D365" s="14" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="45"/>
+      <c r="A366" s="46"/>
       <c r="B366" s="4"/>
       <c r="D366" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="45"/>
+      <c r="A367" s="46"/>
       <c r="B367" s="4"/>
       <c r="D367" s="14" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="45"/>
+      <c r="A368" s="46"/>
       <c r="B368" s="4"/>
       <c r="D368" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="45"/>
+      <c r="A369" s="46"/>
       <c r="B369" s="18"/>
       <c r="D369" s="14" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="45"/>
+      <c r="A370" s="46"/>
       <c r="B370" s="18"/>
       <c r="D370" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="45">
+      <c r="A372" s="46">
         <v>43429</v>
       </c>
       <c r="B372" s="4"/>
@@ -13625,7 +13652,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="45"/>
+      <c r="A373" s="46"/>
       <c r="B373" s="4"/>
       <c r="C373" t="s">
         <v>618</v>
@@ -13635,28 +13662,28 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="45"/>
+      <c r="A374" s="46"/>
       <c r="B374" s="4"/>
       <c r="D374" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="45"/>
+      <c r="A375" s="46"/>
       <c r="B375" s="4"/>
       <c r="D375" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="45"/>
+      <c r="A376" s="46"/>
       <c r="B376" s="4"/>
       <c r="D376" s="14" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="45"/>
+      <c r="A377" s="46"/>
       <c r="B377" s="4"/>
       <c r="C377" s="14" t="s">
         <v>265</v>
@@ -13666,42 +13693,42 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="45"/>
+      <c r="A378" s="46"/>
       <c r="B378" s="4"/>
       <c r="D378" s="14" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="45"/>
+      <c r="A379" s="46"/>
       <c r="B379" s="4"/>
       <c r="D379" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="45"/>
+      <c r="A380" s="46"/>
       <c r="B380" s="4"/>
       <c r="D380" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="45"/>
+      <c r="A381" s="46"/>
       <c r="B381" s="4"/>
       <c r="D381" s="14" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="45"/>
+      <c r="A382" s="46"/>
       <c r="B382" s="4"/>
       <c r="D382" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="45"/>
+      <c r="A383" s="46"/>
       <c r="B383" s="18"/>
       <c r="C383" t="s">
         <v>367</v>
@@ -13711,7 +13738,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="45"/>
+      <c r="A384" s="46"/>
       <c r="B384" s="18"/>
       <c r="C384" t="s">
         <v>335</v>
@@ -13721,7 +13748,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="47">
+      <c r="A386" s="45">
         <v>43430</v>
       </c>
       <c r="B386" s="4"/>
@@ -13733,7 +13760,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="47"/>
+      <c r="A387" s="45"/>
       <c r="B387" s="4"/>
       <c r="C387" t="s">
         <v>638</v>
@@ -13743,14 +13770,14 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="47"/>
+      <c r="A388" s="45"/>
       <c r="B388" s="4"/>
       <c r="D388" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="47"/>
+      <c r="A389" s="45"/>
       <c r="B389" s="4"/>
       <c r="C389" s="14" t="s">
         <v>265</v>
@@ -13760,7 +13787,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="47"/>
+      <c r="A390" s="45"/>
       <c r="B390" s="4"/>
       <c r="C390" s="14" t="s">
         <v>615</v>
@@ -13770,8 +13797,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="47"/>
-      <c r="B391" s="49" t="s">
+      <c r="A391" s="45"/>
+      <c r="B391" s="52" t="s">
         <v>648</v>
       </c>
       <c r="D391" s="14" t="s">
@@ -13779,45 +13806,45 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="47"/>
-      <c r="B392" s="49"/>
+      <c r="A392" s="45"/>
+      <c r="B392" s="52"/>
       <c r="D392" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="47"/>
-      <c r="B393" s="49"/>
+      <c r="A393" s="45"/>
+      <c r="B393" s="52"/>
       <c r="D393" s="14" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="47"/>
-      <c r="B394" s="49"/>
+      <c r="A394" s="45"/>
+      <c r="B394" s="52"/>
       <c r="D394" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="47"/>
-      <c r="B395" s="49"/>
+      <c r="A395" s="45"/>
+      <c r="B395" s="52"/>
       <c r="D395" s="14" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="47"/>
-      <c r="B396" s="49"/>
+      <c r="A396" s="45"/>
+      <c r="B396" s="52"/>
       <c r="D396" s="14" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="47">
+      <c r="A398" s="45">
         <v>43431</v>
       </c>
-      <c r="B398" s="49" t="s">
+      <c r="B398" s="52" t="s">
         <v>647</v>
       </c>
       <c r="C398" t="s">
@@ -13828,8 +13855,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="47"/>
-      <c r="B399" s="49"/>
+      <c r="A399" s="45"/>
+      <c r="B399" s="52"/>
       <c r="C399" t="s">
         <v>638</v>
       </c>
@@ -13838,15 +13865,15 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="47"/>
-      <c r="B400" s="49"/>
+      <c r="A400" s="45"/>
+      <c r="B400" s="52"/>
       <c r="D400" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="47"/>
-      <c r="B401" s="49"/>
+      <c r="A401" s="45"/>
+      <c r="B401" s="52"/>
       <c r="C401" s="14" t="s">
         <v>265</v>
       </c>
@@ -13855,50 +13882,50 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="47"/>
-      <c r="B402" s="49"/>
+      <c r="A402" s="45"/>
+      <c r="B402" s="52"/>
       <c r="D402" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="47"/>
-      <c r="B403" s="49"/>
+      <c r="A403" s="45"/>
+      <c r="B403" s="52"/>
       <c r="D403" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="47"/>
-      <c r="B404" s="49"/>
+      <c r="A404" s="45"/>
+      <c r="B404" s="52"/>
       <c r="D404" s="14" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="47"/>
-      <c r="B405" s="49"/>
+      <c r="A405" s="45"/>
+      <c r="B405" s="52"/>
       <c r="D405" s="14" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="47"/>
-      <c r="B406" s="49"/>
+      <c r="A406" s="45"/>
+      <c r="B406" s="52"/>
       <c r="D406" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="47"/>
-      <c r="B407" s="49"/>
+      <c r="A407" s="45"/>
+      <c r="B407" s="52"/>
       <c r="D407" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="47"/>
-      <c r="B408" s="49"/>
+      <c r="A408" s="45"/>
+      <c r="B408" s="52"/>
       <c r="C408" t="s">
         <v>335</v>
       </c>
@@ -13907,10 +13934,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="47">
+      <c r="A410" s="45">
         <v>43432</v>
       </c>
-      <c r="B410" s="49"/>
+      <c r="B410" s="52"/>
       <c r="C410" t="s">
         <v>641</v>
       </c>
@@ -13919,8 +13946,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="47"/>
-      <c r="B411" s="49"/>
+      <c r="A411" s="45"/>
+      <c r="B411" s="52"/>
       <c r="C411" t="s">
         <v>656</v>
       </c>
@@ -13929,8 +13956,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="47"/>
-      <c r="B412" s="49"/>
+      <c r="A412" s="45"/>
+      <c r="B412" s="52"/>
       <c r="C412" s="14" t="s">
         <v>265</v>
       </c>
@@ -13939,59 +13966,59 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="47"/>
-      <c r="B413" s="49"/>
+      <c r="A413" s="45"/>
+      <c r="B413" s="52"/>
       <c r="D413" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="47"/>
-      <c r="B414" s="49"/>
+      <c r="A414" s="45"/>
+      <c r="B414" s="52"/>
       <c r="D414" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="47"/>
-      <c r="B415" s="49"/>
+      <c r="A415" s="45"/>
+      <c r="B415" s="52"/>
       <c r="D415" s="14" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="47"/>
-      <c r="B416" s="49"/>
+      <c r="A416" s="45"/>
+      <c r="B416" s="52"/>
       <c r="D416" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="47"/>
-      <c r="B417" s="49"/>
+      <c r="A417" s="45"/>
+      <c r="B417" s="52"/>
       <c r="D417" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="47"/>
-      <c r="B418" s="49"/>
+      <c r="A418" s="45"/>
+      <c r="B418" s="52"/>
       <c r="D418" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="47"/>
-      <c r="B419" s="49"/>
+      <c r="A419" s="45"/>
+      <c r="B419" s="52"/>
       <c r="D419" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="47">
+      <c r="A421" s="45">
         <v>43433</v>
       </c>
-      <c r="B421" s="49" t="s">
+      <c r="B421" s="52" t="s">
         <v>664</v>
       </c>
       <c r="C421" t="s">
@@ -14002,8 +14029,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="47"/>
-      <c r="B422" s="49"/>
+      <c r="A422" s="45"/>
+      <c r="B422" s="52"/>
       <c r="C422" t="s">
         <v>670</v>
       </c>
@@ -14012,8 +14039,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="47"/>
-      <c r="B423" s="49"/>
+      <c r="A423" s="45"/>
+      <c r="B423" s="52"/>
       <c r="C423" s="14" t="s">
         <v>265</v>
       </c>
@@ -14022,66 +14049,66 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="47"/>
-      <c r="B424" s="49"/>
+      <c r="A424" s="45"/>
+      <c r="B424" s="52"/>
       <c r="D424" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="47"/>
-      <c r="B425" s="49"/>
+      <c r="A425" s="45"/>
+      <c r="B425" s="52"/>
       <c r="D425" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="47"/>
-      <c r="B426" s="49"/>
+      <c r="A426" s="45"/>
+      <c r="B426" s="52"/>
       <c r="D426" s="14" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="47"/>
-      <c r="B427" s="49"/>
+      <c r="A427" s="45"/>
+      <c r="B427" s="52"/>
       <c r="D427" s="14" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="47"/>
-      <c r="B428" s="49"/>
+      <c r="A428" s="45"/>
+      <c r="B428" s="52"/>
       <c r="D428" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="47"/>
-      <c r="B429" s="49"/>
+      <c r="A429" s="45"/>
+      <c r="B429" s="52"/>
       <c r="D429" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="47"/>
-      <c r="B430" s="49"/>
+      <c r="A430" s="45"/>
+      <c r="B430" s="52"/>
       <c r="D430" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="47"/>
-      <c r="B431" s="49"/>
+      <c r="A431" s="45"/>
+      <c r="B431" s="52"/>
       <c r="D431" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="47">
+      <c r="A433" s="45">
         <v>43434</v>
       </c>
-      <c r="B433" s="49"/>
+      <c r="B433" s="52"/>
       <c r="C433" t="s">
         <v>673</v>
       </c>
@@ -14090,8 +14117,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="47"/>
-      <c r="B434" s="49"/>
+      <c r="A434" s="45"/>
+      <c r="B434" s="52"/>
       <c r="C434" t="s">
         <v>675</v>
       </c>
@@ -14100,8 +14127,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="47"/>
-      <c r="B435" s="49"/>
+      <c r="A435" s="45"/>
+      <c r="B435" s="52"/>
       <c r="C435" s="14" t="s">
         <v>265</v>
       </c>
@@ -14110,38 +14137,38 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="47"/>
-      <c r="B436" s="49"/>
+      <c r="A436" s="45"/>
+      <c r="B436" s="52"/>
       <c r="D436" s="14" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="47"/>
-      <c r="B437" s="49"/>
+      <c r="A437" s="45"/>
+      <c r="B437" s="52"/>
       <c r="D437" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="47"/>
-      <c r="B438" s="49"/>
+      <c r="A438" s="45"/>
+      <c r="B438" s="52"/>
       <c r="D438" s="14" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="47"/>
-      <c r="B439" s="49"/>
+      <c r="A439" s="45"/>
+      <c r="B439" s="52"/>
       <c r="D439" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="45">
+      <c r="A441" s="46">
         <v>43435</v>
       </c>
-      <c r="B441" s="49"/>
+      <c r="B441" s="52"/>
       <c r="C441" t="s">
         <v>673</v>
       </c>
@@ -14150,70 +14177,70 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="45"/>
-      <c r="B442" s="49"/>
+      <c r="A442" s="46"/>
+      <c r="B442" s="52"/>
       <c r="D442" s="14" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="45"/>
-      <c r="B443" s="49"/>
+      <c r="A443" s="46"/>
+      <c r="B443" s="52"/>
       <c r="D443" s="14" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="45"/>
-      <c r="B444" s="49"/>
+      <c r="A444" s="46"/>
+      <c r="B444" s="52"/>
       <c r="D444" s="14" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="45"/>
-      <c r="B445" s="49"/>
+      <c r="A445" s="46"/>
+      <c r="B445" s="52"/>
       <c r="D445" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="45"/>
-      <c r="B446" s="49"/>
+      <c r="A446" s="46"/>
+      <c r="B446" s="52"/>
       <c r="D446" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="45"/>
-      <c r="B447" s="49"/>
+      <c r="A447" s="46"/>
+      <c r="B447" s="52"/>
       <c r="D447" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="45"/>
-      <c r="B448" s="49"/>
+      <c r="A448" s="46"/>
+      <c r="B448" s="52"/>
       <c r="D448" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="45"/>
-      <c r="B449" s="49"/>
+      <c r="A449" s="46"/>
+      <c r="B449" s="52"/>
       <c r="D449" s="14" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="45"/>
-      <c r="B450" s="49"/>
+      <c r="A450" s="46"/>
+      <c r="B450" s="52"/>
       <c r="D450" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="45">
+      <c r="A452" s="46">
         <v>43436</v>
       </c>
       <c r="B452" s="4"/>
@@ -14225,28 +14252,28 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="45"/>
+      <c r="A453" s="46"/>
       <c r="B453" s="4"/>
       <c r="D453" s="14" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="45"/>
+      <c r="A454" s="46"/>
       <c r="B454" s="4"/>
       <c r="D454" s="14" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="45"/>
+      <c r="A455" s="46"/>
       <c r="B455" s="4"/>
       <c r="D455" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="45"/>
+      <c r="A456" s="46"/>
       <c r="B456" s="4" t="s">
         <v>700</v>
       </c>
@@ -14255,27 +14282,27 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="45"/>
+      <c r="A457" s="46"/>
       <c r="B457" s="4"/>
       <c r="D457" s="14" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="45"/>
+      <c r="A458" s="46"/>
       <c r="B458" s="4"/>
       <c r="D458" s="14" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="45"/>
+      <c r="A459" s="46"/>
       <c r="D459" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="45"/>
+      <c r="A460" s="46"/>
       <c r="B460" s="4" t="s">
         <v>695</v>
       </c>
@@ -14284,10 +14311,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="47">
+      <c r="A462" s="45">
         <v>43437</v>
       </c>
-      <c r="B462" s="46" t="s">
+      <c r="B462" s="47" t="s">
         <v>709</v>
       </c>
       <c r="C462" t="s">
@@ -14298,8 +14325,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="47"/>
-      <c r="B463" s="46"/>
+      <c r="A463" s="45"/>
+      <c r="B463" s="47"/>
       <c r="C463" t="s">
         <v>697</v>
       </c>
@@ -14308,22 +14335,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="47"/>
-      <c r="B464" s="46"/>
+      <c r="A464" s="45"/>
+      <c r="B464" s="47"/>
       <c r="D464" s="14" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="47"/>
-      <c r="B465" s="46"/>
+      <c r="A465" s="45"/>
+      <c r="B465" s="47"/>
       <c r="D465" s="14" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="47"/>
-      <c r="B466" s="46"/>
+      <c r="A466" s="45"/>
+      <c r="B466" s="47"/>
       <c r="C466" s="14" t="s">
         <v>265</v>
       </c>
@@ -14332,16 +14359,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="47"/>
-      <c r="B467" s="46"/>
+      <c r="A467" s="45"/>
+      <c r="B467" s="47"/>
       <c r="C467" s="14"/>
       <c r="D467" s="14" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="47"/>
-      <c r="B468" s="46" t="s">
+      <c r="A468" s="45"/>
+      <c r="B468" s="47" t="s">
         <v>710</v>
       </c>
       <c r="D468" s="14" t="s">
@@ -14349,28 +14376,28 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="47"/>
-      <c r="B469" s="49"/>
+      <c r="A469" s="45"/>
+      <c r="B469" s="52"/>
       <c r="D469" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E469" s="49" t="s">
+      <c r="E469" s="52" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="47"/>
-      <c r="B470" s="49"/>
+      <c r="A470" s="45"/>
+      <c r="B470" s="52"/>
       <c r="D470" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="E470" s="49"/>
+      <c r="E470" s="52"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="47">
+      <c r="A472" s="45">
         <v>43438</v>
       </c>
-      <c r="B472" s="46" t="s">
+      <c r="B472" s="47" t="s">
         <v>741</v>
       </c>
       <c r="C472" t="s">
@@ -14379,58 +14406,58 @@
       <c r="D472" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="E472" s="49" t="s">
+      <c r="E472" s="52" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="47"/>
-      <c r="B473" s="49"/>
+      <c r="A473" s="45"/>
+      <c r="B473" s="52"/>
       <c r="D473" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="E473" s="49"/>
+      <c r="E473" s="52"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="47"/>
-      <c r="B474" s="49"/>
+      <c r="A474" s="45"/>
+      <c r="B474" s="52"/>
       <c r="C474" t="s">
         <v>718</v>
       </c>
       <c r="D474" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="E474" s="49"/>
+      <c r="E474" s="52"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="47"/>
-      <c r="B475" s="49"/>
+      <c r="A475" s="45"/>
+      <c r="B475" s="52"/>
       <c r="C475" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D475" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="E475" s="49"/>
+      <c r="E475" s="52"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="47"/>
-      <c r="B476" s="49"/>
+      <c r="A476" s="45"/>
+      <c r="B476" s="52"/>
       <c r="D476" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E476" s="49"/>
+      <c r="E476" s="52"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="47"/>
-      <c r="B477" s="49"/>
+      <c r="A477" s="45"/>
+      <c r="B477" s="52"/>
       <c r="D477" s="14" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="47"/>
-      <c r="B478" s="49"/>
+      <c r="A478" s="45"/>
+      <c r="B478" s="52"/>
       <c r="D478" s="14" t="s">
         <v>411</v>
       </c>
@@ -14439,18 +14466,18 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="47"/>
-      <c r="B479" s="49"/>
+      <c r="A479" s="45"/>
+      <c r="B479" s="52"/>
       <c r="D479" s="14" t="s">
         <v>736</v>
       </c>
       <c r="E479" s="44"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="47">
+      <c r="A481" s="45">
         <v>43439</v>
       </c>
-      <c r="B481" s="46" t="s">
+      <c r="B481" s="47" t="s">
         <v>740</v>
       </c>
       <c r="C481" t="s">
@@ -14459,20 +14486,20 @@
       <c r="D481" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="E481" s="49" t="s">
+      <c r="E481" s="52" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="47"/>
-      <c r="B482" s="49"/>
+      <c r="A482" s="45"/>
+      <c r="B482" s="52"/>
       <c r="D482" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="E482" s="49"/>
+      <c r="E482" s="52"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="47"/>
+      <c r="A483" s="45"/>
       <c r="B483" s="30" t="s">
         <v>739</v>
       </c>
@@ -14482,46 +14509,46 @@
       <c r="D483" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="E483" s="49"/>
+      <c r="E483" s="52"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="47"/>
+      <c r="A484" s="45"/>
       <c r="B484" s="4"/>
       <c r="D484" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E484" s="49"/>
+      <c r="E484" s="52"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="47"/>
+      <c r="A485" s="45"/>
       <c r="B485" s="4"/>
       <c r="D485" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="E485" s="49"/>
+      <c r="E485" s="52"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="47"/>
+      <c r="A486" s="45"/>
       <c r="B486" s="4"/>
       <c r="D486" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="E486" s="49" t="s">
+      <c r="E486" s="52" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="47"/>
+      <c r="A487" s="45"/>
       <c r="B487" s="30" t="s">
         <v>377</v>
       </c>
       <c r="D487" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E487" s="49"/>
+      <c r="E487" s="52"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="47">
+      <c r="A489" s="45">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -14533,7 +14560,7 @@
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="47"/>
+      <c r="A490" s="45"/>
       <c r="B490" s="4"/>
       <c r="D490" s="14" t="s">
         <v>750</v>
@@ -14541,7 +14568,7 @@
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="47"/>
+      <c r="A491" s="45"/>
       <c r="B491" s="30" t="s">
         <v>739</v>
       </c>
@@ -14554,7 +14581,7 @@
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="47"/>
+      <c r="A492" s="45"/>
       <c r="B492" s="4"/>
       <c r="D492" s="14" t="s">
         <v>735</v>
@@ -14562,38 +14589,38 @@
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="47"/>
+      <c r="A493" s="45"/>
       <c r="B493" s="4"/>
       <c r="D493" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="47"/>
+      <c r="A494" s="45"/>
       <c r="B494" s="4"/>
       <c r="D494" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="47"/>
+      <c r="A495" s="45"/>
       <c r="B495" s="4"/>
       <c r="D495" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="47"/>
+      <c r="A496" s="45"/>
       <c r="B496" s="4"/>
       <c r="D496" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="47">
+      <c r="A498" s="45">
         <v>43441</v>
       </c>
-      <c r="B498" s="46"/>
+      <c r="B498" s="47"/>
       <c r="C498" t="s">
         <v>662</v>
       </c>
@@ -14603,15 +14630,15 @@
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="47"/>
-      <c r="B499" s="49"/>
+      <c r="A499" s="45"/>
+      <c r="B499" s="52"/>
       <c r="D499" s="14" t="s">
         <v>738</v>
       </c>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="47"/>
+      <c r="A500" s="45"/>
       <c r="B500" s="30" t="s">
         <v>739</v>
       </c>
@@ -14621,7 +14648,7 @@
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="47"/>
+      <c r="A501" s="45"/>
       <c r="B501" s="4"/>
       <c r="C501" s="14" t="s">
         <v>717</v>
@@ -14632,7 +14659,7 @@
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="47"/>
+      <c r="A502" s="45"/>
       <c r="B502" s="4"/>
       <c r="D502" s="14" t="s">
         <v>768</v>
@@ -14640,21 +14667,21 @@
       <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="47"/>
+      <c r="A503" s="45"/>
       <c r="B503" s="4"/>
       <c r="D503" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="47"/>
+      <c r="A504" s="45"/>
       <c r="B504" s="4"/>
       <c r="D504" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="45">
+      <c r="A506" s="46">
         <v>43442</v>
       </c>
       <c r="B506" s="31"/>
@@ -14666,49 +14693,49 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="45"/>
+      <c r="A507" s="46"/>
       <c r="B507" s="4"/>
       <c r="D507" s="14" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="45"/>
+      <c r="A508" s="46"/>
       <c r="B508" s="4"/>
       <c r="D508" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="45"/>
+      <c r="A509" s="46"/>
       <c r="B509" s="4"/>
       <c r="D509" s="14" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="45"/>
+      <c r="A510" s="46"/>
       <c r="B510" s="4"/>
       <c r="D510" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="45"/>
+      <c r="A511" s="46"/>
       <c r="B511" s="4"/>
       <c r="D511" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="45"/>
+      <c r="A512" s="46"/>
       <c r="B512" s="4"/>
       <c r="D512" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="45">
+      <c r="A514" s="46">
         <v>43443</v>
       </c>
       <c r="B514" s="31"/>
@@ -14717,7 +14744,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="45"/>
+      <c r="A515" s="46"/>
       <c r="B515" s="31"/>
       <c r="C515" t="s">
         <v>473</v>
@@ -14727,63 +14754,63 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="45"/>
+      <c r="A516" s="46"/>
       <c r="B516" s="4"/>
       <c r="D516" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="45"/>
+      <c r="A517" s="46"/>
       <c r="B517" s="4"/>
       <c r="D517" s="14" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="45"/>
+      <c r="A518" s="46"/>
       <c r="B518" s="4"/>
       <c r="D518" s="14" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="45"/>
+      <c r="A519" s="46"/>
       <c r="B519" s="4"/>
       <c r="D519" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="45"/>
+      <c r="A520" s="46"/>
       <c r="B520" s="4"/>
       <c r="D520" s="14" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="45"/>
+      <c r="A521" s="46"/>
       <c r="B521" s="4"/>
       <c r="D521" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="45"/>
+      <c r="A522" s="46"/>
       <c r="B522" s="4"/>
       <c r="D522" s="14" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="45"/>
+      <c r="A523" s="46"/>
       <c r="B523" s="4"/>
       <c r="D523" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="47">
+      <c r="A525" s="45">
         <v>43444</v>
       </c>
       <c r="B525" s="31" t="s">
@@ -14797,8 +14824,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="47"/>
-      <c r="B526" s="46" t="s">
+      <c r="A526" s="45"/>
+      <c r="B526" s="47" t="s">
         <v>784</v>
       </c>
       <c r="D526" s="14" t="s">
@@ -14806,29 +14833,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="47"/>
-      <c r="B527" s="46"/>
+      <c r="A527" s="45"/>
+      <c r="B527" s="47"/>
       <c r="D527" s="14" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="47"/>
-      <c r="B528" s="46"/>
+      <c r="A528" s="45"/>
+      <c r="B528" s="47"/>
       <c r="D528" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="47"/>
-      <c r="B529" s="46"/>
+      <c r="A529" s="45"/>
+      <c r="B529" s="47"/>
       <c r="D529" s="14" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="47"/>
-      <c r="B530" s="46"/>
+      <c r="A530" s="45"/>
+      <c r="B530" s="47"/>
       <c r="C530" s="14" t="s">
         <v>717</v>
       </c>
@@ -14837,42 +14864,42 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="47"/>
-      <c r="B531" s="46"/>
+      <c r="A531" s="45"/>
+      <c r="B531" s="47"/>
       <c r="D531" s="14" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="47"/>
+      <c r="A532" s="45"/>
       <c r="B532" s="4"/>
       <c r="D532" s="14" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="47"/>
+      <c r="A533" s="45"/>
       <c r="B533" s="4"/>
       <c r="D533" s="14" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="47"/>
+      <c r="A534" s="45"/>
       <c r="B534" s="4"/>
       <c r="D534" s="14" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="47"/>
+      <c r="A535" s="45"/>
       <c r="B535" s="4"/>
       <c r="D535" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="47">
+      <c r="A537" s="45">
         <v>43445</v>
       </c>
       <c r="B537" s="31"/>
@@ -14884,8 +14911,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="47"/>
-      <c r="B538" s="46" t="s">
+      <c r="A538" s="45"/>
+      <c r="B538" s="47" t="s">
         <v>787</v>
       </c>
       <c r="D538" s="14" t="s">
@@ -14893,15 +14920,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="47"/>
-      <c r="B539" s="46"/>
+      <c r="A539" s="45"/>
+      <c r="B539" s="47"/>
       <c r="D539" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="47"/>
-      <c r="B540" s="46"/>
+      <c r="A540" s="45"/>
+      <c r="B540" s="47"/>
       <c r="C540" s="14" t="s">
         <v>717</v>
       </c>
@@ -14910,56 +14937,56 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="47"/>
-      <c r="B541" s="46"/>
+      <c r="A541" s="45"/>
+      <c r="B541" s="47"/>
       <c r="D541" s="14" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="47"/>
-      <c r="B542" s="46"/>
+      <c r="A542" s="45"/>
+      <c r="B542" s="47"/>
       <c r="D542" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="47"/>
-      <c r="B543" s="46"/>
+      <c r="A543" s="45"/>
+      <c r="B543" s="47"/>
       <c r="D543" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="47"/>
+      <c r="A544" s="45"/>
       <c r="B544" s="4"/>
       <c r="D544" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="47"/>
+      <c r="A545" s="45"/>
       <c r="B545" s="4"/>
       <c r="D545" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="47"/>
+      <c r="A546" s="45"/>
       <c r="B546" s="4"/>
       <c r="D546" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="47"/>
+      <c r="A547" s="45"/>
       <c r="B547" s="4"/>
       <c r="D547" s="14" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="47">
+      <c r="A549" s="45">
         <v>43446</v>
       </c>
       <c r="B549" s="31"/>
@@ -14971,8 +14998,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="47"/>
-      <c r="B550" s="46" t="s">
+      <c r="A550" s="45"/>
+      <c r="B550" s="47" t="s">
         <v>830</v>
       </c>
       <c r="D550" s="14" t="s">
@@ -14980,15 +15007,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="47"/>
-      <c r="B551" s="46"/>
+      <c r="A551" s="45"/>
+      <c r="B551" s="47"/>
       <c r="D551" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="47"/>
-      <c r="B552" s="46"/>
+      <c r="A552" s="45"/>
+      <c r="B552" s="47"/>
       <c r="C552" s="14" t="s">
         <v>717</v>
       </c>
@@ -14997,49 +15024,49 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="47"/>
-      <c r="B553" s="46"/>
+      <c r="A553" s="45"/>
+      <c r="B553" s="47"/>
       <c r="D553" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="47"/>
-      <c r="B554" s="46"/>
+      <c r="A554" s="45"/>
+      <c r="B554" s="47"/>
       <c r="D554" s="14" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="47"/>
+      <c r="A555" s="45"/>
       <c r="B555" s="4"/>
       <c r="D555" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="47"/>
+      <c r="A556" s="45"/>
       <c r="B556" s="4"/>
       <c r="D556" s="14" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="47"/>
+      <c r="A557" s="45"/>
       <c r="B557" s="4"/>
       <c r="D557" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="47"/>
+      <c r="A558" s="45"/>
       <c r="B558" s="4"/>
       <c r="D558" s="14" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="47">
+      <c r="A560" s="45">
         <v>43447</v>
       </c>
       <c r="B560" s="31"/>
@@ -15051,8 +15078,8 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="47"/>
-      <c r="B561" s="46" t="s">
+      <c r="A561" s="45"/>
+      <c r="B561" s="47" t="s">
         <v>850</v>
       </c>
       <c r="D561" s="14" t="s">
@@ -15060,15 +15087,15 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="47"/>
-      <c r="B562" s="46"/>
+      <c r="A562" s="45"/>
+      <c r="B562" s="47"/>
       <c r="D562" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="47"/>
-      <c r="B563" s="46"/>
+      <c r="A563" s="45"/>
+      <c r="B563" s="47"/>
       <c r="C563" s="14" t="s">
         <v>717</v>
       </c>
@@ -15077,21 +15104,21 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="47"/>
-      <c r="B564" s="46"/>
+      <c r="A564" s="45"/>
+      <c r="B564" s="47"/>
       <c r="D564" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="47"/>
-      <c r="B565" s="46"/>
+      <c r="A565" s="45"/>
+      <c r="B565" s="47"/>
       <c r="D565" s="14" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="47"/>
+      <c r="A566" s="45"/>
       <c r="B566" s="30" t="s">
         <v>852</v>
       </c>
@@ -15100,35 +15127,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="47"/>
+      <c r="A567" s="45"/>
       <c r="B567" s="4"/>
       <c r="D567" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="47"/>
+      <c r="A568" s="45"/>
       <c r="B568" s="4"/>
       <c r="D568" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="47"/>
+      <c r="A569" s="45"/>
       <c r="B569" s="4"/>
       <c r="D569" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="47"/>
+      <c r="A570" s="45"/>
       <c r="B570" s="4"/>
       <c r="D570" s="14" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="47">
+      <c r="A572" s="45">
         <v>43448</v>
       </c>
       <c r="B572" s="31"/>
@@ -15137,7 +15164,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="47"/>
+      <c r="A573" s="45"/>
       <c r="B573" s="31"/>
       <c r="C573" t="s">
         <v>853</v>
@@ -15147,8 +15174,8 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="47"/>
-      <c r="B574" s="46" t="s">
+      <c r="A574" s="45"/>
+      <c r="B574" s="47" t="s">
         <v>859</v>
       </c>
       <c r="D574" s="14" t="s">
@@ -15156,22 +15183,22 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="47"/>
-      <c r="B575" s="46"/>
+      <c r="A575" s="45"/>
+      <c r="B575" s="47"/>
       <c r="D575" s="14" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="47"/>
-      <c r="B576" s="46"/>
+      <c r="A576" s="45"/>
+      <c r="B576" s="47"/>
       <c r="D576" s="14" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="47"/>
-      <c r="B577" s="46"/>
+      <c r="A577" s="45"/>
+      <c r="B577" s="47"/>
       <c r="C577" s="14" t="s">
         <v>717</v>
       </c>
@@ -15180,49 +15207,49 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="47"/>
-      <c r="B578" s="46"/>
+      <c r="A578" s="45"/>
+      <c r="B578" s="47"/>
       <c r="D578" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="47"/>
-      <c r="B579" s="46"/>
+      <c r="A579" s="45"/>
+      <c r="B579" s="47"/>
       <c r="D579" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="47"/>
-      <c r="B580" s="46"/>
+      <c r="A580" s="45"/>
+      <c r="B580" s="47"/>
       <c r="D580" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="47"/>
+      <c r="A581" s="45"/>
       <c r="B581" s="30"/>
       <c r="D581" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="47"/>
+      <c r="A582" s="45"/>
       <c r="B582" s="4"/>
       <c r="D582" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="47"/>
+      <c r="A583" s="45"/>
       <c r="B583" s="4"/>
       <c r="D583" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="47"/>
+      <c r="A584" s="45"/>
       <c r="B584" s="4"/>
       <c r="D584" s="14" t="s">
         <v>851</v>
@@ -15233,7 +15260,7 @@
       <c r="B585" s="4"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="45">
+      <c r="A586" s="46">
         <v>43449</v>
       </c>
       <c r="B586" s="31"/>
@@ -15242,7 +15269,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="45"/>
+      <c r="A587" s="46"/>
       <c r="B587" s="31"/>
       <c r="C587" t="s">
         <v>865</v>
@@ -15252,8 +15279,8 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="45"/>
-      <c r="B588" s="46" t="s">
+      <c r="A588" s="46"/>
+      <c r="B588" s="47" t="s">
         <v>878</v>
       </c>
       <c r="D588" s="14" t="s">
@@ -15261,63 +15288,63 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="45"/>
-      <c r="B589" s="46"/>
+      <c r="A589" s="46"/>
+      <c r="B589" s="47"/>
       <c r="D589" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="45"/>
-      <c r="B590" s="46"/>
+      <c r="A590" s="46"/>
+      <c r="B590" s="47"/>
       <c r="D590" s="14" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="45"/>
-      <c r="B591" s="46"/>
+      <c r="A591" s="46"/>
+      <c r="B591" s="47"/>
       <c r="D591" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="45"/>
-      <c r="B592" s="46"/>
+      <c r="A592" s="46"/>
+      <c r="B592" s="47"/>
       <c r="D592" s="14" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="45"/>
-      <c r="B593" s="46"/>
+      <c r="A593" s="46"/>
+      <c r="B593" s="47"/>
       <c r="D593" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="45"/>
-      <c r="B594" s="46"/>
+      <c r="A594" s="46"/>
+      <c r="B594" s="47"/>
       <c r="D594" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="45"/>
-      <c r="B595" s="46"/>
+      <c r="A595" s="46"/>
+      <c r="B595" s="47"/>
       <c r="D595" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="45"/>
-      <c r="B596" s="46"/>
+      <c r="A596" s="46"/>
+      <c r="B596" s="47"/>
       <c r="D596" s="14" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="45">
+      <c r="A598" s="46">
         <v>43450</v>
       </c>
       <c r="B598" s="31"/>
@@ -15326,7 +15353,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="45"/>
+      <c r="A599" s="46"/>
       <c r="B599" s="31"/>
       <c r="C599" t="s">
         <v>873</v>
@@ -15336,91 +15363,91 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="45"/>
+      <c r="A600" s="46"/>
       <c r="B600" s="31"/>
       <c r="D600" s="16" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="45"/>
+      <c r="A601" s="46"/>
       <c r="B601" s="31"/>
       <c r="D601" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="45"/>
+      <c r="A602" s="46"/>
       <c r="B602" s="31"/>
       <c r="D602" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="45"/>
+      <c r="A603" s="46"/>
       <c r="B603" s="31"/>
       <c r="D603" s="14" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="45"/>
+      <c r="A604" s="46"/>
       <c r="B604" s="31"/>
       <c r="D604" s="14" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="45"/>
+      <c r="A605" s="46"/>
       <c r="B605" s="31"/>
       <c r="D605" s="14" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="45"/>
+      <c r="A606" s="46"/>
       <c r="B606" s="31"/>
       <c r="D606" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="45"/>
+      <c r="A607" s="46"/>
       <c r="B607" s="31"/>
       <c r="D607" s="14" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="45"/>
+      <c r="A608" s="46"/>
       <c r="B608" s="30"/>
       <c r="D608" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="45"/>
+      <c r="A609" s="46"/>
       <c r="B609" s="4"/>
       <c r="D609" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="45"/>
+      <c r="A610" s="46"/>
       <c r="B610" s="4"/>
       <c r="D610" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="45"/>
+      <c r="A611" s="46"/>
       <c r="B611" s="4"/>
       <c r="D611" s="14" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="47">
+      <c r="A613" s="45">
         <v>43451</v>
       </c>
       <c r="B613" s="31"/>
@@ -15432,14 +15459,14 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="47"/>
+      <c r="A614" s="45"/>
       <c r="B614" s="31"/>
       <c r="D614" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="47"/>
+      <c r="A615" s="45"/>
       <c r="B615" s="31"/>
       <c r="C615" s="14" t="s">
         <v>717</v>
@@ -15449,7 +15476,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="47"/>
+      <c r="A616" s="45"/>
       <c r="B616" s="31"/>
       <c r="C616" s="14"/>
       <c r="D616" s="14" t="s">
@@ -15457,42 +15484,42 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="47"/>
+      <c r="A617" s="45"/>
       <c r="B617" s="31"/>
       <c r="D617" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="47"/>
+      <c r="A618" s="45"/>
       <c r="B618" s="31"/>
       <c r="D618" s="14" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="47"/>
+      <c r="A619" s="45"/>
       <c r="B619" s="30"/>
       <c r="D619" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="47"/>
+      <c r="A620" s="45"/>
       <c r="B620" s="4"/>
       <c r="D620" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="47"/>
+      <c r="A621" s="45"/>
       <c r="B621" s="4"/>
       <c r="D621" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="47">
+      <c r="A623" s="45">
         <v>43452</v>
       </c>
       <c r="B623" s="31"/>
@@ -15504,28 +15531,28 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="47"/>
+      <c r="A624" s="45"/>
       <c r="B624" s="31"/>
       <c r="D624" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="47"/>
+      <c r="A625" s="45"/>
       <c r="B625" s="31"/>
       <c r="D625" s="14" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="47"/>
+      <c r="A626" s="45"/>
       <c r="B626" s="31"/>
       <c r="D626" s="14" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="47"/>
+      <c r="A627" s="45"/>
       <c r="B627" s="31"/>
       <c r="C627" s="14" t="s">
         <v>717</v>
@@ -15535,8 +15562,8 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="47"/>
-      <c r="B628" s="46" t="s">
+      <c r="A628" s="45"/>
+      <c r="B628" s="47" t="s">
         <v>895</v>
       </c>
       <c r="D628" s="14" t="s">
@@ -15544,38 +15571,38 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="47"/>
-      <c r="B629" s="46"/>
+      <c r="A629" s="45"/>
+      <c r="B629" s="47"/>
       <c r="D629" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="47"/>
-      <c r="B630" s="46"/>
+      <c r="A630" s="45"/>
+      <c r="B630" s="47"/>
       <c r="D630" s="14" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="47"/>
-      <c r="B631" s="46"/>
+      <c r="A631" s="45"/>
+      <c r="B631" s="47"/>
       <c r="D631" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="47"/>
-      <c r="B632" s="46"/>
+      <c r="A632" s="45"/>
+      <c r="B632" s="47"/>
       <c r="D632" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="47">
+      <c r="A634" s="45">
         <v>43453</v>
       </c>
-      <c r="B634" s="46"/>
+      <c r="B634" s="47"/>
       <c r="C634" t="s">
         <v>893</v>
       </c>
@@ -15587,8 +15614,8 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="47"/>
-      <c r="B635" s="46"/>
+      <c r="A635" s="45"/>
+      <c r="B635" s="47"/>
       <c r="C635" t="s">
         <v>891</v>
       </c>
@@ -15597,14 +15624,14 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="47"/>
-      <c r="B636" s="46"/>
+      <c r="A636" s="45"/>
+      <c r="B636" s="47"/>
       <c r="D636" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="47"/>
+      <c r="A637" s="45"/>
       <c r="B637" s="31"/>
       <c r="C637" s="14" t="s">
         <v>717</v>
@@ -15614,56 +15641,56 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="47"/>
+      <c r="A638" s="45"/>
       <c r="B638" s="31"/>
       <c r="D638" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="47"/>
+      <c r="A639" s="45"/>
       <c r="B639" s="31"/>
       <c r="D639" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="47"/>
+      <c r="A640" s="45"/>
       <c r="B640" s="31"/>
       <c r="D640" s="14" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="47"/>
+      <c r="A641" s="45"/>
       <c r="B641" s="31"/>
       <c r="D641" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="47"/>
+      <c r="A642" s="45"/>
       <c r="B642" s="30"/>
       <c r="D642" s="14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="47"/>
+      <c r="A643" s="45"/>
       <c r="B643" s="4"/>
       <c r="D643" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="47"/>
+      <c r="A644" s="45"/>
       <c r="B644" s="4"/>
       <c r="D644" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="47">
+      <c r="A646" s="45">
         <v>43454</v>
       </c>
       <c r="B646" s="31"/>
@@ -15675,21 +15702,21 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="47"/>
+      <c r="A647" s="45"/>
       <c r="B647" s="31"/>
       <c r="D647" s="14" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="47"/>
+      <c r="A648" s="45"/>
       <c r="B648" s="31"/>
       <c r="D648" s="14" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="47"/>
+      <c r="A649" s="45"/>
       <c r="B649" s="31"/>
       <c r="C649" s="14" t="s">
         <v>717</v>
@@ -15699,49 +15726,49 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="47"/>
+      <c r="A650" s="45"/>
       <c r="B650" s="31"/>
       <c r="D650" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="47"/>
+      <c r="A651" s="45"/>
       <c r="B651" s="31"/>
       <c r="D651" s="14" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="47"/>
+      <c r="A652" s="45"/>
       <c r="B652" s="31"/>
       <c r="D652" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="47"/>
+      <c r="A653" s="45"/>
       <c r="B653" s="30"/>
       <c r="D653" s="14" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="47"/>
+      <c r="A654" s="45"/>
       <c r="B654" s="4"/>
       <c r="D654" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="47"/>
+      <c r="A655" s="45"/>
       <c r="B655" s="4"/>
       <c r="D655" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="47">
+      <c r="A657" s="45">
         <v>43455</v>
       </c>
       <c r="B657" s="31"/>
@@ -15753,21 +15780,21 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="47"/>
+      <c r="A658" s="45"/>
       <c r="B658" s="31"/>
       <c r="D658" s="14" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="47"/>
+      <c r="A659" s="45"/>
       <c r="B659" s="31"/>
       <c r="D659" s="14" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="47"/>
+      <c r="A660" s="45"/>
       <c r="B660" s="31"/>
       <c r="C660" s="14" t="s">
         <v>717</v>
@@ -15777,35 +15804,35 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="47"/>
+      <c r="A661" s="45"/>
       <c r="B661" s="31"/>
       <c r="D661" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="47"/>
+      <c r="A662" s="45"/>
       <c r="B662" s="31"/>
       <c r="D662" s="14" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="47"/>
+      <c r="A663" s="45"/>
       <c r="B663" s="4"/>
       <c r="D663" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="47"/>
+      <c r="A664" s="45"/>
       <c r="B664" s="4"/>
       <c r="D664" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="45">
+      <c r="A666" s="46">
         <v>43456</v>
       </c>
       <c r="B666" s="31"/>
@@ -15817,70 +15844,70 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A667" s="45"/>
+      <c r="A667" s="46"/>
       <c r="B667" s="31"/>
       <c r="D667" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="45"/>
+      <c r="A668" s="46"/>
       <c r="B668" s="31"/>
       <c r="D668" s="14" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A669" s="45"/>
+      <c r="A669" s="46"/>
       <c r="B669" s="31"/>
       <c r="D669" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A670" s="45"/>
+      <c r="A670" s="46"/>
       <c r="B670" s="31"/>
       <c r="D670" s="14" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A671" s="45"/>
+      <c r="A671" s="46"/>
       <c r="B671" s="31"/>
       <c r="D671" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A672" s="45"/>
+      <c r="A672" s="46"/>
       <c r="B672" s="31"/>
       <c r="D672" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A673" s="45"/>
+      <c r="A673" s="46"/>
       <c r="B673" s="31"/>
       <c r="D673" s="14" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A674" s="45"/>
+      <c r="A674" s="46"/>
       <c r="B674" s="4"/>
       <c r="D674" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A675" s="45"/>
+      <c r="A675" s="46"/>
       <c r="B675" s="4"/>
       <c r="D675" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A677" s="45">
+      <c r="A677" s="46">
         <v>43457</v>
       </c>
       <c r="B677" s="31"/>
@@ -15892,70 +15919,70 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A678" s="45"/>
+      <c r="A678" s="46"/>
       <c r="B678" s="31"/>
       <c r="D678" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A679" s="45"/>
+      <c r="A679" s="46"/>
       <c r="B679" s="31"/>
       <c r="D679" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="45"/>
+      <c r="A680" s="46"/>
       <c r="B680" s="31"/>
       <c r="D680" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A681" s="45"/>
+      <c r="A681" s="46"/>
       <c r="B681" s="31"/>
       <c r="D681" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A682" s="45"/>
+      <c r="A682" s="46"/>
       <c r="B682" s="31"/>
       <c r="D682" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A683" s="45"/>
+      <c r="A683" s="46"/>
       <c r="B683" s="31"/>
       <c r="D683" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A684" s="45"/>
+      <c r="A684" s="46"/>
       <c r="B684" s="30"/>
       <c r="D684" s="14" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="45"/>
+      <c r="A685" s="46"/>
       <c r="B685" s="4"/>
       <c r="D685" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A686" s="45"/>
+      <c r="A686" s="46"/>
       <c r="B686" s="4"/>
       <c r="D686" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="47">
+      <c r="A688" s="45">
         <v>43458</v>
       </c>
       <c r="B688" s="31"/>
@@ -15967,14 +15994,14 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="47"/>
+      <c r="A689" s="45"/>
       <c r="B689" s="31"/>
       <c r="D689" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="47"/>
+      <c r="A690" s="45"/>
       <c r="B690" s="31"/>
       <c r="C690" s="14" t="s">
         <v>717</v>
@@ -15984,35 +16011,35 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="47"/>
+      <c r="A691" s="45"/>
       <c r="B691" s="31"/>
       <c r="D691" s="14" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="47"/>
+      <c r="A692" s="45"/>
       <c r="B692" s="31"/>
       <c r="D692" s="14" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="47"/>
+      <c r="A693" s="45"/>
       <c r="B693" s="31"/>
       <c r="D693" s="14" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="47"/>
+      <c r="A694" s="45"/>
       <c r="B694" s="4"/>
       <c r="D694" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="47">
+      <c r="A696" s="45">
         <v>43459</v>
       </c>
       <c r="B696" s="31"/>
@@ -16024,14 +16051,14 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="47"/>
+      <c r="A697" s="45"/>
       <c r="B697" s="31"/>
       <c r="D697" s="14" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="47"/>
+      <c r="A698" s="45"/>
       <c r="B698" s="31"/>
       <c r="C698" s="14" t="s">
         <v>947</v>
@@ -16041,35 +16068,35 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="47"/>
+      <c r="A699" s="45"/>
       <c r="B699" s="31"/>
       <c r="D699" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="47"/>
+      <c r="A700" s="45"/>
       <c r="B700" s="31"/>
       <c r="D700" s="14" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="47"/>
+      <c r="A701" s="45"/>
       <c r="B701" s="4"/>
       <c r="D701" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="47"/>
+      <c r="A702" s="45"/>
       <c r="B702" s="4"/>
       <c r="D702" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A704" s="47">
+      <c r="A704" s="45">
         <v>43460</v>
       </c>
       <c r="B704" s="31" t="s">
@@ -16083,14 +16110,14 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="47"/>
+      <c r="A705" s="45"/>
       <c r="B705" s="31"/>
       <c r="D705" s="14" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="47"/>
+      <c r="A706" s="45"/>
       <c r="B706" s="31"/>
       <c r="C706" s="14" t="s">
         <v>947</v>
@@ -16100,28 +16127,28 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="47"/>
+      <c r="A707" s="45"/>
       <c r="B707" s="31"/>
       <c r="D707" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="47"/>
+      <c r="A708" s="45"/>
       <c r="B708" s="31"/>
       <c r="D708" s="14" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="47"/>
+      <c r="A709" s="45"/>
       <c r="B709" s="4"/>
       <c r="D709" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="47">
+      <c r="A711" s="45">
         <v>43461</v>
       </c>
       <c r="B711" s="31"/>
@@ -16133,14 +16160,14 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="47"/>
+      <c r="A712" s="45"/>
       <c r="B712" s="31"/>
       <c r="D712" s="14" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="47"/>
+      <c r="A713" s="45"/>
       <c r="B713" s="31"/>
       <c r="C713" s="14" t="s">
         <v>717</v>
@@ -16150,42 +16177,42 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="47"/>
+      <c r="A714" s="45"/>
       <c r="B714" s="31"/>
       <c r="D714" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="47"/>
+      <c r="A715" s="45"/>
       <c r="B715" s="31"/>
       <c r="D715" s="14" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="47"/>
+      <c r="A716" s="45"/>
       <c r="B716" s="31"/>
       <c r="D716" s="14" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="47"/>
+      <c r="A717" s="45"/>
       <c r="B717" s="4"/>
       <c r="D717" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="47"/>
+      <c r="A718" s="45"/>
       <c r="B718" s="4"/>
       <c r="D718" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="47">
+      <c r="A720" s="45">
         <v>43462</v>
       </c>
       <c r="B720" s="31"/>
@@ -16197,14 +16224,14 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="47"/>
+      <c r="A721" s="45"/>
       <c r="B721" s="31"/>
       <c r="D721" s="14" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="47"/>
+      <c r="A722" s="45"/>
       <c r="B722" s="31"/>
       <c r="C722" s="14" t="s">
         <v>717</v>
@@ -16214,28 +16241,28 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="47"/>
+      <c r="A723" s="45"/>
       <c r="B723" s="31"/>
       <c r="D723" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="47"/>
+      <c r="A724" s="45"/>
       <c r="B724" s="4"/>
       <c r="D724" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="47"/>
+      <c r="A725" s="45"/>
       <c r="B725" s="4"/>
       <c r="D725" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A727" s="45">
+      <c r="A727" s="46">
         <v>43463</v>
       </c>
       <c r="B727" s="31"/>
@@ -16247,7 +16274,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="45"/>
+      <c r="A728" s="46"/>
       <c r="B728" s="31"/>
       <c r="C728" s="14" t="s">
         <v>717</v>
@@ -16257,35 +16284,35 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A729" s="45"/>
+      <c r="A729" s="46"/>
       <c r="B729" s="31"/>
       <c r="D729" s="14" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A730" s="45"/>
+      <c r="A730" s="46"/>
       <c r="B730" s="31"/>
       <c r="D730" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A731" s="45"/>
+      <c r="A731" s="46"/>
       <c r="B731" s="4"/>
       <c r="D731" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A732" s="45"/>
+      <c r="A732" s="46"/>
       <c r="B732" s="4"/>
       <c r="D732" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A734" s="45">
+      <c r="A734" s="46">
         <v>43464</v>
       </c>
       <c r="B734" s="31"/>
@@ -16294,56 +16321,56 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A735" s="45"/>
+      <c r="A735" s="46"/>
       <c r="B735" s="31"/>
       <c r="D735" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A736" s="45"/>
+      <c r="A736" s="46"/>
       <c r="B736" s="31"/>
       <c r="D736" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A737" s="45"/>
+      <c r="A737" s="46"/>
       <c r="B737" s="31"/>
       <c r="D737" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A738" s="45"/>
+      <c r="A738" s="46"/>
       <c r="B738" s="31"/>
       <c r="D738" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A739" s="45"/>
+      <c r="A739" s="46"/>
       <c r="B739" s="30"/>
       <c r="D739" s="14" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A740" s="45"/>
+      <c r="A740" s="46"/>
       <c r="B740" s="4"/>
       <c r="D740" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A741" s="45"/>
+      <c r="A741" s="46"/>
       <c r="B741" s="4"/>
       <c r="D741" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="47">
+      <c r="A743" s="45">
         <v>43465</v>
       </c>
       <c r="B743" s="31"/>
@@ -16355,35 +16382,35 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="47"/>
+      <c r="A744" s="45"/>
       <c r="B744" s="31"/>
       <c r="D744" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="47"/>
+      <c r="A745" s="45"/>
       <c r="B745" s="31"/>
       <c r="D745" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="47"/>
+      <c r="A746" s="45"/>
       <c r="B746" s="31"/>
       <c r="D746" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="47"/>
+      <c r="A747" s="45"/>
       <c r="B747" s="4"/>
       <c r="D747" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="47"/>
+      <c r="A748" s="45"/>
       <c r="B748" s="4" t="s">
         <v>966</v>
       </c>
@@ -16392,7 +16419,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="47">
+      <c r="A750" s="45">
         <v>43466</v>
       </c>
       <c r="B750" s="31"/>
@@ -16401,35 +16428,35 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="47"/>
+      <c r="A751" s="45"/>
       <c r="B751" s="31"/>
       <c r="D751" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="47"/>
+      <c r="A752" s="45"/>
       <c r="B752" s="31"/>
       <c r="D752" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="47"/>
+      <c r="A753" s="45"/>
       <c r="B753" s="31"/>
       <c r="D753" s="14" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="47"/>
+      <c r="A754" s="45"/>
       <c r="B754" s="4"/>
       <c r="D754" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="47"/>
+      <c r="A755" s="45"/>
       <c r="B755" s="4" t="s">
         <v>967</v>
       </c>
@@ -16438,7 +16465,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="47">
+      <c r="A757" s="45">
         <v>43467</v>
       </c>
       <c r="B757" s="31" t="s">
@@ -16452,7 +16479,7 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="47"/>
+      <c r="A758" s="45"/>
       <c r="B758" s="31" t="s">
         <v>976</v>
       </c>
@@ -16461,7 +16488,7 @@
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="47"/>
+      <c r="A759" s="45"/>
       <c r="B759" s="31" t="s">
         <v>996</v>
       </c>
@@ -16473,7 +16500,7 @@
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="47"/>
+      <c r="A760" s="45"/>
       <c r="B760" s="31" t="s">
         <v>997</v>
       </c>
@@ -16482,19 +16509,19 @@
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="47"/>
+      <c r="A761" s="45"/>
       <c r="B761" s="4"/>
       <c r="D761" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="47"/>
+      <c r="A762" s="45"/>
       <c r="B762" s="4"/>
       <c r="D762" s="14"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A764" s="47">
+      <c r="A764" s="45">
         <v>43468</v>
       </c>
       <c r="B764" s="31" t="s">
@@ -16508,14 +16535,14 @@
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A765" s="47"/>
+      <c r="A765" s="45"/>
       <c r="B765" s="31"/>
       <c r="D765" s="14" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A766" s="47"/>
+      <c r="A766" s="45"/>
       <c r="B766" s="31"/>
       <c r="C766" s="14" t="s">
         <v>717</v>
@@ -16525,26 +16552,26 @@
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A767" s="47"/>
+      <c r="A767" s="45"/>
       <c r="B767" s="31"/>
       <c r="D767" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="47"/>
+      <c r="A768" s="45"/>
       <c r="B768" s="4"/>
       <c r="D768" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="47"/>
+      <c r="A769" s="45"/>
       <c r="B769" s="4"/>
       <c r="D769" s="14"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A771" s="47">
+      <c r="A771" s="45">
         <v>43469</v>
       </c>
       <c r="B771" s="31" t="s">
@@ -16558,7 +16585,7 @@
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A772" s="47"/>
+      <c r="A772" s="45"/>
       <c r="B772" s="31"/>
       <c r="C772" s="14" t="s">
         <v>717</v>
@@ -16568,21 +16595,21 @@
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A773" s="47"/>
+      <c r="A773" s="45"/>
       <c r="B773" s="31"/>
       <c r="D773" s="14" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A774" s="47"/>
+      <c r="A774" s="45"/>
       <c r="B774" s="4"/>
       <c r="D774" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A776" s="45">
+      <c r="A776" s="46">
         <v>43470</v>
       </c>
       <c r="B776" s="31"/>
@@ -16594,42 +16621,42 @@
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A777" s="45"/>
+      <c r="A777" s="46"/>
       <c r="B777" s="31"/>
       <c r="D777" s="14" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A778" s="45"/>
+      <c r="A778" s="46"/>
       <c r="B778" s="31"/>
       <c r="D778" s="14" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A779" s="45"/>
+      <c r="A779" s="46"/>
       <c r="B779" s="31"/>
       <c r="D779" s="14" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A780" s="45"/>
+      <c r="A780" s="46"/>
       <c r="B780" s="4"/>
       <c r="D780" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A781" s="45"/>
+      <c r="A781" s="46"/>
       <c r="B781" s="4"/>
       <c r="D781" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A783" s="45">
+      <c r="A783" s="46">
         <v>43471</v>
       </c>
       <c r="B783" s="31"/>
@@ -16641,84 +16668,84 @@
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A784" s="45"/>
+      <c r="A784" s="46"/>
       <c r="B784" s="31"/>
       <c r="D784" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A785" s="45"/>
+      <c r="A785" s="46"/>
       <c r="B785" s="31"/>
       <c r="D785" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A786" s="45"/>
+      <c r="A786" s="46"/>
       <c r="B786" s="31"/>
       <c r="D786" s="14" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A787" s="45"/>
+      <c r="A787" s="46"/>
       <c r="B787" s="31"/>
       <c r="D787" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A788" s="45"/>
+      <c r="A788" s="46"/>
       <c r="B788" s="31"/>
       <c r="D788" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A789" s="45"/>
+      <c r="A789" s="46"/>
       <c r="B789" s="31"/>
       <c r="D789" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A790" s="45"/>
+      <c r="A790" s="46"/>
       <c r="B790" s="31"/>
       <c r="D790" s="14" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A791" s="45"/>
+      <c r="A791" s="46"/>
       <c r="B791" s="31"/>
       <c r="D791" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A792" s="45"/>
+      <c r="A792" s="46"/>
       <c r="B792" s="31"/>
       <c r="D792" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A793" s="45"/>
+      <c r="A793" s="46"/>
       <c r="B793" s="31"/>
       <c r="D793" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A794" s="45"/>
+      <c r="A794" s="46"/>
       <c r="B794" s="4"/>
       <c r="D794" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A796" s="47">
+      <c r="A796" s="45">
         <v>43472</v>
       </c>
       <c r="B796" s="31"/>
@@ -16730,14 +16757,14 @@
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A797" s="47"/>
+      <c r="A797" s="45"/>
       <c r="B797" s="31"/>
       <c r="D797" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A798" s="47"/>
+      <c r="A798" s="45"/>
       <c r="B798" s="31"/>
       <c r="C798" s="14" t="s">
         <v>717</v>
@@ -16747,98 +16774,98 @@
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A799" s="47"/>
+      <c r="A799" s="45"/>
       <c r="B799" s="31"/>
       <c r="D799" s="14" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A800" s="47"/>
+      <c r="A800" s="45"/>
       <c r="B800" s="31"/>
       <c r="D800" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A801" s="47"/>
+      <c r="A801" s="45"/>
       <c r="B801" s="31"/>
       <c r="D801" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A802" s="47"/>
+      <c r="A802" s="45"/>
       <c r="B802" s="31"/>
       <c r="D802" s="14" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A803" s="47"/>
+      <c r="A803" s="45"/>
       <c r="B803" s="31"/>
       <c r="D803" s="14" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A804" s="47"/>
+      <c r="A804" s="45"/>
       <c r="B804" s="31"/>
       <c r="D804" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A805" s="47"/>
+      <c r="A805" s="45"/>
       <c r="B805" s="31"/>
       <c r="D805" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A806" s="47"/>
+      <c r="A806" s="45"/>
       <c r="B806" s="31"/>
       <c r="D806" s="14" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A807" s="47"/>
+      <c r="A807" s="45"/>
       <c r="B807" s="31"/>
       <c r="D807" s="14" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A808" s="47"/>
+      <c r="A808" s="45"/>
       <c r="B808" s="31"/>
       <c r="D808" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A809" s="47"/>
+      <c r="A809" s="45"/>
       <c r="B809" s="31"/>
       <c r="D809" s="14" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A810" s="47"/>
+      <c r="A810" s="45"/>
       <c r="B810" s="31"/>
       <c r="D810" s="14" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A811" s="47"/>
+      <c r="A811" s="45"/>
       <c r="B811" s="4"/>
       <c r="D811" s="14" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A813" s="47">
+      <c r="A813" s="45">
         <v>43473</v>
       </c>
       <c r="B813" s="31"/>
@@ -16850,21 +16877,21 @@
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A814" s="47"/>
+      <c r="A814" s="45"/>
       <c r="B814" s="31"/>
       <c r="D814" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A815" s="47"/>
+      <c r="A815" s="45"/>
       <c r="B815" s="31"/>
       <c r="D815" s="14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A816" s="47"/>
+      <c r="A816" s="45"/>
       <c r="B816" s="31"/>
       <c r="C816" s="14" t="s">
         <v>717</v>
@@ -16874,56 +16901,56 @@
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A817" s="47"/>
+      <c r="A817" s="45"/>
       <c r="B817" s="31"/>
       <c r="D817" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A818" s="47"/>
+      <c r="A818" s="45"/>
       <c r="B818" s="31"/>
       <c r="D818" s="14" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A819" s="47"/>
+      <c r="A819" s="45"/>
       <c r="B819" s="31"/>
       <c r="D819" s="14" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A820" s="47"/>
+      <c r="A820" s="45"/>
       <c r="B820" s="31"/>
       <c r="D820" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A821" s="47"/>
+      <c r="A821" s="45"/>
       <c r="B821" s="31"/>
       <c r="D821" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A822" s="47"/>
+      <c r="A822" s="45"/>
       <c r="B822" s="31"/>
       <c r="D822" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A823" s="47"/>
+      <c r="A823" s="45"/>
       <c r="B823" s="31"/>
       <c r="D823" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A824" s="47"/>
+      <c r="A824" s="45"/>
       <c r="B824" s="31"/>
       <c r="D824" s="14" t="s">
         <v>1041</v>
@@ -16935,7 +16962,7 @@
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A826" s="47">
+      <c r="A826" s="45">
         <v>43474</v>
       </c>
       <c r="B826" s="31"/>
@@ -16947,21 +16974,21 @@
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A827" s="47"/>
+      <c r="A827" s="45"/>
       <c r="B827" s="31"/>
       <c r="D827" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A828" s="47"/>
+      <c r="A828" s="45"/>
       <c r="B828" s="31"/>
       <c r="D828" s="14" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A829" s="47"/>
+      <c r="A829" s="45"/>
       <c r="B829" s="31"/>
       <c r="C829" s="14" t="s">
         <v>717</v>
@@ -16971,63 +16998,63 @@
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A830" s="47"/>
+      <c r="A830" s="45"/>
       <c r="B830" s="31"/>
       <c r="D830" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A831" s="47"/>
+      <c r="A831" s="45"/>
       <c r="B831" s="31"/>
       <c r="D831" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A832" s="47"/>
+      <c r="A832" s="45"/>
       <c r="B832" s="31"/>
       <c r="D832" s="14" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A833" s="47"/>
+      <c r="A833" s="45"/>
       <c r="B833" s="31"/>
       <c r="D833" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A834" s="47"/>
+      <c r="A834" s="45"/>
       <c r="B834" s="31"/>
       <c r="D834" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A835" s="47"/>
+      <c r="A835" s="45"/>
       <c r="B835" s="31"/>
       <c r="D835" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A836" s="47"/>
+      <c r="A836" s="45"/>
       <c r="B836" s="31"/>
       <c r="D836" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A837" s="47"/>
+      <c r="A837" s="45"/>
       <c r="B837" s="31"/>
       <c r="D837" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A838" s="47"/>
+      <c r="A838" s="45"/>
       <c r="D838" t="s">
         <v>1038</v>
       </c>
@@ -17041,7 +17068,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A840" s="47">
+      <c r="A840" s="45">
         <v>43475</v>
       </c>
       <c r="B840" s="31"/>
@@ -17053,28 +17080,28 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A841" s="47"/>
+      <c r="A841" s="45"/>
       <c r="B841" s="31"/>
       <c r="D841" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A842" s="47"/>
+      <c r="A842" s="45"/>
       <c r="B842" s="31"/>
       <c r="D842" s="14" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A843" s="47"/>
+      <c r="A843" s="45"/>
       <c r="B843" s="31"/>
       <c r="D843" s="14" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A844" s="47"/>
+      <c r="A844" s="45"/>
       <c r="B844" s="31"/>
       <c r="C844" s="14" t="s">
         <v>717</v>
@@ -17084,70 +17111,70 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A845" s="47"/>
+      <c r="A845" s="45"/>
       <c r="B845" s="31"/>
       <c r="D845" s="14" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A846" s="47"/>
+      <c r="A846" s="45"/>
       <c r="B846" s="31"/>
       <c r="E846" s="16" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A847" s="47"/>
+      <c r="A847" s="45"/>
       <c r="B847" s="31"/>
       <c r="D847" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A848" s="47"/>
+      <c r="A848" s="45"/>
       <c r="B848" s="31"/>
       <c r="D848" s="14" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A849" s="47"/>
+      <c r="A849" s="45"/>
       <c r="B849" s="31"/>
       <c r="D849" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A850" s="47"/>
+      <c r="A850" s="45"/>
       <c r="B850" s="31"/>
       <c r="D850" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A851" s="47"/>
+      <c r="A851" s="45"/>
       <c r="B851" s="31"/>
       <c r="D851" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A852" s="47"/>
+      <c r="A852" s="45"/>
       <c r="B852" s="31"/>
       <c r="D852" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A853" s="47"/>
+      <c r="A853" s="45"/>
       <c r="B853" s="31"/>
       <c r="D853" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A855" s="47">
+      <c r="A855" s="45">
         <v>43476</v>
       </c>
       <c r="B855" s="31"/>
@@ -17159,21 +17186,21 @@
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A856" s="47"/>
+      <c r="A856" s="45"/>
       <c r="B856" s="31"/>
       <c r="D856" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A857" s="47"/>
+      <c r="A857" s="45"/>
       <c r="B857" s="31"/>
       <c r="D857" s="14" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A858" s="47"/>
+      <c r="A858" s="45"/>
       <c r="B858" s="31"/>
       <c r="C858" s="14" t="s">
         <v>717</v>
@@ -17183,56 +17210,56 @@
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A859" s="47"/>
+      <c r="A859" s="45"/>
       <c r="B859" s="31"/>
       <c r="D859" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A860" s="47"/>
+      <c r="A860" s="45"/>
       <c r="B860" s="31"/>
       <c r="D860" s="16" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A861" s="47"/>
+      <c r="A861" s="45"/>
       <c r="B861" s="31"/>
       <c r="D861" s="14" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A862" s="47"/>
+      <c r="A862" s="45"/>
       <c r="B862" s="31"/>
       <c r="D862" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A863" s="47"/>
+      <c r="A863" s="45"/>
       <c r="B863" s="31"/>
       <c r="D863" s="14" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A864" s="47"/>
+      <c r="A864" s="45"/>
       <c r="B864" s="31"/>
       <c r="D864" s="14" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A865" s="47"/>
+      <c r="A865" s="45"/>
       <c r="B865" s="31"/>
       <c r="D865" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A866" s="47"/>
+      <c r="A866" s="45"/>
       <c r="B866" s="31"/>
       <c r="D866" s="14" t="s">
         <v>767</v>
@@ -17244,7 +17271,7 @@
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A868" s="45">
+      <c r="A868" s="46">
         <v>43477</v>
       </c>
       <c r="B868" s="31"/>
@@ -17253,49 +17280,49 @@
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A869" s="45"/>
+      <c r="A869" s="46"/>
       <c r="B869" s="31"/>
       <c r="D869" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A870" s="45"/>
+      <c r="A870" s="46"/>
       <c r="B870" s="31"/>
       <c r="D870" s="14" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A871" s="45"/>
+      <c r="A871" s="46"/>
       <c r="B871" s="31"/>
       <c r="D871" s="14" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A872" s="45"/>
+      <c r="A872" s="46"/>
       <c r="B872" s="31"/>
       <c r="D872" s="14" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A873" s="45"/>
+      <c r="A873" s="46"/>
       <c r="B873" s="31"/>
       <c r="D873" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A874" s="45"/>
+      <c r="A874" s="46"/>
       <c r="B874" s="31"/>
       <c r="D874" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A875" s="45"/>
+      <c r="A875" s="46"/>
       <c r="B875" s="31"/>
       <c r="D875" s="14" t="s">
         <v>1007</v>
@@ -17307,10 +17334,10 @@
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A877" s="45">
+      <c r="A877" s="46">
         <v>43478</v>
       </c>
-      <c r="B877" s="48" t="s">
+      <c r="B877" s="53" t="s">
         <v>1083</v>
       </c>
       <c r="D877" s="14" t="s">
@@ -17318,29 +17345,29 @@
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A878" s="45"/>
-      <c r="B878" s="48"/>
+      <c r="A878" s="46"/>
+      <c r="B878" s="53"/>
       <c r="D878" s="16" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A879" s="45"/>
-      <c r="B879" s="48"/>
+      <c r="A879" s="46"/>
+      <c r="B879" s="53"/>
       <c r="D879" s="14" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A880" s="45"/>
-      <c r="B880" s="48"/>
+      <c r="A880" s="46"/>
+      <c r="B880" s="53"/>
       <c r="D880" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A881" s="45"/>
-      <c r="B881" s="48"/>
+      <c r="A881" s="46"/>
+      <c r="B881" s="53"/>
       <c r="D881" s="16" t="s">
         <v>1073</v>
       </c>
@@ -17351,7 +17378,7 @@
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A883" s="47">
+      <c r="A883" s="45">
         <v>43479</v>
       </c>
       <c r="B883" s="31"/>
@@ -17363,14 +17390,14 @@
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A884" s="47"/>
+      <c r="A884" s="45"/>
       <c r="B884" s="31"/>
       <c r="D884" s="14" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A885" s="47"/>
+      <c r="A885" s="45"/>
       <c r="B885" s="31"/>
       <c r="C885" s="14" t="s">
         <v>717</v>
@@ -17380,35 +17407,35 @@
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A886" s="47"/>
+      <c r="A886" s="45"/>
       <c r="B886" s="31"/>
       <c r="D886" s="14" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A887" s="47"/>
+      <c r="A887" s="45"/>
       <c r="B887" s="31"/>
       <c r="D887" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A888" s="47"/>
+      <c r="A888" s="45"/>
       <c r="B888" s="31"/>
       <c r="D888" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A889" s="47"/>
+      <c r="A889" s="45"/>
       <c r="B889" s="31"/>
       <c r="D889" s="14" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A891" s="47">
+      <c r="A891" s="45">
         <v>43480</v>
       </c>
       <c r="B891" s="31"/>
@@ -17420,14 +17447,14 @@
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A892" s="47"/>
+      <c r="A892" s="45"/>
       <c r="B892" s="31"/>
       <c r="D892" s="14" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A893" s="47"/>
+      <c r="A893" s="45"/>
       <c r="B893" s="31"/>
       <c r="C893" s="14" t="s">
         <v>717</v>
@@ -17437,35 +17464,35 @@
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A894" s="47"/>
+      <c r="A894" s="45"/>
       <c r="B894" s="31"/>
       <c r="D894" s="14" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A895" s="47"/>
+      <c r="A895" s="45"/>
       <c r="B895" s="31"/>
       <c r="D895" s="16" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A896" s="47"/>
+      <c r="A896" s="45"/>
       <c r="B896" s="31"/>
       <c r="D896" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A897" s="47"/>
+      <c r="A897" s="45"/>
       <c r="B897" s="31"/>
       <c r="D897" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A899" s="47">
+      <c r="A899" s="45">
         <v>43481</v>
       </c>
       <c r="B899" s="31"/>
@@ -17477,7 +17504,7 @@
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A900" s="47"/>
+      <c r="A900" s="45"/>
       <c r="B900" s="31"/>
       <c r="C900" s="14" t="s">
         <v>717</v>
@@ -17487,35 +17514,35 @@
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A901" s="47"/>
+      <c r="A901" s="45"/>
       <c r="B901" s="31"/>
       <c r="D901" s="14" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A902" s="47"/>
+      <c r="A902" s="45"/>
       <c r="B902" s="31"/>
       <c r="D902" s="16" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A903" s="47"/>
+      <c r="A903" s="45"/>
       <c r="B903" s="31"/>
       <c r="D903" s="14" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A904" s="47"/>
+      <c r="A904" s="45"/>
       <c r="B904" s="31"/>
       <c r="D904" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A905" s="47"/>
+      <c r="A905" s="45"/>
       <c r="B905" s="31"/>
       <c r="D905" s="14" t="s">
         <v>767</v>
@@ -17527,7 +17554,7 @@
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A907" s="47">
+      <c r="A907" s="45">
         <v>43482</v>
       </c>
       <c r="B907" s="31"/>
@@ -17539,7 +17566,7 @@
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A908" s="47"/>
+      <c r="A908" s="45"/>
       <c r="B908" s="31"/>
       <c r="C908" s="14" t="s">
         <v>717</v>
@@ -17549,49 +17576,49 @@
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A909" s="47"/>
+      <c r="A909" s="45"/>
       <c r="B909" s="31"/>
       <c r="D909" s="14" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A910" s="47"/>
+      <c r="A910" s="45"/>
       <c r="B910" s="31"/>
       <c r="D910" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A911" s="47"/>
+      <c r="A911" s="45"/>
       <c r="B911" s="31"/>
       <c r="D911" s="16" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A912" s="47"/>
+      <c r="A912" s="45"/>
       <c r="B912" s="31"/>
       <c r="D912" s="14" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A913" s="47"/>
+      <c r="A913" s="45"/>
       <c r="B913" s="31"/>
       <c r="D913" s="14" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A914" s="47"/>
+      <c r="A914" s="45"/>
       <c r="B914" s="31"/>
       <c r="D914" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A915" s="47"/>
+      <c r="A915" s="45"/>
       <c r="B915" s="31"/>
       <c r="D915" s="14" t="s">
         <v>767</v>
@@ -17603,7 +17630,7 @@
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A917" s="47">
+      <c r="A917" s="45">
         <v>43483</v>
       </c>
       <c r="B917" s="31"/>
@@ -17615,28 +17642,28 @@
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A918" s="47"/>
+      <c r="A918" s="45"/>
       <c r="B918" s="31"/>
       <c r="D918" s="16" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A919" s="47"/>
+      <c r="A919" s="45"/>
       <c r="B919" s="31"/>
       <c r="D919" s="16" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A920" s="47"/>
+      <c r="A920" s="45"/>
       <c r="B920" s="31"/>
       <c r="D920" s="14" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A921" s="47"/>
+      <c r="A921" s="45"/>
       <c r="B921" s="31"/>
       <c r="C921" s="14" t="s">
         <v>717</v>
@@ -17646,35 +17673,35 @@
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A922" s="47"/>
+      <c r="A922" s="45"/>
       <c r="B922" s="31"/>
       <c r="D922" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A923" s="47"/>
+      <c r="A923" s="45"/>
       <c r="B923" s="31"/>
       <c r="D923" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A924" s="47"/>
+      <c r="A924" s="45"/>
       <c r="B924" s="31"/>
       <c r="D924" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A925" s="47"/>
+      <c r="A925" s="45"/>
       <c r="B925" s="31"/>
       <c r="D925" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A927" s="45">
+      <c r="A927" s="46">
         <v>43484</v>
       </c>
       <c r="B927" s="31"/>
@@ -17683,7 +17710,7 @@
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A928" s="45"/>
+      <c r="A928" s="46"/>
       <c r="B928" s="31"/>
       <c r="D928" s="14" t="s">
         <v>1110</v>
@@ -17693,7 +17720,7 @@
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A929" s="45"/>
+      <c r="A929" s="46"/>
       <c r="B929" s="31"/>
       <c r="D929" s="14" t="s">
         <v>1112</v>
@@ -17701,21 +17728,21 @@
       <c r="E929" s="44"/>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A930" s="45"/>
+      <c r="A930" s="46"/>
       <c r="B930" s="31"/>
       <c r="D930" s="14" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A931" s="45"/>
+      <c r="A931" s="46"/>
       <c r="B931" s="31"/>
       <c r="D931" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A932" s="45"/>
+      <c r="A932" s="46"/>
       <c r="B932" s="31"/>
       <c r="D932" s="14" t="s">
         <v>767</v>
@@ -17727,7 +17754,7 @@
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A934" s="45">
+      <c r="A934" s="46">
         <v>43485</v>
       </c>
       <c r="B934" s="31"/>
@@ -17736,28 +17763,28 @@
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A935" s="45"/>
+      <c r="A935" s="46"/>
       <c r="B935" s="31"/>
       <c r="D935" s="16" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A936" s="45"/>
+      <c r="A936" s="46"/>
       <c r="B936" s="31"/>
       <c r="D936" s="14" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A937" s="45"/>
+      <c r="A937" s="46"/>
       <c r="B937" s="31"/>
       <c r="D937" s="16" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A938" s="45"/>
+      <c r="A938" s="46"/>
       <c r="B938" s="31"/>
       <c r="D938" s="14" t="s">
         <v>767</v>
@@ -17769,7 +17796,7 @@
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A940" s="47">
+      <c r="A940" s="45">
         <v>43486</v>
       </c>
       <c r="B940" s="31"/>
@@ -17781,21 +17808,21 @@
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A941" s="47"/>
+      <c r="A941" s="45"/>
       <c r="B941" s="31"/>
       <c r="D941" s="14" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A942" s="47"/>
+      <c r="A942" s="45"/>
       <c r="B942" s="31"/>
       <c r="D942" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A944" s="47">
+      <c r="A944" s="45">
         <v>43487</v>
       </c>
       <c r="B944" s="31"/>
@@ -17804,14 +17831,14 @@
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A945" s="47"/>
+      <c r="A945" s="45"/>
       <c r="B945" s="31"/>
       <c r="D945" s="14" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A946" s="47"/>
+      <c r="A946" s="45"/>
       <c r="B946" s="31"/>
       <c r="C946" s="14" t="s">
         <v>717</v>
@@ -17821,21 +17848,21 @@
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A947" s="47"/>
+      <c r="A947" s="45"/>
       <c r="B947" s="31"/>
       <c r="D947" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A948" s="47"/>
+      <c r="A948" s="45"/>
       <c r="B948" s="31"/>
       <c r="D948" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A950" s="47">
+      <c r="A950" s="45">
         <v>43488</v>
       </c>
       <c r="B950" s="31"/>
@@ -17847,14 +17874,14 @@
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A951" s="47"/>
+      <c r="A951" s="45"/>
       <c r="B951" s="31"/>
       <c r="D951" s="14" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A952" s="47"/>
+      <c r="A952" s="45"/>
       <c r="B952" s="31"/>
       <c r="C952" s="14" t="s">
         <v>717</v>
@@ -17864,14 +17891,14 @@
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A953" s="47"/>
+      <c r="A953" s="45"/>
       <c r="B953" s="31"/>
       <c r="D953" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A954" s="47"/>
+      <c r="A954" s="45"/>
       <c r="B954" s="31"/>
       <c r="D954" s="14" t="s">
         <v>767</v>
@@ -17879,6 +17906,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="A868:A875"/>
+    <mergeCell ref="A877:A881"/>
+    <mergeCell ref="B574:B580"/>
+    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="E928:E929"/>
+    <mergeCell ref="B877:B881"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="E481:E485"/>
+    <mergeCell ref="E472:E476"/>
+    <mergeCell ref="E469:E470"/>
+    <mergeCell ref="B410:B419"/>
+    <mergeCell ref="B468:B470"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A506:A512"/>
+    <mergeCell ref="A514:A523"/>
+    <mergeCell ref="A525:A535"/>
+    <mergeCell ref="A537:A547"/>
+    <mergeCell ref="A940:A942"/>
+    <mergeCell ref="A944:A948"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A355"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A899:A905"/>
+    <mergeCell ref="A883:A889"/>
+    <mergeCell ref="A357:A370"/>
+    <mergeCell ref="A372:A384"/>
+    <mergeCell ref="A386:A396"/>
+    <mergeCell ref="A433:A439"/>
+    <mergeCell ref="A720:A725"/>
+    <mergeCell ref="A727:A732"/>
+    <mergeCell ref="A855:A866"/>
+    <mergeCell ref="A452:A460"/>
+    <mergeCell ref="A398:A408"/>
+    <mergeCell ref="A472:A479"/>
+    <mergeCell ref="A586:A596"/>
+    <mergeCell ref="A462:A470"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A696:A702"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="A481:A487"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="B462:B467"/>
+    <mergeCell ref="B398:B408"/>
+    <mergeCell ref="A441:A450"/>
+    <mergeCell ref="B441:B450"/>
+    <mergeCell ref="B433:B439"/>
+    <mergeCell ref="A421:A431"/>
+    <mergeCell ref="B421:B431"/>
+    <mergeCell ref="A410:A419"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B526:B531"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
+    <mergeCell ref="B561:B565"/>
+    <mergeCell ref="A560:A570"/>
+    <mergeCell ref="B588:B596"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
     <mergeCell ref="A764:A769"/>
     <mergeCell ref="A646:A655"/>
     <mergeCell ref="A657:A664"/>
@@ -17903,99 +18023,6 @@
     <mergeCell ref="A666:A675"/>
     <mergeCell ref="A677:A686"/>
     <mergeCell ref="A688:A694"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
-    <mergeCell ref="B561:B565"/>
-    <mergeCell ref="A560:A570"/>
-    <mergeCell ref="B588:B596"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A696:A702"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="B472:B479"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="B462:B467"/>
-    <mergeCell ref="B398:B408"/>
-    <mergeCell ref="A441:A450"/>
-    <mergeCell ref="B441:B450"/>
-    <mergeCell ref="B433:B439"/>
-    <mergeCell ref="A421:A431"/>
-    <mergeCell ref="B421:B431"/>
-    <mergeCell ref="A410:A419"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="A940:A942"/>
-    <mergeCell ref="A944:A948"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A355"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A899:A905"/>
-    <mergeCell ref="A883:A889"/>
-    <mergeCell ref="A357:A370"/>
-    <mergeCell ref="A372:A384"/>
-    <mergeCell ref="A386:A396"/>
-    <mergeCell ref="A433:A439"/>
-    <mergeCell ref="A720:A725"/>
-    <mergeCell ref="A727:A732"/>
-    <mergeCell ref="A855:A866"/>
-    <mergeCell ref="A452:A460"/>
-    <mergeCell ref="A398:A408"/>
-    <mergeCell ref="A472:A479"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="A462:A470"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="A868:A875"/>
-    <mergeCell ref="A877:A881"/>
-    <mergeCell ref="B574:B580"/>
-    <mergeCell ref="A572:A584"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="E928:E929"/>
-    <mergeCell ref="B877:B881"/>
-    <mergeCell ref="E478:E479"/>
-    <mergeCell ref="B317:B328"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="E486:E487"/>
-    <mergeCell ref="E481:E485"/>
-    <mergeCell ref="E472:E476"/>
-    <mergeCell ref="E469:E470"/>
-    <mergeCell ref="B410:B419"/>
-    <mergeCell ref="B468:B470"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A506:A512"/>
-    <mergeCell ref="A514:A523"/>
-    <mergeCell ref="A525:A535"/>
-    <mergeCell ref="A537:A547"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18008,8 +18035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20010,64 +20037,88 @@
       <c r="B144" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E144" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>43546</v>
       </c>
       <c r="B145" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E145" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>43547</v>
       </c>
       <c r="B146" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E146" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>43548</v>
       </c>
       <c r="B147" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>43549</v>
       </c>
       <c r="B148" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>43550</v>
       </c>
       <c r="B149" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>43551</v>
       </c>
       <c r="B150" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>43552</v>
       </c>
       <c r="B151" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>43553</v>
       </c>
@@ -20075,7 +20126,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>43554</v>
       </c>
@@ -20083,7 +20134,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>43555</v>
       </c>
@@ -20091,7 +20142,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>43556</v>
       </c>
@@ -20099,7 +20150,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>43557</v>
       </c>
@@ -20107,7 +20158,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>43558</v>
       </c>
@@ -20115,7 +20166,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>43559</v>
       </c>
@@ -20137,7 +20188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C26 C32">
+  <conditionalFormatting sqref="C26 C28 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -20524,7 +20575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3220CFF-4877-4A88-8BA2-772700D2DDFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEA660-F3A9-4FE7-84D5-616D2933D321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1950" windowWidth="24675" windowHeight="13650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="1140" windowWidth="15915" windowHeight="13650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1209">
   <si>
     <t>病毒四项</t>
   </si>
@@ -6479,6 +6479,14 @@
   </si>
   <si>
     <t>HCG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶酸片 涂维E唇号转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午 月经来 无征兆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6755,20 +6763,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6781,6 +6783,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7884,7 +7892,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7898,7 +7906,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10381,7 +10389,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
+      <c r="A2" s="45">
         <v>43402</v>
       </c>
       <c r="B2" s="18"/>
@@ -10390,7 +10398,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="18"/>
       <c r="C3" s="14" t="s">
         <v>265</v>
@@ -10400,7 +10408,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>271</v>
@@ -10410,56 +10418,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="18"/>
       <c r="D5" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="18"/>
       <c r="D6" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="18"/>
       <c r="D7" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="18"/>
       <c r="D8" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="18"/>
       <c r="D9" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="18"/>
       <c r="D10" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="18"/>
       <c r="D11" s="14" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
+      <c r="A13" s="45">
         <v>43403</v>
       </c>
       <c r="C13" t="s">
@@ -10470,7 +10478,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
         <v>252</v>
@@ -10483,8 +10491,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="48" t="s">
         <v>378</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -10492,8 +10500,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="14" t="s">
         <v>265</v>
       </c>
@@ -10502,8 +10510,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="49"/>
       <c r="C17" t="s">
         <v>269</v>
       </c>
@@ -10512,7 +10520,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>326</v>
@@ -10522,7 +10530,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>328</v>
@@ -10532,7 +10540,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>331</v>
@@ -10542,7 +10550,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>332</v>
@@ -10552,7 +10560,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>309</v>
@@ -10562,7 +10570,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>334</v>
@@ -10572,7 +10580,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="18"/>
       <c r="C24" t="s">
         <v>335</v>
@@ -10582,7 +10590,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
+      <c r="A26" s="45">
         <v>43404</v>
       </c>
       <c r="C26" t="s">
@@ -10593,8 +10601,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="50" t="s">
         <v>369</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -10605,8 +10613,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="50"/>
       <c r="C28" t="s">
         <v>299</v>
       </c>
@@ -10615,8 +10623,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="50"/>
       <c r="C29" t="s">
         <v>357</v>
       </c>
@@ -10625,8 +10633,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="14" t="s">
         <v>265</v>
       </c>
@@ -10635,8 +10643,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="14" t="s">
         <v>370</v>
       </c>
@@ -10645,8 +10653,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="14" t="s">
         <v>326</v>
       </c>
@@ -10658,8 +10666,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="50"/>
       <c r="C33" t="s">
         <v>364</v>
       </c>
@@ -10668,8 +10676,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="50"/>
       <c r="C34" t="s">
         <v>366</v>
       </c>
@@ -10678,7 +10686,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="26"/>
       <c r="C35" s="14" t="s">
         <v>279</v>
@@ -10688,7 +10696,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="26"/>
       <c r="C36" s="14" t="s">
         <v>373</v>
@@ -10698,7 +10706,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>367</v>
@@ -10708,7 +10716,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>335</v>
@@ -10718,7 +10726,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
+      <c r="A40" s="45">
         <v>43405</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -10735,7 +10743,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="19"/>
       <c r="C41" s="14" t="s">
         <v>341</v>
@@ -10745,7 +10753,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="19"/>
       <c r="C42" t="s">
         <v>299</v>
@@ -10755,7 +10763,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="18"/>
       <c r="C43" s="14" t="s">
         <v>265</v>
@@ -10765,7 +10773,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="18"/>
       <c r="C44" s="14" t="s">
         <v>396</v>
@@ -10775,7 +10783,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="21" t="s">
         <v>403</v>
       </c>
@@ -10787,7 +10795,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="18"/>
       <c r="C46" s="14" t="s">
         <v>399</v>
@@ -10797,7 +10805,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="18"/>
       <c r="C47" s="14" t="s">
         <v>289</v>
@@ -10807,7 +10815,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
         <v>400</v>
@@ -10817,7 +10825,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="18"/>
       <c r="C49" s="14" t="s">
         <v>402</v>
@@ -10827,7 +10835,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="18"/>
       <c r="C50" s="14" t="s">
         <v>291</v>
@@ -10837,7 +10845,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="18"/>
       <c r="C51" s="14" t="s">
         <v>293</v>
@@ -10847,7 +10855,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="18"/>
       <c r="C52" s="14" t="s">
         <v>406</v>
@@ -10857,7 +10865,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="18"/>
       <c r="C53" s="14" t="s">
         <v>320</v>
@@ -10867,7 +10875,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="18"/>
       <c r="C54" t="s">
         <v>297</v>
@@ -10877,7 +10885,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="18"/>
       <c r="C55" t="s">
         <v>367</v>
@@ -10887,10 +10895,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="47">
+      <c r="A57" s="45">
         <v>43406</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="51" t="s">
         <v>408</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -10901,8 +10909,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="14" t="s">
         <v>341</v>
       </c>
@@ -10911,7 +10919,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="19"/>
       <c r="C59" t="s">
         <v>299</v>
@@ -10921,7 +10929,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="18"/>
       <c r="C60" s="14" t="s">
         <v>265</v>
@@ -10931,7 +10939,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
         <v>396</v>
@@ -10941,7 +10949,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="18"/>
       <c r="C62" s="14" t="s">
         <v>399</v>
@@ -10951,7 +10959,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="18"/>
       <c r="C63" t="s">
         <v>426</v>
@@ -10961,7 +10969,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="18"/>
       <c r="C64" s="14" t="s">
         <v>427</v>
@@ -10971,7 +10979,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="18"/>
       <c r="C65" s="14" t="s">
         <v>309</v>
@@ -10981,7 +10989,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="18"/>
       <c r="C66" s="14" t="s">
         <v>429</v>
@@ -10991,7 +10999,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
         <v>430</v>
@@ -11001,7 +11009,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="18"/>
       <c r="C68" s="14" t="s">
         <v>432</v>
@@ -11011,7 +11019,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="18"/>
       <c r="C69" t="s">
         <v>431</v>
@@ -11021,7 +11029,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="18"/>
       <c r="C70" t="s">
         <v>335</v>
@@ -11031,7 +11039,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="45">
+      <c r="A72" s="46">
         <v>43407</v>
       </c>
       <c r="B72" s="24"/>
@@ -11044,7 +11052,7 @@
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="45"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="24"/>
       <c r="C73" s="14" t="s">
         <v>268</v>
@@ -11055,7 +11063,7 @@
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="24"/>
       <c r="C74" s="14" t="s">
         <v>309</v>
@@ -11065,14 +11073,14 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="45"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="18"/>
       <c r="D75" s="14" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="18"/>
       <c r="C76" s="16" t="s">
         <v>466</v>
@@ -11082,7 +11090,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="18"/>
       <c r="C77" t="s">
         <v>450</v>
@@ -11092,7 +11100,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="45"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="18"/>
       <c r="C78" t="s">
         <v>274</v>
@@ -11102,7 +11110,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="18"/>
       <c r="C79" t="s">
         <v>279</v>
@@ -11112,7 +11120,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="18"/>
       <c r="C80" t="s">
         <v>293</v>
@@ -11122,7 +11130,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="18"/>
       <c r="C81" s="16" t="s">
         <v>455</v>
@@ -11132,7 +11140,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="18"/>
       <c r="C82" s="14" t="s">
         <v>470</v>
@@ -11142,7 +11150,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="18"/>
       <c r="C83" t="s">
         <v>471</v>
@@ -11153,7 +11161,7 @@
       <c r="I83" s="25"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="18"/>
       <c r="C84" t="s">
         <v>472</v>
@@ -11164,7 +11172,7 @@
       <c r="I84" s="25"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="45">
+      <c r="A86" s="46">
         <v>43408</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -11178,14 +11186,14 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="45"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="24"/>
       <c r="D87" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="45"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="24"/>
       <c r="C88" s="14" t="s">
         <v>474</v>
@@ -11195,21 +11203,21 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="45"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="19"/>
       <c r="D89" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="18"/>
       <c r="D90" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="18"/>
       <c r="C91" t="s">
         <v>483</v>
@@ -11219,7 +11227,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="18"/>
       <c r="C92" t="s">
         <v>458</v>
@@ -11229,7 +11237,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="45"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="18"/>
       <c r="C93" t="s">
         <v>459</v>
@@ -11239,7 +11247,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="45"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="18"/>
       <c r="C94" t="s">
         <v>460</v>
@@ -11249,7 +11257,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="18"/>
       <c r="C95" t="s">
         <v>346</v>
@@ -11259,11 +11267,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="45"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="18"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="45"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="18"/>
       <c r="C97" s="14" t="s">
         <v>291</v>
@@ -11273,7 +11281,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="45"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="18"/>
       <c r="C98" s="14" t="s">
         <v>293</v>
@@ -11283,7 +11291,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="18"/>
       <c r="C99" s="14" t="s">
         <v>309</v>
@@ -11293,7 +11301,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="45"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="18"/>
       <c r="C100" s="14" t="s">
         <v>320</v>
@@ -11303,7 +11311,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="45"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="18"/>
       <c r="C101" t="s">
         <v>488</v>
@@ -11313,7 +11321,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="18"/>
       <c r="C102" t="s">
         <v>489</v>
@@ -11323,7 +11331,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="47">
+      <c r="A104" s="45">
         <v>43409</v>
       </c>
       <c r="D104" t="s">
@@ -11331,7 +11339,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="23" t="s">
         <v>408</v>
       </c>
@@ -11343,7 +11351,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
+      <c r="A106" s="45"/>
       <c r="B106" s="4"/>
       <c r="C106" s="14"/>
       <c r="D106" s="16" t="s">
@@ -11351,7 +11359,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
+      <c r="A107" s="45"/>
       <c r="B107" s="4"/>
       <c r="C107" s="14" t="s">
         <v>341</v>
@@ -11361,7 +11369,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
+      <c r="A108" s="45"/>
       <c r="B108" s="19"/>
       <c r="C108" s="14" t="s">
         <v>433</v>
@@ -11371,7 +11379,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="18"/>
       <c r="C109" s="14" t="s">
         <v>265</v>
@@ -11381,14 +11389,14 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
+      <c r="A110" s="45"/>
       <c r="B110" s="18"/>
       <c r="D110" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
+      <c r="A111" s="45"/>
       <c r="B111" s="18"/>
       <c r="C111" s="14" t="s">
         <v>422</v>
@@ -11398,7 +11406,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
+      <c r="A112" s="45"/>
       <c r="B112" s="18"/>
       <c r="C112" s="14" t="s">
         <v>420</v>
@@ -11408,7 +11416,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
+      <c r="A113" s="45"/>
       <c r="B113" s="18"/>
       <c r="C113" s="14" t="s">
         <v>439</v>
@@ -11418,7 +11426,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
+      <c r="A114" s="45"/>
       <c r="B114" s="18"/>
       <c r="C114" s="14" t="s">
         <v>444</v>
@@ -11428,7 +11436,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
+      <c r="A115" s="45"/>
       <c r="B115" s="18"/>
       <c r="C115" s="16" t="s">
         <v>443</v>
@@ -11438,7 +11446,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
+      <c r="A116" s="45"/>
       <c r="B116" s="18"/>
       <c r="C116" s="16" t="s">
         <v>440</v>
@@ -11448,7 +11456,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
+      <c r="A117" s="45"/>
       <c r="B117" s="18"/>
       <c r="C117" s="16" t="s">
         <v>441</v>
@@ -11458,7 +11466,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
+      <c r="A118" s="45"/>
       <c r="B118" s="18"/>
       <c r="C118" s="16" t="s">
         <v>442</v>
@@ -11468,7 +11476,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="47">
+      <c r="A120" s="45">
         <v>43410</v>
       </c>
       <c r="B120" s="4"/>
@@ -11480,7 +11488,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
+      <c r="A121" s="45"/>
       <c r="B121" s="4"/>
       <c r="C121" s="14" t="s">
         <v>436</v>
@@ -11490,7 +11498,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
+      <c r="A122" s="45"/>
       <c r="B122" s="19"/>
       <c r="C122" s="14" t="s">
         <v>295</v>
@@ -11500,7 +11508,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
+      <c r="A123" s="45"/>
       <c r="B123" s="19"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14" t="s">
@@ -11508,7 +11516,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="47"/>
+      <c r="A124" s="45"/>
       <c r="B124" s="18"/>
       <c r="C124" s="14" t="s">
         <v>265</v>
@@ -11518,7 +11526,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="47"/>
+      <c r="A125" s="45"/>
       <c r="B125" s="18"/>
       <c r="C125" s="14" t="s">
         <v>446</v>
@@ -11528,7 +11536,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="18"/>
       <c r="C126" s="14" t="s">
         <v>399</v>
@@ -11538,7 +11546,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
+      <c r="A127" s="45"/>
       <c r="B127" s="18"/>
       <c r="C127" s="14" t="s">
         <v>448</v>
@@ -11548,7 +11556,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
+      <c r="A128" s="45"/>
       <c r="B128" s="18"/>
       <c r="C128" s="14" t="s">
         <v>477</v>
@@ -11558,7 +11566,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="18"/>
       <c r="C129" s="14" t="s">
         <v>478</v>
@@ -11568,7 +11576,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="18"/>
       <c r="C130" s="14" t="s">
         <v>479</v>
@@ -11578,7 +11586,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="18"/>
       <c r="C131" s="14" t="s">
         <v>490</v>
@@ -11588,7 +11596,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="18"/>
       <c r="C132" s="14" t="s">
         <v>492</v>
@@ -11598,7 +11606,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
+      <c r="A133" s="45"/>
       <c r="B133" s="18"/>
       <c r="C133" s="14" t="s">
         <v>309</v>
@@ -11608,7 +11616,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="18"/>
       <c r="C134" s="14" t="s">
         <v>283</v>
@@ -11618,7 +11626,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
+      <c r="A135" s="45"/>
       <c r="B135" s="18"/>
       <c r="C135" t="s">
         <v>423</v>
@@ -11628,7 +11636,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="18"/>
       <c r="C136" t="s">
         <v>299</v>
@@ -11638,7 +11646,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="47">
+      <c r="A138" s="45">
         <v>43411</v>
       </c>
       <c r="B138" s="4"/>
@@ -11650,7 +11658,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="47"/>
+      <c r="A139" s="45"/>
       <c r="B139" s="4"/>
       <c r="C139" s="16" t="s">
         <v>336</v>
@@ -11660,7 +11668,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
+      <c r="A140" s="45"/>
       <c r="B140" s="4"/>
       <c r="C140" s="14" t="s">
         <v>341</v>
@@ -11670,7 +11678,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
+      <c r="A141" s="45"/>
       <c r="B141" s="19"/>
       <c r="C141" t="s">
         <v>499</v>
@@ -11680,7 +11688,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
+      <c r="A142" s="45"/>
       <c r="B142" s="19"/>
       <c r="C142" s="14" t="s">
         <v>265</v>
@@ -11690,7 +11698,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
+      <c r="A143" s="45"/>
       <c r="B143" s="18"/>
       <c r="C143" t="s">
         <v>501</v>
@@ -11700,14 +11708,14 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
+      <c r="A144" s="45"/>
       <c r="B144" s="18"/>
       <c r="D144" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="18"/>
       <c r="C145" s="14" t="s">
         <v>448</v>
@@ -11717,7 +11725,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
+      <c r="A146" s="45"/>
       <c r="B146" s="18"/>
       <c r="C146" s="14" t="s">
         <v>477</v>
@@ -11727,7 +11735,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
+      <c r="A147" s="45"/>
       <c r="B147" s="18"/>
       <c r="C147" s="14" t="s">
         <v>420</v>
@@ -11737,7 +11745,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
+      <c r="A148" s="45"/>
       <c r="B148" s="18"/>
       <c r="C148" s="14" t="s">
         <v>439</v>
@@ -11747,7 +11755,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
+      <c r="A149" s="45"/>
       <c r="B149" s="18"/>
       <c r="C149" s="14" t="s">
         <v>479</v>
@@ -11757,7 +11765,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
+      <c r="A150" s="45"/>
       <c r="B150" s="18"/>
       <c r="C150" s="14" t="s">
         <v>291</v>
@@ -11767,7 +11775,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
+      <c r="A151" s="45"/>
       <c r="B151" s="18"/>
       <c r="C151" s="14" t="s">
         <v>293</v>
@@ -11777,7 +11785,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
+      <c r="A152" s="45"/>
       <c r="B152" s="18"/>
       <c r="C152" s="14" t="s">
         <v>440</v>
@@ -11787,7 +11795,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
+      <c r="A153" s="45"/>
       <c r="B153" s="18"/>
       <c r="C153" t="s">
         <v>367</v>
@@ -11797,7 +11805,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
+      <c r="A154" s="45"/>
       <c r="B154" s="18"/>
       <c r="C154" t="s">
         <v>335</v>
@@ -11807,7 +11815,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="47">
+      <c r="A156" s="45">
         <v>43412</v>
       </c>
       <c r="B156" s="4"/>
@@ -11819,7 +11827,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="47"/>
+      <c r="A157" s="45"/>
       <c r="B157" s="4"/>
       <c r="C157" s="16" t="s">
         <v>279</v>
@@ -11829,7 +11837,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="47"/>
+      <c r="A158" s="45"/>
       <c r="B158" s="19"/>
       <c r="C158" t="s">
         <v>507</v>
@@ -11839,7 +11847,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="47"/>
+      <c r="A159" s="45"/>
       <c r="B159" s="19"/>
       <c r="C159" s="14" t="s">
         <v>265</v>
@@ -11849,7 +11857,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="47"/>
+      <c r="A160" s="45"/>
       <c r="B160" s="18"/>
       <c r="C160" t="s">
         <v>501</v>
@@ -11859,14 +11867,14 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="47"/>
+      <c r="A161" s="45"/>
       <c r="B161" s="18"/>
       <c r="D161" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="47"/>
+      <c r="A162" s="45"/>
       <c r="B162" s="18"/>
       <c r="C162" s="14" t="s">
         <v>448</v>
@@ -11876,14 +11884,14 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="47"/>
+      <c r="A163" s="45"/>
       <c r="B163" s="18"/>
       <c r="D163" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
+      <c r="A164" s="45"/>
       <c r="B164" s="18"/>
       <c r="C164" s="14" t="s">
         <v>477</v>
@@ -11893,7 +11901,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="47"/>
+      <c r="A165" s="45"/>
       <c r="B165" s="18"/>
       <c r="C165" s="14" t="s">
         <v>420</v>
@@ -11903,7 +11911,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="47"/>
+      <c r="A166" s="45"/>
       <c r="B166" s="18"/>
       <c r="C166" s="14" t="s">
         <v>479</v>
@@ -11913,7 +11921,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="47"/>
+      <c r="A167" s="45"/>
       <c r="B167" s="18"/>
       <c r="C167" s="14" t="s">
         <v>490</v>
@@ -11923,7 +11931,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="47"/>
+      <c r="A168" s="45"/>
       <c r="B168" s="18"/>
       <c r="C168" s="14" t="s">
         <v>492</v>
@@ -11933,7 +11941,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="47"/>
+      <c r="A169" s="45"/>
       <c r="B169" s="18"/>
       <c r="C169" s="14" t="s">
         <v>352</v>
@@ -11943,7 +11951,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="47"/>
+      <c r="A170" s="45"/>
       <c r="B170" s="18"/>
       <c r="C170" t="s">
         <v>431</v>
@@ -11953,7 +11961,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="47"/>
+      <c r="A171" s="45"/>
       <c r="B171" s="18"/>
       <c r="C171" t="s">
         <v>335</v>
@@ -11963,7 +11971,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="47">
+      <c r="A173" s="45">
         <v>43413</v>
       </c>
       <c r="B173" s="4"/>
@@ -11975,7 +11983,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="47"/>
+      <c r="A174" s="45"/>
       <c r="B174" s="19"/>
       <c r="C174" s="14" t="s">
         <v>265</v>
@@ -11985,7 +11993,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="47"/>
+      <c r="A175" s="45"/>
       <c r="B175" s="18"/>
       <c r="C175" t="s">
         <v>501</v>
@@ -11995,7 +12003,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="47"/>
+      <c r="A176" s="45"/>
       <c r="B176" s="18"/>
       <c r="C176" s="14" t="s">
         <v>448</v>
@@ -12005,14 +12013,14 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="47"/>
+      <c r="A177" s="45"/>
       <c r="B177" s="18"/>
       <c r="D177" s="14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="47"/>
+      <c r="A178" s="45"/>
       <c r="B178" s="18"/>
       <c r="C178" s="14" t="s">
         <v>477</v>
@@ -12022,7 +12030,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="47"/>
+      <c r="A179" s="45"/>
       <c r="B179" s="18"/>
       <c r="C179" s="14" t="s">
         <v>420</v>
@@ -12032,7 +12040,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="47"/>
+      <c r="A180" s="45"/>
       <c r="B180" s="18"/>
       <c r="C180" s="14" t="s">
         <v>479</v>
@@ -12042,7 +12050,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="47"/>
+      <c r="A181" s="45"/>
       <c r="B181" s="18"/>
       <c r="C181" s="14" t="s">
         <v>490</v>
@@ -12052,7 +12060,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="47"/>
+      <c r="A182" s="45"/>
       <c r="B182" s="18"/>
       <c r="C182" s="14" t="s">
         <v>492</v>
@@ -12062,7 +12070,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="47"/>
+      <c r="A183" s="45"/>
       <c r="B183" s="18"/>
       <c r="C183" s="14" t="s">
         <v>352</v>
@@ -12072,7 +12080,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="47"/>
+      <c r="A184" s="45"/>
       <c r="B184" s="18"/>
       <c r="C184" t="s">
         <v>431</v>
@@ -12082,7 +12090,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="47"/>
+      <c r="A185" s="45"/>
       <c r="B185" s="18"/>
       <c r="C185" t="s">
         <v>335</v>
@@ -12092,7 +12100,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="45">
+      <c r="A187" s="46">
         <v>43414</v>
       </c>
       <c r="B187" s="4"/>
@@ -12104,56 +12112,56 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="45"/>
+      <c r="A188" s="46"/>
       <c r="B188" s="19"/>
       <c r="D188" s="14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="45"/>
+      <c r="A189" s="46"/>
       <c r="B189" s="19"/>
       <c r="D189" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="45"/>
+      <c r="A190" s="46"/>
       <c r="B190" s="18"/>
       <c r="D190" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="45"/>
+      <c r="A191" s="46"/>
       <c r="B191" s="18"/>
       <c r="D191" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="45"/>
+      <c r="A192" s="46"/>
       <c r="B192" s="18"/>
       <c r="D192" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="45"/>
+      <c r="A193" s="46"/>
       <c r="B193" s="18"/>
       <c r="D193" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="45"/>
+      <c r="A194" s="46"/>
       <c r="B194" s="18"/>
       <c r="D194" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="45"/>
+      <c r="A195" s="46"/>
       <c r="B195" s="18"/>
       <c r="C195" t="s">
         <v>431</v>
@@ -12163,7 +12171,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="45"/>
+      <c r="A196" s="46"/>
       <c r="B196" s="18"/>
       <c r="C196" t="s">
         <v>335</v>
@@ -12173,7 +12181,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="45">
+      <c r="A198" s="46">
         <v>43415</v>
       </c>
       <c r="B198" s="4"/>
@@ -12185,14 +12193,14 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="45"/>
+      <c r="A199" s="46"/>
       <c r="B199" s="4"/>
       <c r="D199" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="45"/>
+      <c r="A200" s="46"/>
       <c r="B200" s="19"/>
       <c r="C200" s="14" t="s">
         <v>265</v>
@@ -12202,7 +12210,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="45"/>
+      <c r="A201" s="46"/>
       <c r="B201" s="18"/>
       <c r="C201" s="14" t="s">
         <v>448</v>
@@ -12212,7 +12220,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="45"/>
+      <c r="A202" s="46"/>
       <c r="B202" s="18"/>
       <c r="C202" s="14" t="s">
         <v>477</v>
@@ -12222,7 +12230,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="45"/>
+      <c r="A203" s="46"/>
       <c r="B203" s="18"/>
       <c r="C203" s="14" t="s">
         <v>306</v>
@@ -12232,7 +12240,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="45"/>
+      <c r="A204" s="46"/>
       <c r="B204" s="18"/>
       <c r="C204" s="14" t="s">
         <v>479</v>
@@ -12242,7 +12250,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="45"/>
+      <c r="A205" s="46"/>
       <c r="B205" s="18"/>
       <c r="C205" s="14" t="s">
         <v>525</v>
@@ -12252,7 +12260,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="45"/>
+      <c r="A206" s="46"/>
       <c r="B206" s="18"/>
       <c r="C206" s="14" t="s">
         <v>522</v>
@@ -12262,7 +12270,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="45"/>
+      <c r="A207" s="46"/>
       <c r="B207" s="18"/>
       <c r="C207" t="s">
         <v>523</v>
@@ -12272,7 +12280,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="47">
+      <c r="A209" s="45">
         <v>43416</v>
       </c>
       <c r="B209" s="4"/>
@@ -12284,7 +12292,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="47"/>
+      <c r="A210" s="45"/>
       <c r="B210" s="19"/>
       <c r="C210" s="14" t="s">
         <v>265</v>
@@ -12294,14 +12302,14 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="47"/>
+      <c r="A211" s="45"/>
       <c r="B211" s="18"/>
       <c r="D211" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="47"/>
+      <c r="A212" s="45"/>
       <c r="B212" s="18"/>
       <c r="C212" s="14" t="s">
         <v>477</v>
@@ -12311,28 +12319,28 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="47"/>
+      <c r="A213" s="45"/>
       <c r="B213" s="18"/>
       <c r="D213" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="47"/>
+      <c r="A214" s="45"/>
       <c r="B214" s="18"/>
       <c r="D214" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="47"/>
+      <c r="A215" s="45"/>
       <c r="B215" s="18"/>
       <c r="D215" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="47"/>
+      <c r="A216" s="45"/>
       <c r="B216" s="18"/>
       <c r="C216" t="s">
         <v>352</v>
@@ -12342,7 +12350,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="47"/>
+      <c r="A217" s="45"/>
       <c r="B217" s="18"/>
       <c r="C217" t="s">
         <v>431</v>
@@ -12352,14 +12360,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="47"/>
+      <c r="A218" s="45"/>
       <c r="B218" s="18"/>
       <c r="D218" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="47">
+      <c r="A220" s="45">
         <v>43417</v>
       </c>
       <c r="B220" s="4"/>
@@ -12371,7 +12379,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="47"/>
+      <c r="A221" s="45"/>
       <c r="B221" s="4"/>
       <c r="C221" s="14" t="s">
         <v>535</v>
@@ -12381,14 +12389,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="47"/>
+      <c r="A222" s="45"/>
       <c r="B222" s="4"/>
       <c r="D222" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="47"/>
+      <c r="A223" s="45"/>
       <c r="B223" s="19"/>
       <c r="C223" s="14" t="s">
         <v>265</v>
@@ -12398,7 +12406,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="47"/>
+      <c r="A224" s="45"/>
       <c r="B224" s="18"/>
       <c r="C224" s="14" t="s">
         <v>448</v>
@@ -12408,7 +12416,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="47"/>
+      <c r="A225" s="45"/>
       <c r="B225" s="18"/>
       <c r="C225" s="14" t="s">
         <v>477</v>
@@ -12418,7 +12426,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="47"/>
+      <c r="A226" s="45"/>
       <c r="B226" s="18"/>
       <c r="C226" t="s">
         <v>420</v>
@@ -12428,7 +12436,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="47"/>
+      <c r="A227" s="45"/>
       <c r="B227" s="18"/>
       <c r="C227" s="14" t="s">
         <v>479</v>
@@ -12438,7 +12446,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="47"/>
+      <c r="A228" s="45"/>
       <c r="B228" s="18"/>
       <c r="C228" t="s">
         <v>352</v>
@@ -12448,7 +12456,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="47"/>
+      <c r="A229" s="45"/>
       <c r="B229" s="18"/>
       <c r="C229" t="s">
         <v>335</v>
@@ -12458,7 +12466,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="47">
+      <c r="A231" s="45">
         <v>43418</v>
       </c>
       <c r="B231" s="4"/>
@@ -12470,14 +12478,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="47"/>
+      <c r="A232" s="45"/>
       <c r="B232" s="4"/>
       <c r="D232" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="47"/>
+      <c r="A233" s="45"/>
       <c r="B233" s="19"/>
       <c r="C233" s="14" t="s">
         <v>265</v>
@@ -12487,21 +12495,21 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="47"/>
+      <c r="A234" s="45"/>
       <c r="B234" s="18"/>
       <c r="D234" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="47"/>
+      <c r="A235" s="45"/>
       <c r="B235" s="18"/>
       <c r="D235" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="47"/>
+      <c r="A236" s="45"/>
       <c r="B236" s="18"/>
       <c r="C236" s="14" t="s">
         <v>477</v>
@@ -12511,35 +12519,35 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="47"/>
+      <c r="A237" s="45"/>
       <c r="B237" s="18"/>
       <c r="D237" s="14" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="47"/>
+      <c r="A238" s="45"/>
       <c r="B238" s="18"/>
       <c r="D238" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="47"/>
+      <c r="A239" s="45"/>
       <c r="B239" s="18"/>
       <c r="D239" s="14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="47"/>
+      <c r="A240" s="45"/>
       <c r="B240" s="18"/>
       <c r="D240" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="47"/>
+      <c r="A241" s="45"/>
       <c r="B241" s="18"/>
       <c r="C241" t="s">
         <v>335</v>
@@ -12549,14 +12557,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="47"/>
+      <c r="A242" s="45"/>
       <c r="B242" s="18"/>
       <c r="D242" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="47">
+      <c r="A244" s="45">
         <v>43419</v>
       </c>
       <c r="B244" s="4"/>
@@ -12568,14 +12576,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="47"/>
+      <c r="A245" s="45"/>
       <c r="B245" s="4"/>
       <c r="D245" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="47"/>
+      <c r="A246" s="45"/>
       <c r="B246" s="19"/>
       <c r="C246" s="14" t="s">
         <v>265</v>
@@ -12585,14 +12593,14 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="47"/>
+      <c r="A247" s="45"/>
       <c r="B247" s="18"/>
       <c r="D247" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="47"/>
+      <c r="A248" s="45"/>
       <c r="B248" s="18"/>
       <c r="C248" s="14" t="s">
         <v>477</v>
@@ -12602,28 +12610,28 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="47"/>
+      <c r="A249" s="45"/>
       <c r="B249" s="18"/>
       <c r="D249" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="47"/>
+      <c r="A250" s="45"/>
       <c r="B250" s="18"/>
       <c r="D250" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="47"/>
+      <c r="A251" s="45"/>
       <c r="B251" s="18"/>
       <c r="D251" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="47"/>
+      <c r="A252" s="45"/>
       <c r="B252" s="18"/>
       <c r="C252" t="s">
         <v>335</v>
@@ -12633,7 +12641,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="47">
+      <c r="A254" s="45">
         <v>43420</v>
       </c>
       <c r="B254" s="4"/>
@@ -12645,21 +12653,21 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="47"/>
+      <c r="A255" s="45"/>
       <c r="B255" s="4"/>
       <c r="D255" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="47"/>
+      <c r="A256" s="45"/>
       <c r="B256" s="4"/>
       <c r="D256" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="47"/>
+      <c r="A257" s="45"/>
       <c r="B257" s="19"/>
       <c r="C257" s="14" t="s">
         <v>265</v>
@@ -12669,14 +12677,14 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="47"/>
+      <c r="A258" s="45"/>
       <c r="B258" s="18"/>
       <c r="D258" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="47"/>
+      <c r="A259" s="45"/>
       <c r="B259" s="18"/>
       <c r="C259" s="14" t="s">
         <v>477</v>
@@ -12686,42 +12694,42 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="47"/>
+      <c r="A260" s="45"/>
       <c r="B260" s="18"/>
       <c r="D260" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="47"/>
+      <c r="A261" s="45"/>
       <c r="B261" s="18"/>
       <c r="D261" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="47"/>
+      <c r="A262" s="45"/>
       <c r="B262" s="18"/>
       <c r="D262" s="14" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="47"/>
+      <c r="A263" s="45"/>
       <c r="B263" s="18"/>
       <c r="D263" s="14" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="47"/>
+      <c r="A264" s="45"/>
       <c r="B264" s="18"/>
       <c r="D264" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="47"/>
+      <c r="A265" s="45"/>
       <c r="B265" s="18"/>
       <c r="C265" t="s">
         <v>335</v>
@@ -12731,7 +12739,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="45">
+      <c r="A267" s="46">
         <v>43421</v>
       </c>
       <c r="B267" s="4"/>
@@ -12743,63 +12751,63 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="45"/>
+      <c r="A268" s="46"/>
       <c r="B268" s="4"/>
       <c r="D268" s="14" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="45"/>
+      <c r="A269" s="46"/>
       <c r="B269" s="19"/>
       <c r="D269" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="45"/>
+      <c r="A270" s="46"/>
       <c r="B270" s="18"/>
       <c r="D270" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="45"/>
+      <c r="A271" s="46"/>
       <c r="B271" s="18"/>
       <c r="D271" s="14" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="45"/>
+      <c r="A272" s="46"/>
       <c r="B272" s="18"/>
       <c r="D272" s="14" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="45"/>
+      <c r="A273" s="46"/>
       <c r="B273" s="18"/>
       <c r="D273" s="14" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="45"/>
+      <c r="A274" s="46"/>
       <c r="B274" s="18"/>
       <c r="D274" s="14" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="45"/>
+      <c r="A275" s="46"/>
       <c r="B275" s="18"/>
       <c r="D275" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="45"/>
+      <c r="A276" s="46"/>
       <c r="B276" s="18"/>
       <c r="C276" t="s">
         <v>335</v>
@@ -12809,14 +12817,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="45"/>
+      <c r="A277" s="46"/>
       <c r="B277" s="18"/>
       <c r="D277" s="14" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="45">
+      <c r="A279" s="46">
         <v>43422</v>
       </c>
       <c r="B279" s="4"/>
@@ -12828,28 +12836,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="45"/>
+      <c r="A280" s="46"/>
       <c r="B280" s="4"/>
       <c r="D280" s="14" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="45"/>
+      <c r="A281" s="46"/>
       <c r="B281" s="4"/>
       <c r="D281" s="14" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="45"/>
+      <c r="A282" s="46"/>
       <c r="B282" s="4"/>
       <c r="D282" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="45"/>
+      <c r="A283" s="46"/>
       <c r="B283" s="19"/>
       <c r="C283" s="14" t="s">
         <v>265</v>
@@ -12859,35 +12867,35 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="45"/>
+      <c r="A284" s="46"/>
       <c r="B284" s="18"/>
       <c r="D284" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="45"/>
+      <c r="A285" s="46"/>
       <c r="B285" s="18"/>
       <c r="D285" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="45"/>
+      <c r="A286" s="46"/>
       <c r="B286" s="18"/>
       <c r="D286" s="14" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="45"/>
+      <c r="A287" s="46"/>
       <c r="B287" s="18"/>
       <c r="D287" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="45"/>
+      <c r="A288" s="46"/>
       <c r="B288" s="18"/>
       <c r="C288" t="s">
         <v>335</v>
@@ -12897,7 +12905,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="47">
+      <c r="A290" s="45">
         <v>43423</v>
       </c>
       <c r="B290" s="4"/>
@@ -12909,7 +12917,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="47"/>
+      <c r="A291" s="45"/>
       <c r="B291" s="4"/>
       <c r="C291" s="14" t="s">
         <v>249</v>
@@ -12919,14 +12927,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="47"/>
+      <c r="A292" s="45"/>
       <c r="B292" s="4"/>
       <c r="D292" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="47"/>
+      <c r="A293" s="45"/>
       <c r="B293" s="19"/>
       <c r="C293" s="14" t="s">
         <v>265</v>
@@ -12936,14 +12944,14 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="47"/>
+      <c r="A294" s="45"/>
       <c r="B294" s="18"/>
       <c r="D294" s="14" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="47"/>
+      <c r="A295" s="45"/>
       <c r="B295" s="18"/>
       <c r="C295" s="14" t="s">
         <v>477</v>
@@ -12953,42 +12961,42 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="47"/>
+      <c r="A296" s="45"/>
       <c r="B296" s="18"/>
       <c r="D296" s="14" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="47"/>
+      <c r="A297" s="45"/>
       <c r="B297" s="18"/>
       <c r="D297" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="47"/>
+      <c r="A298" s="45"/>
       <c r="B298" s="18"/>
       <c r="D298" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="47"/>
+      <c r="A299" s="45"/>
       <c r="B299" s="18"/>
       <c r="D299" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="47"/>
+      <c r="A300" s="45"/>
       <c r="B300" s="18"/>
       <c r="D300" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="47"/>
+      <c r="A301" s="45"/>
       <c r="B301" s="18"/>
       <c r="C301" t="s">
         <v>335</v>
@@ -12998,7 +13006,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="47">
+      <c r="A303" s="45">
         <v>43424</v>
       </c>
       <c r="B303" s="4"/>
@@ -13010,7 +13018,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="47"/>
+      <c r="A304" s="45"/>
       <c r="B304" s="4"/>
       <c r="C304" s="14" t="s">
         <v>597</v>
@@ -13020,7 +13028,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="47"/>
+      <c r="A305" s="45"/>
       <c r="B305" s="4"/>
       <c r="C305" s="14"/>
       <c r="D305" s="14" t="s">
@@ -13028,14 +13036,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="47"/>
+      <c r="A306" s="45"/>
       <c r="B306" s="4"/>
       <c r="D306" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="47"/>
+      <c r="A307" s="45"/>
       <c r="B307" s="19"/>
       <c r="C307" s="14" t="s">
         <v>265</v>
@@ -13045,14 +13053,14 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="47"/>
+      <c r="A308" s="45"/>
       <c r="B308" s="18"/>
       <c r="D308" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="47"/>
+      <c r="A309" s="45"/>
       <c r="B309" s="18"/>
       <c r="C309" s="14" t="s">
         <v>477</v>
@@ -13062,42 +13070,42 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="47"/>
+      <c r="A310" s="45"/>
       <c r="B310" s="18"/>
       <c r="D310" s="14" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="47"/>
+      <c r="A311" s="45"/>
       <c r="B311" s="18"/>
       <c r="D311" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="47"/>
+      <c r="A312" s="45"/>
       <c r="B312" s="18"/>
       <c r="D312" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="47"/>
+      <c r="A313" s="45"/>
       <c r="B313" s="18"/>
       <c r="D313" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="47"/>
+      <c r="A314" s="45"/>
       <c r="B314" s="18"/>
       <c r="D314" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="47"/>
+      <c r="A315" s="45"/>
       <c r="B315" s="18"/>
       <c r="C315" t="s">
         <v>335</v>
@@ -13107,10 +13115,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="47">
+      <c r="A317" s="45">
         <v>43425</v>
       </c>
-      <c r="B317" s="49" t="s">
+      <c r="B317" s="52" t="s">
         <v>604</v>
       </c>
       <c r="C317" t="s">
@@ -13121,22 +13129,22 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="47"/>
-      <c r="B318" s="49"/>
+      <c r="A318" s="45"/>
+      <c r="B318" s="52"/>
       <c r="D318" s="14" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="47"/>
-      <c r="B319" s="49"/>
+      <c r="A319" s="45"/>
+      <c r="B319" s="52"/>
       <c r="D319" s="14" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="47"/>
-      <c r="B320" s="49"/>
+      <c r="A320" s="45"/>
+      <c r="B320" s="52"/>
       <c r="C320" s="14" t="s">
         <v>265</v>
       </c>
@@ -13145,22 +13153,22 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="47"/>
-      <c r="B321" s="49"/>
+      <c r="A321" s="45"/>
+      <c r="B321" s="52"/>
       <c r="D321" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="47"/>
-      <c r="B322" s="49"/>
+      <c r="A322" s="45"/>
+      <c r="B322" s="52"/>
       <c r="D322" s="14" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="47"/>
-      <c r="B323" s="49"/>
+      <c r="A323" s="45"/>
+      <c r="B323" s="52"/>
       <c r="C323" s="14" t="s">
         <v>609</v>
       </c>
@@ -13169,36 +13177,36 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="47"/>
-      <c r="B324" s="49"/>
+      <c r="A324" s="45"/>
+      <c r="B324" s="52"/>
       <c r="D324" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="47"/>
-      <c r="B325" s="49"/>
+      <c r="A325" s="45"/>
+      <c r="B325" s="52"/>
       <c r="D325" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="47"/>
-      <c r="B326" s="49"/>
+      <c r="A326" s="45"/>
+      <c r="B326" s="52"/>
       <c r="D326" s="14" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="47"/>
-      <c r="B327" s="49"/>
+      <c r="A327" s="45"/>
+      <c r="B327" s="52"/>
       <c r="D327" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="47"/>
-      <c r="B328" s="49"/>
+      <c r="A328" s="45"/>
+      <c r="B328" s="52"/>
       <c r="C328" t="s">
         <v>335</v>
       </c>
@@ -13207,7 +13215,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="47">
+      <c r="A330" s="45">
         <v>43426</v>
       </c>
       <c r="B330" s="4"/>
@@ -13219,21 +13227,21 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="47"/>
+      <c r="A331" s="45"/>
       <c r="B331" s="4"/>
       <c r="D331" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="47"/>
+      <c r="A332" s="45"/>
       <c r="B332" s="4"/>
       <c r="D332" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="47"/>
+      <c r="A333" s="45"/>
       <c r="B333" s="4"/>
       <c r="C333" s="14" t="s">
         <v>265</v>
@@ -13243,28 +13251,28 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="47"/>
+      <c r="A334" s="45"/>
       <c r="B334" s="4"/>
       <c r="D334" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="47"/>
+      <c r="A335" s="45"/>
       <c r="B335" s="4"/>
       <c r="D335" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="47"/>
+      <c r="A336" s="45"/>
       <c r="B336" s="4"/>
       <c r="D336" s="14" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="47"/>
+      <c r="A337" s="45"/>
       <c r="B337" s="4"/>
       <c r="C337" s="14" t="s">
         <v>615</v>
@@ -13274,35 +13282,35 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="47"/>
+      <c r="A338" s="45"/>
       <c r="B338" s="18"/>
       <c r="D338" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="47"/>
+      <c r="A339" s="45"/>
       <c r="B339" s="18"/>
       <c r="D339" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="47"/>
+      <c r="A340" s="45"/>
       <c r="B340" s="18"/>
       <c r="D340" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="47"/>
+      <c r="A341" s="45"/>
       <c r="B341" s="18"/>
       <c r="D341" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="47"/>
+      <c r="A342" s="45"/>
       <c r="B342" s="18"/>
       <c r="C342" t="s">
         <v>335</v>
@@ -13312,7 +13320,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="47">
+      <c r="A344" s="45">
         <v>43427</v>
       </c>
       <c r="B344" s="4"/>
@@ -13324,7 +13332,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="47"/>
+      <c r="A345" s="45"/>
       <c r="B345" s="4"/>
       <c r="C345" t="s">
         <v>618</v>
@@ -13334,28 +13342,28 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="47"/>
+      <c r="A346" s="45"/>
       <c r="B346" s="4"/>
       <c r="D346" s="14" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="47"/>
+      <c r="A347" s="45"/>
       <c r="B347" s="4"/>
       <c r="D347" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="47"/>
+      <c r="A348" s="45"/>
       <c r="B348" s="4"/>
       <c r="D348" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="47"/>
+      <c r="A349" s="45"/>
       <c r="B349" s="4"/>
       <c r="C349" s="14" t="s">
         <v>265</v>
@@ -13365,7 +13373,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="47"/>
+      <c r="A350" s="45"/>
       <c r="B350" s="4"/>
       <c r="C350" s="14" t="s">
         <v>615</v>
@@ -13375,35 +13383,35 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="47"/>
+      <c r="A351" s="45"/>
       <c r="B351" s="4"/>
       <c r="D351" s="14" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="47"/>
+      <c r="A352" s="45"/>
       <c r="B352" s="4"/>
       <c r="D352" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="47"/>
+      <c r="A353" s="45"/>
       <c r="B353" s="4"/>
       <c r="D353" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="47"/>
+      <c r="A354" s="45"/>
       <c r="B354" s="18"/>
       <c r="D354" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="47"/>
+      <c r="A355" s="45"/>
       <c r="B355" s="18"/>
       <c r="C355" t="s">
         <v>335</v>
@@ -13413,7 +13421,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="45">
+      <c r="A357" s="46">
         <v>43428</v>
       </c>
       <c r="B357" s="4"/>
@@ -13425,98 +13433,98 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="45"/>
+      <c r="A358" s="46"/>
       <c r="B358" s="4"/>
       <c r="D358" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="45"/>
+      <c r="A359" s="46"/>
       <c r="B359" s="4"/>
       <c r="D359" s="14" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="45"/>
+      <c r="A360" s="46"/>
       <c r="B360" s="4"/>
       <c r="D360" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="45"/>
+      <c r="A361" s="46"/>
       <c r="B361" s="4"/>
       <c r="D361" s="14" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="45"/>
+      <c r="A362" s="46"/>
       <c r="B362" s="4"/>
       <c r="D362" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="45"/>
+      <c r="A363" s="46"/>
       <c r="B363" s="4"/>
       <c r="D363" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="45"/>
+      <c r="A364" s="46"/>
       <c r="B364" s="4"/>
       <c r="D364" s="14" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="45"/>
+      <c r="A365" s="46"/>
       <c r="B365" s="4"/>
       <c r="D365" s="14" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="45"/>
+      <c r="A366" s="46"/>
       <c r="B366" s="4"/>
       <c r="D366" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="45"/>
+      <c r="A367" s="46"/>
       <c r="B367" s="4"/>
       <c r="D367" s="14" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="45"/>
+      <c r="A368" s="46"/>
       <c r="B368" s="4"/>
       <c r="D368" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="45"/>
+      <c r="A369" s="46"/>
       <c r="B369" s="18"/>
       <c r="D369" s="14" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="45"/>
+      <c r="A370" s="46"/>
       <c r="B370" s="18"/>
       <c r="D370" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="45">
+      <c r="A372" s="46">
         <v>43429</v>
       </c>
       <c r="B372" s="4"/>
@@ -13528,7 +13536,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="45"/>
+      <c r="A373" s="46"/>
       <c r="B373" s="4"/>
       <c r="C373" t="s">
         <v>618</v>
@@ -13538,28 +13546,28 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="45"/>
+      <c r="A374" s="46"/>
       <c r="B374" s="4"/>
       <c r="D374" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="45"/>
+      <c r="A375" s="46"/>
       <c r="B375" s="4"/>
       <c r="D375" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="45"/>
+      <c r="A376" s="46"/>
       <c r="B376" s="4"/>
       <c r="D376" s="14" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="45"/>
+      <c r="A377" s="46"/>
       <c r="B377" s="4"/>
       <c r="C377" s="14" t="s">
         <v>265</v>
@@ -13569,42 +13577,42 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="45"/>
+      <c r="A378" s="46"/>
       <c r="B378" s="4"/>
       <c r="D378" s="14" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="45"/>
+      <c r="A379" s="46"/>
       <c r="B379" s="4"/>
       <c r="D379" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="45"/>
+      <c r="A380" s="46"/>
       <c r="B380" s="4"/>
       <c r="D380" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="45"/>
+      <c r="A381" s="46"/>
       <c r="B381" s="4"/>
       <c r="D381" s="14" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="45"/>
+      <c r="A382" s="46"/>
       <c r="B382" s="4"/>
       <c r="D382" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="45"/>
+      <c r="A383" s="46"/>
       <c r="B383" s="18"/>
       <c r="C383" t="s">
         <v>367</v>
@@ -13614,7 +13622,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="45"/>
+      <c r="A384" s="46"/>
       <c r="B384" s="18"/>
       <c r="C384" t="s">
         <v>335</v>
@@ -13624,7 +13632,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="47">
+      <c r="A386" s="45">
         <v>43430</v>
       </c>
       <c r="B386" s="4"/>
@@ -13636,7 +13644,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="47"/>
+      <c r="A387" s="45"/>
       <c r="B387" s="4"/>
       <c r="C387" t="s">
         <v>638</v>
@@ -13646,14 +13654,14 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="47"/>
+      <c r="A388" s="45"/>
       <c r="B388" s="4"/>
       <c r="D388" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="47"/>
+      <c r="A389" s="45"/>
       <c r="B389" s="4"/>
       <c r="C389" s="14" t="s">
         <v>265</v>
@@ -13663,7 +13671,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="47"/>
+      <c r="A390" s="45"/>
       <c r="B390" s="4"/>
       <c r="C390" s="14" t="s">
         <v>615</v>
@@ -13673,8 +13681,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="47"/>
-      <c r="B391" s="49" t="s">
+      <c r="A391" s="45"/>
+      <c r="B391" s="52" t="s">
         <v>648</v>
       </c>
       <c r="D391" s="14" t="s">
@@ -13682,45 +13690,45 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="47"/>
-      <c r="B392" s="49"/>
+      <c r="A392" s="45"/>
+      <c r="B392" s="52"/>
       <c r="D392" s="14" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="47"/>
-      <c r="B393" s="49"/>
+      <c r="A393" s="45"/>
+      <c r="B393" s="52"/>
       <c r="D393" s="14" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="47"/>
-      <c r="B394" s="49"/>
+      <c r="A394" s="45"/>
+      <c r="B394" s="52"/>
       <c r="D394" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="47"/>
-      <c r="B395" s="49"/>
+      <c r="A395" s="45"/>
+      <c r="B395" s="52"/>
       <c r="D395" s="14" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="47"/>
-      <c r="B396" s="49"/>
+      <c r="A396" s="45"/>
+      <c r="B396" s="52"/>
       <c r="D396" s="14" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="47">
+      <c r="A398" s="45">
         <v>43431</v>
       </c>
-      <c r="B398" s="49" t="s">
+      <c r="B398" s="52" t="s">
         <v>647</v>
       </c>
       <c r="C398" t="s">
@@ -13731,8 +13739,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="47"/>
-      <c r="B399" s="49"/>
+      <c r="A399" s="45"/>
+      <c r="B399" s="52"/>
       <c r="C399" t="s">
         <v>638</v>
       </c>
@@ -13741,15 +13749,15 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="47"/>
-      <c r="B400" s="49"/>
+      <c r="A400" s="45"/>
+      <c r="B400" s="52"/>
       <c r="D400" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="47"/>
-      <c r="B401" s="49"/>
+      <c r="A401" s="45"/>
+      <c r="B401" s="52"/>
       <c r="C401" s="14" t="s">
         <v>265</v>
       </c>
@@ -13758,50 +13766,50 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="47"/>
-      <c r="B402" s="49"/>
+      <c r="A402" s="45"/>
+      <c r="B402" s="52"/>
       <c r="D402" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="47"/>
-      <c r="B403" s="49"/>
+      <c r="A403" s="45"/>
+      <c r="B403" s="52"/>
       <c r="D403" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="47"/>
-      <c r="B404" s="49"/>
+      <c r="A404" s="45"/>
+      <c r="B404" s="52"/>
       <c r="D404" s="14" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="47"/>
-      <c r="B405" s="49"/>
+      <c r="A405" s="45"/>
+      <c r="B405" s="52"/>
       <c r="D405" s="14" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="47"/>
-      <c r="B406" s="49"/>
+      <c r="A406" s="45"/>
+      <c r="B406" s="52"/>
       <c r="D406" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="47"/>
-      <c r="B407" s="49"/>
+      <c r="A407" s="45"/>
+      <c r="B407" s="52"/>
       <c r="D407" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="47"/>
-      <c r="B408" s="49"/>
+      <c r="A408" s="45"/>
+      <c r="B408" s="52"/>
       <c r="C408" t="s">
         <v>335</v>
       </c>
@@ -13810,10 +13818,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="47">
+      <c r="A410" s="45">
         <v>43432</v>
       </c>
-      <c r="B410" s="49"/>
+      <c r="B410" s="52"/>
       <c r="C410" t="s">
         <v>641</v>
       </c>
@@ -13822,8 +13830,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="47"/>
-      <c r="B411" s="49"/>
+      <c r="A411" s="45"/>
+      <c r="B411" s="52"/>
       <c r="C411" t="s">
         <v>656</v>
       </c>
@@ -13832,8 +13840,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="47"/>
-      <c r="B412" s="49"/>
+      <c r="A412" s="45"/>
+      <c r="B412" s="52"/>
       <c r="C412" s="14" t="s">
         <v>265</v>
       </c>
@@ -13842,59 +13850,59 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="47"/>
-      <c r="B413" s="49"/>
+      <c r="A413" s="45"/>
+      <c r="B413" s="52"/>
       <c r="D413" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="47"/>
-      <c r="B414" s="49"/>
+      <c r="A414" s="45"/>
+      <c r="B414" s="52"/>
       <c r="D414" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="47"/>
-      <c r="B415" s="49"/>
+      <c r="A415" s="45"/>
+      <c r="B415" s="52"/>
       <c r="D415" s="14" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="47"/>
-      <c r="B416" s="49"/>
+      <c r="A416" s="45"/>
+      <c r="B416" s="52"/>
       <c r="D416" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="47"/>
-      <c r="B417" s="49"/>
+      <c r="A417" s="45"/>
+      <c r="B417" s="52"/>
       <c r="D417" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="47"/>
-      <c r="B418" s="49"/>
+      <c r="A418" s="45"/>
+      <c r="B418" s="52"/>
       <c r="D418" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="47"/>
-      <c r="B419" s="49"/>
+      <c r="A419" s="45"/>
+      <c r="B419" s="52"/>
       <c r="D419" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="47">
+      <c r="A421" s="45">
         <v>43433</v>
       </c>
-      <c r="B421" s="49" t="s">
+      <c r="B421" s="52" t="s">
         <v>664</v>
       </c>
       <c r="C421" t="s">
@@ -13905,8 +13913,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="47"/>
-      <c r="B422" s="49"/>
+      <c r="A422" s="45"/>
+      <c r="B422" s="52"/>
       <c r="C422" t="s">
         <v>670</v>
       </c>
@@ -13915,8 +13923,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="47"/>
-      <c r="B423" s="49"/>
+      <c r="A423" s="45"/>
+      <c r="B423" s="52"/>
       <c r="C423" s="14" t="s">
         <v>265</v>
       </c>
@@ -13925,66 +13933,66 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="47"/>
-      <c r="B424" s="49"/>
+      <c r="A424" s="45"/>
+      <c r="B424" s="52"/>
       <c r="D424" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="47"/>
-      <c r="B425" s="49"/>
+      <c r="A425" s="45"/>
+      <c r="B425" s="52"/>
       <c r="D425" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="47"/>
-      <c r="B426" s="49"/>
+      <c r="A426" s="45"/>
+      <c r="B426" s="52"/>
       <c r="D426" s="14" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="47"/>
-      <c r="B427" s="49"/>
+      <c r="A427" s="45"/>
+      <c r="B427" s="52"/>
       <c r="D427" s="14" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="47"/>
-      <c r="B428" s="49"/>
+      <c r="A428" s="45"/>
+      <c r="B428" s="52"/>
       <c r="D428" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="47"/>
-      <c r="B429" s="49"/>
+      <c r="A429" s="45"/>
+      <c r="B429" s="52"/>
       <c r="D429" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="47"/>
-      <c r="B430" s="49"/>
+      <c r="A430" s="45"/>
+      <c r="B430" s="52"/>
       <c r="D430" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="47"/>
-      <c r="B431" s="49"/>
+      <c r="A431" s="45"/>
+      <c r="B431" s="52"/>
       <c r="D431" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="47">
+      <c r="A433" s="45">
         <v>43434</v>
       </c>
-      <c r="B433" s="49"/>
+      <c r="B433" s="52"/>
       <c r="C433" t="s">
         <v>673</v>
       </c>
@@ -13993,8 +14001,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="47"/>
-      <c r="B434" s="49"/>
+      <c r="A434" s="45"/>
+      <c r="B434" s="52"/>
       <c r="C434" t="s">
         <v>675</v>
       </c>
@@ -14003,8 +14011,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="47"/>
-      <c r="B435" s="49"/>
+      <c r="A435" s="45"/>
+      <c r="B435" s="52"/>
       <c r="C435" s="14" t="s">
         <v>265</v>
       </c>
@@ -14013,38 +14021,38 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="47"/>
-      <c r="B436" s="49"/>
+      <c r="A436" s="45"/>
+      <c r="B436" s="52"/>
       <c r="D436" s="14" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="47"/>
-      <c r="B437" s="49"/>
+      <c r="A437" s="45"/>
+      <c r="B437" s="52"/>
       <c r="D437" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="47"/>
-      <c r="B438" s="49"/>
+      <c r="A438" s="45"/>
+      <c r="B438" s="52"/>
       <c r="D438" s="14" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="47"/>
-      <c r="B439" s="49"/>
+      <c r="A439" s="45"/>
+      <c r="B439" s="52"/>
       <c r="D439" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="45">
+      <c r="A441" s="46">
         <v>43435</v>
       </c>
-      <c r="B441" s="49"/>
+      <c r="B441" s="52"/>
       <c r="C441" t="s">
         <v>673</v>
       </c>
@@ -14053,70 +14061,70 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="45"/>
-      <c r="B442" s="49"/>
+      <c r="A442" s="46"/>
+      <c r="B442" s="52"/>
       <c r="D442" s="14" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="45"/>
-      <c r="B443" s="49"/>
+      <c r="A443" s="46"/>
+      <c r="B443" s="52"/>
       <c r="D443" s="14" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="45"/>
-      <c r="B444" s="49"/>
+      <c r="A444" s="46"/>
+      <c r="B444" s="52"/>
       <c r="D444" s="14" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="45"/>
-      <c r="B445" s="49"/>
+      <c r="A445" s="46"/>
+      <c r="B445" s="52"/>
       <c r="D445" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="45"/>
-      <c r="B446" s="49"/>
+      <c r="A446" s="46"/>
+      <c r="B446" s="52"/>
       <c r="D446" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="45"/>
-      <c r="B447" s="49"/>
+      <c r="A447" s="46"/>
+      <c r="B447" s="52"/>
       <c r="D447" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="45"/>
-      <c r="B448" s="49"/>
+      <c r="A448" s="46"/>
+      <c r="B448" s="52"/>
       <c r="D448" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="45"/>
-      <c r="B449" s="49"/>
+      <c r="A449" s="46"/>
+      <c r="B449" s="52"/>
       <c r="D449" s="14" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="45"/>
-      <c r="B450" s="49"/>
+      <c r="A450" s="46"/>
+      <c r="B450" s="52"/>
       <c r="D450" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="45">
+      <c r="A452" s="46">
         <v>43436</v>
       </c>
       <c r="B452" s="4"/>
@@ -14128,28 +14136,28 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="45"/>
+      <c r="A453" s="46"/>
       <c r="B453" s="4"/>
       <c r="D453" s="14" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="45"/>
+      <c r="A454" s="46"/>
       <c r="B454" s="4"/>
       <c r="D454" s="14" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="45"/>
+      <c r="A455" s="46"/>
       <c r="B455" s="4"/>
       <c r="D455" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="45"/>
+      <c r="A456" s="46"/>
       <c r="B456" s="4" t="s">
         <v>700</v>
       </c>
@@ -14158,27 +14166,27 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="45"/>
+      <c r="A457" s="46"/>
       <c r="B457" s="4"/>
       <c r="D457" s="14" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="45"/>
+      <c r="A458" s="46"/>
       <c r="B458" s="4"/>
       <c r="D458" s="14" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="45"/>
+      <c r="A459" s="46"/>
       <c r="D459" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="45"/>
+      <c r="A460" s="46"/>
       <c r="B460" s="4" t="s">
         <v>695</v>
       </c>
@@ -14187,10 +14195,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="47">
+      <c r="A462" s="45">
         <v>43437</v>
       </c>
-      <c r="B462" s="46" t="s">
+      <c r="B462" s="47" t="s">
         <v>709</v>
       </c>
       <c r="C462" t="s">
@@ -14201,8 +14209,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="47"/>
-      <c r="B463" s="46"/>
+      <c r="A463" s="45"/>
+      <c r="B463" s="47"/>
       <c r="C463" t="s">
         <v>697</v>
       </c>
@@ -14211,22 +14219,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="47"/>
-      <c r="B464" s="46"/>
+      <c r="A464" s="45"/>
+      <c r="B464" s="47"/>
       <c r="D464" s="14" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="47"/>
-      <c r="B465" s="46"/>
+      <c r="A465" s="45"/>
+      <c r="B465" s="47"/>
       <c r="D465" s="14" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="47"/>
-      <c r="B466" s="46"/>
+      <c r="A466" s="45"/>
+      <c r="B466" s="47"/>
       <c r="C466" s="14" t="s">
         <v>265</v>
       </c>
@@ -14235,16 +14243,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="47"/>
-      <c r="B467" s="46"/>
+      <c r="A467" s="45"/>
+      <c r="B467" s="47"/>
       <c r="C467" s="14"/>
       <c r="D467" s="14" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="47"/>
-      <c r="B468" s="46" t="s">
+      <c r="A468" s="45"/>
+      <c r="B468" s="47" t="s">
         <v>710</v>
       </c>
       <c r="D468" s="14" t="s">
@@ -14252,28 +14260,28 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="47"/>
-      <c r="B469" s="49"/>
+      <c r="A469" s="45"/>
+      <c r="B469" s="52"/>
       <c r="D469" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E469" s="49" t="s">
+      <c r="E469" s="52" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="47"/>
-      <c r="B470" s="49"/>
+      <c r="A470" s="45"/>
+      <c r="B470" s="52"/>
       <c r="D470" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="E470" s="49"/>
+      <c r="E470" s="52"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="47">
+      <c r="A472" s="45">
         <v>43438</v>
       </c>
-      <c r="B472" s="46" t="s">
+      <c r="B472" s="47" t="s">
         <v>741</v>
       </c>
       <c r="C472" t="s">
@@ -14282,58 +14290,58 @@
       <c r="D472" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="E472" s="49" t="s">
+      <c r="E472" s="52" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="47"/>
-      <c r="B473" s="49"/>
+      <c r="A473" s="45"/>
+      <c r="B473" s="52"/>
       <c r="D473" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="E473" s="49"/>
+      <c r="E473" s="52"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="47"/>
-      <c r="B474" s="49"/>
+      <c r="A474" s="45"/>
+      <c r="B474" s="52"/>
       <c r="C474" t="s">
         <v>718</v>
       </c>
       <c r="D474" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="E474" s="49"/>
+      <c r="E474" s="52"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="47"/>
-      <c r="B475" s="49"/>
+      <c r="A475" s="45"/>
+      <c r="B475" s="52"/>
       <c r="C475" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D475" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="E475" s="49"/>
+      <c r="E475" s="52"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="47"/>
-      <c r="B476" s="49"/>
+      <c r="A476" s="45"/>
+      <c r="B476" s="52"/>
       <c r="D476" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E476" s="49"/>
+      <c r="E476" s="52"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="47"/>
-      <c r="B477" s="49"/>
+      <c r="A477" s="45"/>
+      <c r="B477" s="52"/>
       <c r="D477" s="14" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="47"/>
-      <c r="B478" s="49"/>
+      <c r="A478" s="45"/>
+      <c r="B478" s="52"/>
       <c r="D478" s="14" t="s">
         <v>411</v>
       </c>
@@ -14342,18 +14350,18 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="47"/>
-      <c r="B479" s="49"/>
+      <c r="A479" s="45"/>
+      <c r="B479" s="52"/>
       <c r="D479" s="14" t="s">
         <v>736</v>
       </c>
       <c r="E479" s="44"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="47">
+      <c r="A481" s="45">
         <v>43439</v>
       </c>
-      <c r="B481" s="46" t="s">
+      <c r="B481" s="47" t="s">
         <v>740</v>
       </c>
       <c r="C481" t="s">
@@ -14362,20 +14370,20 @@
       <c r="D481" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="E481" s="49" t="s">
+      <c r="E481" s="52" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="47"/>
-      <c r="B482" s="49"/>
+      <c r="A482" s="45"/>
+      <c r="B482" s="52"/>
       <c r="D482" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="E482" s="49"/>
+      <c r="E482" s="52"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="47"/>
+      <c r="A483" s="45"/>
       <c r="B483" s="30" t="s">
         <v>739</v>
       </c>
@@ -14385,46 +14393,46 @@
       <c r="D483" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="E483" s="49"/>
+      <c r="E483" s="52"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="47"/>
+      <c r="A484" s="45"/>
       <c r="B484" s="4"/>
       <c r="D484" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E484" s="49"/>
+      <c r="E484" s="52"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="47"/>
+      <c r="A485" s="45"/>
       <c r="B485" s="4"/>
       <c r="D485" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="E485" s="49"/>
+      <c r="E485" s="52"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="47"/>
+      <c r="A486" s="45"/>
       <c r="B486" s="4"/>
       <c r="D486" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="E486" s="49" t="s">
+      <c r="E486" s="52" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="47"/>
+      <c r="A487" s="45"/>
       <c r="B487" s="30" t="s">
         <v>377</v>
       </c>
       <c r="D487" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E487" s="49"/>
+      <c r="E487" s="52"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="47">
+      <c r="A489" s="45">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -14436,7 +14444,7 @@
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="47"/>
+      <c r="A490" s="45"/>
       <c r="B490" s="4"/>
       <c r="D490" s="14" t="s">
         <v>750</v>
@@ -14444,7 +14452,7 @@
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="47"/>
+      <c r="A491" s="45"/>
       <c r="B491" s="30" t="s">
         <v>739</v>
       </c>
@@ -14457,7 +14465,7 @@
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="47"/>
+      <c r="A492" s="45"/>
       <c r="B492" s="4"/>
       <c r="D492" s="14" t="s">
         <v>735</v>
@@ -14465,38 +14473,38 @@
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="47"/>
+      <c r="A493" s="45"/>
       <c r="B493" s="4"/>
       <c r="D493" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="47"/>
+      <c r="A494" s="45"/>
       <c r="B494" s="4"/>
       <c r="D494" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="47"/>
+      <c r="A495" s="45"/>
       <c r="B495" s="4"/>
       <c r="D495" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="47"/>
+      <c r="A496" s="45"/>
       <c r="B496" s="4"/>
       <c r="D496" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="47">
+      <c r="A498" s="45">
         <v>43441</v>
       </c>
-      <c r="B498" s="46"/>
+      <c r="B498" s="47"/>
       <c r="C498" t="s">
         <v>662</v>
       </c>
@@ -14506,15 +14514,15 @@
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="47"/>
-      <c r="B499" s="49"/>
+      <c r="A499" s="45"/>
+      <c r="B499" s="52"/>
       <c r="D499" s="14" t="s">
         <v>738</v>
       </c>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="47"/>
+      <c r="A500" s="45"/>
       <c r="B500" s="30" t="s">
         <v>739</v>
       </c>
@@ -14524,7 +14532,7 @@
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="47"/>
+      <c r="A501" s="45"/>
       <c r="B501" s="4"/>
       <c r="C501" s="14" t="s">
         <v>717</v>
@@ -14535,7 +14543,7 @@
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="47"/>
+      <c r="A502" s="45"/>
       <c r="B502" s="4"/>
       <c r="D502" s="14" t="s">
         <v>768</v>
@@ -14543,21 +14551,21 @@
       <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="47"/>
+      <c r="A503" s="45"/>
       <c r="B503" s="4"/>
       <c r="D503" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="47"/>
+      <c r="A504" s="45"/>
       <c r="B504" s="4"/>
       <c r="D504" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="45">
+      <c r="A506" s="46">
         <v>43442</v>
       </c>
       <c r="B506" s="31"/>
@@ -14569,49 +14577,49 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="45"/>
+      <c r="A507" s="46"/>
       <c r="B507" s="4"/>
       <c r="D507" s="14" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="45"/>
+      <c r="A508" s="46"/>
       <c r="B508" s="4"/>
       <c r="D508" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="45"/>
+      <c r="A509" s="46"/>
       <c r="B509" s="4"/>
       <c r="D509" s="14" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="45"/>
+      <c r="A510" s="46"/>
       <c r="B510" s="4"/>
       <c r="D510" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="45"/>
+      <c r="A511" s="46"/>
       <c r="B511" s="4"/>
       <c r="D511" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="45"/>
+      <c r="A512" s="46"/>
       <c r="B512" s="4"/>
       <c r="D512" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="45">
+      <c r="A514" s="46">
         <v>43443</v>
       </c>
       <c r="B514" s="31"/>
@@ -14620,7 +14628,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="45"/>
+      <c r="A515" s="46"/>
       <c r="B515" s="31"/>
       <c r="C515" t="s">
         <v>473</v>
@@ -14630,63 +14638,63 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="45"/>
+      <c r="A516" s="46"/>
       <c r="B516" s="4"/>
       <c r="D516" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="45"/>
+      <c r="A517" s="46"/>
       <c r="B517" s="4"/>
       <c r="D517" s="14" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="45"/>
+      <c r="A518" s="46"/>
       <c r="B518" s="4"/>
       <c r="D518" s="14" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="45"/>
+      <c r="A519" s="46"/>
       <c r="B519" s="4"/>
       <c r="D519" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="45"/>
+      <c r="A520" s="46"/>
       <c r="B520" s="4"/>
       <c r="D520" s="14" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="45"/>
+      <c r="A521" s="46"/>
       <c r="B521" s="4"/>
       <c r="D521" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="45"/>
+      <c r="A522" s="46"/>
       <c r="B522" s="4"/>
       <c r="D522" s="14" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="45"/>
+      <c r="A523" s="46"/>
       <c r="B523" s="4"/>
       <c r="D523" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="47">
+      <c r="A525" s="45">
         <v>43444</v>
       </c>
       <c r="B525" s="31" t="s">
@@ -14700,8 +14708,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="47"/>
-      <c r="B526" s="46" t="s">
+      <c r="A526" s="45"/>
+      <c r="B526" s="47" t="s">
         <v>784</v>
       </c>
       <c r="D526" s="14" t="s">
@@ -14709,29 +14717,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="47"/>
-      <c r="B527" s="46"/>
+      <c r="A527" s="45"/>
+      <c r="B527" s="47"/>
       <c r="D527" s="14" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="47"/>
-      <c r="B528" s="46"/>
+      <c r="A528" s="45"/>
+      <c r="B528" s="47"/>
       <c r="D528" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="47"/>
-      <c r="B529" s="46"/>
+      <c r="A529" s="45"/>
+      <c r="B529" s="47"/>
       <c r="D529" s="14" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="47"/>
-      <c r="B530" s="46"/>
+      <c r="A530" s="45"/>
+      <c r="B530" s="47"/>
       <c r="C530" s="14" t="s">
         <v>717</v>
       </c>
@@ -14740,42 +14748,42 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="47"/>
-      <c r="B531" s="46"/>
+      <c r="A531" s="45"/>
+      <c r="B531" s="47"/>
       <c r="D531" s="14" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="47"/>
+      <c r="A532" s="45"/>
       <c r="B532" s="4"/>
       <c r="D532" s="14" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="47"/>
+      <c r="A533" s="45"/>
       <c r="B533" s="4"/>
       <c r="D533" s="14" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="47"/>
+      <c r="A534" s="45"/>
       <c r="B534" s="4"/>
       <c r="D534" s="14" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="47"/>
+      <c r="A535" s="45"/>
       <c r="B535" s="4"/>
       <c r="D535" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="47">
+      <c r="A537" s="45">
         <v>43445</v>
       </c>
       <c r="B537" s="31"/>
@@ -14787,8 +14795,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="47"/>
-      <c r="B538" s="46" t="s">
+      <c r="A538" s="45"/>
+      <c r="B538" s="47" t="s">
         <v>787</v>
       </c>
       <c r="D538" s="14" t="s">
@@ -14796,15 +14804,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="47"/>
-      <c r="B539" s="46"/>
+      <c r="A539" s="45"/>
+      <c r="B539" s="47"/>
       <c r="D539" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="47"/>
-      <c r="B540" s="46"/>
+      <c r="A540" s="45"/>
+      <c r="B540" s="47"/>
       <c r="C540" s="14" t="s">
         <v>717</v>
       </c>
@@ -14813,56 +14821,56 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="47"/>
-      <c r="B541" s="46"/>
+      <c r="A541" s="45"/>
+      <c r="B541" s="47"/>
       <c r="D541" s="14" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="47"/>
-      <c r="B542" s="46"/>
+      <c r="A542" s="45"/>
+      <c r="B542" s="47"/>
       <c r="D542" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="47"/>
-      <c r="B543" s="46"/>
+      <c r="A543" s="45"/>
+      <c r="B543" s="47"/>
       <c r="D543" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="47"/>
+      <c r="A544" s="45"/>
       <c r="B544" s="4"/>
       <c r="D544" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="47"/>
+      <c r="A545" s="45"/>
       <c r="B545" s="4"/>
       <c r="D545" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="47"/>
+      <c r="A546" s="45"/>
       <c r="B546" s="4"/>
       <c r="D546" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="47"/>
+      <c r="A547" s="45"/>
       <c r="B547" s="4"/>
       <c r="D547" s="14" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="47">
+      <c r="A549" s="45">
         <v>43446</v>
       </c>
       <c r="B549" s="31"/>
@@ -14874,8 +14882,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="47"/>
-      <c r="B550" s="46" t="s">
+      <c r="A550" s="45"/>
+      <c r="B550" s="47" t="s">
         <v>830</v>
       </c>
       <c r="D550" s="14" t="s">
@@ -14883,15 +14891,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="47"/>
-      <c r="B551" s="46"/>
+      <c r="A551" s="45"/>
+      <c r="B551" s="47"/>
       <c r="D551" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="47"/>
-      <c r="B552" s="46"/>
+      <c r="A552" s="45"/>
+      <c r="B552" s="47"/>
       <c r="C552" s="14" t="s">
         <v>717</v>
       </c>
@@ -14900,49 +14908,49 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="47"/>
-      <c r="B553" s="46"/>
+      <c r="A553" s="45"/>
+      <c r="B553" s="47"/>
       <c r="D553" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="47"/>
-      <c r="B554" s="46"/>
+      <c r="A554" s="45"/>
+      <c r="B554" s="47"/>
       <c r="D554" s="14" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="47"/>
+      <c r="A555" s="45"/>
       <c r="B555" s="4"/>
       <c r="D555" s="14" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="47"/>
+      <c r="A556" s="45"/>
       <c r="B556" s="4"/>
       <c r="D556" s="14" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="47"/>
+      <c r="A557" s="45"/>
       <c r="B557" s="4"/>
       <c r="D557" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="47"/>
+      <c r="A558" s="45"/>
       <c r="B558" s="4"/>
       <c r="D558" s="14" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="47">
+      <c r="A560" s="45">
         <v>43447</v>
       </c>
       <c r="B560" s="31"/>
@@ -14954,8 +14962,8 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="47"/>
-      <c r="B561" s="46" t="s">
+      <c r="A561" s="45"/>
+      <c r="B561" s="47" t="s">
         <v>850</v>
       </c>
       <c r="D561" s="14" t="s">
@@ -14963,15 +14971,15 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="47"/>
-      <c r="B562" s="46"/>
+      <c r="A562" s="45"/>
+      <c r="B562" s="47"/>
       <c r="D562" s="14" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="47"/>
-      <c r="B563" s="46"/>
+      <c r="A563" s="45"/>
+      <c r="B563" s="47"/>
       <c r="C563" s="14" t="s">
         <v>717</v>
       </c>
@@ -14980,21 +14988,21 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="47"/>
-      <c r="B564" s="46"/>
+      <c r="A564" s="45"/>
+      <c r="B564" s="47"/>
       <c r="D564" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="47"/>
-      <c r="B565" s="46"/>
+      <c r="A565" s="45"/>
+      <c r="B565" s="47"/>
       <c r="D565" s="14" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="47"/>
+      <c r="A566" s="45"/>
       <c r="B566" s="30" t="s">
         <v>852</v>
       </c>
@@ -15003,35 +15011,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="47"/>
+      <c r="A567" s="45"/>
       <c r="B567" s="4"/>
       <c r="D567" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="47"/>
+      <c r="A568" s="45"/>
       <c r="B568" s="4"/>
       <c r="D568" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="47"/>
+      <c r="A569" s="45"/>
       <c r="B569" s="4"/>
       <c r="D569" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="47"/>
+      <c r="A570" s="45"/>
       <c r="B570" s="4"/>
       <c r="D570" s="14" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="47">
+      <c r="A572" s="45">
         <v>43448</v>
       </c>
       <c r="B572" s="31"/>
@@ -15040,7 +15048,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="47"/>
+      <c r="A573" s="45"/>
       <c r="B573" s="31"/>
       <c r="C573" t="s">
         <v>853</v>
@@ -15050,8 +15058,8 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="47"/>
-      <c r="B574" s="46" t="s">
+      <c r="A574" s="45"/>
+      <c r="B574" s="47" t="s">
         <v>859</v>
       </c>
       <c r="D574" s="14" t="s">
@@ -15059,22 +15067,22 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="47"/>
-      <c r="B575" s="46"/>
+      <c r="A575" s="45"/>
+      <c r="B575" s="47"/>
       <c r="D575" s="14" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="47"/>
-      <c r="B576" s="46"/>
+      <c r="A576" s="45"/>
+      <c r="B576" s="47"/>
       <c r="D576" s="14" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="47"/>
-      <c r="B577" s="46"/>
+      <c r="A577" s="45"/>
+      <c r="B577" s="47"/>
       <c r="C577" s="14" t="s">
         <v>717</v>
       </c>
@@ -15083,49 +15091,49 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="47"/>
-      <c r="B578" s="46"/>
+      <c r="A578" s="45"/>
+      <c r="B578" s="47"/>
       <c r="D578" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="47"/>
-      <c r="B579" s="46"/>
+      <c r="A579" s="45"/>
+      <c r="B579" s="47"/>
       <c r="D579" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="47"/>
-      <c r="B580" s="46"/>
+      <c r="A580" s="45"/>
+      <c r="B580" s="47"/>
       <c r="D580" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="47"/>
+      <c r="A581" s="45"/>
       <c r="B581" s="30"/>
       <c r="D581" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="47"/>
+      <c r="A582" s="45"/>
       <c r="B582" s="4"/>
       <c r="D582" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="47"/>
+      <c r="A583" s="45"/>
       <c r="B583" s="4"/>
       <c r="D583" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="47"/>
+      <c r="A584" s="45"/>
       <c r="B584" s="4"/>
       <c r="D584" s="14" t="s">
         <v>851</v>
@@ -15136,7 +15144,7 @@
       <c r="B585" s="4"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="45">
+      <c r="A586" s="46">
         <v>43449</v>
       </c>
       <c r="B586" s="31"/>
@@ -15145,7 +15153,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="45"/>
+      <c r="A587" s="46"/>
       <c r="B587" s="31"/>
       <c r="C587" t="s">
         <v>865</v>
@@ -15155,8 +15163,8 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="45"/>
-      <c r="B588" s="46" t="s">
+      <c r="A588" s="46"/>
+      <c r="B588" s="47" t="s">
         <v>878</v>
       </c>
       <c r="D588" s="14" t="s">
@@ -15164,63 +15172,63 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="45"/>
-      <c r="B589" s="46"/>
+      <c r="A589" s="46"/>
+      <c r="B589" s="47"/>
       <c r="D589" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="45"/>
-      <c r="B590" s="46"/>
+      <c r="A590" s="46"/>
+      <c r="B590" s="47"/>
       <c r="D590" s="14" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="45"/>
-      <c r="B591" s="46"/>
+      <c r="A591" s="46"/>
+      <c r="B591" s="47"/>
       <c r="D591" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="45"/>
-      <c r="B592" s="46"/>
+      <c r="A592" s="46"/>
+      <c r="B592" s="47"/>
       <c r="D592" s="14" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="45"/>
-      <c r="B593" s="46"/>
+      <c r="A593" s="46"/>
+      <c r="B593" s="47"/>
       <c r="D593" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="45"/>
-      <c r="B594" s="46"/>
+      <c r="A594" s="46"/>
+      <c r="B594" s="47"/>
       <c r="D594" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="45"/>
-      <c r="B595" s="46"/>
+      <c r="A595" s="46"/>
+      <c r="B595" s="47"/>
       <c r="D595" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="45"/>
-      <c r="B596" s="46"/>
+      <c r="A596" s="46"/>
+      <c r="B596" s="47"/>
       <c r="D596" s="14" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="45">
+      <c r="A598" s="46">
         <v>43450</v>
       </c>
       <c r="B598" s="31"/>
@@ -15229,7 +15237,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="45"/>
+      <c r="A599" s="46"/>
       <c r="B599" s="31"/>
       <c r="C599" t="s">
         <v>873</v>
@@ -15239,91 +15247,91 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="45"/>
+      <c r="A600" s="46"/>
       <c r="B600" s="31"/>
       <c r="D600" s="16" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="45"/>
+      <c r="A601" s="46"/>
       <c r="B601" s="31"/>
       <c r="D601" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="45"/>
+      <c r="A602" s="46"/>
       <c r="B602" s="31"/>
       <c r="D602" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="45"/>
+      <c r="A603" s="46"/>
       <c r="B603" s="31"/>
       <c r="D603" s="14" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="45"/>
+      <c r="A604" s="46"/>
       <c r="B604" s="31"/>
       <c r="D604" s="14" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="45"/>
+      <c r="A605" s="46"/>
       <c r="B605" s="31"/>
       <c r="D605" s="14" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="45"/>
+      <c r="A606" s="46"/>
       <c r="B606" s="31"/>
       <c r="D606" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="45"/>
+      <c r="A607" s="46"/>
       <c r="B607" s="31"/>
       <c r="D607" s="14" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="45"/>
+      <c r="A608" s="46"/>
       <c r="B608" s="30"/>
       <c r="D608" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="45"/>
+      <c r="A609" s="46"/>
       <c r="B609" s="4"/>
       <c r="D609" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="45"/>
+      <c r="A610" s="46"/>
       <c r="B610" s="4"/>
       <c r="D610" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="45"/>
+      <c r="A611" s="46"/>
       <c r="B611" s="4"/>
       <c r="D611" s="14" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="47">
+      <c r="A613" s="45">
         <v>43451</v>
       </c>
       <c r="B613" s="31"/>
@@ -15335,14 +15343,14 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="47"/>
+      <c r="A614" s="45"/>
       <c r="B614" s="31"/>
       <c r="D614" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="47"/>
+      <c r="A615" s="45"/>
       <c r="B615" s="31"/>
       <c r="C615" s="14" t="s">
         <v>717</v>
@@ -15352,7 +15360,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="47"/>
+      <c r="A616" s="45"/>
       <c r="B616" s="31"/>
       <c r="C616" s="14"/>
       <c r="D616" s="14" t="s">
@@ -15360,42 +15368,42 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="47"/>
+      <c r="A617" s="45"/>
       <c r="B617" s="31"/>
       <c r="D617" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="47"/>
+      <c r="A618" s="45"/>
       <c r="B618" s="31"/>
       <c r="D618" s="14" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="47"/>
+      <c r="A619" s="45"/>
       <c r="B619" s="30"/>
       <c r="D619" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="47"/>
+      <c r="A620" s="45"/>
       <c r="B620" s="4"/>
       <c r="D620" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="47"/>
+      <c r="A621" s="45"/>
       <c r="B621" s="4"/>
       <c r="D621" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="47">
+      <c r="A623" s="45">
         <v>43452</v>
       </c>
       <c r="B623" s="31"/>
@@ -15407,28 +15415,28 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="47"/>
+      <c r="A624" s="45"/>
       <c r="B624" s="31"/>
       <c r="D624" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="47"/>
+      <c r="A625" s="45"/>
       <c r="B625" s="31"/>
       <c r="D625" s="14" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="47"/>
+      <c r="A626" s="45"/>
       <c r="B626" s="31"/>
       <c r="D626" s="14" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="47"/>
+      <c r="A627" s="45"/>
       <c r="B627" s="31"/>
       <c r="C627" s="14" t="s">
         <v>717</v>
@@ -15438,8 +15446,8 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="47"/>
-      <c r="B628" s="46" t="s">
+      <c r="A628" s="45"/>
+      <c r="B628" s="47" t="s">
         <v>895</v>
       </c>
       <c r="D628" s="14" t="s">
@@ -15447,38 +15455,38 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="47"/>
-      <c r="B629" s="46"/>
+      <c r="A629" s="45"/>
+      <c r="B629" s="47"/>
       <c r="D629" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="47"/>
-      <c r="B630" s="46"/>
+      <c r="A630" s="45"/>
+      <c r="B630" s="47"/>
       <c r="D630" s="14" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="47"/>
-      <c r="B631" s="46"/>
+      <c r="A631" s="45"/>
+      <c r="B631" s="47"/>
       <c r="D631" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="47"/>
-      <c r="B632" s="46"/>
+      <c r="A632" s="45"/>
+      <c r="B632" s="47"/>
       <c r="D632" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="47">
+      <c r="A634" s="45">
         <v>43453</v>
       </c>
-      <c r="B634" s="46"/>
+      <c r="B634" s="47"/>
       <c r="C634" t="s">
         <v>893</v>
       </c>
@@ -15490,8 +15498,8 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="47"/>
-      <c r="B635" s="46"/>
+      <c r="A635" s="45"/>
+      <c r="B635" s="47"/>
       <c r="C635" t="s">
         <v>891</v>
       </c>
@@ -15500,14 +15508,14 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="47"/>
-      <c r="B636" s="46"/>
+      <c r="A636" s="45"/>
+      <c r="B636" s="47"/>
       <c r="D636" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="47"/>
+      <c r="A637" s="45"/>
       <c r="B637" s="31"/>
       <c r="C637" s="14" t="s">
         <v>717</v>
@@ -15517,56 +15525,56 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="47"/>
+      <c r="A638" s="45"/>
       <c r="B638" s="31"/>
       <c r="D638" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="47"/>
+      <c r="A639" s="45"/>
       <c r="B639" s="31"/>
       <c r="D639" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="47"/>
+      <c r="A640" s="45"/>
       <c r="B640" s="31"/>
       <c r="D640" s="14" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="47"/>
+      <c r="A641" s="45"/>
       <c r="B641" s="31"/>
       <c r="D641" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="47"/>
+      <c r="A642" s="45"/>
       <c r="B642" s="30"/>
       <c r="D642" s="14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="47"/>
+      <c r="A643" s="45"/>
       <c r="B643" s="4"/>
       <c r="D643" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="47"/>
+      <c r="A644" s="45"/>
       <c r="B644" s="4"/>
       <c r="D644" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="47">
+      <c r="A646" s="45">
         <v>43454</v>
       </c>
       <c r="B646" s="31"/>
@@ -15578,21 +15586,21 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="47"/>
+      <c r="A647" s="45"/>
       <c r="B647" s="31"/>
       <c r="D647" s="14" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="47"/>
+      <c r="A648" s="45"/>
       <c r="B648" s="31"/>
       <c r="D648" s="14" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="47"/>
+      <c r="A649" s="45"/>
       <c r="B649" s="31"/>
       <c r="C649" s="14" t="s">
         <v>717</v>
@@ -15602,49 +15610,49 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="47"/>
+      <c r="A650" s="45"/>
       <c r="B650" s="31"/>
       <c r="D650" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="47"/>
+      <c r="A651" s="45"/>
       <c r="B651" s="31"/>
       <c r="D651" s="14" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="47"/>
+      <c r="A652" s="45"/>
       <c r="B652" s="31"/>
       <c r="D652" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="47"/>
+      <c r="A653" s="45"/>
       <c r="B653" s="30"/>
       <c r="D653" s="14" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="47"/>
+      <c r="A654" s="45"/>
       <c r="B654" s="4"/>
       <c r="D654" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="47"/>
+      <c r="A655" s="45"/>
       <c r="B655" s="4"/>
       <c r="D655" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="47">
+      <c r="A657" s="45">
         <v>43455</v>
       </c>
       <c r="B657" s="31"/>
@@ -15656,21 +15664,21 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="47"/>
+      <c r="A658" s="45"/>
       <c r="B658" s="31"/>
       <c r="D658" s="14" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="47"/>
+      <c r="A659" s="45"/>
       <c r="B659" s="31"/>
       <c r="D659" s="14" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="47"/>
+      <c r="A660" s="45"/>
       <c r="B660" s="31"/>
       <c r="C660" s="14" t="s">
         <v>717</v>
@@ -15680,35 +15688,35 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="47"/>
+      <c r="A661" s="45"/>
       <c r="B661" s="31"/>
       <c r="D661" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="47"/>
+      <c r="A662" s="45"/>
       <c r="B662" s="31"/>
       <c r="D662" s="14" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="47"/>
+      <c r="A663" s="45"/>
       <c r="B663" s="4"/>
       <c r="D663" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="47"/>
+      <c r="A664" s="45"/>
       <c r="B664" s="4"/>
       <c r="D664" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="45">
+      <c r="A666" s="46">
         <v>43456</v>
       </c>
       <c r="B666" s="31"/>
@@ -15720,70 +15728,70 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A667" s="45"/>
+      <c r="A667" s="46"/>
       <c r="B667" s="31"/>
       <c r="D667" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="45"/>
+      <c r="A668" s="46"/>
       <c r="B668" s="31"/>
       <c r="D668" s="14" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A669" s="45"/>
+      <c r="A669" s="46"/>
       <c r="B669" s="31"/>
       <c r="D669" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A670" s="45"/>
+      <c r="A670" s="46"/>
       <c r="B670" s="31"/>
       <c r="D670" s="14" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A671" s="45"/>
+      <c r="A671" s="46"/>
       <c r="B671" s="31"/>
       <c r="D671" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A672" s="45"/>
+      <c r="A672" s="46"/>
       <c r="B672" s="31"/>
       <c r="D672" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A673" s="45"/>
+      <c r="A673" s="46"/>
       <c r="B673" s="31"/>
       <c r="D673" s="14" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A674" s="45"/>
+      <c r="A674" s="46"/>
       <c r="B674" s="4"/>
       <c r="D674" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A675" s="45"/>
+      <c r="A675" s="46"/>
       <c r="B675" s="4"/>
       <c r="D675" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A677" s="45">
+      <c r="A677" s="46">
         <v>43457</v>
       </c>
       <c r="B677" s="31"/>
@@ -15795,70 +15803,70 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A678" s="45"/>
+      <c r="A678" s="46"/>
       <c r="B678" s="31"/>
       <c r="D678" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A679" s="45"/>
+      <c r="A679" s="46"/>
       <c r="B679" s="31"/>
       <c r="D679" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="45"/>
+      <c r="A680" s="46"/>
       <c r="B680" s="31"/>
       <c r="D680" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A681" s="45"/>
+      <c r="A681" s="46"/>
       <c r="B681" s="31"/>
       <c r="D681" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A682" s="45"/>
+      <c r="A682" s="46"/>
       <c r="B682" s="31"/>
       <c r="D682" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A683" s="45"/>
+      <c r="A683" s="46"/>
       <c r="B683" s="31"/>
       <c r="D683" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A684" s="45"/>
+      <c r="A684" s="46"/>
       <c r="B684" s="30"/>
       <c r="D684" s="14" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="45"/>
+      <c r="A685" s="46"/>
       <c r="B685" s="4"/>
       <c r="D685" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A686" s="45"/>
+      <c r="A686" s="46"/>
       <c r="B686" s="4"/>
       <c r="D686" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="47">
+      <c r="A688" s="45">
         <v>43458</v>
       </c>
       <c r="B688" s="31"/>
@@ -15870,14 +15878,14 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="47"/>
+      <c r="A689" s="45"/>
       <c r="B689" s="31"/>
       <c r="D689" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="47"/>
+      <c r="A690" s="45"/>
       <c r="B690" s="31"/>
       <c r="C690" s="14" t="s">
         <v>717</v>
@@ -15887,35 +15895,35 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="47"/>
+      <c r="A691" s="45"/>
       <c r="B691" s="31"/>
       <c r="D691" s="14" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="47"/>
+      <c r="A692" s="45"/>
       <c r="B692" s="31"/>
       <c r="D692" s="14" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="47"/>
+      <c r="A693" s="45"/>
       <c r="B693" s="31"/>
       <c r="D693" s="14" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="47"/>
+      <c r="A694" s="45"/>
       <c r="B694" s="4"/>
       <c r="D694" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="47">
+      <c r="A696" s="45">
         <v>43459</v>
       </c>
       <c r="B696" s="31"/>
@@ -15927,14 +15935,14 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="47"/>
+      <c r="A697" s="45"/>
       <c r="B697" s="31"/>
       <c r="D697" s="14" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="47"/>
+      <c r="A698" s="45"/>
       <c r="B698" s="31"/>
       <c r="C698" s="14" t="s">
         <v>947</v>
@@ -15944,35 +15952,35 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="47"/>
+      <c r="A699" s="45"/>
       <c r="B699" s="31"/>
       <c r="D699" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="47"/>
+      <c r="A700" s="45"/>
       <c r="B700" s="31"/>
       <c r="D700" s="14" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="47"/>
+      <c r="A701" s="45"/>
       <c r="B701" s="4"/>
       <c r="D701" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="47"/>
+      <c r="A702" s="45"/>
       <c r="B702" s="4"/>
       <c r="D702" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A704" s="47">
+      <c r="A704" s="45">
         <v>43460</v>
       </c>
       <c r="B704" s="31" t="s">
@@ -15986,14 +15994,14 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="47"/>
+      <c r="A705" s="45"/>
       <c r="B705" s="31"/>
       <c r="D705" s="14" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="47"/>
+      <c r="A706" s="45"/>
       <c r="B706" s="31"/>
       <c r="C706" s="14" t="s">
         <v>947</v>
@@ -16003,28 +16011,28 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="47"/>
+      <c r="A707" s="45"/>
       <c r="B707" s="31"/>
       <c r="D707" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="47"/>
+      <c r="A708" s="45"/>
       <c r="B708" s="31"/>
       <c r="D708" s="14" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="47"/>
+      <c r="A709" s="45"/>
       <c r="B709" s="4"/>
       <c r="D709" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="47">
+      <c r="A711" s="45">
         <v>43461</v>
       </c>
       <c r="B711" s="31"/>
@@ -16036,14 +16044,14 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="47"/>
+      <c r="A712" s="45"/>
       <c r="B712" s="31"/>
       <c r="D712" s="14" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="47"/>
+      <c r="A713" s="45"/>
       <c r="B713" s="31"/>
       <c r="C713" s="14" t="s">
         <v>717</v>
@@ -16053,42 +16061,42 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="47"/>
+      <c r="A714" s="45"/>
       <c r="B714" s="31"/>
       <c r="D714" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="47"/>
+      <c r="A715" s="45"/>
       <c r="B715" s="31"/>
       <c r="D715" s="14" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="47"/>
+      <c r="A716" s="45"/>
       <c r="B716" s="31"/>
       <c r="D716" s="14" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="47"/>
+      <c r="A717" s="45"/>
       <c r="B717" s="4"/>
       <c r="D717" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="47"/>
+      <c r="A718" s="45"/>
       <c r="B718" s="4"/>
       <c r="D718" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="47">
+      <c r="A720" s="45">
         <v>43462</v>
       </c>
       <c r="B720" s="31"/>
@@ -16100,14 +16108,14 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="47"/>
+      <c r="A721" s="45"/>
       <c r="B721" s="31"/>
       <c r="D721" s="14" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="47"/>
+      <c r="A722" s="45"/>
       <c r="B722" s="31"/>
       <c r="C722" s="14" t="s">
         <v>717</v>
@@ -16117,28 +16125,28 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="47"/>
+      <c r="A723" s="45"/>
       <c r="B723" s="31"/>
       <c r="D723" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="47"/>
+      <c r="A724" s="45"/>
       <c r="B724" s="4"/>
       <c r="D724" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="47"/>
+      <c r="A725" s="45"/>
       <c r="B725" s="4"/>
       <c r="D725" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A727" s="45">
+      <c r="A727" s="46">
         <v>43463</v>
       </c>
       <c r="B727" s="31"/>
@@ -16150,7 +16158,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="45"/>
+      <c r="A728" s="46"/>
       <c r="B728" s="31"/>
       <c r="C728" s="14" t="s">
         <v>717</v>
@@ -16160,35 +16168,35 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A729" s="45"/>
+      <c r="A729" s="46"/>
       <c r="B729" s="31"/>
       <c r="D729" s="14" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A730" s="45"/>
+      <c r="A730" s="46"/>
       <c r="B730" s="31"/>
       <c r="D730" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A731" s="45"/>
+      <c r="A731" s="46"/>
       <c r="B731" s="4"/>
       <c r="D731" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A732" s="45"/>
+      <c r="A732" s="46"/>
       <c r="B732" s="4"/>
       <c r="D732" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A734" s="45">
+      <c r="A734" s="46">
         <v>43464</v>
       </c>
       <c r="B734" s="31"/>
@@ -16197,56 +16205,56 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A735" s="45"/>
+      <c r="A735" s="46"/>
       <c r="B735" s="31"/>
       <c r="D735" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A736" s="45"/>
+      <c r="A736" s="46"/>
       <c r="B736" s="31"/>
       <c r="D736" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A737" s="45"/>
+      <c r="A737" s="46"/>
       <c r="B737" s="31"/>
       <c r="D737" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A738" s="45"/>
+      <c r="A738" s="46"/>
       <c r="B738" s="31"/>
       <c r="D738" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A739" s="45"/>
+      <c r="A739" s="46"/>
       <c r="B739" s="30"/>
       <c r="D739" s="14" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A740" s="45"/>
+      <c r="A740" s="46"/>
       <c r="B740" s="4"/>
       <c r="D740" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A741" s="45"/>
+      <c r="A741" s="46"/>
       <c r="B741" s="4"/>
       <c r="D741" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="47">
+      <c r="A743" s="45">
         <v>43465</v>
       </c>
       <c r="B743" s="31"/>
@@ -16258,35 +16266,35 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="47"/>
+      <c r="A744" s="45"/>
       <c r="B744" s="31"/>
       <c r="D744" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="47"/>
+      <c r="A745" s="45"/>
       <c r="B745" s="31"/>
       <c r="D745" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="47"/>
+      <c r="A746" s="45"/>
       <c r="B746" s="31"/>
       <c r="D746" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="47"/>
+      <c r="A747" s="45"/>
       <c r="B747" s="4"/>
       <c r="D747" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="47"/>
+      <c r="A748" s="45"/>
       <c r="B748" s="4" t="s">
         <v>966</v>
       </c>
@@ -16295,7 +16303,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="47">
+      <c r="A750" s="45">
         <v>43466</v>
       </c>
       <c r="B750" s="31"/>
@@ -16304,35 +16312,35 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="47"/>
+      <c r="A751" s="45"/>
       <c r="B751" s="31"/>
       <c r="D751" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="47"/>
+      <c r="A752" s="45"/>
       <c r="B752" s="31"/>
       <c r="D752" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="47"/>
+      <c r="A753" s="45"/>
       <c r="B753" s="31"/>
       <c r="D753" s="14" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="47"/>
+      <c r="A754" s="45"/>
       <c r="B754" s="4"/>
       <c r="D754" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="47"/>
+      <c r="A755" s="45"/>
       <c r="B755" s="4" t="s">
         <v>967</v>
       </c>
@@ -16341,7 +16349,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="47">
+      <c r="A757" s="45">
         <v>43467</v>
       </c>
       <c r="B757" s="31" t="s">
@@ -16355,7 +16363,7 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="47"/>
+      <c r="A758" s="45"/>
       <c r="B758" s="31" t="s">
         <v>976</v>
       </c>
@@ -16364,7 +16372,7 @@
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="47"/>
+      <c r="A759" s="45"/>
       <c r="B759" s="31" t="s">
         <v>996</v>
       </c>
@@ -16376,7 +16384,7 @@
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="47"/>
+      <c r="A760" s="45"/>
       <c r="B760" s="31" t="s">
         <v>997</v>
       </c>
@@ -16385,19 +16393,19 @@
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="47"/>
+      <c r="A761" s="45"/>
       <c r="B761" s="4"/>
       <c r="D761" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="47"/>
+      <c r="A762" s="45"/>
       <c r="B762" s="4"/>
       <c r="D762" s="14"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A764" s="47">
+      <c r="A764" s="45">
         <v>43468</v>
       </c>
       <c r="B764" s="31" t="s">
@@ -16411,14 +16419,14 @@
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A765" s="47"/>
+      <c r="A765" s="45"/>
       <c r="B765" s="31"/>
       <c r="D765" s="14" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A766" s="47"/>
+      <c r="A766" s="45"/>
       <c r="B766" s="31"/>
       <c r="C766" s="14" t="s">
         <v>717</v>
@@ -16428,26 +16436,26 @@
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A767" s="47"/>
+      <c r="A767" s="45"/>
       <c r="B767" s="31"/>
       <c r="D767" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="47"/>
+      <c r="A768" s="45"/>
       <c r="B768" s="4"/>
       <c r="D768" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="47"/>
+      <c r="A769" s="45"/>
       <c r="B769" s="4"/>
       <c r="D769" s="14"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A771" s="47">
+      <c r="A771" s="45">
         <v>43469</v>
       </c>
       <c r="B771" s="31" t="s">
@@ -16461,7 +16469,7 @@
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A772" s="47"/>
+      <c r="A772" s="45"/>
       <c r="B772" s="31"/>
       <c r="C772" s="14" t="s">
         <v>717</v>
@@ -16471,21 +16479,21 @@
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A773" s="47"/>
+      <c r="A773" s="45"/>
       <c r="B773" s="31"/>
       <c r="D773" s="14" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A774" s="47"/>
+      <c r="A774" s="45"/>
       <c r="B774" s="4"/>
       <c r="D774" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A776" s="45">
+      <c r="A776" s="46">
         <v>43470</v>
       </c>
       <c r="B776" s="31"/>
@@ -16497,42 +16505,42 @@
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A777" s="45"/>
+      <c r="A777" s="46"/>
       <c r="B777" s="31"/>
       <c r="D777" s="14" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A778" s="45"/>
+      <c r="A778" s="46"/>
       <c r="B778" s="31"/>
       <c r="D778" s="14" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A779" s="45"/>
+      <c r="A779" s="46"/>
       <c r="B779" s="31"/>
       <c r="D779" s="14" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A780" s="45"/>
+      <c r="A780" s="46"/>
       <c r="B780" s="4"/>
       <c r="D780" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A781" s="45"/>
+      <c r="A781" s="46"/>
       <c r="B781" s="4"/>
       <c r="D781" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A783" s="45">
+      <c r="A783" s="46">
         <v>43471</v>
       </c>
       <c r="B783" s="31"/>
@@ -16544,84 +16552,84 @@
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A784" s="45"/>
+      <c r="A784" s="46"/>
       <c r="B784" s="31"/>
       <c r="D784" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A785" s="45"/>
+      <c r="A785" s="46"/>
       <c r="B785" s="31"/>
       <c r="D785" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A786" s="45"/>
+      <c r="A786" s="46"/>
       <c r="B786" s="31"/>
       <c r="D786" s="14" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A787" s="45"/>
+      <c r="A787" s="46"/>
       <c r="B787" s="31"/>
       <c r="D787" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A788" s="45"/>
+      <c r="A788" s="46"/>
       <c r="B788" s="31"/>
       <c r="D788" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A789" s="45"/>
+      <c r="A789" s="46"/>
       <c r="B789" s="31"/>
       <c r="D789" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A790" s="45"/>
+      <c r="A790" s="46"/>
       <c r="B790" s="31"/>
       <c r="D790" s="14" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A791" s="45"/>
+      <c r="A791" s="46"/>
       <c r="B791" s="31"/>
       <c r="D791" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A792" s="45"/>
+      <c r="A792" s="46"/>
       <c r="B792" s="31"/>
       <c r="D792" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A793" s="45"/>
+      <c r="A793" s="46"/>
       <c r="B793" s="31"/>
       <c r="D793" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A794" s="45"/>
+      <c r="A794" s="46"/>
       <c r="B794" s="4"/>
       <c r="D794" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A796" s="47">
+      <c r="A796" s="45">
         <v>43472</v>
       </c>
       <c r="B796" s="31"/>
@@ -16633,14 +16641,14 @@
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A797" s="47"/>
+      <c r="A797" s="45"/>
       <c r="B797" s="31"/>
       <c r="D797" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A798" s="47"/>
+      <c r="A798" s="45"/>
       <c r="B798" s="31"/>
       <c r="C798" s="14" t="s">
         <v>717</v>
@@ -16650,98 +16658,98 @@
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A799" s="47"/>
+      <c r="A799" s="45"/>
       <c r="B799" s="31"/>
       <c r="D799" s="14" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A800" s="47"/>
+      <c r="A800" s="45"/>
       <c r="B800" s="31"/>
       <c r="D800" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A801" s="47"/>
+      <c r="A801" s="45"/>
       <c r="B801" s="31"/>
       <c r="D801" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A802" s="47"/>
+      <c r="A802" s="45"/>
       <c r="B802" s="31"/>
       <c r="D802" s="14" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A803" s="47"/>
+      <c r="A803" s="45"/>
       <c r="B803" s="31"/>
       <c r="D803" s="14" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A804" s="47"/>
+      <c r="A804" s="45"/>
       <c r="B804" s="31"/>
       <c r="D804" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A805" s="47"/>
+      <c r="A805" s="45"/>
       <c r="B805" s="31"/>
       <c r="D805" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A806" s="47"/>
+      <c r="A806" s="45"/>
       <c r="B806" s="31"/>
       <c r="D806" s="14" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A807" s="47"/>
+      <c r="A807" s="45"/>
       <c r="B807" s="31"/>
       <c r="D807" s="14" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A808" s="47"/>
+      <c r="A808" s="45"/>
       <c r="B808" s="31"/>
       <c r="D808" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A809" s="47"/>
+      <c r="A809" s="45"/>
       <c r="B809" s="31"/>
       <c r="D809" s="14" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A810" s="47"/>
+      <c r="A810" s="45"/>
       <c r="B810" s="31"/>
       <c r="D810" s="14" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A811" s="47"/>
+      <c r="A811" s="45"/>
       <c r="B811" s="4"/>
       <c r="D811" s="14" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A813" s="47">
+      <c r="A813" s="45">
         <v>43473</v>
       </c>
       <c r="B813" s="31"/>
@@ -16753,21 +16761,21 @@
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A814" s="47"/>
+      <c r="A814" s="45"/>
       <c r="B814" s="31"/>
       <c r="D814" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A815" s="47"/>
+      <c r="A815" s="45"/>
       <c r="B815" s="31"/>
       <c r="D815" s="14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A816" s="47"/>
+      <c r="A816" s="45"/>
       <c r="B816" s="31"/>
       <c r="C816" s="14" t="s">
         <v>717</v>
@@ -16777,56 +16785,56 @@
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A817" s="47"/>
+      <c r="A817" s="45"/>
       <c r="B817" s="31"/>
       <c r="D817" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A818" s="47"/>
+      <c r="A818" s="45"/>
       <c r="B818" s="31"/>
       <c r="D818" s="14" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A819" s="47"/>
+      <c r="A819" s="45"/>
       <c r="B819" s="31"/>
       <c r="D819" s="14" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A820" s="47"/>
+      <c r="A820" s="45"/>
       <c r="B820" s="31"/>
       <c r="D820" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A821" s="47"/>
+      <c r="A821" s="45"/>
       <c r="B821" s="31"/>
       <c r="D821" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A822" s="47"/>
+      <c r="A822" s="45"/>
       <c r="B822" s="31"/>
       <c r="D822" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A823" s="47"/>
+      <c r="A823" s="45"/>
       <c r="B823" s="31"/>
       <c r="D823" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A824" s="47"/>
+      <c r="A824" s="45"/>
       <c r="B824" s="31"/>
       <c r="D824" s="14" t="s">
         <v>1041</v>
@@ -16838,7 +16846,7 @@
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A826" s="47">
+      <c r="A826" s="45">
         <v>43474</v>
       </c>
       <c r="B826" s="31"/>
@@ -16850,21 +16858,21 @@
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A827" s="47"/>
+      <c r="A827" s="45"/>
       <c r="B827" s="31"/>
       <c r="D827" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A828" s="47"/>
+      <c r="A828" s="45"/>
       <c r="B828" s="31"/>
       <c r="D828" s="14" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A829" s="47"/>
+      <c r="A829" s="45"/>
       <c r="B829" s="31"/>
       <c r="C829" s="14" t="s">
         <v>717</v>
@@ -16874,63 +16882,63 @@
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A830" s="47"/>
+      <c r="A830" s="45"/>
       <c r="B830" s="31"/>
       <c r="D830" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A831" s="47"/>
+      <c r="A831" s="45"/>
       <c r="B831" s="31"/>
       <c r="D831" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A832" s="47"/>
+      <c r="A832" s="45"/>
       <c r="B832" s="31"/>
       <c r="D832" s="14" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A833" s="47"/>
+      <c r="A833" s="45"/>
       <c r="B833" s="31"/>
       <c r="D833" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A834" s="47"/>
+      <c r="A834" s="45"/>
       <c r="B834" s="31"/>
       <c r="D834" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A835" s="47"/>
+      <c r="A835" s="45"/>
       <c r="B835" s="31"/>
       <c r="D835" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A836" s="47"/>
+      <c r="A836" s="45"/>
       <c r="B836" s="31"/>
       <c r="D836" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A837" s="47"/>
+      <c r="A837" s="45"/>
       <c r="B837" s="31"/>
       <c r="D837" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A838" s="47"/>
+      <c r="A838" s="45"/>
       <c r="D838" t="s">
         <v>1038</v>
       </c>
@@ -16944,7 +16952,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A840" s="47">
+      <c r="A840" s="45">
         <v>43475</v>
       </c>
       <c r="B840" s="31"/>
@@ -16956,28 +16964,28 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A841" s="47"/>
+      <c r="A841" s="45"/>
       <c r="B841" s="31"/>
       <c r="D841" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A842" s="47"/>
+      <c r="A842" s="45"/>
       <c r="B842" s="31"/>
       <c r="D842" s="14" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A843" s="47"/>
+      <c r="A843" s="45"/>
       <c r="B843" s="31"/>
       <c r="D843" s="14" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A844" s="47"/>
+      <c r="A844" s="45"/>
       <c r="B844" s="31"/>
       <c r="C844" s="14" t="s">
         <v>717</v>
@@ -16987,70 +16995,70 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A845" s="47"/>
+      <c r="A845" s="45"/>
       <c r="B845" s="31"/>
       <c r="D845" s="14" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A846" s="47"/>
+      <c r="A846" s="45"/>
       <c r="B846" s="31"/>
       <c r="E846" s="16" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A847" s="47"/>
+      <c r="A847" s="45"/>
       <c r="B847" s="31"/>
       <c r="D847" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A848" s="47"/>
+      <c r="A848" s="45"/>
       <c r="B848" s="31"/>
       <c r="D848" s="14" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A849" s="47"/>
+      <c r="A849" s="45"/>
       <c r="B849" s="31"/>
       <c r="D849" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A850" s="47"/>
+      <c r="A850" s="45"/>
       <c r="B850" s="31"/>
       <c r="D850" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A851" s="47"/>
+      <c r="A851" s="45"/>
       <c r="B851" s="31"/>
       <c r="D851" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A852" s="47"/>
+      <c r="A852" s="45"/>
       <c r="B852" s="31"/>
       <c r="D852" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A853" s="47"/>
+      <c r="A853" s="45"/>
       <c r="B853" s="31"/>
       <c r="D853" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A855" s="47">
+      <c r="A855" s="45">
         <v>43476</v>
       </c>
       <c r="B855" s="31"/>
@@ -17062,21 +17070,21 @@
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A856" s="47"/>
+      <c r="A856" s="45"/>
       <c r="B856" s="31"/>
       <c r="D856" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A857" s="47"/>
+      <c r="A857" s="45"/>
       <c r="B857" s="31"/>
       <c r="D857" s="14" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A858" s="47"/>
+      <c r="A858" s="45"/>
       <c r="B858" s="31"/>
       <c r="C858" s="14" t="s">
         <v>717</v>
@@ -17086,56 +17094,56 @@
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A859" s="47"/>
+      <c r="A859" s="45"/>
       <c r="B859" s="31"/>
       <c r="D859" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A860" s="47"/>
+      <c r="A860" s="45"/>
       <c r="B860" s="31"/>
       <c r="D860" s="16" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A861" s="47"/>
+      <c r="A861" s="45"/>
       <c r="B861" s="31"/>
       <c r="D861" s="14" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A862" s="47"/>
+      <c r="A862" s="45"/>
       <c r="B862" s="31"/>
       <c r="D862" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A863" s="47"/>
+      <c r="A863" s="45"/>
       <c r="B863" s="31"/>
       <c r="D863" s="14" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A864" s="47"/>
+      <c r="A864" s="45"/>
       <c r="B864" s="31"/>
       <c r="D864" s="14" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A865" s="47"/>
+      <c r="A865" s="45"/>
       <c r="B865" s="31"/>
       <c r="D865" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A866" s="47"/>
+      <c r="A866" s="45"/>
       <c r="B866" s="31"/>
       <c r="D866" s="14" t="s">
         <v>767</v>
@@ -17147,7 +17155,7 @@
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A868" s="45">
+      <c r="A868" s="46">
         <v>43477</v>
       </c>
       <c r="B868" s="31"/>
@@ -17156,49 +17164,49 @@
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A869" s="45"/>
+      <c r="A869" s="46"/>
       <c r="B869" s="31"/>
       <c r="D869" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A870" s="45"/>
+      <c r="A870" s="46"/>
       <c r="B870" s="31"/>
       <c r="D870" s="14" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A871" s="45"/>
+      <c r="A871" s="46"/>
       <c r="B871" s="31"/>
       <c r="D871" s="14" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A872" s="45"/>
+      <c r="A872" s="46"/>
       <c r="B872" s="31"/>
       <c r="D872" s="14" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A873" s="45"/>
+      <c r="A873" s="46"/>
       <c r="B873" s="31"/>
       <c r="D873" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A874" s="45"/>
+      <c r="A874" s="46"/>
       <c r="B874" s="31"/>
       <c r="D874" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A875" s="45"/>
+      <c r="A875" s="46"/>
       <c r="B875" s="31"/>
       <c r="D875" s="14" t="s">
         <v>1007</v>
@@ -17210,10 +17218,10 @@
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A877" s="45">
+      <c r="A877" s="46">
         <v>43478</v>
       </c>
-      <c r="B877" s="48" t="s">
+      <c r="B877" s="53" t="s">
         <v>1083</v>
       </c>
       <c r="D877" s="14" t="s">
@@ -17221,29 +17229,29 @@
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A878" s="45"/>
-      <c r="B878" s="48"/>
+      <c r="A878" s="46"/>
+      <c r="B878" s="53"/>
       <c r="D878" s="16" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A879" s="45"/>
-      <c r="B879" s="48"/>
+      <c r="A879" s="46"/>
+      <c r="B879" s="53"/>
       <c r="D879" s="14" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A880" s="45"/>
-      <c r="B880" s="48"/>
+      <c r="A880" s="46"/>
+      <c r="B880" s="53"/>
       <c r="D880" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A881" s="45"/>
-      <c r="B881" s="48"/>
+      <c r="A881" s="46"/>
+      <c r="B881" s="53"/>
       <c r="D881" s="16" t="s">
         <v>1073</v>
       </c>
@@ -17254,7 +17262,7 @@
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A883" s="47">
+      <c r="A883" s="45">
         <v>43479</v>
       </c>
       <c r="B883" s="31"/>
@@ -17266,14 +17274,14 @@
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A884" s="47"/>
+      <c r="A884" s="45"/>
       <c r="B884" s="31"/>
       <c r="D884" s="14" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A885" s="47"/>
+      <c r="A885" s="45"/>
       <c r="B885" s="31"/>
       <c r="C885" s="14" t="s">
         <v>717</v>
@@ -17283,35 +17291,35 @@
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A886" s="47"/>
+      <c r="A886" s="45"/>
       <c r="B886" s="31"/>
       <c r="D886" s="14" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A887" s="47"/>
+      <c r="A887" s="45"/>
       <c r="B887" s="31"/>
       <c r="D887" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A888" s="47"/>
+      <c r="A888" s="45"/>
       <c r="B888" s="31"/>
       <c r="D888" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A889" s="47"/>
+      <c r="A889" s="45"/>
       <c r="B889" s="31"/>
       <c r="D889" s="14" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A891" s="47">
+      <c r="A891" s="45">
         <v>43480</v>
       </c>
       <c r="B891" s="31"/>
@@ -17323,14 +17331,14 @@
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A892" s="47"/>
+      <c r="A892" s="45"/>
       <c r="B892" s="31"/>
       <c r="D892" s="14" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A893" s="47"/>
+      <c r="A893" s="45"/>
       <c r="B893" s="31"/>
       <c r="C893" s="14" t="s">
         <v>717</v>
@@ -17340,35 +17348,35 @@
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A894" s="47"/>
+      <c r="A894" s="45"/>
       <c r="B894" s="31"/>
       <c r="D894" s="14" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A895" s="47"/>
+      <c r="A895" s="45"/>
       <c r="B895" s="31"/>
       <c r="D895" s="16" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A896" s="47"/>
+      <c r="A896" s="45"/>
       <c r="B896" s="31"/>
       <c r="D896" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A897" s="47"/>
+      <c r="A897" s="45"/>
       <c r="B897" s="31"/>
       <c r="D897" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A899" s="47">
+      <c r="A899" s="45">
         <v>43481</v>
       </c>
       <c r="B899" s="31"/>
@@ -17380,7 +17388,7 @@
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A900" s="47"/>
+      <c r="A900" s="45"/>
       <c r="B900" s="31"/>
       <c r="C900" s="14" t="s">
         <v>717</v>
@@ -17390,35 +17398,35 @@
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A901" s="47"/>
+      <c r="A901" s="45"/>
       <c r="B901" s="31"/>
       <c r="D901" s="14" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A902" s="47"/>
+      <c r="A902" s="45"/>
       <c r="B902" s="31"/>
       <c r="D902" s="16" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A903" s="47"/>
+      <c r="A903" s="45"/>
       <c r="B903" s="31"/>
       <c r="D903" s="14" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A904" s="47"/>
+      <c r="A904" s="45"/>
       <c r="B904" s="31"/>
       <c r="D904" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A905" s="47"/>
+      <c r="A905" s="45"/>
       <c r="B905" s="31"/>
       <c r="D905" s="14" t="s">
         <v>767</v>
@@ -17430,7 +17438,7 @@
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A907" s="47">
+      <c r="A907" s="45">
         <v>43482</v>
       </c>
       <c r="B907" s="31"/>
@@ -17442,7 +17450,7 @@
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A908" s="47"/>
+      <c r="A908" s="45"/>
       <c r="B908" s="31"/>
       <c r="C908" s="14" t="s">
         <v>717</v>
@@ -17452,49 +17460,49 @@
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A909" s="47"/>
+      <c r="A909" s="45"/>
       <c r="B909" s="31"/>
       <c r="D909" s="14" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A910" s="47"/>
+      <c r="A910" s="45"/>
       <c r="B910" s="31"/>
       <c r="D910" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A911" s="47"/>
+      <c r="A911" s="45"/>
       <c r="B911" s="31"/>
       <c r="D911" s="16" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A912" s="47"/>
+      <c r="A912" s="45"/>
       <c r="B912" s="31"/>
       <c r="D912" s="14" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A913" s="47"/>
+      <c r="A913" s="45"/>
       <c r="B913" s="31"/>
       <c r="D913" s="14" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A914" s="47"/>
+      <c r="A914" s="45"/>
       <c r="B914" s="31"/>
       <c r="D914" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A915" s="47"/>
+      <c r="A915" s="45"/>
       <c r="B915" s="31"/>
       <c r="D915" s="14" t="s">
         <v>767</v>
@@ -17506,7 +17514,7 @@
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A917" s="47">
+      <c r="A917" s="45">
         <v>43483</v>
       </c>
       <c r="B917" s="31"/>
@@ -17518,28 +17526,28 @@
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A918" s="47"/>
+      <c r="A918" s="45"/>
       <c r="B918" s="31"/>
       <c r="D918" s="16" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A919" s="47"/>
+      <c r="A919" s="45"/>
       <c r="B919" s="31"/>
       <c r="D919" s="16" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A920" s="47"/>
+      <c r="A920" s="45"/>
       <c r="B920" s="31"/>
       <c r="D920" s="14" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A921" s="47"/>
+      <c r="A921" s="45"/>
       <c r="B921" s="31"/>
       <c r="C921" s="14" t="s">
         <v>717</v>
@@ -17549,35 +17557,35 @@
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A922" s="47"/>
+      <c r="A922" s="45"/>
       <c r="B922" s="31"/>
       <c r="D922" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A923" s="47"/>
+      <c r="A923" s="45"/>
       <c r="B923" s="31"/>
       <c r="D923" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A924" s="47"/>
+      <c r="A924" s="45"/>
       <c r="B924" s="31"/>
       <c r="D924" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A925" s="47"/>
+      <c r="A925" s="45"/>
       <c r="B925" s="31"/>
       <c r="D925" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A927" s="45">
+      <c r="A927" s="46">
         <v>43484</v>
       </c>
       <c r="B927" s="31"/>
@@ -17586,7 +17594,7 @@
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A928" s="45"/>
+      <c r="A928" s="46"/>
       <c r="B928" s="31"/>
       <c r="D928" s="14" t="s">
         <v>1110</v>
@@ -17596,7 +17604,7 @@
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A929" s="45"/>
+      <c r="A929" s="46"/>
       <c r="B929" s="31"/>
       <c r="D929" s="14" t="s">
         <v>1112</v>
@@ -17604,21 +17612,21 @@
       <c r="E929" s="44"/>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A930" s="45"/>
+      <c r="A930" s="46"/>
       <c r="B930" s="31"/>
       <c r="D930" s="14" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A931" s="45"/>
+      <c r="A931" s="46"/>
       <c r="B931" s="31"/>
       <c r="D931" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A932" s="45"/>
+      <c r="A932" s="46"/>
       <c r="B932" s="31"/>
       <c r="D932" s="14" t="s">
         <v>767</v>
@@ -17630,7 +17638,7 @@
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A934" s="45">
+      <c r="A934" s="46">
         <v>43485</v>
       </c>
       <c r="B934" s="31"/>
@@ -17639,28 +17647,28 @@
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A935" s="45"/>
+      <c r="A935" s="46"/>
       <c r="B935" s="31"/>
       <c r="D935" s="16" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A936" s="45"/>
+      <c r="A936" s="46"/>
       <c r="B936" s="31"/>
       <c r="D936" s="14" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A937" s="45"/>
+      <c r="A937" s="46"/>
       <c r="B937" s="31"/>
       <c r="D937" s="16" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A938" s="45"/>
+      <c r="A938" s="46"/>
       <c r="B938" s="31"/>
       <c r="D938" s="14" t="s">
         <v>767</v>
@@ -17672,7 +17680,7 @@
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A940" s="47">
+      <c r="A940" s="45">
         <v>43486</v>
       </c>
       <c r="B940" s="31"/>
@@ -17684,21 +17692,21 @@
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A941" s="47"/>
+      <c r="A941" s="45"/>
       <c r="B941" s="31"/>
       <c r="D941" s="14" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A942" s="47"/>
+      <c r="A942" s="45"/>
       <c r="B942" s="31"/>
       <c r="D942" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A944" s="47">
+      <c r="A944" s="45">
         <v>43487</v>
       </c>
       <c r="B944" s="31"/>
@@ -17707,14 +17715,14 @@
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A945" s="47"/>
+      <c r="A945" s="45"/>
       <c r="B945" s="31"/>
       <c r="D945" s="14" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A946" s="47"/>
+      <c r="A946" s="45"/>
       <c r="B946" s="31"/>
       <c r="C946" s="14" t="s">
         <v>717</v>
@@ -17724,21 +17732,21 @@
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A947" s="47"/>
+      <c r="A947" s="45"/>
       <c r="B947" s="31"/>
       <c r="D947" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A948" s="47"/>
+      <c r="A948" s="45"/>
       <c r="B948" s="31"/>
       <c r="D948" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A950" s="47">
+      <c r="A950" s="45">
         <v>43488</v>
       </c>
       <c r="B950" s="31"/>
@@ -17750,14 +17758,14 @@
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A951" s="47"/>
+      <c r="A951" s="45"/>
       <c r="B951" s="31"/>
       <c r="D951" s="14" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A952" s="47"/>
+      <c r="A952" s="45"/>
       <c r="B952" s="31"/>
       <c r="C952" s="14" t="s">
         <v>717</v>
@@ -17767,14 +17775,14 @@
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A953" s="47"/>
+      <c r="A953" s="45"/>
       <c r="B953" s="31"/>
       <c r="D953" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A954" s="47"/>
+      <c r="A954" s="45"/>
       <c r="B954" s="31"/>
       <c r="D954" s="14" t="s">
         <v>767</v>
@@ -17782,6 +17790,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="A868:A875"/>
+    <mergeCell ref="A877:A881"/>
+    <mergeCell ref="B574:B580"/>
+    <mergeCell ref="A572:A584"/>
+    <mergeCell ref="A231:A242"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A209:A218"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="E928:E929"/>
+    <mergeCell ref="B877:B881"/>
+    <mergeCell ref="E478:E479"/>
+    <mergeCell ref="B317:B328"/>
+    <mergeCell ref="A254:A265"/>
+    <mergeCell ref="E486:E487"/>
+    <mergeCell ref="E481:E485"/>
+    <mergeCell ref="E472:E476"/>
+    <mergeCell ref="E469:E470"/>
+    <mergeCell ref="B410:B419"/>
+    <mergeCell ref="B468:B470"/>
+    <mergeCell ref="B550:B554"/>
+    <mergeCell ref="A506:A512"/>
+    <mergeCell ref="A514:A523"/>
+    <mergeCell ref="A525:A535"/>
+    <mergeCell ref="A537:A547"/>
+    <mergeCell ref="A940:A942"/>
+    <mergeCell ref="A944:A948"/>
+    <mergeCell ref="A330:A342"/>
+    <mergeCell ref="A344:A355"/>
+    <mergeCell ref="A290:A301"/>
+    <mergeCell ref="A267:A277"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="A317:A328"/>
+    <mergeCell ref="A279:A288"/>
+    <mergeCell ref="A899:A905"/>
+    <mergeCell ref="A883:A889"/>
+    <mergeCell ref="A357:A370"/>
+    <mergeCell ref="A372:A384"/>
+    <mergeCell ref="A386:A396"/>
+    <mergeCell ref="A433:A439"/>
+    <mergeCell ref="A720:A725"/>
+    <mergeCell ref="A727:A732"/>
+    <mergeCell ref="A855:A866"/>
+    <mergeCell ref="A452:A460"/>
+    <mergeCell ref="A398:A408"/>
+    <mergeCell ref="A472:A479"/>
+    <mergeCell ref="A586:A596"/>
+    <mergeCell ref="A462:A470"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A156:A171"/>
+    <mergeCell ref="A173:A185"/>
+    <mergeCell ref="A138:A154"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A86:A102"/>
+    <mergeCell ref="A104:A118"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="A40:A55"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A187:A196"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="A696:A702"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="B472:B479"/>
+    <mergeCell ref="B498:B499"/>
+    <mergeCell ref="A481:A487"/>
+    <mergeCell ref="A489:A496"/>
+    <mergeCell ref="B481:B482"/>
+    <mergeCell ref="A498:A504"/>
+    <mergeCell ref="B462:B467"/>
+    <mergeCell ref="B398:B408"/>
+    <mergeCell ref="A441:A450"/>
+    <mergeCell ref="B441:B450"/>
+    <mergeCell ref="B433:B439"/>
+    <mergeCell ref="A421:A431"/>
+    <mergeCell ref="B421:B431"/>
+    <mergeCell ref="A410:A419"/>
+    <mergeCell ref="B538:B543"/>
+    <mergeCell ref="B526:B531"/>
+    <mergeCell ref="B634:B636"/>
+    <mergeCell ref="A613:A621"/>
+    <mergeCell ref="A623:A632"/>
+    <mergeCell ref="B561:B565"/>
+    <mergeCell ref="A560:A570"/>
+    <mergeCell ref="B588:B596"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="A598:A611"/>
+    <mergeCell ref="A634:A644"/>
     <mergeCell ref="A764:A769"/>
     <mergeCell ref="A646:A655"/>
     <mergeCell ref="A657:A664"/>
@@ -17806,99 +17907,6 @@
     <mergeCell ref="A666:A675"/>
     <mergeCell ref="A677:A686"/>
     <mergeCell ref="A688:A694"/>
-    <mergeCell ref="B538:B543"/>
-    <mergeCell ref="B526:B531"/>
-    <mergeCell ref="B634:B636"/>
-    <mergeCell ref="A613:A621"/>
-    <mergeCell ref="A623:A632"/>
-    <mergeCell ref="B561:B565"/>
-    <mergeCell ref="A560:A570"/>
-    <mergeCell ref="B588:B596"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="A598:A611"/>
-    <mergeCell ref="A634:A644"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="A40:A55"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A187:A196"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="A696:A702"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="B472:B479"/>
-    <mergeCell ref="B498:B499"/>
-    <mergeCell ref="A481:A487"/>
-    <mergeCell ref="A489:A496"/>
-    <mergeCell ref="B481:B482"/>
-    <mergeCell ref="A498:A504"/>
-    <mergeCell ref="B462:B467"/>
-    <mergeCell ref="B398:B408"/>
-    <mergeCell ref="A441:A450"/>
-    <mergeCell ref="B441:B450"/>
-    <mergeCell ref="B433:B439"/>
-    <mergeCell ref="A421:A431"/>
-    <mergeCell ref="B421:B431"/>
-    <mergeCell ref="A410:A419"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="A138:A154"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A86:A102"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="A940:A942"/>
-    <mergeCell ref="A944:A948"/>
-    <mergeCell ref="A330:A342"/>
-    <mergeCell ref="A344:A355"/>
-    <mergeCell ref="A290:A301"/>
-    <mergeCell ref="A267:A277"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="A317:A328"/>
-    <mergeCell ref="A279:A288"/>
-    <mergeCell ref="A899:A905"/>
-    <mergeCell ref="A883:A889"/>
-    <mergeCell ref="A357:A370"/>
-    <mergeCell ref="A372:A384"/>
-    <mergeCell ref="A386:A396"/>
-    <mergeCell ref="A433:A439"/>
-    <mergeCell ref="A720:A725"/>
-    <mergeCell ref="A727:A732"/>
-    <mergeCell ref="A855:A866"/>
-    <mergeCell ref="A452:A460"/>
-    <mergeCell ref="A398:A408"/>
-    <mergeCell ref="A472:A479"/>
-    <mergeCell ref="A586:A596"/>
-    <mergeCell ref="A462:A470"/>
-    <mergeCell ref="A549:A558"/>
-    <mergeCell ref="A868:A875"/>
-    <mergeCell ref="A877:A881"/>
-    <mergeCell ref="B574:B580"/>
-    <mergeCell ref="A572:A584"/>
-    <mergeCell ref="A231:A242"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="A209:A218"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="E928:E929"/>
-    <mergeCell ref="B877:B881"/>
-    <mergeCell ref="E478:E479"/>
-    <mergeCell ref="B317:B328"/>
-    <mergeCell ref="A254:A265"/>
-    <mergeCell ref="E486:E487"/>
-    <mergeCell ref="E481:E485"/>
-    <mergeCell ref="E472:E476"/>
-    <mergeCell ref="E469:E470"/>
-    <mergeCell ref="B410:B419"/>
-    <mergeCell ref="B468:B470"/>
-    <mergeCell ref="B550:B554"/>
-    <mergeCell ref="A506:A512"/>
-    <mergeCell ref="A514:A523"/>
-    <mergeCell ref="A525:A535"/>
-    <mergeCell ref="A537:A547"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17911,8 +17919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19862,88 +19870,100 @@
       <c r="A159" s="12">
         <v>43560</v>
       </c>
+      <c r="E159" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>43561</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>43562</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E161" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>43563</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E162" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>43564</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>43565</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>43566</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>43567</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>43568</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>43569</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>43570</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>43571</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>43572</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>43573</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>43574</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>43575</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>43576</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>43577</v>
       </c>
@@ -20157,7 +20177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C26 C32">
+  <conditionalFormatting sqref="C26 C28 C32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -20544,8 +20564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEA660-F3A9-4FE7-84D5-616D2933D321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D22D7-CF04-4044-BDD0-7D359E2F1F5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="1140" windowWidth="15915" windowHeight="13650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,13 @@
     <sheet name="体温" sheetId="7" r:id="rId4"/>
     <sheet name="行程" sheetId="11" r:id="rId5"/>
     <sheet name="检查报告" sheetId="9" r:id="rId6"/>
-    <sheet name="月经" sheetId="4" r:id="rId7"/>
-    <sheet name="经期记录" sheetId="10" r:id="rId8"/>
-    <sheet name="血型" sheetId="5" r:id="rId9"/>
-    <sheet name="黄帝内经" sheetId="3" r:id="rId10"/>
-    <sheet name="食疗" sheetId="13" r:id="rId11"/>
-    <sheet name=" " sheetId="12" r:id="rId12"/>
+    <sheet name="torch" sheetId="14" r:id="rId7"/>
+    <sheet name="月经" sheetId="4" r:id="rId8"/>
+    <sheet name="经期记录" sheetId="10" r:id="rId9"/>
+    <sheet name="血型" sheetId="5" r:id="rId10"/>
+    <sheet name="黄帝内经" sheetId="3" r:id="rId11"/>
+    <sheet name="食疗" sheetId="13" r:id="rId12"/>
+    <sheet name=" " sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">体温!$C$2:$C$36</definedName>
@@ -161,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1241">
   <si>
     <t>病毒四项</t>
   </si>
@@ -6482,11 +6483,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叶酸片 涂维E唇号转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午 月经来 无征兆</t>
+    <t>叶酸片 涂维E唇好转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨到早上量正常，色暗红，有血块，白带样粘稠，小腹隐痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶酸片 上午 月经来 无征兆 偏头疼 中午躺着睡觉开始小腹痛 下午喝红糖水 趴下睡了一小时 好转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午 月经来 无征兆 偏头疼 中午躺着睡觉开始小腹痛 下午喝红糖水 趴下睡了一小时 好转</t>
+  </si>
+  <si>
+    <t>叶酸片 量正常，色暗红，有血块，白带样粘稠，小腹隐痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯疱疹病毒IgM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯疱疹病毒IgG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风疹病毒IgM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风疹病毒IgG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨细胞病毒IgM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨细胞病毒IgG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓形体IgM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓形体IgG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1型 0.769 &lt;1
+2型 0.084 &lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卵泡期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排卵期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄体期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝经期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12-10.89mU/ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.18-103.03mU/ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2-12.86mU/ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.87-58.64mU/ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7085,7 +7214,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7861,6 +7990,100 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D33"/>
@@ -8071,12 +8294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5030B7B-1A9A-40BE-AC1C-4F6B6B0F8165}">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9846,7 +10069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -17919,8 +18142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19895,12 +20118,15 @@
         <v>43563</v>
       </c>
       <c r="E162" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>43564</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -20562,10 +20788,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:N15"/>
+  <dimension ref="B3:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20579,6 +20805,9 @@
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -20923,6 +21152,72 @@
       </c>
       <c r="N15">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>20190410</v>
+      </c>
+      <c r="C16" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16">
+        <v>28.65</v>
+      </c>
+      <c r="E16">
+        <v>29.1</v>
+      </c>
+      <c r="F16">
+        <v>0.22</v>
+      </c>
+      <c r="G16">
+        <v>18.96</v>
+      </c>
+      <c r="H16">
+        <v>6.75</v>
+      </c>
+      <c r="I16">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -21077,11 +21372,182 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C84F3C7-DAA7-407D-A17F-3A2B8212F6AE}">
+  <dimension ref="B3:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>20190305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5">
+        <v>1.43</v>
+      </c>
+      <c r="E5">
+        <v>27.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G5">
+        <v>161</v>
+      </c>
+      <c r="H5">
+        <v>5.8</v>
+      </c>
+      <c r="I5">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>20190308</v>
+      </c>
+      <c r="C6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>20190410</v>
+      </c>
+      <c r="C7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7">
+        <v>1.32</v>
+      </c>
+      <c r="E7">
+        <v>27.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D5:D7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21168,12 +21634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21364,103 +21830,45 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>43563</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>43564</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>43568</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pre.xlsx
+++ b/pre.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D22D7-CF04-4044-BDD0-7D359E2F1F5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051FEBCA-F2D3-4D88-B539-83BDCCA6B8C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="饮食" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="1248">
   <si>
     <t>病毒四项</t>
   </si>
@@ -5275,14 +5275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优思悦-白 晚间疑似阴道出血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优思悦-白 晚AA未遂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>早 月经开始 量正常 血块多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6332,10 +6324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月经收尾 来曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>来曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6364,18 +6352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胃痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃痛 瑞巴派特片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃痛 瑞巴派特片 尿促</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6448,10 +6424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胃痛好转 促排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凌晨3点AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6467,39 +6439,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左小腹隐痛 叶酸片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌晨3点半AA 叶酸片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶酸片 唇干裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HCG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叶酸片 涂维E唇好转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凌晨到早上量正常，色暗红，有血块，白带样粘稠，小腹隐痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叶酸片 上午 月经来 无征兆 偏头疼 中午躺着睡觉开始小腹痛 下午喝红糖水 趴下睡了一小时 好转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上午 月经来 无征兆 偏头疼 中午躺着睡觉开始小腹痛 下午喝红糖水 趴下睡了一小时 好转</t>
-  </si>
-  <si>
-    <t>叶酸片 量正常，色暗红，有血块，白带样粘稠，小腹隐痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参考范围</t>
@@ -6616,6 +6564,81 @@
   </si>
   <si>
     <t>参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">优思悦-白 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚间疑似阴道出血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚AA未遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">月经收尾 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来曲</t>
+  </si>
+  <si>
+    <t>凌晨3点半AA</t>
+  </si>
+  <si>
+    <t>左小腹隐痛</t>
+  </si>
+  <si>
+    <t>胃痛好转</t>
+  </si>
+  <si>
+    <t>胃痛</t>
+  </si>
+  <si>
+    <t>瑞巴派特片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞巴派特片 尿促</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇干裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂维E唇好转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午 月经来 无征兆 偏头疼 中午躺着睡觉开始小腹痛 下午喝红糖水 趴下睡了一小时 好转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量正常，色暗红，有血块，白带样粘稠，小腹隐痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量偏少，色暗红，有血块，白带样粘稠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶酸片 优思悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶酸片 优思悦 四物汤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6870,7 +6893,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6889,6 +6911,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7303,7 +7326,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -7338,7 +7361,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -8298,8 +8321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5030B7B-1A9A-40BE-AC1C-4F6B6B0F8165}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8327,7 +8350,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B1" s="16">
         <v>1</v>
@@ -8337,16 +8360,16 @@
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>84</v>
@@ -8355,32 +8378,32 @@
         <v>85</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -8393,16 +8416,16 @@
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>84</v>
@@ -8411,32 +8434,32 @@
         <v>85</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -8449,16 +8472,16 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>84</v>
@@ -8467,32 +8490,32 @@
         <v>85</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -8505,16 +8528,16 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>84</v>
@@ -8523,32 +8546,32 @@
         <v>85</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -8561,16 +8584,16 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>84</v>
@@ -8579,37 +8602,37 @@
         <v>85</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -8619,16 +8642,16 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>84</v>
@@ -8637,37 +8660,37 @@
         <v>85</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>238</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>89</v>
@@ -8683,16 +8706,16 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>84</v>
@@ -8701,28 +8724,28 @@
         <v>85</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>238</v>
@@ -8731,7 +8754,7 @@
         <v>294</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>89</v>
@@ -8747,16 +8770,16 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>84</v>
@@ -8765,28 +8788,28 @@
         <v>85</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>238</v>
@@ -8795,7 +8818,7 @@
         <v>294</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>89</v>
@@ -8811,16 +8834,16 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>84</v>
@@ -8829,28 +8852,28 @@
         <v>85</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>238</v>
@@ -8859,7 +8882,7 @@
         <v>294</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>89</v>
@@ -8875,16 +8898,16 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>84</v>
@@ -8893,37 +8916,37 @@
         <v>85</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>238</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>89</v>
@@ -8939,16 +8962,16 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>84</v>
@@ -8957,28 +8980,28 @@
         <v>85</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>238</v>
@@ -8987,7 +9010,7 @@
         <v>294</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>89</v>
@@ -9003,16 +9026,16 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>84</v>
@@ -9021,28 +9044,28 @@
         <v>85</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>238</v>
@@ -9051,7 +9074,7 @@
         <v>294</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>89</v>
@@ -9066,19 +9089,19 @@
         <v>245</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>84</v>
@@ -9087,28 +9110,28 @@
         <v>85</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>238</v>
@@ -9117,10 +9140,10 @@
         <v>294</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -9132,19 +9155,19 @@
         <v>245</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>84</v>
@@ -9153,909 +9176,909 @@
         <v>85</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>238</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B15" s="42">
+        <v>1154</v>
+      </c>
+      <c r="B15" s="41">
         <v>15</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q15" s="41" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R15" s="41" t="s">
         <v>1150</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="42" t="s">
+      <c r="S15" s="41" t="s">
         <v>1134</v>
       </c>
-      <c r="L15" s="42" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N15" s="42" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O15" s="42" t="s">
-        <v>1138</v>
-      </c>
-      <c r="P15" s="42" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q15" s="42" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R15" s="42" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S15" s="42" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T15" s="42" t="s">
+      <c r="T15" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
-      <c r="B16" s="42">
+      <c r="B16" s="41">
         <v>16</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q16" s="41" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R16" s="41" t="s">
         <v>1150</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="42" t="s">
+      <c r="S16" s="41" t="s">
         <v>1134</v>
       </c>
-      <c r="L16" s="42" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N16" s="42" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O16" s="42" t="s">
-        <v>1138</v>
-      </c>
-      <c r="P16" s="42" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q16" s="42" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R16" s="42" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S16" s="42" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T16" s="42" t="s">
+      <c r="T16" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>17</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R17" s="32" t="s">
         <v>1150</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="33" t="s">
+      <c r="S17" s="32" t="s">
         <v>1134</v>
       </c>
-      <c r="L17" s="33" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N17" s="33" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>1138</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
-      <c r="B18" s="43">
+      <c r="B18" s="42">
         <v>18</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R18" s="42" t="s">
         <v>1150</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="43" t="s">
+      <c r="S18" s="42" t="s">
         <v>1134</v>
       </c>
-      <c r="L18" s="43" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>1138</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q18" s="43" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R18" s="43" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S18" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="T18" s="42" t="s">
+        <v>1137</v>
+      </c>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>19</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R19" s="32" t="s">
         <v>1150</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L19" s="33" t="s">
+      <c r="S19" s="32" t="s">
         <v>1135</v>
       </c>
-      <c r="M19" s="33" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>1138</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S19" s="33" t="s">
-        <v>1137</v>
-      </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>20</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R20" s="41" t="s">
         <v>1150</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="42" t="s">
+      <c r="S20" s="41" t="s">
         <v>1134</v>
       </c>
-      <c r="L20" s="42" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>1138</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q20" s="42" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S20" s="42" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
-      <c r="B21" s="42">
+      <c r="B21" s="41">
         <v>21</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q21" s="41" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R21" s="41" t="s">
         <v>1150</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="42" t="s">
+      <c r="S21" s="41" t="s">
         <v>1134</v>
       </c>
-      <c r="L21" s="42" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>1138</v>
-      </c>
-      <c r="P21" s="42" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q21" s="42" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S21" s="42" t="s">
-        <v>1136</v>
-      </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="57" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B22" s="41">
+        <v>1155</v>
+      </c>
+      <c r="B22" s="40">
         <v>22</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q22" s="40" t="s">
         <v>1151</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L22" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M22" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O22" s="41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P22" s="41" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q22" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R22" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S22" s="41" t="s">
+      <c r="R22" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S22" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="T22" s="41" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
+      <c r="T22" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
-      <c r="B23" s="41">
+      <c r="B23" s="40">
         <v>23</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q23" s="40" t="s">
         <v>1151</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L23" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M23" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N23" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O23" s="41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P23" s="41" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q23" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R23" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S23" s="41" t="s">
+      <c r="R23" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S23" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="T23" s="41" t="s">
+      <c r="T23" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
-      <c r="B24" s="41">
+      <c r="B24" s="40">
         <v>24</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q24" s="40" t="s">
         <v>1151</v>
       </c>
-      <c r="E24" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L24" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N24" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O24" s="41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P24" s="41" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q24" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R24" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S24" s="41" t="s">
+      <c r="R24" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S24" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="T24" s="41" t="s">
+      <c r="T24" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <v>25</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N25" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q25" s="40" t="s">
         <v>1151</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L25" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M25" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N25" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O25" s="41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P25" s="41" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q25" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R25" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S25" s="41" t="s">
+      <c r="R25" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S25" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="T25" s="41" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
+      <c r="T25" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
-      <c r="B26" s="41">
+      <c r="B26" s="40">
         <v>26</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P26" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q26" s="40" t="s">
         <v>1151</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K26" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L26" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M26" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N26" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P26" s="41" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q26" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R26" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S26" s="41" t="s">
+      <c r="R26" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S26" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="T26" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
-      <c r="B27" s="41">
+      <c r="B27" s="40">
         <v>27</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G27" s="41" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="40" t="s">
         <v>1128</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="F27" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N27" s="40" t="s">
         <v>1145</v>
       </c>
-      <c r="I27" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J27" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N27" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O27" s="41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P27" s="41" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q27" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R27" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S27" s="41" t="s">
+      <c r="O27" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P27" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R27" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S27" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="T27" s="41" t="s">
+      <c r="T27" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>28</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G28" s="41" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="40" t="s">
         <v>1128</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="F28" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N28" s="40" t="s">
         <v>1145</v>
       </c>
-      <c r="I28" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L28" s="41" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N28" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O28" s="41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P28" s="41" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q28" s="41" t="s">
-        <v>1153</v>
-      </c>
-      <c r="R28" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S28" s="41" t="s">
+      <c r="O28" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Q28" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R28" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S28" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="T28" s="41" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
+      <c r="T28" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10088,7 +10111,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="40">
+      <c r="A1" s="39">
         <v>43453</v>
       </c>
       <c r="B1" t="s">
@@ -10111,27 +10134,27 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>43475</v>
       </c>
       <c r="B2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="D2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1067</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14607,7 +14630,7 @@
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="45"/>
-      <c r="B483" s="30" t="s">
+      <c r="B483" s="29" t="s">
         <v>739</v>
       </c>
       <c r="C483" s="14" t="s">
@@ -14646,7 +14669,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="45"/>
-      <c r="B487" s="30" t="s">
+      <c r="B487" s="29" t="s">
         <v>377</v>
       </c>
       <c r="D487" s="14" t="s">
@@ -14676,7 +14699,7 @@
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="45"/>
-      <c r="B491" s="30" t="s">
+      <c r="B491" s="29" t="s">
         <v>739</v>
       </c>
       <c r="C491" s="14" t="s">
@@ -14746,7 +14769,7 @@
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="45"/>
-      <c r="B500" s="30" t="s">
+      <c r="B500" s="29" t="s">
         <v>739</v>
       </c>
       <c r="D500" s="14" t="s">
@@ -14791,7 +14814,7 @@
       <c r="A506" s="46">
         <v>43442</v>
       </c>
-      <c r="B506" s="31"/>
+      <c r="B506" s="30"/>
       <c r="C506" t="s">
         <v>662</v>
       </c>
@@ -14845,14 +14868,14 @@
       <c r="A514" s="46">
         <v>43443</v>
       </c>
-      <c r="B514" s="31"/>
+      <c r="B514" s="30"/>
       <c r="D514" s="14" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="46"/>
-      <c r="B515" s="31"/>
+      <c r="B515" s="30"/>
       <c r="C515" t="s">
         <v>473</v>
       </c>
@@ -14920,7 +14943,7 @@
       <c r="A525" s="45">
         <v>43444</v>
       </c>
-      <c r="B525" s="31" t="s">
+      <c r="B525" s="30" t="s">
         <v>377</v>
       </c>
       <c r="C525" t="s">
@@ -15009,7 +15032,7 @@
       <c r="A537" s="45">
         <v>43445</v>
       </c>
-      <c r="B537" s="31"/>
+      <c r="B537" s="30"/>
       <c r="C537" t="s">
         <v>790</v>
       </c>
@@ -15096,7 +15119,7 @@
       <c r="A549" s="45">
         <v>43446</v>
       </c>
-      <c r="B549" s="31"/>
+      <c r="B549" s="30"/>
       <c r="C549" t="s">
         <v>796</v>
       </c>
@@ -15176,7 +15199,7 @@
       <c r="A560" s="45">
         <v>43447</v>
       </c>
-      <c r="B560" s="31"/>
+      <c r="B560" s="30"/>
       <c r="C560" t="s">
         <v>636</v>
       </c>
@@ -15226,7 +15249,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="45"/>
-      <c r="B566" s="30" t="s">
+      <c r="B566" s="29" t="s">
         <v>852</v>
       </c>
       <c r="D566" s="14" t="s">
@@ -15265,14 +15288,14 @@
       <c r="A572" s="45">
         <v>43448</v>
       </c>
-      <c r="B572" s="31"/>
+      <c r="B572" s="30"/>
       <c r="D572" s="16" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="45"/>
-      <c r="B573" s="31"/>
+      <c r="B573" s="30"/>
       <c r="C573" t="s">
         <v>853</v>
       </c>
@@ -15336,7 +15359,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="45"/>
-      <c r="B581" s="30"/>
+      <c r="B581" s="29"/>
       <c r="D581" s="14" t="s">
         <v>266</v>
       </c>
@@ -15370,14 +15393,14 @@
       <c r="A586" s="46">
         <v>43449</v>
       </c>
-      <c r="B586" s="31"/>
+      <c r="B586" s="30"/>
       <c r="D586" s="16" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="46"/>
-      <c r="B587" s="31"/>
+      <c r="B587" s="30"/>
       <c r="C587" t="s">
         <v>865</v>
       </c>
@@ -15454,14 +15477,14 @@
       <c r="A598" s="46">
         <v>43450</v>
       </c>
-      <c r="B598" s="31"/>
+      <c r="B598" s="30"/>
       <c r="D598" s="16" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="46"/>
-      <c r="B599" s="31"/>
+      <c r="B599" s="30"/>
       <c r="C599" t="s">
         <v>873</v>
       </c>
@@ -15471,63 +15494,63 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="46"/>
-      <c r="B600" s="31"/>
+      <c r="B600" s="30"/>
       <c r="D600" s="16" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="46"/>
-      <c r="B601" s="31"/>
+      <c r="B601" s="30"/>
       <c r="D601" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="46"/>
-      <c r="B602" s="31"/>
+      <c r="B602" s="30"/>
       <c r="D602" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="46"/>
-      <c r="B603" s="31"/>
+      <c r="B603" s="30"/>
       <c r="D603" s="14" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="46"/>
-      <c r="B604" s="31"/>
+      <c r="B604" s="30"/>
       <c r="D604" s="14" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="46"/>
-      <c r="B605" s="31"/>
+      <c r="B605" s="30"/>
       <c r="D605" s="14" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="46"/>
-      <c r="B606" s="31"/>
+      <c r="B606" s="30"/>
       <c r="D606" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="46"/>
-      <c r="B607" s="31"/>
+      <c r="B607" s="30"/>
       <c r="D607" s="14" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="46"/>
-      <c r="B608" s="30"/>
+      <c r="B608" s="29"/>
       <c r="D608" s="14" t="s">
         <v>266</v>
       </c>
@@ -15557,7 +15580,7 @@
       <c r="A613" s="45">
         <v>43451</v>
       </c>
-      <c r="B613" s="31"/>
+      <c r="B613" s="30"/>
       <c r="C613" t="s">
         <v>662</v>
       </c>
@@ -15567,14 +15590,14 @@
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="45"/>
-      <c r="B614" s="31"/>
+      <c r="B614" s="30"/>
       <c r="D614" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="45"/>
-      <c r="B615" s="31"/>
+      <c r="B615" s="30"/>
       <c r="C615" s="14" t="s">
         <v>717</v>
       </c>
@@ -15584,7 +15607,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="45"/>
-      <c r="B616" s="31"/>
+      <c r="B616" s="30"/>
       <c r="C616" s="14"/>
       <c r="D616" s="14" t="s">
         <v>882</v>
@@ -15592,21 +15615,21 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="45"/>
-      <c r="B617" s="31"/>
+      <c r="B617" s="30"/>
       <c r="D617" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="45"/>
-      <c r="B618" s="31"/>
+      <c r="B618" s="30"/>
       <c r="D618" s="14" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="45"/>
-      <c r="B619" s="30"/>
+      <c r="B619" s="29"/>
       <c r="D619" s="14" t="s">
         <v>856</v>
       </c>
@@ -15629,7 +15652,7 @@
       <c r="A623" s="45">
         <v>43452</v>
       </c>
-      <c r="B623" s="31"/>
+      <c r="B623" s="30"/>
       <c r="C623" t="s">
         <v>662</v>
       </c>
@@ -15639,28 +15662,28 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="45"/>
-      <c r="B624" s="31"/>
+      <c r="B624" s="30"/>
       <c r="D624" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" s="45"/>
-      <c r="B625" s="31"/>
+      <c r="B625" s="30"/>
       <c r="D625" s="14" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" s="45"/>
-      <c r="B626" s="31"/>
+      <c r="B626" s="30"/>
       <c r="D626" s="14" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" s="45"/>
-      <c r="B627" s="31"/>
+      <c r="B627" s="30"/>
       <c r="C627" s="14" t="s">
         <v>717</v>
       </c>
@@ -15739,7 +15762,7 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" s="45"/>
-      <c r="B637" s="31"/>
+      <c r="B637" s="30"/>
       <c r="C637" s="14" t="s">
         <v>717</v>
       </c>
@@ -15749,35 +15772,35 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" s="45"/>
-      <c r="B638" s="31"/>
+      <c r="B638" s="30"/>
       <c r="D638" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" s="45"/>
-      <c r="B639" s="31"/>
+      <c r="B639" s="30"/>
       <c r="D639" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640" s="45"/>
-      <c r="B640" s="31"/>
+      <c r="B640" s="30"/>
       <c r="D640" s="14" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="45"/>
-      <c r="B641" s="31"/>
+      <c r="B641" s="30"/>
       <c r="D641" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="45"/>
-      <c r="B642" s="30"/>
+      <c r="B642" s="29"/>
       <c r="D642" s="14" t="s">
         <v>319</v>
       </c>
@@ -15800,7 +15823,7 @@
       <c r="A646" s="45">
         <v>43454</v>
       </c>
-      <c r="B646" s="31"/>
+      <c r="B646" s="30"/>
       <c r="C646" t="s">
         <v>905</v>
       </c>
@@ -15810,21 +15833,21 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="45"/>
-      <c r="B647" s="31"/>
+      <c r="B647" s="30"/>
       <c r="D647" s="14" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="45"/>
-      <c r="B648" s="31"/>
+      <c r="B648" s="30"/>
       <c r="D648" s="14" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="45"/>
-      <c r="B649" s="31"/>
+      <c r="B649" s="30"/>
       <c r="C649" s="14" t="s">
         <v>717</v>
       </c>
@@ -15834,28 +15857,28 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="45"/>
-      <c r="B650" s="31"/>
+      <c r="B650" s="30"/>
       <c r="D650" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="45"/>
-      <c r="B651" s="31"/>
+      <c r="B651" s="30"/>
       <c r="D651" s="14" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="45"/>
-      <c r="B652" s="31"/>
+      <c r="B652" s="30"/>
       <c r="D652" s="14" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="45"/>
-      <c r="B653" s="30"/>
+      <c r="B653" s="29"/>
       <c r="D653" s="14" t="s">
         <v>913</v>
       </c>
@@ -15878,7 +15901,7 @@
       <c r="A657" s="45">
         <v>43455</v>
       </c>
-      <c r="B657" s="31"/>
+      <c r="B657" s="30"/>
       <c r="C657" t="s">
         <v>275</v>
       </c>
@@ -15888,21 +15911,21 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" s="45"/>
-      <c r="B658" s="31"/>
+      <c r="B658" s="30"/>
       <c r="D658" s="14" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="45"/>
-      <c r="B659" s="31"/>
+      <c r="B659" s="30"/>
       <c r="D659" s="14" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" s="45"/>
-      <c r="B660" s="31"/>
+      <c r="B660" s="30"/>
       <c r="C660" s="14" t="s">
         <v>717</v>
       </c>
@@ -15912,14 +15935,14 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" s="45"/>
-      <c r="B661" s="31"/>
+      <c r="B661" s="30"/>
       <c r="D661" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="45"/>
-      <c r="B662" s="31"/>
+      <c r="B662" s="30"/>
       <c r="D662" s="14" t="s">
         <v>915</v>
       </c>
@@ -15942,7 +15965,7 @@
       <c r="A666" s="46">
         <v>43456</v>
       </c>
-      <c r="B666" s="31"/>
+      <c r="B666" s="30"/>
       <c r="C666" t="s">
         <v>662</v>
       </c>
@@ -15952,49 +15975,49 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" s="46"/>
-      <c r="B667" s="31"/>
+      <c r="B667" s="30"/>
       <c r="D667" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" s="46"/>
-      <c r="B668" s="31"/>
+      <c r="B668" s="30"/>
       <c r="D668" s="14" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="46"/>
-      <c r="B669" s="31"/>
+      <c r="B669" s="30"/>
       <c r="D669" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" s="46"/>
-      <c r="B670" s="31"/>
+      <c r="B670" s="30"/>
       <c r="D670" s="14" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" s="46"/>
-      <c r="B671" s="31"/>
+      <c r="B671" s="30"/>
       <c r="D671" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" s="46"/>
-      <c r="B672" s="31"/>
+      <c r="B672" s="30"/>
       <c r="D672" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="46"/>
-      <c r="B673" s="31"/>
+      <c r="B673" s="30"/>
       <c r="D673" s="14" t="s">
         <v>924</v>
       </c>
@@ -16017,7 +16040,7 @@
       <c r="A677" s="46">
         <v>43457</v>
       </c>
-      <c r="B677" s="31"/>
+      <c r="B677" s="30"/>
       <c r="C677" t="s">
         <v>662</v>
       </c>
@@ -16027,49 +16050,49 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" s="46"/>
-      <c r="B678" s="31"/>
+      <c r="B678" s="30"/>
       <c r="D678" s="16" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" s="46"/>
-      <c r="B679" s="31"/>
+      <c r="B679" s="30"/>
       <c r="D679" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="46"/>
-      <c r="B680" s="31"/>
+      <c r="B680" s="30"/>
       <c r="D680" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" s="46"/>
-      <c r="B681" s="31"/>
+      <c r="B681" s="30"/>
       <c r="D681" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" s="46"/>
-      <c r="B682" s="31"/>
+      <c r="B682" s="30"/>
       <c r="D682" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="46"/>
-      <c r="B683" s="31"/>
+      <c r="B683" s="30"/>
       <c r="D683" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" s="46"/>
-      <c r="B684" s="30"/>
+      <c r="B684" s="29"/>
       <c r="D684" s="14" t="s">
         <v>930</v>
       </c>
@@ -16092,7 +16115,7 @@
       <c r="A688" s="45">
         <v>43458</v>
       </c>
-      <c r="B688" s="31"/>
+      <c r="B688" s="30"/>
       <c r="C688" t="s">
         <v>932</v>
       </c>
@@ -16102,14 +16125,14 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="45"/>
-      <c r="B689" s="31"/>
+      <c r="B689" s="30"/>
       <c r="D689" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="45"/>
-      <c r="B690" s="31"/>
+      <c r="B690" s="30"/>
       <c r="C690" s="14" t="s">
         <v>717</v>
       </c>
@@ -16119,21 +16142,21 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" s="45"/>
-      <c r="B691" s="31"/>
+      <c r="B691" s="30"/>
       <c r="D691" s="14" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="45"/>
-      <c r="B692" s="31"/>
+      <c r="B692" s="30"/>
       <c r="D692" s="14" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="45"/>
-      <c r="B693" s="31"/>
+      <c r="B693" s="30"/>
       <c r="D693" s="14" t="s">
         <v>944</v>
       </c>
@@ -16149,7 +16172,7 @@
       <c r="A696" s="45">
         <v>43459</v>
       </c>
-      <c r="B696" s="31"/>
+      <c r="B696" s="30"/>
       <c r="C696" t="s">
         <v>935</v>
       </c>
@@ -16159,14 +16182,14 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" s="45"/>
-      <c r="B697" s="31"/>
+      <c r="B697" s="30"/>
       <c r="D697" s="14" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" s="45"/>
-      <c r="B698" s="31"/>
+      <c r="B698" s="30"/>
       <c r="C698" s="14" t="s">
         <v>947</v>
       </c>
@@ -16176,14 +16199,14 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" s="45"/>
-      <c r="B699" s="31"/>
+      <c r="B699" s="30"/>
       <c r="D699" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="45"/>
-      <c r="B700" s="31"/>
+      <c r="B700" s="30"/>
       <c r="D700" s="14" t="s">
         <v>946</v>
       </c>
@@ -16206,7 +16229,7 @@
       <c r="A704" s="45">
         <v>43460</v>
       </c>
-      <c r="B704" s="31" t="s">
+      <c r="B704" s="30" t="s">
         <v>941</v>
       </c>
       <c r="C704" t="s">
@@ -16218,14 +16241,14 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="45"/>
-      <c r="B705" s="31"/>
+      <c r="B705" s="30"/>
       <c r="D705" s="14" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="45"/>
-      <c r="B706" s="31"/>
+      <c r="B706" s="30"/>
       <c r="C706" s="14" t="s">
         <v>947</v>
       </c>
@@ -16235,14 +16258,14 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="45"/>
-      <c r="B707" s="31"/>
+      <c r="B707" s="30"/>
       <c r="D707" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="45"/>
-      <c r="B708" s="31"/>
+      <c r="B708" s="30"/>
       <c r="D708" s="14" t="s">
         <v>953</v>
       </c>
@@ -16258,7 +16281,7 @@
       <c r="A711" s="45">
         <v>43461</v>
       </c>
-      <c r="B711" s="31"/>
+      <c r="B711" s="30"/>
       <c r="C711" t="s">
         <v>662</v>
       </c>
@@ -16268,14 +16291,14 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" s="45"/>
-      <c r="B712" s="31"/>
+      <c r="B712" s="30"/>
       <c r="D712" s="14" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" s="45"/>
-      <c r="B713" s="31"/>
+      <c r="B713" s="30"/>
       <c r="C713" s="14" t="s">
         <v>717</v>
       </c>
@@ -16285,21 +16308,21 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" s="45"/>
-      <c r="B714" s="31"/>
+      <c r="B714" s="30"/>
       <c r="D714" s="14" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="45"/>
-      <c r="B715" s="31"/>
+      <c r="B715" s="30"/>
       <c r="D715" s="14" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="45"/>
-      <c r="B716" s="31"/>
+      <c r="B716" s="30"/>
       <c r="D716" s="14" t="s">
         <v>956</v>
       </c>
@@ -16322,7 +16345,7 @@
       <c r="A720" s="45">
         <v>43462</v>
       </c>
-      <c r="B720" s="31"/>
+      <c r="B720" s="30"/>
       <c r="C720" t="s">
         <v>275</v>
       </c>
@@ -16332,14 +16355,14 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="45"/>
-      <c r="B721" s="31"/>
+      <c r="B721" s="30"/>
       <c r="D721" s="14" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="45"/>
-      <c r="B722" s="31"/>
+      <c r="B722" s="30"/>
       <c r="C722" s="14" t="s">
         <v>717</v>
       </c>
@@ -16349,7 +16372,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="45"/>
-      <c r="B723" s="31"/>
+      <c r="B723" s="30"/>
       <c r="D723" s="14" t="s">
         <v>798</v>
       </c>
@@ -16372,7 +16395,7 @@
       <c r="A727" s="46">
         <v>43463</v>
       </c>
-      <c r="B727" s="31"/>
+      <c r="B727" s="30"/>
       <c r="C727" t="s">
         <v>662</v>
       </c>
@@ -16382,7 +16405,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" s="46"/>
-      <c r="B728" s="31"/>
+      <c r="B728" s="30"/>
       <c r="C728" s="14" t="s">
         <v>717</v>
       </c>
@@ -16392,14 +16415,14 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" s="46"/>
-      <c r="B729" s="31"/>
+      <c r="B729" s="30"/>
       <c r="D729" s="14" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" s="46"/>
-      <c r="B730" s="31"/>
+      <c r="B730" s="30"/>
       <c r="D730" s="14" t="s">
         <v>798</v>
       </c>
@@ -16422,42 +16445,42 @@
       <c r="A734" s="46">
         <v>43464</v>
       </c>
-      <c r="B734" s="31"/>
+      <c r="B734" s="30"/>
       <c r="D734" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="46"/>
-      <c r="B735" s="31"/>
+      <c r="B735" s="30"/>
       <c r="D735" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" s="46"/>
-      <c r="B736" s="31"/>
+      <c r="B736" s="30"/>
       <c r="D736" s="14" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" s="46"/>
-      <c r="B737" s="31"/>
+      <c r="B737" s="30"/>
       <c r="D737" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" s="46"/>
-      <c r="B738" s="31"/>
+      <c r="B738" s="30"/>
       <c r="D738" s="14" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" s="46"/>
-      <c r="B739" s="30"/>
+      <c r="B739" s="29"/>
       <c r="D739" s="14" t="s">
         <v>930</v>
       </c>
@@ -16480,7 +16503,7 @@
       <c r="A743" s="45">
         <v>43465</v>
       </c>
-      <c r="B743" s="31"/>
+      <c r="B743" s="30"/>
       <c r="C743" t="s">
         <v>275</v>
       </c>
@@ -16490,21 +16513,21 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="45"/>
-      <c r="B744" s="31"/>
+      <c r="B744" s="30"/>
       <c r="D744" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A745" s="45"/>
-      <c r="B745" s="31"/>
+      <c r="B745" s="30"/>
       <c r="D745" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" s="45"/>
-      <c r="B746" s="31"/>
+      <c r="B746" s="30"/>
       <c r="D746" s="14" t="s">
         <v>798</v>
       </c>
@@ -16529,28 +16552,28 @@
       <c r="A750" s="45">
         <v>43466</v>
       </c>
-      <c r="B750" s="31"/>
+      <c r="B750" s="30"/>
       <c r="D750" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" s="45"/>
-      <c r="B751" s="31"/>
+      <c r="B751" s="30"/>
       <c r="D751" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" s="45"/>
-      <c r="B752" s="31"/>
+      <c r="B752" s="30"/>
       <c r="D752" s="14" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A753" s="45"/>
-      <c r="B753" s="31"/>
+      <c r="B753" s="30"/>
       <c r="D753" s="14" t="s">
         <v>964</v>
       </c>
@@ -16575,7 +16598,7 @@
       <c r="A757" s="45">
         <v>43467</v>
       </c>
-      <c r="B757" s="31" t="s">
+      <c r="B757" s="30" t="s">
         <v>968</v>
       </c>
       <c r="C757" t="s">
@@ -16587,8 +16610,8 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" s="45"/>
-      <c r="B758" s="31" t="s">
-        <v>976</v>
+      <c r="B758" s="30" t="s">
+        <v>974</v>
       </c>
       <c r="D758" s="14" t="s">
         <v>965</v>
@@ -16596,20 +16619,20 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A759" s="45"/>
-      <c r="B759" s="31" t="s">
-        <v>996</v>
+      <c r="B759" s="30" t="s">
+        <v>994</v>
       </c>
       <c r="C759" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D759" s="14" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A760" s="45"/>
-      <c r="B760" s="31" t="s">
-        <v>997</v>
+      <c r="B760" s="30" t="s">
+        <v>995</v>
       </c>
       <c r="D760" s="14" t="s">
         <v>798</v>
@@ -16631,36 +16654,36 @@
       <c r="A764" s="45">
         <v>43468</v>
       </c>
-      <c r="B764" s="31" t="s">
-        <v>994</v>
+      <c r="B764" s="30" t="s">
+        <v>992</v>
       </c>
       <c r="C764" t="s">
         <v>934</v>
       </c>
       <c r="D764" s="14" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A765" s="45"/>
-      <c r="B765" s="31"/>
+      <c r="B765" s="30"/>
       <c r="D765" s="14" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A766" s="45"/>
-      <c r="B766" s="31"/>
+      <c r="B766" s="30"/>
       <c r="C766" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D766" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A767" s="45"/>
-      <c r="B767" s="31"/>
+      <c r="B767" s="30"/>
       <c r="D767" s="14" t="s">
         <v>798</v>
       </c>
@@ -16681,31 +16704,31 @@
       <c r="A771" s="45">
         <v>43469</v>
       </c>
-      <c r="B771" s="31" t="s">
-        <v>995</v>
+      <c r="B771" s="30" t="s">
+        <v>993</v>
       </c>
       <c r="C771" t="s">
         <v>934</v>
       </c>
       <c r="D771" s="14" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A772" s="45"/>
-      <c r="B772" s="31"/>
+      <c r="B772" s="30"/>
       <c r="C772" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D772" s="14" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A773" s="45"/>
-      <c r="B773" s="31"/>
+      <c r="B773" s="30"/>
       <c r="D773" s="14" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
@@ -16719,33 +16742,33 @@
       <c r="A776" s="46">
         <v>43470</v>
       </c>
-      <c r="B776" s="31"/>
+      <c r="B776" s="30"/>
       <c r="C776" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D776" s="14" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A777" s="46"/>
-      <c r="B777" s="31"/>
+      <c r="B777" s="30"/>
       <c r="D777" s="14" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A778" s="46"/>
-      <c r="B778" s="31"/>
+      <c r="B778" s="30"/>
       <c r="D778" s="14" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779" s="46"/>
-      <c r="B779" s="31"/>
+      <c r="B779" s="30"/>
       <c r="D779" s="14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
@@ -16766,80 +16789,80 @@
       <c r="A783" s="46">
         <v>43471</v>
       </c>
-      <c r="B783" s="31"/>
+      <c r="B783" s="30"/>
       <c r="C783" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D783" s="14" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A784" s="46"/>
-      <c r="B784" s="31"/>
+      <c r="B784" s="30"/>
       <c r="D784" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785" s="46"/>
-      <c r="B785" s="31"/>
+      <c r="B785" s="30"/>
       <c r="D785" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" s="46"/>
-      <c r="B786" s="31"/>
+      <c r="B786" s="30"/>
       <c r="D786" s="14" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A787" s="46"/>
-      <c r="B787" s="31"/>
+      <c r="B787" s="30"/>
       <c r="D787" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788" s="46"/>
-      <c r="B788" s="31"/>
+      <c r="B788" s="30"/>
       <c r="D788" s="14" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" s="46"/>
-      <c r="B789" s="31"/>
+      <c r="B789" s="30"/>
       <c r="D789" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" s="46"/>
-      <c r="B790" s="31"/>
+      <c r="B790" s="30"/>
       <c r="D790" s="14" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A791" s="46"/>
-      <c r="B791" s="31"/>
+      <c r="B791" s="30"/>
       <c r="D791" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A792" s="46"/>
-      <c r="B792" s="31"/>
+      <c r="B792" s="30"/>
       <c r="D792" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" s="46"/>
-      <c r="B793" s="31"/>
+      <c r="B793" s="30"/>
       <c r="D793" s="14" t="s">
         <v>307</v>
       </c>
@@ -16848,314 +16871,314 @@
       <c r="A794" s="46"/>
       <c r="B794" s="4"/>
       <c r="D794" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A796" s="45">
         <v>43472</v>
       </c>
-      <c r="B796" s="31"/>
+      <c r="B796" s="30"/>
       <c r="C796" t="s">
         <v>934</v>
       </c>
       <c r="D796" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A797" s="45"/>
-      <c r="B797" s="31"/>
+      <c r="B797" s="30"/>
       <c r="D797" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A798" s="45"/>
-      <c r="B798" s="31"/>
+      <c r="B798" s="30"/>
       <c r="C798" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D798" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A799" s="45"/>
-      <c r="B799" s="31"/>
+      <c r="B799" s="30"/>
       <c r="D799" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A800" s="45"/>
-      <c r="B800" s="31"/>
+      <c r="B800" s="30"/>
       <c r="D800" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A801" s="45"/>
-      <c r="B801" s="31"/>
+      <c r="B801" s="30"/>
       <c r="D801" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A802" s="45"/>
-      <c r="B802" s="31"/>
+      <c r="B802" s="30"/>
       <c r="D802" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A803" s="45"/>
-      <c r="B803" s="31"/>
+      <c r="B803" s="30"/>
       <c r="D803" s="14" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A804" s="45"/>
-      <c r="B804" s="31"/>
+      <c r="B804" s="30"/>
       <c r="D804" s="14" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A805" s="45"/>
-      <c r="B805" s="31"/>
+      <c r="B805" s="30"/>
       <c r="D805" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A806" s="45"/>
-      <c r="B806" s="31"/>
+      <c r="B806" s="30"/>
       <c r="D806" s="14" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A807" s="45"/>
-      <c r="B807" s="31"/>
+      <c r="B807" s="30"/>
       <c r="D807" s="14" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A808" s="45"/>
-      <c r="B808" s="31"/>
+      <c r="B808" s="30"/>
       <c r="D808" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A809" s="45"/>
-      <c r="B809" s="31"/>
+      <c r="B809" s="30"/>
       <c r="D809" s="14" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A810" s="45"/>
-      <c r="B810" s="31"/>
+      <c r="B810" s="30"/>
       <c r="D810" s="14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A811" s="45"/>
       <c r="B811" s="4"/>
       <c r="D811" s="14" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A813" s="45">
         <v>43473</v>
       </c>
-      <c r="B813" s="31"/>
+      <c r="B813" s="30"/>
       <c r="C813" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D813" s="14" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A814" s="45"/>
-      <c r="B814" s="31"/>
+      <c r="B814" s="30"/>
       <c r="D814" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A815" s="45"/>
-      <c r="B815" s="31"/>
+      <c r="B815" s="30"/>
       <c r="D815" s="14" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A816" s="45"/>
-      <c r="B816" s="31"/>
+      <c r="B816" s="30"/>
       <c r="C816" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D816" s="14" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A817" s="45"/>
-      <c r="B817" s="31"/>
+      <c r="B817" s="30"/>
       <c r="D817" s="14" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A818" s="45"/>
-      <c r="B818" s="31"/>
+      <c r="B818" s="30"/>
       <c r="D818" s="14" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A819" s="45"/>
-      <c r="B819" s="31"/>
+      <c r="B819" s="30"/>
       <c r="D819" s="14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A820" s="45"/>
-      <c r="B820" s="31"/>
+      <c r="B820" s="30"/>
       <c r="D820" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A821" s="45"/>
-      <c r="B821" s="31"/>
+      <c r="B821" s="30"/>
       <c r="D821" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A822" s="45"/>
-      <c r="B822" s="31"/>
+      <c r="B822" s="30"/>
       <c r="D822" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823" s="45"/>
-      <c r="B823" s="31"/>
+      <c r="B823" s="30"/>
       <c r="D823" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A824" s="45"/>
-      <c r="B824" s="31"/>
+      <c r="B824" s="30"/>
       <c r="D824" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B825" s="31" t="s">
-        <v>1056</v>
+      <c r="B825" s="30" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A826" s="45">
         <v>43474</v>
       </c>
-      <c r="B826" s="31"/>
+      <c r="B826" s="30"/>
       <c r="C826" t="s">
         <v>673</v>
       </c>
       <c r="D826" s="14" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A827" s="45"/>
-      <c r="B827" s="31"/>
+      <c r="B827" s="30"/>
       <c r="D827" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A828" s="45"/>
-      <c r="B828" s="31"/>
+      <c r="B828" s="30"/>
       <c r="D828" s="14" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A829" s="45"/>
-      <c r="B829" s="31"/>
+      <c r="B829" s="30"/>
       <c r="C829" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D829" s="14" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A830" s="45"/>
-      <c r="B830" s="31"/>
+      <c r="B830" s="30"/>
       <c r="D830" s="14" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A831" s="45"/>
-      <c r="B831" s="31"/>
+      <c r="B831" s="30"/>
       <c r="D831" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A832" s="45"/>
-      <c r="B832" s="31"/>
+      <c r="B832" s="30"/>
       <c r="D832" s="14" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833" s="45"/>
-      <c r="B833" s="31"/>
+      <c r="B833" s="30"/>
       <c r="D833" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" s="45"/>
-      <c r="B834" s="31"/>
+      <c r="B834" s="30"/>
       <c r="D834" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835" s="45"/>
-      <c r="B835" s="31"/>
+      <c r="B835" s="30"/>
       <c r="D835" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836" s="45"/>
-      <c r="B836" s="31"/>
+      <c r="B836" s="30"/>
       <c r="D836" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837" s="45"/>
-      <c r="B837" s="31"/>
+      <c r="B837" s="30"/>
       <c r="D837" s="14" t="s">
         <v>266</v>
       </c>
@@ -17163,22 +17186,22 @@
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838" s="45"/>
       <c r="D838" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E838" s="16" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B839" s="31" t="s">
-        <v>1057</v>
+      <c r="B839" s="30" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" s="45">
         <v>43475</v>
       </c>
-      <c r="B840" s="31"/>
+      <c r="B840" s="30"/>
       <c r="C840" t="s">
         <v>673</v>
       </c>
@@ -17188,94 +17211,94 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841" s="45"/>
-      <c r="B841" s="31"/>
+      <c r="B841" s="30"/>
       <c r="D841" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842" s="45"/>
-      <c r="B842" s="31"/>
+      <c r="B842" s="30"/>
       <c r="D842" s="14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843" s="45"/>
-      <c r="B843" s="31"/>
+      <c r="B843" s="30"/>
       <c r="D843" s="14" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844" s="45"/>
-      <c r="B844" s="31"/>
+      <c r="B844" s="30"/>
       <c r="C844" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845" s="45"/>
-      <c r="B845" s="31"/>
+      <c r="B845" s="30"/>
       <c r="D845" s="14" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846" s="45"/>
-      <c r="B846" s="31"/>
+      <c r="B846" s="30"/>
       <c r="E846" s="16" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847" s="45"/>
-      <c r="B847" s="31"/>
+      <c r="B847" s="30"/>
       <c r="D847" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848" s="45"/>
-      <c r="B848" s="31"/>
+      <c r="B848" s="30"/>
       <c r="D848" s="14" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A849" s="45"/>
-      <c r="B849" s="31"/>
+      <c r="B849" s="30"/>
       <c r="D849" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A850" s="45"/>
-      <c r="B850" s="31"/>
+      <c r="B850" s="30"/>
       <c r="D850" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A851" s="45"/>
-      <c r="B851" s="31"/>
+      <c r="B851" s="30"/>
       <c r="D851" s="14" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852" s="45"/>
-      <c r="B852" s="31"/>
+      <c r="B852" s="30"/>
       <c r="D852" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A853" s="45"/>
-      <c r="B853" s="31"/>
+      <c r="B853" s="30"/>
       <c r="D853" s="14" t="s">
         <v>767</v>
       </c>
@@ -17284,160 +17307,160 @@
       <c r="A855" s="45">
         <v>43476</v>
       </c>
-      <c r="B855" s="31"/>
+      <c r="B855" s="30"/>
       <c r="C855" t="s">
         <v>673</v>
       </c>
       <c r="D855" s="14" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856" s="45"/>
-      <c r="B856" s="31"/>
+      <c r="B856" s="30"/>
       <c r="D856" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A857" s="45"/>
-      <c r="B857" s="31"/>
+      <c r="B857" s="30"/>
       <c r="D857" s="14" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858" s="45"/>
-      <c r="B858" s="31"/>
+      <c r="B858" s="30"/>
       <c r="C858" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D858" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A859" s="45"/>
-      <c r="B859" s="31"/>
+      <c r="B859" s="30"/>
       <c r="D859" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A860" s="45"/>
-      <c r="B860" s="31"/>
+      <c r="B860" s="30"/>
       <c r="D860" s="16" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A861" s="45"/>
-      <c r="B861" s="31"/>
+      <c r="B861" s="30"/>
       <c r="D861" s="14" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A862" s="45"/>
-      <c r="B862" s="31"/>
+      <c r="B862" s="30"/>
       <c r="D862" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A863" s="45"/>
-      <c r="B863" s="31"/>
+      <c r="B863" s="30"/>
       <c r="D863" s="14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A864" s="45"/>
-      <c r="B864" s="31"/>
+      <c r="B864" s="30"/>
       <c r="D864" s="14" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A865" s="45"/>
-      <c r="B865" s="31"/>
+      <c r="B865" s="30"/>
       <c r="D865" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A866" s="45"/>
-      <c r="B866" s="31"/>
+      <c r="B866" s="30"/>
       <c r="D866" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D867" s="16" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A868" s="46">
         <v>43477</v>
       </c>
-      <c r="B868" s="31"/>
+      <c r="B868" s="30"/>
       <c r="D868" s="14" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A869" s="46"/>
-      <c r="B869" s="31"/>
+      <c r="B869" s="30"/>
       <c r="D869" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A870" s="46"/>
-      <c r="B870" s="31"/>
+      <c r="B870" s="30"/>
       <c r="D870" s="14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A871" s="46"/>
-      <c r="B871" s="31"/>
+      <c r="B871" s="30"/>
       <c r="D871" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A872" s="46"/>
-      <c r="B872" s="31"/>
+      <c r="B872" s="30"/>
       <c r="D872" s="14" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A873" s="46"/>
-      <c r="B873" s="31"/>
+      <c r="B873" s="30"/>
       <c r="D873" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A874" s="46"/>
-      <c r="B874" s="31"/>
+      <c r="B874" s="30"/>
       <c r="D874" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A875" s="46"/>
-      <c r="B875" s="31"/>
+      <c r="B875" s="30"/>
       <c r="D875" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D876" s="16" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.2">
@@ -17445,24 +17468,24 @@
         <v>43478</v>
       </c>
       <c r="B877" s="53" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A878" s="46"/>
       <c r="B878" s="53"/>
       <c r="D878" s="16" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A879" s="46"/>
       <c r="B879" s="53"/>
       <c r="D879" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.2">
@@ -17476,124 +17499,124 @@
       <c r="A881" s="46"/>
       <c r="B881" s="53"/>
       <c r="D881" s="16" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D882" s="16" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A883" s="45">
         <v>43479</v>
       </c>
-      <c r="B883" s="31"/>
+      <c r="B883" s="30"/>
       <c r="C883" t="s">
         <v>673</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A884" s="45"/>
-      <c r="B884" s="31"/>
+      <c r="B884" s="30"/>
       <c r="D884" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A885" s="45"/>
-      <c r="B885" s="31"/>
+      <c r="B885" s="30"/>
       <c r="C885" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A886" s="45"/>
-      <c r="B886" s="31"/>
+      <c r="B886" s="30"/>
       <c r="D886" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A887" s="45"/>
-      <c r="B887" s="31"/>
+      <c r="B887" s="30"/>
       <c r="D887" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A888" s="45"/>
-      <c r="B888" s="31"/>
+      <c r="B888" s="30"/>
       <c r="D888" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A889" s="45"/>
-      <c r="B889" s="31"/>
+      <c r="B889" s="30"/>
       <c r="D889" s="14" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A891" s="45">
         <v>43480</v>
       </c>
-      <c r="B891" s="31"/>
+      <c r="B891" s="30"/>
       <c r="C891" t="s">
         <v>673</v>
       </c>
       <c r="D891" s="14" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A892" s="45"/>
-      <c r="B892" s="31"/>
+      <c r="B892" s="30"/>
       <c r="D892" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A893" s="45"/>
-      <c r="B893" s="31"/>
+      <c r="B893" s="30"/>
       <c r="C893" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D893" s="14" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A894" s="45"/>
-      <c r="B894" s="31"/>
+      <c r="B894" s="30"/>
       <c r="D894" s="14" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A895" s="45"/>
-      <c r="B895" s="31"/>
+      <c r="B895" s="30"/>
       <c r="D895" s="16" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A896" s="45"/>
-      <c r="B896" s="31"/>
+      <c r="B896" s="30"/>
       <c r="D896" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A897" s="45"/>
-      <c r="B897" s="31"/>
+      <c r="B897" s="30"/>
       <c r="D897" s="14" t="s">
         <v>767</v>
       </c>
@@ -17602,207 +17625,207 @@
       <c r="A899" s="45">
         <v>43481</v>
       </c>
-      <c r="B899" s="31"/>
+      <c r="B899" s="30"/>
       <c r="C899" t="s">
         <v>673</v>
       </c>
       <c r="D899" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A900" s="45"/>
-      <c r="B900" s="31"/>
+      <c r="B900" s="30"/>
       <c r="C900" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D900" s="14" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A901" s="45"/>
-      <c r="B901" s="31"/>
+      <c r="B901" s="30"/>
       <c r="D901" s="14" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A902" s="45"/>
-      <c r="B902" s="31"/>
+      <c r="B902" s="30"/>
       <c r="D902" s="16" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A903" s="45"/>
-      <c r="B903" s="31"/>
+      <c r="B903" s="30"/>
       <c r="D903" s="14" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A904" s="45"/>
-      <c r="B904" s="31"/>
+      <c r="B904" s="30"/>
       <c r="D904" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A905" s="45"/>
-      <c r="B905" s="31"/>
+      <c r="B905" s="30"/>
       <c r="D905" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D906" s="16" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A907" s="45">
         <v>43482</v>
       </c>
-      <c r="B907" s="31"/>
+      <c r="B907" s="30"/>
       <c r="C907" t="s">
         <v>673</v>
       </c>
       <c r="D907" s="14" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A908" s="45"/>
-      <c r="B908" s="31"/>
+      <c r="B908" s="30"/>
       <c r="C908" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D908" s="14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A909" s="45"/>
-      <c r="B909" s="31"/>
+      <c r="B909" s="30"/>
       <c r="D909" s="14" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A910" s="45"/>
-      <c r="B910" s="31"/>
+      <c r="B910" s="30"/>
       <c r="D910" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A911" s="45"/>
-      <c r="B911" s="31"/>
+      <c r="B911" s="30"/>
       <c r="D911" s="16" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A912" s="45"/>
-      <c r="B912" s="31"/>
+      <c r="B912" s="30"/>
       <c r="D912" s="14" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913" s="45"/>
-      <c r="B913" s="31"/>
+      <c r="B913" s="30"/>
       <c r="D913" s="14" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914" s="45"/>
-      <c r="B914" s="31"/>
+      <c r="B914" s="30"/>
       <c r="D914" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915" s="45"/>
-      <c r="B915" s="31"/>
+      <c r="B915" s="30"/>
       <c r="D915" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D916" s="16" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917" s="45">
         <v>43483</v>
       </c>
-      <c r="B917" s="31"/>
+      <c r="B917" s="30"/>
       <c r="C917" t="s">
         <v>673</v>
       </c>
       <c r="D917" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918" s="45"/>
-      <c r="B918" s="31"/>
+      <c r="B918" s="30"/>
       <c r="D918" s="16" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" s="45"/>
-      <c r="B919" s="31"/>
+      <c r="B919" s="30"/>
       <c r="D919" s="16" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920" s="45"/>
-      <c r="B920" s="31"/>
+      <c r="B920" s="30"/>
       <c r="D920" s="14" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921" s="45"/>
-      <c r="B921" s="31"/>
+      <c r="B921" s="30"/>
       <c r="C921" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D921" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922" s="45"/>
-      <c r="B922" s="31"/>
+      <c r="B922" s="30"/>
       <c r="D922" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923" s="45"/>
-      <c r="B923" s="31"/>
+      <c r="B923" s="30"/>
       <c r="D923" s="14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924" s="45"/>
-      <c r="B924" s="31"/>
+      <c r="B924" s="30"/>
       <c r="D924" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925" s="45"/>
-      <c r="B925" s="31"/>
+      <c r="B925" s="30"/>
       <c r="D925" s="14" t="s">
         <v>767</v>
       </c>
@@ -17811,119 +17834,119 @@
       <c r="A927" s="46">
         <v>43484</v>
       </c>
-      <c r="B927" s="31"/>
+      <c r="B927" s="30"/>
       <c r="D927" s="14" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928" s="46"/>
-      <c r="B928" s="31"/>
+      <c r="B928" s="30"/>
       <c r="D928" s="14" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E928" s="44" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929" s="46"/>
-      <c r="B929" s="31"/>
+      <c r="B929" s="30"/>
       <c r="D929" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E929" s="44"/>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" s="46"/>
-      <c r="B930" s="31"/>
+      <c r="B930" s="30"/>
       <c r="D930" s="14" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" s="46"/>
-      <c r="B931" s="31"/>
+      <c r="B931" s="30"/>
       <c r="D931" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" s="46"/>
-      <c r="B932" s="31"/>
+      <c r="B932" s="30"/>
       <c r="D932" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D933" s="16" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" s="46">
         <v>43485</v>
       </c>
-      <c r="B934" s="31"/>
+      <c r="B934" s="30"/>
       <c r="D934" s="14" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" s="46"/>
-      <c r="B935" s="31"/>
+      <c r="B935" s="30"/>
       <c r="D935" s="16" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" s="46"/>
-      <c r="B936" s="31"/>
+      <c r="B936" s="30"/>
       <c r="D936" s="14" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" s="46"/>
-      <c r="B937" s="31"/>
+      <c r="B937" s="30"/>
       <c r="D937" s="16" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" s="46"/>
-      <c r="B938" s="31"/>
+      <c r="B938" s="30"/>
       <c r="D938" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D939" s="16" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940" s="45">
         <v>43486</v>
       </c>
-      <c r="B940" s="31"/>
+      <c r="B940" s="30"/>
       <c r="C940" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D940" s="14" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941" s="45"/>
-      <c r="B941" s="31"/>
+      <c r="B941" s="30"/>
       <c r="D941" s="14" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942" s="45"/>
-      <c r="B942" s="31"/>
+      <c r="B942" s="30"/>
       <c r="D942" s="14" t="s">
         <v>767</v>
       </c>
@@ -17932,38 +17955,38 @@
       <c r="A944" s="45">
         <v>43487</v>
       </c>
-      <c r="B944" s="31"/>
+      <c r="B944" s="30"/>
       <c r="D944" s="16" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A945" s="45"/>
-      <c r="B945" s="31"/>
+      <c r="B945" s="30"/>
       <c r="D945" s="14" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A946" s="45"/>
-      <c r="B946" s="31"/>
+      <c r="B946" s="30"/>
       <c r="C946" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D946" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A947" s="45"/>
-      <c r="B947" s="31"/>
+      <c r="B947" s="30"/>
       <c r="D947" s="14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A948" s="45"/>
-      <c r="B948" s="31"/>
+      <c r="B948" s="30"/>
       <c r="D948" s="14" t="s">
         <v>767</v>
       </c>
@@ -17972,7 +17995,7 @@
       <c r="A950" s="45">
         <v>43488</v>
       </c>
-      <c r="B950" s="31"/>
+      <c r="B950" s="30"/>
       <c r="C950" t="s">
         <v>673</v>
       </c>
@@ -17982,31 +18005,31 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A951" s="45"/>
-      <c r="B951" s="31"/>
+      <c r="B951" s="30"/>
       <c r="D951" s="14" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A952" s="45"/>
-      <c r="B952" s="31"/>
+      <c r="B952" s="30"/>
       <c r="C952" s="14" t="s">
         <v>717</v>
       </c>
       <c r="D952" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A953" s="45"/>
-      <c r="B953" s="31"/>
+      <c r="B953" s="30"/>
       <c r="D953" s="14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A954" s="45"/>
-      <c r="B954" s="31"/>
+      <c r="B954" s="30"/>
       <c r="D954" s="14" t="s">
         <v>767</v>
       </c>
@@ -18140,10 +18163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18152,10 +18175,11 @@
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>244</v>
       </c>
@@ -18168,8 +18192,14 @@
       <c r="D1" s="15" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="15" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>43403</v>
       </c>
@@ -18183,7 +18213,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>43404</v>
       </c>
@@ -18197,7 +18227,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>43405</v>
       </c>
@@ -18211,7 +18241,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>43406</v>
       </c>
@@ -18225,7 +18255,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>43407</v>
       </c>
@@ -18239,7 +18269,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>43408</v>
       </c>
@@ -18253,7 +18283,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>43409</v>
       </c>
@@ -18267,7 +18297,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>43410</v>
       </c>
@@ -18281,7 +18311,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>43411</v>
       </c>
@@ -18295,7 +18325,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>43412</v>
       </c>
@@ -18309,7 +18339,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>43413</v>
       </c>
@@ -18323,7 +18353,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>43414</v>
       </c>
@@ -18337,7 +18367,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>43415</v>
       </c>
@@ -18351,7 +18381,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>43416</v>
       </c>
@@ -18365,7 +18395,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>43417</v>
       </c>
@@ -18506,7 +18536,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="43">
         <v>43427</v>
       </c>
       <c r="B26" t="s">
@@ -18523,7 +18553,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="43">
         <v>43428</v>
       </c>
       <c r="B27" t="s">
@@ -18540,7 +18570,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="43">
         <v>43429</v>
       </c>
       <c r="B28" t="s">
@@ -18557,7 +18587,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="43">
         <v>43430</v>
       </c>
       <c r="B29" t="s">
@@ -18574,7 +18604,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="43">
         <v>43431</v>
       </c>
       <c r="B30" t="s">
@@ -18591,7 +18621,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="43">
         <v>43432</v>
       </c>
       <c r="B31" t="s">
@@ -18608,7 +18638,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="43">
         <v>43433</v>
       </c>
       <c r="B32" t="s">
@@ -18624,7 +18654,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>43434</v>
       </c>
@@ -18638,7 +18668,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>43435</v>
       </c>
@@ -18652,7 +18682,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="28">
         <v>43436</v>
       </c>
@@ -18665,11 +18695,11 @@
       <c r="D35" t="s">
         <v>517</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <v>43437</v>
       </c>
@@ -18682,11 +18712,11 @@
       <c r="D36" t="s">
         <v>704</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <v>43438</v>
       </c>
@@ -18699,11 +18729,11 @@
       <c r="D37" t="s">
         <v>704</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>43439</v>
       </c>
@@ -18716,11 +18746,11 @@
       <c r="D38" t="s">
         <v>704</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
         <v>43440</v>
       </c>
@@ -18733,12 +18763,12 @@
       <c r="D39" t="s">
         <v>517</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="28">
         <v>43441</v>
       </c>
       <c r="B40" t="s">
@@ -18750,11 +18780,11 @@
       <c r="D40" t="s">
         <v>517</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>43442</v>
       </c>
@@ -18771,7 +18801,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>43443</v>
       </c>
@@ -18788,7 +18818,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>43444</v>
       </c>
@@ -18805,7 +18835,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>43445</v>
       </c>
@@ -18822,7 +18852,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>43446</v>
       </c>
@@ -18839,7 +18869,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>43447</v>
       </c>
@@ -18856,7 +18886,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>43448</v>
       </c>
@@ -18873,7 +18903,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>43449</v>
       </c>
@@ -18890,7 +18920,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>43450</v>
       </c>
@@ -18907,7 +18937,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>43451</v>
       </c>
@@ -18924,7 +18954,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>43452</v>
       </c>
@@ -18941,7 +18971,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>43453</v>
       </c>
@@ -18958,7 +18988,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>43454</v>
       </c>
@@ -18975,7 +19005,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>43455</v>
       </c>
@@ -18992,7 +19022,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>43456</v>
       </c>
@@ -19009,7 +19039,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>43457</v>
       </c>
@@ -19026,7 +19056,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>43458</v>
       </c>
@@ -19043,7 +19073,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>43459</v>
       </c>
@@ -19060,7 +19090,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>43460</v>
       </c>
@@ -19077,7 +19107,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>43461</v>
       </c>
@@ -19094,7 +19124,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>43462</v>
       </c>
@@ -19111,7 +19141,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>43463</v>
       </c>
@@ -19128,7 +19158,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>43464</v>
       </c>
@@ -19145,8 +19175,8 @@
         <v>971</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="28">
         <v>43465</v>
       </c>
       <c r="B64" t="s">
@@ -19159,20 +19189,26 @@
         <v>517</v>
       </c>
       <c r="E64" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
+        <v>971</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="28">
         <v>43466</v>
       </c>
       <c r="C65" s="22"/>
       <c r="E65" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="12">
+        <v>1230</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="28">
         <v>43467</v>
       </c>
       <c r="B66" t="s">
@@ -19184,12 +19220,12 @@
       <c r="D66" t="s">
         <v>517</v>
       </c>
-      <c r="E66" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="12">
+      <c r="F66" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="28">
         <v>43468</v>
       </c>
       <c r="B67" t="s">
@@ -19199,35 +19235,35 @@
         <v>36.75</v>
       </c>
       <c r="D67" t="s">
-        <v>978</v>
-      </c>
-      <c r="E67" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="12">
+        <v>976</v>
+      </c>
+      <c r="F67" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="28">
         <v>43469</v>
       </c>
       <c r="B68" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C68" s="22">
         <v>36.549999999999997</v>
       </c>
       <c r="D68" t="s">
-        <v>983</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>43470</v>
       </c>
       <c r="B69" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C69" s="22">
         <v>36.619999999999997</v>
@@ -19236,12 +19272,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>43471</v>
       </c>
       <c r="B70" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C70" s="22">
         <v>36.58</v>
@@ -19250,10 +19286,10 @@
         <v>517</v>
       </c>
       <c r="E70" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>43472</v>
       </c>
@@ -19270,12 +19306,12 @@
         <v>854</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>43473</v>
       </c>
       <c r="B72" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C72" s="22">
         <v>36.68</v>
@@ -19287,7 +19323,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>43474</v>
       </c>
@@ -19304,12 +19340,12 @@
         <v>854</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>43475</v>
       </c>
       <c r="B74" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C74" s="22">
         <v>36.82</v>
@@ -19321,80 +19357,80 @@
         <v>854</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>43476</v>
       </c>
       <c r="B75" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C75" s="22">
         <v>36.85</v>
       </c>
       <c r="D75" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E75" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>43477</v>
       </c>
       <c r="B76" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C76" s="22">
         <v>36.9</v>
       </c>
       <c r="D76" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E76" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>43478</v>
       </c>
       <c r="B77" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C77" s="22">
         <v>36.9</v>
       </c>
       <c r="D77" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E77" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>43479</v>
       </c>
       <c r="B78" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C78" s="22">
         <v>36.909999999999997</v>
       </c>
       <c r="D78" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E78" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>43480</v>
       </c>
       <c r="B79" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C79" s="22">
         <v>36.840000000000003</v>
@@ -19406,12 +19442,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>43481</v>
       </c>
       <c r="B80" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C80" s="22">
         <v>36.92</v>
@@ -19428,7 +19464,7 @@
         <v>43482</v>
       </c>
       <c r="B81" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C81" s="22">
         <v>36.85</v>
@@ -19445,7 +19481,7 @@
         <v>43483</v>
       </c>
       <c r="B82" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C82" s="22">
         <v>36.82</v>
@@ -19462,7 +19498,7 @@
         <v>43484</v>
       </c>
       <c r="B83" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C83" s="22">
         <v>36.9</v>
@@ -19479,7 +19515,7 @@
         <v>43485</v>
       </c>
       <c r="B84" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C84" s="22">
         <v>36.81</v>
@@ -19514,7 +19550,7 @@
         <v>43488</v>
       </c>
       <c r="B87" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C87" s="22">
         <v>36.950000000000003</v>
@@ -19596,47 +19632,47 @@
         <v>971</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="12">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="28">
         <v>43498</v>
       </c>
-      <c r="E97" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="12">
+      <c r="F97" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="28">
         <v>43499</v>
       </c>
-      <c r="E98" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="12">
+      <c r="F98" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="28">
         <v>43500</v>
       </c>
-      <c r="E99" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="12">
+      <c r="F99" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="28">
         <v>43501</v>
       </c>
-      <c r="E100" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="12">
+      <c r="F100" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="28">
         <v>43502</v>
       </c>
-      <c r="E101" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>43503</v>
       </c>
@@ -19644,7 +19680,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>43504</v>
       </c>
@@ -19652,7 +19688,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>43505</v>
       </c>
@@ -19660,7 +19696,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>43506</v>
       </c>
@@ -19668,7 +19704,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>43507</v>
       </c>
@@ -19676,7 +19712,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>43508</v>
       </c>
@@ -19684,7 +19720,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>43509</v>
       </c>
@@ -19692,7 +19728,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>43510</v>
       </c>
@@ -19700,7 +19736,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>43511</v>
       </c>
@@ -19708,7 +19744,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>43512</v>
       </c>
@@ -19716,7 +19752,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>43513</v>
       </c>
@@ -19745,7 +19781,7 @@
         <v>43516</v>
       </c>
       <c r="E115" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -19849,148 +19885,166 @@
         <v>971</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="12">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="28">
         <v>43530</v>
       </c>
-      <c r="E129" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="12">
+      <c r="F129" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="28">
         <v>43531</v>
       </c>
-      <c r="E130" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="12">
+      <c r="F130" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="28">
         <v>43532</v>
       </c>
-      <c r="E131" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="12">
+      <c r="F131" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="28">
         <v>43533</v>
       </c>
       <c r="E132" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1234</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>43534</v>
       </c>
       <c r="E133" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>43535</v>
       </c>
       <c r="E134" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>43536</v>
       </c>
       <c r="E135" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>43537</v>
       </c>
       <c r="E136" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>43538</v>
       </c>
       <c r="E137" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>43539</v>
       </c>
       <c r="E138" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>43540</v>
       </c>
-      <c r="E139" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>43541</v>
       </c>
+      <c r="D140" t="s">
+        <v>1238</v>
+      </c>
       <c r="E140" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>43542</v>
       </c>
+      <c r="D141" t="s">
+        <v>1238</v>
+      </c>
       <c r="E141" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>43543</v>
       </c>
+      <c r="D142" t="s">
+        <v>1238</v>
+      </c>
       <c r="E142" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>43544</v>
       </c>
+      <c r="D143" t="s">
+        <v>1238</v>
+      </c>
       <c r="E143" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>43545</v>
       </c>
+      <c r="D144" t="s">
+        <v>1237</v>
+      </c>
       <c r="E144" t="s">
-        <v>1198</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>43546</v>
       </c>
-      <c r="E145" t="s">
-        <v>1199</v>
+      <c r="D145" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>43547</v>
       </c>
-      <c r="E146" t="s">
-        <v>1200</v>
+      <c r="D146" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -19998,15 +20052,18 @@
         <v>43548</v>
       </c>
       <c r="E147" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>43549</v>
       </c>
+      <c r="D148" t="s">
+        <v>1235</v>
+      </c>
       <c r="E148" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -20014,15 +20071,18 @@
         <v>43550</v>
       </c>
       <c r="E149" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>43551</v>
       </c>
+      <c r="D150" t="s">
+        <v>1236</v>
+      </c>
       <c r="E150" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -20030,7 +20090,7 @@
         <v>43552</v>
       </c>
       <c r="E151" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -20038,7 +20098,7 @@
         <v>43553</v>
       </c>
       <c r="E152" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -20046,150 +20106,198 @@
         <v>43554</v>
       </c>
       <c r="E153" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>43555</v>
       </c>
+      <c r="D154" t="s">
+        <v>1241</v>
+      </c>
       <c r="E154" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>43556</v>
       </c>
+      <c r="D155" t="s">
+        <v>1241</v>
+      </c>
       <c r="E155" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>43557</v>
       </c>
+      <c r="D156" t="s">
+        <v>1241</v>
+      </c>
       <c r="E156" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>43558</v>
       </c>
+      <c r="D157" t="s">
+        <v>1241</v>
+      </c>
       <c r="E157" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>43559</v>
       </c>
+      <c r="D158" t="s">
+        <v>1241</v>
+      </c>
       <c r="E158" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>43560</v>
       </c>
+      <c r="D159" t="s">
+        <v>1242</v>
+      </c>
       <c r="E159" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>43561</v>
       </c>
+      <c r="D160" t="s">
+        <v>1242</v>
+      </c>
       <c r="E160" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>43562</v>
       </c>
+      <c r="D161" t="s">
+        <v>1242</v>
+      </c>
       <c r="E161" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="12">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="28">
         <v>43563</v>
       </c>
       <c r="E162" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="12">
+        <v>1195</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="28">
         <v>43564</v>
       </c>
       <c r="E163" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="12">
+        <v>1195</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="28">
         <v>43565</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="12">
+      <c r="E164" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="28">
         <v>43566</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E165" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F165" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>43567</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E166" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>43568</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>43569</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>43570</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>43571</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>43572</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>43573</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>43574</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>43575</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>43576</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>43577</v>
       </c>
@@ -20437,7 +20545,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20477,27 +20585,27 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+      <c r="A2" s="35">
         <v>43123</v>
       </c>
       <c r="B2" t="s">
         <v>801</v>
       </c>
       <c r="C2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="35">
         <v>43124</v>
       </c>
       <c r="B3" t="s">
         <v>804</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E3" t="s">
@@ -20505,13 +20613,13 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>43125</v>
       </c>
       <c r="B4" t="s">
         <v>805</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E4" t="s">
@@ -20521,13 +20629,13 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>43126</v>
       </c>
       <c r="B5" t="s">
         <v>806</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E5" t="s">
@@ -20537,13 +20645,13 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+      <c r="A6" s="38">
         <v>43127</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>807</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E6" t="s">
@@ -20551,41 +20659,41 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>43128</v>
       </c>
       <c r="B7" t="s">
         <v>808</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="36">
         <v>43129</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>809</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>43130</v>
       </c>
       <c r="B9" t="s">
         <v>810</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E9" t="s">
@@ -20594,13 +20702,13 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>43131</v>
       </c>
       <c r="B10" t="s">
         <v>811</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -20611,13 +20719,13 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>43132</v>
       </c>
       <c r="B11" t="s">
         <v>814</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E11" t="s">
@@ -20625,17 +20733,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>43133</v>
       </c>
       <c r="B12" t="s">
         <v>815</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>827</v>
       </c>
       <c r="E12" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F12">
         <v>1500</v>
@@ -20643,105 +20751,105 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>43134</v>
       </c>
       <c r="B13" t="s">
         <v>816</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>828</v>
       </c>
       <c r="E13" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>43135</v>
       </c>
       <c r="B14" t="s">
         <v>817</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>813</v>
       </c>
       <c r="E14" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>43136</v>
       </c>
       <c r="B15" t="s">
         <v>818</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>813</v>
       </c>
       <c r="E15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>43137</v>
       </c>
       <c r="B16" t="s">
         <v>819</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>813</v>
       </c>
       <c r="E16" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>43138</v>
       </c>
       <c r="B17" t="s">
         <v>820</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>813</v>
       </c>
       <c r="E17" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>43139</v>
       </c>
       <c r="B18" t="s">
         <v>821</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>813</v>
       </c>
       <c r="E18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>43140</v>
       </c>
       <c r="B19" t="s">
         <v>822</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>813</v>
       </c>
       <c r="E19" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F19">
         <v>1500</v>
@@ -20749,34 +20857,34 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>43141</v>
       </c>
       <c r="B20" t="s">
         <v>823</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>813</v>
       </c>
       <c r="E20" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F20">
         <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>43142</v>
       </c>
       <c r="B21" t="s">
         <v>824</v>
       </c>
       <c r="C21" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E21" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -20790,7 +20898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -20836,16 +20944,16 @@
         <v>582</v>
       </c>
       <c r="K3" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="L3" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="M3" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="N3" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -20957,7 +21065,7 @@
         <v>20190103</v>
       </c>
       <c r="C8" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D8">
         <v>43.65</v>
@@ -20978,7 +21086,7 @@
         <v>12.5</v>
       </c>
       <c r="J8" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -20995,10 +21103,10 @@
         <v>0.21</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -21009,16 +21117,16 @@
         <v>583</v>
       </c>
       <c r="J10" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="K10">
         <v>0.15</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -21038,16 +21146,16 @@
         <v>19.46</v>
       </c>
       <c r="J11" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="K11">
         <v>0.3</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -21067,16 +21175,16 @@
         <v>16.98</v>
       </c>
       <c r="J12" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="K12">
         <v>0.56000000000000005</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -21096,16 +21204,16 @@
         <v>15.38</v>
       </c>
       <c r="J13" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="K13">
         <v>0.59</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -21125,16 +21233,16 @@
         <v>30.64</v>
       </c>
       <c r="J14" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="K14">
         <v>0.68</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -21182,42 +21290,42 @@
     </row>
     <row r="18" spans="17:18" x14ac:dyDescent="0.2">
       <c r="Q18" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="R18" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="19" spans="17:18" x14ac:dyDescent="0.2">
       <c r="Q19" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="R19" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="20" spans="17:18" x14ac:dyDescent="0.2">
       <c r="Q20" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="R20" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="21" spans="17:18" x14ac:dyDescent="0.2">
       <c r="Q21" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="R21" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="17:18" x14ac:dyDescent="0.2">
       <c r="Q22" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="R22" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
     </row>
   </sheetData>
@@ -21401,57 +21509,57 @@
         <v>585</v>
       </c>
       <c r="D3" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="E3" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="F3" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="G3" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="H3" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="I3" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="J3" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="K3" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I4" t="s">
         <v>1212</v>
       </c>
-      <c r="D4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1225</v>
-      </c>
       <c r="J4" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="K4" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -21468,7 +21576,7 @@
         <v>27.8</v>
       </c>
       <c r="F5" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="G5">
         <v>161</v>
@@ -21480,10 +21588,10 @@
         <v>79.400000000000006</v>
       </c>
       <c r="J5" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="K5" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -21494,7 +21602,7 @@
         <v>583</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -21638,7 +21746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -21717,10 +21825,10 @@
         <v>43465</v>
       </c>
       <c r="B9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -21728,10 +21836,10 @@
         <v>43466</v>
       </c>
       <c r="B10" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C10" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -21739,7 +21847,7 @@
         <v>43467</v>
       </c>
       <c r="B11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -21747,7 +21855,7 @@
         <v>43468</v>
       </c>
       <c r="B12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C12" t="s">
         <v>727</v>
@@ -21758,7 +21866,7 @@
         <v>43469</v>
       </c>
       <c r="B13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -21791,10 +21899,10 @@
         <v>43530</v>
       </c>
       <c r="B21" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C21" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -21802,7 +21910,7 @@
         <v>43531</v>
       </c>
       <c r="B22" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -21810,10 +21918,10 @@
         <v>43532</v>
       </c>
       <c r="B23" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C23" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -21821,10 +21929,10 @@
         <v>43533</v>
       </c>
       <c r="B24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C24" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -21835,7 +21943,7 @@
         <v>43563</v>
       </c>
       <c r="B26" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -21843,7 +21951,7 @@
         <v>43564</v>
       </c>
       <c r="B27" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">

--- a/pre.xlsx
+++ b/pre.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB05000-7898-43D2-9CCE-31FEF05D0826}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233ADAF4-9229-428C-AAD2-70E4EAFAE681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6959,14 +6959,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6979,12 +6985,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8182,7 +8182,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="342" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8196,7 +8196,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
+      <c r="A3" s="53"/>
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -10679,7 +10679,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="49">
+      <c r="A2" s="51">
         <v>43402</v>
       </c>
       <c r="B2" s="18"/>
@@ -10688,7 +10688,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="18"/>
       <c r="C3" s="14" t="s">
         <v>260</v>
@@ -10698,7 +10698,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>266</v>
@@ -10708,56 +10708,56 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="18"/>
       <c r="D5" s="14" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="18"/>
       <c r="D6" s="17" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="18"/>
       <c r="D7" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="18"/>
       <c r="D8" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="18"/>
       <c r="D9" s="14" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="18"/>
       <c r="D10" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="18"/>
       <c r="D11" s="14" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="49">
+      <c r="A13" s="51">
         <v>43403</v>
       </c>
       <c r="C13" t="s">
@@ -10768,7 +10768,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
         <v>247</v>
@@ -10781,8 +10781,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54" t="s">
         <v>373</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -10790,8 +10790,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="14" t="s">
         <v>260</v>
       </c>
@@ -10800,8 +10800,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="55"/>
       <c r="C17" t="s">
         <v>264</v>
       </c>
@@ -10810,7 +10810,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="18"/>
       <c r="C18" t="s">
         <v>321</v>
@@ -10820,7 +10820,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>323</v>
@@ -10830,7 +10830,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>326</v>
@@ -10840,7 +10840,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>327</v>
@@ -10850,7 +10850,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>304</v>
@@ -10860,7 +10860,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>329</v>
@@ -10870,7 +10870,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="18"/>
       <c r="C24" t="s">
         <v>330</v>
@@ -10880,7 +10880,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
+      <c r="A26" s="51">
         <v>43404</v>
       </c>
       <c r="C26" t="s">
@@ -10891,8 +10891,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="56" t="s">
         <v>364</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -10903,8 +10903,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="56"/>
       <c r="C28" t="s">
         <v>294</v>
       </c>
@@ -10913,8 +10913,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="56"/>
       <c r="C29" t="s">
         <v>352</v>
       </c>
@@ -10923,8 +10923,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="14" t="s">
         <v>260</v>
       </c>
@@ -10933,8 +10933,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="14" t="s">
         <v>365</v>
       </c>
@@ -10943,8 +10943,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="14" t="s">
         <v>321</v>
       </c>
@@ -10956,8 +10956,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="56"/>
       <c r="C33" t="s">
         <v>359</v>
       </c>
@@ -10966,8 +10966,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
       <c r="C34" t="s">
         <v>361</v>
       </c>
@@ -10976,7 +10976,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="26"/>
       <c r="C35" s="14" t="s">
         <v>274</v>
@@ -10986,7 +10986,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="26"/>
       <c r="C36" s="14" t="s">
         <v>368</v>
@@ -10996,7 +10996,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>362</v>
@@ -11006,7 +11006,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>330</v>
@@ -11016,7 +11016,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="49">
+      <c r="A40" s="51">
         <v>43405</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -11033,7 +11033,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="19"/>
       <c r="C41" s="14" t="s">
         <v>336</v>
@@ -11043,7 +11043,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="19"/>
       <c r="C42" t="s">
         <v>294</v>
@@ -11053,7 +11053,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="18"/>
       <c r="C43" s="14" t="s">
         <v>260</v>
@@ -11063,7 +11063,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="49"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="18"/>
       <c r="C44" s="14" t="s">
         <v>391</v>
@@ -11073,7 +11073,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="21" t="s">
         <v>398</v>
       </c>
@@ -11085,7 +11085,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="18"/>
       <c r="C46" s="14" t="s">
         <v>394</v>
@@ -11095,7 +11095,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="18"/>
       <c r="C47" s="14" t="s">
         <v>284</v>
@@ -11105,7 +11105,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="49"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
         <v>395</v>
@@ -11115,7 +11115,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="18"/>
       <c r="C49" s="14" t="s">
         <v>397</v>
@@ -11125,7 +11125,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="18"/>
       <c r="C50" s="14" t="s">
         <v>286</v>
@@ -11135,7 +11135,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="18"/>
       <c r="C51" s="14" t="s">
         <v>288</v>
@@ -11145,7 +11145,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="18"/>
       <c r="C52" s="14" t="s">
         <v>401</v>
@@ -11155,7 +11155,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="18"/>
       <c r="C53" s="14" t="s">
         <v>315</v>
@@ -11165,7 +11165,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="18"/>
       <c r="C54" t="s">
         <v>292</v>
@@ -11175,7 +11175,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="18"/>
       <c r="C55" t="s">
         <v>362</v>
@@ -11185,10 +11185,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="49">
+      <c r="A57" s="51">
         <v>43406</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="57" t="s">
         <v>403</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -11199,8 +11199,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="49"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="14" t="s">
         <v>336</v>
       </c>
@@ -11209,7 +11209,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="49"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="19"/>
       <c r="C59" t="s">
         <v>294</v>
@@ -11219,7 +11219,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="49"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="18"/>
       <c r="C60" s="14" t="s">
         <v>260</v>
@@ -11229,7 +11229,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
         <v>391</v>
@@ -11239,7 +11239,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="18"/>
       <c r="C62" s="14" t="s">
         <v>394</v>
@@ -11249,7 +11249,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="49"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="18"/>
       <c r="C63" t="s">
         <v>421</v>
@@ -11259,7 +11259,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="49"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="18"/>
       <c r="C64" s="14" t="s">
         <v>422</v>
@@ -11269,7 +11269,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="49"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="18"/>
       <c r="C65" s="14" t="s">
         <v>304</v>
@@ -11279,7 +11279,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="49"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="18"/>
       <c r="C66" s="14" t="s">
         <v>424</v>
@@ -11289,7 +11289,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
         <v>425</v>
@@ -11299,7 +11299,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="49"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="18"/>
       <c r="C68" s="14" t="s">
         <v>427</v>
@@ -11309,7 +11309,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="49"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="18"/>
       <c r="C69" t="s">
         <v>426</v>
@@ -11319,7 +11319,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="49"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="18"/>
       <c r="C70" t="s">
         <v>330</v>
@@ -11329,7 +11329,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="50">
+      <c r="A72" s="49">
         <v>43407</v>
       </c>
       <c r="B72" s="24"/>
@@ -11342,7 +11342,7 @@
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="24"/>
       <c r="C73" s="14" t="s">
         <v>263</v>
@@ -11353,7 +11353,7 @@
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="24"/>
       <c r="C74" s="14" t="s">
         <v>304</v>
@@ -11363,14 +11363,14 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="18"/>
       <c r="D75" s="14" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="18"/>
       <c r="C76" s="16" t="s">
         <v>461</v>
@@ -11380,7 +11380,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="50"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="18"/>
       <c r="C77" t="s">
         <v>445</v>
@@ -11390,7 +11390,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
+      <c r="A78" s="49"/>
       <c r="B78" s="18"/>
       <c r="C78" t="s">
         <v>269</v>
@@ -11400,7 +11400,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="50"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="18"/>
       <c r="C79" t="s">
         <v>274</v>
@@ -11410,7 +11410,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="50"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="18"/>
       <c r="C80" t="s">
         <v>288</v>
@@ -11420,7 +11420,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="18"/>
       <c r="C81" s="16" t="s">
         <v>450</v>
@@ -11430,7 +11430,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="18"/>
       <c r="C82" s="14" t="s">
         <v>465</v>
@@ -11440,7 +11440,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="18"/>
       <c r="C83" t="s">
         <v>466</v>
@@ -11451,7 +11451,7 @@
       <c r="I83" s="25"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="18"/>
       <c r="C84" t="s">
         <v>467</v>
@@ -11462,7 +11462,7 @@
       <c r="I84" s="25"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="50">
+      <c r="A86" s="49">
         <v>43408</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -11476,14 +11476,14 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="24"/>
       <c r="D87" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="50"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="24"/>
       <c r="C88" s="14" t="s">
         <v>469</v>
@@ -11493,21 +11493,21 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="50"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="19"/>
       <c r="D89" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="50"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="18"/>
       <c r="D90" s="14" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="50"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="18"/>
       <c r="C91" t="s">
         <v>478</v>
@@ -11517,7 +11517,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="18"/>
       <c r="C92" t="s">
         <v>453</v>
@@ -11527,7 +11527,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="18"/>
       <c r="C93" t="s">
         <v>454</v>
@@ -11537,7 +11537,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="18"/>
       <c r="C94" t="s">
         <v>455</v>
@@ -11547,7 +11547,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="18"/>
       <c r="C95" t="s">
         <v>341</v>
@@ -11557,11 +11557,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="18"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="18"/>
       <c r="C97" s="14" t="s">
         <v>286</v>
@@ -11571,7 +11571,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="18"/>
       <c r="C98" s="14" t="s">
         <v>288</v>
@@ -11581,7 +11581,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="18"/>
       <c r="C99" s="14" t="s">
         <v>304</v>
@@ -11591,7 +11591,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="50"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="18"/>
       <c r="C100" s="14" t="s">
         <v>315</v>
@@ -11601,7 +11601,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="50"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="18"/>
       <c r="C101" t="s">
         <v>483</v>
@@ -11611,7 +11611,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="50"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="18"/>
       <c r="C102" t="s">
         <v>484</v>
@@ -11621,7 +11621,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="49">
+      <c r="A104" s="51">
         <v>43409</v>
       </c>
       <c r="D104" t="s">
@@ -11629,7 +11629,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="49"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="23" t="s">
         <v>403</v>
       </c>
@@ -11641,7 +11641,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="49"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="4"/>
       <c r="C106" s="14"/>
       <c r="D106" s="16" t="s">
@@ -11649,7 +11649,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="49"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="4"/>
       <c r="C107" s="14" t="s">
         <v>336</v>
@@ -11659,7 +11659,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="49"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="19"/>
       <c r="C108" s="14" t="s">
         <v>428</v>
@@ -11669,7 +11669,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="49"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="18"/>
       <c r="C109" s="14" t="s">
         <v>260</v>
@@ -11679,14 +11679,14 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="49"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="18"/>
       <c r="D110" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="49"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="18"/>
       <c r="C111" s="14" t="s">
         <v>417</v>
@@ -11696,7 +11696,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="49"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="18"/>
       <c r="C112" s="14" t="s">
         <v>415</v>
@@ -11706,7 +11706,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="49"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="18"/>
       <c r="C113" s="14" t="s">
         <v>434</v>
@@ -11716,7 +11716,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="49"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="18"/>
       <c r="C114" s="14" t="s">
         <v>439</v>
@@ -11726,7 +11726,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="49"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="18"/>
       <c r="C115" s="16" t="s">
         <v>438</v>
@@ -11736,7 +11736,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="49"/>
+      <c r="A116" s="51"/>
       <c r="B116" s="18"/>
       <c r="C116" s="16" t="s">
         <v>435</v>
@@ -11746,7 +11746,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="49"/>
+      <c r="A117" s="51"/>
       <c r="B117" s="18"/>
       <c r="C117" s="16" t="s">
         <v>436</v>
@@ -11756,7 +11756,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="49"/>
+      <c r="A118" s="51"/>
       <c r="B118" s="18"/>
       <c r="C118" s="16" t="s">
         <v>437</v>
@@ -11766,7 +11766,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="49">
+      <c r="A120" s="51">
         <v>43410</v>
       </c>
       <c r="B120" s="4"/>
@@ -11778,7 +11778,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="49"/>
+      <c r="A121" s="51"/>
       <c r="B121" s="4"/>
       <c r="C121" s="14" t="s">
         <v>431</v>
@@ -11788,7 +11788,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="49"/>
+      <c r="A122" s="51"/>
       <c r="B122" s="19"/>
       <c r="C122" s="14" t="s">
         <v>290</v>
@@ -11798,7 +11798,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="49"/>
+      <c r="A123" s="51"/>
       <c r="B123" s="19"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14" t="s">
@@ -11806,7 +11806,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="49"/>
+      <c r="A124" s="51"/>
       <c r="B124" s="18"/>
       <c r="C124" s="14" t="s">
         <v>260</v>
@@ -11816,7 +11816,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="49"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="18"/>
       <c r="C125" s="14" t="s">
         <v>441</v>
@@ -11826,7 +11826,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="49"/>
+      <c r="A126" s="51"/>
       <c r="B126" s="18"/>
       <c r="C126" s="14" t="s">
         <v>394</v>
@@ -11836,7 +11836,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="49"/>
+      <c r="A127" s="51"/>
       <c r="B127" s="18"/>
       <c r="C127" s="14" t="s">
         <v>443</v>
@@ -11846,7 +11846,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="49"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="18"/>
       <c r="C128" s="14" t="s">
         <v>472</v>
@@ -11856,7 +11856,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="49"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="18"/>
       <c r="C129" s="14" t="s">
         <v>473</v>
@@ -11866,7 +11866,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="49"/>
+      <c r="A130" s="51"/>
       <c r="B130" s="18"/>
       <c r="C130" s="14" t="s">
         <v>474</v>
@@ -11876,7 +11876,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="49"/>
+      <c r="A131" s="51"/>
       <c r="B131" s="18"/>
       <c r="C131" s="14" t="s">
         <v>485</v>
@@ -11886,7 +11886,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="49"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="18"/>
       <c r="C132" s="14" t="s">
         <v>487</v>
@@ -11896,7 +11896,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="49"/>
+      <c r="A133" s="51"/>
       <c r="B133" s="18"/>
       <c r="C133" s="14" t="s">
         <v>304</v>
@@ -11906,7 +11906,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="49"/>
+      <c r="A134" s="51"/>
       <c r="B134" s="18"/>
       <c r="C134" s="14" t="s">
         <v>278</v>
@@ -11916,7 +11916,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="49"/>
+      <c r="A135" s="51"/>
       <c r="B135" s="18"/>
       <c r="C135" t="s">
         <v>418</v>
@@ -11926,7 +11926,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="49"/>
+      <c r="A136" s="51"/>
       <c r="B136" s="18"/>
       <c r="C136" t="s">
         <v>294</v>
@@ -11936,7 +11936,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="49">
+      <c r="A138" s="51">
         <v>43411</v>
       </c>
       <c r="B138" s="4"/>
@@ -11948,7 +11948,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="49"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="4"/>
       <c r="C139" s="16" t="s">
         <v>331</v>
@@ -11958,7 +11958,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="49"/>
+      <c r="A140" s="51"/>
       <c r="B140" s="4"/>
       <c r="C140" s="14" t="s">
         <v>336</v>
@@ -11968,7 +11968,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="49"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="19"/>
       <c r="C141" t="s">
         <v>494</v>
@@ -11978,7 +11978,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="49"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="19"/>
       <c r="C142" s="14" t="s">
         <v>260</v>
@@ -11988,7 +11988,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="49"/>
+      <c r="A143" s="51"/>
       <c r="B143" s="18"/>
       <c r="C143" t="s">
         <v>496</v>
@@ -11998,14 +11998,14 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="49"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="18"/>
       <c r="D144" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="49"/>
+      <c r="A145" s="51"/>
       <c r="B145" s="18"/>
       <c r="C145" s="14" t="s">
         <v>443</v>
@@ -12015,7 +12015,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="49"/>
+      <c r="A146" s="51"/>
       <c r="B146" s="18"/>
       <c r="C146" s="14" t="s">
         <v>472</v>
@@ -12025,7 +12025,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="49"/>
+      <c r="A147" s="51"/>
       <c r="B147" s="18"/>
       <c r="C147" s="14" t="s">
         <v>415</v>
@@ -12035,7 +12035,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="49"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="18"/>
       <c r="C148" s="14" t="s">
         <v>434</v>
@@ -12045,7 +12045,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="49"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="18"/>
       <c r="C149" s="14" t="s">
         <v>474</v>
@@ -12055,7 +12055,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="49"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="18"/>
       <c r="C150" s="14" t="s">
         <v>286</v>
@@ -12065,7 +12065,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="49"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="18"/>
       <c r="C151" s="14" t="s">
         <v>288</v>
@@ -12075,7 +12075,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="49"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="18"/>
       <c r="C152" s="14" t="s">
         <v>435</v>
@@ -12085,7 +12085,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="49"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="18"/>
       <c r="C153" t="s">
         <v>362</v>
@@ -12095,7 +12095,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="49"/>
+      <c r="A154" s="51"/>
       <c r="B154" s="18"/>
       <c r="C154" t="s">
         <v>330</v>
@@ -12105,7 +12105,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="49">
+      <c r="A156" s="51">
         <v>43412</v>
       </c>
       <c r="B156" s="4"/>
@@ -12117,7 +12117,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="49"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="4"/>
       <c r="C157" s="16" t="s">
         <v>274</v>
@@ -12127,7 +12127,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="49"/>
+      <c r="A158" s="51"/>
       <c r="B158" s="19"/>
       <c r="C158" t="s">
         <v>502</v>
@@ -12137,7 +12137,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="49"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="19"/>
       <c r="C159" s="14" t="s">
         <v>260</v>
@@ -12147,7 +12147,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="49"/>
+      <c r="A160" s="51"/>
       <c r="B160" s="18"/>
       <c r="C160" t="s">
         <v>496</v>
@@ -12157,14 +12157,14 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="49"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="18"/>
       <c r="D161" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="49"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="18"/>
       <c r="C162" s="14" t="s">
         <v>443</v>
@@ -12174,14 +12174,14 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="49"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="18"/>
       <c r="D163" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="49"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="18"/>
       <c r="C164" s="14" t="s">
         <v>472</v>
@@ -12191,7 +12191,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="49"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="18"/>
       <c r="C165" s="14" t="s">
         <v>415</v>
@@ -12201,7 +12201,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="49"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="18"/>
       <c r="C166" s="14" t="s">
         <v>474</v>
@@ -12211,7 +12211,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="49"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="18"/>
       <c r="C167" s="14" t="s">
         <v>485</v>
@@ -12221,7 +12221,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="49"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="18"/>
       <c r="C168" s="14" t="s">
         <v>487</v>
@@ -12231,7 +12231,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="49"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="18"/>
       <c r="C169" s="14" t="s">
         <v>347</v>
@@ -12241,7 +12241,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="49"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="18"/>
       <c r="C170" t="s">
         <v>426</v>
@@ -12251,7 +12251,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="49"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="18"/>
       <c r="C171" t="s">
         <v>330</v>
@@ -12261,7 +12261,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="49">
+      <c r="A173" s="51">
         <v>43413</v>
       </c>
       <c r="B173" s="4"/>
@@ -12273,7 +12273,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="49"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="19"/>
       <c r="C174" s="14" t="s">
         <v>260</v>
@@ -12283,7 +12283,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="49"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="18"/>
       <c r="C175" t="s">
         <v>496</v>
@@ -12293,7 +12293,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="49"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="18"/>
       <c r="C176" s="14" t="s">
         <v>443</v>
@@ -12303,14 +12303,14 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="49"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="18"/>
       <c r="D177" s="14" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="49"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="18"/>
       <c r="C178" s="14" t="s">
         <v>472</v>
@@ -12320,7 +12320,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="49"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="18"/>
       <c r="C179" s="14" t="s">
         <v>415</v>
@@ -12330,7 +12330,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="49"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="18"/>
       <c r="C180" s="14" t="s">
         <v>474</v>
@@ -12340,7 +12340,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="49"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="18"/>
       <c r="C181" s="14" t="s">
         <v>485</v>
@@ -12350,7 +12350,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="49"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="18"/>
       <c r="C182" s="14" t="s">
         <v>487</v>
@@ -12360,7 +12360,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="49"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="18"/>
       <c r="C183" s="14" t="s">
         <v>347</v>
@@ -12370,7 +12370,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="49"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="18"/>
       <c r="C184" t="s">
         <v>426</v>
@@ -12380,7 +12380,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="49"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="18"/>
       <c r="C185" t="s">
         <v>330</v>
@@ -12390,7 +12390,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="50">
+      <c r="A187" s="49">
         <v>43414</v>
       </c>
       <c r="B187" s="4"/>
@@ -12402,56 +12402,56 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="50"/>
+      <c r="A188" s="49"/>
       <c r="B188" s="19"/>
       <c r="D188" s="14" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="50"/>
+      <c r="A189" s="49"/>
       <c r="B189" s="19"/>
       <c r="D189" s="14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="50"/>
+      <c r="A190" s="49"/>
       <c r="B190" s="18"/>
       <c r="D190" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="50"/>
+      <c r="A191" s="49"/>
       <c r="B191" s="18"/>
       <c r="D191" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="50"/>
+      <c r="A192" s="49"/>
       <c r="B192" s="18"/>
       <c r="D192" s="14" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="50"/>
+      <c r="A193" s="49"/>
       <c r="B193" s="18"/>
       <c r="D193" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="50"/>
+      <c r="A194" s="49"/>
       <c r="B194" s="18"/>
       <c r="D194" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="50"/>
+      <c r="A195" s="49"/>
       <c r="B195" s="18"/>
       <c r="C195" t="s">
         <v>426</v>
@@ -12461,7 +12461,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="50"/>
+      <c r="A196" s="49"/>
       <c r="B196" s="18"/>
       <c r="C196" t="s">
         <v>330</v>
@@ -12471,7 +12471,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="50">
+      <c r="A198" s="49">
         <v>43415</v>
       </c>
       <c r="B198" s="4"/>
@@ -12483,14 +12483,14 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="50"/>
+      <c r="A199" s="49"/>
       <c r="B199" s="4"/>
       <c r="D199" s="14" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="50"/>
+      <c r="A200" s="49"/>
       <c r="B200" s="19"/>
       <c r="C200" s="14" t="s">
         <v>260</v>
@@ -12500,7 +12500,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="50"/>
+      <c r="A201" s="49"/>
       <c r="B201" s="18"/>
       <c r="C201" s="14" t="s">
         <v>443</v>
@@ -12510,7 +12510,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="50"/>
+      <c r="A202" s="49"/>
       <c r="B202" s="18"/>
       <c r="C202" s="14" t="s">
         <v>472</v>
@@ -12520,7 +12520,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="50"/>
+      <c r="A203" s="49"/>
       <c r="B203" s="18"/>
       <c r="C203" s="14" t="s">
         <v>301</v>
@@ -12530,7 +12530,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="50"/>
+      <c r="A204" s="49"/>
       <c r="B204" s="18"/>
       <c r="C204" s="14" t="s">
         <v>474</v>
@@ -12540,7 +12540,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="50"/>
+      <c r="A205" s="49"/>
       <c r="B205" s="18"/>
       <c r="C205" s="14" t="s">
         <v>520</v>
@@ -12550,7 +12550,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="50"/>
+      <c r="A206" s="49"/>
       <c r="B206" s="18"/>
       <c r="C206" s="14" t="s">
         <v>517</v>
@@ -12560,7 +12560,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="50"/>
+      <c r="A207" s="49"/>
       <c r="B207" s="18"/>
       <c r="C207" t="s">
         <v>518</v>
@@ -12570,7 +12570,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="49">
+      <c r="A209" s="51">
         <v>43416</v>
       </c>
       <c r="B209" s="4"/>
@@ -12582,7 +12582,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="49"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="19"/>
       <c r="C210" s="14" t="s">
         <v>260</v>
@@ -12592,14 +12592,14 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="49"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="18"/>
       <c r="D211" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="49"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="18"/>
       <c r="C212" s="14" t="s">
         <v>472</v>
@@ -12609,28 +12609,28 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="49"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="18"/>
       <c r="D213" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="49"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="18"/>
       <c r="D214" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="49"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="18"/>
       <c r="D215" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="49"/>
+      <c r="A216" s="51"/>
       <c r="B216" s="18"/>
       <c r="C216" t="s">
         <v>347</v>
@@ -12640,7 +12640,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="49"/>
+      <c r="A217" s="51"/>
       <c r="B217" s="18"/>
       <c r="C217" t="s">
         <v>426</v>
@@ -12650,14 +12650,14 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="49"/>
+      <c r="A218" s="51"/>
       <c r="B218" s="18"/>
       <c r="D218" s="14" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="49">
+      <c r="A220" s="51">
         <v>43417</v>
       </c>
       <c r="B220" s="4"/>
@@ -12669,7 +12669,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="49"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="4"/>
       <c r="C221" s="14" t="s">
         <v>530</v>
@@ -12679,14 +12679,14 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="49"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="4"/>
       <c r="D222" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="49"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="19"/>
       <c r="C223" s="14" t="s">
         <v>260</v>
@@ -12696,7 +12696,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="49"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="18"/>
       <c r="C224" s="14" t="s">
         <v>443</v>
@@ -12706,7 +12706,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="49"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="18"/>
       <c r="C225" s="14" t="s">
         <v>472</v>
@@ -12716,7 +12716,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="49"/>
+      <c r="A226" s="51"/>
       <c r="B226" s="18"/>
       <c r="C226" t="s">
         <v>415</v>
@@ -12726,7 +12726,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="49"/>
+      <c r="A227" s="51"/>
       <c r="B227" s="18"/>
       <c r="C227" s="14" t="s">
         <v>474</v>
@@ -12736,7 +12736,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="49"/>
+      <c r="A228" s="51"/>
       <c r="B228" s="18"/>
       <c r="C228" t="s">
         <v>347</v>
@@ -12746,7 +12746,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="49"/>
+      <c r="A229" s="51"/>
       <c r="B229" s="18"/>
       <c r="C229" t="s">
         <v>330</v>
@@ -12756,7 +12756,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="49">
+      <c r="A231" s="51">
         <v>43418</v>
       </c>
       <c r="B231" s="4"/>
@@ -12768,14 +12768,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="49"/>
+      <c r="A232" s="51"/>
       <c r="B232" s="4"/>
       <c r="D232" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="49"/>
+      <c r="A233" s="51"/>
       <c r="B233" s="19"/>
       <c r="C233" s="14" t="s">
         <v>260</v>
@@ -12785,21 +12785,21 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="49"/>
+      <c r="A234" s="51"/>
       <c r="B234" s="18"/>
       <c r="D234" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="49"/>
+      <c r="A235" s="51"/>
       <c r="B235" s="18"/>
       <c r="D235" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="49"/>
+      <c r="A236" s="51"/>
       <c r="B236" s="18"/>
       <c r="C236" s="14" t="s">
         <v>472</v>
@@ -12809,35 +12809,35 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="49"/>
+      <c r="A237" s="51"/>
       <c r="B237" s="18"/>
       <c r="D237" s="14" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="49"/>
+      <c r="A238" s="51"/>
       <c r="B238" s="18"/>
       <c r="D238" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="49"/>
+      <c r="A239" s="51"/>
       <c r="B239" s="18"/>
       <c r="D239" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="49"/>
+      <c r="A240" s="51"/>
       <c r="B240" s="18"/>
       <c r="D240" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="49"/>
+      <c r="A241" s="51"/>
       <c r="B241" s="18"/>
       <c r="C241" t="s">
         <v>330</v>
@@ -12847,14 +12847,14 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="49"/>
+      <c r="A242" s="51"/>
       <c r="B242" s="18"/>
       <c r="D242" s="14" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="49">
+      <c r="A244" s="51">
         <v>43419</v>
       </c>
       <c r="B244" s="4"/>
@@ -12866,14 +12866,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="49"/>
+      <c r="A245" s="51"/>
       <c r="B245" s="4"/>
       <c r="D245" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="49"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="19"/>
       <c r="C246" s="14" t="s">
         <v>260</v>
@@ -12883,14 +12883,14 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="49"/>
+      <c r="A247" s="51"/>
       <c r="B247" s="18"/>
       <c r="D247" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="49"/>
+      <c r="A248" s="51"/>
       <c r="B248" s="18"/>
       <c r="C248" s="14" t="s">
         <v>472</v>
@@ -12900,28 +12900,28 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="49"/>
+      <c r="A249" s="51"/>
       <c r="B249" s="18"/>
       <c r="D249" s="14" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="49"/>
+      <c r="A250" s="51"/>
       <c r="B250" s="18"/>
       <c r="D250" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="49"/>
+      <c r="A251" s="51"/>
       <c r="B251" s="18"/>
       <c r="D251" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="49"/>
+      <c r="A252" s="51"/>
       <c r="B252" s="18"/>
       <c r="C252" t="s">
         <v>330</v>
@@ -12931,7 +12931,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="49">
+      <c r="A254" s="51">
         <v>43420</v>
       </c>
       <c r="B254" s="4"/>
@@ -12943,21 +12943,21 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="49"/>
+      <c r="A255" s="51"/>
       <c r="B255" s="4"/>
       <c r="D255" s="16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="49"/>
+      <c r="A256" s="51"/>
       <c r="B256" s="4"/>
       <c r="D256" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="49"/>
+      <c r="A257" s="51"/>
       <c r="B257" s="19"/>
       <c r="C257" s="14" t="s">
         <v>260</v>
@@ -12967,14 +12967,14 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="49"/>
+      <c r="A258" s="51"/>
       <c r="B258" s="18"/>
       <c r="D258" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="49"/>
+      <c r="A259" s="51"/>
       <c r="B259" s="18"/>
       <c r="C259" s="14" t="s">
         <v>472</v>
@@ -12984,42 +12984,42 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="49"/>
+      <c r="A260" s="51"/>
       <c r="B260" s="18"/>
       <c r="D260" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="49"/>
+      <c r="A261" s="51"/>
       <c r="B261" s="18"/>
       <c r="D261" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="49"/>
+      <c r="A262" s="51"/>
       <c r="B262" s="18"/>
       <c r="D262" s="14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="49"/>
+      <c r="A263" s="51"/>
       <c r="B263" s="18"/>
       <c r="D263" s="14" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="49"/>
+      <c r="A264" s="51"/>
       <c r="B264" s="18"/>
       <c r="D264" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="49"/>
+      <c r="A265" s="51"/>
       <c r="B265" s="18"/>
       <c r="C265" t="s">
         <v>330</v>
@@ -13029,7 +13029,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="50">
+      <c r="A267" s="49">
         <v>43421</v>
       </c>
       <c r="B267" s="4"/>
@@ -13041,63 +13041,63 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="50"/>
+      <c r="A268" s="49"/>
       <c r="B268" s="4"/>
       <c r="D268" s="14" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="50"/>
+      <c r="A269" s="49"/>
       <c r="B269" s="19"/>
       <c r="D269" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="50"/>
+      <c r="A270" s="49"/>
       <c r="B270" s="18"/>
       <c r="D270" s="14" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="50"/>
+      <c r="A271" s="49"/>
       <c r="B271" s="18"/>
       <c r="D271" s="14" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="50"/>
+      <c r="A272" s="49"/>
       <c r="B272" s="18"/>
       <c r="D272" s="14" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="50"/>
+      <c r="A273" s="49"/>
       <c r="B273" s="18"/>
       <c r="D273" s="14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="50"/>
+      <c r="A274" s="49"/>
       <c r="B274" s="18"/>
       <c r="D274" s="14" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="50"/>
+      <c r="A275" s="49"/>
       <c r="B275" s="18"/>
       <c r="D275" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="50"/>
+      <c r="A276" s="49"/>
       <c r="B276" s="18"/>
       <c r="C276" t="s">
         <v>330</v>
@@ -13107,14 +13107,14 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="50"/>
+      <c r="A277" s="49"/>
       <c r="B277" s="18"/>
       <c r="D277" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="50">
+      <c r="A279" s="49">
         <v>43422</v>
       </c>
       <c r="B279" s="4"/>
@@ -13126,28 +13126,28 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="50"/>
+      <c r="A280" s="49"/>
       <c r="B280" s="4"/>
       <c r="D280" s="14" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="50"/>
+      <c r="A281" s="49"/>
       <c r="B281" s="4"/>
       <c r="D281" s="14" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="50"/>
+      <c r="A282" s="49"/>
       <c r="B282" s="4"/>
       <c r="D282" s="14" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="50"/>
+      <c r="A283" s="49"/>
       <c r="B283" s="19"/>
       <c r="C283" s="14" t="s">
         <v>260</v>
@@ -13157,35 +13157,35 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="50"/>
+      <c r="A284" s="49"/>
       <c r="B284" s="18"/>
       <c r="D284" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="50"/>
+      <c r="A285" s="49"/>
       <c r="B285" s="18"/>
       <c r="D285" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="50"/>
+      <c r="A286" s="49"/>
       <c r="B286" s="18"/>
       <c r="D286" s="14" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="50"/>
+      <c r="A287" s="49"/>
       <c r="B287" s="18"/>
       <c r="D287" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="50"/>
+      <c r="A288" s="49"/>
       <c r="B288" s="18"/>
       <c r="C288" t="s">
         <v>330</v>
@@ -13195,7 +13195,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="49">
+      <c r="A290" s="51">
         <v>43423</v>
       </c>
       <c r="B290" s="4"/>
@@ -13207,7 +13207,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="49"/>
+      <c r="A291" s="51"/>
       <c r="B291" s="4"/>
       <c r="C291" s="14" t="s">
         <v>244</v>
@@ -13217,14 +13217,14 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="49"/>
+      <c r="A292" s="51"/>
       <c r="B292" s="4"/>
       <c r="D292" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="49"/>
+      <c r="A293" s="51"/>
       <c r="B293" s="19"/>
       <c r="C293" s="14" t="s">
         <v>260</v>
@@ -13234,14 +13234,14 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="49"/>
+      <c r="A294" s="51"/>
       <c r="B294" s="18"/>
       <c r="D294" s="14" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="49"/>
+      <c r="A295" s="51"/>
       <c r="B295" s="18"/>
       <c r="C295" s="14" t="s">
         <v>472</v>
@@ -13251,42 +13251,42 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="49"/>
+      <c r="A296" s="51"/>
       <c r="B296" s="18"/>
       <c r="D296" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="49"/>
+      <c r="A297" s="51"/>
       <c r="B297" s="18"/>
       <c r="D297" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="49"/>
+      <c r="A298" s="51"/>
       <c r="B298" s="18"/>
       <c r="D298" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="49"/>
+      <c r="A299" s="51"/>
       <c r="B299" s="18"/>
       <c r="D299" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="49"/>
+      <c r="A300" s="51"/>
       <c r="B300" s="18"/>
       <c r="D300" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="49"/>
+      <c r="A301" s="51"/>
       <c r="B301" s="18"/>
       <c r="C301" t="s">
         <v>330</v>
@@ -13296,7 +13296,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="49">
+      <c r="A303" s="51">
         <v>43424</v>
       </c>
       <c r="B303" s="4"/>
@@ -13308,7 +13308,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="49"/>
+      <c r="A304" s="51"/>
       <c r="B304" s="4"/>
       <c r="C304" s="14" t="s">
         <v>592</v>
@@ -13318,7 +13318,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="49"/>
+      <c r="A305" s="51"/>
       <c r="B305" s="4"/>
       <c r="C305" s="14"/>
       <c r="D305" s="14" t="s">
@@ -13326,14 +13326,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="49"/>
+      <c r="A306" s="51"/>
       <c r="B306" s="4"/>
       <c r="D306" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="49"/>
+      <c r="A307" s="51"/>
       <c r="B307" s="19"/>
       <c r="C307" s="14" t="s">
         <v>260</v>
@@ -13343,14 +13343,14 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="49"/>
+      <c r="A308" s="51"/>
       <c r="B308" s="18"/>
       <c r="D308" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="49"/>
+      <c r="A309" s="51"/>
       <c r="B309" s="18"/>
       <c r="C309" s="14" t="s">
         <v>472</v>
@@ -13360,42 +13360,42 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="49"/>
+      <c r="A310" s="51"/>
       <c r="B310" s="18"/>
       <c r="D310" s="14" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="49"/>
+      <c r="A311" s="51"/>
       <c r="B311" s="18"/>
       <c r="D311" s="14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="49"/>
+      <c r="A312" s="51"/>
       <c r="B312" s="18"/>
       <c r="D312" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="49"/>
+      <c r="A313" s="51"/>
       <c r="B313" s="18"/>
       <c r="D313" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="49"/>
+      <c r="A314" s="51"/>
       <c r="B314" s="18"/>
       <c r="D314" s="14" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="49"/>
+      <c r="A315" s="51"/>
       <c r="B315" s="18"/>
       <c r="C315" t="s">
         <v>330</v>
@@ -13405,10 +13405,10 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="49">
+      <c r="A317" s="51">
         <v>43425</v>
       </c>
-      <c r="B317" s="56" t="s">
+      <c r="B317" s="53" t="s">
         <v>599</v>
       </c>
       <c r="C317" t="s">
@@ -13419,22 +13419,22 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="49"/>
-      <c r="B318" s="56"/>
+      <c r="A318" s="51"/>
+      <c r="B318" s="53"/>
       <c r="D318" s="14" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="49"/>
-      <c r="B319" s="56"/>
+      <c r="A319" s="51"/>
+      <c r="B319" s="53"/>
       <c r="D319" s="14" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="49"/>
-      <c r="B320" s="56"/>
+      <c r="A320" s="51"/>
+      <c r="B320" s="53"/>
       <c r="C320" s="14" t="s">
         <v>260</v>
       </c>
@@ -13443,22 +13443,22 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="49"/>
-      <c r="B321" s="56"/>
+      <c r="A321" s="51"/>
+      <c r="B321" s="53"/>
       <c r="D321" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="49"/>
-      <c r="B322" s="56"/>
+      <c r="A322" s="51"/>
+      <c r="B322" s="53"/>
       <c r="D322" s="14" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="49"/>
-      <c r="B323" s="56"/>
+      <c r="A323" s="51"/>
+      <c r="B323" s="53"/>
       <c r="C323" s="14" t="s">
         <v>604</v>
       </c>
@@ -13467,36 +13467,36 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="49"/>
-      <c r="B324" s="56"/>
+      <c r="A324" s="51"/>
+      <c r="B324" s="53"/>
       <c r="D324" s="14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="49"/>
-      <c r="B325" s="56"/>
+      <c r="A325" s="51"/>
+      <c r="B325" s="53"/>
       <c r="D325" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="49"/>
-      <c r="B326" s="56"/>
+      <c r="A326" s="51"/>
+      <c r="B326" s="53"/>
       <c r="D326" s="14" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="49"/>
-      <c r="B327" s="56"/>
+      <c r="A327" s="51"/>
+      <c r="B327" s="53"/>
       <c r="D327" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="49"/>
-      <c r="B328" s="56"/>
+      <c r="A328" s="51"/>
+      <c r="B328" s="53"/>
       <c r="C328" t="s">
         <v>330</v>
       </c>
@@ -13505,7 +13505,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="49">
+      <c r="A330" s="51">
         <v>43426</v>
       </c>
       <c r="B330" s="4"/>
@@ -13517,21 +13517,21 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="49"/>
+      <c r="A331" s="51"/>
       <c r="B331" s="4"/>
       <c r="D331" s="14" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="49"/>
+      <c r="A332" s="51"/>
       <c r="B332" s="4"/>
       <c r="D332" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="49"/>
+      <c r="A333" s="51"/>
       <c r="B333" s="4"/>
       <c r="C333" s="14" t="s">
         <v>260</v>
@@ -13541,28 +13541,28 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="49"/>
+      <c r="A334" s="51"/>
       <c r="B334" s="4"/>
       <c r="D334" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="49"/>
+      <c r="A335" s="51"/>
       <c r="B335" s="4"/>
       <c r="D335" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="49"/>
+      <c r="A336" s="51"/>
       <c r="B336" s="4"/>
       <c r="D336" s="14" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="49"/>
+      <c r="A337" s="51"/>
       <c r="B337" s="4"/>
       <c r="C337" s="14" t="s">
         <v>610</v>
@@ -13572,35 +13572,35 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="49"/>
+      <c r="A338" s="51"/>
       <c r="B338" s="18"/>
       <c r="D338" s="14" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="49"/>
+      <c r="A339" s="51"/>
       <c r="B339" s="18"/>
       <c r="D339" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="49"/>
+      <c r="A340" s="51"/>
       <c r="B340" s="18"/>
       <c r="D340" s="16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="49"/>
+      <c r="A341" s="51"/>
       <c r="B341" s="18"/>
       <c r="D341" s="14" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="49"/>
+      <c r="A342" s="51"/>
       <c r="B342" s="18"/>
       <c r="C342" t="s">
         <v>330</v>
@@ -13610,7 +13610,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="49">
+      <c r="A344" s="51">
         <v>43427</v>
       </c>
       <c r="B344" s="4"/>
@@ -13622,7 +13622,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="49"/>
+      <c r="A345" s="51"/>
       <c r="B345" s="4"/>
       <c r="C345" t="s">
         <v>613</v>
@@ -13632,28 +13632,28 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="49"/>
+      <c r="A346" s="51"/>
       <c r="B346" s="4"/>
       <c r="D346" s="14" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="49"/>
+      <c r="A347" s="51"/>
       <c r="B347" s="4"/>
       <c r="D347" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="49"/>
+      <c r="A348" s="51"/>
       <c r="B348" s="4"/>
       <c r="D348" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="49"/>
+      <c r="A349" s="51"/>
       <c r="B349" s="4"/>
       <c r="C349" s="14" t="s">
         <v>260</v>
@@ -13663,7 +13663,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="49"/>
+      <c r="A350" s="51"/>
       <c r="B350" s="4"/>
       <c r="C350" s="14" t="s">
         <v>610</v>
@@ -13673,35 +13673,35 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="49"/>
+      <c r="A351" s="51"/>
       <c r="B351" s="4"/>
       <c r="D351" s="14" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="49"/>
+      <c r="A352" s="51"/>
       <c r="B352" s="4"/>
       <c r="D352" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="49"/>
+      <c r="A353" s="51"/>
       <c r="B353" s="4"/>
       <c r="D353" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="49"/>
+      <c r="A354" s="51"/>
       <c r="B354" s="18"/>
       <c r="D354" s="14" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="49"/>
+      <c r="A355" s="51"/>
       <c r="B355" s="18"/>
       <c r="C355" t="s">
         <v>330</v>
@@ -13711,7 +13711,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="50">
+      <c r="A357" s="49">
         <v>43428</v>
       </c>
       <c r="B357" s="4"/>
@@ -13723,98 +13723,98 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="50"/>
+      <c r="A358" s="49"/>
       <c r="B358" s="4"/>
       <c r="D358" s="14" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="50"/>
+      <c r="A359" s="49"/>
       <c r="B359" s="4"/>
       <c r="D359" s="14" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="50"/>
+      <c r="A360" s="49"/>
       <c r="B360" s="4"/>
       <c r="D360" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="50"/>
+      <c r="A361" s="49"/>
       <c r="B361" s="4"/>
       <c r="D361" s="14" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="50"/>
+      <c r="A362" s="49"/>
       <c r="B362" s="4"/>
       <c r="D362" s="14" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="50"/>
+      <c r="A363" s="49"/>
       <c r="B363" s="4"/>
       <c r="D363" s="14" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="50"/>
+      <c r="A364" s="49"/>
       <c r="B364" s="4"/>
       <c r="D364" s="14" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="50"/>
+      <c r="A365" s="49"/>
       <c r="B365" s="4"/>
       <c r="D365" s="14" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="50"/>
+      <c r="A366" s="49"/>
       <c r="B366" s="4"/>
       <c r="D366" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="50"/>
+      <c r="A367" s="49"/>
       <c r="B367" s="4"/>
       <c r="D367" s="14" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="50"/>
+      <c r="A368" s="49"/>
       <c r="B368" s="4"/>
       <c r="D368" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="50"/>
+      <c r="A369" s="49"/>
       <c r="B369" s="18"/>
       <c r="D369" s="14" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="50"/>
+      <c r="A370" s="49"/>
       <c r="B370" s="18"/>
       <c r="D370" s="14" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="50">
+      <c r="A372" s="49">
         <v>43429</v>
       </c>
       <c r="B372" s="4"/>
@@ -13826,7 +13826,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="50"/>
+      <c r="A373" s="49"/>
       <c r="B373" s="4"/>
       <c r="C373" t="s">
         <v>613</v>
@@ -13836,28 +13836,28 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="50"/>
+      <c r="A374" s="49"/>
       <c r="B374" s="4"/>
       <c r="D374" s="14" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="50"/>
+      <c r="A375" s="49"/>
       <c r="B375" s="4"/>
       <c r="D375" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="50"/>
+      <c r="A376" s="49"/>
       <c r="B376" s="4"/>
       <c r="D376" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="50"/>
+      <c r="A377" s="49"/>
       <c r="B377" s="4"/>
       <c r="C377" s="14" t="s">
         <v>260</v>
@@ -13867,42 +13867,42 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="50"/>
+      <c r="A378" s="49"/>
       <c r="B378" s="4"/>
       <c r="D378" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="50"/>
+      <c r="A379" s="49"/>
       <c r="B379" s="4"/>
       <c r="D379" s="14" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="50"/>
+      <c r="A380" s="49"/>
       <c r="B380" s="4"/>
       <c r="D380" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="50"/>
+      <c r="A381" s="49"/>
       <c r="B381" s="4"/>
       <c r="D381" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="50"/>
+      <c r="A382" s="49"/>
       <c r="B382" s="4"/>
       <c r="D382" s="14" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="50"/>
+      <c r="A383" s="49"/>
       <c r="B383" s="18"/>
       <c r="C383" t="s">
         <v>362</v>
@@ -13912,7 +13912,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="50"/>
+      <c r="A384" s="49"/>
       <c r="B384" s="18"/>
       <c r="C384" t="s">
         <v>330</v>
@@ -13922,7 +13922,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A386" s="49">
+      <c r="A386" s="51">
         <v>43430</v>
       </c>
       <c r="B386" s="4"/>
@@ -13934,7 +13934,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A387" s="49"/>
+      <c r="A387" s="51"/>
       <c r="B387" s="4"/>
       <c r="C387" t="s">
         <v>633</v>
@@ -13944,14 +13944,14 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388" s="49"/>
+      <c r="A388" s="51"/>
       <c r="B388" s="4"/>
       <c r="D388" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389" s="49"/>
+      <c r="A389" s="51"/>
       <c r="B389" s="4"/>
       <c r="C389" s="14" t="s">
         <v>260</v>
@@ -13961,7 +13961,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="49"/>
+      <c r="A390" s="51"/>
       <c r="B390" s="4"/>
       <c r="C390" s="14" t="s">
         <v>610</v>
@@ -13971,8 +13971,8 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="49"/>
-      <c r="B391" s="56" t="s">
+      <c r="A391" s="51"/>
+      <c r="B391" s="53" t="s">
         <v>643</v>
       </c>
       <c r="D391" s="14" t="s">
@@ -13980,45 +13980,45 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="49"/>
-      <c r="B392" s="56"/>
+      <c r="A392" s="51"/>
+      <c r="B392" s="53"/>
       <c r="D392" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="49"/>
-      <c r="B393" s="56"/>
+      <c r="A393" s="51"/>
+      <c r="B393" s="53"/>
       <c r="D393" s="14" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="49"/>
-      <c r="B394" s="56"/>
+      <c r="A394" s="51"/>
+      <c r="B394" s="53"/>
       <c r="D394" s="14" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="49"/>
-      <c r="B395" s="56"/>
+      <c r="A395" s="51"/>
+      <c r="B395" s="53"/>
       <c r="D395" s="14" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="49"/>
-      <c r="B396" s="56"/>
+      <c r="A396" s="51"/>
+      <c r="B396" s="53"/>
       <c r="D396" s="14" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A398" s="49">
+      <c r="A398" s="51">
         <v>43431</v>
       </c>
-      <c r="B398" s="56" t="s">
+      <c r="B398" s="53" t="s">
         <v>642</v>
       </c>
       <c r="C398" t="s">
@@ -14029,8 +14029,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="49"/>
-      <c r="B399" s="56"/>
+      <c r="A399" s="51"/>
+      <c r="B399" s="53"/>
       <c r="C399" t="s">
         <v>633</v>
       </c>
@@ -14039,15 +14039,15 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A400" s="49"/>
-      <c r="B400" s="56"/>
+      <c r="A400" s="51"/>
+      <c r="B400" s="53"/>
       <c r="D400" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="49"/>
-      <c r="B401" s="56"/>
+      <c r="A401" s="51"/>
+      <c r="B401" s="53"/>
       <c r="C401" s="14" t="s">
         <v>260</v>
       </c>
@@ -14056,50 +14056,50 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A402" s="49"/>
-      <c r="B402" s="56"/>
+      <c r="A402" s="51"/>
+      <c r="B402" s="53"/>
       <c r="D402" s="14" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A403" s="49"/>
-      <c r="B403" s="56"/>
+      <c r="A403" s="51"/>
+      <c r="B403" s="53"/>
       <c r="D403" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="49"/>
-      <c r="B404" s="56"/>
+      <c r="A404" s="51"/>
+      <c r="B404" s="53"/>
       <c r="D404" s="14" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="49"/>
-      <c r="B405" s="56"/>
+      <c r="A405" s="51"/>
+      <c r="B405" s="53"/>
       <c r="D405" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="49"/>
-      <c r="B406" s="56"/>
+      <c r="A406" s="51"/>
+      <c r="B406" s="53"/>
       <c r="D406" s="14" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A407" s="49"/>
-      <c r="B407" s="56"/>
+      <c r="A407" s="51"/>
+      <c r="B407" s="53"/>
       <c r="D407" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="49"/>
-      <c r="B408" s="56"/>
+      <c r="A408" s="51"/>
+      <c r="B408" s="53"/>
       <c r="C408" t="s">
         <v>330</v>
       </c>
@@ -14108,10 +14108,10 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A410" s="49">
+      <c r="A410" s="51">
         <v>43432</v>
       </c>
-      <c r="B410" s="56"/>
+      <c r="B410" s="53"/>
       <c r="C410" t="s">
         <v>636</v>
       </c>
@@ -14120,8 +14120,8 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="49"/>
-      <c r="B411" s="56"/>
+      <c r="A411" s="51"/>
+      <c r="B411" s="53"/>
       <c r="C411" t="s">
         <v>651</v>
       </c>
@@ -14130,8 +14130,8 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="49"/>
-      <c r="B412" s="56"/>
+      <c r="A412" s="51"/>
+      <c r="B412" s="53"/>
       <c r="C412" s="14" t="s">
         <v>260</v>
       </c>
@@ -14140,59 +14140,59 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A413" s="49"/>
-      <c r="B413" s="56"/>
+      <c r="A413" s="51"/>
+      <c r="B413" s="53"/>
       <c r="D413" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A414" s="49"/>
-      <c r="B414" s="56"/>
+      <c r="A414" s="51"/>
+      <c r="B414" s="53"/>
       <c r="D414" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="49"/>
-      <c r="B415" s="56"/>
+      <c r="A415" s="51"/>
+      <c r="B415" s="53"/>
       <c r="D415" s="14" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A416" s="49"/>
-      <c r="B416" s="56"/>
+      <c r="A416" s="51"/>
+      <c r="B416" s="53"/>
       <c r="D416" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="49"/>
-      <c r="B417" s="56"/>
+      <c r="A417" s="51"/>
+      <c r="B417" s="53"/>
       <c r="D417" s="14" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A418" s="49"/>
-      <c r="B418" s="56"/>
+      <c r="A418" s="51"/>
+      <c r="B418" s="53"/>
       <c r="D418" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="49"/>
-      <c r="B419" s="56"/>
+      <c r="A419" s="51"/>
+      <c r="B419" s="53"/>
       <c r="D419" s="14" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="49">
+      <c r="A421" s="51">
         <v>43433</v>
       </c>
-      <c r="B421" s="56" t="s">
+      <c r="B421" s="53" t="s">
         <v>659</v>
       </c>
       <c r="C421" t="s">
@@ -14203,8 +14203,8 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A422" s="49"/>
-      <c r="B422" s="56"/>
+      <c r="A422" s="51"/>
+      <c r="B422" s="53"/>
       <c r="C422" t="s">
         <v>665</v>
       </c>
@@ -14213,8 +14213,8 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="49"/>
-      <c r="B423" s="56"/>
+      <c r="A423" s="51"/>
+      <c r="B423" s="53"/>
       <c r="C423" s="14" t="s">
         <v>260</v>
       </c>
@@ -14223,66 +14223,66 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A424" s="49"/>
-      <c r="B424" s="56"/>
+      <c r="A424" s="51"/>
+      <c r="B424" s="53"/>
       <c r="D424" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="49"/>
-      <c r="B425" s="56"/>
+      <c r="A425" s="51"/>
+      <c r="B425" s="53"/>
       <c r="D425" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="49"/>
-      <c r="B426" s="56"/>
+      <c r="A426" s="51"/>
+      <c r="B426" s="53"/>
       <c r="D426" s="14" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="49"/>
-      <c r="B427" s="56"/>
+      <c r="A427" s="51"/>
+      <c r="B427" s="53"/>
       <c r="D427" s="14" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="49"/>
-      <c r="B428" s="56"/>
+      <c r="A428" s="51"/>
+      <c r="B428" s="53"/>
       <c r="D428" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="49"/>
-      <c r="B429" s="56"/>
+      <c r="A429" s="51"/>
+      <c r="B429" s="53"/>
       <c r="D429" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="49"/>
-      <c r="B430" s="56"/>
+      <c r="A430" s="51"/>
+      <c r="B430" s="53"/>
       <c r="D430" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="49"/>
-      <c r="B431" s="56"/>
+      <c r="A431" s="51"/>
+      <c r="B431" s="53"/>
       <c r="D431" s="14" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="49">
+      <c r="A433" s="51">
         <v>43434</v>
       </c>
-      <c r="B433" s="56"/>
+      <c r="B433" s="53"/>
       <c r="C433" t="s">
         <v>668</v>
       </c>
@@ -14291,8 +14291,8 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="49"/>
-      <c r="B434" s="56"/>
+      <c r="A434" s="51"/>
+      <c r="B434" s="53"/>
       <c r="C434" t="s">
         <v>670</v>
       </c>
@@ -14301,8 +14301,8 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="49"/>
-      <c r="B435" s="56"/>
+      <c r="A435" s="51"/>
+      <c r="B435" s="53"/>
       <c r="C435" s="14" t="s">
         <v>260</v>
       </c>
@@ -14311,38 +14311,38 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="49"/>
-      <c r="B436" s="56"/>
+      <c r="A436" s="51"/>
+      <c r="B436" s="53"/>
       <c r="D436" s="14" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="49"/>
-      <c r="B437" s="56"/>
+      <c r="A437" s="51"/>
+      <c r="B437" s="53"/>
       <c r="D437" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="49"/>
-      <c r="B438" s="56"/>
+      <c r="A438" s="51"/>
+      <c r="B438" s="53"/>
       <c r="D438" s="14" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="49"/>
-      <c r="B439" s="56"/>
+      <c r="A439" s="51"/>
+      <c r="B439" s="53"/>
       <c r="D439" s="14" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="50">
+      <c r="A441" s="49">
         <v>43435</v>
       </c>
-      <c r="B441" s="56"/>
+      <c r="B441" s="53"/>
       <c r="C441" t="s">
         <v>668</v>
       </c>
@@ -14351,70 +14351,70 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="50"/>
-      <c r="B442" s="56"/>
+      <c r="A442" s="49"/>
+      <c r="B442" s="53"/>
       <c r="D442" s="14" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="50"/>
-      <c r="B443" s="56"/>
+      <c r="A443" s="49"/>
+      <c r="B443" s="53"/>
       <c r="D443" s="14" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="50"/>
-      <c r="B444" s="56"/>
+      <c r="A444" s="49"/>
+      <c r="B444" s="53"/>
       <c r="D444" s="14" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="50"/>
-      <c r="B445" s="56"/>
+      <c r="A445" s="49"/>
+      <c r="B445" s="53"/>
       <c r="D445" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="50"/>
-      <c r="B446" s="56"/>
+      <c r="A446" s="49"/>
+      <c r="B446" s="53"/>
       <c r="D446" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="50"/>
-      <c r="B447" s="56"/>
+      <c r="A447" s="49"/>
+      <c r="B447" s="53"/>
       <c r="D447" s="14" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="50"/>
-      <c r="B448" s="56"/>
+      <c r="A448" s="49"/>
+      <c r="B448" s="53"/>
       <c r="D448" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="50"/>
-      <c r="B449" s="56"/>
+      <c r="A449" s="49"/>
+      <c r="B449" s="53"/>
       <c r="D449" s="14" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="50"/>
-      <c r="B450" s="56"/>
+      <c r="A450" s="49"/>
+      <c r="B450" s="53"/>
       <c r="D450" s="14" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="50">
+      <c r="A452" s="49">
         <v>43436</v>
       </c>
       <c r="B452" s="4"/>
@@ -14426,28 +14426,28 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="50"/>
+      <c r="A453" s="49"/>
       <c r="B453" s="4"/>
       <c r="D453" s="14" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="50"/>
+      <c r="A454" s="49"/>
       <c r="B454" s="4"/>
       <c r="D454" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="50"/>
+      <c r="A455" s="49"/>
       <c r="B455" s="4"/>
       <c r="D455" s="14" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="50"/>
+      <c r="A456" s="49"/>
       <c r="B456" s="4" t="s">
         <v>695</v>
       </c>
@@ -14456,27 +14456,27 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="50"/>
+      <c r="A457" s="49"/>
       <c r="B457" s="4"/>
       <c r="D457" s="14" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="50"/>
+      <c r="A458" s="49"/>
       <c r="B458" s="4"/>
       <c r="D458" s="14" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="50"/>
+      <c r="A459" s="49"/>
       <c r="D459" s="14" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="50"/>
+      <c r="A460" s="49"/>
       <c r="B460" s="4" t="s">
         <v>690</v>
       </c>
@@ -14485,10 +14485,10 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="49">
+      <c r="A462" s="51">
         <v>43437</v>
       </c>
-      <c r="B462" s="51" t="s">
+      <c r="B462" s="50" t="s">
         <v>704</v>
       </c>
       <c r="C462" t="s">
@@ -14499,8 +14499,8 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="49"/>
-      <c r="B463" s="51"/>
+      <c r="A463" s="51"/>
+      <c r="B463" s="50"/>
       <c r="C463" t="s">
         <v>692</v>
       </c>
@@ -14509,22 +14509,22 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A464" s="49"/>
-      <c r="B464" s="51"/>
+      <c r="A464" s="51"/>
+      <c r="B464" s="50"/>
       <c r="D464" s="14" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="49"/>
-      <c r="B465" s="51"/>
+      <c r="A465" s="51"/>
+      <c r="B465" s="50"/>
       <c r="D465" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="49"/>
-      <c r="B466" s="51"/>
+      <c r="A466" s="51"/>
+      <c r="B466" s="50"/>
       <c r="C466" s="14" t="s">
         <v>260</v>
       </c>
@@ -14533,16 +14533,16 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="49"/>
-      <c r="B467" s="51"/>
+      <c r="A467" s="51"/>
+      <c r="B467" s="50"/>
       <c r="C467" s="14"/>
       <c r="D467" s="14" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="49"/>
-      <c r="B468" s="51" t="s">
+      <c r="A468" s="51"/>
+      <c r="B468" s="50" t="s">
         <v>705</v>
       </c>
       <c r="D468" s="14" t="s">
@@ -14550,28 +14550,28 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="49"/>
-      <c r="B469" s="56"/>
+      <c r="A469" s="51"/>
+      <c r="B469" s="53"/>
       <c r="D469" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="E469" s="56" t="s">
+      <c r="E469" s="53" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="49"/>
-      <c r="B470" s="56"/>
+      <c r="A470" s="51"/>
+      <c r="B470" s="53"/>
       <c r="D470" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="E470" s="56"/>
+      <c r="E470" s="53"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="49">
+      <c r="A472" s="51">
         <v>43438</v>
       </c>
-      <c r="B472" s="51" t="s">
+      <c r="B472" s="50" t="s">
         <v>736</v>
       </c>
       <c r="C472" t="s">
@@ -14580,58 +14580,58 @@
       <c r="D472" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="E472" s="56" t="s">
+      <c r="E472" s="53" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="49"/>
-      <c r="B473" s="56"/>
+      <c r="A473" s="51"/>
+      <c r="B473" s="53"/>
       <c r="D473" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="E473" s="56"/>
+      <c r="E473" s="53"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="49"/>
-      <c r="B474" s="56"/>
+      <c r="A474" s="51"/>
+      <c r="B474" s="53"/>
       <c r="C474" t="s">
         <v>713</v>
       </c>
       <c r="D474" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="E474" s="56"/>
+      <c r="E474" s="53"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="49"/>
-      <c r="B475" s="56"/>
+      <c r="A475" s="51"/>
+      <c r="B475" s="53"/>
       <c r="C475" s="14" t="s">
         <v>712</v>
       </c>
       <c r="D475" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="E475" s="56"/>
+      <c r="E475" s="53"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="49"/>
-      <c r="B476" s="56"/>
+      <c r="A476" s="51"/>
+      <c r="B476" s="53"/>
       <c r="D476" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="E476" s="56"/>
+      <c r="E476" s="53"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="49"/>
-      <c r="B477" s="56"/>
+      <c r="A477" s="51"/>
+      <c r="B477" s="53"/>
       <c r="D477" s="14" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" s="49"/>
-      <c r="B478" s="56"/>
+      <c r="A478" s="51"/>
+      <c r="B478" s="53"/>
       <c r="D478" s="14" t="s">
         <v>406</v>
       </c>
@@ -14640,18 +14640,18 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" s="49"/>
-      <c r="B479" s="56"/>
+      <c r="A479" s="51"/>
+      <c r="B479" s="53"/>
       <c r="D479" s="14" t="s">
         <v>731</v>
       </c>
       <c r="E479" s="48"/>
     </row>
     <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="49">
+      <c r="A481" s="51">
         <v>43439</v>
       </c>
-      <c r="B481" s="51" t="s">
+      <c r="B481" s="50" t="s">
         <v>735</v>
       </c>
       <c r="C481" t="s">
@@ -14660,20 +14660,20 @@
       <c r="D481" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="E481" s="56" t="s">
+      <c r="E481" s="53" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="49"/>
-      <c r="B482" s="56"/>
+      <c r="A482" s="51"/>
+      <c r="B482" s="53"/>
       <c r="D482" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="E482" s="56"/>
+      <c r="E482" s="53"/>
     </row>
     <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="49"/>
+      <c r="A483" s="51"/>
       <c r="B483" s="29" t="s">
         <v>734</v>
       </c>
@@ -14683,46 +14683,46 @@
       <c r="D483" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="E483" s="56"/>
+      <c r="E483" s="53"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="49"/>
+      <c r="A484" s="51"/>
       <c r="B484" s="4"/>
       <c r="D484" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="E484" s="56"/>
+      <c r="E484" s="53"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="49"/>
+      <c r="A485" s="51"/>
       <c r="B485" s="4"/>
       <c r="D485" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="E485" s="56"/>
+      <c r="E485" s="53"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="49"/>
+      <c r="A486" s="51"/>
       <c r="B486" s="4"/>
       <c r="D486" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="E486" s="56" t="s">
+      <c r="E486" s="53" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="49"/>
+      <c r="A487" s="51"/>
       <c r="B487" s="29" t="s">
         <v>372</v>
       </c>
       <c r="D487" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="E487" s="56"/>
+      <c r="E487" s="53"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="49">
+      <c r="A489" s="51">
         <v>43440</v>
       </c>
       <c r="C489" t="s">
@@ -14734,7 +14734,7 @@
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="49"/>
+      <c r="A490" s="51"/>
       <c r="B490" s="4"/>
       <c r="D490" s="14" t="s">
         <v>745</v>
@@ -14742,7 +14742,7 @@
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="49"/>
+      <c r="A491" s="51"/>
       <c r="B491" s="29" t="s">
         <v>734</v>
       </c>
@@ -14755,7 +14755,7 @@
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="49"/>
+      <c r="A492" s="51"/>
       <c r="B492" s="4"/>
       <c r="D492" s="14" t="s">
         <v>730</v>
@@ -14763,38 +14763,38 @@
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="49"/>
+      <c r="A493" s="51"/>
       <c r="B493" s="4"/>
       <c r="D493" s="14" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="49"/>
+      <c r="A494" s="51"/>
       <c r="B494" s="4"/>
       <c r="D494" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="49"/>
+      <c r="A495" s="51"/>
       <c r="B495" s="4"/>
       <c r="D495" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="49"/>
+      <c r="A496" s="51"/>
       <c r="B496" s="4"/>
       <c r="D496" s="14" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="49">
+      <c r="A498" s="51">
         <v>43441</v>
       </c>
-      <c r="B498" s="51"/>
+      <c r="B498" s="50"/>
       <c r="C498" t="s">
         <v>657</v>
       </c>
@@ -14804,15 +14804,15 @@
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="49"/>
-      <c r="B499" s="56"/>
+      <c r="A499" s="51"/>
+      <c r="B499" s="53"/>
       <c r="D499" s="14" t="s">
         <v>733</v>
       </c>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="49"/>
+      <c r="A500" s="51"/>
       <c r="B500" s="29" t="s">
         <v>734</v>
       </c>
@@ -14822,7 +14822,7 @@
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="49"/>
+      <c r="A501" s="51"/>
       <c r="B501" s="4"/>
       <c r="C501" s="14" t="s">
         <v>712</v>
@@ -14833,7 +14833,7 @@
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="49"/>
+      <c r="A502" s="51"/>
       <c r="B502" s="4"/>
       <c r="D502" s="14" t="s">
         <v>763</v>
@@ -14841,21 +14841,21 @@
       <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="49"/>
+      <c r="A503" s="51"/>
       <c r="B503" s="4"/>
       <c r="D503" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="49"/>
+      <c r="A504" s="51"/>
       <c r="B504" s="4"/>
       <c r="D504" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="50">
+      <c r="A506" s="49">
         <v>43442</v>
       </c>
       <c r="B506" s="30"/>
@@ -14867,49 +14867,49 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="50"/>
+      <c r="A507" s="49"/>
       <c r="B507" s="4"/>
       <c r="D507" s="14" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="50"/>
+      <c r="A508" s="49"/>
       <c r="B508" s="4"/>
       <c r="D508" s="14" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="50"/>
+      <c r="A509" s="49"/>
       <c r="B509" s="4"/>
       <c r="D509" s="14" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="50"/>
+      <c r="A510" s="49"/>
       <c r="B510" s="4"/>
       <c r="D510" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="50"/>
+      <c r="A511" s="49"/>
       <c r="B511" s="4"/>
       <c r="D511" s="14" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="50"/>
+      <c r="A512" s="49"/>
       <c r="B512" s="4"/>
       <c r="D512" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="50">
+      <c r="A514" s="49">
         <v>43443</v>
       </c>
       <c r="B514" s="30"/>
@@ -14918,7 +14918,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A515" s="50"/>
+      <c r="A515" s="49"/>
       <c r="B515" s="30"/>
       <c r="C515" t="s">
         <v>468</v>
@@ -14928,63 +14928,63 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A516" s="50"/>
+      <c r="A516" s="49"/>
       <c r="B516" s="4"/>
       <c r="D516" s="14" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="50"/>
+      <c r="A517" s="49"/>
       <c r="B517" s="4"/>
       <c r="D517" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="50"/>
+      <c r="A518" s="49"/>
       <c r="B518" s="4"/>
       <c r="D518" s="14" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="50"/>
+      <c r="A519" s="49"/>
       <c r="B519" s="4"/>
       <c r="D519" s="14" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" s="50"/>
+      <c r="A520" s="49"/>
       <c r="B520" s="4"/>
       <c r="D520" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="50"/>
+      <c r="A521" s="49"/>
       <c r="B521" s="4"/>
       <c r="D521" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A522" s="50"/>
+      <c r="A522" s="49"/>
       <c r="B522" s="4"/>
       <c r="D522" s="14" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="50"/>
+      <c r="A523" s="49"/>
       <c r="B523" s="4"/>
       <c r="D523" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="49">
+      <c r="A525" s="51">
         <v>43444</v>
       </c>
       <c r="B525" s="30" t="s">
@@ -14998,8 +14998,8 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A526" s="49"/>
-      <c r="B526" s="51" t="s">
+      <c r="A526" s="51"/>
+      <c r="B526" s="50" t="s">
         <v>779</v>
       </c>
       <c r="D526" s="14" t="s">
@@ -15007,29 +15007,29 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" s="49"/>
-      <c r="B527" s="51"/>
+      <c r="A527" s="51"/>
+      <c r="B527" s="50"/>
       <c r="D527" s="14" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A528" s="49"/>
-      <c r="B528" s="51"/>
+      <c r="A528" s="51"/>
+      <c r="B528" s="50"/>
       <c r="D528" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A529" s="49"/>
-      <c r="B529" s="51"/>
+      <c r="A529" s="51"/>
+      <c r="B529" s="50"/>
       <c r="D529" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" s="49"/>
-      <c r="B530" s="51"/>
+      <c r="A530" s="51"/>
+      <c r="B530" s="50"/>
       <c r="C530" s="14" t="s">
         <v>712</v>
       </c>
@@ -15038,42 +15038,42 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="49"/>
-      <c r="B531" s="51"/>
+      <c r="A531" s="51"/>
+      <c r="B531" s="50"/>
       <c r="D531" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="49"/>
+      <c r="A532" s="51"/>
       <c r="B532" s="4"/>
       <c r="D532" s="14" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A533" s="49"/>
+      <c r="A533" s="51"/>
       <c r="B533" s="4"/>
       <c r="D533" s="14" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" s="49"/>
+      <c r="A534" s="51"/>
       <c r="B534" s="4"/>
       <c r="D534" s="14" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="49"/>
+      <c r="A535" s="51"/>
       <c r="B535" s="4"/>
       <c r="D535" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="49">
+      <c r="A537" s="51">
         <v>43445</v>
       </c>
       <c r="B537" s="30"/>
@@ -15085,8 +15085,8 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A538" s="49"/>
-      <c r="B538" s="51" t="s">
+      <c r="A538" s="51"/>
+      <c r="B538" s="50" t="s">
         <v>782</v>
       </c>
       <c r="D538" s="14" t="s">
@@ -15094,15 +15094,15 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="49"/>
-      <c r="B539" s="51"/>
+      <c r="A539" s="51"/>
+      <c r="B539" s="50"/>
       <c r="D539" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A540" s="49"/>
-      <c r="B540" s="51"/>
+      <c r="A540" s="51"/>
+      <c r="B540" s="50"/>
       <c r="C540" s="14" t="s">
         <v>712</v>
       </c>
@@ -15111,56 +15111,56 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" s="49"/>
-      <c r="B541" s="51"/>
+      <c r="A541" s="51"/>
+      <c r="B541" s="50"/>
       <c r="D541" s="14" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A542" s="49"/>
-      <c r="B542" s="51"/>
+      <c r="A542" s="51"/>
+      <c r="B542" s="50"/>
       <c r="D542" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A543" s="49"/>
-      <c r="B543" s="51"/>
+      <c r="A543" s="51"/>
+      <c r="B543" s="50"/>
       <c r="D543" s="14" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A544" s="49"/>
+      <c r="A544" s="51"/>
       <c r="B544" s="4"/>
       <c r="D544" s="14" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="49"/>
+      <c r="A545" s="51"/>
       <c r="B545" s="4"/>
       <c r="D545" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A546" s="49"/>
+      <c r="A546" s="51"/>
       <c r="B546" s="4"/>
       <c r="D546" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A547" s="49"/>
+      <c r="A547" s="51"/>
       <c r="B547" s="4"/>
       <c r="D547" s="14" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="49">
+      <c r="A549" s="51">
         <v>43446</v>
       </c>
       <c r="B549" s="30"/>
@@ -15172,8 +15172,8 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A550" s="49"/>
-      <c r="B550" s="51" t="s">
+      <c r="A550" s="51"/>
+      <c r="B550" s="50" t="s">
         <v>825</v>
       </c>
       <c r="D550" s="14" t="s">
@@ -15181,15 +15181,15 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A551" s="49"/>
-      <c r="B551" s="51"/>
+      <c r="A551" s="51"/>
+      <c r="B551" s="50"/>
       <c r="D551" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="49"/>
-      <c r="B552" s="51"/>
+      <c r="A552" s="51"/>
+      <c r="B552" s="50"/>
       <c r="C552" s="14" t="s">
         <v>712</v>
       </c>
@@ -15198,49 +15198,49 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A553" s="49"/>
-      <c r="B553" s="51"/>
+      <c r="A553" s="51"/>
+      <c r="B553" s="50"/>
       <c r="D553" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A554" s="49"/>
-      <c r="B554" s="51"/>
+      <c r="A554" s="51"/>
+      <c r="B554" s="50"/>
       <c r="D554" s="14" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" s="49"/>
+      <c r="A555" s="51"/>
       <c r="B555" s="4"/>
       <c r="D555" s="14" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A556" s="49"/>
+      <c r="A556" s="51"/>
       <c r="B556" s="4"/>
       <c r="D556" s="14" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="49"/>
+      <c r="A557" s="51"/>
       <c r="B557" s="4"/>
       <c r="D557" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A558" s="49"/>
+      <c r="A558" s="51"/>
       <c r="B558" s="4"/>
       <c r="D558" s="14" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A560" s="49">
+      <c r="A560" s="51">
         <v>43447</v>
       </c>
       <c r="B560" s="30"/>
@@ -15252,8 +15252,8 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="49"/>
-      <c r="B561" s="51" t="s">
+      <c r="A561" s="51"/>
+      <c r="B561" s="50" t="s">
         <v>845</v>
       </c>
       <c r="D561" s="14" t="s">
@@ -15261,15 +15261,15 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" s="49"/>
-      <c r="B562" s="51"/>
+      <c r="A562" s="51"/>
+      <c r="B562" s="50"/>
       <c r="D562" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="49"/>
-      <c r="B563" s="51"/>
+      <c r="A563" s="51"/>
+      <c r="B563" s="50"/>
       <c r="C563" s="14" t="s">
         <v>712</v>
       </c>
@@ -15278,21 +15278,21 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A564" s="49"/>
-      <c r="B564" s="51"/>
+      <c r="A564" s="51"/>
+      <c r="B564" s="50"/>
       <c r="D564" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A565" s="49"/>
-      <c r="B565" s="51"/>
+      <c r="A565" s="51"/>
+      <c r="B565" s="50"/>
       <c r="D565" s="14" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A566" s="49"/>
+      <c r="A566" s="51"/>
       <c r="B566" s="29" t="s">
         <v>847</v>
       </c>
@@ -15301,35 +15301,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="49"/>
+      <c r="A567" s="51"/>
       <c r="B567" s="4"/>
       <c r="D567" s="14" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A568" s="49"/>
+      <c r="A568" s="51"/>
       <c r="B568" s="4"/>
       <c r="D568" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" s="49"/>
+      <c r="A569" s="51"/>
       <c r="B569" s="4"/>
       <c r="D569" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A570" s="49"/>
+      <c r="A570" s="51"/>
       <c r="B570" s="4"/>
       <c r="D570" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A572" s="49">
+      <c r="A572" s="51">
         <v>43448</v>
       </c>
       <c r="B572" s="30"/>
@@ -15338,7 +15338,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="49"/>
+      <c r="A573" s="51"/>
       <c r="B573" s="30"/>
       <c r="C573" t="s">
         <v>848</v>
@@ -15348,8 +15348,8 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A574" s="49"/>
-      <c r="B574" s="51" t="s">
+      <c r="A574" s="51"/>
+      <c r="B574" s="50" t="s">
         <v>854</v>
       </c>
       <c r="D574" s="14" t="s">
@@ -15357,22 +15357,22 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="49"/>
-      <c r="B575" s="51"/>
+      <c r="A575" s="51"/>
+      <c r="B575" s="50"/>
       <c r="D575" s="14" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A576" s="49"/>
-      <c r="B576" s="51"/>
+      <c r="A576" s="51"/>
+      <c r="B576" s="50"/>
       <c r="D576" s="14" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="49"/>
-      <c r="B577" s="51"/>
+      <c r="A577" s="51"/>
+      <c r="B577" s="50"/>
       <c r="C577" s="14" t="s">
         <v>712</v>
       </c>
@@ -15381,49 +15381,49 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A578" s="49"/>
-      <c r="B578" s="51"/>
+      <c r="A578" s="51"/>
+      <c r="B578" s="50"/>
       <c r="D578" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A579" s="49"/>
-      <c r="B579" s="51"/>
+      <c r="A579" s="51"/>
+      <c r="B579" s="50"/>
       <c r="D579" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A580" s="49"/>
-      <c r="B580" s="51"/>
+      <c r="A580" s="51"/>
+      <c r="B580" s="50"/>
       <c r="D580" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="49"/>
+      <c r="A581" s="51"/>
       <c r="B581" s="29"/>
       <c r="D581" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A582" s="49"/>
+      <c r="A582" s="51"/>
       <c r="B582" s="4"/>
       <c r="D582" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A583" s="49"/>
+      <c r="A583" s="51"/>
       <c r="B583" s="4"/>
       <c r="D583" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A584" s="49"/>
+      <c r="A584" s="51"/>
       <c r="B584" s="4"/>
       <c r="D584" s="14" t="s">
         <v>846</v>
@@ -15434,7 +15434,7 @@
       <c r="B585" s="4"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="50">
+      <c r="A586" s="49">
         <v>43449</v>
       </c>
       <c r="B586" s="30"/>
@@ -15443,7 +15443,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="50"/>
+      <c r="A587" s="49"/>
       <c r="B587" s="30"/>
       <c r="C587" t="s">
         <v>860</v>
@@ -15453,8 +15453,8 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="50"/>
-      <c r="B588" s="51" t="s">
+      <c r="A588" s="49"/>
+      <c r="B588" s="50" t="s">
         <v>873</v>
       </c>
       <c r="D588" s="14" t="s">
@@ -15462,63 +15462,63 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A589" s="50"/>
-      <c r="B589" s="51"/>
+      <c r="A589" s="49"/>
+      <c r="B589" s="50"/>
       <c r="D589" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="50"/>
-      <c r="B590" s="51"/>
+      <c r="A590" s="49"/>
+      <c r="B590" s="50"/>
       <c r="D590" s="14" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A591" s="50"/>
-      <c r="B591" s="51"/>
+      <c r="A591" s="49"/>
+      <c r="B591" s="50"/>
       <c r="D591" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="50"/>
-      <c r="B592" s="51"/>
+      <c r="A592" s="49"/>
+      <c r="B592" s="50"/>
       <c r="D592" s="14" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="50"/>
-      <c r="B593" s="51"/>
+      <c r="A593" s="49"/>
+      <c r="B593" s="50"/>
       <c r="D593" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A594" s="50"/>
-      <c r="B594" s="51"/>
+      <c r="A594" s="49"/>
+      <c r="B594" s="50"/>
       <c r="D594" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A595" s="50"/>
-      <c r="B595" s="51"/>
+      <c r="A595" s="49"/>
+      <c r="B595" s="50"/>
       <c r="D595" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A596" s="50"/>
-      <c r="B596" s="51"/>
+      <c r="A596" s="49"/>
+      <c r="B596" s="50"/>
       <c r="D596" s="14" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="50">
+      <c r="A598" s="49">
         <v>43450</v>
       </c>
       <c r="B598" s="30"/>
@@ -15527,7 +15527,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" s="50"/>
+      <c r="A599" s="49"/>
       <c r="B599" s="30"/>
       <c r="C599" t="s">
         <v>868</v>
@@ -15537,91 +15537,91 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" s="50"/>
+      <c r="A600" s="49"/>
       <c r="B600" s="30"/>
       <c r="D600" s="16" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A601" s="50"/>
+      <c r="A601" s="49"/>
       <c r="B601" s="30"/>
       <c r="D601" s="14" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A602" s="50"/>
+      <c r="A602" s="49"/>
       <c r="B602" s="30"/>
       <c r="D602" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A603" s="50"/>
+      <c r="A603" s="49"/>
       <c r="B603" s="30"/>
       <c r="D603" s="14" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" s="50"/>
+      <c r="A604" s="49"/>
       <c r="B604" s="30"/>
       <c r="D604" s="14" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" s="50"/>
+      <c r="A605" s="49"/>
       <c r="B605" s="30"/>
       <c r="D605" s="14" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="50"/>
+      <c r="A606" s="49"/>
       <c r="B606" s="30"/>
       <c r="D606" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A607" s="50"/>
+      <c r="A607" s="49"/>
       <c r="B607" s="30"/>
       <c r="D607" s="14" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A608" s="50"/>
+      <c r="A608" s="49"/>
       <c r="B608" s="29"/>
       <c r="D608" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A609" s="50"/>
+      <c r="A609" s="49"/>
       <c r="B609" s="4"/>
       <c r="D609" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A610" s="50"/>
+      <c r="A610" s="49"/>
       <c r="B610" s="4"/>
       <c r="D610" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" s="50"/>
+      <c r="A611" s="49"/>
       <c r="B611" s="4"/>
       <c r="D611" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="49">
+      <c r="A613" s="51">
         <v>43451</v>
       </c>
       <c r="B613" s="30"/>
@@ -15633,14 +15633,14 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="49"/>
+      <c r="A614" s="51"/>
       <c r="B614" s="30"/>
       <c r="D614" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A615" s="49"/>
+      <c r="A615" s="51"/>
       <c r="B615" s="30"/>
       <c r="C615" s="14" t="s">
         <v>712</v>
@@ -15650,7 +15650,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A616" s="49"/>
+      <c r="A616" s="51"/>
       <c r="B616" s="30"/>
       <c r="C616" s="14"/>
       <c r="D616" s="14" t="s">
@@ -15658,42 +15658,42 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" s="49"/>
+      <c r="A617" s="51"/>
       <c r="B617" s="30"/>
       <c r="D617" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A618" s="49"/>
+      <c r="A618" s="51"/>
       <c r="B618" s="30"/>
       <c r="D618" s="14" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A619" s="49"/>
+      <c r="A619" s="51"/>
       <c r="B619" s="29"/>
       <c r="D619" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="49"/>
+      <c r="A620" s="51"/>
       <c r="B620" s="4"/>
       <c r="D620" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A621" s="49"/>
+      <c r="A621" s="51"/>
       <c r="B621" s="4"/>
       <c r="D621" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="49">
+      <c r="A623" s="51">
         <v>43452</v>
       </c>
       <c r="B623" s="30"/>
@@ -15705,28 +15705,28 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A624" s="49"/>
+      <c r="A624" s="51"/>
       <c r="B624" s="30"/>
       <c r="D624" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="49"/>
+      <c r="A625" s="51"/>
       <c r="B625" s="30"/>
       <c r="D625" s="14" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="49"/>
+      <c r="A626" s="51"/>
       <c r="B626" s="30"/>
       <c r="D626" s="14" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="49"/>
+      <c r="A627" s="51"/>
       <c r="B627" s="30"/>
       <c r="C627" s="14" t="s">
         <v>712</v>
@@ -15736,8 +15736,8 @@
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="49"/>
-      <c r="B628" s="51" t="s">
+      <c r="A628" s="51"/>
+      <c r="B628" s="50" t="s">
         <v>890</v>
       </c>
       <c r="D628" s="14" t="s">
@@ -15745,38 +15745,38 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="49"/>
-      <c r="B629" s="51"/>
+      <c r="A629" s="51"/>
+      <c r="B629" s="50"/>
       <c r="D629" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="49"/>
-      <c r="B630" s="51"/>
+      <c r="A630" s="51"/>
+      <c r="B630" s="50"/>
       <c r="D630" s="14" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="49"/>
-      <c r="B631" s="51"/>
+      <c r="A631" s="51"/>
+      <c r="B631" s="50"/>
       <c r="D631" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="49"/>
-      <c r="B632" s="51"/>
+      <c r="A632" s="51"/>
+      <c r="B632" s="50"/>
       <c r="D632" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="49">
+      <c r="A634" s="51">
         <v>43453</v>
       </c>
-      <c r="B634" s="51"/>
+      <c r="B634" s="50"/>
       <c r="C634" t="s">
         <v>888</v>
       </c>
@@ -15788,8 +15788,8 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="49"/>
-      <c r="B635" s="51"/>
+      <c r="A635" s="51"/>
+      <c r="B635" s="50"/>
       <c r="C635" t="s">
         <v>886</v>
       </c>
@@ -15798,14 +15798,14 @@
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="49"/>
-      <c r="B636" s="51"/>
+      <c r="A636" s="51"/>
+      <c r="B636" s="50"/>
       <c r="D636" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="49"/>
+      <c r="A637" s="51"/>
       <c r="B637" s="30"/>
       <c r="C637" s="14" t="s">
         <v>712</v>
@@ -15815,56 +15815,56 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="49"/>
+      <c r="A638" s="51"/>
       <c r="B638" s="30"/>
       <c r="D638" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="49"/>
+      <c r="A639" s="51"/>
       <c r="B639" s="30"/>
       <c r="D639" s="14" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="49"/>
+      <c r="A640" s="51"/>
       <c r="B640" s="30"/>
       <c r="D640" s="14" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A641" s="49"/>
+      <c r="A641" s="51"/>
       <c r="B641" s="30"/>
       <c r="D641" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A642" s="49"/>
+      <c r="A642" s="51"/>
       <c r="B642" s="29"/>
       <c r="D642" s="14" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A643" s="49"/>
+      <c r="A643" s="51"/>
       <c r="B643" s="4"/>
       <c r="D643" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A644" s="49"/>
+      <c r="A644" s="51"/>
       <c r="B644" s="4"/>
       <c r="D644" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="49">
+      <c r="A646" s="51">
         <v>43454</v>
       </c>
       <c r="B646" s="30"/>
@@ -15876,21 +15876,21 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A647" s="49"/>
+      <c r="A647" s="51"/>
       <c r="B647" s="30"/>
       <c r="D647" s="14" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A648" s="49"/>
+      <c r="A648" s="51"/>
       <c r="B648" s="30"/>
       <c r="D648" s="14" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A649" s="49"/>
+      <c r="A649" s="51"/>
       <c r="B649" s="30"/>
       <c r="C649" s="14" t="s">
         <v>712</v>
@@ -15900,49 +15900,49 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A650" s="49"/>
+      <c r="A650" s="51"/>
       <c r="B650" s="30"/>
       <c r="D650" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A651" s="49"/>
+      <c r="A651" s="51"/>
       <c r="B651" s="30"/>
       <c r="D651" s="14" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="49"/>
+      <c r="A652" s="51"/>
       <c r="B652" s="30"/>
       <c r="D652" s="14" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A653" s="49"/>
+      <c r="A653" s="51"/>
       <c r="B653" s="29"/>
       <c r="D653" s="14" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A654" s="49"/>
+      <c r="A654" s="51"/>
       <c r="B654" s="4"/>
       <c r="D654" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A655" s="49"/>
+      <c r="A655" s="51"/>
       <c r="B655" s="4"/>
       <c r="D655" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A657" s="49">
+      <c r="A657" s="51">
         <v>43455</v>
       </c>
       <c r="B657" s="30"/>
@@ -15954,21 +15954,21 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A658" s="49"/>
+      <c r="A658" s="51"/>
       <c r="B658" s="30"/>
       <c r="D658" s="14" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A659" s="49"/>
+      <c r="A659" s="51"/>
       <c r="B659" s="30"/>
       <c r="D659" s="14" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A660" s="49"/>
+      <c r="A660" s="51"/>
       <c r="B660" s="30"/>
       <c r="C660" s="14" t="s">
         <v>712</v>
@@ -15978,35 +15978,35 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A661" s="49"/>
+      <c r="A661" s="51"/>
       <c r="B661" s="30"/>
       <c r="D661" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="49"/>
+      <c r="A662" s="51"/>
       <c r="B662" s="30"/>
       <c r="D662" s="14" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A663" s="49"/>
+      <c r="A663" s="51"/>
       <c r="B663" s="4"/>
       <c r="D663" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A664" s="49"/>
+      <c r="A664" s="51"/>
       <c r="B664" s="4"/>
       <c r="D664" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="50">
+      <c r="A666" s="49">
         <v>43456</v>
       </c>
       <c r="B666" s="30"/>
@@ -16018,70 +16018,70 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A667" s="50"/>
+      <c r="A667" s="49"/>
       <c r="B667" s="30"/>
       <c r="D667" s="16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="50"/>
+      <c r="A668" s="49"/>
       <c r="B668" s="30"/>
       <c r="D668" s="14" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A669" s="50"/>
+      <c r="A669" s="49"/>
       <c r="B669" s="30"/>
       <c r="D669" s="14" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A670" s="50"/>
+      <c r="A670" s="49"/>
       <c r="B670" s="30"/>
       <c r="D670" s="14" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A671" s="50"/>
+      <c r="A671" s="49"/>
       <c r="B671" s="30"/>
       <c r="D671" s="14" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A672" s="50"/>
+      <c r="A672" s="49"/>
       <c r="B672" s="30"/>
       <c r="D672" s="14" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A673" s="50"/>
+      <c r="A673" s="49"/>
       <c r="B673" s="30"/>
       <c r="D673" s="14" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A674" s="50"/>
+      <c r="A674" s="49"/>
       <c r="B674" s="4"/>
       <c r="D674" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A675" s="50"/>
+      <c r="A675" s="49"/>
       <c r="B675" s="4"/>
       <c r="D675" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A677" s="50">
+      <c r="A677" s="49">
         <v>43457</v>
       </c>
       <c r="B677" s="30"/>
@@ -16093,70 +16093,70 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A678" s="50"/>
+      <c r="A678" s="49"/>
       <c r="B678" s="30"/>
       <c r="D678" s="16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A679" s="50"/>
+      <c r="A679" s="49"/>
       <c r="B679" s="30"/>
       <c r="D679" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="50"/>
+      <c r="A680" s="49"/>
       <c r="B680" s="30"/>
       <c r="D680" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A681" s="50"/>
+      <c r="A681" s="49"/>
       <c r="B681" s="30"/>
       <c r="D681" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A682" s="50"/>
+      <c r="A682" s="49"/>
       <c r="B682" s="30"/>
       <c r="D682" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A683" s="50"/>
+      <c r="A683" s="49"/>
       <c r="B683" s="30"/>
       <c r="D683" s="14" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A684" s="50"/>
+      <c r="A684" s="49"/>
       <c r="B684" s="29"/>
       <c r="D684" s="14" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="50"/>
+      <c r="A685" s="49"/>
       <c r="B685" s="4"/>
       <c r="D685" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A686" s="50"/>
+      <c r="A686" s="49"/>
       <c r="B686" s="4"/>
       <c r="D686" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A688" s="49">
+      <c r="A688" s="51">
         <v>43458</v>
       </c>
       <c r="B688" s="30"/>
@@ -16168,14 +16168,14 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A689" s="49"/>
+      <c r="A689" s="51"/>
       <c r="B689" s="30"/>
       <c r="D689" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A690" s="49"/>
+      <c r="A690" s="51"/>
       <c r="B690" s="30"/>
       <c r="C690" s="14" t="s">
         <v>712</v>
@@ -16185,35 +16185,35 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A691" s="49"/>
+      <c r="A691" s="51"/>
       <c r="B691" s="30"/>
       <c r="D691" s="14" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="49"/>
+      <c r="A692" s="51"/>
       <c r="B692" s="30"/>
       <c r="D692" s="14" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A693" s="49"/>
+      <c r="A693" s="51"/>
       <c r="B693" s="30"/>
       <c r="D693" s="14" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="49"/>
+      <c r="A694" s="51"/>
       <c r="B694" s="4"/>
       <c r="D694" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A696" s="49">
+      <c r="A696" s="51">
         <v>43459</v>
       </c>
       <c r="B696" s="30"/>
@@ -16225,14 +16225,14 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="49"/>
+      <c r="A697" s="51"/>
       <c r="B697" s="30"/>
       <c r="D697" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A698" s="49"/>
+      <c r="A698" s="51"/>
       <c r="B698" s="30"/>
       <c r="C698" s="14" t="s">
         <v>942</v>
@@ -16242,35 +16242,35 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="49"/>
+      <c r="A699" s="51"/>
       <c r="B699" s="30"/>
       <c r="D699" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A700" s="49"/>
+      <c r="A700" s="51"/>
       <c r="B700" s="30"/>
       <c r="D700" s="14" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A701" s="49"/>
+      <c r="A701" s="51"/>
       <c r="B701" s="4"/>
       <c r="D701" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A702" s="49"/>
+      <c r="A702" s="51"/>
       <c r="B702" s="4"/>
       <c r="D702" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="704" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A704" s="49">
+      <c r="A704" s="51">
         <v>43460</v>
       </c>
       <c r="B704" s="30" t="s">
@@ -16284,14 +16284,14 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A705" s="49"/>
+      <c r="A705" s="51"/>
       <c r="B705" s="30"/>
       <c r="D705" s="14" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A706" s="49"/>
+      <c r="A706" s="51"/>
       <c r="B706" s="30"/>
       <c r="C706" s="14" t="s">
         <v>942</v>
@@ -16301,28 +16301,28 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A707" s="49"/>
+      <c r="A707" s="51"/>
       <c r="B707" s="30"/>
       <c r="D707" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A708" s="49"/>
+      <c r="A708" s="51"/>
       <c r="B708" s="30"/>
       <c r="D708" s="14" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A709" s="49"/>
+      <c r="A709" s="51"/>
       <c r="B709" s="4"/>
       <c r="D709" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A711" s="49">
+      <c r="A711" s="51">
         <v>43461</v>
       </c>
       <c r="B711" s="30"/>
@@ -16334,14 +16334,14 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A712" s="49"/>
+      <c r="A712" s="51"/>
       <c r="B712" s="30"/>
       <c r="D712" s="14" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="49"/>
+      <c r="A713" s="51"/>
       <c r="B713" s="30"/>
       <c r="C713" s="14" t="s">
         <v>712</v>
@@ -16351,42 +16351,42 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="49"/>
+      <c r="A714" s="51"/>
       <c r="B714" s="30"/>
       <c r="D714" s="14" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A715" s="49"/>
+      <c r="A715" s="51"/>
       <c r="B715" s="30"/>
       <c r="D715" s="14" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="49"/>
+      <c r="A716" s="51"/>
       <c r="B716" s="30"/>
       <c r="D716" s="14" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A717" s="49"/>
+      <c r="A717" s="51"/>
       <c r="B717" s="4"/>
       <c r="D717" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="49"/>
+      <c r="A718" s="51"/>
       <c r="B718" s="4"/>
       <c r="D718" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="49">
+      <c r="A720" s="51">
         <v>43462</v>
       </c>
       <c r="B720" s="30"/>
@@ -16398,14 +16398,14 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A721" s="49"/>
+      <c r="A721" s="51"/>
       <c r="B721" s="30"/>
       <c r="D721" s="14" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A722" s="49"/>
+      <c r="A722" s="51"/>
       <c r="B722" s="30"/>
       <c r="C722" s="14" t="s">
         <v>712</v>
@@ -16415,28 +16415,28 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A723" s="49"/>
+      <c r="A723" s="51"/>
       <c r="B723" s="30"/>
       <c r="D723" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A724" s="49"/>
+      <c r="A724" s="51"/>
       <c r="B724" s="4"/>
       <c r="D724" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A725" s="49"/>
+      <c r="A725" s="51"/>
       <c r="B725" s="4"/>
       <c r="D725" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A727" s="50">
+      <c r="A727" s="49">
         <v>43463</v>
       </c>
       <c r="B727" s="30"/>
@@ -16448,7 +16448,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="50"/>
+      <c r="A728" s="49"/>
       <c r="B728" s="30"/>
       <c r="C728" s="14" t="s">
         <v>712</v>
@@ -16458,35 +16458,35 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A729" s="50"/>
+      <c r="A729" s="49"/>
       <c r="B729" s="30"/>
       <c r="D729" s="14" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A730" s="50"/>
+      <c r="A730" s="49"/>
       <c r="B730" s="30"/>
       <c r="D730" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A731" s="50"/>
+      <c r="A731" s="49"/>
       <c r="B731" s="4"/>
       <c r="D731" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A732" s="50"/>
+      <c r="A732" s="49"/>
       <c r="B732" s="4"/>
       <c r="D732" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A734" s="50">
+      <c r="A734" s="49">
         <v>43464</v>
       </c>
       <c r="B734" s="30"/>
@@ -16495,56 +16495,56 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A735" s="50"/>
+      <c r="A735" s="49"/>
       <c r="B735" s="30"/>
       <c r="D735" s="14" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A736" s="50"/>
+      <c r="A736" s="49"/>
       <c r="B736" s="30"/>
       <c r="D736" s="14" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A737" s="50"/>
+      <c r="A737" s="49"/>
       <c r="B737" s="30"/>
       <c r="D737" s="14" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A738" s="50"/>
+      <c r="A738" s="49"/>
       <c r="B738" s="30"/>
       <c r="D738" s="14" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A739" s="50"/>
+      <c r="A739" s="49"/>
       <c r="B739" s="29"/>
       <c r="D739" s="14" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A740" s="50"/>
+      <c r="A740" s="49"/>
       <c r="B740" s="4"/>
       <c r="D740" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A741" s="50"/>
+      <c r="A741" s="49"/>
       <c r="B741" s="4"/>
       <c r="D741" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A743" s="49">
+      <c r="A743" s="51">
         <v>43465</v>
       </c>
       <c r="B743" s="30"/>
@@ -16556,35 +16556,35 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A744" s="49"/>
+      <c r="A744" s="51"/>
       <c r="B744" s="30"/>
       <c r="D744" s="14" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A745" s="49"/>
+      <c r="A745" s="51"/>
       <c r="B745" s="30"/>
       <c r="D745" s="14" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" s="49"/>
+      <c r="A746" s="51"/>
       <c r="B746" s="30"/>
       <c r="D746" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="49"/>
+      <c r="A747" s="51"/>
       <c r="B747" s="4"/>
       <c r="D747" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A748" s="49"/>
+      <c r="A748" s="51"/>
       <c r="B748" s="4" t="s">
         <v>961</v>
       </c>
@@ -16593,7 +16593,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A750" s="49">
+      <c r="A750" s="51">
         <v>43466</v>
       </c>
       <c r="B750" s="30"/>
@@ -16602,35 +16602,35 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A751" s="49"/>
+      <c r="A751" s="51"/>
       <c r="B751" s="30"/>
       <c r="D751" s="14" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A752" s="49"/>
+      <c r="A752" s="51"/>
       <c r="B752" s="30"/>
       <c r="D752" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A753" s="49"/>
+      <c r="A753" s="51"/>
       <c r="B753" s="30"/>
       <c r="D753" s="14" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A754" s="49"/>
+      <c r="A754" s="51"/>
       <c r="B754" s="4"/>
       <c r="D754" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A755" s="49"/>
+      <c r="A755" s="51"/>
       <c r="B755" s="4" t="s">
         <v>962</v>
       </c>
@@ -16639,7 +16639,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A757" s="49">
+      <c r="A757" s="51">
         <v>43467</v>
       </c>
       <c r="B757" s="30" t="s">
@@ -16653,7 +16653,7 @@
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A758" s="49"/>
+      <c r="A758" s="51"/>
       <c r="B758" s="30" t="s">
         <v>969</v>
       </c>
@@ -16662,7 +16662,7 @@
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A759" s="49"/>
+      <c r="A759" s="51"/>
       <c r="B759" s="30" t="s">
         <v>989</v>
       </c>
@@ -16674,7 +16674,7 @@
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A760" s="49"/>
+      <c r="A760" s="51"/>
       <c r="B760" s="30" t="s">
         <v>990</v>
       </c>
@@ -16683,19 +16683,19 @@
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A761" s="49"/>
+      <c r="A761" s="51"/>
       <c r="B761" s="4"/>
       <c r="D761" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A762" s="49"/>
+      <c r="A762" s="51"/>
       <c r="B762" s="4"/>
       <c r="D762" s="14"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A764" s="49">
+      <c r="A764" s="51">
         <v>43468</v>
       </c>
       <c r="B764" s="30" t="s">
@@ -16709,14 +16709,14 @@
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A765" s="49"/>
+      <c r="A765" s="51"/>
       <c r="B765" s="30"/>
       <c r="D765" s="14" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A766" s="49"/>
+      <c r="A766" s="51"/>
       <c r="B766" s="30"/>
       <c r="C766" s="14" t="s">
         <v>712</v>
@@ -16726,26 +16726,26 @@
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A767" s="49"/>
+      <c r="A767" s="51"/>
       <c r="B767" s="30"/>
       <c r="D767" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="49"/>
+      <c r="A768" s="51"/>
       <c r="B768" s="4"/>
       <c r="D768" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="49"/>
+      <c r="A769" s="51"/>
       <c r="B769" s="4"/>
       <c r="D769" s="14"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A771" s="49">
+      <c r="A771" s="51">
         <v>43469</v>
       </c>
       <c r="B771" s="30" t="s">
@@ -16759,7 +16759,7 @@
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A772" s="49"/>
+      <c r="A772" s="51"/>
       <c r="B772" s="30"/>
       <c r="C772" s="14" t="s">
         <v>712</v>
@@ -16769,21 +16769,21 @@
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A773" s="49"/>
+      <c r="A773" s="51"/>
       <c r="B773" s="30"/>
       <c r="D773" s="14" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A774" s="49"/>
+      <c r="A774" s="51"/>
       <c r="B774" s="4"/>
       <c r="D774" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A776" s="50">
+      <c r="A776" s="49">
         <v>43470</v>
       </c>
       <c r="B776" s="30"/>
@@ -16795,42 +16795,42 @@
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A777" s="50"/>
+      <c r="A777" s="49"/>
       <c r="B777" s="30"/>
       <c r="D777" s="14" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A778" s="50"/>
+      <c r="A778" s="49"/>
       <c r="B778" s="30"/>
       <c r="D778" s="14" t="s">
       